--- a/platform_scrapper/data/cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/cannabis_used_IDs.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11944" uniqueCount="4601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11946" uniqueCount="4602">
   <si>
     <t>Municipality or First Nation</t>
   </si>
@@ -13820,6 +13820,9 @@
   </si>
   <si>
     <t>636536f141c9a200b6e1ab48</t>
+  </si>
+  <si>
+    <t>Custom website  / No ecommerce provider</t>
   </si>
 </sst>
 </file>
@@ -14296,18 +14299,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1703"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E239" sqref="E239"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A238" sqref="A1:XFD238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.88671875" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="31.77734375" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" customWidth="1"/>
+    <col min="5" max="5" width="37.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="12" customWidth="1"/>
     <col min="7" max="7" width="25" style="1" customWidth="1"/>
     <col min="8" max="8" width="26.77734375" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" style="6" customWidth="1"/>
@@ -14377,11 +14380,17 @@
       <c r="E2" t="s">
         <v>21</v>
       </c>
+      <c r="F2" s="12" t="s">
+        <v>4601</v>
+      </c>
       <c r="H2" t="s">
         <v>22</v>
       </c>
       <c r="I2">
         <v>15194290202</v>
+      </c>
+      <c r="J2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">

--- a/platform_scrapper/data/cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/cannabis_used_IDs.xlsx
@@ -13,11 +13,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$1:$G$1703</definedName>
   </definedNames>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11946" uniqueCount="4602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11947" uniqueCount="4602">
   <si>
     <t>Municipality or First Nation</t>
   </si>
@@ -13912,7 +13913,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13933,6 +13934,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13966,7 +13979,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -13996,6 +14009,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="4" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -14299,8 +14320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1703"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A238" sqref="A1:XFD238"/>
+    <sheetView tabSelected="1" topLeftCell="A186" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C201" sqref="C201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14309,7 +14330,7 @@
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="31.77734375" customWidth="1"/>
     <col min="4" max="4" width="7.33203125" customWidth="1"/>
-    <col min="5" max="5" width="37.6640625" customWidth="1"/>
+    <col min="5" max="5" width="27.5546875" customWidth="1"/>
     <col min="6" max="6" width="15.33203125" style="12" customWidth="1"/>
     <col min="7" max="7" width="25" style="1" customWidth="1"/>
     <col min="8" max="8" width="26.77734375" customWidth="1"/>
@@ -14364,32 +14385,33 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="20" t="s">
         <v>4601</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2" s="21"/>
+      <c r="H2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="19">
         <v>15194290202</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="19" t="s">
         <v>53</v>
       </c>
     </row>
@@ -14422,35 +14444,35 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:14" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="21" t="s">
         <v>4492</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="19">
         <v>12894820464</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="19" t="s">
         <v>17</v>
       </c>
     </row>
@@ -14718,64 +14740,67 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:14" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="D14" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="21" t="s">
         <v>4497</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="19">
         <v>16136240027</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="J14" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D15" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="21" t="s">
         <v>4498</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="19">
         <v>14167920808</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="19" t="s">
         <v>17</v>
       </c>
     </row>
@@ -14837,35 +14862,35 @@
         <v>17057224420</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="18" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="D18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="D18" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="21" t="s">
         <v>4502</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="19" t="s">
         <v>4501</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="19">
         <v>16479552837</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="19" t="s">
         <v>53</v>
       </c>
     </row>
@@ -15087,58 +15112,61 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="26" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="D26" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="D26" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H26" t="s">
+      <c r="G26" s="21"/>
+      <c r="H26" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="19">
         <v>14162557002</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="27" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="D27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="D27" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="H27" t="s">
+      <c r="F27" s="20"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="19">
         <v>16138178182</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="19" t="s">
         <v>53</v>
       </c>
     </row>
@@ -15174,163 +15202,163 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="29" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="D29" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="D29" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F29" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="21" t="s">
         <v>4509</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="19">
         <v>17057130433</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="30" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="D30" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="D30" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F30" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="21" t="s">
         <v>4510</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="19">
         <v>18072852057</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" s="19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="31" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="D31" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="D31" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="F31" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" s="21" t="s">
         <v>4511</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="19">
         <v>19052405545</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="32" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="D32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="D32" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F32" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="21" t="s">
         <v>4512</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="19">
         <v>12266470108</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J32" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="33" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="D33" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="D33" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="F33" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" s="21" t="s">
         <v>4513</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="19">
         <v>15198861111</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J33" s="19" t="s">
         <v>53</v>
       </c>
     </row>
@@ -15366,125 +15394,127 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="35" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="D35" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="D35" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="F35" s="12" t="s">
+      <c r="F35" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" s="21" t="s">
         <v>4516</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="19" t="s">
         <v>4515</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="19">
         <v>19057028828</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J35" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="36" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="D36" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="D36" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="F36" s="12" t="s">
+      <c r="F36" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" s="21" t="s">
         <v>4517</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="19">
         <v>16133929888</v>
       </c>
-      <c r="J36" t="s">
+      <c r="J36" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="37" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="D37" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="D37" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="F37" s="12" t="s">
+      <c r="F37" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H37" t="s">
+      <c r="G37" s="21"/>
+      <c r="H37" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="19">
         <v>16135964738</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J37" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="38" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="D38" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="D38" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="F38" s="12" t="s">
+      <c r="F38" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H38" t="s">
+      <c r="G38" s="21"/>
+      <c r="H38" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="19">
         <v>12267357444</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J38" s="19" t="s">
         <v>53</v>
       </c>
     </row>
@@ -15517,32 +15547,33 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row r="40" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="D40" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="D40" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="F40" s="12" t="s">
+      <c r="F40" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H40" t="s">
+      <c r="G40" s="21"/>
+      <c r="H40" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="19">
         <v>15196060756</v>
       </c>
-      <c r="J40" t="s">
+      <c r="J40" s="19" t="s">
         <v>53</v>
       </c>
     </row>
@@ -15624,163 +15655,163 @@
         <v>14165860420</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row r="44" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="D44" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="D44" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="F44" s="12" t="s">
+      <c r="F44" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G44" s="21" t="s">
         <v>4520</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="19">
         <v>15197580000</v>
       </c>
-      <c r="J44" t="s">
+      <c r="J44" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+    <row r="45" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="D45" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="D45" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="F45" s="12" t="s">
+      <c r="F45" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G45" s="21" t="s">
         <v>4520</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="19">
         <v>18072238997</v>
       </c>
-      <c r="J45" t="s">
+      <c r="J45" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    <row r="46" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="D46" t="s">
-        <v>14</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="D46" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="F46" s="12" t="s">
+      <c r="F46" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G46" s="21" t="s">
         <v>4520</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="19">
         <v>14167408886</v>
       </c>
-      <c r="J46" t="s">
+      <c r="J46" s="19" t="s">
         <v>4521</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+    <row r="47" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="D47" t="s">
-        <v>14</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="D47" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="F47" s="12" t="s">
+      <c r="F47" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G47" s="21" t="s">
         <v>4520</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="19">
         <v>19055230606</v>
       </c>
-      <c r="J47" t="s">
+      <c r="J47" s="19" t="s">
         <v>4521</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+    <row r="48" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="D48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="D48" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="F48" s="12" t="s">
+      <c r="F48" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G48" s="21" t="s">
         <v>4520</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="19">
         <v>17057428080</v>
       </c>
-      <c r="J48" t="s">
+      <c r="J48" s="19" t="s">
         <v>4521</v>
       </c>
     </row>
@@ -15807,61 +15838,63 @@
         <v>16137336664</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="50" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="D50" t="s">
-        <v>14</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="D50" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="F50" s="12" t="s">
+      <c r="F50" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H50" t="s">
+      <c r="G50" s="21"/>
+      <c r="H50" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="19">
         <v>16132582414</v>
       </c>
-      <c r="J50" t="s">
+      <c r="J50" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+    <row r="51" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="D51" t="s">
-        <v>14</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="D51" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="F51" s="12" t="s">
+      <c r="F51" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H51" t="s">
+      <c r="G51" s="21"/>
+      <c r="H51" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="19">
         <v>16135964991</v>
       </c>
-      <c r="J51" t="s">
+      <c r="J51" s="19" t="s">
         <v>53</v>
       </c>
     </row>
@@ -15926,32 +15959,33 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+    <row r="54" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="D54" t="s">
-        <v>14</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="D54" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="F54" s="12" t="s">
+      <c r="F54" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H54" t="s">
+      <c r="G54" s="21"/>
+      <c r="H54" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="19">
         <v>14165046420</v>
       </c>
-      <c r="J54" t="s">
+      <c r="J54" s="19" t="s">
         <v>53</v>
       </c>
     </row>
@@ -15981,157 +16015,159 @@
         <v>14165046420</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+    <row r="56" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="D56" t="s">
-        <v>14</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="D56" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="F56" s="12" t="s">
+      <c r="F56" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="G56" s="21" t="s">
         <v>4522</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H56" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="19">
         <v>14378804574</v>
       </c>
-      <c r="J56" t="s">
+      <c r="J56" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+    <row r="57" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="D57" t="s">
-        <v>14</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="D57" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="F57" s="12" t="s">
+      <c r="F57" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G57" s="17" t="s">
+      <c r="G57" s="22" t="s">
         <v>4523</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H57" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="19">
         <v>18335186596</v>
       </c>
-      <c r="J57" t="s">
+      <c r="J57" s="19" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+    <row r="58" spans="1:10" s="23" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="D58" t="s">
-        <v>14</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="D58" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="F58" s="12" t="s">
+      <c r="F58" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="G58" s="25" t="s">
         <v>4524</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H58" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="23">
         <v>15195419360</v>
       </c>
-      <c r="J58" t="s">
+      <c r="J58" s="23" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+    <row r="59" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="D59" t="s">
-        <v>14</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="D59" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="F59" s="12" t="s">
+      <c r="F59" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H59" t="s">
+      <c r="G59" s="21"/>
+      <c r="H59" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="19">
         <v>15192071636</v>
       </c>
-      <c r="J59" t="s">
+      <c r="J59" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+    <row r="60" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="F60" s="12" t="s">
+      <c r="F60" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H60" t="s">
+      <c r="G60" s="21"/>
+      <c r="H60" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="19">
         <v>19056462000</v>
       </c>
-      <c r="J60" t="s">
+      <c r="J60" s="19" t="s">
         <v>53</v>
       </c>
     </row>
@@ -16167,128 +16203,129 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+    <row r="62" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="D62" t="s">
-        <v>14</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="D62" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="F62" s="12" t="s">
+      <c r="F62" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G62" s="17" t="s">
+      <c r="G62" s="22" t="s">
         <v>4526</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H62" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="19">
         <v>14165337523</v>
       </c>
-      <c r="J62" t="s">
+      <c r="J62" s="19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+    <row r="63" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="D63" t="s">
-        <v>14</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="D63" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="F63" s="12" t="s">
+      <c r="F63" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H63" t="s">
+      <c r="G63" s="21"/>
+      <c r="H63" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="19">
         <v>12895160088</v>
       </c>
-      <c r="J63" t="s">
+      <c r="J63" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+    <row r="64" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="D64" t="s">
-        <v>14</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="D64" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="F64" s="12" t="s">
+      <c r="F64" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="G64" s="21" t="s">
         <v>4527</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H64" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="19">
         <v>12898208432</v>
       </c>
-      <c r="J64" t="s">
+      <c r="J64" s="19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+    <row r="65" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="D65" t="s">
-        <v>14</v>
-      </c>
-      <c r="E65" t="s">
+      <c r="D65" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="F65" s="12" t="s">
+      <c r="F65" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="G65" s="21" t="s">
         <v>4528</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H65" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="19">
         <v>12898206370</v>
       </c>
-      <c r="J65" t="s">
+      <c r="J65" s="19" t="s">
         <v>75</v>
       </c>
     </row>
@@ -16321,64 +16358,65 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+    <row r="67" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="D67" t="s">
-        <v>14</v>
-      </c>
-      <c r="E67" t="s">
+      <c r="D67" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="F67" s="20"/>
+      <c r="G67" s="21" t="s">
         <v>4529</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H67" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="19">
         <v>17053785323</v>
       </c>
-      <c r="J67" t="s">
+      <c r="J67" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+    <row r="68" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="D68" t="s">
-        <v>14</v>
-      </c>
-      <c r="E68" t="s">
+      <c r="D68" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="F68" s="12" t="s">
+      <c r="F68" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="G68" s="21" t="s">
         <v>4530</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H68" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="19">
         <v>17059801444</v>
       </c>
-      <c r="J68" t="s">
+      <c r="J68" s="19" t="s">
         <v>17</v>
       </c>
     </row>
@@ -16466,125 +16504,127 @@
         <v>14162037809</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+    <row r="72" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="D72" t="s">
-        <v>14</v>
-      </c>
-      <c r="E72" t="s">
+      <c r="D72" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E72" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="F72" s="12" t="s">
+      <c r="F72" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="G72" s="21" t="s">
         <v>4532</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H72" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="I72">
+      <c r="I72" s="19">
         <v>17052500187</v>
       </c>
-      <c r="J72" t="s">
+      <c r="J72" s="19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+    <row r="73" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="D73" t="s">
-        <v>14</v>
-      </c>
-      <c r="E73" t="s">
+      <c r="D73" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="F73" s="12" t="s">
+      <c r="F73" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="G73" s="21" t="s">
         <v>4533</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H73" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I73">
+      <c r="I73" s="19">
         <v>15192157058</v>
       </c>
-      <c r="J73" t="s">
+      <c r="J73" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+    <row r="74" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="D74" t="s">
-        <v>14</v>
-      </c>
-      <c r="E74" t="s">
+      <c r="D74" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="F74" s="12" t="s">
+      <c r="F74" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H74" t="s">
+      <c r="G74" s="21"/>
+      <c r="H74" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="I74">
+      <c r="I74" s="19">
         <v>12894560212</v>
       </c>
-      <c r="J74" t="s">
+      <c r="J74" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+    <row r="75" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="D75" t="s">
-        <v>14</v>
-      </c>
-      <c r="E75" t="s">
+      <c r="D75" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="F75" s="12" t="s">
+      <c r="F75" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H75" t="s">
+      <c r="G75" s="21"/>
+      <c r="H75" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="19">
         <v>12894560212</v>
       </c>
-      <c r="J75" t="s">
+      <c r="J75" s="19" t="s">
         <v>53</v>
       </c>
     </row>
@@ -16713,67 +16753,67 @@
         <v>75</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+    <row r="80" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="19" t="s">
         <v>296</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="19" t="s">
         <v>297</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="19" t="s">
         <v>298</v>
       </c>
-      <c r="D80" t="s">
-        <v>14</v>
-      </c>
-      <c r="E80" t="s">
+      <c r="D80" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="F80" s="12" t="s">
+      <c r="F80" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="G80" s="21" t="s">
         <v>4535</v>
       </c>
-      <c r="H80" t="s">
+      <c r="H80" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="I80">
+      <c r="I80" s="19">
         <v>16139353717</v>
       </c>
-      <c r="J80" t="s">
+      <c r="J80" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+    <row r="81" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="19" t="s">
         <v>300</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="19" t="s">
         <v>302</v>
       </c>
-      <c r="D81" t="s">
-        <v>14</v>
-      </c>
-      <c r="E81" t="s">
+      <c r="D81" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="F81" s="12" t="s">
+      <c r="F81" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="G81" s="21" t="s">
         <v>4536</v>
       </c>
-      <c r="H81" t="s">
+      <c r="H81" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="I81">
+      <c r="I81" s="19">
         <v>16133130555</v>
       </c>
-      <c r="J81" t="s">
+      <c r="J81" s="19" t="s">
         <v>53</v>
       </c>
     </row>
@@ -16803,163 +16843,163 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+    <row r="83" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="19" t="s">
         <v>306</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="19" t="s">
         <v>308</v>
       </c>
-      <c r="D83" t="s">
-        <v>14</v>
-      </c>
-      <c r="E83" t="s">
+      <c r="D83" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E83" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="F83" s="12" t="s">
+      <c r="F83" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="G83" s="21" t="s">
         <v>4537</v>
       </c>
-      <c r="H83" t="s">
+      <c r="H83" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I83">
+      <c r="I83" s="19">
         <v>14164213746</v>
       </c>
-      <c r="J83" t="s">
+      <c r="J83" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+    <row r="84" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="19" t="s">
         <v>310</v>
       </c>
-      <c r="D84" t="s">
-        <v>14</v>
-      </c>
-      <c r="E84" t="s">
+      <c r="D84" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E84" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="F84" s="12" t="s">
+      <c r="F84" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G84" s="1" t="s">
+      <c r="G84" s="21" t="s">
         <v>4538</v>
       </c>
-      <c r="H84" t="s">
+      <c r="H84" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I84">
+      <c r="I84" s="19">
         <v>14162554567</v>
       </c>
-      <c r="J84" t="s">
+      <c r="J84" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+    <row r="85" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="D85" t="s">
-        <v>14</v>
-      </c>
-      <c r="E85" t="s">
+      <c r="D85" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E85" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="F85" s="12" t="s">
+      <c r="F85" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G85" s="1" t="s">
+      <c r="G85" s="21" t="s">
         <v>4544</v>
       </c>
-      <c r="H85" t="s">
+      <c r="H85" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="I85">
+      <c r="I85" s="19">
         <v>17057421110</v>
       </c>
-      <c r="J85" t="s">
+      <c r="J85" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+    <row r="86" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="19" t="s">
         <v>313</v>
       </c>
-      <c r="D86" t="s">
-        <v>14</v>
-      </c>
-      <c r="E86" t="s">
+      <c r="D86" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E86" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="F86" s="12" t="s">
+      <c r="F86" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G86" s="1" t="s">
+      <c r="G86" s="21" t="s">
         <v>4539</v>
       </c>
-      <c r="H86" t="s">
+      <c r="H86" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I86">
+      <c r="I86" s="19">
         <v>14162858558</v>
       </c>
-      <c r="J86" t="s">
+      <c r="J86" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+    <row r="87" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="D87" t="s">
-        <v>14</v>
-      </c>
-      <c r="E87" t="s">
+      <c r="D87" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E87" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="F87" s="12" t="s">
+      <c r="F87" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G87" s="1" t="s">
+      <c r="G87" s="21" t="s">
         <v>4540</v>
       </c>
-      <c r="H87" t="s">
+      <c r="H87" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="I87">
+      <c r="I87" s="19">
         <v>14164081111</v>
       </c>
-      <c r="J87" t="s">
+      <c r="J87" s="19" t="s">
         <v>53</v>
       </c>
     </row>
@@ -17024,64 +17064,65 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+    <row r="90" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="19" t="s">
         <v>320</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="19" t="s">
         <v>321</v>
       </c>
-      <c r="D90" t="s">
-        <v>14</v>
-      </c>
-      <c r="E90" t="s">
+      <c r="D90" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E90" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="F90" s="12" t="s">
+      <c r="F90" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G90" s="1" t="s">
+      <c r="G90" s="21" t="s">
         <v>4542</v>
       </c>
-      <c r="H90" t="s">
+      <c r="H90" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I90">
+      <c r="I90" s="19">
         <v>17054785499</v>
       </c>
-      <c r="J90" t="s">
+      <c r="J90" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
+    <row r="91" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="19" t="s">
         <v>323</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="19" t="s">
         <v>324</v>
       </c>
-      <c r="D91" t="s">
-        <v>14</v>
-      </c>
-      <c r="E91" t="s">
+      <c r="D91" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E91" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="F91" s="12" t="s">
+      <c r="F91" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H91" t="s">
+      <c r="G91" s="21"/>
+      <c r="H91" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I91">
+      <c r="I91" s="19">
         <v>18073435520</v>
       </c>
-      <c r="J91" t="s">
+      <c r="J91" s="19" t="s">
         <v>53</v>
       </c>
     </row>
@@ -17103,93 +17144,95 @@
         <v>19164226777</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+    <row r="93" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="19" t="s">
         <v>327</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="D93" t="s">
-        <v>14</v>
-      </c>
-      <c r="E93" t="s">
+      <c r="D93" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E93" s="19" t="s">
         <v>329</v>
       </c>
-      <c r="H93" t="s">
+      <c r="F93" s="20"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I93">
+      <c r="I93" s="19">
         <v>16476275609</v>
       </c>
-      <c r="J93" t="s">
+      <c r="J93" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
+    <row r="94" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="D94" t="s">
-        <v>14</v>
-      </c>
-      <c r="E94" t="s">
+      <c r="D94" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E94" s="19" t="s">
         <v>332</v>
       </c>
-      <c r="F94" s="12" t="s">
+      <c r="F94" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G94" s="1" t="s">
+      <c r="G94" s="21" t="s">
         <v>4545</v>
       </c>
-      <c r="H94" t="s">
+      <c r="H94" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I94">
+      <c r="I94" s="19">
         <v>15195698220</v>
       </c>
-      <c r="J94" t="s">
+      <c r="J94" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
+    <row r="95" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="19" t="s">
         <v>333</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="D95" t="s">
-        <v>14</v>
-      </c>
-      <c r="E95" t="s">
+      <c r="D95" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E95" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="F95" s="12" t="s">
+      <c r="F95" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G95" s="1" t="s">
+      <c r="G95" s="21" t="s">
         <v>4543</v>
       </c>
-      <c r="H95" t="s">
+      <c r="H95" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I95">
+      <c r="I95" s="19">
         <v>15194320888</v>
       </c>
-      <c r="J95" t="s">
+      <c r="J95" s="19" t="s">
         <v>53</v>
       </c>
     </row>
@@ -17254,29 +17297,31 @@
         <v>75</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+    <row r="98" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="19" t="s">
         <v>345</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="19" t="s">
         <v>346</v>
       </c>
-      <c r="D98" t="s">
-        <v>14</v>
-      </c>
-      <c r="E98" t="s">
+      <c r="D98" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E98" s="19" t="s">
         <v>347</v>
       </c>
-      <c r="H98" t="s">
+      <c r="F98" s="20"/>
+      <c r="G98" s="21"/>
+      <c r="H98" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="I98">
+      <c r="I98" s="19">
         <v>15197139116</v>
       </c>
-      <c r="J98" t="s">
+      <c r="J98" s="19" t="s">
         <v>53</v>
       </c>
     </row>
@@ -17306,160 +17351,161 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
+    <row r="100" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="19" t="s">
         <v>350</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="19" t="s">
         <v>351</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="19" t="s">
         <v>352</v>
       </c>
-      <c r="D100" t="s">
-        <v>14</v>
-      </c>
-      <c r="E100" t="s">
+      <c r="D100" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E100" s="19" t="s">
         <v>353</v>
       </c>
-      <c r="F100" s="12" t="s">
+      <c r="F100" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G100" s="1" t="s">
+      <c r="G100" s="21" t="s">
         <v>4547</v>
       </c>
-      <c r="H100" t="s">
+      <c r="H100" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I100">
+      <c r="I100" s="19">
         <v>17059690808</v>
       </c>
-      <c r="J100" t="s">
+      <c r="J100" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
+    <row r="101" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="19" t="s">
         <v>354</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="19" t="s">
         <v>355</v>
       </c>
-      <c r="D101" t="s">
-        <v>14</v>
-      </c>
-      <c r="E101" t="s">
+      <c r="D101" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E101" s="19" t="s">
         <v>353</v>
       </c>
-      <c r="F101" s="12" t="s">
+      <c r="F101" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G101" s="1" t="s">
+      <c r="G101" s="21" t="s">
         <v>4548</v>
       </c>
-      <c r="H101" t="s">
+      <c r="H101" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="I101">
+      <c r="I101" s="19">
         <v>14166350420</v>
       </c>
-      <c r="J101" t="s">
+      <c r="J101" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
+    <row r="102" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="19" t="s">
         <v>356</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="19" t="s">
         <v>357</v>
       </c>
-      <c r="D102" t="s">
-        <v>14</v>
-      </c>
-      <c r="E102" t="s">
+      <c r="D102" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E102" s="19" t="s">
         <v>353</v>
       </c>
-      <c r="F102" s="12" t="s">
+      <c r="F102" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G102" s="1" t="s">
+      <c r="G102" s="21" t="s">
         <v>4549</v>
       </c>
-      <c r="H102" t="s">
+      <c r="H102" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I102">
+      <c r="I102" s="19">
         <v>17057452885</v>
       </c>
-      <c r="J102" t="s">
+      <c r="J102" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
+    <row r="103" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="19" t="s">
         <v>358</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="19" t="s">
         <v>359</v>
       </c>
-      <c r="D103" t="s">
-        <v>14</v>
-      </c>
-      <c r="E103" t="s">
+      <c r="D103" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E103" s="19" t="s">
         <v>353</v>
       </c>
-      <c r="F103" s="12" t="s">
+      <c r="F103" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G103" s="1" t="s">
+      <c r="G103" s="21" t="s">
         <v>4550</v>
       </c>
-      <c r="H103" t="s">
+      <c r="H103" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="I103">
+      <c r="I103" s="19">
         <v>17059493288</v>
       </c>
-      <c r="J103" t="s">
+      <c r="J103" s="19" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
+    <row r="104" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="19" t="s">
         <v>360</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="19" t="s">
         <v>361</v>
       </c>
-      <c r="D104" t="s">
-        <v>14</v>
-      </c>
-      <c r="E104" t="s">
+      <c r="D104" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E104" s="19" t="s">
         <v>362</v>
       </c>
-      <c r="F104" s="12" t="s">
+      <c r="F104" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H104" t="s">
+      <c r="G104" s="21"/>
+      <c r="H104" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I104">
+      <c r="I104" s="19">
         <v>16137310420</v>
       </c>
-      <c r="J104" t="s">
+      <c r="J104" s="19" t="s">
         <v>53</v>
       </c>
     </row>
@@ -17508,7 +17554,7 @@
       <c r="E106" t="s">
         <v>4552</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F106" s="12" t="s">
         <v>4531</v>
       </c>
       <c r="H106" t="s">
@@ -17518,67 +17564,67 @@
         <v>16133471010</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
+    <row r="107" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="19" t="s">
         <v>366</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="19" t="s">
         <v>369</v>
       </c>
-      <c r="D107" t="s">
-        <v>14</v>
-      </c>
-      <c r="E107" t="s">
+      <c r="D107" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E107" s="19" t="s">
         <v>368</v>
       </c>
-      <c r="F107" s="12" t="s">
+      <c r="F107" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G107" s="1" t="s">
+      <c r="G107" s="21" t="s">
         <v>4553</v>
       </c>
-      <c r="H107" t="s">
+      <c r="H107" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="I107">
+      <c r="I107" s="19">
         <v>16136803420</v>
       </c>
-      <c r="J107" t="s">
+      <c r="J107" s="19" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
+    <row r="108" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="19" t="s">
         <v>336</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="19" t="s">
         <v>371</v>
       </c>
-      <c r="D108" t="s">
-        <v>14</v>
-      </c>
-      <c r="E108" t="s">
+      <c r="D108" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E108" s="19" t="s">
         <v>372</v>
       </c>
-      <c r="F108" s="12" t="s">
+      <c r="F108" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G108" s="1" t="s">
+      <c r="G108" s="21" t="s">
         <v>4554</v>
       </c>
-      <c r="H108" t="s">
+      <c r="H108" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I108">
+      <c r="I108" s="19">
         <v>15199403171</v>
       </c>
-      <c r="J108" t="s">
+      <c r="J108" s="19" t="s">
         <v>53</v>
       </c>
     </row>
@@ -17666,32 +17712,33 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
+    <row r="112" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="19" t="s">
         <v>382</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="19" t="s">
         <v>383</v>
       </c>
-      <c r="D112" t="s">
-        <v>14</v>
-      </c>
-      <c r="E112" t="s">
+      <c r="D112" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E112" s="19" t="s">
         <v>384</v>
       </c>
-      <c r="F112" s="12" t="s">
+      <c r="F112" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H112" t="s">
+      <c r="G112" s="21"/>
+      <c r="H112" s="19" t="s">
         <v>385</v>
       </c>
-      <c r="I112">
+      <c r="I112" s="19">
         <v>14163623003</v>
       </c>
-      <c r="J112" t="s">
+      <c r="J112" s="19" t="s">
         <v>53</v>
       </c>
     </row>
@@ -17721,61 +17768,63 @@
         <v>75</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
+    <row r="114" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="19" t="s">
         <v>389</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="19" t="s">
         <v>390</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="19" t="s">
         <v>391</v>
       </c>
-      <c r="D114" t="s">
-        <v>14</v>
-      </c>
-      <c r="E114" t="s">
+      <c r="D114" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E114" s="19" t="s">
         <v>392</v>
       </c>
-      <c r="F114" s="12" t="s">
+      <c r="F114" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H114" t="s">
+      <c r="G114" s="21"/>
+      <c r="H114" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I114">
+      <c r="I114" s="19">
         <v>17057995000</v>
       </c>
-      <c r="J114" t="s">
+      <c r="J114" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
+    <row r="115" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="19" t="s">
         <v>393</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="19" t="s">
         <v>394</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="19" t="s">
         <v>395</v>
       </c>
-      <c r="D115" t="s">
-        <v>14</v>
-      </c>
-      <c r="E115" t="s">
+      <c r="D115" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E115" s="19" t="s">
         <v>396</v>
       </c>
-      <c r="F115" s="12" t="s">
+      <c r="F115" s="20" t="s">
         <v>4556</v>
       </c>
-      <c r="H115" t="s">
+      <c r="G115" s="21"/>
+      <c r="H115" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I115">
+      <c r="I115" s="19">
         <v>17054821716</v>
       </c>
-      <c r="J115" t="s">
+      <c r="J115" s="19" t="s">
         <v>53</v>
       </c>
     </row>
@@ -17808,64 +17857,65 @@
         <v>17</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
+    <row r="117" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="19" t="s">
         <v>401</v>
       </c>
-      <c r="D117" t="s">
-        <v>14</v>
-      </c>
-      <c r="E117" t="s">
+      <c r="D117" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E117" s="19" t="s">
         <v>402</v>
       </c>
-      <c r="F117" s="12" t="s">
+      <c r="F117" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G117" s="1" t="s">
+      <c r="G117" s="21" t="s">
         <v>4557</v>
       </c>
-      <c r="H117" t="s">
+      <c r="H117" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I117">
+      <c r="I117" s="19">
         <v>14167890966</v>
       </c>
-      <c r="J117" t="s">
+      <c r="J117" s="19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
+    <row r="118" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="19" t="s">
         <v>403</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="19" t="s">
         <v>404</v>
       </c>
-      <c r="D118" t="s">
-        <v>14</v>
-      </c>
-      <c r="E118" t="s">
+      <c r="D118" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E118" s="19" t="s">
         <v>405</v>
       </c>
-      <c r="F118" s="12" t="s">
+      <c r="F118" s="20" t="s">
         <v>4556</v>
       </c>
-      <c r="H118" t="s">
+      <c r="G118" s="21"/>
+      <c r="H118" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I118">
+      <c r="I118" s="19">
         <v>14162535253</v>
       </c>
-      <c r="J118" t="s">
+      <c r="J118" s="19" t="s">
         <v>53</v>
       </c>
     </row>
@@ -17898,61 +17948,63 @@
         <v>17</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
+    <row r="120" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="19" t="s">
         <v>410</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="19" t="s">
         <v>411</v>
       </c>
-      <c r="D120" t="s">
-        <v>14</v>
-      </c>
-      <c r="E120" t="s">
+      <c r="D120" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E120" s="19" t="s">
         <v>412</v>
       </c>
-      <c r="F120" s="12" t="s">
+      <c r="F120" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H120" t="s">
+      <c r="G120" s="21"/>
+      <c r="H120" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I120">
+      <c r="I120" s="19">
         <v>14169292525</v>
       </c>
-      <c r="J120" t="s">
+      <c r="J120" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
+    <row r="121" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="19" t="s">
         <v>413</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="19" t="s">
         <v>414</v>
       </c>
-      <c r="D121" t="s">
-        <v>14</v>
-      </c>
-      <c r="E121" t="s">
+      <c r="D121" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E121" s="19" t="s">
         <v>415</v>
       </c>
-      <c r="F121" s="12" t="s">
+      <c r="F121" s="20" t="s">
         <v>4556</v>
       </c>
-      <c r="H121" t="s">
+      <c r="G121" s="21"/>
+      <c r="H121" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I121">
+      <c r="I121" s="19">
         <v>14165464112</v>
       </c>
-      <c r="J121" t="s">
+      <c r="J121" s="19" t="s">
         <v>53</v>
       </c>
     </row>
@@ -17976,119 +18028,123 @@
         <v>16473950883</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
+    <row r="123" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="19" t="s">
         <v>419</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="19" t="s">
         <v>420</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="E123" t="s">
+      <c r="E123" s="19" t="s">
         <v>422</v>
       </c>
-      <c r="F123" s="12" t="s">
+      <c r="F123" s="20" t="s">
         <v>4531</v>
       </c>
-      <c r="H123" t="s">
+      <c r="G123" s="21"/>
+      <c r="H123" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="I123">
+      <c r="I123" s="19">
         <v>16139559472</v>
       </c>
-      <c r="J123" t="s">
+      <c r="J123" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
+    <row r="124" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="19" t="s">
         <v>423</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="19" t="s">
         <v>424</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="19" t="s">
         <v>425</v>
       </c>
-      <c r="D124" t="s">
-        <v>14</v>
-      </c>
-      <c r="E124" t="s">
+      <c r="D124" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E124" s="19" t="s">
         <v>426</v>
       </c>
-      <c r="F124" s="12" t="s">
+      <c r="F124" s="20" t="s">
         <v>4556</v>
       </c>
-      <c r="H124" t="s">
+      <c r="G124" s="21"/>
+      <c r="H124" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I124">
+      <c r="I124" s="19">
         <v>19053736279</v>
       </c>
-      <c r="J124" t="s">
+      <c r="J124" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
+    <row r="125" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="19" t="s">
         <v>427</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="19" t="s">
         <v>428</v>
       </c>
-      <c r="D125" t="s">
-        <v>14</v>
-      </c>
-      <c r="E125" t="s">
+      <c r="D125" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E125" s="19" t="s">
         <v>426</v>
       </c>
-      <c r="F125" s="12" t="s">
+      <c r="F125" s="20" t="s">
         <v>4556</v>
       </c>
-      <c r="H125" t="s">
+      <c r="G125" s="21"/>
+      <c r="H125" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="I125">
+      <c r="I125" s="19">
         <v>16134250455</v>
       </c>
-      <c r="J125" t="s">
+      <c r="J125" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
+    <row r="126" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="19" t="s">
         <v>429</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="19" t="s">
         <v>430</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="19" t="s">
         <v>431</v>
       </c>
-      <c r="D126" t="s">
-        <v>14</v>
-      </c>
-      <c r="E126" t="s">
+      <c r="D126" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E126" s="19" t="s">
         <v>426</v>
       </c>
-      <c r="F126" s="12" t="s">
+      <c r="F126" s="20" t="s">
         <v>4556</v>
       </c>
-      <c r="H126" t="s">
+      <c r="G126" s="21"/>
+      <c r="H126" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I126">
+      <c r="I126" s="19">
         <v>16138210095</v>
       </c>
-      <c r="J126" t="s">
+      <c r="J126" s="19" t="s">
         <v>53</v>
       </c>
     </row>
@@ -18121,61 +18177,63 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
+    <row r="128" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="19" t="s">
         <v>432</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="19" t="s">
         <v>434</v>
       </c>
-      <c r="D128" t="s">
-        <v>14</v>
-      </c>
-      <c r="E128" t="s">
+      <c r="D128" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E128" s="19" t="s">
         <v>426</v>
       </c>
-      <c r="F128" s="12" t="s">
+      <c r="F128" s="20" t="s">
         <v>4556</v>
       </c>
-      <c r="H128" t="s">
+      <c r="G128" s="21"/>
+      <c r="H128" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I128">
+      <c r="I128" s="19">
         <v>16138242829</v>
       </c>
-      <c r="J128" t="s">
+      <c r="J128" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
+    <row r="129" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="19" t="s">
         <v>435</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="19" t="s">
         <v>436</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="19" t="s">
         <v>437</v>
       </c>
-      <c r="D129" t="s">
-        <v>14</v>
-      </c>
-      <c r="E129" t="s">
+      <c r="D129" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E129" s="19" t="s">
         <v>426</v>
       </c>
-      <c r="F129" s="12" t="s">
+      <c r="F129" s="20" t="s">
         <v>4556</v>
       </c>
-      <c r="H129" t="s">
+      <c r="G129" s="21"/>
+      <c r="H129" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I129">
+      <c r="I129" s="19">
         <v>16134453940</v>
       </c>
-      <c r="J129" t="s">
+      <c r="J129" s="19" t="s">
         <v>53</v>
       </c>
     </row>
@@ -18237,180 +18295,185 @@
         <v>17</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
+    <row r="132" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="19" t="s">
         <v>444</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="19" t="s">
         <v>445</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="19" t="s">
         <v>446</v>
       </c>
-      <c r="D132" t="s">
-        <v>14</v>
-      </c>
-      <c r="E132" t="s">
+      <c r="D132" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E132" s="19" t="s">
         <v>447</v>
       </c>
-      <c r="F132" s="12" t="s">
+      <c r="F132" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G132" s="1" t="s">
+      <c r="G132" s="21" t="s">
         <v>4559</v>
       </c>
-      <c r="H132" t="s">
+      <c r="H132" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="I132">
+      <c r="I132" s="19">
         <v>12266640155</v>
       </c>
-      <c r="J132" t="s">
+      <c r="J132" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
+    <row r="133" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="19" t="s">
         <v>449</v>
       </c>
-      <c r="D133" t="s">
-        <v>14</v>
-      </c>
-      <c r="E133" t="s">
+      <c r="D133" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E133" s="19" t="s">
         <v>450</v>
       </c>
-      <c r="F133" s="12" t="s">
+      <c r="F133" s="20" t="s">
         <v>4556</v>
       </c>
-      <c r="H133" t="s">
+      <c r="G133" s="21"/>
+      <c r="H133" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I133">
+      <c r="I133" s="19">
         <v>19053881334</v>
       </c>
-      <c r="J133" t="s">
+      <c r="J133" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
+    <row r="134" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="19" t="s">
         <v>451</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="19" t="s">
         <v>452</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="19" t="s">
         <v>453</v>
       </c>
-      <c r="D134" t="s">
-        <v>14</v>
-      </c>
-      <c r="E134" t="s">
+      <c r="D134" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E134" s="19" t="s">
         <v>454</v>
       </c>
-      <c r="F134" s="12" t="s">
+      <c r="F134" s="20" t="s">
         <v>4485</v>
       </c>
-      <c r="H134" t="s">
+      <c r="G134" s="21"/>
+      <c r="H134" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I134">
+      <c r="I134" s="19">
         <v>12894450166</v>
       </c>
-      <c r="J134" t="s">
+      <c r="J134" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
+    <row r="135" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="19" t="s">
         <v>452</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="19" t="s">
         <v>455</v>
       </c>
-      <c r="D135" t="s">
-        <v>14</v>
-      </c>
-      <c r="E135" t="s">
+      <c r="D135" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E135" s="19" t="s">
         <v>454</v>
       </c>
-      <c r="F135" s="12" t="s">
+      <c r="F135" s="20" t="s">
         <v>4485</v>
       </c>
-      <c r="H135" t="s">
+      <c r="G135" s="21"/>
+      <c r="H135" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I135">
+      <c r="I135" s="19">
         <v>12264761062</v>
       </c>
-      <c r="J135" t="s">
+      <c r="J135" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
+    <row r="136" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="19" t="s">
         <v>452</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="19" t="s">
         <v>457</v>
       </c>
-      <c r="D136" t="s">
-        <v>14</v>
-      </c>
-      <c r="E136" t="s">
+      <c r="D136" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E136" s="19" t="s">
         <v>454</v>
       </c>
-      <c r="F136" s="12" t="s">
+      <c r="F136" s="20" t="s">
         <v>4485</v>
       </c>
-      <c r="H136" t="s">
+      <c r="G136" s="21"/>
+      <c r="H136" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="I136">
+      <c r="I136" s="19">
         <v>16135170242</v>
       </c>
-      <c r="J136" t="s">
+      <c r="J136" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
+    <row r="137" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="19" t="s">
         <v>458</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="19" t="s">
         <v>459</v>
       </c>
-      <c r="D137" t="s">
-        <v>14</v>
-      </c>
-      <c r="E137" t="s">
+      <c r="D137" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E137" s="19" t="s">
         <v>460</v>
       </c>
-      <c r="F137" s="12" t="s">
+      <c r="F137" s="20" t="s">
         <v>4556</v>
       </c>
-      <c r="H137" t="s">
+      <c r="G137" s="21"/>
+      <c r="H137" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I137">
+      <c r="I137" s="19">
         <v>12266634777</v>
       </c>
-      <c r="J137" t="s">
+      <c r="J137" s="19" t="s">
         <v>53</v>
       </c>
     </row>
@@ -18492,447 +18555,459 @@
         <v>14167819333</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
+    <row r="141" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="19" t="s">
         <v>467</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="D141" t="s">
-        <v>14</v>
-      </c>
-      <c r="E141" t="s">
+      <c r="D141" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E141" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="F141" s="12" t="s">
+      <c r="F141" s="20" t="s">
         <v>4556</v>
       </c>
-      <c r="H141" t="s">
+      <c r="G141" s="21"/>
+      <c r="H141" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="I141">
+      <c r="I141" s="19">
         <v>15194432107</v>
       </c>
-      <c r="J141" t="s">
+      <c r="J141" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
+    <row r="142" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="19" t="s">
         <v>472</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="19" t="s">
         <v>473</v>
       </c>
-      <c r="D142" t="s">
-        <v>14</v>
-      </c>
-      <c r="E142" t="s">
+      <c r="D142" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E142" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="F142" s="12" t="s">
+      <c r="F142" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G142" s="1" t="s">
+      <c r="G142" s="21" t="s">
         <v>4562</v>
       </c>
-      <c r="H142" t="s">
+      <c r="H142" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I142">
+      <c r="I142" s="19">
         <v>14163358653</v>
       </c>
-      <c r="J142" t="s">
+      <c r="J142" s="19" t="s">
         <v>4563</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
+    <row r="143" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="19" t="s">
         <v>474</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="19" t="s">
         <v>475</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="19" t="s">
         <v>476</v>
       </c>
-      <c r="D143" t="s">
-        <v>14</v>
-      </c>
-      <c r="E143" t="s">
+      <c r="D143" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E143" s="19" t="s">
         <v>477</v>
       </c>
-      <c r="F143" s="12" t="s">
+      <c r="F143" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G143" s="1" t="s">
+      <c r="G143" s="21" t="s">
         <v>4561</v>
       </c>
-      <c r="H143" t="s">
+      <c r="H143" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I143">
+      <c r="I143" s="19">
         <v>19055251117</v>
       </c>
-      <c r="J143" t="s">
+      <c r="J143" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
+    <row r="144" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="19" t="s">
         <v>478</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="19" t="s">
         <v>479</v>
       </c>
-      <c r="D144" t="s">
-        <v>14</v>
-      </c>
-      <c r="E144" t="s">
+      <c r="D144" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E144" s="19" t="s">
         <v>480</v>
       </c>
-      <c r="F144" s="12" t="s">
+      <c r="F144" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H144" t="s">
+      <c r="G144" s="21"/>
+      <c r="H144" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I144">
+      <c r="I144" s="19">
         <v>14163981461</v>
       </c>
-      <c r="J144" t="s">
+      <c r="J144" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
+    <row r="145" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="19" t="s">
         <v>481</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="19" t="s">
         <v>482</v>
       </c>
-      <c r="D145" t="s">
-        <v>14</v>
-      </c>
-      <c r="E145" t="s">
+      <c r="D145" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E145" s="19" t="s">
         <v>483</v>
       </c>
-      <c r="F145" s="12" t="s">
+      <c r="F145" s="20" t="s">
         <v>4556</v>
       </c>
-      <c r="H145" t="s">
+      <c r="G145" s="21"/>
+      <c r="H145" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I145">
+      <c r="I145" s="19">
         <v>19054950025</v>
       </c>
-      <c r="J145" t="s">
+      <c r="J145" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
+    <row r="146" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="19" t="s">
         <v>481</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="19" t="s">
         <v>484</v>
       </c>
-      <c r="D146" t="s">
-        <v>14</v>
-      </c>
-      <c r="E146" t="s">
+      <c r="D146" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E146" s="19" t="s">
         <v>483</v>
       </c>
-      <c r="F146" s="12" t="s">
+      <c r="F146" s="20" t="s">
         <v>4556</v>
       </c>
-      <c r="H146" t="s">
+      <c r="G146" s="21"/>
+      <c r="H146" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I146">
+      <c r="I146" s="19">
         <v>19059707744</v>
       </c>
-      <c r="J146" t="s">
+      <c r="J146" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
+    <row r="147" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="19" t="s">
         <v>485</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="19" t="s">
         <v>481</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="19" t="s">
         <v>486</v>
       </c>
-      <c r="D147" t="s">
-        <v>14</v>
-      </c>
-      <c r="E147" t="s">
+      <c r="D147" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E147" s="19" t="s">
         <v>483</v>
       </c>
-      <c r="F147" s="12" t="s">
+      <c r="F147" s="20" t="s">
         <v>4556</v>
       </c>
-      <c r="H147" t="s">
+      <c r="G147" s="21"/>
+      <c r="H147" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I147">
+      <c r="I147" s="19">
         <v>15192653055</v>
       </c>
-      <c r="J147" t="s">
+      <c r="J147" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
+    <row r="148" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="19" t="s">
         <v>481</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="19" t="s">
         <v>487</v>
       </c>
-      <c r="D148" t="s">
-        <v>14</v>
-      </c>
-      <c r="E148" t="s">
+      <c r="D148" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E148" s="19" t="s">
         <v>483</v>
       </c>
-      <c r="F148" s="12" t="s">
+      <c r="F148" s="20" t="s">
         <v>4556</v>
       </c>
-      <c r="H148" t="s">
+      <c r="G148" s="21"/>
+      <c r="H148" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I148">
+      <c r="I148" s="19">
         <v>19055452041</v>
       </c>
-      <c r="J148" t="s">
+      <c r="J148" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
+    <row r="149" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="19" t="s">
         <v>481</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="19" t="s">
         <v>488</v>
       </c>
-      <c r="D149" t="s">
-        <v>14</v>
-      </c>
-      <c r="E149" t="s">
+      <c r="D149" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E149" s="19" t="s">
         <v>483</v>
       </c>
-      <c r="F149" s="12" t="s">
+      <c r="F149" s="20" t="s">
         <v>4556</v>
       </c>
-      <c r="H149" t="s">
+      <c r="G149" s="21"/>
+      <c r="H149" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I149">
+      <c r="I149" s="19">
         <v>12266633026</v>
       </c>
-      <c r="J149" t="s">
+      <c r="J149" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
+    <row r="150" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="19" t="s">
         <v>340</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="19" t="s">
         <v>481</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="19" t="s">
         <v>489</v>
       </c>
-      <c r="D150" t="s">
-        <v>14</v>
-      </c>
-      <c r="E150" t="s">
+      <c r="D150" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E150" s="19" t="s">
         <v>483</v>
       </c>
-      <c r="F150" s="12" t="s">
+      <c r="F150" s="20" t="s">
         <v>4556</v>
       </c>
-      <c r="H150" t="s">
+      <c r="G150" s="21"/>
+      <c r="H150" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="I150">
+      <c r="I150" s="19">
         <v>19053540168</v>
       </c>
-      <c r="J150" t="s">
+      <c r="J150" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
+    <row r="151" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="19" t="s">
         <v>481</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C151" s="19" t="s">
         <v>490</v>
       </c>
-      <c r="D151" t="s">
-        <v>14</v>
-      </c>
-      <c r="E151" t="s">
+      <c r="D151" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E151" s="19" t="s">
         <v>483</v>
       </c>
-      <c r="F151" s="12" t="s">
+      <c r="F151" s="20" t="s">
         <v>4556</v>
       </c>
-      <c r="H151" t="s">
+      <c r="G151" s="21"/>
+      <c r="H151" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I151">
+      <c r="I151" s="19">
         <v>14167830419</v>
       </c>
-      <c r="J151" t="s">
+      <c r="J151" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
+    <row r="152" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="19" t="s">
         <v>481</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C152" s="19" t="s">
         <v>491</v>
       </c>
-      <c r="D152" t="s">
-        <v>14</v>
-      </c>
-      <c r="E152" t="s">
+      <c r="D152" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E152" s="19" t="s">
         <v>483</v>
       </c>
-      <c r="F152" s="12" t="s">
+      <c r="F152" s="20" t="s">
         <v>4556</v>
       </c>
-      <c r="H152" t="s">
+      <c r="G152" s="21"/>
+      <c r="H152" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I152">
+      <c r="I152" s="19">
         <v>14164619991</v>
       </c>
-      <c r="J152" t="s">
+      <c r="J152" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
+    <row r="153" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="19" t="s">
         <v>481</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="19" t="s">
         <v>492</v>
       </c>
-      <c r="D153" t="s">
-        <v>14</v>
-      </c>
-      <c r="E153" t="s">
+      <c r="D153" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E153" s="19" t="s">
         <v>483</v>
       </c>
-      <c r="F153" s="12" t="s">
+      <c r="F153" s="20" t="s">
         <v>4556</v>
       </c>
-      <c r="H153" t="s">
+      <c r="G153" s="21"/>
+      <c r="H153" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I153">
+      <c r="I153" s="19">
         <v>15198880483</v>
       </c>
-      <c r="J153" t="s">
+      <c r="J153" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
+    <row r="154" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="19" t="s">
         <v>493</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="19" t="s">
         <v>494</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="19" t="s">
         <v>495</v>
       </c>
-      <c r="D154" t="s">
-        <v>14</v>
-      </c>
-      <c r="E154" t="s">
+      <c r="D154" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E154" s="19" t="s">
         <v>496</v>
       </c>
-      <c r="F154" s="12" t="s">
+      <c r="F154" s="20" t="s">
         <v>4556</v>
       </c>
-      <c r="H154" t="s">
+      <c r="G154" s="21"/>
+      <c r="H154" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I154">
+      <c r="I154" s="19">
         <v>15196224845</v>
       </c>
-      <c r="J154" t="s">
+      <c r="J154" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
+    <row r="155" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="19" t="s">
         <v>499</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="19" t="s">
         <v>500</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C155" s="19" t="s">
         <v>501</v>
       </c>
-      <c r="D155" t="s">
-        <v>14</v>
-      </c>
-      <c r="E155" t="s">
+      <c r="D155" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E155" s="19" t="s">
         <v>502</v>
       </c>
-      <c r="F155" s="12" t="s">
+      <c r="F155" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G155" s="1" t="s">
+      <c r="G155" s="21" t="s">
         <v>4564</v>
       </c>
-      <c r="H155" t="s">
+      <c r="H155" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I155">
+      <c r="I155" s="19">
         <v>16136296827</v>
       </c>
-      <c r="J155" t="s">
+      <c r="J155" s="19" t="s">
         <v>17</v>
       </c>
     </row>
@@ -18994,35 +19069,35 @@
         <v>17</v>
       </c>
     </row>
-    <row r="158" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
+    <row r="158" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="19" t="s">
         <v>510</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C158" s="19" t="s">
         <v>513</v>
       </c>
-      <c r="D158" t="s">
-        <v>14</v>
-      </c>
-      <c r="E158" t="s">
+      <c r="D158" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E158" s="19" t="s">
         <v>512</v>
       </c>
-      <c r="F158" s="12" t="s">
+      <c r="F158" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G158" s="1" t="s">
+      <c r="G158" s="21" t="s">
         <v>4566</v>
       </c>
-      <c r="H158" t="s">
+      <c r="H158" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="I158">
+      <c r="I158" s="19">
         <v>16476402899</v>
       </c>
-      <c r="J158" t="s">
+      <c r="J158" s="19" t="s">
         <v>75</v>
       </c>
     </row>
@@ -19145,302 +19220,309 @@
         <v>17</v>
       </c>
     </row>
-    <row r="163" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
+    <row r="163" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="19" t="s">
         <v>485</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="19" t="s">
         <v>528</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C163" s="19" t="s">
         <v>529</v>
       </c>
-      <c r="D163" t="s">
-        <v>14</v>
-      </c>
-      <c r="E163" t="s">
+      <c r="D163" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E163" s="19" t="s">
         <v>527</v>
       </c>
-      <c r="F163" s="12" t="s">
+      <c r="F163" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G163" s="1" t="s">
+      <c r="G163" s="21" t="s">
         <v>4570</v>
       </c>
-      <c r="H163" t="s">
+      <c r="H163" s="19" t="s">
         <v>4569</v>
       </c>
-      <c r="I163">
+      <c r="I163" s="19">
         <v>15192651550</v>
       </c>
-      <c r="J163" t="s">
+      <c r="J163" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="164" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
+    <row r="164" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="19" t="s">
         <v>530</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C164" s="19" t="s">
         <v>531</v>
       </c>
-      <c r="D164" t="s">
-        <v>14</v>
-      </c>
-      <c r="E164" t="s">
+      <c r="D164" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E164" s="19" t="s">
         <v>527</v>
       </c>
-      <c r="F164" s="12" t="s">
+      <c r="F164" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G164" s="1" t="s">
+      <c r="G164" s="21" t="s">
         <v>4571</v>
       </c>
-      <c r="H164" t="s">
+      <c r="H164" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="I164">
+      <c r="I164" s="19">
         <v>15192081009</v>
       </c>
-      <c r="J164" t="s">
+      <c r="J164" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="165" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
+    <row r="165" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" s="19" t="s">
         <v>532</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C165" s="19" t="s">
         <v>533</v>
       </c>
-      <c r="D165" t="s">
-        <v>14</v>
-      </c>
-      <c r="E165" t="s">
+      <c r="D165" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E165" s="19" t="s">
         <v>534</v>
       </c>
-      <c r="F165" s="12" t="s">
+      <c r="F165" s="20" t="s">
         <v>4556</v>
       </c>
-      <c r="H165" t="s">
+      <c r="G165" s="21"/>
+      <c r="H165" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I165">
+      <c r="I165" s="19">
         <v>16472589956</v>
       </c>
-      <c r="J165" t="s">
+      <c r="J165" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="166" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
+    <row r="166" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="19" t="s">
         <v>535</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C166" s="19" t="s">
         <v>536</v>
       </c>
-      <c r="D166" t="s">
-        <v>14</v>
-      </c>
-      <c r="E166" t="s">
+      <c r="D166" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E166" s="19" t="s">
         <v>537</v>
       </c>
-      <c r="F166" s="12" t="s">
+      <c r="F166" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H166" t="s">
+      <c r="G166" s="21"/>
+      <c r="H166" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I166">
+      <c r="I166" s="19">
         <v>14166744728</v>
       </c>
-      <c r="J166" t="s">
+      <c r="J166" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="167" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
+    <row r="167" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="19" t="s">
         <v>538</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" s="19" t="s">
         <v>539</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C167" s="19" t="s">
         <v>540</v>
       </c>
-      <c r="D167" t="s">
-        <v>14</v>
-      </c>
-      <c r="E167" t="s">
+      <c r="D167" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E167" s="19" t="s">
         <v>541</v>
       </c>
-      <c r="F167" s="12" t="s">
+      <c r="F167" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H167" t="s">
+      <c r="G167" s="21"/>
+      <c r="H167" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="I167">
+      <c r="I167" s="19">
         <v>15197380869</v>
       </c>
-      <c r="J167" t="s">
+      <c r="J167" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="168" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
+    <row r="168" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="19" t="s">
         <v>543</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" s="19" t="s">
         <v>544</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C168" s="19" t="s">
         <v>545</v>
       </c>
-      <c r="D168" t="s">
-        <v>14</v>
-      </c>
-      <c r="E168" t="s">
+      <c r="D168" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E168" s="19" t="s">
         <v>546</v>
       </c>
-      <c r="F168" s="12" t="s">
+      <c r="F168" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H168" t="s">
+      <c r="G168" s="21"/>
+      <c r="H168" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="I168">
+      <c r="I168" s="19">
         <v>18075485375</v>
       </c>
-      <c r="J168" t="s">
+      <c r="J168" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="169" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
+    <row r="169" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="19" t="s">
         <v>548</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C169" s="19" t="s">
         <v>549</v>
       </c>
-      <c r="D169" t="s">
-        <v>14</v>
-      </c>
-      <c r="E169" t="s">
+      <c r="D169" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E169" s="19" t="s">
         <v>550</v>
       </c>
-      <c r="F169" s="12" t="s">
+      <c r="F169" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H169" t="s">
+      <c r="G169" s="21"/>
+      <c r="H169" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I169">
+      <c r="I169" s="19">
         <v>14164620202</v>
       </c>
-      <c r="J169" t="s">
+      <c r="J169" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="170" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
+    <row r="170" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="19" t="s">
         <v>485</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" s="19" t="s">
         <v>551</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C170" s="19" t="s">
         <v>552</v>
       </c>
-      <c r="D170" t="s">
-        <v>14</v>
-      </c>
-      <c r="E170" t="s">
+      <c r="D170" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E170" s="19" t="s">
         <v>553</v>
       </c>
-      <c r="F170" s="12" t="s">
+      <c r="F170" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G170" s="1" t="s">
+      <c r="G170" s="21" t="s">
         <v>4572</v>
       </c>
-      <c r="H170" t="s">
+      <c r="H170" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I170">
+      <c r="I170" s="19">
         <v>15197140420</v>
       </c>
-      <c r="J170" t="s">
+      <c r="J170" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="171" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
+    <row r="171" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="19" t="s">
         <v>554</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="19" t="s">
         <v>555</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C171" s="19" t="s">
         <v>556</v>
       </c>
-      <c r="D171" t="s">
-        <v>14</v>
-      </c>
-      <c r="E171" t="s">
+      <c r="D171" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E171" s="19" t="s">
         <v>557</v>
       </c>
-      <c r="F171" s="12" t="s">
+      <c r="F171" s="20" t="s">
         <v>4556</v>
       </c>
-      <c r="H171" t="s">
+      <c r="G171" s="21"/>
+      <c r="H171" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="I171">
+      <c r="I171" s="19">
         <v>18888862795</v>
       </c>
-      <c r="J171" t="s">
+      <c r="J171" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="172" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
+    <row r="172" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="19" t="s">
         <v>558</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C172" s="19" t="s">
         <v>559</v>
       </c>
-      <c r="D172" t="s">
-        <v>14</v>
-      </c>
-      <c r="E172" t="s">
+      <c r="D172" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E172" s="19" t="s">
         <v>560</v>
       </c>
-      <c r="F172" s="12" t="s">
+      <c r="F172" s="20" t="s">
         <v>4556</v>
       </c>
-      <c r="H172" t="s">
+      <c r="G172" s="21"/>
+      <c r="H172" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="I172">
+      <c r="I172" s="19">
         <v>14166635000</v>
       </c>
-      <c r="J172" t="s">
+      <c r="J172" s="19" t="s">
         <v>53</v>
       </c>
     </row>
@@ -19534,61 +19616,63 @@
         <v>17</v>
       </c>
     </row>
-    <row r="176" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
+    <row r="176" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="19" t="s">
         <v>572</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="19" t="s">
         <v>573</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C176" s="19" t="s">
         <v>574</v>
       </c>
-      <c r="D176" t="s">
-        <v>14</v>
-      </c>
-      <c r="E176" t="s">
+      <c r="D176" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E176" s="19" t="s">
         <v>575</v>
       </c>
-      <c r="F176" s="12" t="s">
+      <c r="F176" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H176" t="s">
+      <c r="G176" s="21"/>
+      <c r="H176" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I176">
+      <c r="I176" s="19">
         <v>16137796262</v>
       </c>
-      <c r="J176" t="s">
+      <c r="J176" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
+    <row r="177" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="19" t="s">
         <v>572</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177" s="19" t="s">
         <v>576</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C177" s="19" t="s">
         <v>577</v>
       </c>
-      <c r="D177" t="s">
-        <v>14</v>
-      </c>
-      <c r="E177" t="s">
+      <c r="D177" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E177" s="19" t="s">
         <v>578</v>
       </c>
-      <c r="F177" s="12" t="s">
+      <c r="F177" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H177" t="s">
+      <c r="G177" s="21"/>
+      <c r="H177" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I177">
+      <c r="I177" s="19">
         <v>16137799700</v>
       </c>
-      <c r="J177" t="s">
+      <c r="J177" s="19" t="s">
         <v>53</v>
       </c>
     </row>
@@ -19621,32 +19705,33 @@
         <v>17</v>
       </c>
     </row>
-    <row r="179" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
+    <row r="179" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179" s="19" t="s">
         <v>582</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C179" s="19" t="s">
         <v>583</v>
       </c>
-      <c r="D179" t="s">
-        <v>14</v>
-      </c>
-      <c r="E179" t="s">
+      <c r="D179" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E179" s="19" t="s">
         <v>584</v>
       </c>
-      <c r="F179" s="12" t="s">
+      <c r="F179" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H179" t="s">
+      <c r="G179" s="21"/>
+      <c r="H179" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I179">
+      <c r="I179" s="19">
         <v>16137671083</v>
       </c>
-      <c r="J179" t="s">
+      <c r="J179" s="19" t="s">
         <v>53</v>
       </c>
     </row>
@@ -19682,35 +19767,35 @@
         <v>17</v>
       </c>
     </row>
-    <row r="181" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
+    <row r="181" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181" s="19" t="s">
         <v>589</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C181" s="19" t="s">
         <v>590</v>
       </c>
-      <c r="D181" t="s">
-        <v>14</v>
-      </c>
-      <c r="E181" t="s">
+      <c r="D181" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E181" s="19" t="s">
         <v>591</v>
       </c>
-      <c r="F181" s="12" t="s">
+      <c r="F181" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G181" s="1" t="s">
+      <c r="G181" s="21" t="s">
         <v>4573</v>
       </c>
-      <c r="H181" t="s">
+      <c r="H181" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I181">
+      <c r="I181" s="19">
         <v>17058768883</v>
       </c>
-      <c r="J181" t="s">
+      <c r="J181" s="19" t="s">
         <v>53</v>
       </c>
     </row>
@@ -19775,61 +19860,63 @@
         <v>17</v>
       </c>
     </row>
-    <row r="184" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
+    <row r="184" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184" s="19" t="s">
         <v>596</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C184" s="19" t="s">
         <v>597</v>
       </c>
-      <c r="D184" t="s">
-        <v>14</v>
-      </c>
-      <c r="E184" t="s">
+      <c r="D184" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E184" s="19" t="s">
         <v>598</v>
       </c>
-      <c r="F184" s="12" t="s">
+      <c r="F184" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H184" t="s">
+      <c r="G184" s="21"/>
+      <c r="H184" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I184">
+      <c r="I184" s="19">
         <v>12897559333</v>
       </c>
-      <c r="J184" t="s">
+      <c r="J184" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="185" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
+    <row r="185" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185" s="19" t="s">
         <v>599</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C185" s="19" t="s">
         <v>600</v>
       </c>
-      <c r="D185" t="s">
-        <v>14</v>
-      </c>
-      <c r="E185" t="s">
+      <c r="D185" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E185" s="19" t="s">
         <v>601</v>
       </c>
-      <c r="F185" s="12" t="s">
+      <c r="F185" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H185" t="s">
+      <c r="G185" s="21"/>
+      <c r="H185" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I185">
+      <c r="I185" s="19">
         <v>19056618110</v>
       </c>
-      <c r="J185" t="s">
+      <c r="J185" s="19" t="s">
         <v>53</v>
       </c>
     </row>
@@ -19917,160 +20004,161 @@
         <v>17</v>
       </c>
     </row>
-    <row r="189" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A189" t="s">
+    <row r="189" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="19" t="s">
         <v>614</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189" s="19" t="s">
         <v>615</v>
       </c>
-      <c r="C189" t="s">
+      <c r="C189" s="19" t="s">
         <v>616</v>
       </c>
-      <c r="D189" t="s">
-        <v>14</v>
-      </c>
-      <c r="E189" t="s">
+      <c r="D189" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E189" s="19" t="s">
         <v>617</v>
       </c>
-      <c r="F189" s="12" t="s">
+      <c r="F189" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G189" s="1" t="s">
+      <c r="G189" s="21" t="s">
         <v>4575</v>
       </c>
-      <c r="H189" t="s">
+      <c r="H189" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I189">
+      <c r="I189" s="19">
         <v>16136349031</v>
       </c>
-      <c r="J189" t="s">
+      <c r="J189" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="190" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
+    <row r="190" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="19" t="s">
         <v>618</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B190" s="19" t="s">
         <v>615</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C190" s="19" t="s">
         <v>619</v>
       </c>
-      <c r="D190" t="s">
-        <v>14</v>
-      </c>
-      <c r="E190" t="s">
+      <c r="D190" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E190" s="19" t="s">
         <v>617</v>
       </c>
-      <c r="F190" s="12" t="s">
+      <c r="F190" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G190" s="1" t="s">
+      <c r="G190" s="21" t="s">
         <v>4576</v>
       </c>
-      <c r="H190" t="s">
+      <c r="H190" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="I190">
+      <c r="I190" s="19">
         <v>17054240404</v>
       </c>
-      <c r="J190" t="s">
+      <c r="J190" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="191" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A191" t="s">
+    <row r="191" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B191" s="19" t="s">
         <v>620</v>
       </c>
-      <c r="C191" t="s">
+      <c r="C191" s="19" t="s">
         <v>621</v>
       </c>
-      <c r="D191" s="16" t="s">
+      <c r="D191" s="26" t="s">
         <v>622</v>
       </c>
-      <c r="E191" t="s">
+      <c r="E191" s="19" t="s">
         <v>617</v>
       </c>
-      <c r="F191" s="12" t="s">
+      <c r="F191" s="20" t="s">
         <v>4581</v>
       </c>
-      <c r="H191" t="s">
+      <c r="G191" s="21"/>
+      <c r="H191" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I191">
+      <c r="I191" s="19">
         <v>17052940466</v>
       </c>
-      <c r="J191" t="s">
+      <c r="J191" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="192" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192" t="s">
+    <row r="192" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" s="19" t="s">
         <v>615</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C192" s="19" t="s">
         <v>623</v>
       </c>
-      <c r="D192" t="s">
-        <v>14</v>
-      </c>
-      <c r="E192" t="s">
+      <c r="D192" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E192" s="19" t="s">
         <v>617</v>
       </c>
-      <c r="F192" s="12" t="s">
+      <c r="F192" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G192" s="1" t="s">
+      <c r="G192" s="21" t="s">
         <v>4577</v>
       </c>
-      <c r="H192" t="s">
+      <c r="H192" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I192">
+      <c r="I192" s="19">
         <v>17052520265</v>
       </c>
-      <c r="J192" t="s">
+      <c r="J192" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="193" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
+    <row r="193" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" s="19" t="s">
         <v>615</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C193" s="19" t="s">
         <v>624</v>
       </c>
-      <c r="D193" t="s">
-        <v>14</v>
-      </c>
-      <c r="E193" t="s">
+      <c r="D193" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E193" s="19" t="s">
         <v>617</v>
       </c>
-      <c r="F193" s="12" t="s">
+      <c r="F193" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G193" s="17" t="s">
+      <c r="G193" s="22" t="s">
         <v>4579</v>
       </c>
-      <c r="H193" t="s">
+      <c r="H193" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I193">
+      <c r="I193" s="19">
         <v>12498804500</v>
       </c>
-      <c r="J193" t="s">
+      <c r="J193" s="19" t="s">
         <v>53</v>
       </c>
     </row>
@@ -20138,96 +20226,97 @@
         <v>75</v>
       </c>
     </row>
-    <row r="196" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
+    <row r="196" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="19" t="s">
         <v>629</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196" s="19" t="s">
         <v>630</v>
       </c>
-      <c r="C196" t="s">
+      <c r="C196" s="19" t="s">
         <v>631</v>
       </c>
-      <c r="D196" s="16" t="s">
+      <c r="D196" s="26" t="s">
         <v>632</v>
       </c>
-      <c r="E196" t="s">
+      <c r="E196" s="19" t="s">
         <v>617</v>
       </c>
-      <c r="F196" s="12" t="s">
+      <c r="F196" s="20" t="s">
         <v>4581</v>
       </c>
-      <c r="H196" t="s">
+      <c r="G196" s="21"/>
+      <c r="H196" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I196">
+      <c r="I196" s="19">
         <v>17052940466</v>
       </c>
-      <c r="J196" t="s">
+      <c r="J196" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="197" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
+    <row r="197" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="19" t="s">
         <v>629</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197" s="19" t="s">
         <v>615</v>
       </c>
-      <c r="C197" t="s">
+      <c r="C197" s="19" t="s">
         <v>633</v>
       </c>
-      <c r="D197" t="s">
-        <v>14</v>
-      </c>
-      <c r="E197" t="s">
+      <c r="D197" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E197" s="19" t="s">
         <v>617</v>
       </c>
-      <c r="F197" s="12" t="s">
+      <c r="F197" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G197" s="1" t="s">
+      <c r="G197" s="21" t="s">
         <v>4580</v>
       </c>
-      <c r="H197" t="s">
+      <c r="H197" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I197">
+      <c r="I197" s="19">
         <v>17052940466</v>
       </c>
-      <c r="J197" t="s">
+      <c r="J197" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="198" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A198" t="s">
+    <row r="198" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="19" t="s">
         <v>634</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198" s="19" t="s">
         <v>615</v>
       </c>
-      <c r="C198" t="s">
+      <c r="C198" s="19" t="s">
         <v>635</v>
       </c>
-      <c r="D198" t="s">
-        <v>14</v>
-      </c>
-      <c r="E198" t="s">
+      <c r="D198" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E198" s="19" t="s">
         <v>617</v>
       </c>
-      <c r="F198" s="12" t="s">
+      <c r="F198" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G198" s="1" t="s">
+      <c r="G198" s="21" t="s">
         <v>4583</v>
       </c>
-      <c r="H198" t="s">
+      <c r="H198" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I198">
+      <c r="I198" s="19">
         <v>17053529333</v>
       </c>
-      <c r="J198" t="s">
+      <c r="J198" s="19" t="s">
         <v>53</v>
       </c>
     </row>
@@ -20289,32 +20378,33 @@
         <v>17</v>
       </c>
     </row>
-    <row r="201" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A201" t="s">
+    <row r="201" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B201" s="19" t="s">
         <v>643</v>
       </c>
-      <c r="C201" t="s">
+      <c r="C201" s="19" t="s">
         <v>644</v>
       </c>
-      <c r="D201" t="s">
-        <v>14</v>
-      </c>
-      <c r="E201" t="s">
+      <c r="D201" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E201" s="19" t="s">
         <v>645</v>
       </c>
-      <c r="F201" s="12" t="s">
+      <c r="F201" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H201" t="s">
+      <c r="G201" s="21"/>
+      <c r="H201" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I201">
+      <c r="I201" s="19">
         <v>19053180285</v>
       </c>
-      <c r="J201" t="s">
+      <c r="J201" s="19" t="s">
         <v>53</v>
       </c>
     </row>
@@ -20364,35 +20454,35 @@
         <v>12263382936</v>
       </c>
     </row>
-    <row r="204" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A204" t="s">
+    <row r="204" spans="1:10" s="19" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B204" s="19" t="s">
         <v>649</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C204" s="19" t="s">
         <v>652</v>
       </c>
-      <c r="D204" t="s">
-        <v>14</v>
-      </c>
-      <c r="E204" t="s">
+      <c r="D204" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E204" s="19" t="s">
         <v>651</v>
       </c>
-      <c r="F204" s="12" t="s">
+      <c r="F204" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G204" s="17" t="s">
+      <c r="G204" s="22" t="s">
         <v>4584</v>
       </c>
-      <c r="H204" t="s">
+      <c r="H204" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="I204">
+      <c r="I204" s="19">
         <v>12263382936</v>
       </c>
-      <c r="J204" t="s">
+      <c r="J204" s="19" t="s">
         <v>53</v>
       </c>
     </row>

--- a/platform_scrapper/data/cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/cannabis_used_IDs.xlsx
@@ -14320,8 +14320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1703"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C201" sqref="C201"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C175" sqref="C175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/platform_scrapper/data/cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/cannabis_used_IDs.xlsx
@@ -9097,7 +9097,7 @@
   <dimension ref="A1:N984"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/platform_scrapper/data/cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/cannabis_used_IDs.xlsx
@@ -8375,8 +8375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N911"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A206" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A221" sqref="A221:XFD221"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD605"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/platform_scrapper/data/cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/cannabis_used_IDs.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5515" uniqueCount="2315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5524" uniqueCount="2316">
   <si>
     <t>Municipality or First Nation</t>
   </si>
@@ -6962,6 +6962,9 @@
   </si>
   <si>
     <t>https://weedmaps.com/dispensaries/ignite-cannabis-inc#details</t>
+  </si>
+  <si>
+    <t>5e7400ed8dc5960077ea1a59</t>
   </si>
 </sst>
 </file>
@@ -7144,7 +7147,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7184,6 +7187,7 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -7489,7 +7493,7 @@
   <dimension ref="A1:N788"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J115" sqref="J115"/>
+      <selection activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7551,7 +7555,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>116</v>
       </c>
@@ -9156,7 +9160,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>28</v>
       </c>
@@ -10200,7 +10204,7 @@
         <v>19055969510</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>60</v>
       </c>
@@ -10316,7 +10320,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>33</v>
       </c>
@@ -10345,7 +10349,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>69</v>
       </c>
@@ -10435,7 +10439,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>162</v>
       </c>
@@ -10464,7 +10468,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>116</v>
       </c>
@@ -10513,7 +10517,7 @@
         <v>16473950883</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>74</v>
       </c>
@@ -10542,7 +10546,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>223</v>
       </c>
@@ -10571,7 +10575,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>72</v>
       </c>
@@ -10600,7 +10604,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>28</v>
       </c>
@@ -10632,7 +10636,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>374</v>
       </c>
@@ -10664,7 +10668,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>116</v>
       </c>
@@ -10693,7 +10697,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>216</v>
       </c>
@@ -10722,7 +10726,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>155</v>
       </c>
@@ -10751,7 +10755,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>461</v>
       </c>
@@ -10780,7 +10784,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>102</v>
       </c>
@@ -10809,7 +10813,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>467</v>
       </c>
@@ -10836,7 +10840,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>28</v>
       </c>
@@ -10881,13 +10885,19 @@
       <c r="E116" s="23" t="s">
         <v>474</v>
       </c>
+      <c r="F116" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G116" s="25" t="s">
+        <v>2315</v>
+      </c>
       <c r="H116" t="s">
         <v>16</v>
       </c>
       <c r="I116">
         <v>16474794240</v>
       </c>
-      <c r="J116" t="s">
+      <c r="J116" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10907,14 +10917,17 @@
       <c r="E117" s="23" t="s">
         <v>474</v>
       </c>
+      <c r="F117" s="6" t="s">
+        <v>2250</v>
+      </c>
       <c r="H117" t="s">
         <v>16</v>
       </c>
       <c r="I117">
         <v>16474794240</v>
       </c>
-      <c r="J117" t="s">
-        <v>17</v>
+      <c r="J117" s="16" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -10968,7 +10981,7 @@
       <c r="I119">
         <v>14169018444</v>
       </c>
-      <c r="J119" t="s">
+      <c r="J119" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10985,7 +10998,7 @@
       <c r="D120" t="s">
         <v>14</v>
       </c>
-      <c r="E120" s="23" t="s">
+      <c r="E120" s="8" t="s">
         <v>482</v>
       </c>
       <c r="H120" t="s">
@@ -11046,6 +11059,9 @@
       <c r="I122">
         <v>17054821714</v>
       </c>
+      <c r="J122" s="16" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="123" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
@@ -11063,11 +11079,17 @@
       <c r="E123" s="23" t="s">
         <v>490</v>
       </c>
+      <c r="F123" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="H123" t="s">
         <v>34</v>
       </c>
       <c r="I123">
         <v>14166152946</v>
+      </c>
+      <c r="J123" s="16" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -11086,11 +11108,17 @@
       <c r="E124" s="23" t="s">
         <v>493</v>
       </c>
+      <c r="F124" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="H124" t="s">
         <v>34</v>
       </c>
       <c r="I124">
         <v>19055712545</v>
+      </c>
+      <c r="J124" s="16" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -11117,7 +11145,7 @@
       </c>
     </row>
     <row r="126" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
+      <c r="A126" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B126" t="s">
@@ -11164,7 +11192,7 @@
       <c r="I127">
         <v>19056865558</v>
       </c>
-      <c r="J127" t="s">
+      <c r="J127" s="16" t="s">
         <v>58</v>
       </c>
     </row>
@@ -11190,6 +11218,9 @@
       <c r="I128">
         <v>17053282420</v>
       </c>
+      <c r="J128" s="16" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="129" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
@@ -11265,7 +11296,7 @@
       <c r="I131">
         <v>17052227467</v>
       </c>
-      <c r="J131" t="s">
+      <c r="J131" s="16" t="s">
         <v>45</v>
       </c>
     </row>
@@ -27942,17 +27973,15 @@
   </sheetData>
   <autoFilter ref="F1:F788">
     <filterColumn colId="0">
-      <filters blank="1">
-        <filter val="Unknown"/>
-        <filter val="Unknown (branch temprorary closed)"/>
-      </filters>
+      <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <hyperlinks>
     <hyperlink ref="E21" r:id="rId1"/>
     <hyperlink ref="E222" r:id="rId2"/>
+    <hyperlink ref="E120" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
--- a/platform_scrapper/data/cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/cannabis_used_IDs.xlsx
@@ -6929,8 +6929,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:N716"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C143" sqref="C143"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104:XFD133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9994,7 +9994,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>135</v>
       </c>
@@ -10110,7 +10110,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>91</v>
       </c>
@@ -10264,7 +10264,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>250</v>
       </c>
@@ -10293,7 +10293,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>75</v>
       </c>
@@ -10354,7 +10354,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>28</v>
       </c>
@@ -10383,7 +10383,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>135</v>
       </c>
@@ -10412,7 +10412,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>394</v>
       </c>
@@ -10441,7 +10441,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>28</v>
       </c>
@@ -10624,7 +10624,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>73</v>
       </c>
@@ -10711,7 +10711,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>28</v>
       </c>
@@ -10772,7 +10772,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>18</v>
       </c>
@@ -10862,7 +10862,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>33</v>
       </c>
@@ -10891,7 +10891,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>486</v>
       </c>
@@ -10972,7 +10972,7 @@
         <v>15195013797</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>127</v>
       </c>
@@ -11001,7 +11001,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>69</v>
       </c>
@@ -11030,7 +11030,7 @@
         <v>2126</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>552</v>
       </c>
@@ -11059,7 +11059,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>250</v>
       </c>
@@ -11088,7 +11088,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>296</v>
       </c>
@@ -11117,7 +11117,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>38</v>
       </c>
@@ -11140,7 +11140,7 @@
         <v>14162664420</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>51</v>
       </c>
@@ -11166,7 +11166,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>50</v>
       </c>
@@ -11192,7 +11192,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>585</v>
       </c>
@@ -11215,7 +11215,7 @@
         <v>17053861264</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>35</v>
       </c>
@@ -11273,7 +11273,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>461</v>
       </c>
@@ -11325,7 +11325,7 @@
         <v>14164311333</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>33</v>
       </c>
@@ -11348,7 +11348,7 @@
         <v>14165193555</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>28</v>
       </c>
@@ -11371,7 +11371,7 @@
         <v>14167672225</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>33</v>
       </c>
@@ -11397,7 +11397,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>33</v>
       </c>
@@ -11423,7 +11423,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>35</v>
       </c>
@@ -11449,7 +11449,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="156" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>28</v>
       </c>
@@ -11472,7 +11472,7 @@
         <v>14168678888</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>356</v>
       </c>
@@ -11498,7 +11498,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="158" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>621</v>
       </c>
@@ -11524,7 +11524,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="159" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>625</v>
       </c>
@@ -11910,7 +11910,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="172" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>127</v>
       </c>
@@ -11936,7 +11936,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="173" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>28</v>
       </c>
@@ -11962,7 +11962,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="174" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>134</v>
       </c>
@@ -11982,7 +11982,7 @@
         <v>15199422828</v>
       </c>
     </row>
-    <row r="175" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>659</v>
       </c>
@@ -12005,7 +12005,7 @@
         <v>19059854898</v>
       </c>
     </row>
-    <row r="176" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>663</v>
       </c>
@@ -12028,7 +12028,7 @@
         <v>12267836286</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>673</v>
       </c>
@@ -12054,7 +12054,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="178" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>485</v>
       </c>
@@ -12077,7 +12077,7 @@
         <v>19055711842</v>
       </c>
     </row>
-    <row r="179" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>65</v>
       </c>
@@ -12132,7 +12132,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="181" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>51</v>
       </c>
@@ -12155,7 +12155,7 @@
         <v>16138294111</v>
       </c>
     </row>
-    <row r="182" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>686</v>
       </c>
@@ -12181,7 +12181,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="183" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>53</v>
       </c>
@@ -12207,7 +12207,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="184" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>57</v>
       </c>
@@ -12230,7 +12230,7 @@
         <v>15139227020</v>
       </c>
     </row>
-    <row r="185" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>28</v>
       </c>
@@ -12256,7 +12256,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="186" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>161</v>
       </c>
@@ -12282,7 +12282,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="187" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>28</v>
       </c>
@@ -12308,7 +12308,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="188" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>28</v>
       </c>
@@ -12334,7 +12334,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="189" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>60</v>
       </c>
@@ -12357,7 +12357,7 @@
         <v>19057996001</v>
       </c>
     </row>
-    <row r="190" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>82</v>
       </c>
@@ -12383,7 +12383,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="191" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>87</v>
       </c>
@@ -12406,7 +12406,7 @@
         <v>18072150047</v>
       </c>
     </row>
-    <row r="192" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>63</v>
       </c>
@@ -12487,7 +12487,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="195" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>38</v>
       </c>
@@ -12510,7 +12510,7 @@
         <v>14167524242</v>
       </c>
     </row>
-    <row r="196" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>28</v>
       </c>
@@ -12536,7 +12536,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="197" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>79</v>
       </c>
@@ -12562,7 +12562,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="198" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>732</v>
       </c>
@@ -12588,7 +12588,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="199" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>47</v>
       </c>
@@ -12614,7 +12614,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="200" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>91</v>
       </c>
@@ -12640,7 +12640,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="201" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>51</v>
       </c>
@@ -12666,7 +12666,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="202" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>745</v>
       </c>
@@ -12689,7 +12689,7 @@
         <v>16135263420</v>
       </c>
     </row>
-    <row r="203" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>99</v>
       </c>
@@ -12712,7 +12712,7 @@
         <v>15196019873</v>
       </c>
     </row>
-    <row r="204" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>35</v>
       </c>
@@ -12735,7 +12735,7 @@
         <v>19052087508</v>
       </c>
     </row>
-    <row r="205" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>28</v>
       </c>
@@ -12761,7 +12761,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="206" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>757</v>
       </c>
@@ -12787,7 +12787,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="207" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>82</v>
       </c>
@@ -12813,7 +12813,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="208" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>765</v>
       </c>
@@ -12836,7 +12836,7 @@
         <v>18077279830</v>
       </c>
     </row>
-    <row r="209" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>28</v>
       </c>
@@ -12978,7 +12978,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="214" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>75</v>
       </c>
@@ -13004,7 +13004,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="215" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>394</v>
       </c>
@@ -13030,7 +13030,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="216" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>79</v>
       </c>
@@ -13053,7 +13053,7 @@
         <v>16133928655</v>
       </c>
     </row>
-    <row r="217" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>47</v>
       </c>
@@ -13076,7 +13076,7 @@
         <v>16135999209</v>
       </c>
     </row>
-    <row r="218" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>783</v>
       </c>
@@ -13125,7 +13125,7 @@
         <v>14165460810</v>
       </c>
     </row>
-    <row r="220" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>75</v>
       </c>
@@ -13148,7 +13148,7 @@
         <v>19052400192</v>
       </c>
     </row>
-    <row r="221" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>35</v>
       </c>
@@ -13174,7 +13174,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="222" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>35</v>
       </c>
@@ -13200,7 +13200,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="223" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>65</v>
       </c>
@@ -13226,7 +13226,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="224" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>65</v>
       </c>
@@ -13284,7 +13284,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="226" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>65</v>
       </c>
@@ -13339,7 +13339,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="228" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>35</v>
       </c>
@@ -13365,7 +13365,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="229" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>563</v>
       </c>
@@ -13388,7 +13388,7 @@
         <v>17053224210</v>
       </c>
     </row>
-    <row r="230" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>820</v>
       </c>
@@ -13414,7 +13414,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="231" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>225</v>
       </c>
@@ -13440,7 +13440,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="232" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>826</v>
       </c>
@@ -13518,7 +13518,7 @@
         <v>14374101420</v>
       </c>
     </row>
-    <row r="235" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>28</v>
       </c>
@@ -13573,7 +13573,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="237" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>484</v>
       </c>
@@ -13799,7 +13799,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="245" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>60</v>
       </c>
@@ -13822,7 +13822,7 @@
         <v>19054532899</v>
       </c>
     </row>
-    <row r="246" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>56</v>
       </c>
@@ -13871,7 +13871,7 @@
         <v>19055476002</v>
       </c>
     </row>
-    <row r="248" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>846</v>
       </c>
@@ -13894,7 +13894,7 @@
         <v>18078538888</v>
       </c>
     </row>
-    <row r="249" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>28</v>
       </c>
@@ -13914,7 +13914,7 @@
         <v>14165335773</v>
       </c>
     </row>
-    <row r="250" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>35</v>
       </c>
@@ -13937,7 +13937,7 @@
         <v>19055458559</v>
       </c>
     </row>
-    <row r="251" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>51</v>
       </c>
@@ -13958,7 +13958,7 @@
       </c>
       <c r="I251"/>
     </row>
-    <row r="252" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>885</v>
       </c>
@@ -13981,7 +13981,7 @@
         <v>16134322288</v>
       </c>
     </row>
-    <row r="253" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>621</v>
       </c>
@@ -14007,7 +14007,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="254" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>99</v>
       </c>
@@ -14033,7 +14033,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="255" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>73</v>
       </c>
@@ -14059,7 +14059,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="256" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>57</v>
       </c>
@@ -14082,7 +14082,7 @@
         <v>17055039818</v>
       </c>
     </row>
-    <row r="257" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>28</v>
       </c>
@@ -14108,7 +14108,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="258" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>26</v>
       </c>
@@ -14134,7 +14134,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="259" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>178</v>
       </c>
@@ -14160,7 +14160,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="260" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>912</v>
       </c>
@@ -14186,7 +14186,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="261" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>915</v>
       </c>
@@ -14212,7 +14212,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="262" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>60</v>
       </c>
@@ -14235,7 +14235,7 @@
         <v>19057963781</v>
       </c>
     </row>
-    <row r="263" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>60</v>
       </c>
@@ -14258,7 +14258,7 @@
         <v>12899486326</v>
       </c>
     </row>
-    <row r="264" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>13</v>
       </c>
@@ -14281,7 +14281,7 @@
         <v>12893374422</v>
       </c>
     </row>
-    <row r="265" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>13</v>
       </c>
@@ -14304,7 +14304,7 @@
         <v>12893371212</v>
       </c>
     </row>
-    <row r="266" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>126</v>
       </c>
@@ -14330,7 +14330,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="267" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>127</v>
       </c>
@@ -14353,7 +14353,7 @@
         <v>14165465626</v>
       </c>
     </row>
-    <row r="268" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>355</v>
       </c>
@@ -14379,7 +14379,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="269" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>184</v>
       </c>
@@ -14402,7 +14402,7 @@
         <v>15198247358</v>
       </c>
     </row>
-    <row r="270" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>184</v>
       </c>
@@ -14428,7 +14428,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="271" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>35</v>
       </c>
@@ -14451,7 +14451,7 @@
         <v>19055451317</v>
       </c>
     </row>
-    <row r="272" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>35</v>
       </c>
@@ -14477,7 +14477,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="273" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>96</v>
       </c>
@@ -14503,7 +14503,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="274" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>216</v>
       </c>
@@ -14529,7 +14529,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="275" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>47</v>
       </c>
@@ -14552,7 +14552,7 @@
         <v>16135910985</v>
       </c>
     </row>
-    <row r="276" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>55</v>
       </c>
@@ -14578,7 +14578,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="277" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>55</v>
       </c>
@@ -14601,7 +14601,7 @@
         <v>15482884318</v>
       </c>
     </row>
-    <row r="278" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>55</v>
       </c>
@@ -14624,7 +14624,7 @@
         <v>15198960644</v>
       </c>
     </row>
-    <row r="279" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>99</v>
       </c>
@@ -14647,7 +14647,7 @@
         <v>15193049999</v>
       </c>
     </row>
-    <row r="280" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>99</v>
       </c>
@@ -14673,7 +14673,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="281" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>56</v>
       </c>
@@ -14696,7 +14696,7 @@
         <v>19056931023</v>
       </c>
     </row>
-    <row r="282" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>135</v>
       </c>
@@ -14722,7 +14722,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="283" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>135</v>
       </c>
@@ -14748,7 +14748,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="284" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>967</v>
       </c>
@@ -14771,7 +14771,7 @@
         <v>16473989100</v>
       </c>
     </row>
-    <row r="285" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>82</v>
       </c>
@@ -14794,7 +14794,7 @@
         <v>16473989100</v>
       </c>
     </row>
-    <row r="286" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>82</v>
       </c>
@@ -14817,7 +14817,7 @@
         <v>16473685992</v>
       </c>
     </row>
-    <row r="287" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>75</v>
       </c>
@@ -14840,7 +14840,7 @@
         <v>19055768558</v>
       </c>
     </row>
-    <row r="288" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>51</v>
       </c>
@@ -14866,7 +14866,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="289" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>51</v>
       </c>
@@ -14889,7 +14889,7 @@
         <v>16135140575</v>
       </c>
     </row>
-    <row r="290" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>51</v>
       </c>
@@ -14915,7 +14915,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="291" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>45</v>
       </c>
@@ -14938,7 +14938,7 @@
         <v>16137445321</v>
       </c>
     </row>
-    <row r="292" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>38</v>
       </c>
@@ -14964,7 +14964,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="293" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>988</v>
       </c>
@@ -14987,7 +14987,7 @@
         <v>16136959165</v>
       </c>
     </row>
-    <row r="294" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>297</v>
       </c>
@@ -15013,7 +15013,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="295" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>341</v>
       </c>
@@ -15036,7 +15036,7 @@
         <v>15196377772</v>
       </c>
     </row>
-    <row r="296" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>268</v>
       </c>
@@ -15062,7 +15062,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="297" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>268</v>
       </c>
@@ -15088,7 +15088,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="298" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>73</v>
       </c>
@@ -15114,7 +15114,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="299" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>28</v>
       </c>
@@ -15140,7 +15140,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="300" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>28</v>
       </c>
@@ -15166,7 +15166,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="301" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>28</v>
       </c>
@@ -15189,7 +15189,7 @@
         <v>14165150009</v>
       </c>
     </row>
-    <row r="302" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>28</v>
       </c>
@@ -15215,7 +15215,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="303" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>28</v>
       </c>
@@ -15351,7 +15351,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="308" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>76</v>
       </c>
@@ -15403,7 +15403,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="310" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>76</v>
       </c>
@@ -15426,7 +15426,7 @@
         <v>15197831362</v>
       </c>
     </row>
-    <row r="311" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>121</v>
       </c>
@@ -15452,7 +15452,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="312" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>121</v>
       </c>
@@ -15475,7 +15475,7 @@
         <v>15199726146</v>
       </c>
     </row>
-    <row r="313" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>222</v>
       </c>
@@ -15501,7 +15501,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="314" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>511</v>
       </c>
@@ -15585,7 +15585,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="317" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>28</v>
       </c>
@@ -15611,7 +15611,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="318" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>1043</v>
       </c>
@@ -15634,7 +15634,7 @@
         <v>12267224367</v>
       </c>
     </row>
-    <row r="319" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>90</v>
       </c>
@@ -15689,7 +15689,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="321" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>28</v>
       </c>
@@ -15712,7 +15712,7 @@
         <v>14165158868</v>
       </c>
     </row>
-    <row r="322" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>95</v>
       </c>
@@ -15799,7 +15799,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="325" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>60</v>
       </c>
@@ -15883,7 +15883,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="328" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>28</v>
       </c>
@@ -15961,7 +15961,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="331" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>161</v>
       </c>
@@ -15987,7 +15987,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="332" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>28</v>
       </c>
@@ -16013,7 +16013,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="333" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>28</v>
       </c>
@@ -16031,7 +16031,7 @@
       </c>
       <c r="I333"/>
     </row>
-    <row r="334" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>60</v>
       </c>
@@ -16057,7 +16057,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="335" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>60</v>
       </c>
@@ -16083,7 +16083,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="336" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>190</v>
       </c>
@@ -16109,7 +16109,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="337" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>33</v>
       </c>
@@ -16135,7 +16135,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="338" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>78</v>
       </c>
@@ -16161,7 +16161,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="339" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>184</v>
       </c>
@@ -16187,7 +16187,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="340" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>184</v>
       </c>
@@ -16213,7 +16213,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="341" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>65</v>
       </c>
@@ -16239,7 +16239,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="342" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>64</v>
       </c>
@@ -16265,7 +16265,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="343" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>82</v>
       </c>
@@ -16291,7 +16291,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="344" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>134</v>
       </c>
@@ -16317,7 +16317,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="345" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>75</v>
       </c>
@@ -16343,7 +16343,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="346" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>51</v>
       </c>
@@ -16369,7 +16369,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="347" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>38</v>
       </c>
@@ -16395,7 +16395,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="348" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>82</v>
       </c>
@@ -16421,7 +16421,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="349" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>28</v>
       </c>
@@ -16447,7 +16447,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="350" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>82</v>
       </c>
@@ -16473,7 +16473,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="351" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>28</v>
       </c>
@@ -16499,7 +16499,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="352" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>51</v>
       </c>
@@ -16525,7 +16525,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="353" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>1139</v>
       </c>
@@ -16551,7 +16551,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="354" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>28</v>
       </c>
@@ -16577,7 +16577,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="355" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>57</v>
       </c>
@@ -16603,7 +16603,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="356" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>1149</v>
       </c>
@@ -16629,7 +16629,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="357" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>185</v>
       </c>
@@ -16655,7 +16655,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="358" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>119</v>
       </c>
@@ -16681,7 +16681,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="359" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>461</v>
       </c>
@@ -16707,7 +16707,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="360" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>52</v>
       </c>
@@ -16733,7 +16733,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="361" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>75</v>
       </c>
@@ -16904,7 +16904,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="367" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>75</v>
       </c>
@@ -16930,7 +16930,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="368" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>28</v>
       </c>
@@ -16956,7 +16956,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="369" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>63</v>
       </c>
@@ -17008,7 +17008,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="371" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>47</v>
       </c>
@@ -17034,7 +17034,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="372" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>28</v>
       </c>
@@ -17060,7 +17060,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="373" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>296</v>
       </c>
@@ -17109,7 +17109,7 @@
         <v>14167629922</v>
       </c>
     </row>
-    <row r="375" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>1197</v>
       </c>
@@ -17132,7 +17132,7 @@
         <v>17056653747</v>
       </c>
     </row>
-    <row r="376" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>121</v>
       </c>
@@ -17158,7 +17158,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="377" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>26</v>
       </c>
@@ -17210,7 +17210,7 @@
         <v>13435881547</v>
       </c>
     </row>
-    <row r="379" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>28</v>
       </c>
@@ -17260,7 +17260,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="381" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>28</v>
       </c>
@@ -17283,7 +17283,7 @@
         <v>14378808271</v>
       </c>
     </row>
-    <row r="382" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>60</v>
       </c>
@@ -17303,7 +17303,7 @@
         <v>14167369014</v>
       </c>
     </row>
-    <row r="383" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>82</v>
       </c>
@@ -17323,7 +17323,7 @@
         <v>14167369014</v>
       </c>
     </row>
-    <row r="384" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>161</v>
       </c>
@@ -17349,7 +17349,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="385" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>28</v>
       </c>
@@ -17375,7 +17375,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="386" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>99</v>
       </c>
@@ -17401,7 +17401,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="387" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>99</v>
       </c>
@@ -17427,7 +17427,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="388" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>631</v>
       </c>
@@ -17453,7 +17453,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="389" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>1239</v>
       </c>
@@ -17479,7 +17479,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="390" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>1242</v>
       </c>
@@ -17505,7 +17505,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="391" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>134</v>
       </c>
@@ -17531,7 +17531,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="392" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>51</v>
       </c>
@@ -17557,7 +17557,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="393" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>167</v>
       </c>
@@ -17583,7 +17583,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="394" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>45</v>
       </c>
@@ -17606,7 +17606,7 @@
         <v>16134214200</v>
       </c>
     </row>
-    <row r="395" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>65</v>
       </c>
@@ -17632,7 +17632,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="396" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>91</v>
       </c>
@@ -17655,7 +17655,7 @@
         <v>13438805588</v>
       </c>
     </row>
-    <row r="397" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>53</v>
       </c>
@@ -17759,7 +17759,7 @@
         <v>14167785659</v>
       </c>
     </row>
-    <row r="401" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>105</v>
       </c>
@@ -17785,7 +17785,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="402" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>1265</v>
       </c>
@@ -17811,7 +17811,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="403" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>75</v>
       </c>
@@ -17837,7 +17837,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="404" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>65</v>
       </c>
@@ -17863,7 +17863,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="405" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>76</v>
       </c>
@@ -17889,7 +17889,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="406" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>268</v>
       </c>
@@ -17944,7 +17944,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="408" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>635</v>
       </c>
@@ -17967,7 +17967,7 @@
         <v>18074641851</v>
       </c>
     </row>
-    <row r="409" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>635</v>
       </c>
@@ -17990,7 +17990,7 @@
         <v>18074641851</v>
       </c>
     </row>
-    <row r="410" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>80</v>
       </c>
@@ -18016,7 +18016,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="411" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>99</v>
       </c>
@@ -18039,7 +18039,7 @@
         <v>15196529595</v>
       </c>
     </row>
-    <row r="412" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>121</v>
       </c>
@@ -18062,7 +18062,7 @@
         <v>15199150552</v>
       </c>
     </row>
-    <row r="413" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>33</v>
       </c>
@@ -18224,7 +18224,7 @@
         <v>17057071595</v>
       </c>
     </row>
-    <row r="419" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>189</v>
       </c>
@@ -18279,7 +18279,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="421" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>191</v>
       </c>
@@ -18302,7 +18302,7 @@
         <v>19056079999</v>
       </c>
     </row>
-    <row r="422" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>135</v>
       </c>
@@ -18328,7 +18328,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="423" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>35</v>
       </c>
@@ -18351,7 +18351,7 @@
         <v>19055754274</v>
       </c>
     </row>
-    <row r="424" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>35</v>
       </c>
@@ -18374,7 +18374,7 @@
         <v>19055754274</v>
       </c>
     </row>
-    <row r="425" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>35</v>
       </c>
@@ -18395,7 +18395,7 @@
       </c>
       <c r="I425"/>
     </row>
-    <row r="426" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>80</v>
       </c>
@@ -18418,7 +18418,7 @@
         <v>12267352666</v>
       </c>
     </row>
-    <row r="427" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>1339</v>
       </c>
@@ -18441,7 +18441,7 @@
         <v>12263962666</v>
       </c>
     </row>
-    <row r="428" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>60</v>
       </c>
@@ -18467,7 +18467,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="429" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>214</v>
       </c>
@@ -18490,7 +18490,7 @@
         <v>17055165566</v>
       </c>
     </row>
-    <row r="430" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>95</v>
       </c>
@@ -18513,7 +18513,7 @@
         <v>19057279825</v>
       </c>
     </row>
-    <row r="431" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>60</v>
       </c>
@@ -18539,7 +18539,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="432" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>60</v>
       </c>
@@ -18562,7 +18562,7 @@
         <v>19054535454</v>
       </c>
     </row>
-    <row r="433" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>13</v>
       </c>
@@ -18585,7 +18585,7 @@
         <v>19056310001</v>
       </c>
     </row>
-    <row r="434" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>13</v>
       </c>
@@ -18608,7 +18608,7 @@
         <v>19053314441</v>
       </c>
     </row>
-    <row r="435" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>35</v>
       </c>
@@ -18631,7 +18631,7 @@
         <v>19055268130</v>
       </c>
     </row>
-    <row r="436" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>99</v>
       </c>
@@ -18654,7 +18654,7 @@
         <v>15196729826</v>
       </c>
     </row>
-    <row r="437" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>1355</v>
       </c>
@@ -18680,7 +18680,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="438" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>82</v>
       </c>
@@ -18703,7 +18703,7 @@
         <v>14167425050</v>
       </c>
     </row>
-    <row r="439" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>189</v>
       </c>
@@ -18726,7 +18726,7 @@
         <v>14379179399</v>
       </c>
     </row>
-    <row r="440" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>28</v>
       </c>
@@ -18752,7 +18752,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="441" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>28</v>
       </c>
@@ -18775,7 +18775,7 @@
         <v>14166076767</v>
       </c>
     </row>
-    <row r="442" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>28</v>
       </c>
@@ -18885,7 +18885,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="446" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>28</v>
       </c>
@@ -18908,7 +18908,7 @@
         <v>14165161116</v>
       </c>
     </row>
-    <row r="447" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>28</v>
       </c>
@@ -18931,7 +18931,7 @@
         <v>14165342304</v>
       </c>
     </row>
-    <row r="448" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>217</v>
       </c>
@@ -18957,7 +18957,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="449" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>50</v>
       </c>
@@ -19067,7 +19067,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="453" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>225</v>
       </c>
@@ -19090,7 +19090,7 @@
         <v>16134464461</v>
       </c>
     </row>
-    <row r="454" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>120</v>
       </c>
@@ -19139,7 +19139,7 @@
         <v>15199443180</v>
       </c>
     </row>
-    <row r="456" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>355</v>
       </c>
@@ -19165,7 +19165,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="457" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>135</v>
       </c>
@@ -19188,7 +19188,7 @@
         <v>12892967710</v>
       </c>
     </row>
-    <row r="458" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>105</v>
       </c>
@@ -19330,7 +19330,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="463" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>82</v>
       </c>
@@ -19353,7 +19353,7 @@
         <v>16472589957</v>
       </c>
     </row>
-    <row r="464" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>75</v>
       </c>
@@ -19376,7 +19376,7 @@
         <v>12892408338</v>
       </c>
     </row>
-    <row r="465" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>28</v>
       </c>
@@ -19402,7 +19402,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="466" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>35</v>
       </c>
@@ -19428,7 +19428,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="467" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>28</v>
       </c>
@@ -19480,7 +19480,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="469" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>28</v>
       </c>
@@ -19506,7 +19506,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="470" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>55</v>
       </c>
@@ -19555,7 +19555,7 @@
         <v>16133995777</v>
       </c>
     </row>
-    <row r="472" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>77</v>
       </c>
@@ -19581,7 +19581,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="473" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>885</v>
       </c>
@@ -19607,7 +19607,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="474" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>489</v>
       </c>
@@ -19633,7 +19633,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="475" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>307</v>
       </c>
@@ -19659,7 +19659,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="476" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>28</v>
       </c>
@@ -19685,7 +19685,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="477" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>60</v>
       </c>
@@ -19737,7 +19737,7 @@
         <v>19052161012</v>
       </c>
     </row>
-    <row r="479" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>60</v>
       </c>
@@ -19824,7 +19824,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="482" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>191</v>
       </c>
@@ -19850,7 +19850,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="483" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>1446</v>
       </c>
@@ -19876,7 +19876,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="484" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>1450</v>
       </c>
@@ -19902,7 +19902,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="485" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>134</v>
       </c>
@@ -19928,7 +19928,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="486" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>57</v>
       </c>
@@ -19954,7 +19954,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="487" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>26</v>
       </c>
@@ -19980,7 +19980,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="488" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>28</v>
       </c>
@@ -20229,7 +20229,7 @@
         <v>16477953809</v>
       </c>
     </row>
-    <row r="497" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>1470</v>
       </c>
@@ -20368,7 +20368,7 @@
         <v>16133590100</v>
       </c>
     </row>
-    <row r="502" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>13</v>
       </c>
@@ -20391,7 +20391,7 @@
         <v>19053369191</v>
       </c>
     </row>
-    <row r="503" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>191</v>
       </c>
@@ -20417,7 +20417,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="504" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>28</v>
       </c>
@@ -20443,7 +20443,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="505" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>96</v>
       </c>
@@ -20469,7 +20469,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="506" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>75</v>
       </c>
@@ -20492,7 +20492,7 @@
         <v>19055790650</v>
       </c>
     </row>
-    <row r="507" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>191</v>
       </c>
@@ -20515,7 +20515,7 @@
         <v>16473529551</v>
       </c>
     </row>
-    <row r="508" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>38</v>
       </c>
@@ -20541,7 +20541,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="509" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>82</v>
       </c>
@@ -20567,7 +20567,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="510" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>35</v>
       </c>
@@ -20593,7 +20593,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="511" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>60</v>
       </c>
@@ -20619,7 +20619,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="512" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>121</v>
       </c>
@@ -20642,7 +20642,7 @@
         <v>15192523933</v>
       </c>
     </row>
-    <row r="513" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>268</v>
       </c>
@@ -20665,7 +20665,7 @@
         <v>15758884343</v>
       </c>
     </row>
-    <row r="514" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>28</v>
       </c>
@@ -20691,7 +20691,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="515" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>1540</v>
       </c>
@@ -20717,7 +20717,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="516" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>810</v>
       </c>
@@ -20850,7 +20850,7 @@
         <v>12262530859</v>
       </c>
     </row>
-    <row r="521" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>135</v>
       </c>
@@ -21006,7 +21006,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="527" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>177</v>
       </c>
@@ -21029,7 +21029,7 @@
         <v>15194773336</v>
       </c>
     </row>
-    <row r="528" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>564</v>
       </c>
@@ -21055,7 +21055,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="529" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>60</v>
       </c>
@@ -21107,7 +21107,7 @@
         <v>16133722272</v>
       </c>
     </row>
-    <row r="531" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>76</v>
       </c>
@@ -21133,7 +21133,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="532" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>51</v>
       </c>
@@ -21159,7 +21159,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="533" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>191</v>
       </c>
@@ -21237,7 +21237,7 @@
         <v>19054956454</v>
       </c>
     </row>
-    <row r="536" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>82</v>
       </c>
@@ -21263,7 +21263,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="537" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>99</v>
       </c>
@@ -21396,7 +21396,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="542" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>28</v>
       </c>
@@ -21422,7 +21422,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="543" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>487</v>
       </c>
@@ -21474,7 +21474,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="545" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>1089</v>
       </c>
@@ -21526,7 +21526,7 @@
         <v>12892982856</v>
       </c>
     </row>
-    <row r="547" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>1597</v>
       </c>
@@ -21549,7 +21549,7 @@
         <v>18072930010</v>
       </c>
     </row>
-    <row r="548" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>41</v>
       </c>
@@ -21601,7 +21601,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="550" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>135</v>
       </c>
@@ -21761,7 +21761,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="556" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>135</v>
       </c>
@@ -21787,7 +21787,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="557" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>95</v>
       </c>
@@ -21813,7 +21813,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="558" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>35</v>
       </c>
@@ -21839,7 +21839,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="559" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>51</v>
       </c>
@@ -21865,7 +21865,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="560" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>55</v>
       </c>
@@ -21891,7 +21891,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="561" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>35</v>
       </c>
@@ -21917,7 +21917,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="562" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>1657</v>
       </c>
@@ -21943,7 +21943,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="563" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>35</v>
       </c>
@@ -21966,7 +21966,7 @@
         <v>19053089444</v>
       </c>
     </row>
-    <row r="564" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>35</v>
       </c>
@@ -22160,7 +22160,7 @@
         <v>16478079072</v>
       </c>
     </row>
-    <row r="571" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>95</v>
       </c>
@@ -22186,7 +22186,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="572" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>64</v>
       </c>
@@ -22212,7 +22212,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="573" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>51</v>
       </c>
@@ -22238,7 +22238,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="574" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>184</v>
       </c>
@@ -22264,7 +22264,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="575" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>326</v>
       </c>
@@ -22287,7 +22287,7 @@
         <v>17052426550</v>
       </c>
     </row>
-    <row r="576" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>82</v>
       </c>
@@ -22313,7 +22313,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="577" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>38</v>
       </c>
@@ -22336,7 +22336,7 @@
         <v>14162826555</v>
       </c>
     </row>
-    <row r="578" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>51</v>
       </c>
@@ -22362,7 +22362,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="579" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>386</v>
       </c>
@@ -22388,7 +22388,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="580" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>26</v>
       </c>
@@ -22411,7 +22411,7 @@
         <v>12894820461</v>
       </c>
     </row>
-    <row r="581" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>50</v>
       </c>
@@ -22434,7 +22434,7 @@
         <v>16132300623</v>
       </c>
     </row>
-    <row r="582" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>50</v>
       </c>
@@ -22457,7 +22457,7 @@
         <v>16133199992</v>
       </c>
     </row>
-    <row r="583" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>659</v>
       </c>
@@ -22480,7 +22480,7 @@
         <v>12892251000</v>
       </c>
     </row>
-    <row r="584" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>38</v>
       </c>
@@ -22506,7 +22506,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="585" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>73</v>
       </c>
@@ -22529,7 +22529,7 @@
         <v>18076989753</v>
       </c>
     </row>
-    <row r="586" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>73</v>
       </c>
@@ -22552,7 +22552,7 @@
         <v>18076989753</v>
       </c>
     </row>
-    <row r="587" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>28</v>
       </c>
@@ -22572,7 +22572,7 @@
         <v>16473669030</v>
       </c>
     </row>
-    <row r="588" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>135</v>
       </c>
@@ -22595,7 +22595,7 @@
         <v>12899329413</v>
       </c>
     </row>
-    <row r="589" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>355</v>
       </c>
@@ -22615,7 +22615,7 @@
         <v>17164658787</v>
       </c>
     </row>
-    <row r="590" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>75</v>
       </c>
@@ -22638,7 +22638,7 @@
         <v>19052409378</v>
       </c>
     </row>
-    <row r="591" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>899</v>
       </c>
@@ -22664,7 +22664,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="592" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>26</v>
       </c>
@@ -22690,7 +22690,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="593" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>26</v>
       </c>
@@ -22716,7 +22716,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="594" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>215</v>
       </c>
@@ -22739,7 +22739,7 @@
         <v>19057780668</v>
       </c>
     </row>
-    <row r="595" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>548</v>
       </c>
@@ -22762,7 +22762,7 @@
         <v>16133420420</v>
       </c>
     </row>
-    <row r="596" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>13</v>
       </c>
@@ -22785,7 +22785,7 @@
         <v>12892451787</v>
       </c>
     </row>
-    <row r="597" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>1487</v>
       </c>
@@ -22808,7 +22808,7 @@
         <v>15196693979</v>
       </c>
     </row>
-    <row r="598" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>78</v>
       </c>
@@ -22834,7 +22834,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="599" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>1742</v>
       </c>
@@ -22857,7 +22857,7 @@
         <v>12896749666</v>
       </c>
     </row>
-    <row r="600" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>250</v>
       </c>
@@ -22880,7 +22880,7 @@
         <v>14165918800</v>
       </c>
     </row>
-    <row r="601" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>28</v>
       </c>
@@ -22903,7 +22903,7 @@
         <v>14165918800</v>
       </c>
     </row>
-    <row r="602" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>243</v>
       </c>
@@ -22926,7 +22926,7 @@
         <v>19054764464</v>
       </c>
     </row>
-    <row r="603" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>65</v>
       </c>
@@ -22949,7 +22949,7 @@
         <v>16133897420</v>
       </c>
     </row>
-    <row r="604" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>99</v>
       </c>
@@ -22975,7 +22975,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="605" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>99</v>
       </c>
@@ -22998,7 +22998,7 @@
         <v>15196490444</v>
       </c>
     </row>
-    <row r="606" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>64</v>
       </c>
@@ -23021,7 +23021,7 @@
         <v>17054785778</v>
       </c>
     </row>
-    <row r="607" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>1761</v>
       </c>
@@ -23044,7 +23044,7 @@
         <v>14167390420</v>
       </c>
     </row>
-    <row r="608" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>50</v>
       </c>
@@ -23067,7 +23067,7 @@
         <v>16134404200</v>
       </c>
     </row>
-    <row r="609" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>51</v>
       </c>
@@ -23090,7 +23090,7 @@
         <v>16135655959</v>
       </c>
     </row>
-    <row r="610" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>91</v>
       </c>
@@ -23113,7 +23113,7 @@
         <v>16138349200</v>
       </c>
     </row>
-    <row r="611" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>88</v>
       </c>
@@ -23136,7 +23136,7 @@
         <v>17057431884</v>
       </c>
     </row>
-    <row r="612" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>189</v>
       </c>
@@ -23162,7 +23162,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="613" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>511</v>
       </c>
@@ -23188,7 +23188,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="614" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>1527</v>
       </c>
@@ -23211,7 +23211,7 @@
         <v>15199258787</v>
       </c>
     </row>
-    <row r="615" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>394</v>
       </c>
@@ -23234,7 +23234,7 @@
         <v>19056425111</v>
       </c>
     </row>
-    <row r="616" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>1788</v>
       </c>
@@ -23260,7 +23260,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="617" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>341</v>
       </c>
@@ -23283,7 +23283,7 @@
         <v>15192073400</v>
       </c>
     </row>
-    <row r="618" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>73</v>
       </c>
@@ -23309,7 +23309,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="619" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>82</v>
       </c>
@@ -23332,7 +23332,7 @@
         <v>16473688519</v>
       </c>
     </row>
-    <row r="620" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>121</v>
       </c>
@@ -23355,7 +23355,7 @@
         <v>15199740600</v>
       </c>
     </row>
-    <row r="621" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>53</v>
       </c>
@@ -23459,7 +23459,7 @@
         <v>15199255523</v>
       </c>
     </row>
-    <row r="625" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>135</v>
       </c>
@@ -23482,7 +23482,7 @@
         <v>12892960915</v>
       </c>
     </row>
-    <row r="626" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>548</v>
       </c>
@@ -23505,7 +23505,7 @@
         <v>16134997688</v>
       </c>
     </row>
-    <row r="627" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>76</v>
       </c>
@@ -23531,7 +23531,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="628" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>63</v>
       </c>
@@ -23557,7 +23557,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="629" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>51</v>
       </c>
@@ -23632,7 +23632,7 @@
         <v>12893898989</v>
       </c>
     </row>
-    <row r="632" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>28</v>
       </c>
@@ -23655,7 +23655,7 @@
         <v>14166932737</v>
       </c>
     </row>
-    <row r="633" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>50</v>
       </c>
@@ -23681,7 +23681,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="634" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>191</v>
       </c>
@@ -23730,7 +23730,7 @@
         <v>14162669336</v>
       </c>
     </row>
-    <row r="636" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>73</v>
       </c>
@@ -23756,7 +23756,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="637" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>82</v>
       </c>
@@ -23834,7 +23834,7 @@
         <v>16139322525</v>
       </c>
     </row>
-    <row r="640" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>1079</v>
       </c>
@@ -23860,7 +23860,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="641" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>809</v>
       </c>
@@ -23886,7 +23886,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="642" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>28</v>
       </c>
@@ -23912,7 +23912,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="643" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>38</v>
       </c>
@@ -23938,7 +23938,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="644" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>41</v>
       </c>
@@ -23961,7 +23961,7 @@
         <v>19058859172</v>
       </c>
     </row>
-    <row r="645" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>118</v>
       </c>
@@ -23987,7 +23987,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="646" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>82</v>
       </c>
@@ -24013,7 +24013,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="647" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>134</v>
       </c>
@@ -24039,7 +24039,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="648" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>75</v>
       </c>
@@ -24065,7 +24065,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="649" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>53</v>
       </c>
@@ -24091,7 +24091,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="650" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>13</v>
       </c>
@@ -24114,7 +24114,7 @@
         <v>19053339992</v>
       </c>
     </row>
-    <row r="651" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>368</v>
       </c>
@@ -24137,7 +24137,7 @@
         <v>15198047733</v>
       </c>
     </row>
-    <row r="652" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>268</v>
       </c>
@@ -24189,7 +24189,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="654" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>76</v>
       </c>
@@ -24212,7 +24212,7 @@
         <v>15198047733</v>
       </c>
     </row>
-    <row r="655" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>26</v>
       </c>
@@ -24296,7 +24296,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="658" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
         <v>484</v>
       </c>
@@ -24322,7 +24322,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="659" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>60</v>
       </c>
@@ -24374,7 +24374,7 @@
         <v>16138282929</v>
       </c>
     </row>
-    <row r="661" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
         <v>184</v>
       </c>
@@ -24400,7 +24400,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="662" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>1906</v>
       </c>
@@ -24565,7 +24565,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="668" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
         <v>1906</v>
       </c>
@@ -24591,7 +24591,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="669" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
         <v>121</v>
       </c>
@@ -24617,7 +24617,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="670" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
         <v>60</v>
       </c>
@@ -24698,7 +24698,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="673" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
         <v>95</v>
       </c>
@@ -24724,7 +24724,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="674" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
         <v>35</v>
       </c>
@@ -24750,7 +24750,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="675" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
         <v>1938</v>
       </c>
@@ -24776,7 +24776,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="676" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
         <v>35</v>
       </c>
@@ -24802,7 +24802,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="677" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
         <v>680</v>
       </c>
@@ -24825,7 +24825,7 @@
         <v>15195838420</v>
       </c>
     </row>
-    <row r="678" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
         <v>1946</v>
       </c>
@@ -24880,7 +24880,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="680" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
         <v>1949</v>
       </c>
@@ -24903,7 +24903,7 @@
         <v>15192950105</v>
       </c>
     </row>
-    <row r="681" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
         <v>191</v>
       </c>
@@ -24929,7 +24929,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="682" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
         <v>189</v>
       </c>
@@ -25080,7 +25080,7 @@
       </c>
       <c r="I687"/>
     </row>
-    <row r="688" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
         <v>55</v>
       </c>
@@ -25100,7 +25100,7 @@
         <v>15197429366</v>
       </c>
     </row>
-    <row r="689" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
         <v>296</v>
       </c>
@@ -25181,7 +25181,7 @@
       </c>
       <c r="I692"/>
     </row>
-    <row r="693" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
         <v>1928</v>
       </c>
@@ -25199,7 +25199,7 @@
       </c>
       <c r="I693"/>
     </row>
-    <row r="694" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
         <v>63</v>
       </c>
@@ -25217,7 +25217,7 @@
       </c>
       <c r="I694"/>
     </row>
-    <row r="695" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
         <v>13</v>
       </c>
@@ -25256,7 +25256,7 @@
       </c>
       <c r="I696"/>
     </row>
-    <row r="697" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
         <v>1991</v>
       </c>
@@ -25279,7 +25279,7 @@
         <v>15192089962</v>
       </c>
     </row>
-    <row r="698" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
         <v>127</v>
       </c>
@@ -25299,7 +25299,7 @@
         <v>14167920466</v>
       </c>
     </row>
-    <row r="699" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
         <v>1854</v>
       </c>
@@ -25317,7 +25317,7 @@
       </c>
       <c r="I699"/>
     </row>
-    <row r="700" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
         <v>373</v>
       </c>
@@ -25335,7 +25335,7 @@
       </c>
       <c r="I700"/>
     </row>
-    <row r="701" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
         <v>2005</v>
       </c>
@@ -25353,7 +25353,7 @@
       </c>
       <c r="I701"/>
     </row>
-    <row r="702" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
         <v>442</v>
       </c>
@@ -25379,7 +25379,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="703" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
         <v>403</v>
       </c>
@@ -25397,7 +25397,7 @@
       </c>
       <c r="I703"/>
     </row>
-    <row r="704" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
         <v>564</v>
       </c>
@@ -25499,7 +25499,7 @@
       </c>
       <c r="I708"/>
     </row>
-    <row r="709" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
         <v>28</v>
       </c>
@@ -25593,7 +25593,7 @@
       </c>
       <c r="I712"/>
     </row>
-    <row r="713" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
         <v>28</v>
       </c>
@@ -25611,7 +25611,7 @@
       </c>
       <c r="I713"/>
     </row>
-    <row r="714" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
         <v>2043</v>
       </c>
@@ -25675,6 +25675,11 @@
   <autoFilter ref="A1:N716">
     <filterColumn colId="5">
       <filters blank="1"/>
+    </filterColumn>
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <hyperlinks>

--- a/platform_scrapper/data/cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/cannabis_used_IDs.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4314" uniqueCount="1811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4344" uniqueCount="1813">
   <si>
     <t>Municipality or First Nation</t>
   </si>
@@ -5450,6 +5450,12 @@
   </si>
   <si>
     <t>6047d0585841593623dfe1ab</t>
+  </si>
+  <si>
+    <t>61cc0dad0524d00085920bcb</t>
+  </si>
+  <si>
+    <t>611d695a73a47700c4b6187f</t>
   </si>
 </sst>
 </file>
@@ -5632,7 +5638,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5673,6 +5679,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -5974,10 +5981,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:N612"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G160" sqref="G160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6039,7 +6047,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>118</v>
       </c>
@@ -6068,7 +6076,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -6097,7 +6105,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -6126,7 +6134,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -6155,7 +6163,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -6181,7 +6189,7 @@
         <v>17057224420</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -6210,7 +6218,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -6236,7 +6244,7 @@
         <v>14165860420</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -6262,7 +6270,7 @@
         <v>14165046420</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>80</v>
       </c>
@@ -6294,7 +6302,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>103</v>
       </c>
@@ -6323,7 +6331,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -6352,7 +6360,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -6381,7 +6389,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -6407,7 +6415,7 @@
         <v>14162037809</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>118</v>
       </c>
@@ -6436,7 +6444,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>125</v>
       </c>
@@ -6465,7 +6473,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>129</v>
       </c>
@@ -6491,7 +6499,7 @@
         <v>19164226777</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>132</v>
       </c>
@@ -6520,7 +6528,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -6549,7 +6557,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>139</v>
       </c>
@@ -6575,7 +6583,7 @@
         <v>16133471010</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -6604,7 +6612,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -6630,7 +6638,7 @@
         <v>19187089959</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>96</v>
       </c>
@@ -6659,7 +6667,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -6688,7 +6696,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>159</v>
       </c>
@@ -6717,7 +6725,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -6746,7 +6754,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>124</v>
       </c>
@@ -6775,7 +6783,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>27</v>
       </c>
@@ -6811,7 +6819,7 @@
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
     </row>
-    <row r="29" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -6840,7 +6848,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -6869,7 +6877,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" s="3" customFormat="1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>548</v>
       </c>
@@ -6899,7 +6907,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>123</v>
       </c>
@@ -6928,7 +6936,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -6957,7 +6965,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -6986,7 +6994,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>214</v>
       </c>
@@ -7015,7 +7023,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>218</v>
       </c>
@@ -7044,7 +7052,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>80</v>
       </c>
@@ -7073,7 +7081,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>32</v>
       </c>
@@ -7102,7 +7110,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>27</v>
       </c>
@@ -7131,7 +7139,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>27</v>
       </c>
@@ -7160,7 +7168,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>237</v>
       </c>
@@ -7192,7 +7200,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>185</v>
       </c>
@@ -7221,7 +7229,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>248</v>
       </c>
@@ -7250,7 +7258,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -7279,7 +7287,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>34</v>
       </c>
@@ -7308,7 +7316,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>268</v>
       </c>
@@ -7337,39 +7345,39 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+    <row r="47" spans="1:10" s="9" customFormat="1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="D47" t="s">
-        <v>14</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="D47" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="F47" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="13" t="s">
+      <c r="G47" s="26" t="s">
         <v>1782</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="9">
         <v>19054580439</v>
       </c>
-      <c r="J47" t="s">
+      <c r="J47" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>213</v>
       </c>
@@ -7398,7 +7406,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>298</v>
       </c>
@@ -7427,7 +7435,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>302</v>
       </c>
@@ -7456,7 +7464,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>27</v>
       </c>
@@ -7485,7 +7493,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>158</v>
       </c>
@@ -7514,7 +7522,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -7543,7 +7551,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>96</v>
       </c>
@@ -7572,7 +7580,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>27</v>
       </c>
@@ -7601,7 +7609,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>37</v>
       </c>
@@ -7630,7 +7638,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>334</v>
       </c>
@@ -7656,7 +7664,7 @@
         <v>17055040080</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>338</v>
       </c>
@@ -7682,7 +7690,7 @@
         <v>19055969510</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>37</v>
       </c>
@@ -7711,7 +7719,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>80</v>
       </c>
@@ -7740,7 +7748,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>25</v>
       </c>
@@ -7769,7 +7777,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>159</v>
       </c>
@@ -7798,7 +7806,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>96</v>
       </c>
@@ -7827,7 +7835,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -7856,7 +7864,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>187</v>
       </c>
@@ -7885,7 +7893,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>284</v>
       </c>
@@ -7914,7 +7922,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>80</v>
       </c>
@@ -7943,7 +7951,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>367</v>
       </c>
@@ -7972,7 +7980,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>62</v>
       </c>
@@ -8001,7 +8009,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>182</v>
       </c>
@@ -8030,7 +8038,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>380</v>
       </c>
@@ -8059,7 +8067,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>118</v>
       </c>
@@ -8088,7 +8096,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>37</v>
       </c>
@@ -8117,7 +8125,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>376</v>
       </c>
@@ -8146,7 +8154,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>85</v>
       </c>
@@ -8175,7 +8183,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>50</v>
       </c>
@@ -8204,7 +8212,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>27</v>
       </c>
@@ -8233,7 +8241,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>211</v>
       </c>
@@ -8262,7 +8270,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>96</v>
       </c>
@@ -8288,7 +8296,7 @@
         <v>15194720420</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>405</v>
       </c>
@@ -8314,7 +8322,7 @@
         <v>17055281010</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>411</v>
       </c>
@@ -8343,7 +8351,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>50</v>
       </c>
@@ -8372,7 +8380,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>50</v>
       </c>
@@ -8398,7 +8406,7 @@
         <v>16135239349</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>88</v>
       </c>
@@ -8427,7 +8435,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>241</v>
       </c>
@@ -8456,7 +8464,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>93</v>
       </c>
@@ -8485,7 +8493,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>71</v>
       </c>
@@ -8514,7 +8522,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>200</v>
       </c>
@@ -8540,7 +8548,7 @@
         <v>16137797475</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>27</v>
       </c>
@@ -8569,7 +8577,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>32</v>
       </c>
@@ -8598,7 +8606,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>158</v>
       </c>
@@ -8624,7 +8632,7 @@
         <v>14169005299</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>182</v>
       </c>
@@ -8650,7 +8658,7 @@
         <v>15195013797</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>49</v>
       </c>
@@ -8679,7 +8687,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>37</v>
       </c>
@@ -8705,7 +8713,7 @@
         <v>14164311333</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>32</v>
       </c>
@@ -8734,7 +8742,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>451</v>
       </c>
@@ -8763,7 +8771,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>482</v>
       </c>
@@ -8789,7 +8797,7 @@
         <v>15198259888</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>80</v>
       </c>
@@ -8815,7 +8823,7 @@
         <v>14166509420</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>96</v>
       </c>
@@ -8844,7 +8852,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>124</v>
       </c>
@@ -8873,7 +8881,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>27</v>
       </c>
@@ -8902,7 +8910,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>131</v>
       </c>
@@ -8931,7 +8939,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>118</v>
       </c>
@@ -8960,7 +8968,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>118</v>
       </c>
@@ -8989,7 +8997,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>94</v>
       </c>
@@ -9021,7 +9029,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>222</v>
       </c>
@@ -9050,7 +9058,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>507</v>
       </c>
@@ -9079,7 +9087,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>56</v>
       </c>
@@ -9108,7 +9116,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>27</v>
       </c>
@@ -9137,7 +9145,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>158</v>
       </c>
@@ -9166,7 +9174,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>27</v>
       </c>
@@ -9195,7 +9203,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>260</v>
       </c>
@@ -9224,7 +9232,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>264</v>
       </c>
@@ -9253,7 +9261,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>276</v>
       </c>
@@ -9282,7 +9290,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>158</v>
       </c>
@@ -9311,7 +9319,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>50</v>
       </c>
@@ -9340,7 +9348,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>411</v>
       </c>
@@ -9369,7 +9377,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>452</v>
       </c>
@@ -9398,7 +9406,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>27</v>
       </c>
@@ -9427,7 +9435,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>77</v>
       </c>
@@ -9456,7 +9464,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>136</v>
       </c>
@@ -9485,7 +9493,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>200</v>
       </c>
@@ -9514,7 +9522,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>398</v>
       </c>
@@ -9543,7 +9551,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>74</v>
       </c>
@@ -9572,7 +9580,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>534</v>
       </c>
@@ -9601,7 +9609,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>164</v>
       </c>
@@ -9630,7 +9638,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>237</v>
       </c>
@@ -9659,7 +9667,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>305</v>
       </c>
@@ -9688,7 +9696,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>37</v>
       </c>
@@ -9717,7 +9725,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>211</v>
       </c>
@@ -9743,7 +9751,7 @@
         <v>14165460810</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>50</v>
       </c>
@@ -9775,7 +9783,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>34</v>
       </c>
@@ -9804,7 +9812,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>34</v>
       </c>
@@ -9833,7 +9841,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>555</v>
       </c>
@@ -9862,7 +9870,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>221</v>
       </c>
@@ -9891,7 +9899,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>13</v>
       </c>
@@ -9917,7 +9925,7 @@
         <v>16477465430</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>32</v>
       </c>
@@ -9943,7 +9951,7 @@
         <v>14374101420</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>27</v>
       </c>
@@ -9972,7 +9980,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>577</v>
       </c>
@@ -10001,7 +10009,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>34</v>
       </c>
@@ -10027,7 +10035,7 @@
         <v>18777990420</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>34</v>
       </c>
@@ -10056,7 +10064,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>179</v>
       </c>
@@ -10085,7 +10093,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>587</v>
       </c>
@@ -10114,7 +10122,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>32</v>
       </c>
@@ -10143,7 +10151,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>64</v>
       </c>
@@ -10172,7 +10180,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>46</v>
       </c>
@@ -10201,7 +10209,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>34</v>
       </c>
@@ -10227,7 +10235,7 @@
         <v>19055476002</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>569</v>
       </c>
@@ -10256,7 +10264,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>599</v>
       </c>
@@ -10327,13 +10335,19 @@
       <c r="E151" s="21" t="s">
         <v>610</v>
       </c>
+      <c r="F151" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G151" s="15" t="s">
+        <v>1811</v>
+      </c>
       <c r="H151" t="s">
         <v>16</v>
       </c>
       <c r="I151">
         <v>12265647070</v>
       </c>
-      <c r="J151" t="s">
+      <c r="J151" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10353,13 +10367,19 @@
       <c r="E152" s="21" t="s">
         <v>612</v>
       </c>
+      <c r="F152" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G152" s="15" t="s">
+        <v>1812</v>
+      </c>
       <c r="H152" t="s">
         <v>61</v>
       </c>
       <c r="I152">
         <v>18072854117</v>
       </c>
-      <c r="J152" t="s">
+      <c r="J152" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10379,11 +10399,17 @@
       <c r="E153" s="21" t="s">
         <v>617</v>
       </c>
+      <c r="F153" s="6" t="s">
+        <v>1731</v>
+      </c>
       <c r="H153" t="s">
         <v>18</v>
       </c>
       <c r="I153">
         <v>17055039818</v>
+      </c>
+      <c r="J153" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="154" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -10428,14 +10454,17 @@
       <c r="E155" s="21" t="s">
         <v>622</v>
       </c>
+      <c r="F155" s="6" t="s">
+        <v>1731</v>
+      </c>
       <c r="H155" t="s">
         <v>47</v>
       </c>
       <c r="I155">
         <v>19056198849</v>
       </c>
-      <c r="J155" t="s">
-        <v>48</v>
+      <c r="J155" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="156" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -10454,14 +10483,17 @@
       <c r="E156" s="21" t="s">
         <v>625</v>
       </c>
+      <c r="F156" s="6" t="s">
+        <v>1731</v>
+      </c>
       <c r="H156" t="s">
         <v>47</v>
       </c>
       <c r="I156">
         <v>19053041276</v>
       </c>
-      <c r="J156" t="s">
-        <v>48</v>
+      <c r="J156" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="157" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -10480,13 +10512,16 @@
       <c r="E157" s="21" t="s">
         <v>628</v>
       </c>
+      <c r="F157" s="6" t="s">
+        <v>1731</v>
+      </c>
       <c r="H157" t="s">
         <v>45</v>
       </c>
       <c r="I157">
         <v>17057039100</v>
       </c>
-      <c r="J157" t="s">
+      <c r="J157" s="14" t="s">
         <v>39</v>
       </c>
     </row>
@@ -10506,13 +10541,16 @@
       <c r="E158" s="21" t="s">
         <v>631</v>
       </c>
+      <c r="F158" s="6" t="s">
+        <v>1731</v>
+      </c>
       <c r="H158" t="s">
         <v>70</v>
       </c>
       <c r="I158">
         <v>17057039100</v>
       </c>
-      <c r="J158" t="s">
+      <c r="J158" s="14" t="s">
         <v>39</v>
       </c>
     </row>
@@ -10532,11 +10570,17 @@
       <c r="E159" s="21" t="s">
         <v>633</v>
       </c>
+      <c r="F159" s="6" t="s">
+        <v>1731</v>
+      </c>
       <c r="H159" t="s">
         <v>18</v>
       </c>
       <c r="I159">
         <v>19057963781</v>
+      </c>
+      <c r="J159" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="160" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -10555,11 +10599,17 @@
       <c r="E160" s="21" t="s">
         <v>635</v>
       </c>
+      <c r="F160" s="6" t="s">
+        <v>1731</v>
+      </c>
       <c r="H160" t="s">
         <v>36</v>
       </c>
       <c r="I160">
         <v>12899486326</v>
+      </c>
+      <c r="J160" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="161" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -10578,11 +10628,17 @@
       <c r="E161" s="21" t="s">
         <v>638</v>
       </c>
+      <c r="F161" s="6" t="s">
+        <v>1731</v>
+      </c>
       <c r="H161" t="s">
         <v>18</v>
       </c>
       <c r="I161">
         <v>12893374422</v>
+      </c>
+      <c r="J161" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="162" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -10601,11 +10657,17 @@
       <c r="E162" s="21" t="s">
         <v>640</v>
       </c>
+      <c r="F162" s="6" t="s">
+        <v>1731</v>
+      </c>
       <c r="H162" t="s">
         <v>18</v>
       </c>
       <c r="I162">
         <v>12893371212</v>
+      </c>
+      <c r="J162" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="163" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -10624,13 +10686,16 @@
       <c r="E163" s="21" t="s">
         <v>642</v>
       </c>
+      <c r="F163" s="6" t="s">
+        <v>1731</v>
+      </c>
       <c r="H163" t="s">
         <v>45</v>
       </c>
       <c r="I163">
         <v>16139383377</v>
       </c>
-      <c r="J163" t="s">
+      <c r="J163" s="14" t="s">
         <v>39</v>
       </c>
     </row>
@@ -10650,11 +10715,17 @@
       <c r="E164" s="21" t="s">
         <v>645</v>
       </c>
+      <c r="F164" s="6" t="s">
+        <v>1731</v>
+      </c>
       <c r="H164" t="s">
         <v>18</v>
       </c>
       <c r="I164">
         <v>14165465626</v>
+      </c>
+      <c r="J164" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="165" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -10673,13 +10744,16 @@
       <c r="E165" s="21" t="s">
         <v>647</v>
       </c>
+      <c r="F165" s="6" t="s">
+        <v>1731</v>
+      </c>
       <c r="H165" t="s">
         <v>45</v>
       </c>
       <c r="I165">
         <v>19059946885</v>
       </c>
-      <c r="J165" t="s">
+      <c r="J165" s="14" t="s">
         <v>39</v>
       </c>
     </row>
@@ -10699,11 +10773,17 @@
       <c r="E166" s="21" t="s">
         <v>649</v>
       </c>
+      <c r="F166" s="6" t="s">
+        <v>1731</v>
+      </c>
       <c r="H166" t="s">
         <v>18</v>
       </c>
       <c r="I166">
         <v>15198247358</v>
+      </c>
+      <c r="J166" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="167" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -10722,13 +10802,16 @@
       <c r="E167" s="21" t="s">
         <v>651</v>
       </c>
+      <c r="F167" s="6" t="s">
+        <v>1731</v>
+      </c>
       <c r="H167" t="s">
         <v>70</v>
       </c>
       <c r="I167">
         <v>15198272104</v>
       </c>
-      <c r="J167" t="s">
+      <c r="J167" s="14" t="s">
         <v>39</v>
       </c>
     </row>
@@ -10748,11 +10831,17 @@
       <c r="E168" s="21" t="s">
         <v>654</v>
       </c>
+      <c r="F168" s="6" t="s">
+        <v>1731</v>
+      </c>
       <c r="H168" t="s">
         <v>18</v>
       </c>
       <c r="I168">
         <v>19055451317</v>
+      </c>
+      <c r="J168" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="169" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -10771,14 +10860,17 @@
       <c r="E169" s="21" t="s">
         <v>656</v>
       </c>
+      <c r="F169" s="6" t="s">
+        <v>1731</v>
+      </c>
       <c r="H169" t="s">
         <v>47</v>
       </c>
       <c r="I169">
         <v>19053830998</v>
       </c>
-      <c r="J169" t="s">
-        <v>48</v>
+      <c r="J169" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="170" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -10797,13 +10889,16 @@
       <c r="E170" s="21" t="s">
         <v>658</v>
       </c>
+      <c r="F170" s="6" t="s">
+        <v>1731</v>
+      </c>
       <c r="H170" t="s">
         <v>45</v>
       </c>
       <c r="I170">
         <v>15195064420</v>
       </c>
-      <c r="J170" t="s">
+      <c r="J170" s="14" t="s">
         <v>39</v>
       </c>
     </row>
@@ -10967,14 +11062,17 @@
       <c r="E177" s="21" t="s">
         <v>673</v>
       </c>
+      <c r="F177" s="6" t="s">
+        <v>1731</v>
+      </c>
       <c r="H177" t="s">
         <v>16</v>
       </c>
       <c r="I177">
         <v>15194734416</v>
       </c>
-      <c r="J177" t="s">
-        <v>17</v>
+      <c r="J177" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="178" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -11542,7 +11640,7 @@
         <v>16473419333</v>
       </c>
     </row>
-    <row r="201" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>27</v>
       </c>
@@ -11571,7 +11669,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="202" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>741</v>
       </c>
@@ -11597,7 +11695,7 @@
         <v>12894790420</v>
       </c>
     </row>
-    <row r="203" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>37</v>
       </c>
@@ -11626,7 +11724,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="204" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>37</v>
       </c>
@@ -11678,7 +11776,7 @@
         <v>15198800899</v>
       </c>
     </row>
-    <row r="206" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>32</v>
       </c>
@@ -11831,7 +11929,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="212" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>34</v>
       </c>
@@ -11860,7 +11958,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="213" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>96</v>
       </c>
@@ -11964,7 +12062,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="217" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>80</v>
       </c>
@@ -12039,7 +12137,7 @@
         <v>19055033222</v>
       </c>
     </row>
-    <row r="220" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>80</v>
       </c>
@@ -12071,7 +12169,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="221" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>27</v>
       </c>
@@ -12126,7 +12224,7 @@
         <v>19054532322</v>
       </c>
     </row>
-    <row r="223" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>96</v>
       </c>
@@ -12158,7 +12256,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="224" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>796</v>
       </c>
@@ -12210,7 +12308,7 @@
         <v>16473687288</v>
       </c>
     </row>
-    <row r="226" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>80</v>
       </c>
@@ -12236,7 +12334,7 @@
         <v>14165512030</v>
       </c>
     </row>
-    <row r="227" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>807</v>
       </c>
@@ -13063,7 +13161,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="259" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>893</v>
       </c>
@@ -13092,7 +13190,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="260" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>32</v>
       </c>
@@ -13121,7 +13219,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="261" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>118</v>
       </c>
@@ -13150,7 +13248,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="262" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>52</v>
       </c>
@@ -13179,7 +13277,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="263" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>56</v>
       </c>
@@ -13283,7 +13381,7 @@
         <v>15193042266</v>
       </c>
     </row>
-    <row r="267" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>50</v>
       </c>
@@ -13387,7 +13485,7 @@
         <v>16132864694</v>
       </c>
     </row>
-    <row r="271" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>27</v>
       </c>
@@ -13488,7 +13586,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="275" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>46</v>
       </c>
@@ -13535,7 +13633,7 @@
       </c>
       <c r="I276"/>
     </row>
-    <row r="277" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>49</v>
       </c>
@@ -13982,7 +14080,7 @@
         <v>19056857784</v>
       </c>
     </row>
-    <row r="295" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>411</v>
       </c>
@@ -14011,7 +14109,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="296" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>34</v>
       </c>
@@ -14037,7 +14135,7 @@
         <v>19055220184</v>
       </c>
     </row>
-    <row r="297" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>27</v>
       </c>
@@ -14219,7 +14317,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="304" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>80</v>
       </c>
@@ -14389,7 +14487,7 @@
         <v>14166720879</v>
       </c>
     </row>
-    <row r="311" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>56</v>
       </c>
@@ -14418,7 +14516,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="312" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>51</v>
       </c>
@@ -14447,7 +14545,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="313" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>52</v>
       </c>
@@ -14473,7 +14571,7 @@
         <v>19057043664</v>
       </c>
     </row>
-    <row r="314" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>27</v>
       </c>
@@ -14502,7 +14600,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="315" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>63</v>
       </c>
@@ -14554,7 +14652,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="317" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>587</v>
       </c>
@@ -15102,7 +15200,7 @@
         <v>14166863912</v>
       </c>
     </row>
-    <row r="340" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>123</v>
       </c>
@@ -15131,7 +15229,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="341" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>446</v>
       </c>
@@ -15160,7 +15258,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="342" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>50</v>
       </c>
@@ -15284,7 +15382,7 @@
         <v>16132281371</v>
       </c>
     </row>
-    <row r="347" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>13</v>
       </c>
@@ -15313,7 +15411,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="348" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>27</v>
       </c>
@@ -15342,7 +15440,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="349" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>158</v>
       </c>
@@ -15417,7 +15515,7 @@
         <v>12898368730</v>
       </c>
     </row>
-    <row r="352" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>118</v>
       </c>
@@ -15518,7 +15616,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="356" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>34</v>
       </c>
@@ -15544,7 +15642,7 @@
         <v>19055745323</v>
       </c>
     </row>
-    <row r="357" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>27</v>
       </c>
@@ -15570,7 +15668,7 @@
         <v>14165852263</v>
       </c>
     </row>
-    <row r="358" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>13</v>
       </c>
@@ -15602,7 +15700,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="359" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>32</v>
       </c>
@@ -15755,7 +15853,7 @@
         <v>16478537689</v>
       </c>
     </row>
-    <row r="365" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>59</v>
       </c>
@@ -15833,7 +15931,7 @@
         <v>12266090149</v>
       </c>
     </row>
-    <row r="368" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>1150</v>
       </c>
@@ -16015,7 +16113,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="375" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>59</v>
       </c>
@@ -16067,7 +16165,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="377" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>27</v>
       </c>
@@ -16099,7 +16197,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="378" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>27</v>
       </c>
@@ -16310,7 +16408,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="386" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>1197</v>
       </c>
@@ -16336,7 +16434,7 @@
         <v>16139240007</v>
       </c>
     </row>
-    <row r="387" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>1202</v>
       </c>
@@ -16362,7 +16460,7 @@
         <v>18072272045</v>
       </c>
     </row>
-    <row r="388" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>186</v>
       </c>
@@ -16391,7 +16489,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="389" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>27</v>
       </c>
@@ -16420,7 +16518,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="390" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>37</v>
       </c>
@@ -16449,7 +16547,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="391" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>80</v>
       </c>
@@ -16478,7 +16576,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="392" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>62</v>
       </c>
@@ -16507,7 +16605,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="393" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>37</v>
       </c>
@@ -16556,7 +16654,7 @@
         <v>18075484207</v>
       </c>
     </row>
-    <row r="395" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>27</v>
       </c>
@@ -16585,7 +16683,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="396" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>158</v>
       </c>
@@ -16614,7 +16712,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="397" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>50</v>
       </c>
@@ -16646,7 +16744,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="398" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>1231</v>
       </c>
@@ -17047,7 +17145,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="414" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>50</v>
       </c>
@@ -17076,7 +17174,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="415" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>34</v>
       </c>
@@ -17102,7 +17200,7 @@
         <v>12892461172</v>
       </c>
     </row>
-    <row r="416" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>54</v>
       </c>
@@ -17128,7 +17226,7 @@
         <v>15199042637</v>
       </c>
     </row>
-    <row r="417" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>1276</v>
       </c>
@@ -17177,7 +17275,7 @@
         <v>12893410512</v>
       </c>
     </row>
-    <row r="419" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>186</v>
       </c>
@@ -17203,7 +17301,7 @@
         <v>15193542255</v>
       </c>
     </row>
-    <row r="420" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>118</v>
       </c>
@@ -17229,7 +17327,7 @@
         <v>15192582544</v>
       </c>
     </row>
-    <row r="421" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>118</v>
       </c>
@@ -17255,7 +17353,7 @@
         <v>15192500712</v>
       </c>
     </row>
-    <row r="422" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>118</v>
       </c>
@@ -17281,7 +17379,7 @@
         <v>15199678818</v>
       </c>
     </row>
-    <row r="423" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>1286</v>
       </c>
@@ -17385,7 +17483,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="427" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>1295</v>
       </c>
@@ -17489,7 +17587,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="431" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>59</v>
       </c>
@@ -17515,7 +17613,7 @@
         <v>19054956454</v>
       </c>
     </row>
-    <row r="432" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>1241</v>
       </c>
@@ -17590,7 +17688,7 @@
         <v>15192041422</v>
       </c>
     </row>
-    <row r="435" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>34</v>
       </c>
@@ -17616,7 +17714,7 @@
         <v>19055288955</v>
       </c>
     </row>
-    <row r="436" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>62</v>
       </c>
@@ -17642,7 +17740,7 @@
         <v>15197571001</v>
       </c>
     </row>
-    <row r="437" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>312</v>
       </c>
@@ -17671,7 +17769,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="438" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>327</v>
       </c>
@@ -17749,7 +17847,7 @@
         <v>15195091011</v>
       </c>
     </row>
-    <row r="441" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>74</v>
       </c>
@@ -17804,7 +17902,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="443" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>1340</v>
       </c>
@@ -17876,7 +17974,7 @@
         <v>17736973191</v>
       </c>
     </row>
-    <row r="446" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>476</v>
       </c>
@@ -17931,7 +18029,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="448" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>52</v>
       </c>
@@ -17960,7 +18058,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="449" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>62</v>
       </c>
@@ -17986,7 +18084,7 @@
         <v>15193040660</v>
       </c>
     </row>
-    <row r="450" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>547</v>
       </c>
@@ -18012,7 +18110,7 @@
         <v>17058879567</v>
       </c>
     </row>
-    <row r="451" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>27</v>
       </c>
@@ -18036,7 +18134,7 @@
       </c>
       <c r="I451"/>
     </row>
-    <row r="452" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>96</v>
       </c>
@@ -18293,7 +18391,7 @@
         <v>19053089444</v>
       </c>
     </row>
-    <row r="462" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>124</v>
       </c>
@@ -18322,7 +18420,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="463" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>27</v>
       </c>
@@ -18351,7 +18449,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="464" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>27</v>
       </c>
@@ -18380,7 +18478,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="465" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>80</v>
       </c>
@@ -18409,7 +18507,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="466" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>182</v>
       </c>
@@ -18438,7 +18536,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="467" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>27</v>
       </c>
@@ -19656,7 +19754,7 @@
         <v>19056800420</v>
       </c>
     </row>
-    <row r="518" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>131</v>
       </c>
@@ -19685,7 +19783,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="519" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>181</v>
       </c>
@@ -19711,7 +19809,7 @@
         <v>15198210555</v>
       </c>
     </row>
-    <row r="520" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>1241</v>
       </c>
@@ -19858,7 +19956,7 @@
         <v>16134222888</v>
       </c>
     </row>
-    <row r="526" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>34</v>
       </c>
@@ -19884,7 +19982,7 @@
         <v>12893896889</v>
       </c>
     </row>
-    <row r="527" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>34</v>
       </c>
@@ -19982,7 +20080,7 @@
         <v>19052906604</v>
       </c>
     </row>
-    <row r="531" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>37</v>
       </c>
@@ -20057,7 +20155,7 @@
         <v>14165513913</v>
       </c>
     </row>
-    <row r="534" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>123</v>
       </c>
@@ -20086,7 +20184,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="535" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>123</v>
       </c>
@@ -20438,7 +20536,7 @@
         <v>17058065720</v>
       </c>
     </row>
-    <row r="549" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>118</v>
       </c>
@@ -20516,7 +20614,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="552" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>499</v>
       </c>
@@ -20545,7 +20643,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="553" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>1605</v>
       </c>
@@ -20626,7 +20724,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="556" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>49</v>
       </c>
@@ -20704,7 +20802,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="559" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>1622</v>
       </c>
@@ -20733,7 +20831,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="560" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>259</v>
       </c>
@@ -20759,7 +20857,7 @@
         <v>13434760363</v>
       </c>
     </row>
-    <row r="561" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>56</v>
       </c>
@@ -20788,7 +20886,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="562" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>32</v>
       </c>
@@ -20814,7 +20912,7 @@
         <v>14165219993</v>
       </c>
     </row>
-    <row r="563" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>297</v>
       </c>
@@ -20921,7 +21019,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="567" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>37</v>
       </c>
@@ -20947,7 +21045,7 @@
         <v>14162910420</v>
       </c>
     </row>
-    <row r="568" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>50</v>
       </c>
@@ -21129,7 +21227,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="575" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>27</v>
       </c>
@@ -21227,7 +21325,7 @@
         <v>16475535874</v>
       </c>
     </row>
-    <row r="579" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>27</v>
       </c>
@@ -21256,7 +21354,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="580" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>96</v>
       </c>
@@ -21282,7 +21380,7 @@
         <v>15196013420</v>
       </c>
     </row>
-    <row r="581" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>94</v>
       </c>
@@ -21308,7 +21406,7 @@
         <v>15196071966</v>
       </c>
     </row>
-    <row r="582" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>37</v>
       </c>
@@ -21337,7 +21435,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="583" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>136</v>
       </c>
@@ -21396,7 +21494,7 @@
       </c>
       <c r="I585"/>
     </row>
-    <row r="586" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>311</v>
       </c>
@@ -21417,7 +21515,7 @@
       </c>
       <c r="I586"/>
     </row>
-    <row r="587" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>422</v>
       </c>
@@ -21438,7 +21536,7 @@
       </c>
       <c r="I587"/>
     </row>
-    <row r="588" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>62</v>
       </c>
@@ -21513,7 +21611,7 @@
       </c>
       <c r="I591"/>
     </row>
-    <row r="592" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>466</v>
       </c>
@@ -21693,7 +21791,7 @@
       </c>
       <c r="I600"/>
     </row>
-    <row r="601" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>184</v>
       </c>
@@ -21714,7 +21812,7 @@
       </c>
       <c r="I601"/>
     </row>
-    <row r="602" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>1727</v>
       </c>
@@ -21735,7 +21833,7 @@
       </c>
       <c r="I602"/>
     </row>
-    <row r="603" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>27</v>
       </c>
@@ -21756,7 +21854,7 @@
       </c>
       <c r="I603"/>
     </row>
-    <row r="604" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>27</v>
       </c>
@@ -21803,7 +21901,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="606" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>27</v>
       </c>
@@ -21824,7 +21922,7 @@
       </c>
       <c r="I606"/>
     </row>
-    <row r="607" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>27</v>
       </c>
@@ -21850,7 +21948,7 @@
         <v>14165388225</v>
       </c>
     </row>
-    <row r="608" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>27</v>
       </c>
@@ -21907,7 +22005,7 @@
       </c>
       <c r="I610"/>
     </row>
-    <row r="611" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:9" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>118</v>
       </c>
@@ -21928,7 +22026,7 @@
       </c>
       <c r="I611"/>
     </row>
-    <row r="612" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:9" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>158</v>
       </c>
@@ -21950,7 +22048,11 @@
       <c r="I612"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N612"/>
+  <autoFilter ref="A1:N612">
+    <filterColumn colId="5">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="E17" r:id="rId1"/>
     <hyperlink ref="E69" r:id="rId2"/>

--- a/platform_scrapper/data/cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/cannabis_used_IDs.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4362" uniqueCount="1752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4573" uniqueCount="1800">
   <si>
     <t>Municipality or First Nation</t>
   </si>
@@ -3448,9 +3448,6 @@
     <t>110 DONNA DR UNIT D003</t>
   </si>
   <si>
-    <t>https://www.cannaversedispensaries.com/</t>
-  </si>
-  <si>
     <t>730 DANFORTH AVE SUITE 1</t>
   </si>
   <si>
@@ -3646,9 +3643,6 @@
     <t>52 WALTON ST</t>
   </si>
   <si>
-    <t>https://www.grasshopperclub.com/shop/logan-square</t>
-  </si>
-  <si>
     <t>The Grass Hut</t>
   </si>
   <si>
@@ -4432,9 +4426,6 @@
     <t>20 JOCELYN ST</t>
   </si>
   <si>
-    <t>https://www.shoppersdrugmart.ca/en/store-locator/store/4639</t>
-  </si>
-  <si>
     <t>76 MAIN STREET</t>
   </si>
   <si>
@@ -4942,9 +4933,6 @@
     <t>486 FRONT ST W UNIT SF12</t>
   </si>
   <si>
-    <t>https://dutchie.com/dispensary/tokyo-smoke-chartwell-shopping-centre</t>
-  </si>
-  <si>
     <t>VAL CARON</t>
   </si>
   <si>
@@ -5273,6 +5261,162 @@
   </si>
   <si>
     <t>https://www.woweeds.ca/lakeshore.html#shop</t>
+  </si>
+  <si>
+    <t>['url not found']</t>
+  </si>
+  <si>
+    <t>['No delivery / Ship via Canada Post in 5-7 business days']</t>
+  </si>
+  <si>
+    <t>Public Notice Period: Ended 2023/12/05</t>
+  </si>
+  <si>
+    <t>['In-store pickup']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WAIO </t>
+  </si>
+  <si>
+    <t>Fire &amp; Flower</t>
+  </si>
+  <si>
+    <t>651f35a506b7ff0009aaa496</t>
+  </si>
+  <si>
+    <t>6244db9060244774646549b6</t>
+  </si>
+  <si>
+    <t>60395a5a88cb221041d33faf</t>
+  </si>
+  <si>
+    <t>60be612ae0d0ea00d36c7b9b</t>
+  </si>
+  <si>
+    <t>6021dfc083103b00de2e649c</t>
+  </si>
+  <si>
+    <t>5fbc4a5d39804b253836942a</t>
+  </si>
+  <si>
+    <t>5ea6f8d10916f7011ba584bb</t>
+  </si>
+  <si>
+    <t>['No delivery / Coming soon']</t>
+  </si>
+  <si>
+    <t>5f775c2dfd3fa200b1e438db</t>
+  </si>
+  <si>
+    <t>60358007f2088000ae72c235</t>
+  </si>
+  <si>
+    <t>['Delivery within 12 kms', 'Same-day delivery']</t>
+  </si>
+  <si>
+    <t>64dfc51c6cdc2900099abb39</t>
+  </si>
+  <si>
+    <t>655b73443ca3eb00094bf065</t>
+  </si>
+  <si>
+    <t>60a434bb5b879900a64a7f2b</t>
+  </si>
+  <si>
+    <t>655b9911d3836a00094e0641</t>
+  </si>
+  <si>
+    <t>61eafd02a3b42b00a78d0d7f</t>
+  </si>
+  <si>
+    <t>603d520e9b365200aa558d5d</t>
+  </si>
+  <si>
+    <t>5ea9b2f328c37a05840c7ef4</t>
+  </si>
+  <si>
+    <t>https://www.sessions.ca/locations/thunder-bay</t>
+  </si>
+  <si>
+    <t>651425a687ac19000963ed22</t>
+  </si>
+  <si>
+    <t>615b286770901000c513d56f</t>
+  </si>
+  <si>
+    <t>6075a0df98e56800d5f0a5ba</t>
+  </si>
+  <si>
+    <t>60d0bfa2232bdc140491f01c</t>
+  </si>
+  <si>
+    <t>61d388f64fbadf009e85380b</t>
+  </si>
+  <si>
+    <t>so8e2iw4NLZDq3EjH</t>
+  </si>
+  <si>
+    <t>5ed66b84bc9dd401457d8c0e</t>
+  </si>
+  <si>
+    <t>https://www.blackgoldcannabis.com/</t>
+  </si>
+  <si>
+    <t>5f0757211c81fe01464d8579</t>
+  </si>
+  <si>
+    <t>5e701ed026ff3800748357eb</t>
+  </si>
+  <si>
+    <t>616ef8771f58c900a352b56b</t>
+  </si>
+  <si>
+    <t>https://www.grasshoppercannabis.com/</t>
+  </si>
+  <si>
+    <t>5ec2d180fa1f590144b27568</t>
+  </si>
+  <si>
+    <t>5f7df2011a97d600d8873ace</t>
+  </si>
+  <si>
+    <t>65032c2ae694010009fb5c8e</t>
+  </si>
+  <si>
+    <t>5ee12eaaf0a44000a8b16230</t>
+  </si>
+  <si>
+    <t>['Delivery  within a 20km radius of our Waterloo store', 'Same-day delivery']</t>
+  </si>
+  <si>
+    <t>['Delivery  within a 10km radius of our Waterloo store', 'Same-day delivery']</t>
+  </si>
+  <si>
+    <t>5f7de6b5ab0123624b8491e8</t>
+  </si>
+  <si>
+    <t>jxiwEsC3XQjNzcxER</t>
+  </si>
+  <si>
+    <t>https://www.mycannaverse.ca/sudbury/all/</t>
+  </si>
+  <si>
+    <t>5faabe531c82dd00adce8ec1</t>
+  </si>
+  <si>
+    <t>5ea9b3c15e81ce01097c45e5</t>
+  </si>
+  <si>
+    <t>64aec0c943e37100098f0b7d</t>
+  </si>
+  <si>
+    <t>64aebb45da7bd50009be944c</t>
+  </si>
+  <si>
+    <t>60a68d90962cb500b4e79570</t>
+  </si>
+  <si>
+    <t>['Delivery / Time unknown']</t>
   </si>
 </sst>
 </file>
@@ -5480,7 +5624,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5528,13 +5672,23 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -5832,8 +5986,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:N574"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A546" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A589" sqref="A589"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5889,27 +6043,27 @@
         <v>11</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>1653</v>
+        <v>1649</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="14.4" hidden="1" customHeight="1">
+    <row r="2" spans="1:14" ht="14.4" customHeight="1">
       <c r="A2" t="s">
         <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
       <c r="C2" t="s">
-        <v>1648</v>
+        <v>1644</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>1678</v>
+        <v>1674</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>23</v>
@@ -6025,7 +6179,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>1654</v>
+        <v>1650</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>23</v>
@@ -6080,10 +6234,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>1655</v>
+        <v>1651</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>1669</v>
+        <v>1665</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
@@ -6109,7 +6263,7 @@
         <v>86</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="H9" t="s">
         <v>33</v>
@@ -6138,7 +6292,7 @@
         <v>15</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>1656</v>
+        <v>1652</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>60</v>
@@ -6254,7 +6408,7 @@
         <v>111</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="H14" t="s">
         <v>36</v>
@@ -6335,10 +6489,10 @@
         <v>14</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>1679</v>
+        <v>1675</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="H17" t="s">
         <v>18</v>
@@ -6390,10 +6544,10 @@
         <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="H19" t="s">
         <v>24</v>
@@ -6419,13 +6573,13 @@
         <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="H20" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="I20">
         <v>16133471010</v>
@@ -6477,7 +6631,7 @@
         <v>144</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="H22" t="s">
         <v>36</v>
@@ -6500,7 +6654,7 @@
         <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>23</v>
@@ -6636,22 +6790,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>1665</v>
+        <v>1661</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>1666</v>
+        <v>1662</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>1667</v>
+        <v>1663</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
       <c r="H28" s="9" t="s">
         <v>33</v>
@@ -6733,13 +6887,13 @@
         <v>539</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>1664</v>
+        <v>1660</v>
       </c>
       <c r="F31" s="23" t="s">
         <v>23</v>
@@ -6801,7 +6955,7 @@
         <v>202</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="H33" t="s">
         <v>16</v>
@@ -6946,7 +7100,7 @@
         <v>227</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="H38" t="s">
         <v>38</v>
@@ -6975,7 +7129,7 @@
         <v>230</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="H39" t="s">
         <v>24</v>
@@ -7036,7 +7190,7 @@
         <v>15</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="H41" s="9" t="s">
         <v>24</v>
@@ -7065,7 +7219,7 @@
         <v>240</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="H42" t="s">
         <v>24</v>
@@ -7213,7 +7367,7 @@
         <v>15</v>
       </c>
       <c r="G47" s="26" t="s">
-        <v>1672</v>
+        <v>1668</v>
       </c>
       <c r="H47" s="9" t="s">
         <v>36</v>
@@ -7358,7 +7512,7 @@
         <v>310</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="H52" t="s">
         <v>36</v>
@@ -7445,7 +7599,7 @@
         <v>325</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H55" t="s">
         <v>24</v>
@@ -7503,7 +7657,7 @@
         <v>332</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="H57" t="s">
         <v>18</v>
@@ -7529,7 +7683,7 @@
         <v>332</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="H58" t="s">
         <v>18</v>
@@ -7654,7 +7808,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="63" spans="1:10" ht="14.4" customHeight="1">
       <c r="A63" t="s">
         <v>93</v>
       </c>
@@ -7671,7 +7825,7 @@
         <v>151</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H63" t="s">
         <v>92</v>
@@ -7683,7 +7837,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="64" spans="1:10" ht="14.4" customHeight="1">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -7700,7 +7854,7 @@
         <v>162</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H64" t="s">
         <v>18</v>
@@ -7729,7 +7883,7 @@
         <v>186</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H65" t="s">
         <v>24</v>
@@ -7770,7 +7924,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="67" spans="1:10" ht="14.4" customHeight="1">
       <c r="A67" t="s">
         <v>79</v>
       </c>
@@ -7799,7 +7953,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="68" spans="1:10" ht="14.4" customHeight="1">
       <c r="A68" t="s">
         <v>362</v>
       </c>
@@ -7816,7 +7970,7 @@
         <v>365</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H68" t="s">
         <v>26</v>
@@ -7828,7 +7982,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="69" spans="1:10" ht="14.4" customHeight="1">
       <c r="A69" t="s">
         <v>61</v>
       </c>
@@ -7845,7 +7999,7 @@
         <v>369</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>1680</v>
+        <v>1676</v>
       </c>
       <c r="H69" t="s">
         <v>47</v>
@@ -7857,7 +8011,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="70" spans="1:10" ht="14.4" customHeight="1">
       <c r="A70" t="s">
         <v>178</v>
       </c>
@@ -7874,7 +8028,7 @@
         <v>369</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>1680</v>
+        <v>1676</v>
       </c>
       <c r="H70" t="s">
         <v>33</v>
@@ -7973,7 +8127,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="74" spans="1:10" ht="14.4" customHeight="1">
       <c r="A74" t="s">
         <v>371</v>
       </c>
@@ -7990,7 +8144,7 @@
         <v>369</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>1680</v>
+        <v>1676</v>
       </c>
       <c r="H74" t="s">
         <v>18</v>
@@ -8002,7 +8156,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="75" spans="1:10" ht="14.4" customHeight="1">
       <c r="A75" t="s">
         <v>84</v>
       </c>
@@ -8019,7 +8173,7 @@
         <v>369</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>1680</v>
+        <v>1676</v>
       </c>
       <c r="H75" t="s">
         <v>18</v>
@@ -8031,7 +8185,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="76" spans="1:10" ht="14.4" customHeight="1">
       <c r="A76" t="s">
         <v>50</v>
       </c>
@@ -8060,7 +8214,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="77" spans="1:10" ht="14.4" customHeight="1">
       <c r="A77" t="s">
         <v>27</v>
       </c>
@@ -8089,7 +8243,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="78" spans="1:10" ht="14.4" customHeight="1">
       <c r="A78" t="s">
         <v>207</v>
       </c>
@@ -8103,7 +8257,7 @@
         <v>14</v>
       </c>
       <c r="E78" s="21" t="s">
-        <v>1681</v>
+        <v>1677</v>
       </c>
       <c r="F78" s="6" t="s">
         <v>23</v>
@@ -8254,7 +8408,7 @@
         <v>16135239349</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="84" spans="1:10" ht="14.4" customHeight="1">
       <c r="A84" t="s">
         <v>85</v>
       </c>
@@ -8300,7 +8454,7 @@
         <v>404</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="H85" t="s">
         <v>24</v>
@@ -8309,7 +8463,7 @@
         <v>16132675045</v>
       </c>
       <c r="J85" t="s">
-        <v>1682</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="14.4" hidden="1" customHeight="1">
@@ -8341,7 +8495,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="87" spans="1:10" ht="14.4" customHeight="1">
       <c r="A87" t="s">
         <v>70</v>
       </c>
@@ -8358,7 +8512,7 @@
         <v>427</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H87" t="s">
         <v>26</v>
@@ -8367,7 +8521,7 @@
         <v>18076222757</v>
       </c>
       <c r="J87" s="14" t="s">
-        <v>1683</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="14.4" hidden="1" customHeight="1">
@@ -8396,7 +8550,7 @@
         <v>16137797475</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="89" spans="1:10" ht="14.4" customHeight="1">
       <c r="A89" t="s">
         <v>27</v>
       </c>
@@ -8422,10 +8576,10 @@
         <v>14167690909</v>
       </c>
       <c r="J89" s="14" t="s">
-        <v>1684</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="14.4" customHeight="1">
       <c r="A90" t="s">
         <v>32</v>
       </c>
@@ -8439,7 +8593,7 @@
         <v>14</v>
       </c>
       <c r="E90" s="21" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
       <c r="F90" s="6" t="s">
         <v>23</v>
@@ -8506,7 +8660,7 @@
         <v>15195013797</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="93" spans="1:10" ht="14.4" customHeight="1">
       <c r="A93" t="s">
         <v>49</v>
       </c>
@@ -8523,7 +8677,7 @@
         <v>452</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="H93" t="s">
         <v>47</v>
@@ -8532,7 +8686,7 @@
         <v>16138254420</v>
       </c>
       <c r="J93" s="14" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="14.4" hidden="1" customHeight="1">
@@ -8561,7 +8715,7 @@
         <v>14164311333</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="95" spans="1:10" ht="14.4" customHeight="1">
       <c r="A95" t="s">
         <v>32</v>
       </c>
@@ -8700,7 +8854,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="100" spans="1:10" ht="14.4" customHeight="1">
       <c r="A100" t="s">
         <v>121</v>
       </c>
@@ -8714,7 +8868,7 @@
         <v>14</v>
       </c>
       <c r="E100" s="21" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
       <c r="F100" s="6" t="s">
         <v>23</v>
@@ -8726,10 +8880,10 @@
         <v>16473432837</v>
       </c>
       <c r="J100" s="14" t="s">
-        <v>1689</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="14.4" customHeight="1">
       <c r="A101" t="s">
         <v>27</v>
       </c>
@@ -8755,10 +8909,10 @@
         <v>14167030222</v>
       </c>
       <c r="J101" s="14" t="s">
-        <v>1689</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="14.4" customHeight="1">
       <c r="A102" t="s">
         <v>128</v>
       </c>
@@ -8775,7 +8929,7 @@
         <v>490</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H102" t="s">
         <v>24</v>
@@ -8804,16 +8958,16 @@
         <v>316</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="H103" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="I103">
         <v>12267734209</v>
       </c>
       <c r="J103" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="14.4" hidden="1" customHeight="1">
@@ -8833,16 +8987,16 @@
         <v>316</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="H104" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="I104">
         <v>15199460570</v>
       </c>
       <c r="J104" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="14.4" hidden="1" customHeight="1">
@@ -8865,7 +9019,7 @@
         <v>15</v>
       </c>
       <c r="G105" s="13" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="H105" t="s">
         <v>24</v>
@@ -8906,7 +9060,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="107" spans="1:10" ht="14.4" customHeight="1">
       <c r="A107" t="s">
         <v>500</v>
       </c>
@@ -8935,7 +9089,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="108" spans="1:10" ht="14.4" customHeight="1">
       <c r="A108" t="s">
         <v>55</v>
       </c>
@@ -8949,7 +9103,7 @@
         <v>14</v>
       </c>
       <c r="E108" s="21" t="s">
-        <v>1690</v>
+        <v>1686</v>
       </c>
       <c r="F108" s="6" t="s">
         <v>23</v>
@@ -8964,7 +9118,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="109" spans="1:10" ht="14.4" customHeight="1">
       <c r="A109" t="s">
         <v>27</v>
       </c>
@@ -8981,7 +9135,7 @@
         <v>510</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="H109" t="s">
         <v>24</v>
@@ -8990,10 +9144,10 @@
         <v>14169011808</v>
       </c>
       <c r="J109" s="14" t="s">
-        <v>1691</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="14.4" customHeight="1">
       <c r="A110" t="s">
         <v>155</v>
       </c>
@@ -9010,7 +9164,7 @@
         <v>510</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="H110" t="s">
         <v>24</v>
@@ -9019,7 +9173,7 @@
         <v>14165469808</v>
       </c>
       <c r="J110" s="14" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="14.4" hidden="1" customHeight="1">
@@ -9068,7 +9222,7 @@
         <v>259</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="H112" t="s">
         <v>24</v>
@@ -9077,7 +9231,7 @@
         <v>17052131010</v>
       </c>
       <c r="J112" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="14.4" hidden="1" customHeight="1">
@@ -9097,7 +9251,7 @@
         <v>263</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="H113" t="s">
         <v>36</v>
@@ -9106,7 +9260,7 @@
         <v>16137992368</v>
       </c>
       <c r="J113" t="s">
-        <v>1671</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="14.4" hidden="1" customHeight="1">
@@ -9126,7 +9280,7 @@
         <v>275</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="H114" t="s">
         <v>24</v>
@@ -9135,7 +9289,7 @@
         <v>18072779333</v>
       </c>
       <c r="J114" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="14.4" hidden="1" customHeight="1">
@@ -9155,7 +9309,7 @@
         <v>276</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="H115" t="s">
         <v>92</v>
@@ -9164,7 +9318,7 @@
         <v>14162412837</v>
       </c>
       <c r="J115" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="14.4" hidden="1" customHeight="1">
@@ -9254,7 +9408,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="119" spans="1:10" ht="14.4" customHeight="1">
       <c r="A119" t="s">
         <v>27</v>
       </c>
@@ -9283,7 +9437,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="120" spans="1:10" ht="14.4" customHeight="1">
       <c r="A120" t="s">
         <v>76</v>
       </c>
@@ -9300,7 +9454,7 @@
         <v>520</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="H120" t="s">
         <v>47</v>
@@ -9309,7 +9463,7 @@
         <v>16133926777</v>
       </c>
       <c r="J120" s="14" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="14.4" hidden="1" customHeight="1">
@@ -9428,7 +9582,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="125" spans="1:10" ht="14.4" customHeight="1">
       <c r="A125" t="s">
         <v>527</v>
       </c>
@@ -9442,7 +9596,7 @@
         <v>14</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>1693</v>
+        <v>1689</v>
       </c>
       <c r="F125" s="6" t="s">
         <v>23</v>
@@ -9454,7 +9608,7 @@
         <v>18077279830</v>
       </c>
       <c r="J125" s="14" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="14.4" hidden="1" customHeight="1">
@@ -9628,7 +9782,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="132" spans="1:10" ht="14.4" customHeight="1">
       <c r="A132" t="s">
         <v>34</v>
       </c>
@@ -9645,7 +9799,7 @@
         <v>547</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H132" t="s">
         <v>24</v>
@@ -9657,7 +9811,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="133" spans="1:10" ht="14.4" customHeight="1">
       <c r="A133" t="s">
         <v>548</v>
       </c>
@@ -9686,7 +9840,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="134" spans="1:10" ht="14.4" customHeight="1">
       <c r="A134" t="s">
         <v>217</v>
       </c>
@@ -9767,7 +9921,7 @@
         <v>14374101420</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="137" spans="1:10" ht="14.4" customHeight="1">
       <c r="A137" t="s">
         <v>27</v>
       </c>
@@ -9784,7 +9938,7 @@
         <v>556</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H137" t="s">
         <v>24</v>
@@ -10051,7 +10205,7 @@
         <v>19055476002</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="147" spans="1:10" ht="14.4" customHeight="1">
       <c r="A147" t="s">
         <v>559</v>
       </c>
@@ -10068,7 +10222,7 @@
         <v>562</v>
       </c>
       <c r="F147" s="6" t="s">
-        <v>1680</v>
+        <v>1676</v>
       </c>
       <c r="H147" t="s">
         <v>18</v>
@@ -10097,7 +10251,7 @@
         <v>591</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H148" t="s">
         <v>38</v>
@@ -10109,7 +10263,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="149" spans="1:10" ht="14.4" customHeight="1">
       <c r="A149" t="s">
         <v>93</v>
       </c>
@@ -10129,7 +10283,7 @@
         <v>15</v>
       </c>
       <c r="G149" s="15" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
       <c r="H149" t="s">
         <v>16</v>
@@ -10141,7 +10295,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="150" spans="1:10" ht="14.4" customHeight="1">
       <c r="A150" t="s">
         <v>70</v>
       </c>
@@ -10161,7 +10315,7 @@
         <v>15</v>
       </c>
       <c r="G150" s="15" t="s">
-        <v>1695</v>
+        <v>1691</v>
       </c>
       <c r="H150" t="s">
         <v>60</v>
@@ -10190,7 +10344,7 @@
         <v>604</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="H151" t="s">
         <v>24</v>
@@ -10199,7 +10353,7 @@
         <v>14165469500</v>
       </c>
       <c r="J151" s="14" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="152" spans="1:10" ht="14.4" customHeight="1">
@@ -10219,7 +10373,7 @@
         <v>608</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H152" t="s">
         <v>47</v>
@@ -10248,7 +10402,7 @@
         <v>610</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H153" t="s">
         <v>26</v>
@@ -10277,7 +10431,7 @@
         <v>613</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H154" t="s">
         <v>18</v>
@@ -10306,7 +10460,7 @@
         <v>613</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H155" t="s">
         <v>18</v>
@@ -10335,7 +10489,7 @@
         <v>618</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H156" t="s">
         <v>18</v>
@@ -10364,7 +10518,7 @@
         <v>620</v>
       </c>
       <c r="F157" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H157" t="s">
         <v>18</v>
@@ -10393,7 +10547,7 @@
         <v>622</v>
       </c>
       <c r="F158" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H158" t="s">
         <v>45</v>
@@ -10422,7 +10576,7 @@
         <v>624</v>
       </c>
       <c r="F159" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H159" t="s">
         <v>18</v>
@@ -10451,7 +10605,7 @@
         <v>626</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H160" t="s">
         <v>45</v>
@@ -10480,7 +10634,7 @@
         <v>628</v>
       </c>
       <c r="F161" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H161" t="s">
         <v>18</v>
@@ -10509,7 +10663,7 @@
         <v>630</v>
       </c>
       <c r="F162" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H162" t="s">
         <v>45</v>
@@ -10538,7 +10692,7 @@
         <v>631</v>
       </c>
       <c r="F163" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H163" t="s">
         <v>18</v>
@@ -10567,7 +10721,7 @@
         <v>635</v>
       </c>
       <c r="F164" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H164" t="s">
         <v>45</v>
@@ -10596,7 +10750,7 @@
         <v>637</v>
       </c>
       <c r="F165" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H165" t="s">
         <v>18</v>
@@ -10625,7 +10779,7 @@
         <v>640</v>
       </c>
       <c r="F166" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H166" t="s">
         <v>45</v>
@@ -10654,7 +10808,7 @@
         <v>643</v>
       </c>
       <c r="F167" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H167" t="s">
         <v>45</v>
@@ -10683,7 +10837,7 @@
         <v>645</v>
       </c>
       <c r="F168" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H168" t="s">
         <v>45</v>
@@ -10712,7 +10866,7 @@
         <v>647</v>
       </c>
       <c r="F169" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H169" t="s">
         <v>47</v>
@@ -10741,7 +10895,7 @@
         <v>650</v>
       </c>
       <c r="F170" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H170" t="s">
         <v>18</v>
@@ -10770,7 +10924,7 @@
         <v>652</v>
       </c>
       <c r="F171" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H171" t="s">
         <v>47</v>
@@ -10799,7 +10953,7 @@
         <v>654</v>
       </c>
       <c r="F172" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H172" t="s">
         <v>18</v>
@@ -10941,7 +11095,7 @@
         <v>656</v>
       </c>
       <c r="F177" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H177" t="s">
         <v>18</v>
@@ -10999,7 +11153,7 @@
         <v>658</v>
       </c>
       <c r="F179" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H179" t="s">
         <v>33</v>
@@ -11028,7 +11182,7 @@
         <v>660</v>
       </c>
       <c r="F180" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H180" t="s">
         <v>45</v>
@@ -11057,7 +11211,7 @@
         <v>662</v>
       </c>
       <c r="F181" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H181" t="s">
         <v>18</v>
@@ -11086,7 +11240,7 @@
         <v>664</v>
       </c>
       <c r="F182" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H182" t="s">
         <v>69</v>
@@ -11205,7 +11359,7 @@
         <v>15</v>
       </c>
       <c r="G186" s="15" t="s">
-        <v>1697</v>
+        <v>1693</v>
       </c>
       <c r="H186" t="s">
         <v>24</v>
@@ -11234,7 +11388,7 @@
         <v>689</v>
       </c>
       <c r="F187" s="6" t="s">
-        <v>1698</v>
+        <v>1694</v>
       </c>
       <c r="H187" t="s">
         <v>36</v>
@@ -11292,7 +11446,7 @@
         <v>692</v>
       </c>
       <c r="F189" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H189" t="s">
         <v>36</v>
@@ -11321,7 +11475,7 @@
         <v>694</v>
       </c>
       <c r="F190" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H190" t="s">
         <v>148</v>
@@ -11353,7 +11507,7 @@
         <v>15</v>
       </c>
       <c r="G191" s="13" t="s">
-        <v>1675</v>
+        <v>1671</v>
       </c>
       <c r="H191" t="s">
         <v>24</v>
@@ -11382,7 +11536,7 @@
         <v>697</v>
       </c>
       <c r="F192" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H192" t="s">
         <v>33</v>
@@ -11440,7 +11594,7 @@
         <v>705</v>
       </c>
       <c r="F194" s="6" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="H194" t="s">
         <v>18</v>
@@ -11524,7 +11678,7 @@
         <v>708</v>
       </c>
       <c r="F197" s="6" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="H197" t="s">
         <v>24</v>
@@ -11533,7 +11687,7 @@
         <v>14166585888</v>
       </c>
       <c r="J197" s="14" t="s">
-        <v>1699</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="198" spans="1:10" ht="14.4" customHeight="1">
@@ -11553,7 +11707,7 @@
         <v>711</v>
       </c>
       <c r="F198" s="6" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="H198" t="s">
         <v>26</v>
@@ -11582,13 +11736,13 @@
         <v>725</v>
       </c>
       <c r="F199" s="6" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="H199" t="s">
         <v>26</v>
       </c>
       <c r="I199" t="s">
-        <v>1700</v>
+        <v>1696</v>
       </c>
       <c r="J199" s="14" t="s">
         <v>39</v>
@@ -11611,7 +11765,7 @@
         <v>736</v>
       </c>
       <c r="F200" s="6" t="s">
-        <v>1622</v>
+        <v>1753</v>
       </c>
       <c r="H200" t="s">
         <v>45</v>
@@ -11640,7 +11794,7 @@
         <v>738</v>
       </c>
       <c r="F201" s="6" t="s">
-        <v>1622</v>
+        <v>1753</v>
       </c>
       <c r="H201" t="s">
         <v>45</v>
@@ -11669,7 +11823,7 @@
         <v>741</v>
       </c>
       <c r="F202" s="6" t="s">
-        <v>1622</v>
+        <v>1753</v>
       </c>
       <c r="H202" t="s">
         <v>38</v>
@@ -11698,7 +11852,7 @@
         <v>744</v>
       </c>
       <c r="F203" s="6" t="s">
-        <v>1622</v>
+        <v>1753</v>
       </c>
       <c r="H203" t="s">
         <v>38</v>
@@ -11727,7 +11881,7 @@
         <v>746</v>
       </c>
       <c r="F204" s="6" t="s">
-        <v>1622</v>
+        <v>1753</v>
       </c>
       <c r="H204" t="s">
         <v>38</v>
@@ -11756,7 +11910,7 @@
         <v>748</v>
       </c>
       <c r="F205" s="6" t="s">
-        <v>1622</v>
+        <v>1753</v>
       </c>
       <c r="H205" t="s">
         <v>69</v>
@@ -11785,7 +11939,7 @@
         <v>750</v>
       </c>
       <c r="F206" s="6" t="s">
-        <v>1622</v>
+        <v>1753</v>
       </c>
       <c r="H206" t="s">
         <v>69</v>
@@ -11814,7 +11968,7 @@
         <v>752</v>
       </c>
       <c r="F207" s="6" t="s">
-        <v>1622</v>
+        <v>1753</v>
       </c>
       <c r="H207" t="s">
         <v>69</v>
@@ -11843,7 +11997,7 @@
         <v>754</v>
       </c>
       <c r="F208" s="6" t="s">
-        <v>1622</v>
+        <v>1753</v>
       </c>
       <c r="H208" t="s">
         <v>69</v>
@@ -11872,7 +12026,7 @@
         <v>756</v>
       </c>
       <c r="F209" s="6" t="s">
-        <v>1622</v>
+        <v>1753</v>
       </c>
       <c r="H209" t="s">
         <v>288</v>
@@ -11901,7 +12055,7 @@
         <v>756</v>
       </c>
       <c r="F210" s="6" t="s">
-        <v>1622</v>
+        <v>1753</v>
       </c>
       <c r="H210" t="s">
         <v>38</v>
@@ -11930,7 +12084,7 @@
         <v>760</v>
       </c>
       <c r="F211" s="6" t="s">
-        <v>1622</v>
+        <v>1753</v>
       </c>
       <c r="H211" t="s">
         <v>45</v>
@@ -11959,7 +12113,7 @@
         <v>762</v>
       </c>
       <c r="F212" s="6" t="s">
-        <v>1622</v>
+        <v>1753</v>
       </c>
       <c r="H212" t="s">
         <v>38</v>
@@ -11988,7 +12142,7 @@
         <v>764</v>
       </c>
       <c r="F213" s="6" t="s">
-        <v>1622</v>
+        <v>1753</v>
       </c>
       <c r="H213" t="s">
         <v>38</v>
@@ -12017,7 +12171,7 @@
         <v>766</v>
       </c>
       <c r="F214" s="6" t="s">
-        <v>1622</v>
+        <v>1753</v>
       </c>
       <c r="H214" t="s">
         <v>38</v>
@@ -12046,7 +12200,7 @@
         <v>768</v>
       </c>
       <c r="F215" s="6" t="s">
-        <v>1622</v>
+        <v>1753</v>
       </c>
       <c r="H215" t="s">
         <v>38</v>
@@ -12075,7 +12229,7 @@
         <v>770</v>
       </c>
       <c r="F216" s="6" t="s">
-        <v>1622</v>
+        <v>1753</v>
       </c>
       <c r="H216" t="s">
         <v>38</v>
@@ -12095,7 +12249,7 @@
         <v>739</v>
       </c>
       <c r="C217" t="s">
-        <v>1703</v>
+        <v>1699</v>
       </c>
       <c r="D217" t="s">
         <v>14</v>
@@ -12104,7 +12258,7 @@
         <v>771</v>
       </c>
       <c r="F217" s="6" t="s">
-        <v>1622</v>
+        <v>1753</v>
       </c>
       <c r="H217" t="s">
         <v>26</v>
@@ -12130,10 +12284,10 @@
         <v>14</v>
       </c>
       <c r="E218" s="21" t="s">
-        <v>1701</v>
+        <v>1697</v>
       </c>
       <c r="F218" s="6" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="H218" s="3" t="s">
         <v>38</v>
@@ -12162,7 +12316,7 @@
         <v>777</v>
       </c>
       <c r="F219" s="6" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="H219" s="3" t="s">
         <v>38</v>
@@ -12191,7 +12345,7 @@
         <v>780</v>
       </c>
       <c r="F220" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H220" t="s">
         <v>26</v>
@@ -12220,7 +12374,7 @@
         <v>783</v>
       </c>
       <c r="F221" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H221" t="s">
         <v>38</v>
@@ -12249,7 +12403,7 @@
         <v>786</v>
       </c>
       <c r="F222" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H222" t="s">
         <v>26</v>
@@ -12278,7 +12432,7 @@
         <v>789</v>
       </c>
       <c r="F223" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H223" t="s">
         <v>26</v>
@@ -12307,7 +12461,7 @@
         <v>792</v>
       </c>
       <c r="F224" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H224" t="s">
         <v>26</v>
@@ -12336,7 +12490,7 @@
         <v>794</v>
       </c>
       <c r="F225" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H225" t="s">
         <v>38</v>
@@ -12365,7 +12519,7 @@
         <v>797</v>
       </c>
       <c r="F226" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H226" t="s">
         <v>38</v>
@@ -12394,7 +12548,7 @@
         <v>800</v>
       </c>
       <c r="F227" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H227" t="s">
         <v>26</v>
@@ -12568,7 +12722,7 @@
         <v>800</v>
       </c>
       <c r="F233" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H233" t="s">
         <v>26</v>
@@ -12597,7 +12751,7 @@
         <v>804</v>
       </c>
       <c r="F234" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H234" t="s">
         <v>26</v>
@@ -12626,7 +12780,7 @@
         <v>807</v>
       </c>
       <c r="F235" s="6" t="s">
-        <v>1698</v>
+        <v>1694</v>
       </c>
       <c r="H235" t="s">
         <v>33</v>
@@ -12681,7 +12835,7 @@
         <v>14</v>
       </c>
       <c r="E237" s="21" t="s">
-        <v>1705</v>
+        <v>1701</v>
       </c>
       <c r="F237" s="6" t="s">
         <v>23</v>
@@ -12693,7 +12847,7 @@
         <v>16134351420</v>
       </c>
       <c r="J237" s="14" t="s">
-        <v>1704</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="238" spans="1:10" ht="14.4" customHeight="1">
@@ -12713,7 +12867,7 @@
         <v>812</v>
       </c>
       <c r="F238" s="6" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="H238" t="s">
         <v>33</v>
@@ -12742,7 +12896,7 @@
         <v>830</v>
       </c>
       <c r="F239" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H239" t="s">
         <v>36</v>
@@ -12800,7 +12954,7 @@
         <v>15</v>
       </c>
       <c r="G241" s="15" t="s">
-        <v>1706</v>
+        <v>1702</v>
       </c>
       <c r="H241" t="s">
         <v>18</v>
@@ -12829,7 +12983,7 @@
         <v>837</v>
       </c>
       <c r="F242" s="6" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="H242" t="s">
         <v>24</v>
@@ -12838,7 +12992,7 @@
         <v>12267732105</v>
       </c>
       <c r="J242" s="14" t="s">
-        <v>1707</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="243" spans="1:11" ht="14.4" customHeight="1">
@@ -12858,7 +13012,7 @@
         <v>842</v>
       </c>
       <c r="F243" s="6" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="H243" t="s">
         <v>26</v>
@@ -12867,7 +13021,7 @@
         <v>12896608100</v>
       </c>
       <c r="J243" s="14" t="s">
-        <v>1699</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="244" spans="1:11" ht="14.4" hidden="1" customHeight="1">
@@ -12913,14 +13067,14 @@
         <v>844</v>
       </c>
       <c r="F245" s="6" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="H245" t="s">
         <v>18</v>
       </c>
       <c r="I245"/>
       <c r="J245" s="14" t="s">
-        <v>1699</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="246" spans="1:11" ht="14.4" hidden="1" customHeight="1">
@@ -12940,16 +13094,16 @@
         <v>860</v>
       </c>
       <c r="F246" s="6" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="H246" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
       <c r="I246">
         <v>16134401420</v>
       </c>
       <c r="J246" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="247" spans="1:11" ht="14.4" customHeight="1">
@@ -12966,7 +13120,10 @@
         <v>14</v>
       </c>
       <c r="E247" s="27" t="s">
-        <v>1708</v>
+        <v>1704</v>
+      </c>
+      <c r="F247" s="6" t="s">
+        <v>1619</v>
       </c>
       <c r="H247" t="s">
         <v>36</v>
@@ -12998,7 +13155,7 @@
         <v>15</v>
       </c>
       <c r="G248" s="15" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
       <c r="H248" t="s">
         <v>26</v>
@@ -13027,7 +13184,7 @@
         <v>851</v>
       </c>
       <c r="F249" s="6" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="H249" t="s">
         <v>36</v>
@@ -13036,7 +13193,7 @@
         <v>14167369014</v>
       </c>
       <c r="J249" s="14" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="250" spans="1:11" ht="14.4" customHeight="1">
@@ -13056,7 +13213,7 @@
         <v>854</v>
       </c>
       <c r="F250" s="6" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="H250" t="s">
         <v>36</v>
@@ -13065,7 +13222,7 @@
         <v>14168408610</v>
       </c>
       <c r="J250" s="14" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="251" spans="1:11" ht="14.4" customHeight="1">
@@ -13082,10 +13239,10 @@
         <v>14</v>
       </c>
       <c r="E251" s="21" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="F251" s="6" t="s">
-        <v>1652</v>
+        <v>1648</v>
       </c>
       <c r="H251" t="s">
         <v>33</v>
@@ -13117,7 +13274,7 @@
         <v>15</v>
       </c>
       <c r="G252" s="15" t="s">
-        <v>1712</v>
+        <v>1708</v>
       </c>
       <c r="H252" t="s">
         <v>24</v>
@@ -13149,7 +13306,7 @@
         <v>15</v>
       </c>
       <c r="G253" s="15" t="s">
-        <v>1713</v>
+        <v>1709</v>
       </c>
       <c r="H253" t="s">
         <v>24</v>
@@ -13178,7 +13335,7 @@
         <v>869</v>
       </c>
       <c r="F254" s="6" t="s">
-        <v>1698</v>
+        <v>1694</v>
       </c>
       <c r="H254" t="s">
         <v>24</v>
@@ -13204,10 +13361,10 @@
         <v>14</v>
       </c>
       <c r="E255" s="21" t="s">
-        <v>1715</v>
+        <v>1711</v>
       </c>
       <c r="F255" s="6" t="s">
-        <v>1680</v>
+        <v>1676</v>
       </c>
       <c r="H255" t="s">
         <v>24</v>
@@ -13216,10 +13373,10 @@
         <v>18076980012</v>
       </c>
       <c r="J255" s="14" t="s">
-        <v>1714</v>
+        <v>1710</v>
       </c>
       <c r="K255" s="14" t="s">
-        <v>1716</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="256" spans="1:11" ht="14.4" customHeight="1">
@@ -13236,10 +13393,10 @@
         <v>14</v>
       </c>
       <c r="E256" s="21" t="s">
-        <v>1717</v>
+        <v>1713</v>
       </c>
       <c r="F256" s="6" t="s">
-        <v>1680</v>
+        <v>1676</v>
       </c>
       <c r="H256" t="s">
         <v>24</v>
@@ -13248,7 +13405,7 @@
         <v>18076989420</v>
       </c>
       <c r="J256" s="14" t="s">
-        <v>1714</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="257" spans="1:11" ht="14.4" customHeight="1">
@@ -13265,7 +13422,7 @@
         <v>14</v>
       </c>
       <c r="E257" s="21" t="s">
-        <v>1720</v>
+        <v>1716</v>
       </c>
       <c r="F257" s="6" t="s">
         <v>23</v>
@@ -13277,10 +13434,10 @@
         <v>15193071300</v>
       </c>
       <c r="J257" s="14" t="s">
-        <v>1718</v>
+        <v>1714</v>
       </c>
       <c r="K257" s="14" t="s">
-        <v>1719</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="258" spans="1:11" ht="14.4" customHeight="1">
@@ -13300,7 +13457,7 @@
         <v>880</v>
       </c>
       <c r="F258" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H258" t="s">
         <v>92</v>
@@ -13329,7 +13486,7 @@
         <v>882</v>
       </c>
       <c r="F259" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H259" t="s">
         <v>18</v>
@@ -13439,7 +13596,7 @@
         <v>884</v>
       </c>
       <c r="F263" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H263" t="s">
         <v>45</v>
@@ -13465,13 +13622,13 @@
         <v>14</v>
       </c>
       <c r="E264" s="21" t="s">
-        <v>1721</v>
+        <v>1717</v>
       </c>
       <c r="F264" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G264" s="15" t="s">
-        <v>1722</v>
+        <v>1718</v>
       </c>
       <c r="H264" t="s">
         <v>60</v>
@@ -13500,7 +13657,7 @@
         <v>889</v>
       </c>
       <c r="F265" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H265" t="s">
         <v>24</v>
@@ -13509,10 +13666,10 @@
         <v>12899806868</v>
       </c>
       <c r="J265" s="14" t="s">
-        <v>1723</v>
+        <v>1719</v>
       </c>
       <c r="K265" t="s">
-        <v>1724</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="266" spans="1:11" ht="14.4" customHeight="1">
@@ -13532,7 +13689,7 @@
         <v>892</v>
       </c>
       <c r="F266" s="6" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="H266" t="s">
         <v>18</v>
@@ -13561,7 +13718,7 @@
         <v>895</v>
       </c>
       <c r="F267" s="6" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="H267" t="s">
         <v>33</v>
@@ -13593,7 +13750,7 @@
         <v>15</v>
       </c>
       <c r="G268" s="15" t="s">
-        <v>1725</v>
+        <v>1721</v>
       </c>
       <c r="H268" t="s">
         <v>24</v>
@@ -13602,7 +13759,7 @@
         <v>17052222420</v>
       </c>
       <c r="J268" s="14" t="s">
-        <v>1726</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="269" spans="1:11" ht="14.4" hidden="1" customHeight="1">
@@ -13654,7 +13811,7 @@
         <v>15</v>
       </c>
       <c r="G270" s="15" t="s">
-        <v>1727</v>
+        <v>1723</v>
       </c>
       <c r="H270" t="s">
         <v>33</v>
@@ -13683,7 +13840,7 @@
         <v>909</v>
       </c>
       <c r="F271" s="6" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="H271" t="s">
         <v>33</v>
@@ -13692,7 +13849,7 @@
         <v>18074641851</v>
       </c>
       <c r="J271" s="14" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="272" spans="1:11" ht="14.4" customHeight="1">
@@ -13709,10 +13866,10 @@
         <v>160</v>
       </c>
       <c r="E272" s="21" t="s">
-        <v>1728</v>
+        <v>1724</v>
       </c>
       <c r="F272" s="6" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="H272" t="s">
         <v>67</v>
@@ -13721,7 +13878,7 @@
         <v>14056875004</v>
       </c>
       <c r="J272" s="14" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="273" spans="1:10" ht="14.4" customHeight="1">
@@ -13738,13 +13895,13 @@
         <v>14</v>
       </c>
       <c r="E273" s="21" t="s">
-        <v>1730</v>
+        <v>1726</v>
       </c>
       <c r="F273" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G273" s="15" t="s">
-        <v>1729</v>
+        <v>1725</v>
       </c>
       <c r="H273" t="s">
         <v>18</v>
@@ -13770,10 +13927,10 @@
         <v>14</v>
       </c>
       <c r="E274" s="21" t="s">
-        <v>1731</v>
+        <v>1727</v>
       </c>
       <c r="F274" s="6" t="s">
-        <v>1622</v>
+        <v>1752</v>
       </c>
       <c r="H274" t="s">
         <v>33</v>
@@ -13802,7 +13959,7 @@
         <v>921</v>
       </c>
       <c r="F275" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H275" t="s">
         <v>36</v>
@@ -13831,7 +13988,7 @@
         <v>924</v>
       </c>
       <c r="F276" s="6" t="s">
-        <v>1680</v>
+        <v>1676</v>
       </c>
       <c r="H276" t="s">
         <v>26</v>
@@ -13860,7 +14017,7 @@
         <v>924</v>
       </c>
       <c r="F277" s="6" t="s">
-        <v>1680</v>
+        <v>1676</v>
       </c>
       <c r="H277" t="s">
         <v>26</v>
@@ -13915,7 +14072,7 @@
         <v>928</v>
       </c>
       <c r="F279" s="6" t="s">
-        <v>1680</v>
+        <v>1676</v>
       </c>
       <c r="H279" t="s">
         <v>26</v>
@@ -13944,7 +14101,7 @@
         <v>930</v>
       </c>
       <c r="F280" s="6" t="s">
-        <v>1680</v>
+        <v>1676</v>
       </c>
       <c r="H280" t="s">
         <v>33</v>
@@ -13970,7 +14127,7 @@
         <v>933</v>
       </c>
       <c r="F281" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H281" t="s">
         <v>24</v>
@@ -14025,10 +14182,10 @@
         <v>14</v>
       </c>
       <c r="E283" s="21" t="s">
-        <v>1732</v>
+        <v>1728</v>
       </c>
       <c r="F283" s="6" t="s">
-        <v>1698</v>
+        <v>1694</v>
       </c>
       <c r="H283" t="s">
         <v>33</v>
@@ -14057,7 +14214,7 @@
         <v>937</v>
       </c>
       <c r="F284" s="6" t="s">
-        <v>1698</v>
+        <v>1694</v>
       </c>
       <c r="H284" t="s">
         <v>26</v>
@@ -14086,7 +14243,7 @@
         <v>943</v>
       </c>
       <c r="F285" s="6" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="H285" t="s">
         <v>18</v>
@@ -14115,7 +14272,7 @@
         <v>945</v>
       </c>
       <c r="F286" s="6" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="H286" t="s">
         <v>18</v>
@@ -14144,7 +14301,7 @@
         <v>947</v>
       </c>
       <c r="F287" s="6" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="H287" t="s">
         <v>33</v>
@@ -14173,7 +14330,7 @@
         <v>953</v>
       </c>
       <c r="F288" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H288" t="s">
         <v>36</v>
@@ -14202,7 +14359,7 @@
         <v>953</v>
       </c>
       <c r="F289" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H289" t="s">
         <v>18</v>
@@ -14231,7 +14388,7 @@
         <v>959</v>
       </c>
       <c r="F290" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H290" t="s">
         <v>24</v>
@@ -14260,7 +14417,7 @@
         <v>961</v>
       </c>
       <c r="F291" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H291" t="s">
         <v>18</v>
@@ -14289,7 +14446,7 @@
         <v>961</v>
       </c>
       <c r="F292" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H292" t="s">
         <v>18</v>
@@ -14318,7 +14475,7 @@
         <v>961</v>
       </c>
       <c r="F293" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H293" t="s">
         <v>45</v>
@@ -14347,7 +14504,7 @@
         <v>961</v>
       </c>
       <c r="F294" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H294" t="s">
         <v>36</v>
@@ -14376,7 +14533,7 @@
         <v>961</v>
       </c>
       <c r="F295" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H295" t="s">
         <v>18</v>
@@ -14405,7 +14562,7 @@
         <v>961</v>
       </c>
       <c r="F296" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H296" t="s">
         <v>18</v>
@@ -14434,7 +14591,7 @@
         <v>961</v>
       </c>
       <c r="F297" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H297" t="s">
         <v>18</v>
@@ -14463,7 +14620,7 @@
         <v>961</v>
       </c>
       <c r="F298" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H298" t="s">
         <v>18</v>
@@ -14492,7 +14649,7 @@
         <v>961</v>
       </c>
       <c r="F299" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H299" t="s">
         <v>38</v>
@@ -14521,7 +14678,7 @@
         <v>961</v>
       </c>
       <c r="F300" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H300" t="s">
         <v>33</v>
@@ -14550,7 +14707,7 @@
         <v>961</v>
       </c>
       <c r="F301" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H301" t="s">
         <v>18</v>
@@ -14579,7 +14736,7 @@
         <v>961</v>
       </c>
       <c r="F302" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H302" t="s">
         <v>26</v>
@@ -14608,7 +14765,7 @@
         <v>961</v>
       </c>
       <c r="F303" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H303" t="s">
         <v>18</v>
@@ -14637,7 +14794,7 @@
         <v>961</v>
       </c>
       <c r="F304" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H304" t="s">
         <v>18</v>
@@ -14753,7 +14910,7 @@
         <v>961</v>
       </c>
       <c r="F308" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H308" t="s">
         <v>18</v>
@@ -14782,7 +14939,7 @@
         <v>961</v>
       </c>
       <c r="F309" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H309" t="s">
         <v>33</v>
@@ -14811,7 +14968,7 @@
         <v>961</v>
       </c>
       <c r="F310" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H310" t="s">
         <v>288</v>
@@ -14840,7 +14997,7 @@
         <v>981</v>
       </c>
       <c r="F311" s="6" t="s">
-        <v>1622</v>
+        <v>1752</v>
       </c>
       <c r="H311" t="s">
         <v>36</v>
@@ -14956,7 +15113,7 @@
         <v>981</v>
       </c>
       <c r="F315" s="6" t="s">
-        <v>1622</v>
+        <v>1752</v>
       </c>
       <c r="H315" t="s">
         <v>18</v>
@@ -14985,7 +15142,7 @@
         <v>989</v>
       </c>
       <c r="F316" s="6" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="H316" t="s">
         <v>18</v>
@@ -15040,7 +15197,7 @@
         <v>991</v>
       </c>
       <c r="F318" s="6" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="H318" t="s">
         <v>45</v>
@@ -15069,7 +15226,7 @@
         <v>993</v>
       </c>
       <c r="F319" s="6" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="H319" t="s">
         <v>33</v>
@@ -15098,7 +15255,7 @@
         <v>996</v>
       </c>
       <c r="F320" s="6" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="H320" t="s">
         <v>38</v>
@@ -15182,7 +15339,7 @@
         <v>15</v>
       </c>
       <c r="G323" s="15" t="s">
-        <v>1677</v>
+        <v>1673</v>
       </c>
       <c r="H323" t="s">
         <v>47</v>
@@ -15211,7 +15368,7 @@
         <v>1006</v>
       </c>
       <c r="F324" s="6" t="s">
-        <v>1698</v>
+        <v>1694</v>
       </c>
       <c r="H324" t="s">
         <v>18</v>
@@ -15240,7 +15397,7 @@
         <v>1006</v>
       </c>
       <c r="F325" s="6" t="s">
-        <v>1698</v>
+        <v>1694</v>
       </c>
       <c r="H325" t="s">
         <v>33</v>
@@ -15269,7 +15426,7 @@
         <v>1010</v>
       </c>
       <c r="F326" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H326" t="s">
         <v>24</v>
@@ -15301,7 +15458,7 @@
         <v>15</v>
       </c>
       <c r="G327" s="15" t="s">
-        <v>1733</v>
+        <v>1729</v>
       </c>
       <c r="H327" t="s">
         <v>24</v>
@@ -15327,10 +15484,10 @@
         <v>14</v>
       </c>
       <c r="E328" s="21" t="s">
-        <v>1734</v>
+        <v>1730</v>
       </c>
       <c r="F328" s="6" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="H328" t="s">
         <v>18</v>
@@ -15339,7 +15496,7 @@
         <v>16478537689</v>
       </c>
       <c r="J328" s="14" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="329" spans="1:11" ht="14.4" hidden="1" customHeight="1">
@@ -15391,7 +15548,7 @@
         <v>15</v>
       </c>
       <c r="G330" s="15" t="s">
-        <v>1735</v>
+        <v>1731</v>
       </c>
       <c r="H330" t="s">
         <v>24</v>
@@ -15423,7 +15580,7 @@
         <v>15</v>
       </c>
       <c r="G331" s="15" t="s">
-        <v>1736</v>
+        <v>1732</v>
       </c>
       <c r="H331" t="s">
         <v>33</v>
@@ -15475,10 +15632,13 @@
         <v>14</v>
       </c>
       <c r="E333" s="21" t="s">
-        <v>1738</v>
+        <v>1734</v>
+      </c>
+      <c r="F333" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="G333" s="15" t="s">
-        <v>1737</v>
+        <v>1733</v>
       </c>
       <c r="H333" t="s">
         <v>67</v>
@@ -15510,7 +15670,7 @@
         <v>15</v>
       </c>
       <c r="G334" s="15" t="s">
-        <v>1739</v>
+        <v>1735</v>
       </c>
       <c r="H334" t="s">
         <v>24</v>
@@ -15542,7 +15702,7 @@
         <v>15</v>
       </c>
       <c r="G335" s="15" t="s">
-        <v>1740</v>
+        <v>1736</v>
       </c>
       <c r="H335" t="s">
         <v>24</v>
@@ -15571,7 +15731,7 @@
         <v>1043</v>
       </c>
       <c r="F336" s="6" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="H336" t="s">
         <v>24</v>
@@ -15580,10 +15740,10 @@
         <v>17053449086</v>
       </c>
       <c r="J336" s="14" t="s">
-        <v>1741</v>
+        <v>1737</v>
       </c>
       <c r="K336" s="14" t="s">
-        <v>1742</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="337" spans="1:11" ht="14.4" customHeight="1">
@@ -15603,7 +15763,7 @@
         <v>1046</v>
       </c>
       <c r="F337" s="6" t="s">
-        <v>1698</v>
+        <v>1694</v>
       </c>
       <c r="H337" t="s">
         <v>24</v>
@@ -15644,7 +15804,7 @@
         <v>17</v>
       </c>
       <c r="K338" s="29" t="s">
-        <v>1743</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="339" spans="1:11" ht="14.4" hidden="1" customHeight="1">
@@ -15702,7 +15862,7 @@
         <v>17</v>
       </c>
       <c r="K340" s="29" t="s">
-        <v>1743</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="341" spans="1:11" ht="14.4" hidden="1" customHeight="1">
@@ -15763,7 +15923,7 @@
         <v>17</v>
       </c>
       <c r="K342" s="29" t="s">
-        <v>1743</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="343" spans="1:11" ht="14.4" customHeight="1">
@@ -15783,7 +15943,7 @@
         <v>1060</v>
       </c>
       <c r="F343" s="6" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="H343" t="s">
         <v>47</v>
@@ -15792,10 +15952,10 @@
         <v>15198485656</v>
       </c>
       <c r="J343" s="14" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
       <c r="K343" s="14" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="344" spans="1:11" ht="14.4" customHeight="1">
@@ -15815,7 +15975,7 @@
         <v>1060</v>
       </c>
       <c r="F344" s="6" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="H344" t="s">
         <v>504</v>
@@ -15844,7 +16004,7 @@
         <v>1060</v>
       </c>
       <c r="F345" s="6" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="H345" t="s">
         <v>45</v>
@@ -15876,7 +16036,7 @@
         <v>15</v>
       </c>
       <c r="G346" s="15" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
       <c r="H346" t="s">
         <v>45</v>
@@ -15885,7 +16045,7 @@
         <v>17053002811</v>
       </c>
       <c r="J346" s="14" t="s">
-        <v>1699</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="347" spans="1:11" ht="14.4" customHeight="1">
@@ -15905,7 +16065,7 @@
         <v>1076</v>
       </c>
       <c r="F347" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H347" t="s">
         <v>45</v>
@@ -15934,7 +16094,7 @@
         <v>1076</v>
       </c>
       <c r="F348" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H348" t="s">
         <v>45</v>
@@ -16189,7 +16349,7 @@
         <v>15</v>
       </c>
       <c r="G357" s="1" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
       <c r="H357" t="s">
         <v>33</v>
@@ -16302,7 +16462,7 @@
         <v>1084</v>
       </c>
       <c r="F361" s="6" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="H361" t="s">
         <v>33</v>
@@ -16311,7 +16471,7 @@
         <v>19053369191</v>
       </c>
       <c r="J361" s="14" t="s">
-        <v>1699</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="362" spans="1:11" ht="14.4" customHeight="1">
@@ -16331,7 +16491,7 @@
         <v>1086</v>
       </c>
       <c r="F362" s="6" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="H362" t="s">
         <v>24</v>
@@ -16340,10 +16500,10 @@
         <v>19052782222</v>
       </c>
       <c r="J362" s="14" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
       <c r="K362" s="30" t="s">
-        <v>1748</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="363" spans="1:11" ht="14.4" customHeight="1">
@@ -16363,7 +16523,7 @@
         <v>1088</v>
       </c>
       <c r="F363" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H363" t="s">
         <v>47</v>
@@ -16392,7 +16552,7 @@
         <v>1090</v>
       </c>
       <c r="F364" s="6" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="H364" t="s">
         <v>45</v>
@@ -16401,7 +16561,7 @@
         <v>19252225044</v>
       </c>
       <c r="J364" s="14" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="365" spans="1:11" ht="14.4" customHeight="1">
@@ -16420,11 +16580,20 @@
       <c r="E365" s="21" t="s">
         <v>1118</v>
       </c>
+      <c r="F365" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G365" s="15" t="s">
+        <v>1798</v>
+      </c>
       <c r="H365" t="s">
         <v>82</v>
       </c>
       <c r="I365">
         <v>19055790650</v>
+      </c>
+      <c r="J365" s="14" t="s">
+        <v>1799</v>
       </c>
     </row>
     <row r="366" spans="1:11" ht="14.4" customHeight="1">
@@ -16443,11 +16612,20 @@
       <c r="E366" s="21" t="s">
         <v>1128</v>
       </c>
+      <c r="F366" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G366" s="15" t="s">
+        <v>1797</v>
+      </c>
       <c r="H366" t="s">
         <v>33</v>
       </c>
       <c r="I366">
         <v>16473529551</v>
+      </c>
+      <c r="J366" s="14" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="367" spans="1:11" ht="14.4" customHeight="1">
@@ -16466,14 +16644,20 @@
       <c r="E367" s="21" t="s">
         <v>1128</v>
       </c>
+      <c r="F367" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G367" s="15" t="s">
+        <v>1796</v>
+      </c>
       <c r="H367" t="s">
         <v>47</v>
       </c>
       <c r="I367">
         <v>16473479513</v>
       </c>
-      <c r="J367" t="s">
-        <v>48</v>
+      <c r="J367" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="368" spans="1:11" ht="14.4" customHeight="1">
@@ -16492,14 +16676,17 @@
       <c r="E368" s="21" t="s">
         <v>1132</v>
       </c>
+      <c r="F368" s="6" t="s">
+        <v>1669</v>
+      </c>
       <c r="H368" t="s">
         <v>16</v>
       </c>
       <c r="I368">
         <v>14167413838</v>
       </c>
-      <c r="J368" t="s">
-        <v>17</v>
+      <c r="J368" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="369" spans="1:10" ht="14.4" customHeight="1">
@@ -16518,13 +16705,19 @@
       <c r="E369" s="21" t="s">
         <v>1135</v>
       </c>
+      <c r="F369" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G369" s="15" t="s">
+        <v>1795</v>
+      </c>
       <c r="H369" t="s">
         <v>38</v>
       </c>
       <c r="I369">
         <v>12893891131</v>
       </c>
-      <c r="J369" t="s">
+      <c r="J369" s="14" t="s">
         <v>39</v>
       </c>
     </row>
@@ -16544,13 +16737,19 @@
       <c r="E370" s="21" t="s">
         <v>1138</v>
       </c>
+      <c r="F370" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G370" s="15" t="s">
+        <v>1794</v>
+      </c>
       <c r="H370" t="s">
         <v>38</v>
       </c>
       <c r="I370">
         <v>16479465098</v>
       </c>
-      <c r="J370" t="s">
+      <c r="J370" s="14" t="s">
         <v>39</v>
       </c>
     </row>
@@ -16570,11 +16769,17 @@
       <c r="E371" s="21" t="s">
         <v>1141</v>
       </c>
+      <c r="F371" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="H371" t="s">
         <v>18</v>
       </c>
       <c r="I371">
         <v>15192523933</v>
+      </c>
+      <c r="J371" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="372" spans="1:10" ht="14.4" customHeight="1">
@@ -16591,13 +16796,19 @@
         <v>14</v>
       </c>
       <c r="E372" s="21" t="s">
-        <v>1143</v>
+        <v>1793</v>
+      </c>
+      <c r="F372" s="6" t="s">
+        <v>1669</v>
       </c>
       <c r="H372" t="s">
         <v>33</v>
       </c>
       <c r="I372">
         <v>15758884343</v>
+      </c>
+      <c r="J372" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="373" spans="1:10" ht="14.4" customHeight="1">
@@ -16608,13 +16819,19 @@
         <v>290</v>
       </c>
       <c r="C373" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D373" t="s">
+        <v>14</v>
+      </c>
+      <c r="E373" s="21" t="s">
         <v>1144</v>
       </c>
-      <c r="D373" t="s">
-        <v>14</v>
-      </c>
-      <c r="E373" s="21" t="s">
-        <v>1145</v>
+      <c r="F373" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G373" s="15" t="s">
+        <v>1792</v>
       </c>
       <c r="H373" t="s">
         <v>16</v>
@@ -16622,25 +16839,28 @@
       <c r="I373">
         <v>14167788270</v>
       </c>
-      <c r="J373" t="s">
+      <c r="J373" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="374" spans="1:10" ht="14.4" customHeight="1">
       <c r="A374" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B374" t="s">
         <v>291</v>
       </c>
       <c r="C374" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D374" t="s">
+        <v>14</v>
+      </c>
+      <c r="E374" s="21" t="s">
         <v>1147</v>
       </c>
-      <c r="D374" t="s">
-        <v>14</v>
-      </c>
-      <c r="E374" s="21" t="s">
-        <v>1148</v>
+      <c r="F374" s="6" t="s">
+        <v>1653</v>
       </c>
       <c r="H374" t="s">
         <v>38</v>
@@ -16648,8 +16868,8 @@
       <c r="I374">
         <v>17059350223</v>
       </c>
-      <c r="J374" t="s">
-        <v>39</v>
+      <c r="J374" s="14" t="s">
+        <v>1692</v>
       </c>
     </row>
     <row r="375" spans="1:10" ht="14.4" customHeight="1">
@@ -16660,13 +16880,16 @@
         <v>291</v>
       </c>
       <c r="C375" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="D375" t="s">
         <v>14</v>
       </c>
       <c r="E375" s="21" t="s">
-        <v>1148</v>
+        <v>1147</v>
+      </c>
+      <c r="F375" s="6" t="s">
+        <v>1653</v>
       </c>
       <c r="H375" t="s">
         <v>38</v>
@@ -16674,8 +16897,8 @@
       <c r="I375">
         <v>17059350014</v>
       </c>
-      <c r="J375" t="s">
-        <v>39</v>
+      <c r="J375" s="14" t="s">
+        <v>1692</v>
       </c>
     </row>
     <row r="376" spans="1:10" ht="14.4" hidden="1" customHeight="1">
@@ -16683,16 +16906,16 @@
         <v>50</v>
       </c>
       <c r="B376" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C376" t="s">
         <v>1160</v>
       </c>
-      <c r="C376" t="s">
+      <c r="D376" t="s">
+        <v>14</v>
+      </c>
+      <c r="E376" t="s">
         <v>1161</v>
-      </c>
-      <c r="D376" t="s">
-        <v>14</v>
-      </c>
-      <c r="E376" t="s">
-        <v>1162</v>
       </c>
       <c r="F376" s="6" t="s">
         <v>23</v>
@@ -16712,16 +16935,16 @@
         <v>34</v>
       </c>
       <c r="B377" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C377" t="s">
         <v>1163</v>
       </c>
-      <c r="C377" t="s">
+      <c r="D377" t="s">
+        <v>14</v>
+      </c>
+      <c r="E377" t="s">
         <v>1164</v>
-      </c>
-      <c r="D377" t="s">
-        <v>14</v>
-      </c>
-      <c r="E377" t="s">
-        <v>1165</v>
       </c>
       <c r="F377" s="6" t="s">
         <v>23</v>
@@ -16738,16 +16961,16 @@
         <v>54</v>
       </c>
       <c r="B378" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C378" t="s">
         <v>1166</v>
       </c>
-      <c r="C378" t="s">
-        <v>1167</v>
-      </c>
       <c r="D378" t="s">
         <v>14</v>
       </c>
       <c r="E378" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="F378" s="6" t="s">
         <v>23</v>
@@ -16761,19 +16984,19 @@
     </row>
     <row r="379" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A379" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B379" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C379" t="s">
         <v>1168</v>
       </c>
-      <c r="B379" t="s">
-        <v>1166</v>
-      </c>
-      <c r="C379" t="s">
-        <v>1169</v>
-      </c>
       <c r="D379" t="s">
         <v>14</v>
       </c>
       <c r="E379" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="F379" s="6" t="s">
         <v>23</v>
@@ -16793,19 +17016,25 @@
         <v>291</v>
       </c>
       <c r="C380" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="D380" t="s">
         <v>14</v>
       </c>
       <c r="E380" s="21" t="s">
-        <v>1148</v>
+        <v>1147</v>
+      </c>
+      <c r="F380" s="6" t="s">
+        <v>1653</v>
       </c>
       <c r="H380" t="s">
         <v>36</v>
       </c>
       <c r="I380">
         <v>12893410512</v>
+      </c>
+      <c r="J380" s="14" t="s">
+        <v>1695</v>
       </c>
     </row>
     <row r="381" spans="1:10" ht="14.4" hidden="1" customHeight="1">
@@ -16822,7 +17051,7 @@
         <v>14</v>
       </c>
       <c r="E381" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="F381" s="6" t="s">
         <v>23</v>
@@ -16842,13 +17071,13 @@
         <v>305</v>
       </c>
       <c r="C382" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="D382" t="s">
         <v>14</v>
       </c>
       <c r="E382" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="F382" s="6" t="s">
         <v>23</v>
@@ -16868,13 +17097,13 @@
         <v>305</v>
       </c>
       <c r="C383" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D383" t="s">
+        <v>14</v>
+      </c>
+      <c r="E383" t="s">
         <v>1175</v>
-      </c>
-      <c r="D383" t="s">
-        <v>14</v>
-      </c>
-      <c r="E383" t="s">
-        <v>1176</v>
       </c>
       <c r="F383" s="6" t="s">
         <v>23</v>
@@ -16894,13 +17123,13 @@
         <v>305</v>
       </c>
       <c r="C384" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D384" t="s">
         <v>14</v>
       </c>
       <c r="E384" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="F384" s="6" t="s">
         <v>23</v>
@@ -16914,19 +17143,19 @@
     </row>
     <row r="385" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A385" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B385" t="s">
         <v>305</v>
       </c>
       <c r="C385" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D385" t="s">
+        <v>14</v>
+      </c>
+      <c r="E385" t="s">
         <v>1179</v>
-      </c>
-      <c r="D385" t="s">
-        <v>14</v>
-      </c>
-      <c r="E385" t="s">
-        <v>1180</v>
       </c>
       <c r="F385" s="6" t="s">
         <v>23</v>
@@ -16949,19 +17178,25 @@
         <v>291</v>
       </c>
       <c r="C386" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="D386" t="s">
         <v>14</v>
       </c>
       <c r="E386" s="21" t="s">
-        <v>1148</v>
+        <v>1147</v>
+      </c>
+      <c r="F386" s="6" t="s">
+        <v>1653</v>
       </c>
       <c r="H386" t="s">
         <v>33</v>
       </c>
       <c r="I386">
         <v>15194773336</v>
+      </c>
+      <c r="J386" s="14" t="s">
+        <v>1692</v>
       </c>
     </row>
     <row r="387" spans="1:10" ht="14.4" customHeight="1">
@@ -16969,16 +17204,22 @@
         <v>444</v>
       </c>
       <c r="B387" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C387" t="s">
         <v>1152</v>
       </c>
-      <c r="C387" t="s">
+      <c r="D387" t="s">
+        <v>14</v>
+      </c>
+      <c r="E387" s="21" t="s">
         <v>1153</v>
       </c>
-      <c r="D387" t="s">
-        <v>14</v>
-      </c>
-      <c r="E387" s="21" t="s">
-        <v>1154</v>
+      <c r="F387" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G387" s="15" t="s">
+        <v>1791</v>
       </c>
       <c r="H387" t="s">
         <v>38</v>
@@ -16986,8 +17227,8 @@
       <c r="I387">
         <v>13435001612</v>
       </c>
-      <c r="J387" t="s">
-        <v>39</v>
+      <c r="J387" s="14" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="388" spans="1:10" ht="14.4" customHeight="1">
@@ -16995,16 +17236,19 @@
         <v>58</v>
       </c>
       <c r="B388" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C388" t="s">
         <v>1155</v>
       </c>
-      <c r="C388" t="s">
+      <c r="D388" t="s">
+        <v>14</v>
+      </c>
+      <c r="E388" s="21" t="s">
         <v>1156</v>
       </c>
-      <c r="D388" t="s">
-        <v>14</v>
-      </c>
-      <c r="E388" s="21" t="s">
-        <v>1157</v>
+      <c r="F388" s="6" t="s">
+        <v>1669</v>
       </c>
       <c r="H388" t="s">
         <v>24</v>
@@ -17012,25 +17256,25 @@
       <c r="I388">
         <v>19054530698</v>
       </c>
-      <c r="J388" t="s">
-        <v>17</v>
+      <c r="J388" s="14" t="s">
+        <v>1790</v>
       </c>
     </row>
     <row r="389" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A389" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B389" t="s">
         <v>1187</v>
       </c>
-      <c r="B389" t="s">
+      <c r="C389" t="s">
         <v>1188</v>
       </c>
-      <c r="C389" t="s">
+      <c r="D389" t="s">
+        <v>14</v>
+      </c>
+      <c r="E389" t="s">
         <v>1189</v>
-      </c>
-      <c r="D389" t="s">
-        <v>14</v>
-      </c>
-      <c r="E389" t="s">
-        <v>1190</v>
       </c>
       <c r="F389" s="6" t="s">
         <v>23</v>
@@ -17047,16 +17291,19 @@
         <v>73</v>
       </c>
       <c r="B390" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C390" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D390" t="s">
+        <v>14</v>
+      </c>
+      <c r="E390" s="21" t="s">
         <v>1158</v>
       </c>
-      <c r="D390" t="s">
-        <v>14</v>
-      </c>
-      <c r="E390" s="21" t="s">
-        <v>1159</v>
+      <c r="F390" s="6" t="s">
+        <v>1669</v>
       </c>
       <c r="H390" t="s">
         <v>24</v>
@@ -17064,8 +17311,8 @@
       <c r="I390">
         <v>15197446627</v>
       </c>
-      <c r="J390" t="s">
-        <v>17</v>
+      <c r="J390" s="14" t="s">
+        <v>1789</v>
       </c>
     </row>
     <row r="391" spans="1:10" ht="14.4" customHeight="1">
@@ -17073,16 +17320,22 @@
         <v>50</v>
       </c>
       <c r="B391" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C391" t="s">
         <v>1170</v>
       </c>
-      <c r="C391" t="s">
+      <c r="D391" t="s">
+        <v>14</v>
+      </c>
+      <c r="E391" s="21" t="s">
         <v>1171</v>
       </c>
-      <c r="D391" t="s">
-        <v>14</v>
-      </c>
-      <c r="E391" s="21" t="s">
-        <v>1172</v>
+      <c r="F391" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G391" s="1" t="s">
+        <v>1788</v>
       </c>
       <c r="H391" t="s">
         <v>24</v>
@@ -17090,8 +17343,8 @@
       <c r="I391">
         <v>16138299333</v>
       </c>
-      <c r="J391" t="s">
-        <v>17</v>
+      <c r="J391" s="14" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="392" spans="1:10" ht="14.4" customHeight="1">
@@ -17102,13 +17355,16 @@
         <v>330</v>
       </c>
       <c r="C392" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D392" t="s">
+        <v>14</v>
+      </c>
+      <c r="E392" s="21" t="s">
         <v>1181</v>
       </c>
-      <c r="D392" t="s">
-        <v>14</v>
-      </c>
-      <c r="E392" s="21" t="s">
-        <v>1182</v>
+      <c r="F392" s="6" t="s">
+        <v>1669</v>
       </c>
       <c r="H392" t="s">
         <v>38</v>
@@ -17116,7 +17372,7 @@
       <c r="I392">
         <v>16473519522</v>
       </c>
-      <c r="J392" t="s">
+      <c r="J392" s="14" t="s">
         <v>39</v>
       </c>
     </row>
@@ -17128,13 +17384,13 @@
         <v>337</v>
       </c>
       <c r="C393" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D393" t="s">
+        <v>14</v>
+      </c>
+      <c r="E393" t="s">
         <v>1200</v>
-      </c>
-      <c r="D393" t="s">
-        <v>14</v>
-      </c>
-      <c r="E393" t="s">
-        <v>1201</v>
       </c>
       <c r="F393" s="6" t="s">
         <v>23</v>
@@ -17154,13 +17410,13 @@
         <v>337</v>
       </c>
       <c r="C394" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D394" t="s">
         <v>14</v>
       </c>
       <c r="E394" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="F394" s="6" t="s">
         <v>23</v>
@@ -17180,13 +17436,19 @@
         <v>98</v>
       </c>
       <c r="C395" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D395" t="s">
+        <v>14</v>
+      </c>
+      <c r="E395" s="21" t="s">
         <v>1183</v>
       </c>
-      <c r="D395" t="s">
-        <v>14</v>
-      </c>
-      <c r="E395" s="21" t="s">
-        <v>1184</v>
+      <c r="F395" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G395" s="15" t="s">
+        <v>1787</v>
       </c>
       <c r="H395" t="s">
         <v>26</v>
@@ -17194,7 +17456,7 @@
       <c r="I395">
         <v>14162506424</v>
       </c>
-      <c r="J395" t="s">
+      <c r="J395" s="14" t="s">
         <v>48</v>
       </c>
     </row>
@@ -17206,19 +17468,25 @@
         <v>335</v>
       </c>
       <c r="C396" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D396" t="s">
+        <v>14</v>
+      </c>
+      <c r="E396" s="21" t="s">
         <v>1185</v>
       </c>
-      <c r="D396" t="s">
-        <v>14</v>
-      </c>
-      <c r="E396" s="21" t="s">
-        <v>1186</v>
+      <c r="F396" s="6" t="s">
+        <v>1619</v>
       </c>
       <c r="H396" t="s">
         <v>18</v>
       </c>
       <c r="I396">
         <v>15192041422</v>
+      </c>
+      <c r="J396" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="397" spans="1:10" ht="14.4" hidden="1" customHeight="1">
@@ -17226,16 +17494,16 @@
         <v>34</v>
       </c>
       <c r="B397" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C397" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D397" t="s">
+        <v>14</v>
+      </c>
+      <c r="E397" t="s">
         <v>1210</v>
-      </c>
-      <c r="C397" t="s">
-        <v>1211</v>
-      </c>
-      <c r="D397" t="s">
-        <v>14</v>
-      </c>
-      <c r="E397" t="s">
-        <v>1212</v>
       </c>
       <c r="F397" s="6" t="s">
         <v>23</v>
@@ -17252,16 +17520,16 @@
         <v>61</v>
       </c>
       <c r="B398" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C398" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D398" t="s">
+        <v>14</v>
+      </c>
+      <c r="E398" t="s">
         <v>1213</v>
-      </c>
-      <c r="C398" t="s">
-        <v>1214</v>
-      </c>
-      <c r="D398" t="s">
-        <v>14</v>
-      </c>
-      <c r="E398" t="s">
-        <v>1215</v>
       </c>
       <c r="F398" s="6" t="s">
         <v>23</v>
@@ -17278,16 +17546,16 @@
         <v>307</v>
       </c>
       <c r="B399" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C399" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D399" t="s">
+        <v>14</v>
+      </c>
+      <c r="E399" t="s">
         <v>1216</v>
-      </c>
-      <c r="C399" t="s">
-        <v>1217</v>
-      </c>
-      <c r="D399" t="s">
-        <v>14</v>
-      </c>
-      <c r="E399" t="s">
-        <v>1218</v>
       </c>
       <c r="F399" s="6" t="s">
         <v>23</v>
@@ -17307,16 +17575,16 @@
         <v>322</v>
       </c>
       <c r="B400" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C400" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D400" t="s">
+        <v>14</v>
+      </c>
+      <c r="E400" t="s">
         <v>1219</v>
-      </c>
-      <c r="C400" t="s">
-        <v>1220</v>
-      </c>
-      <c r="D400" t="s">
-        <v>14</v>
-      </c>
-      <c r="E400" t="s">
-        <v>1221</v>
       </c>
       <c r="F400" s="6" t="s">
         <v>23</v>
@@ -17336,16 +17604,22 @@
         <v>27</v>
       </c>
       <c r="B401" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C401" t="s">
         <v>1191</v>
       </c>
-      <c r="C401" t="s">
+      <c r="D401" t="s">
+        <v>14</v>
+      </c>
+      <c r="E401" s="21" t="s">
         <v>1192</v>
       </c>
-      <c r="D401" t="s">
-        <v>14</v>
-      </c>
-      <c r="E401" s="21" t="s">
-        <v>1193</v>
+      <c r="F401" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G401" s="15" t="s">
+        <v>1786</v>
       </c>
       <c r="H401" t="s">
         <v>24</v>
@@ -17353,7 +17627,7 @@
       <c r="I401">
         <v>14165512837</v>
       </c>
-      <c r="J401" t="s">
+      <c r="J401" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -17362,22 +17636,28 @@
         <v>417</v>
       </c>
       <c r="B402" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C402" t="s">
         <v>1194</v>
       </c>
-      <c r="C402" t="s">
+      <c r="D402" t="s">
+        <v>14</v>
+      </c>
+      <c r="E402" s="21" t="s">
         <v>1195</v>
       </c>
-      <c r="D402" t="s">
-        <v>14</v>
-      </c>
-      <c r="E402" s="21" t="s">
-        <v>1196</v>
+      <c r="F402" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="H402" t="s">
         <v>33</v>
       </c>
       <c r="I402">
         <v>15195091011</v>
+      </c>
+      <c r="J402" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="403" spans="1:10" ht="14.4" hidden="1" customHeight="1">
@@ -17385,16 +17665,16 @@
         <v>73</v>
       </c>
       <c r="B403" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C403" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D403" t="s">
+        <v>14</v>
+      </c>
+      <c r="E403" t="s">
         <v>1226</v>
-      </c>
-      <c r="C403" t="s">
-        <v>1227</v>
-      </c>
-      <c r="D403" t="s">
-        <v>14</v>
-      </c>
-      <c r="E403" t="s">
-        <v>1228</v>
       </c>
       <c r="F403" s="6" t="s">
         <v>23</v>
@@ -17414,16 +17694,22 @@
         <v>726</v>
       </c>
       <c r="B404" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C404" t="s">
         <v>1197</v>
       </c>
-      <c r="C404" t="s">
+      <c r="D404" t="s">
+        <v>14</v>
+      </c>
+      <c r="E404" s="21" t="s">
         <v>1198</v>
       </c>
-      <c r="D404" t="s">
-        <v>14</v>
-      </c>
-      <c r="E404" s="21" t="s">
-        <v>1199</v>
+      <c r="F404" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G404" s="15" t="s">
+        <v>1785</v>
       </c>
       <c r="H404" t="s">
         <v>38</v>
@@ -17431,25 +17717,25 @@
       <c r="I404">
         <v>16134768028</v>
       </c>
-      <c r="J404" t="s">
+      <c r="J404" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="405" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A405" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B405" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C405" t="s">
         <v>1232</v>
       </c>
-      <c r="B405" t="s">
+      <c r="D405" t="s">
+        <v>14</v>
+      </c>
+      <c r="E405" t="s">
         <v>1233</v>
-      </c>
-      <c r="C405" t="s">
-        <v>1234</v>
-      </c>
-      <c r="D405" t="s">
-        <v>14</v>
-      </c>
-      <c r="E405" t="s">
-        <v>1235</v>
       </c>
       <c r="F405" s="6" t="s">
         <v>23</v>
@@ -17463,25 +17749,31 @@
     </row>
     <row r="406" spans="1:10" ht="14.4" customHeight="1">
       <c r="A406" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B406" t="s">
         <v>1203</v>
       </c>
-      <c r="B406" t="s">
+      <c r="C406" t="s">
         <v>1204</v>
       </c>
-      <c r="C406" t="s">
+      <c r="D406" t="s">
+        <v>14</v>
+      </c>
+      <c r="E406" s="21" t="s">
         <v>1205</v>
       </c>
-      <c r="D406" t="s">
-        <v>14</v>
-      </c>
-      <c r="E406" s="21" t="s">
-        <v>1206</v>
+      <c r="F406" s="6" t="s">
+        <v>1669</v>
       </c>
       <c r="H406" t="s">
         <v>18</v>
       </c>
       <c r="I406">
         <v>18072930010</v>
+      </c>
+      <c r="J406" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="407" spans="1:10" ht="14.4" customHeight="1">
@@ -17489,22 +17781,31 @@
         <v>40</v>
       </c>
       <c r="B407" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C407" t="s">
         <v>1207</v>
       </c>
-      <c r="C407" t="s">
-        <v>1208</v>
-      </c>
       <c r="D407" t="s">
         <v>14</v>
       </c>
-      <c r="E407" s="21" t="s">
-        <v>1209</v>
+      <c r="E407" s="28" t="s">
+        <v>1784</v>
+      </c>
+      <c r="F407" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G407" s="15" t="s">
+        <v>1783</v>
       </c>
       <c r="H407" t="s">
         <v>18</v>
       </c>
       <c r="I407">
         <v>17736973191</v>
+      </c>
+      <c r="J407" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="408" spans="1:10" ht="14.4" hidden="1" customHeight="1">
@@ -17512,16 +17813,16 @@
         <v>469</v>
       </c>
       <c r="B408" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C408" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D408" t="s">
+        <v>14</v>
+      </c>
+      <c r="E408" t="s">
         <v>1239</v>
-      </c>
-      <c r="C408" t="s">
-        <v>1240</v>
-      </c>
-      <c r="D408" t="s">
-        <v>14</v>
-      </c>
-      <c r="E408" t="s">
-        <v>1241</v>
       </c>
       <c r="F408" s="6" t="s">
         <v>23</v>
@@ -17541,16 +17842,19 @@
         <v>129</v>
       </c>
       <c r="B409" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C409" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D409" t="s">
+        <v>14</v>
+      </c>
+      <c r="E409" s="21" t="s">
         <v>1222</v>
       </c>
-      <c r="C409" t="s">
-        <v>1223</v>
-      </c>
-      <c r="D409" t="s">
-        <v>14</v>
-      </c>
-      <c r="E409" s="21" t="s">
-        <v>1224</v>
+      <c r="F409" s="6" t="s">
+        <v>1669</v>
       </c>
       <c r="H409" t="s">
         <v>24</v>
@@ -17558,8 +17862,8 @@
       <c r="I409">
         <v>12892963780</v>
       </c>
-      <c r="J409" t="s">
-        <v>17</v>
+      <c r="J409" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="410" spans="1:10" ht="14.4" hidden="1" customHeight="1">
@@ -17567,16 +17871,16 @@
         <v>52</v>
       </c>
       <c r="B410" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C410" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D410" t="s">
+        <v>14</v>
+      </c>
+      <c r="E410" t="s">
         <v>1245</v>
-      </c>
-      <c r="C410" t="s">
-        <v>1246</v>
-      </c>
-      <c r="D410" t="s">
-        <v>14</v>
-      </c>
-      <c r="E410" t="s">
-        <v>1247</v>
       </c>
       <c r="F410" s="6" t="s">
         <v>23</v>
@@ -17596,16 +17900,16 @@
         <v>61</v>
       </c>
       <c r="B411" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C411" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D411" t="s">
+        <v>14</v>
+      </c>
+      <c r="E411" t="s">
         <v>1248</v>
-      </c>
-      <c r="C411" t="s">
-        <v>1249</v>
-      </c>
-      <c r="D411" t="s">
-        <v>14</v>
-      </c>
-      <c r="E411" t="s">
-        <v>1250</v>
       </c>
       <c r="F411" s="6" t="s">
         <v>23</v>
@@ -17622,16 +17926,16 @@
         <v>540</v>
       </c>
       <c r="B412" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="C412" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="D412" t="s">
         <v>14</v>
       </c>
       <c r="E412" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="F412" s="6" t="s">
         <v>23</v>
@@ -17648,16 +17952,16 @@
         <v>27</v>
       </c>
       <c r="B413" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C413" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D413" t="s">
+        <v>14</v>
+      </c>
+      <c r="E413" t="s">
         <v>1253</v>
-      </c>
-      <c r="C413" t="s">
-        <v>1254</v>
-      </c>
-      <c r="D413" t="s">
-        <v>14</v>
-      </c>
-      <c r="E413" t="s">
-        <v>1255</v>
       </c>
       <c r="F413" s="6" t="s">
         <v>23</v>
@@ -17672,19 +17976,19 @@
         <v>93</v>
       </c>
       <c r="B414" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C414" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D414" s="7" t="s">
         <v>1256</v>
       </c>
-      <c r="C414" t="s">
+      <c r="E414" s="18" t="s">
         <v>1257</v>
       </c>
-      <c r="D414" s="7" t="s">
-        <v>1258</v>
-      </c>
-      <c r="E414" s="18" t="s">
-        <v>1259</v>
-      </c>
       <c r="F414" s="6" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="H414" t="s">
         <v>92</v>
@@ -17701,16 +18005,19 @@
         <v>129</v>
       </c>
       <c r="B415" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C415" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D415" t="s">
+        <v>14</v>
+      </c>
+      <c r="E415" s="21" t="s">
         <v>1222</v>
       </c>
-      <c r="C415" t="s">
-        <v>1225</v>
-      </c>
-      <c r="D415" t="s">
-        <v>14</v>
-      </c>
-      <c r="E415" s="21" t="s">
-        <v>1224</v>
+      <c r="F415" s="6" t="s">
+        <v>1669</v>
       </c>
       <c r="H415" t="s">
         <v>24</v>
@@ -17718,8 +18025,8 @@
       <c r="I415">
         <v>12892963780</v>
       </c>
-      <c r="J415" t="s">
-        <v>17</v>
+      <c r="J415" s="14" t="s">
+        <v>1692</v>
       </c>
     </row>
     <row r="416" spans="1:10" ht="14.4" customHeight="1">
@@ -17727,16 +18034,22 @@
         <v>89</v>
       </c>
       <c r="B416" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C416" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D416" t="s">
+        <v>14</v>
+      </c>
+      <c r="E416" s="21" t="s">
         <v>1229</v>
       </c>
-      <c r="C416" t="s">
-        <v>1230</v>
-      </c>
-      <c r="D416" t="s">
-        <v>14</v>
-      </c>
-      <c r="E416" s="21" t="s">
-        <v>1231</v>
+      <c r="F416" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G416" s="33" t="s">
+        <v>1782</v>
       </c>
       <c r="H416" t="s">
         <v>24</v>
@@ -17744,7 +18057,7 @@
       <c r="I416">
         <v>14168749333</v>
       </c>
-      <c r="J416" t="s">
+      <c r="J416" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -17756,13 +18069,16 @@
         <v>174</v>
       </c>
       <c r="C417" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="D417" t="s">
         <v>14</v>
       </c>
       <c r="E417" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
+      </c>
+      <c r="F417" s="6" t="s">
+        <v>1653</v>
       </c>
       <c r="H417" t="s">
         <v>24</v>
@@ -17770,8 +18086,8 @@
       <c r="I417">
         <v>16134216788</v>
       </c>
-      <c r="J417" t="s">
-        <v>17</v>
+      <c r="J417" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="418" spans="1:10" ht="14.4" customHeight="1">
@@ -17782,13 +18098,16 @@
         <v>174</v>
       </c>
       <c r="C418" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="D418" t="s">
         <v>14</v>
       </c>
       <c r="E418" s="21" t="s">
-        <v>1237</v>
+        <v>1235</v>
+      </c>
+      <c r="F418" s="6" t="s">
+        <v>1653</v>
       </c>
       <c r="H418" t="s">
         <v>24</v>
@@ -17796,8 +18115,8 @@
       <c r="I418">
         <v>16134216788</v>
       </c>
-      <c r="J418" t="s">
-        <v>17</v>
+      <c r="J418" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="419" spans="1:10" ht="14.4" customHeight="1">
@@ -17805,16 +18124,22 @@
         <v>54</v>
       </c>
       <c r="B419" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C419" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D419" t="s">
+        <v>14</v>
+      </c>
+      <c r="E419" s="21" t="s">
         <v>1242</v>
       </c>
-      <c r="C419" t="s">
-        <v>1243</v>
-      </c>
-      <c r="D419" t="s">
-        <v>14</v>
-      </c>
-      <c r="E419" s="21" t="s">
-        <v>1244</v>
+      <c r="F419" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G419" s="15" t="s">
+        <v>1781</v>
       </c>
       <c r="H419" t="s">
         <v>319</v>
@@ -17822,7 +18147,7 @@
       <c r="I419">
         <v>15197424200</v>
       </c>
-      <c r="J419" t="s">
+      <c r="J419" s="14" t="s">
         <v>48</v>
       </c>
     </row>
@@ -17831,42 +18156,48 @@
         <v>34</v>
       </c>
       <c r="B420" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C420" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D420" t="s">
+        <v>14</v>
+      </c>
+      <c r="E420" s="21" t="s">
         <v>1260</v>
       </c>
-      <c r="C420" t="s">
-        <v>1261</v>
-      </c>
-      <c r="D420" t="s">
-        <v>14</v>
-      </c>
-      <c r="E420" s="21" t="s">
-        <v>1262</v>
+      <c r="F420" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="H420" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="I420">
         <v>16475590954</v>
       </c>
-      <c r="J420" t="s">
-        <v>17</v>
+      <c r="J420" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="421" spans="1:10" ht="14.4" customHeight="1">
       <c r="A421" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B421" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C421" t="s">
         <v>1263</v>
       </c>
-      <c r="B421" t="s">
+      <c r="D421" t="s">
+        <v>14</v>
+      </c>
+      <c r="E421" s="21" t="s">
         <v>1264</v>
       </c>
-      <c r="C421" t="s">
-        <v>1265</v>
-      </c>
-      <c r="D421" t="s">
-        <v>14</v>
-      </c>
-      <c r="E421" s="21" t="s">
-        <v>1266</v>
+      <c r="F421" s="6" t="s">
+        <v>1694</v>
       </c>
       <c r="H421" t="s">
         <v>38</v>
@@ -17874,7 +18205,7 @@
       <c r="I421">
         <v>16137044141</v>
       </c>
-      <c r="J421" t="s">
+      <c r="J421" s="14" t="s">
         <v>39</v>
       </c>
     </row>
@@ -17883,22 +18214,28 @@
         <v>34</v>
       </c>
       <c r="B422" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="C422" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="D422" t="s">
         <v>14</v>
       </c>
       <c r="E422" s="21" t="s">
-        <v>1269</v>
+        <v>1780</v>
+      </c>
+      <c r="F422" s="6" t="s">
+        <v>1653</v>
       </c>
       <c r="H422" t="s">
         <v>18</v>
       </c>
       <c r="I422">
         <v>19053089444</v>
+      </c>
+      <c r="J422" s="14" t="s">
+        <v>1695</v>
       </c>
     </row>
     <row r="423" spans="1:10" ht="14.4" customHeight="1">
@@ -17906,22 +18243,28 @@
         <v>34</v>
       </c>
       <c r="B423" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="C423" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="D423" t="s">
         <v>14</v>
       </c>
       <c r="E423" s="21" t="s">
-        <v>1269</v>
+        <v>1267</v>
+      </c>
+      <c r="F423" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="H423" t="s">
         <v>18</v>
       </c>
       <c r="I423">
         <v>19053089444</v>
+      </c>
+      <c r="J423" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="424" spans="1:10" ht="14.4" hidden="1" customHeight="1">
@@ -17929,16 +18272,16 @@
         <v>121</v>
       </c>
       <c r="B424" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C424" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D424" t="s">
+        <v>14</v>
+      </c>
+      <c r="E424" t="s">
         <v>1287</v>
-      </c>
-      <c r="C424" t="s">
-        <v>1288</v>
-      </c>
-      <c r="D424" t="s">
-        <v>14</v>
-      </c>
-      <c r="E424" t="s">
-        <v>1289</v>
       </c>
       <c r="F424" s="6" t="s">
         <v>23</v>
@@ -17958,16 +18301,16 @@
         <v>27</v>
       </c>
       <c r="B425" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C425" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D425" t="s">
+        <v>14</v>
+      </c>
+      <c r="E425" t="s">
         <v>1287</v>
-      </c>
-      <c r="C425" t="s">
-        <v>1290</v>
-      </c>
-      <c r="D425" t="s">
-        <v>14</v>
-      </c>
-      <c r="E425" t="s">
-        <v>1289</v>
       </c>
       <c r="F425" s="6" t="s">
         <v>23</v>
@@ -17987,16 +18330,16 @@
         <v>27</v>
       </c>
       <c r="B426" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C426" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D426" t="s">
+        <v>14</v>
+      </c>
+      <c r="E426" t="s">
         <v>1291</v>
-      </c>
-      <c r="C426" t="s">
-        <v>1292</v>
-      </c>
-      <c r="D426" t="s">
-        <v>14</v>
-      </c>
-      <c r="E426" t="s">
-        <v>1293</v>
       </c>
       <c r="F426" s="6" t="s">
         <v>23</v>
@@ -18016,16 +18359,16 @@
         <v>79</v>
       </c>
       <c r="B427" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C427" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D427" t="s">
+        <v>14</v>
+      </c>
+      <c r="E427" t="s">
         <v>1294</v>
-      </c>
-      <c r="C427" t="s">
-        <v>1295</v>
-      </c>
-      <c r="D427" t="s">
-        <v>14</v>
-      </c>
-      <c r="E427" t="s">
-        <v>1296</v>
       </c>
       <c r="F427" s="6" t="s">
         <v>23</v>
@@ -18045,16 +18388,16 @@
         <v>178</v>
       </c>
       <c r="B428" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="C428" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="D428" t="s">
         <v>14</v>
       </c>
       <c r="E428" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="F428" s="6" t="s">
         <v>23</v>
@@ -18074,16 +18417,16 @@
         <v>27</v>
       </c>
       <c r="B429" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="C429" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="D429" t="s">
         <v>14</v>
       </c>
       <c r="E429" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="F429" s="6" t="s">
         <v>23</v>
@@ -18100,16 +18443,22 @@
         <v>89</v>
       </c>
       <c r="B430" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C430" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D430" t="s">
+        <v>14</v>
+      </c>
+      <c r="E430" s="21" t="s">
         <v>1272</v>
       </c>
-      <c r="C430" t="s">
-        <v>1273</v>
-      </c>
-      <c r="D430" t="s">
-        <v>14</v>
-      </c>
-      <c r="E430" s="21" t="s">
-        <v>1274</v>
+      <c r="F430" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G430" s="15" t="s">
+        <v>1779</v>
       </c>
       <c r="H430" t="s">
         <v>24</v>
@@ -18117,7 +18466,7 @@
       <c r="I430">
         <v>19057131000</v>
       </c>
-      <c r="J430" t="s">
+      <c r="J430" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -18126,16 +18475,22 @@
         <v>62</v>
       </c>
       <c r="B431" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C431" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D431" t="s">
+        <v>14</v>
+      </c>
+      <c r="E431" s="21" t="s">
         <v>1275</v>
       </c>
-      <c r="C431" t="s">
-        <v>1276</v>
-      </c>
-      <c r="D431" t="s">
-        <v>14</v>
-      </c>
-      <c r="E431" s="21" t="s">
-        <v>1277</v>
+      <c r="F431" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G431" s="15" t="s">
+        <v>1778</v>
       </c>
       <c r="H431" t="s">
         <v>24</v>
@@ -18143,7 +18498,7 @@
       <c r="I431">
         <v>17054742021</v>
       </c>
-      <c r="J431" t="s">
+      <c r="J431" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -18152,16 +18507,22 @@
         <v>50</v>
       </c>
       <c r="B432" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="C432" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="D432" t="s">
         <v>14</v>
       </c>
       <c r="E432" s="21" t="s">
-        <v>1277</v>
+        <v>1275</v>
+      </c>
+      <c r="F432" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G432" s="15" t="s">
+        <v>1777</v>
       </c>
       <c r="H432" t="s">
         <v>24</v>
@@ -18169,7 +18530,7 @@
       <c r="I432">
         <v>16137286010</v>
       </c>
-      <c r="J432" t="s">
+      <c r="J432" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -18178,16 +18539,22 @@
         <v>177</v>
       </c>
       <c r="B433" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C433" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D433" t="s">
+        <v>14</v>
+      </c>
+      <c r="E433" s="21" t="s">
         <v>1280</v>
       </c>
-      <c r="C433" t="s">
-        <v>1281</v>
-      </c>
-      <c r="D433" t="s">
-        <v>14</v>
-      </c>
-      <c r="E433" s="21" t="s">
-        <v>1282</v>
+      <c r="F433" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G433" s="15" t="s">
+        <v>1776</v>
       </c>
       <c r="H433" t="s">
         <v>47</v>
@@ -18195,7 +18562,7 @@
       <c r="I433">
         <v>15192651399</v>
       </c>
-      <c r="J433" t="s">
+      <c r="J433" s="14" t="s">
         <v>48</v>
       </c>
     </row>
@@ -18204,22 +18571,28 @@
         <v>307</v>
       </c>
       <c r="B434" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C434" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D434" t="s">
+        <v>14</v>
+      </c>
+      <c r="E434" s="21" t="s">
         <v>1284</v>
       </c>
-      <c r="C434" t="s">
-        <v>1285</v>
-      </c>
-      <c r="D434" t="s">
-        <v>14</v>
-      </c>
-      <c r="E434" s="21" t="s">
-        <v>1286</v>
+      <c r="F434" s="6" t="s">
+        <v>1619</v>
       </c>
       <c r="H434" t="s">
         <v>36</v>
       </c>
       <c r="I434">
         <v>17052426550</v>
+      </c>
+      <c r="J434" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="435" spans="1:10" ht="14.4" customHeight="1">
@@ -18230,13 +18603,19 @@
         <v>374</v>
       </c>
       <c r="C435" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="D435" t="s">
         <v>14</v>
       </c>
       <c r="E435" s="21" t="s">
-        <v>1302</v>
+        <v>1300</v>
+      </c>
+      <c r="F435" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G435" s="15" t="s">
+        <v>1775</v>
       </c>
       <c r="H435" t="s">
         <v>26</v>
@@ -18244,8 +18623,8 @@
       <c r="I435">
         <v>14162211661</v>
       </c>
-      <c r="J435" t="s">
-        <v>48</v>
+      <c r="J435" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="436" spans="1:10" ht="14.4" customHeight="1">
@@ -18253,22 +18632,28 @@
         <v>37</v>
       </c>
       <c r="B436" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="C436" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="D436" t="s">
         <v>14</v>
       </c>
       <c r="E436" s="21" t="s">
-        <v>1302</v>
+        <v>1300</v>
+      </c>
+      <c r="F436" s="6" t="s">
+        <v>1694</v>
       </c>
       <c r="H436" t="s">
         <v>36</v>
       </c>
       <c r="I436">
         <v>14162826555</v>
+      </c>
+      <c r="J436" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="437" spans="1:10" ht="14.4" customHeight="1">
@@ -18276,16 +18661,22 @@
         <v>50</v>
       </c>
       <c r="B437" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C437" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D437" t="s">
+        <v>14</v>
+      </c>
+      <c r="E437" s="21" t="s">
         <v>1305</v>
       </c>
-      <c r="C437" t="s">
-        <v>1306</v>
-      </c>
-      <c r="D437" t="s">
-        <v>14</v>
-      </c>
-      <c r="E437" s="21" t="s">
-        <v>1307</v>
+      <c r="F437" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G437" s="15" t="s">
+        <v>1774</v>
       </c>
       <c r="H437" t="s">
         <v>24</v>
@@ -18293,7 +18684,7 @@
       <c r="I437">
         <v>16137481000</v>
       </c>
-      <c r="J437" t="s">
+      <c r="J437" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -18302,16 +18693,19 @@
         <v>357</v>
       </c>
       <c r="B438" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C438" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D438" t="s">
+        <v>14</v>
+      </c>
+      <c r="E438" s="21" t="s">
         <v>1308</v>
       </c>
-      <c r="C438" t="s">
-        <v>1309</v>
-      </c>
-      <c r="D438" t="s">
-        <v>14</v>
-      </c>
-      <c r="E438" s="21" t="s">
-        <v>1310</v>
+      <c r="F438" s="6" t="s">
+        <v>1653</v>
       </c>
       <c r="H438" t="s">
         <v>38</v>
@@ -18319,8 +18713,8 @@
       <c r="I438">
         <v>17055350344</v>
       </c>
-      <c r="J438" t="s">
-        <v>39</v>
+      <c r="J438" s="14" t="s">
+        <v>1695</v>
       </c>
     </row>
     <row r="439" spans="1:10" ht="14.4" customHeight="1">
@@ -18331,19 +18725,25 @@
         <v>172</v>
       </c>
       <c r="C439" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="D439" t="s">
         <v>14</v>
       </c>
       <c r="E439" s="21" t="s">
-        <v>1312</v>
+        <v>1310</v>
+      </c>
+      <c r="F439" s="6" t="s">
+        <v>1669</v>
       </c>
       <c r="H439" t="s">
         <v>36</v>
       </c>
       <c r="I439">
         <v>12894820461</v>
+      </c>
+      <c r="J439" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="440" spans="1:10" ht="14.4" customHeight="1">
@@ -18354,19 +18754,25 @@
         <v>172</v>
       </c>
       <c r="C440" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="D440" t="s">
         <v>14</v>
       </c>
       <c r="E440" s="21" t="s">
-        <v>1312</v>
+        <v>1310</v>
+      </c>
+      <c r="F440" s="6" t="s">
+        <v>1669</v>
       </c>
       <c r="H440" t="s">
         <v>18</v>
       </c>
       <c r="I440">
         <v>16132300623</v>
+      </c>
+      <c r="J440" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="441" spans="1:10" ht="14.4" customHeight="1">
@@ -18377,19 +18783,25 @@
         <v>172</v>
       </c>
       <c r="C441" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="D441" t="s">
         <v>14</v>
       </c>
       <c r="E441" s="21" t="s">
-        <v>1312</v>
+        <v>1310</v>
+      </c>
+      <c r="F441" s="6" t="s">
+        <v>1669</v>
       </c>
       <c r="H441" t="s">
         <v>18</v>
       </c>
       <c r="I441">
         <v>16133199992</v>
+      </c>
+      <c r="J441" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="442" spans="1:10" ht="14.4" customHeight="1">
@@ -18400,19 +18812,25 @@
         <v>172</v>
       </c>
       <c r="C442" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="D442" t="s">
         <v>14</v>
       </c>
       <c r="E442" s="21" t="s">
-        <v>1312</v>
+        <v>1310</v>
+      </c>
+      <c r="F442" s="6" t="s">
+        <v>1669</v>
       </c>
       <c r="H442" t="s">
         <v>18</v>
       </c>
       <c r="I442">
         <v>12892251000</v>
+      </c>
+      <c r="J442" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="443" spans="1:10" ht="14.4" customHeight="1">
@@ -18420,16 +18838,19 @@
         <v>37</v>
       </c>
       <c r="B443" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="C443" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="D443" t="s">
         <v>14</v>
       </c>
       <c r="E443" s="21" t="s">
-        <v>1312</v>
+        <v>1310</v>
+      </c>
+      <c r="F443" s="6" t="s">
+        <v>1669</v>
       </c>
       <c r="H443" t="s">
         <v>119</v>
@@ -18437,8 +18858,8 @@
       <c r="I443">
         <v>14162661000</v>
       </c>
-      <c r="J443" t="s">
-        <v>48</v>
+      <c r="J443" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="444" spans="1:10" ht="14.4" customHeight="1">
@@ -18449,19 +18870,25 @@
         <v>172</v>
       </c>
       <c r="C444" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="D444" t="s">
         <v>14</v>
       </c>
       <c r="E444" s="21" t="s">
-        <v>1312</v>
+        <v>1310</v>
+      </c>
+      <c r="F444" s="6" t="s">
+        <v>1669</v>
       </c>
       <c r="H444" t="s">
         <v>36</v>
       </c>
       <c r="I444">
         <v>18076989753</v>
+      </c>
+      <c r="J444" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="445" spans="1:10" ht="14.4" customHeight="1">
@@ -18469,22 +18896,31 @@
         <v>70</v>
       </c>
       <c r="B445" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="C445" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="D445" t="s">
         <v>14</v>
       </c>
       <c r="E445" s="21" t="s">
-        <v>1312</v>
+        <v>1772</v>
+      </c>
+      <c r="F445" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G445" s="15" t="s">
+        <v>1773</v>
       </c>
       <c r="H445" t="s">
         <v>36</v>
       </c>
       <c r="I445">
         <v>18076989753</v>
+      </c>
+      <c r="J445" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="446" spans="1:10" ht="14.4" customHeight="1">
@@ -18495,16 +18931,25 @@
         <v>172</v>
       </c>
       <c r="C446" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="D446" t="s">
         <v>14</v>
       </c>
       <c r="E446" s="21" t="s">
-        <v>1312</v>
+        <v>1310</v>
+      </c>
+      <c r="F446" s="6" t="s">
+        <v>1653</v>
+      </c>
+      <c r="H446" t="s">
+        <v>148</v>
       </c>
       <c r="I446">
         <v>16473669030</v>
+      </c>
+      <c r="J446" s="14" t="s">
+        <v>1695</v>
       </c>
     </row>
     <row r="447" spans="1:10" ht="14.4" customHeight="1">
@@ -18515,19 +18960,25 @@
         <v>172</v>
       </c>
       <c r="C447" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="D447" t="s">
         <v>14</v>
       </c>
       <c r="E447" s="21" t="s">
-        <v>1323</v>
+        <v>1321</v>
+      </c>
+      <c r="F447" s="6" t="s">
+        <v>1669</v>
       </c>
       <c r="H447" t="s">
         <v>148</v>
       </c>
       <c r="I447">
         <v>12899329413</v>
+      </c>
+      <c r="J447" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="448" spans="1:10" ht="14.4" customHeight="1">
@@ -18538,16 +18989,28 @@
         <v>601</v>
       </c>
       <c r="C448" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="D448" t="s">
         <v>14</v>
       </c>
       <c r="E448" s="21" t="s">
-        <v>1325</v>
+        <v>1323</v>
+      </c>
+      <c r="F448" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G448" s="15" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H448" t="s">
+        <v>33</v>
       </c>
       <c r="I448">
         <v>17164658787</v>
+      </c>
+      <c r="J448" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="449" spans="1:10" ht="14.4" customHeight="1">
@@ -18555,22 +19018,31 @@
         <v>72</v>
       </c>
       <c r="B449" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C449" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D449" t="s">
+        <v>14</v>
+      </c>
+      <c r="E449" s="21" t="s">
         <v>1326</v>
       </c>
-      <c r="C449" t="s">
-        <v>1327</v>
-      </c>
-      <c r="D449" t="s">
-        <v>14</v>
-      </c>
-      <c r="E449" s="21" t="s">
-        <v>1328</v>
+      <c r="F449" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G449" s="15" t="s">
+        <v>1770</v>
       </c>
       <c r="H449" t="s">
         <v>33</v>
       </c>
       <c r="I449">
         <v>19052409378</v>
+      </c>
+      <c r="J449" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="450" spans="1:10" ht="14.4" customHeight="1">
@@ -18578,16 +19050,22 @@
         <v>600</v>
       </c>
       <c r="B450" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C450" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D450" t="s">
+        <v>14</v>
+      </c>
+      <c r="E450" s="21" t="s">
         <v>1329</v>
       </c>
-      <c r="C450" t="s">
-        <v>1330</v>
-      </c>
-      <c r="D450" t="s">
-        <v>14</v>
-      </c>
-      <c r="E450" s="21" t="s">
-        <v>1331</v>
+      <c r="F450" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G450" s="15" t="s">
+        <v>1769</v>
       </c>
       <c r="H450" t="s">
         <v>16</v>
@@ -18595,11 +19073,11 @@
       <c r="I450">
         <v>16132574848</v>
       </c>
-      <c r="J450" t="s">
+      <c r="J450" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="451" spans="1:10" ht="14.4" customHeight="1">
+    <row r="451" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A451" t="s">
         <v>25</v>
       </c>
@@ -18613,10 +19091,10 @@
         <v>160</v>
       </c>
       <c r="E451" s="21" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="F451" s="6" t="s">
-        <v>1622</v>
+        <v>1752</v>
       </c>
       <c r="H451" t="s">
         <v>24</v>
@@ -18636,16 +19114,16 @@
         <v>179</v>
       </c>
       <c r="C452" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="D452" t="s">
         <v>14</v>
       </c>
       <c r="E452" s="21" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="F452" s="6" t="s">
-        <v>1622</v>
+        <v>1752</v>
       </c>
       <c r="H452" t="s">
         <v>24</v>
@@ -18662,19 +19140,19 @@
         <v>207</v>
       </c>
       <c r="B453" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C453" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D453" t="s">
+        <v>14</v>
+      </c>
+      <c r="E453" s="21" t="s">
         <v>1334</v>
       </c>
-      <c r="C453" t="s">
-        <v>1335</v>
-      </c>
-      <c r="D453" t="s">
-        <v>14</v>
-      </c>
-      <c r="E453" s="21" t="s">
-        <v>1336</v>
-      </c>
       <c r="F453" s="6" t="s">
-        <v>1622</v>
+        <v>1752</v>
       </c>
       <c r="H453" t="s">
         <v>33</v>
@@ -18691,19 +19169,19 @@
         <v>439</v>
       </c>
       <c r="B454" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C454" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D454" t="s">
+        <v>14</v>
+      </c>
+      <c r="E454" s="21" t="s">
         <v>1337</v>
       </c>
-      <c r="C454" t="s">
-        <v>1338</v>
-      </c>
-      <c r="D454" t="s">
-        <v>14</v>
-      </c>
-      <c r="E454" s="21" t="s">
-        <v>1339</v>
-      </c>
       <c r="F454" s="6" t="s">
-        <v>1622</v>
+        <v>1752</v>
       </c>
       <c r="H454" t="s">
         <v>18</v>
@@ -18720,19 +19198,19 @@
         <v>13</v>
       </c>
       <c r="B455" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C455" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D455" t="s">
+        <v>14</v>
+      </c>
+      <c r="E455" s="21" t="s">
         <v>1340</v>
       </c>
-      <c r="C455" t="s">
-        <v>1341</v>
-      </c>
-      <c r="D455" t="s">
-        <v>14</v>
-      </c>
-      <c r="E455" s="21" t="s">
-        <v>1342</v>
-      </c>
       <c r="F455" s="6" t="s">
-        <v>1622</v>
+        <v>1752</v>
       </c>
       <c r="H455" t="s">
         <v>36</v>
@@ -18752,16 +19230,16 @@
         <v>179</v>
       </c>
       <c r="C456" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="D456" t="s">
         <v>14</v>
       </c>
       <c r="E456" s="21" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="F456" s="6" t="s">
-        <v>1622</v>
+        <v>1752</v>
       </c>
       <c r="H456" t="s">
         <v>36</v>
@@ -18778,19 +19256,19 @@
         <v>75</v>
       </c>
       <c r="B457" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C457" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D457" t="s">
+        <v>14</v>
+      </c>
+      <c r="E457" s="21" t="s">
         <v>1345</v>
       </c>
-      <c r="C457" t="s">
-        <v>1346</v>
-      </c>
-      <c r="D457" t="s">
-        <v>14</v>
-      </c>
-      <c r="E457" s="21" t="s">
-        <v>1347</v>
-      </c>
       <c r="F457" s="6" t="s">
-        <v>1622</v>
+        <v>1752</v>
       </c>
       <c r="H457" t="s">
         <v>38</v>
@@ -18804,22 +19282,22 @@
     </row>
     <row r="458" spans="1:10" ht="14.4" customHeight="1">
       <c r="A458" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="B458" t="s">
         <v>179</v>
       </c>
       <c r="C458" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="D458" t="s">
         <v>14</v>
       </c>
       <c r="E458" s="21" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="F458" s="6" t="s">
-        <v>1622</v>
+        <v>1752</v>
       </c>
       <c r="H458" t="s">
         <v>18</v>
@@ -18845,10 +19323,10 @@
         <v>160</v>
       </c>
       <c r="E459" s="21" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
       <c r="F459" s="6" t="s">
-        <v>1622</v>
+        <v>1752</v>
       </c>
       <c r="H459" t="s">
         <v>33</v>
@@ -18865,19 +19343,19 @@
         <v>27</v>
       </c>
       <c r="B460" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="C460" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="D460" t="s">
         <v>14</v>
       </c>
       <c r="E460" s="21" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="F460" s="6" t="s">
-        <v>1622</v>
+        <v>1752</v>
       </c>
       <c r="H460" t="s">
         <v>33</v>
@@ -18894,19 +19372,19 @@
         <v>233</v>
       </c>
       <c r="B461" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C461" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D461" t="s">
+        <v>14</v>
+      </c>
+      <c r="E461" s="21" t="s">
         <v>1354</v>
       </c>
-      <c r="C461" t="s">
-        <v>1355</v>
-      </c>
-      <c r="D461" t="s">
-        <v>14</v>
-      </c>
-      <c r="E461" s="21" t="s">
-        <v>1356</v>
-      </c>
       <c r="F461" s="6" t="s">
-        <v>1622</v>
+        <v>1752</v>
       </c>
       <c r="H461" t="s">
         <v>33</v>
@@ -18923,16 +19401,19 @@
         <v>63</v>
       </c>
       <c r="B462" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C462" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D462" t="s">
+        <v>14</v>
+      </c>
+      <c r="E462" s="21" t="s">
         <v>1357</v>
       </c>
-      <c r="C462" t="s">
-        <v>1358</v>
-      </c>
-      <c r="D462" t="s">
-        <v>14</v>
-      </c>
-      <c r="E462" s="21" t="s">
-        <v>1359</v>
+      <c r="F462" s="6" t="s">
+        <v>1752</v>
       </c>
       <c r="H462" t="s">
         <v>18</v>
@@ -18952,13 +19433,16 @@
         <v>179</v>
       </c>
       <c r="C463" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="D463" t="s">
         <v>14</v>
       </c>
       <c r="E463" s="21" t="s">
-        <v>1361</v>
+        <v>1359</v>
+      </c>
+      <c r="F463" s="6" t="s">
+        <v>1752</v>
       </c>
       <c r="H463" t="s">
         <v>47</v>
@@ -18978,13 +19462,16 @@
         <v>179</v>
       </c>
       <c r="C464" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="D464" t="s">
         <v>14</v>
       </c>
       <c r="E464" s="21" t="s">
-        <v>1363</v>
+        <v>1361</v>
+      </c>
+      <c r="F464" s="6" t="s">
+        <v>1752</v>
       </c>
       <c r="H464" t="s">
         <v>18</v>
@@ -19001,16 +19488,19 @@
         <v>62</v>
       </c>
       <c r="B465" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C465" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D465" t="s">
+        <v>14</v>
+      </c>
+      <c r="E465" s="21" t="s">
         <v>1364</v>
       </c>
-      <c r="C465" t="s">
-        <v>1365</v>
-      </c>
-      <c r="D465" t="s">
-        <v>14</v>
-      </c>
-      <c r="E465" s="21" t="s">
-        <v>1366</v>
+      <c r="F465" s="6" t="s">
+        <v>1752</v>
       </c>
       <c r="H465" t="s">
         <v>18</v>
@@ -19024,19 +19514,22 @@
     </row>
     <row r="466" spans="1:10" ht="14.4" customHeight="1">
       <c r="A466" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B466" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C466" t="s">
         <v>1367</v>
       </c>
-      <c r="B466" t="s">
+      <c r="D466" t="s">
+        <v>14</v>
+      </c>
+      <c r="E466" s="21" t="s">
         <v>1368</v>
       </c>
-      <c r="C466" t="s">
-        <v>1369</v>
-      </c>
-      <c r="D466" t="s">
-        <v>14</v>
-      </c>
-      <c r="E466" s="21" t="s">
-        <v>1370</v>
+      <c r="F466" s="6" t="s">
+        <v>1752</v>
       </c>
       <c r="H466" t="s">
         <v>33</v>
@@ -19053,16 +19546,19 @@
         <v>49</v>
       </c>
       <c r="B467" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C467" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D467" t="s">
+        <v>14</v>
+      </c>
+      <c r="E467" s="21" t="s">
         <v>1371</v>
       </c>
-      <c r="C467" t="s">
-        <v>1372</v>
-      </c>
-      <c r="D467" t="s">
-        <v>14</v>
-      </c>
-      <c r="E467" s="21" t="s">
-        <v>1373</v>
+      <c r="F467" s="6" t="s">
+        <v>1752</v>
       </c>
       <c r="H467" t="s">
         <v>33</v>
@@ -19079,16 +19575,19 @@
         <v>50</v>
       </c>
       <c r="B468" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C468" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D468" t="s">
+        <v>14</v>
+      </c>
+      <c r="E468" s="21" t="s">
         <v>1374</v>
       </c>
-      <c r="C468" t="s">
-        <v>1375</v>
-      </c>
-      <c r="D468" t="s">
-        <v>14</v>
-      </c>
-      <c r="E468" s="21" t="s">
-        <v>1376</v>
+      <c r="F468" s="6" t="s">
+        <v>1752</v>
       </c>
       <c r="H468" t="s">
         <v>18</v>
@@ -19105,16 +19604,19 @@
         <v>85</v>
       </c>
       <c r="B469" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C469" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D469" t="s">
+        <v>14</v>
+      </c>
+      <c r="E469" s="21" t="s">
         <v>1377</v>
       </c>
-      <c r="C469" t="s">
-        <v>1378</v>
-      </c>
-      <c r="D469" t="s">
-        <v>14</v>
-      </c>
-      <c r="E469" s="21" t="s">
-        <v>1379</v>
+      <c r="F469" s="6" t="s">
+        <v>1752</v>
       </c>
       <c r="H469" t="s">
         <v>18</v>
@@ -19131,16 +19633,19 @@
         <v>84</v>
       </c>
       <c r="B470" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C470" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D470" t="s">
+        <v>14</v>
+      </c>
+      <c r="E470" s="21" t="s">
         <v>1380</v>
       </c>
-      <c r="C470" t="s">
-        <v>1381</v>
-      </c>
-      <c r="D470" t="s">
-        <v>14</v>
-      </c>
-      <c r="E470" s="21" t="s">
-        <v>1382</v>
+      <c r="F470" s="6" t="s">
+        <v>1752</v>
       </c>
       <c r="H470" t="s">
         <v>18</v>
@@ -19157,16 +19662,19 @@
         <v>423</v>
       </c>
       <c r="B471" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C471" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D471" t="s">
+        <v>14</v>
+      </c>
+      <c r="E471" s="21" t="s">
         <v>1383</v>
       </c>
-      <c r="C471" t="s">
-        <v>1384</v>
-      </c>
-      <c r="D471" t="s">
-        <v>14</v>
-      </c>
-      <c r="E471" s="21" t="s">
-        <v>1385</v>
+      <c r="F471" s="6" t="s">
+        <v>1752</v>
       </c>
       <c r="H471" t="s">
         <v>16</v>
@@ -19186,13 +19694,16 @@
         <v>179</v>
       </c>
       <c r="C472" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="D472" t="s">
         <v>14</v>
       </c>
       <c r="E472" s="21" t="s">
-        <v>1387</v>
+        <v>1385</v>
+      </c>
+      <c r="F472" s="6" t="s">
+        <v>1752</v>
       </c>
       <c r="H472" t="s">
         <v>18</v>
@@ -19209,16 +19720,19 @@
         <v>362</v>
       </c>
       <c r="B473" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C473" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D473" t="s">
+        <v>14</v>
+      </c>
+      <c r="E473" s="21" t="s">
         <v>1388</v>
       </c>
-      <c r="C473" t="s">
-        <v>1389</v>
-      </c>
-      <c r="D473" t="s">
-        <v>14</v>
-      </c>
-      <c r="E473" s="21" t="s">
-        <v>1390</v>
+      <c r="F473" s="6" t="s">
+        <v>1752</v>
       </c>
       <c r="H473" t="s">
         <v>33</v>
@@ -19232,19 +19746,22 @@
     </row>
     <row r="474" spans="1:10" ht="14.4" customHeight="1">
       <c r="A474" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B474" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C474" t="s">
         <v>1391</v>
       </c>
-      <c r="B474" t="s">
+      <c r="D474" t="s">
+        <v>14</v>
+      </c>
+      <c r="E474" s="21" t="s">
         <v>1392</v>
       </c>
-      <c r="C474" t="s">
-        <v>1393</v>
-      </c>
-      <c r="D474" t="s">
-        <v>14</v>
-      </c>
-      <c r="E474" s="21" t="s">
-        <v>1394</v>
+      <c r="F474" s="6" t="s">
+        <v>1752</v>
       </c>
       <c r="H474" t="s">
         <v>38</v>
@@ -19264,13 +19781,16 @@
         <v>179</v>
       </c>
       <c r="C475" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="D475" t="s">
         <v>14</v>
       </c>
       <c r="E475" s="21" t="s">
-        <v>1396</v>
+        <v>1394</v>
+      </c>
+      <c r="F475" s="6" t="s">
+        <v>1752</v>
       </c>
       <c r="H475" t="s">
         <v>18</v>
@@ -19287,16 +19807,19 @@
         <v>70</v>
       </c>
       <c r="B476" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C476" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D476" t="s">
+        <v>14</v>
+      </c>
+      <c r="E476" s="21" t="s">
         <v>1397</v>
       </c>
-      <c r="C476" t="s">
-        <v>1398</v>
-      </c>
-      <c r="D476" t="s">
-        <v>14</v>
-      </c>
-      <c r="E476" s="21" t="s">
-        <v>1399</v>
+      <c r="F476" s="6" t="s">
+        <v>1752</v>
       </c>
       <c r="H476" t="s">
         <v>16</v>
@@ -19316,13 +19839,16 @@
         <v>179</v>
       </c>
       <c r="C477" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="D477" t="s">
         <v>14</v>
       </c>
       <c r="E477" s="21" t="s">
-        <v>1401</v>
+        <v>1399</v>
+      </c>
+      <c r="F477" s="6" t="s">
+        <v>1752</v>
       </c>
       <c r="H477" t="s">
         <v>18</v>
@@ -19342,13 +19868,16 @@
         <v>179</v>
       </c>
       <c r="C478" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="D478" t="s">
         <v>14</v>
       </c>
       <c r="E478" s="21" t="s">
-        <v>1403</v>
+        <v>1401</v>
+      </c>
+      <c r="F478" s="6" t="s">
+        <v>1752</v>
       </c>
       <c r="H478" t="s">
         <v>33</v>
@@ -19365,16 +19894,19 @@
         <v>52</v>
       </c>
       <c r="B479" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C479" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D479" t="s">
+        <v>14</v>
+      </c>
+      <c r="E479" s="21" t="s">
         <v>1404</v>
       </c>
-      <c r="C479" t="s">
-        <v>1405</v>
-      </c>
-      <c r="D479" t="s">
-        <v>14</v>
-      </c>
-      <c r="E479" s="21" t="s">
-        <v>1406</v>
+      <c r="F479" s="6" t="s">
+        <v>1752</v>
       </c>
       <c r="H479" t="s">
         <v>18</v>
@@ -19391,16 +19923,16 @@
         <v>128</v>
       </c>
       <c r="B480" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C480" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D480" t="s">
+        <v>14</v>
+      </c>
+      <c r="E480" t="s">
         <v>1412</v>
-      </c>
-      <c r="C480" t="s">
-        <v>1413</v>
-      </c>
-      <c r="D480" t="s">
-        <v>14</v>
-      </c>
-      <c r="E480" t="s">
-        <v>1414</v>
       </c>
       <c r="F480" s="6" t="s">
         <v>23</v>
@@ -19420,16 +19952,16 @@
         <v>177</v>
       </c>
       <c r="B481" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C481" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D481" t="s">
+        <v>14</v>
+      </c>
+      <c r="E481" t="s">
         <v>1415</v>
-      </c>
-      <c r="C481" t="s">
-        <v>1416</v>
-      </c>
-      <c r="D481" t="s">
-        <v>14</v>
-      </c>
-      <c r="E481" t="s">
-        <v>1417</v>
       </c>
       <c r="F481" s="6" t="s">
         <v>23</v>
@@ -19446,16 +19978,16 @@
         <v>1133</v>
       </c>
       <c r="B482" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C482" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D482" t="s">
+        <v>14</v>
+      </c>
+      <c r="E482" t="s">
         <v>1418</v>
-      </c>
-      <c r="C482" t="s">
-        <v>1419</v>
-      </c>
-      <c r="D482" t="s">
-        <v>14</v>
-      </c>
-      <c r="E482" t="s">
-        <v>1420</v>
       </c>
       <c r="F482" s="6" t="s">
         <v>23</v>
@@ -19471,23 +20003,29 @@
       <c r="A483" t="s">
         <v>129</v>
       </c>
-      <c r="B483" s="31" t="s">
+      <c r="B483" s="3" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C483" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D483" t="s">
+        <v>14</v>
+      </c>
+      <c r="E483" s="21" t="s">
         <v>1407</v>
       </c>
-      <c r="C483" t="s">
-        <v>1408</v>
-      </c>
-      <c r="D483" t="s">
-        <v>14</v>
-      </c>
-      <c r="E483" s="21" t="s">
-        <v>1409</v>
+      <c r="F483" s="6" t="s">
+        <v>1669</v>
       </c>
       <c r="H483" t="s">
         <v>36</v>
       </c>
       <c r="I483">
         <v>12892960915</v>
+      </c>
+      <c r="J483" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="484" spans="1:10" ht="14.4" customHeight="1">
@@ -19498,13 +20036,16 @@
         <v>987</v>
       </c>
       <c r="C484" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="D484" t="s">
         <v>14</v>
       </c>
       <c r="E484" s="21" t="s">
-        <v>1411</v>
+        <v>1409</v>
+      </c>
+      <c r="F484" s="6" t="s">
+        <v>1669</v>
       </c>
       <c r="H484" t="s">
         <v>36</v>
@@ -19520,17 +20061,23 @@
       <c r="A485" t="s">
         <v>73</v>
       </c>
-      <c r="B485" s="31" t="s">
+      <c r="B485" s="3" t="s">
         <v>409</v>
       </c>
       <c r="C485" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="D485" t="s">
         <v>14</v>
       </c>
       <c r="E485" s="21" t="s">
-        <v>1422</v>
+        <v>1420</v>
+      </c>
+      <c r="F485" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G485" s="15" t="s">
+        <v>1768</v>
       </c>
       <c r="H485" t="s">
         <v>24</v>
@@ -19538,7 +20085,7 @@
       <c r="I485">
         <v>12266470116</v>
       </c>
-      <c r="J485" t="s">
+      <c r="J485" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -19547,16 +20094,16 @@
         <v>61</v>
       </c>
       <c r="B486" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C486" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D486" t="s">
+        <v>14</v>
+      </c>
+      <c r="E486" s="21" t="s">
         <v>1423</v>
-      </c>
-      <c r="C486" t="s">
-        <v>1424</v>
-      </c>
-      <c r="D486" t="s">
-        <v>14</v>
-      </c>
-      <c r="E486" s="21" t="s">
-        <v>1425</v>
       </c>
       <c r="F486" s="6" t="s">
         <v>23</v>
@@ -19576,16 +20123,22 @@
         <v>50</v>
       </c>
       <c r="B487" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C487" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D487" t="s">
+        <v>14</v>
+      </c>
+      <c r="E487" s="21" t="s">
         <v>1426</v>
       </c>
-      <c r="C487" t="s">
-        <v>1427</v>
-      </c>
-      <c r="D487" t="s">
-        <v>14</v>
-      </c>
-      <c r="E487" s="21" t="s">
-        <v>1428</v>
+      <c r="F487" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G487" s="15" t="s">
+        <v>1767</v>
       </c>
       <c r="H487" t="s">
         <v>82</v>
@@ -19602,16 +20155,16 @@
         <v>34</v>
       </c>
       <c r="B488" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="C488" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="D488" t="s">
         <v>14</v>
       </c>
       <c r="E488" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="F488" s="6" t="s">
         <v>23</v>
@@ -19628,16 +20181,16 @@
         <v>34</v>
       </c>
       <c r="B489" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="C489" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="D489" t="s">
         <v>14</v>
       </c>
       <c r="E489" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="F489" s="6" t="s">
         <v>23</v>
@@ -19654,16 +20207,16 @@
         <v>27</v>
       </c>
       <c r="B490" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C490" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D490" t="s">
+        <v>14</v>
+      </c>
+      <c r="E490" s="21" t="s">
         <v>1429</v>
-      </c>
-      <c r="C490" t="s">
-        <v>1430</v>
-      </c>
-      <c r="D490" t="s">
-        <v>14</v>
-      </c>
-      <c r="E490" s="21" t="s">
-        <v>1431</v>
       </c>
       <c r="F490" s="6" t="s">
         <v>23</v>
@@ -19686,16 +20239,22 @@
         <v>422</v>
       </c>
       <c r="C491" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D491" t="s">
+        <v>14</v>
+      </c>
+      <c r="E491" s="21" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F491" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G491" s="15" t="s">
+        <v>1766</v>
+      </c>
+      <c r="H491" t="s">
         <v>1432</v>
-      </c>
-      <c r="D491" t="s">
-        <v>14</v>
-      </c>
-      <c r="E491" s="21" t="s">
-        <v>1433</v>
-      </c>
-      <c r="H491" t="s">
-        <v>1434</v>
       </c>
       <c r="I491">
         <v>16138439191</v>
@@ -19712,13 +20271,19 @@
         <v>424</v>
       </c>
       <c r="C492" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="D492" t="s">
         <v>14</v>
       </c>
       <c r="E492" s="21" t="s">
-        <v>1441</v>
+        <v>1439</v>
+      </c>
+      <c r="F492" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G492" s="15" t="s">
+        <v>1765</v>
       </c>
       <c r="H492" t="s">
         <v>33</v>
@@ -19735,16 +20300,16 @@
         <v>37</v>
       </c>
       <c r="B493" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C493" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D493" t="s">
+        <v>14</v>
+      </c>
+      <c r="E493" t="s">
         <v>1448</v>
-      </c>
-      <c r="C493" t="s">
-        <v>1449</v>
-      </c>
-      <c r="D493" t="s">
-        <v>14</v>
-      </c>
-      <c r="E493" t="s">
-        <v>1450</v>
       </c>
       <c r="F493" s="6" t="s">
         <v>23</v>
@@ -19761,16 +20326,19 @@
         <v>70</v>
       </c>
       <c r="B494" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C494" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D494" t="s">
+        <v>14</v>
+      </c>
+      <c r="E494" s="21" t="s">
         <v>1442</v>
       </c>
-      <c r="C494" t="s">
-        <v>1443</v>
-      </c>
-      <c r="D494" t="s">
-        <v>14</v>
-      </c>
-      <c r="E494" s="21" t="s">
-        <v>1444</v>
+      <c r="F494" s="6" t="s">
+        <v>1619</v>
       </c>
       <c r="H494" t="s">
         <v>24</v>
@@ -19779,24 +20347,24 @@
         <v>18073456272</v>
       </c>
       <c r="J494" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="495" spans="1:10" ht="14.4" customHeight="1">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="495" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A495" t="s">
         <v>79</v>
       </c>
       <c r="B495" s="32" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C495" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D495" t="s">
+        <v>14</v>
+      </c>
+      <c r="E495" s="21" t="s">
         <v>1445</v>
-      </c>
-      <c r="C495" t="s">
-        <v>1446</v>
-      </c>
-      <c r="D495" t="s">
-        <v>14</v>
-      </c>
-      <c r="E495" s="21" t="s">
-        <v>1447</v>
       </c>
       <c r="F495" s="6" t="s">
         <v>15</v>
@@ -19813,16 +20381,16 @@
         <v>120</v>
       </c>
       <c r="B496" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C496" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D496" t="s">
+        <v>14</v>
+      </c>
+      <c r="E496" t="s">
         <v>1458</v>
-      </c>
-      <c r="C496" t="s">
-        <v>1459</v>
-      </c>
-      <c r="D496" t="s">
-        <v>14</v>
-      </c>
-      <c r="E496" t="s">
-        <v>1460</v>
       </c>
       <c r="F496" s="6" t="s">
         <v>23</v>
@@ -19842,16 +20410,16 @@
         <v>120</v>
       </c>
       <c r="B497" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C497" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D497" t="s">
+        <v>14</v>
+      </c>
+      <c r="E497" t="s">
         <v>1461</v>
-      </c>
-      <c r="C497" t="s">
-        <v>1462</v>
-      </c>
-      <c r="D497" t="s">
-        <v>14</v>
-      </c>
-      <c r="E497" t="s">
-        <v>1463</v>
       </c>
       <c r="F497" s="6" t="s">
         <v>23</v>
@@ -19868,16 +20436,16 @@
         <v>718</v>
       </c>
       <c r="B498" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C498" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D498" t="s">
+        <v>14</v>
+      </c>
+      <c r="E498" s="21" t="s">
         <v>1451</v>
-      </c>
-      <c r="C498" t="s">
-        <v>1452</v>
-      </c>
-      <c r="D498" t="s">
-        <v>14</v>
-      </c>
-      <c r="E498" s="21" t="s">
-        <v>1453</v>
       </c>
       <c r="F498" s="6" t="s">
         <v>23</v>
@@ -19897,16 +20465,16 @@
         <v>540</v>
       </c>
       <c r="B499" s="31" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C499" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D499" t="s">
+        <v>14</v>
+      </c>
+      <c r="E499" s="21" t="s">
         <v>1454</v>
-      </c>
-      <c r="C499" t="s">
-        <v>1455</v>
-      </c>
-      <c r="D499" t="s">
-        <v>14</v>
-      </c>
-      <c r="E499" s="21" t="s">
-        <v>1456</v>
       </c>
       <c r="F499" s="6" t="s">
         <v>23</v>
@@ -19929,13 +20497,19 @@
         <v>442</v>
       </c>
       <c r="C500" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="D500" t="s">
         <v>14</v>
       </c>
       <c r="E500" s="21" t="s">
-        <v>1464</v>
+        <v>1462</v>
+      </c>
+      <c r="F500" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G500" s="15" t="s">
+        <v>1763</v>
       </c>
       <c r="H500" t="s">
         <v>38</v>
@@ -19952,16 +20526,22 @@
         <v>37</v>
       </c>
       <c r="B501" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C501" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D501" t="s">
+        <v>14</v>
+      </c>
+      <c r="E501" s="21" t="s">
         <v>1466</v>
       </c>
-      <c r="C501" t="s">
-        <v>1467</v>
-      </c>
-      <c r="D501" t="s">
-        <v>14</v>
-      </c>
-      <c r="E501" s="21" t="s">
-        <v>1468</v>
+      <c r="F501" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G501" s="15" t="s">
+        <v>1762</v>
       </c>
       <c r="H501" t="s">
         <v>24</v>
@@ -19977,17 +20557,20 @@
       <c r="A502" t="s">
         <v>40</v>
       </c>
-      <c r="B502" s="31" t="s">
-        <v>1469</v>
+      <c r="B502" s="3" t="s">
+        <v>1467</v>
       </c>
       <c r="C502" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="D502" t="s">
         <v>160</v>
       </c>
       <c r="E502" s="21" t="s">
-        <v>1471</v>
+        <v>1748</v>
+      </c>
+      <c r="F502" s="6" t="s">
+        <v>1653</v>
       </c>
       <c r="H502" t="s">
         <v>36</v>
@@ -19995,8 +20578,11 @@
       <c r="I502">
         <v>19058859172</v>
       </c>
-    </row>
-    <row r="503" spans="1:10" ht="14.4" customHeight="1">
+      <c r="J502" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="503" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A503" t="s">
         <v>112</v>
       </c>
@@ -20004,13 +20590,13 @@
         <v>464</v>
       </c>
       <c r="C503" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="D503" t="s">
         <v>14</v>
       </c>
       <c r="E503" s="21" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="F503" s="6" t="s">
         <v>23</v>
@@ -20033,13 +20619,13 @@
         <v>464</v>
       </c>
       <c r="C504" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="D504" t="s">
         <v>14</v>
       </c>
       <c r="E504" s="21" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="F504" s="6" t="s">
         <v>23</v>
@@ -20059,16 +20645,16 @@
         <v>128</v>
       </c>
       <c r="B505" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="C505" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="D505" t="s">
         <v>14</v>
       </c>
       <c r="E505" s="21" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="F505" s="6" t="s">
         <v>23</v>
@@ -20091,13 +20677,13 @@
         <v>464</v>
       </c>
       <c r="C506" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="D506" t="s">
         <v>14</v>
       </c>
       <c r="E506" s="21" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="F506" s="6" t="s">
         <v>23</v>
@@ -20117,16 +20703,16 @@
         <v>52</v>
       </c>
       <c r="B507" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="C507" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="D507" t="s">
         <v>14</v>
       </c>
       <c r="E507" s="21" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="F507" s="6" t="s">
         <v>23</v>
@@ -20146,16 +20732,16 @@
         <v>13</v>
       </c>
       <c r="B508" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="C508" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="D508" t="s">
         <v>14</v>
       </c>
       <c r="E508" s="21" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="F508" s="6" t="s">
         <v>23</v>
@@ -20174,46 +20760,58 @@
       <c r="A509" t="s">
         <v>348</v>
       </c>
-      <c r="B509" s="31" t="s">
-        <v>1483</v>
+      <c r="B509" s="3" t="s">
+        <v>1480</v>
       </c>
       <c r="C509" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="D509" t="s">
         <v>14</v>
       </c>
       <c r="E509" s="21" t="s">
-        <v>1485</v>
+        <v>1482</v>
+      </c>
+      <c r="F509" s="6" t="s">
+        <v>1653</v>
       </c>
       <c r="H509" t="s">
         <v>18</v>
       </c>
       <c r="I509">
         <v>15198047733</v>
+      </c>
+      <c r="J509" s="14" t="s">
+        <v>1761</v>
       </c>
     </row>
     <row r="510" spans="1:10" ht="14.4" customHeight="1">
       <c r="A510" t="s">
         <v>254</v>
       </c>
-      <c r="B510" s="31" t="s">
+      <c r="B510" s="3" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C510" t="s">
         <v>1483</v>
       </c>
-      <c r="C510" t="s">
-        <v>1486</v>
-      </c>
       <c r="D510" t="s">
         <v>14</v>
       </c>
       <c r="E510" s="21" t="s">
-        <v>1485</v>
+        <v>1482</v>
+      </c>
+      <c r="F510" s="6" t="s">
+        <v>1653</v>
       </c>
       <c r="H510" t="s">
         <v>18</v>
       </c>
       <c r="I510">
         <v>17058065720</v>
+      </c>
+      <c r="J510" s="14" t="s">
+        <v>1761</v>
       </c>
     </row>
     <row r="511" spans="1:10" ht="14.4" hidden="1" customHeight="1">
@@ -20224,13 +20822,13 @@
         <v>472</v>
       </c>
       <c r="C511" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
       <c r="D511" t="s">
         <v>14</v>
       </c>
       <c r="E511" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="F511" s="6" t="s">
         <v>23</v>
@@ -20249,8 +20847,8 @@
       <c r="A512" t="s">
         <v>73</v>
       </c>
-      <c r="B512" s="31" t="s">
-        <v>1483</v>
+      <c r="B512" s="3" t="s">
+        <v>1480</v>
       </c>
       <c r="C512" t="s">
         <v>1136</v>
@@ -20259,30 +20857,42 @@
         <v>14</v>
       </c>
       <c r="E512" s="21" t="s">
-        <v>1485</v>
+        <v>1482</v>
+      </c>
+      <c r="F512" s="6" t="s">
+        <v>1653</v>
       </c>
       <c r="H512" t="s">
         <v>18</v>
       </c>
       <c r="I512">
         <v>15198047733</v>
+      </c>
+      <c r="J512" s="14" t="s">
+        <v>1761</v>
       </c>
     </row>
     <row r="513" spans="1:10" ht="14.4" customHeight="1">
       <c r="A513" t="s">
         <v>25</v>
       </c>
-      <c r="B513" s="31" t="s">
-        <v>1489</v>
+      <c r="B513" s="3" t="s">
+        <v>1486</v>
       </c>
       <c r="C513" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
       <c r="D513" t="s">
         <v>14</v>
       </c>
       <c r="E513" s="21" t="s">
-        <v>1491</v>
+        <v>1488</v>
+      </c>
+      <c r="F513" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G513" s="15" t="s">
+        <v>1760</v>
       </c>
       <c r="H513" t="s">
         <v>16</v>
@@ -20290,7 +20900,7 @@
       <c r="I513">
         <v>12894821300</v>
       </c>
-      <c r="J513" t="s">
+      <c r="J513" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -20299,16 +20909,16 @@
         <v>492</v>
       </c>
       <c r="B514" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="C514" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="D514" t="s">
         <v>14</v>
       </c>
       <c r="E514" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="F514" s="6" t="s">
         <v>23</v>
@@ -20325,19 +20935,19 @@
     </row>
     <row r="515" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A515" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B515" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C515" t="s">
+        <v>1496</v>
+      </c>
+      <c r="D515" t="s">
+        <v>14</v>
+      </c>
+      <c r="E515" t="s">
         <v>1497</v>
-      </c>
-      <c r="B515" t="s">
-        <v>1498</v>
-      </c>
-      <c r="C515" t="s">
-        <v>1499</v>
-      </c>
-      <c r="D515" t="s">
-        <v>14</v>
-      </c>
-      <c r="E515" t="s">
-        <v>1500</v>
       </c>
       <c r="F515" s="6" t="s">
         <v>23</v>
@@ -20356,17 +20966,20 @@
       <c r="A516" t="s">
         <v>416</v>
       </c>
-      <c r="B516" s="31" t="s">
-        <v>1492</v>
+      <c r="B516" s="3" t="s">
+        <v>1489</v>
       </c>
       <c r="C516" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="D516" t="s">
         <v>160</v>
       </c>
       <c r="E516" s="21" t="s">
-        <v>1491</v>
+        <v>1488</v>
+      </c>
+      <c r="F516" s="6" t="s">
+        <v>1653</v>
       </c>
       <c r="H516" t="s">
         <v>16</v>
@@ -20374,25 +20987,28 @@
       <c r="I516">
         <v>12894821300</v>
       </c>
-      <c r="J516" t="s">
-        <v>17</v>
+      <c r="J516" s="14" t="s">
+        <v>1761</v>
       </c>
     </row>
     <row r="517" spans="1:10" ht="14.4" customHeight="1">
       <c r="A517" t="s">
         <v>58</v>
       </c>
-      <c r="B517" s="31" t="s">
-        <v>1501</v>
+      <c r="B517" s="3" t="s">
+        <v>1498</v>
       </c>
       <c r="C517" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
       <c r="D517" t="s">
         <v>14</v>
       </c>
       <c r="E517" s="21" t="s">
-        <v>1503</v>
+        <v>1500</v>
+      </c>
+      <c r="F517" s="6" t="s">
+        <v>1669</v>
       </c>
       <c r="H517" t="s">
         <v>24</v>
@@ -20400,8 +21016,8 @@
       <c r="I517">
         <v>19052303673</v>
       </c>
-      <c r="J517" t="s">
-        <v>17</v>
+      <c r="J517" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="518" spans="1:10" ht="14.4" hidden="1" customHeight="1">
@@ -20409,16 +21025,16 @@
         <v>49</v>
       </c>
       <c r="B518" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
       <c r="C518" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="D518" t="s">
         <v>14</v>
       </c>
       <c r="E518" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="F518" s="6" t="s">
         <v>23</v>
@@ -20435,16 +21051,19 @@
         <v>177</v>
       </c>
       <c r="B519" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="C519" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
       <c r="D519" t="s">
         <v>14</v>
       </c>
       <c r="E519" s="21" t="s">
-        <v>1503</v>
+        <v>1500</v>
+      </c>
+      <c r="F519" s="6" t="s">
+        <v>1669</v>
       </c>
       <c r="H519" t="s">
         <v>26</v>
@@ -20458,19 +21077,22 @@
     </row>
     <row r="520" spans="1:10" ht="14.4" customHeight="1">
       <c r="A520" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B520" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C520" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D520" t="s">
+        <v>14</v>
+      </c>
+      <c r="E520" s="21" t="s">
         <v>1509</v>
       </c>
-      <c r="B520" t="s">
-        <v>1510</v>
-      </c>
-      <c r="C520" t="s">
-        <v>1511</v>
-      </c>
-      <c r="D520" t="s">
-        <v>14</v>
-      </c>
-      <c r="E520" s="21" t="s">
-        <v>1512</v>
+      <c r="F520" s="6" t="s">
+        <v>1694</v>
       </c>
       <c r="H520" t="s">
         <v>24</v>
@@ -20484,19 +21106,19 @@
     </row>
     <row r="521" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A521" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="B521" t="s">
         <v>35</v>
       </c>
       <c r="C521" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="D521" t="s">
         <v>14</v>
       </c>
       <c r="E521" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="F521" s="6" t="s">
         <v>23</v>
@@ -20516,16 +21138,16 @@
         <v>255</v>
       </c>
       <c r="B522" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="C522" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="D522" t="s">
         <v>14</v>
       </c>
       <c r="E522" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="F522" s="6" t="s">
         <v>23</v>
@@ -20542,16 +21164,16 @@
         <v>55</v>
       </c>
       <c r="B523" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="C523" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="D523" t="s">
         <v>14</v>
       </c>
       <c r="E523" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="F523" s="6" t="s">
         <v>23</v>
@@ -20571,16 +21193,16 @@
         <v>32</v>
       </c>
       <c r="B524" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="C524" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
       <c r="D524" t="s">
         <v>14</v>
       </c>
       <c r="E524" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="F524" s="6" t="s">
         <v>23</v>
@@ -20600,13 +21222,13 @@
         <v>35</v>
       </c>
       <c r="C525" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
       <c r="D525" t="s">
         <v>14</v>
       </c>
       <c r="E525" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="F525" s="6" t="s">
         <v>23</v>
@@ -20623,19 +21245,22 @@
     </row>
     <row r="526" spans="1:10" ht="14.4" customHeight="1">
       <c r="A526" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B526" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C526" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D526" t="s">
+        <v>14</v>
+      </c>
+      <c r="E526" s="21" t="s">
         <v>1509</v>
       </c>
-      <c r="B526" t="s">
-        <v>1510</v>
-      </c>
-      <c r="C526" t="s">
-        <v>1513</v>
-      </c>
-      <c r="D526" t="s">
-        <v>14</v>
-      </c>
-      <c r="E526" s="21" t="s">
-        <v>1512</v>
+      <c r="F526" s="6" t="s">
+        <v>1653</v>
       </c>
       <c r="H526" t="s">
         <v>60</v>
@@ -20655,13 +21280,19 @@
         <v>512</v>
       </c>
       <c r="C527" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
       <c r="D527" t="s">
         <v>14</v>
       </c>
       <c r="E527" s="21" t="s">
-        <v>1524</v>
+        <v>1521</v>
+      </c>
+      <c r="F527" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G527" s="15" t="s">
+        <v>1759</v>
       </c>
       <c r="H527" t="s">
         <v>24</v>
@@ -20678,16 +21309,19 @@
         <v>58</v>
       </c>
       <c r="B528" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
       <c r="C528" t="s">
-        <v>1526</v>
+        <v>1523</v>
       </c>
       <c r="D528" t="s">
         <v>14</v>
       </c>
       <c r="E528" s="21" t="s">
-        <v>1527</v>
+        <v>1524</v>
+      </c>
+      <c r="F528" s="6" t="s">
+        <v>1619</v>
       </c>
       <c r="H528" t="s">
         <v>24</v>
@@ -20704,16 +21338,16 @@
         <v>37</v>
       </c>
       <c r="B529" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="C529" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="D529" t="s">
         <v>14</v>
       </c>
       <c r="E529" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="F529" s="6" t="s">
         <v>23</v>
@@ -20730,16 +21364,16 @@
         <v>50</v>
       </c>
       <c r="B530" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
       <c r="C530" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="D530" t="s">
         <v>14</v>
       </c>
       <c r="E530" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="F530" s="6" t="s">
         <v>23</v>
@@ -20759,16 +21393,19 @@
         <v>89</v>
       </c>
       <c r="B531" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="C531" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="D531" t="s">
         <v>14</v>
       </c>
       <c r="E531" s="21" t="s">
-        <v>1530</v>
+        <v>1527</v>
+      </c>
+      <c r="F531" s="6" t="s">
+        <v>1619</v>
       </c>
       <c r="H531" t="s">
         <v>47</v>
@@ -20784,43 +21421,52 @@
       <c r="A532" t="s">
         <v>34</v>
       </c>
-      <c r="B532" s="31" t="s">
-        <v>1538</v>
+      <c r="B532" s="3" t="s">
+        <v>1535</v>
       </c>
       <c r="C532" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
       <c r="D532" t="s">
         <v>14</v>
       </c>
       <c r="E532" s="21" t="s">
-        <v>1540</v>
+        <v>1537</v>
+      </c>
+      <c r="F532" s="6" t="s">
+        <v>1653</v>
       </c>
       <c r="H532" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I532">
         <v>19052966800</v>
       </c>
-      <c r="J532" t="s">
-        <v>48</v>
+      <c r="J532" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="533" spans="1:10" ht="14.4" customHeight="1">
       <c r="A533" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B533" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C533" t="s">
+        <v>1540</v>
+      </c>
+      <c r="D533" t="s">
+        <v>14</v>
+      </c>
+      <c r="E533" s="21" t="s">
         <v>1541</v>
       </c>
-      <c r="B533" t="s">
-        <v>1542</v>
-      </c>
-      <c r="C533" t="s">
-        <v>1543</v>
-      </c>
-      <c r="D533" t="s">
-        <v>14</v>
-      </c>
-      <c r="E533" s="21" t="s">
-        <v>1544</v>
+      <c r="F533" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G533" s="15" t="s">
+        <v>1758</v>
       </c>
       <c r="H533" t="s">
         <v>38</v>
@@ -20837,16 +21483,22 @@
         <v>34</v>
       </c>
       <c r="B534" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C534" t="s">
         <v>1542</v>
       </c>
-      <c r="C534" t="s">
-        <v>1545</v>
-      </c>
       <c r="D534" t="s">
         <v>14</v>
       </c>
       <c r="E534" s="21" t="s">
-        <v>1546</v>
+        <v>1543</v>
+      </c>
+      <c r="F534" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G534" s="15" t="s">
+        <v>1757</v>
       </c>
       <c r="H534" t="s">
         <v>38</v>
@@ -20863,16 +21515,22 @@
         <v>499</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="C535" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="D535" t="s">
         <v>14</v>
       </c>
       <c r="E535" s="21" t="s">
-        <v>1548</v>
+        <v>1545</v>
+      </c>
+      <c r="F535" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G535" s="15" t="s">
+        <v>1756</v>
       </c>
       <c r="H535" t="s">
         <v>33</v>
@@ -20886,19 +21544,25 @@
     </row>
     <row r="536" spans="1:10" ht="14.4" customHeight="1">
       <c r="A536" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="B536" t="s">
         <v>526</v>
       </c>
       <c r="C536" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="D536" t="s">
         <v>14</v>
       </c>
       <c r="E536" s="21" t="s">
-        <v>1551</v>
+        <v>1548</v>
+      </c>
+      <c r="F536" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G536" s="15" t="s">
+        <v>1755</v>
       </c>
       <c r="H536" t="s">
         <v>45</v>
@@ -20915,16 +21579,16 @@
         <v>27</v>
       </c>
       <c r="B537" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="C537" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="D537" t="s">
         <v>14</v>
       </c>
       <c r="E537" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="F537" s="6" t="s">
         <v>23</v>
@@ -20941,25 +21605,31 @@
     </row>
     <row r="538" spans="1:10" ht="14.4" customHeight="1">
       <c r="A538" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B538" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C538" t="s">
+        <v>1551</v>
+      </c>
+      <c r="D538" t="s">
+        <v>14</v>
+      </c>
+      <c r="E538" s="21" t="s">
         <v>1552</v>
       </c>
-      <c r="B538" s="31" t="s">
-        <v>1553</v>
-      </c>
-      <c r="C538" t="s">
-        <v>1554</v>
-      </c>
-      <c r="D538" t="s">
-        <v>14</v>
-      </c>
-      <c r="E538" s="21" t="s">
-        <v>1555</v>
+      <c r="F538" s="6" t="s">
+        <v>1669</v>
       </c>
       <c r="H538" t="s">
         <v>18</v>
       </c>
       <c r="I538">
         <v>15192950105</v>
+      </c>
+      <c r="J538" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="539" spans="1:10" ht="14.4" customHeight="1">
@@ -20967,16 +21637,22 @@
         <v>183</v>
       </c>
       <c r="B539" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="C539" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
       <c r="D539" t="s">
         <v>14</v>
       </c>
       <c r="E539" s="8" t="s">
-        <v>1751</v>
+        <v>1747</v>
+      </c>
+      <c r="F539" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G539" s="15" t="s">
+        <v>1754</v>
       </c>
       <c r="H539" t="s">
         <v>24</v>
@@ -20993,22 +21669,28 @@
         <v>181</v>
       </c>
       <c r="B540" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="C540" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="D540" t="s">
         <v>14</v>
       </c>
       <c r="E540" s="21" t="s">
-        <v>1563</v>
+        <v>1560</v>
+      </c>
+      <c r="F540" s="6" t="s">
+        <v>1669</v>
+      </c>
+      <c r="H540" t="s">
+        <v>24</v>
       </c>
       <c r="I540">
         <v>16475535874</v>
       </c>
       <c r="J540" s="14" t="s">
-        <v>17</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="541" spans="1:10" ht="14.4" hidden="1" customHeight="1">
@@ -21016,16 +21698,16 @@
         <v>27</v>
       </c>
       <c r="B541" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="C541" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="D541" t="s">
         <v>14</v>
       </c>
       <c r="E541" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="F541" s="6" t="s">
         <v>23</v>
@@ -21045,16 +21727,16 @@
         <v>93</v>
       </c>
       <c r="B542" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="C542" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="D542" t="s">
         <v>14</v>
       </c>
       <c r="E542" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="F542" s="6" t="s">
         <v>23</v>
@@ -21071,16 +21753,16 @@
         <v>91</v>
       </c>
       <c r="B543" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="C543" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="D543" t="s">
         <v>14</v>
       </c>
       <c r="E543" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="F543" s="6" t="s">
         <v>23</v>
@@ -21100,13 +21782,13 @@
         <v>530</v>
       </c>
       <c r="C544" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="D544" t="s">
         <v>14</v>
       </c>
       <c r="E544" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="F544" s="6" t="s">
         <v>23</v>
@@ -21129,34 +21811,34 @@
         <v>305</v>
       </c>
       <c r="C545" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="D545" t="s">
         <v>14</v>
       </c>
       <c r="E545" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="F545" s="6" t="s">
         <v>23</v>
       </c>
       <c r="I545"/>
     </row>
-    <row r="546" spans="1:10" ht="14.4" customHeight="1">
+    <row r="546" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A546" t="s">
         <v>54</v>
       </c>
       <c r="B546" s="31" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="C546" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="D546" t="s">
         <v>14</v>
       </c>
       <c r="E546" s="21" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="F546" s="6" t="s">
         <v>15</v>
@@ -21179,9 +21861,17 @@
         <v>160</v>
       </c>
       <c r="E547" s="21" t="s">
-        <v>1578</v>
-      </c>
-      <c r="I547"/>
+        <v>1575</v>
+      </c>
+      <c r="F547" s="6" t="s">
+        <v>1752</v>
+      </c>
+      <c r="H547" t="s">
+        <v>1751</v>
+      </c>
+      <c r="I547">
+        <v>6136223039</v>
+      </c>
       <c r="J547" s="14" t="s">
         <v>39</v>
       </c>
@@ -21191,16 +21881,16 @@
         <v>306</v>
       </c>
       <c r="B548" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="C548" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="D548" t="s">
         <v>14</v>
       </c>
       <c r="E548" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="F548" s="6" t="s">
         <v>23</v>
@@ -21212,16 +21902,16 @@
         <v>416</v>
       </c>
       <c r="B549" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="C549" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="D549" t="s">
         <v>14</v>
       </c>
       <c r="E549" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="F549" s="6" t="s">
         <v>23</v>
@@ -21236,13 +21926,13 @@
         <v>6420</v>
       </c>
       <c r="C550" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="D550" t="s">
         <v>14</v>
       </c>
       <c r="E550" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="F550" s="6" t="s">
         <v>23</v>
@@ -21251,57 +21941,90 @@
     </row>
     <row r="551" spans="1:10" ht="14.4" customHeight="1">
       <c r="A551" t="s">
-        <v>1531</v>
-      </c>
-      <c r="B551" s="31" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B551" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C551" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="D551" t="s">
-        <v>160</v>
+        <v>1750</v>
       </c>
       <c r="E551" s="21" t="s">
         <v>689</v>
       </c>
-      <c r="I551"/>
+      <c r="F551" s="6" t="s">
+        <v>1653</v>
+      </c>
+      <c r="H551" t="s">
+        <v>1751</v>
+      </c>
+      <c r="I551" t="s">
+        <v>1696</v>
+      </c>
+      <c r="J551" s="14" t="s">
+        <v>1695</v>
+      </c>
     </row>
     <row r="552" spans="1:10" ht="14.4" customHeight="1">
       <c r="A552" t="s">
         <v>61</v>
       </c>
-      <c r="B552" s="31" t="s">
-        <v>1587</v>
+      <c r="B552" s="3" t="s">
+        <v>1584</v>
       </c>
       <c r="C552" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="D552" t="s">
         <v>14</v>
       </c>
       <c r="E552" s="21" t="s">
-        <v>1589</v>
-      </c>
-      <c r="I552"/>
+        <v>1586</v>
+      </c>
+      <c r="F552" s="6" t="s">
+        <v>1653</v>
+      </c>
+      <c r="H552" t="s">
+        <v>18</v>
+      </c>
+      <c r="I552" t="s">
+        <v>1696</v>
+      </c>
+      <c r="J552" s="14" t="s">
+        <v>1695</v>
+      </c>
     </row>
     <row r="553" spans="1:10" ht="14.4" customHeight="1">
       <c r="A553" t="s">
         <v>13</v>
       </c>
-      <c r="B553" s="31" t="s">
-        <v>1590</v>
+      <c r="B553" s="3" t="s">
+        <v>1587</v>
       </c>
       <c r="C553" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="D553" t="s">
         <v>14</v>
       </c>
       <c r="E553" s="21" t="s">
-        <v>1592</v>
-      </c>
-      <c r="I553"/>
+        <v>1589</v>
+      </c>
+      <c r="F553" s="6" t="s">
+        <v>1653</v>
+      </c>
+      <c r="H553" t="s">
+        <v>18</v>
+      </c>
+      <c r="I553">
+        <v>12893481577</v>
+      </c>
+      <c r="J553" s="14" t="s">
+        <v>1695</v>
+      </c>
     </row>
     <row r="554" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A554" t="s">
@@ -21311,13 +22034,13 @@
         <v>539</v>
       </c>
       <c r="C554" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="D554" t="s">
         <v>14</v>
       </c>
       <c r="E554" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
       <c r="F554" s="6" t="s">
         <v>23</v>
@@ -21326,64 +22049,87 @@
     </row>
     <row r="555" spans="1:10" ht="14.4" customHeight="1">
       <c r="A555" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B555" s="3" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C555" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D555" t="s">
+        <v>14</v>
+      </c>
+      <c r="E555" s="21" t="s">
         <v>1593</v>
       </c>
-      <c r="B555" s="31" t="s">
-        <v>1594</v>
-      </c>
-      <c r="C555" t="s">
-        <v>1595</v>
-      </c>
-      <c r="D555" t="s">
-        <v>14</v>
-      </c>
-      <c r="E555" s="21" t="s">
-        <v>1596</v>
+      <c r="F555" s="6" t="s">
+        <v>1653</v>
       </c>
       <c r="H555" t="s">
         <v>18</v>
       </c>
       <c r="I555">
         <v>15192089962</v>
+      </c>
+      <c r="J555" s="14" t="s">
+        <v>1695</v>
       </c>
     </row>
     <row r="556" spans="1:10" ht="14.4" customHeight="1">
       <c r="A556" t="s">
         <v>121</v>
       </c>
-      <c r="B556" s="31" t="s">
-        <v>1599</v>
+      <c r="B556" s="3" t="s">
+        <v>1596</v>
       </c>
       <c r="C556" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="D556" t="s">
         <v>14</v>
       </c>
       <c r="E556" s="21" t="s">
-        <v>1601</v>
+        <v>1598</v>
+      </c>
+      <c r="F556" s="6" t="s">
+        <v>1653</v>
+      </c>
+      <c r="H556" t="s">
+        <v>45</v>
       </c>
       <c r="I556">
         <v>14167920466</v>
       </c>
+      <c r="J556" s="14" t="s">
+        <v>1695</v>
+      </c>
     </row>
     <row r="557" spans="1:10" ht="14.4" customHeight="1">
       <c r="A557" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="B557" t="s">
         <v>367</v>
       </c>
       <c r="C557" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="D557" t="s">
         <v>14</v>
       </c>
       <c r="E557" s="21" t="s">
-        <v>1603</v>
-      </c>
-      <c r="I557"/>
+        <v>1600</v>
+      </c>
+      <c r="F557" s="6" t="s">
+        <v>1676</v>
+      </c>
+      <c r="H557" t="s">
+        <v>45</v>
+      </c>
+      <c r="I557">
+        <v>17058470087</v>
+      </c>
       <c r="J557" s="14" t="s">
         <v>39</v>
       </c>
@@ -21393,49 +22139,65 @@
         <v>353</v>
       </c>
       <c r="B558" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="C558" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="D558" t="s">
         <v>14</v>
       </c>
       <c r="E558" s="21" t="s">
-        <v>1606</v>
-      </c>
-      <c r="I558"/>
+        <v>1603</v>
+      </c>
+      <c r="F558" s="6" t="s">
+        <v>1619</v>
+      </c>
+      <c r="H558" t="s">
+        <v>45</v>
+      </c>
+      <c r="I558">
+        <v>16134433064</v>
+      </c>
       <c r="J558" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="559" spans="1:10" ht="14.4" customHeight="1">
       <c r="A559" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="B559" t="s">
         <v>189</v>
       </c>
       <c r="C559" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="D559" t="s">
         <v>14</v>
       </c>
       <c r="E559" s="21" t="s">
-        <v>1609</v>
-      </c>
-      <c r="I559"/>
+        <v>1606</v>
+      </c>
+      <c r="F559" s="6" t="s">
+        <v>1694</v>
+      </c>
+      <c r="H559" t="s">
+        <v>45</v>
+      </c>
+      <c r="I559">
+        <v>18888862795</v>
+      </c>
       <c r="J559" s="14" t="s">
-        <v>39</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="560" spans="1:10" ht="14.4" customHeight="1">
       <c r="A560" t="s">
         <v>392</v>
       </c>
-      <c r="B560" s="31" t="s">
-        <v>1610</v>
+      <c r="B560" s="3" t="s">
+        <v>1607</v>
       </c>
       <c r="C560" t="s">
         <v>523</v>
@@ -21444,7 +22206,10 @@
         <v>14</v>
       </c>
       <c r="E560" s="21" t="s">
-        <v>1611</v>
+        <v>1608</v>
+      </c>
+      <c r="F560" s="6" t="s">
+        <v>1653</v>
       </c>
       <c r="H560" t="s">
         <v>38</v>
@@ -21452,7 +22217,7 @@
       <c r="I560">
         <v>15192386450</v>
       </c>
-      <c r="J560" t="s">
+      <c r="J560" s="14" t="s">
         <v>39</v>
       </c>
     </row>
@@ -21460,37 +22225,56 @@
       <c r="A561" t="s">
         <v>371</v>
       </c>
-      <c r="B561" s="31" t="s">
-        <v>1612</v>
+      <c r="B561" s="3" t="s">
+        <v>1609</v>
       </c>
       <c r="C561" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
       <c r="D561" t="s">
         <v>14</v>
       </c>
-      <c r="E561" s="21" t="s">
-        <v>1310</v>
-      </c>
-      <c r="I561"/>
+      <c r="E561" s="8" t="s">
+        <v>1308</v>
+      </c>
+      <c r="F561" s="6" t="s">
+        <v>1653</v>
+      </c>
+      <c r="H561" t="s">
+        <v>38</v>
+      </c>
+      <c r="I561">
+        <v>17057109100</v>
+      </c>
+      <c r="J561" s="14" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="562" spans="1:10" ht="14.4" customHeight="1">
       <c r="A562" t="s">
         <v>444</v>
       </c>
-      <c r="B562" t="s">
+      <c r="B562" s="3" t="s">
         <v>179</v>
       </c>
       <c r="C562" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
       <c r="D562" t="s">
         <v>14</v>
       </c>
       <c r="E562" s="21" t="s">
-        <v>1615</v>
-      </c>
-      <c r="I562"/>
+        <v>1612</v>
+      </c>
+      <c r="F562" s="6" t="s">
+        <v>1752</v>
+      </c>
+      <c r="H562" t="s">
+        <v>45</v>
+      </c>
+      <c r="I562">
+        <v>16136321112</v>
+      </c>
       <c r="J562" s="14" t="s">
         <v>39</v>
       </c>
@@ -21503,13 +22287,13 @@
         <v>305</v>
       </c>
       <c r="C563" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
       <c r="D563" t="s">
         <v>14</v>
       </c>
       <c r="E563" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="F563" s="6" t="s">
         <v>23</v>
@@ -21518,22 +22302,22 @@
     </row>
     <row r="564" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A564" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B564" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C564" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D564" t="s">
+        <v>14</v>
+      </c>
+      <c r="E564" t="s">
         <v>1618</v>
       </c>
-      <c r="B564" t="s">
+      <c r="F564" s="6" t="s">
         <v>1619</v>
-      </c>
-      <c r="C564" t="s">
-        <v>1620</v>
-      </c>
-      <c r="D564" t="s">
-        <v>14</v>
-      </c>
-      <c r="E564" t="s">
-        <v>1621</v>
-      </c>
-      <c r="F564" s="6" t="s">
-        <v>1622</v>
       </c>
       <c r="I564"/>
     </row>
@@ -21545,16 +22329,16 @@
         <v>602</v>
       </c>
       <c r="C565" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="D565" t="s">
         <v>160</v>
       </c>
       <c r="E565" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="F565" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="I565"/>
     </row>
@@ -21563,19 +22347,19 @@
         <v>27</v>
       </c>
       <c r="B566" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
       <c r="C566" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="D566" t="s">
         <v>160</v>
       </c>
       <c r="E566" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="F566" s="6" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="I566"/>
     </row>
@@ -21583,26 +22367,29 @@
       <c r="A567" t="s">
         <v>27</v>
       </c>
-      <c r="B567" s="31" t="s">
-        <v>1628</v>
+      <c r="B567" s="3" t="s">
+        <v>1625</v>
       </c>
       <c r="C567" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
       <c r="D567" t="s">
         <v>14</v>
       </c>
       <c r="E567" s="8" t="s">
-        <v>1750</v>
+        <v>1746</v>
+      </c>
+      <c r="F567" s="6" t="s">
+        <v>1669</v>
       </c>
       <c r="H567" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="I567">
         <v>14169624000</v>
       </c>
-      <c r="J567" t="s">
-        <v>17</v>
+      <c r="J567" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="568" spans="1:10" ht="14.4" hidden="1" customHeight="1">
@@ -21610,16 +22397,16 @@
         <v>27</v>
       </c>
       <c r="B568" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
       <c r="C568" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="D568" t="s">
         <v>14</v>
       </c>
       <c r="E568" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="F568" s="6" t="s">
         <v>23</v>
@@ -21631,16 +22418,16 @@
         <v>27</v>
       </c>
       <c r="B569" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
       <c r="C569" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
       <c r="D569" t="s">
         <v>14</v>
       </c>
       <c r="E569" t="s">
-        <v>1635</v>
+        <v>1632</v>
       </c>
       <c r="F569" s="6" t="s">
         <v>31</v>
@@ -21657,16 +22444,16 @@
         <v>27</v>
       </c>
       <c r="B570" t="s">
-        <v>1636</v>
+        <v>1633</v>
       </c>
       <c r="C570" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
       <c r="D570" t="s">
         <v>14</v>
       </c>
       <c r="E570" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
       <c r="F570" s="6" t="s">
         <v>23</v>
@@ -21678,40 +22465,51 @@
         <v>27</v>
       </c>
       <c r="B571" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="C571" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
       <c r="D571" t="s">
         <v>160</v>
       </c>
       <c r="E571" s="21" t="s">
-        <v>1641</v>
+        <v>1748</v>
       </c>
       <c r="F571" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I571"/>
+        <v>1653</v>
+      </c>
+      <c r="H571" t="s">
+        <v>45</v>
+      </c>
+      <c r="I571" t="s">
+        <v>1696</v>
+      </c>
       <c r="J571" s="14" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="572" spans="1:10" ht="14.4" customHeight="1">
       <c r="A572" t="s">
-        <v>1642</v>
+        <v>1638</v>
       </c>
       <c r="B572" t="s">
         <v>926</v>
       </c>
       <c r="C572" t="s">
-        <v>1643</v>
+        <v>1639</v>
       </c>
       <c r="D572" t="s">
         <v>14</v>
       </c>
       <c r="E572" s="21" t="s">
-        <v>1644</v>
+        <v>1640</v>
+      </c>
+      <c r="F572" s="6" t="s">
+        <v>1676</v>
+      </c>
+      <c r="H572" t="s">
+        <v>45</v>
       </c>
       <c r="I572"/>
       <c r="J572" s="14" t="s">
@@ -21726,13 +22524,13 @@
         <v>305</v>
       </c>
       <c r="C573" t="s">
-        <v>1645</v>
+        <v>1641</v>
       </c>
       <c r="D573" t="s">
         <v>160</v>
       </c>
       <c r="E573" t="s">
-        <v>1646</v>
+        <v>1642</v>
       </c>
       <c r="F573" s="6" t="s">
         <v>23</v>
@@ -21744,26 +22542,26 @@
         <v>155</v>
       </c>
       <c r="B574" t="s">
-        <v>1649</v>
+        <v>1645</v>
       </c>
       <c r="C574" t="s">
-        <v>1650</v>
+        <v>1646</v>
       </c>
       <c r="D574" t="s">
         <v>14</v>
       </c>
       <c r="E574" t="s">
-        <v>1651</v>
+        <v>1647</v>
       </c>
       <c r="F574" s="6" t="s">
-        <v>1652</v>
+        <v>1648</v>
       </c>
       <c r="I574"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:N574">
-    <filterColumn colId="5">
-      <filters blank="1"/>
+    <filterColumn colId="9">
+      <colorFilter dxfId="0"/>
     </filterColumn>
   </autoFilter>
   <hyperlinks>
@@ -21773,8 +22571,10 @@
     <hyperlink ref="E288" r:id="rId4"/>
     <hyperlink ref="E567" r:id="rId5"/>
     <hyperlink ref="E539" r:id="rId6" location="shop"/>
+    <hyperlink ref="E561" r:id="rId7"/>
+    <hyperlink ref="E407" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId9"/>
 </worksheet>
 </file>
--- a/platform_scrapper/data/cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/cannabis_used_IDs.xlsx
@@ -5986,8 +5986,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:N574"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G100" sqref="G100"/>
+    <sheetView tabSelected="1" topLeftCell="A395" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D409" sqref="D409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/platform_scrapper/data/cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/cannabis_used_IDs.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$300</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$F$300</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -3592,7 +3592,7 @@
   <dimension ref="A1:N300"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12048,6 +12048,7 @@
       <c r="I300"/>
     </row>
   </sheetData>
+  <autoFilter ref="F1:F300"/>
   <hyperlinks>
     <hyperlink ref="E17" r:id="rId1"/>
     <hyperlink ref="E69" r:id="rId2"/>

--- a/platform_scrapper/data/cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/cannabis_used_IDs.xlsx
@@ -3327,8 +3327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/platform_scrapper/data/cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/cannabis_used_IDs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/528339229bf2dcd2/Desktop/DOT/cannabis-shops-scraping/platform_scrapper/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_052E697344AEC06F7E514043B69FD2FA56FCDEA0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DEC7F49-1990-49E8-9681-0C26C6C266EE}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="11_052E697344AEC06F7E514043B69FD2FA56FCDEA0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36F0C5E9-F2DC-4740-9BFF-778A5A6D6A65}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$F$267</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$F$264</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2060" uniqueCount="906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2037" uniqueCount="895">
   <si>
     <t>Municipality or First Nation</t>
   </si>
@@ -235,9 +235,6 @@
     <t>AURORA</t>
   </si>
   <si>
-    <t>HANOVER</t>
-  </si>
-  <si>
     <t>SARNIA</t>
   </si>
   <si>
@@ -871,30 +868,6 @@
     <t>http://www.rainbowtbay.com/</t>
   </si>
   <si>
-    <t>REALCAN CANNABIS</t>
-  </si>
-  <si>
-    <t>831 RUNNYMEDE RD</t>
-  </si>
-  <si>
-    <t>http://www.realcancannabis.ca/</t>
-  </si>
-  <si>
-    <t>Rooted Zen Cannabis Co.</t>
-  </si>
-  <si>
-    <t>209 10TH ST</t>
-  </si>
-  <si>
-    <t>http://www.rootedzencannabis.com/</t>
-  </si>
-  <si>
-    <t>Royal Cannabis Supply Company</t>
-  </si>
-  <si>
-    <t>105 CLAIREPORT CRES</t>
-  </si>
-  <si>
     <t>SHINYBUD CANNABIS CO. 308 NORTH FRONT ST</t>
   </si>
   <si>
@@ -2633,12 +2606,6 @@
   </si>
   <si>
     <t>['Delivery / Free Delivery within 12 kms']</t>
-  </si>
-  <si>
-    <t>['Delivery', 'Same-day delivery / orders must be within a 5km radius from the store location']</t>
-  </si>
-  <si>
-    <t>https://app.buddi.io/ecommerce/store/2408/checkout</t>
   </si>
   <si>
     <t>['Delivery / We serve within 10 km radius.']</t>
@@ -3002,6 +2969,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3289,10 +3260,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N267"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:N264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3348,7 +3320,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>12</v>
@@ -3356,19 +3328,19 @@
     </row>
     <row r="2" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="C2" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>864</v>
+        <v>855</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>19</v>
@@ -3383,7 +3355,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -3426,7 +3398,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>19</v>
@@ -3441,7 +3413,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -3455,10 +3427,10 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>856</v>
+        <v>847</v>
       </c>
       <c r="H5" t="s">
         <v>63</v>
@@ -3467,7 +3439,7 @@
         <v>14165860420</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -3484,7 +3456,7 @@
         <v>66</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="H6" t="s">
         <v>29</v>
@@ -3493,27 +3465,27 @@
         <v>14165046420</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>60</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>76</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>51</v>
@@ -3525,24 +3497,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
       <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
         <v>77</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
         <v>78</v>
       </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>79</v>
-      </c>
       <c r="F8" s="6" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="H8" t="s">
         <v>32</v>
@@ -3553,19 +3525,19 @@
     </row>
     <row r="9" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" t="s">
         <v>85</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>86</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
         <v>87</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>88</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>19</v>
@@ -3580,12 +3552,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" t="s">
         <v>89</v>
-      </c>
-      <c r="B10" t="s">
-        <v>90</v>
       </c>
       <c r="C10" t="s">
         <v>59</v>
@@ -3594,10 +3566,10 @@
         <v>14</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="H10" t="s">
         <v>18</v>
@@ -3608,19 +3580,19 @@
     </row>
     <row r="11" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
         <v>92</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>93</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
         <v>94</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>95</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>19</v>
@@ -3635,24 +3607,24 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
       <c r="B12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" t="s">
         <v>97</v>
       </c>
-      <c r="C12" t="s">
-        <v>98</v>
-      </c>
       <c r="D12" t="s">
         <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="H12" t="s">
         <v>20</v>
@@ -3664,50 +3636,50 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" t="s">
         <v>99</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>100</v>
       </c>
-      <c r="C13" t="s">
-        <v>101</v>
-      </c>
       <c r="D13" t="s">
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="H13" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="I13">
         <v>16133471010</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>52</v>
       </c>
       <c r="B14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" t="s">
         <v>102</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
         <v>103</v>
       </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" t="s">
-        <v>104</v>
-      </c>
       <c r="F14" s="6" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="H14" t="s">
         <v>32</v>
@@ -3716,27 +3688,27 @@
         <v>19187089959</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>854</v>
+        <v>845</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>855</v>
+        <v>846</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>29</v>
@@ -3757,16 +3729,16 @@
         <v>41</v>
       </c>
       <c r="B16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" t="s">
         <v>128</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
         <v>129</v>
-      </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" t="s">
-        <v>130</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>19</v>
@@ -3783,19 +3755,19 @@
     </row>
     <row r="17" spans="1:10" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="F17" s="22" t="s">
         <v>19</v>
@@ -3811,24 +3783,24 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>45</v>
       </c>
       <c r="B18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" t="s">
         <v>132</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
         <v>133</v>
       </c>
-      <c r="D18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" t="s">
-        <v>134</v>
-      </c>
       <c r="F18" s="6" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="H18" t="s">
         <v>16</v>
@@ -3842,19 +3814,19 @@
     </row>
     <row r="19" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" t="s">
         <v>137</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>138</v>
       </c>
-      <c r="C19" t="s">
-        <v>139</v>
-      </c>
       <c r="D19" t="s">
         <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>19</v>
@@ -3869,24 +3841,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>28</v>
       </c>
       <c r="B20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" t="s">
         <v>145</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
         <v>146</v>
       </c>
-      <c r="D20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" t="s">
-        <v>147</v>
-      </c>
       <c r="F20" s="6" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="H20" t="s">
         <v>34</v>
@@ -3898,24 +3870,24 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" t="s">
         <v>148</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
         <v>149</v>
       </c>
-      <c r="D21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" t="s">
-        <v>150</v>
-      </c>
       <c r="F21" s="6" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="H21" t="s">
         <v>20</v>
@@ -3927,27 +3899,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="C22" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="D22" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>153</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>154</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>849</v>
+        <v>840</v>
       </c>
       <c r="H22" s="9" t="s">
         <v>20</v>
@@ -3959,24 +3931,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B23" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" t="s">
         <v>156</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s">
         <v>157</v>
       </c>
-      <c r="D23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" t="s">
-        <v>158</v>
-      </c>
       <c r="F23" s="6" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="H23" t="s">
         <v>20</v>
@@ -3990,19 +3962,19 @@
     </row>
     <row r="24" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>161</v>
+      </c>
+      <c r="B24" t="s">
         <v>162</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>163</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s">
         <v>164</v>
-      </c>
-      <c r="D24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" t="s">
-        <v>165</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>19</v>
@@ -4022,16 +3994,16 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25" t="s">
         <v>166</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
         <v>167</v>
-      </c>
-      <c r="D25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" t="s">
-        <v>168</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>19</v>
@@ -4046,27 +4018,27 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" s="9" customFormat="1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>49</v>
       </c>
       <c r="B26" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="D26" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>179</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>180</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>32</v>
@@ -4080,19 +4052,19 @@
     </row>
     <row r="27" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>193</v>
+      </c>
+      <c r="B27" t="s">
         <v>194</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>195</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s">
         <v>196</v>
-      </c>
-      <c r="D27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" t="s">
-        <v>197</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>19</v>
@@ -4107,24 +4079,24 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B28" t="s">
+        <v>201</v>
+      </c>
+      <c r="C28" t="s">
         <v>202</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" t="s">
         <v>203</v>
       </c>
-      <c r="D28" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" t="s">
-        <v>204</v>
-      </c>
       <c r="F28" s="6" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="H28" t="s">
         <v>32</v>
@@ -4136,24 +4108,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>23</v>
       </c>
       <c r="B29" t="s">
+        <v>211</v>
+      </c>
+      <c r="C29" t="s">
         <v>212</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s">
         <v>213</v>
       </c>
-      <c r="D29" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" t="s">
-        <v>214</v>
-      </c>
       <c r="F29" s="6" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="H29" t="s">
         <v>20</v>
@@ -4165,24 +4137,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>214</v>
+      </c>
+      <c r="B30" t="s">
         <v>215</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>216</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" t="s">
         <v>217</v>
       </c>
-      <c r="D30" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" t="s">
-        <v>218</v>
-      </c>
       <c r="F30" s="6" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="H30" t="s">
         <v>18</v>
@@ -4191,24 +4163,24 @@
         <v>17055040080</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>218</v>
+      </c>
+      <c r="B31" t="s">
+        <v>215</v>
+      </c>
+      <c r="C31" t="s">
         <v>219</v>
       </c>
-      <c r="B31" t="s">
-        <v>216</v>
-      </c>
-      <c r="C31" t="s">
-        <v>220</v>
-      </c>
       <c r="D31" t="s">
         <v>14</v>
       </c>
       <c r="E31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="H31" t="s">
         <v>18</v>
@@ -4222,16 +4194,16 @@
         <v>60</v>
       </c>
       <c r="B32" t="s">
+        <v>221</v>
+      </c>
+      <c r="C32" t="s">
         <v>222</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" t="s">
         <v>223</v>
-      </c>
-      <c r="D32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" t="s">
-        <v>224</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>19</v>
@@ -4251,16 +4223,16 @@
         <v>21</v>
       </c>
       <c r="B33" t="s">
+        <v>224</v>
+      </c>
+      <c r="C33" t="s">
         <v>225</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" t="s">
         <v>226</v>
-      </c>
-      <c r="D33" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" t="s">
-        <v>227</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>19</v>
@@ -4277,19 +4249,19 @@
     </row>
     <row r="34" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B34" t="s">
+        <v>227</v>
+      </c>
+      <c r="C34" t="s">
         <v>228</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" t="s">
         <v>229</v>
-      </c>
-      <c r="D34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" t="s">
-        <v>230</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>19</v>
@@ -4304,27 +4276,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B35" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" t="s">
         <v>106</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="D35" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>108</v>
-      </c>
       <c r="F35" s="6" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="H35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I35">
         <v>15486909020</v>
@@ -4333,24 +4305,24 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>54</v>
       </c>
       <c r="B36" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" t="s">
         <v>114</v>
       </c>
-      <c r="C36" t="s">
-        <v>115</v>
-      </c>
       <c r="D36" t="s">
         <v>14</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="H36" t="s">
         <v>18</v>
@@ -4362,24 +4334,24 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" t="s">
         <v>123</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>124</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="D37" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>126</v>
-      </c>
       <c r="F37" s="6" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="H37" t="s">
         <v>20</v>
@@ -4393,19 +4365,19 @@
     </row>
     <row r="38" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B38" t="s">
+        <v>231</v>
+      </c>
+      <c r="C38" t="s">
         <v>232</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" t="s">
         <v>233</v>
-      </c>
-      <c r="D38" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" t="s">
-        <v>234</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>19</v>
@@ -4420,24 +4392,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>234</v>
+      </c>
+      <c r="B39" t="s">
         <v>235</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>236</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="D39" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" s="20" t="s">
-        <v>238</v>
-      </c>
       <c r="F39" s="6" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="H39" t="s">
         <v>22</v>
@@ -4449,24 +4421,24 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>52</v>
       </c>
       <c r="B40" t="s">
+        <v>239</v>
+      </c>
+      <c r="C40" t="s">
         <v>240</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="D40" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>242</v>
-      </c>
       <c r="F40" s="6" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
       <c r="H40" t="s">
         <v>38</v>
@@ -4478,24 +4450,24 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C41" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D41" t="s">
         <v>14</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
       <c r="H41" t="s">
         <v>29</v>
@@ -4509,19 +4481,19 @@
     </row>
     <row r="42" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>246</v>
+      </c>
+      <c r="B42" t="s">
         <v>247</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>248</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" t="s">
         <v>249</v>
-      </c>
-      <c r="D42" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42" t="s">
-        <v>250</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>19</v>
@@ -4538,19 +4510,19 @@
     </row>
     <row r="43" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B43" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C43" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D43" t="s">
         <v>14</v>
       </c>
       <c r="E43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>19</v>
@@ -4570,16 +4542,16 @@
         <v>33</v>
       </c>
       <c r="B44" t="s">
+        <v>251</v>
+      </c>
+      <c r="C44" t="s">
         <v>252</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" t="s">
         <v>253</v>
-      </c>
-      <c r="D44" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" t="s">
-        <v>254</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>19</v>
@@ -4594,24 +4566,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>243</v>
+      </c>
+      <c r="B45" t="s">
+        <v>239</v>
+      </c>
+      <c r="C45" t="s">
         <v>244</v>
       </c>
-      <c r="B45" t="s">
-        <v>240</v>
-      </c>
-      <c r="C45" t="s">
-        <v>245</v>
-      </c>
       <c r="D45" t="s">
         <v>14</v>
       </c>
       <c r="E45" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
       <c r="H45" t="s">
         <v>18</v>
@@ -4623,24 +4595,24 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>65</v>
       </c>
       <c r="B46" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C46" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D46" t="s">
         <v>14</v>
       </c>
       <c r="E46" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
       <c r="H46" t="s">
         <v>18</v>
@@ -4654,19 +4626,19 @@
     </row>
     <row r="47" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B47" t="s">
+        <v>254</v>
+      </c>
+      <c r="C47" t="s">
         <v>255</v>
       </c>
-      <c r="C47" t="s">
-        <v>256</v>
-      </c>
       <c r="D47" t="s">
         <v>14</v>
       </c>
       <c r="E47" s="20" t="s">
-        <v>867</v>
+        <v>858</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>19</v>
@@ -4683,19 +4655,19 @@
     </row>
     <row r="48" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B48" t="s">
+        <v>258</v>
+      </c>
+      <c r="C48" t="s">
         <v>259</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" t="s">
         <v>260</v>
-      </c>
-      <c r="D48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" t="s">
-        <v>261</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>19</v>
@@ -4712,19 +4684,19 @@
     </row>
     <row r="49" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>261</v>
+      </c>
+      <c r="B49" t="s">
+        <v>258</v>
+      </c>
+      <c r="C49" t="s">
         <v>262</v>
       </c>
-      <c r="B49" t="s">
-        <v>259</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" t="s">
         <v>263</v>
-      </c>
-      <c r="D49" t="s">
-        <v>14</v>
-      </c>
-      <c r="E49" t="s">
-        <v>264</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>19</v>
@@ -4744,16 +4716,16 @@
         <v>41</v>
       </c>
       <c r="B50" t="s">
+        <v>269</v>
+      </c>
+      <c r="C50" t="s">
         <v>270</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" t="s">
         <v>271</v>
-      </c>
-      <c r="D50" t="s">
-        <v>14</v>
-      </c>
-      <c r="E50" t="s">
-        <v>272</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>19</v>
@@ -4773,16 +4745,16 @@
         <v>41</v>
       </c>
       <c r="B51" t="s">
+        <v>272</v>
+      </c>
+      <c r="C51" t="s">
         <v>273</v>
       </c>
-      <c r="C51" t="s">
-        <v>274</v>
-      </c>
       <c r="D51" t="s">
         <v>14</v>
       </c>
       <c r="E51" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>19</v>
@@ -4797,24 +4769,24 @@
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B52" t="s">
+        <v>264</v>
+      </c>
+      <c r="C52" t="s">
         <v>265</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="20" t="s">
         <v>266</v>
       </c>
-      <c r="D52" t="s">
-        <v>14</v>
-      </c>
-      <c r="E52" s="20" t="s">
-        <v>267</v>
-      </c>
       <c r="F52" s="6" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="H52" t="s">
         <v>20</v>
@@ -4823,82 +4795,82 @@
         <v>16132675045</v>
       </c>
       <c r="J52" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C53" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D53" t="s">
         <v>14</v>
       </c>
-      <c r="E53" t="s">
-        <v>287</v>
+      <c r="E53" s="20" t="s">
+        <v>280</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>19</v>
+        <v>808</v>
       </c>
       <c r="H53" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I53">
-        <v>12264342290</v>
-      </c>
-      <c r="J53" t="s">
-        <v>17</v>
+        <v>18076222757</v>
+      </c>
+      <c r="J53" s="14" t="s">
+        <v>860</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="B54" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C54" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D54" t="s">
         <v>14</v>
       </c>
-      <c r="E54" s="20" t="s">
-        <v>281</v>
+      <c r="E54" t="s">
+        <v>283</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>817</v>
+        <v>19</v>
       </c>
       <c r="H54" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I54">
-        <v>18076222757</v>
+        <v>16137797475</v>
       </c>
       <c r="J54" s="14" t="s">
-        <v>869</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="B55" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C55" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D55" t="s">
         <v>14</v>
       </c>
       <c r="E55" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>19</v>
@@ -4907,82 +4879,79 @@
         <v>18</v>
       </c>
       <c r="I55">
-        <v>16137797475</v>
+        <v>14169005299</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="B56" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="C56" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="D56" t="s">
         <v>14</v>
       </c>
-      <c r="E56" s="20" t="s">
-        <v>284</v>
+      <c r="E56" t="s">
+        <v>298</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H56" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I56">
-        <v>14167690909</v>
-      </c>
-      <c r="J56" s="14" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15195013797</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B57" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C57" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D57" t="s">
         <v>14</v>
       </c>
       <c r="E57" s="20" t="s">
-        <v>871</v>
+        <v>292</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>19</v>
+        <v>851</v>
       </c>
       <c r="H57" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I57">
-        <v>18888519333</v>
+        <v>16138254420</v>
       </c>
       <c r="J57" s="14" t="s">
-        <v>17</v>
+        <v>862</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="B58" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C58" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D58" t="s">
         <v>14</v>
       </c>
       <c r="E58" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>19</v>
@@ -4991,143 +4960,143 @@
         <v>18</v>
       </c>
       <c r="I58">
-        <v>14169005299</v>
+        <v>14164311333</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>118</v>
+        <v>28</v>
       </c>
       <c r="B59" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C59" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D59" t="s">
         <v>14</v>
       </c>
-      <c r="E59" t="s">
-        <v>307</v>
+      <c r="E59" s="20" t="s">
+        <v>302</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H59" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I59">
-        <v>15195013797</v>
+        <v>14162557768</v>
+      </c>
+      <c r="J59" s="14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>40</v>
+        <v>285</v>
       </c>
       <c r="B60" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="C60" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="D60" t="s">
         <v>14</v>
       </c>
-      <c r="E60" s="20" t="s">
-        <v>301</v>
+      <c r="E60" t="s">
+        <v>310</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>860</v>
+        <v>19</v>
       </c>
       <c r="H60" t="s">
         <v>38</v>
       </c>
       <c r="I60">
-        <v>16138254420</v>
-      </c>
-      <c r="J60" s="14" t="s">
-        <v>873</v>
+        <v>15196824224</v>
+      </c>
+      <c r="J60" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>33</v>
+        <v>311</v>
       </c>
       <c r="B61" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C61" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D61" t="s">
         <v>14</v>
       </c>
       <c r="E61" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H61" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I61">
-        <v>14164311333</v>
+        <v>15198259888</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C62" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D62" t="s">
         <v>14</v>
       </c>
-      <c r="E62" s="20" t="s">
-        <v>311</v>
+      <c r="E62" t="s">
+        <v>315</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H62" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I62">
-        <v>14162557768</v>
-      </c>
-      <c r="J62" s="14" t="s">
-        <v>17</v>
+        <v>14166509420</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>294</v>
+        <v>72</v>
       </c>
       <c r="B63" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="C63" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="D63" t="s">
         <v>14</v>
       </c>
       <c r="E63" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H63" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I63">
-        <v>15196824224</v>
+        <v>15196015367</v>
       </c>
       <c r="J63" t="s">
         <v>39</v>
@@ -5135,35 +5104,38 @@
     </row>
     <row r="64" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>83</v>
+      </c>
+      <c r="B64" t="s">
+        <v>319</v>
+      </c>
+      <c r="C64" t="s">
         <v>320</v>
       </c>
-      <c r="B64" t="s">
-        <v>317</v>
-      </c>
-      <c r="C64" t="s">
-        <v>321</v>
-      </c>
       <c r="D64" t="s">
         <v>14</v>
       </c>
-      <c r="E64" t="s">
-        <v>319</v>
+      <c r="E64" s="20" t="s">
+        <v>863</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H64" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I64">
-        <v>15198259888</v>
+        <v>16473432837</v>
+      </c>
+      <c r="J64" s="14" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>60</v>
-      </c>
-      <c r="B65" t="s">
+        <v>23</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>322</v>
       </c>
       <c r="C65" t="s">
@@ -5172,228 +5144,231 @@
       <c r="D65" t="s">
         <v>14</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H65" t="s">
+        <v>20</v>
+      </c>
+      <c r="I65">
+        <v>14167030222</v>
+      </c>
+      <c r="J65" s="14" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>90</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="F65" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H65" t="s">
-        <v>29</v>
-      </c>
-      <c r="I65">
-        <v>14166509420</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>73</v>
-      </c>
-      <c r="B66" t="s">
-        <v>340</v>
-      </c>
       <c r="C66" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="D66" t="s">
         <v>14</v>
       </c>
-      <c r="E66" t="s">
-        <v>342</v>
+      <c r="E66" s="20" t="s">
+        <v>326</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>19</v>
+        <v>808</v>
       </c>
       <c r="H66" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I66">
-        <v>15196015367</v>
-      </c>
-      <c r="J66" t="s">
+        <v>15199422828</v>
+      </c>
+      <c r="J66" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B67" t="s">
-        <v>328</v>
+        <v>204</v>
       </c>
       <c r="C67" t="s">
-        <v>329</v>
+        <v>205</v>
       </c>
       <c r="D67" t="s">
         <v>14</v>
       </c>
-      <c r="E67" s="20" t="s">
-        <v>874</v>
+      <c r="E67" t="s">
+        <v>206</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>19</v>
+        <v>851</v>
       </c>
       <c r="H67" t="s">
-        <v>20</v>
+        <v>837</v>
       </c>
       <c r="I67">
-        <v>16473432837</v>
-      </c>
-      <c r="J67" s="14" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>12267734209</v>
+      </c>
+      <c r="J67" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>23</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>331</v>
+        <v>80</v>
+      </c>
+      <c r="B68" t="s">
+        <v>207</v>
       </c>
       <c r="C68" t="s">
-        <v>332</v>
+        <v>208</v>
       </c>
       <c r="D68" t="s">
         <v>14</v>
       </c>
-      <c r="E68" s="20" t="s">
-        <v>330</v>
+      <c r="E68" t="s">
+        <v>206</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>19</v>
+        <v>851</v>
       </c>
       <c r="H68" t="s">
-        <v>20</v>
+        <v>837</v>
       </c>
       <c r="I68">
-        <v>14167030222</v>
-      </c>
-      <c r="J68" s="14" t="s">
-        <v>875</v>
+        <v>15199460570</v>
+      </c>
+      <c r="J68" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>91</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>333</v>
+        <v>140</v>
+      </c>
+      <c r="B69" t="s">
+        <v>141</v>
       </c>
       <c r="C69" t="s">
-        <v>334</v>
+        <v>142</v>
       </c>
       <c r="D69" t="s">
         <v>14</v>
       </c>
-      <c r="E69" s="20" t="s">
-        <v>335</v>
+      <c r="E69" t="s">
+        <v>143</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>817</v>
+        <v>19</v>
       </c>
       <c r="H69" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="I69">
-        <v>15199422828</v>
-      </c>
-      <c r="J69" s="14" t="s">
-        <v>39</v>
+        <v>17059950684</v>
+      </c>
+      <c r="J69" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>81</v>
+        <v>334</v>
       </c>
       <c r="B70" t="s">
-        <v>205</v>
+        <v>335</v>
       </c>
       <c r="C70" t="s">
-        <v>206</v>
+        <v>336</v>
       </c>
       <c r="D70" t="s">
         <v>14</v>
       </c>
-      <c r="E70" t="s">
-        <v>207</v>
+      <c r="E70" s="20" t="s">
+        <v>337</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>860</v>
+        <v>19</v>
       </c>
       <c r="H70" t="s">
-        <v>846</v>
+        <v>338</v>
       </c>
       <c r="I70">
-        <v>12267734209</v>
-      </c>
-      <c r="J70" t="s">
-        <v>846</v>
+        <v>15195342628</v>
+      </c>
+      <c r="J70" s="14" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>81</v>
-      </c>
-      <c r="B71" t="s">
-        <v>208</v>
+        <v>46</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>340</v>
       </c>
       <c r="C71" t="s">
-        <v>209</v>
+        <v>341</v>
       </c>
       <c r="D71" t="s">
         <v>14</v>
       </c>
-      <c r="E71" t="s">
-        <v>207</v>
+      <c r="E71" s="20" t="s">
+        <v>865</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>860</v>
+        <v>19</v>
       </c>
       <c r="H71" t="s">
-        <v>846</v>
+        <v>20</v>
       </c>
       <c r="I71">
-        <v>15199460570</v>
-      </c>
-      <c r="J71" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15139227020</v>
+      </c>
+      <c r="J71" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="B72" t="s">
-        <v>142</v>
+        <v>342</v>
       </c>
       <c r="C72" t="s">
-        <v>143</v>
+        <v>343</v>
       </c>
       <c r="D72" t="s">
         <v>14</v>
       </c>
-      <c r="E72" t="s">
-        <v>144</v>
+      <c r="E72" s="20" t="s">
+        <v>344</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>19</v>
+        <v>851</v>
       </c>
       <c r="H72" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I72">
-        <v>17059950684</v>
-      </c>
-      <c r="J72" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14169011808</v>
+      </c>
+      <c r="J72" s="14" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>343</v>
+        <v>108</v>
       </c>
       <c r="B73" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C73" t="s">
         <v>345</v>
@@ -5402,326 +5377,326 @@
         <v>14</v>
       </c>
       <c r="E73" s="20" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>19</v>
+        <v>851</v>
       </c>
       <c r="H73" t="s">
-        <v>347</v>
+        <v>20</v>
       </c>
       <c r="I73">
-        <v>15195342628</v>
+        <v>14165469808</v>
       </c>
       <c r="J73" s="14" t="s">
-        <v>348</v>
+        <v>866</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>46</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>349</v>
+        <v>23</v>
+      </c>
+      <c r="B74" t="s">
+        <v>158</v>
       </c>
       <c r="C74" t="s">
-        <v>350</v>
+        <v>159</v>
       </c>
       <c r="D74" t="s">
         <v>14</v>
       </c>
-      <c r="E74" s="20" t="s">
-        <v>876</v>
+      <c r="E74" t="s">
+        <v>160</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H74" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I74">
-        <v>15139227020</v>
-      </c>
-      <c r="J74" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14164618366</v>
+      </c>
+      <c r="J74" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>23</v>
+        <v>169</v>
       </c>
       <c r="B75" t="s">
-        <v>351</v>
+        <v>170</v>
       </c>
       <c r="C75" t="s">
-        <v>352</v>
+        <v>171</v>
       </c>
       <c r="D75" t="s">
         <v>14</v>
       </c>
-      <c r="E75" s="20" t="s">
-        <v>353</v>
+      <c r="E75" t="s">
+        <v>172</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="H75" t="s">
         <v>20</v>
       </c>
       <c r="I75">
-        <v>14169011808</v>
-      </c>
-      <c r="J75" s="14" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>17052131010</v>
+      </c>
+      <c r="J75" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>109</v>
+        <v>173</v>
       </c>
       <c r="B76" t="s">
-        <v>351</v>
+        <v>174</v>
       </c>
       <c r="C76" t="s">
-        <v>354</v>
+        <v>175</v>
       </c>
       <c r="D76" t="s">
         <v>14</v>
       </c>
-      <c r="E76" s="20" t="s">
-        <v>353</v>
+      <c r="E76" t="s">
+        <v>176</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>860</v>
+        <v>837</v>
       </c>
       <c r="H76" t="s">
+        <v>32</v>
+      </c>
+      <c r="I76">
+        <v>16137992368</v>
+      </c>
+      <c r="J76" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>181</v>
+      </c>
+      <c r="B77" t="s">
+        <v>182</v>
+      </c>
+      <c r="C77" t="s">
+        <v>183</v>
+      </c>
+      <c r="D77" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77" t="s">
+        <v>184</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>837</v>
+      </c>
+      <c r="H77" t="s">
         <v>20</v>
       </c>
-      <c r="I76">
-        <v>14165469808</v>
-      </c>
-      <c r="J76" s="14" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>23</v>
-      </c>
-      <c r="B77" t="s">
-        <v>159</v>
-      </c>
-      <c r="C77" t="s">
-        <v>160</v>
-      </c>
-      <c r="D77" t="s">
-        <v>14</v>
-      </c>
-      <c r="E77" t="s">
-        <v>161</v>
-      </c>
-      <c r="F77" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H77" t="s">
-        <v>29</v>
-      </c>
       <c r="I77">
-        <v>14164618366</v>
+        <v>18072779333</v>
       </c>
       <c r="J77" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>170</v>
+        <v>108</v>
       </c>
       <c r="B78" t="s">
-        <v>171</v>
+        <v>50</v>
       </c>
       <c r="C78" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="D78" t="s">
         <v>14</v>
       </c>
       <c r="E78" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>860</v>
+        <v>837</v>
       </c>
       <c r="H78" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="I78">
-        <v>17052131010</v>
+        <v>14162412837</v>
       </c>
       <c r="J78" t="s">
-        <v>857</v>
+        <v>848</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>174</v>
+        <v>41</v>
       </c>
       <c r="B79" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="C79" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="D79" t="s">
         <v>14</v>
       </c>
       <c r="E79" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>846</v>
+        <v>19</v>
       </c>
       <c r="H79" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I79">
-        <v>16137992368</v>
+        <v>16136957746</v>
       </c>
       <c r="J79" t="s">
-        <v>858</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>182</v>
+        <v>267</v>
       </c>
       <c r="B80" t="s">
-        <v>183</v>
+        <v>275</v>
       </c>
       <c r="C80" t="s">
-        <v>184</v>
+        <v>276</v>
       </c>
       <c r="D80" t="s">
         <v>14</v>
       </c>
       <c r="E80" t="s">
-        <v>185</v>
+        <v>277</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>846</v>
+        <v>19</v>
       </c>
       <c r="H80" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="I80">
-        <v>18072779333</v>
+        <v>16136877335</v>
       </c>
       <c r="J80" t="s">
-        <v>857</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>109</v>
+        <v>286</v>
       </c>
       <c r="B81" t="s">
-        <v>50</v>
+        <v>287</v>
       </c>
       <c r="C81" t="s">
-        <v>187</v>
+        <v>288</v>
       </c>
       <c r="D81" t="s">
         <v>14</v>
       </c>
       <c r="E81" t="s">
-        <v>186</v>
+        <v>289</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>846</v>
+        <v>19</v>
       </c>
       <c r="H81" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="I81">
-        <v>14162412837</v>
+        <v>18074739333</v>
       </c>
       <c r="J81" t="s">
-        <v>857</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B82" t="s">
-        <v>189</v>
+        <v>346</v>
       </c>
       <c r="C82" t="s">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="D82" t="s">
         <v>14</v>
       </c>
-      <c r="E82" t="s">
-        <v>191</v>
+      <c r="E82" s="20" t="s">
+        <v>348</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H82" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I82">
-        <v>16136957746</v>
-      </c>
-      <c r="J82" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14165468250</v>
+      </c>
+      <c r="J82" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>268</v>
+        <v>58</v>
       </c>
       <c r="B83" t="s">
-        <v>276</v>
+        <v>349</v>
       </c>
       <c r="C83" t="s">
-        <v>277</v>
+        <v>350</v>
       </c>
       <c r="D83" t="s">
         <v>14</v>
       </c>
-      <c r="E83" t="s">
-        <v>278</v>
+      <c r="E83" s="20" t="s">
+        <v>351</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>19</v>
+        <v>851</v>
       </c>
       <c r="H83" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I83">
-        <v>16136877335</v>
-      </c>
-      <c r="J83" t="s">
-        <v>35</v>
+        <v>16133926777</v>
+      </c>
+      <c r="J83" s="14" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>295</v>
+        <v>95</v>
       </c>
       <c r="B84" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="C84" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="D84" t="s">
         <v>14</v>
       </c>
       <c r="E84" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="F84" s="6" t="s">
         <v>19</v>
@@ -5730,7 +5705,7 @@
         <v>36</v>
       </c>
       <c r="I84">
-        <v>18074739333</v>
+        <v>15197360420</v>
       </c>
       <c r="J84" t="s">
         <v>35</v>
@@ -5738,77 +5713,77 @@
     </row>
     <row r="85" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="B85" t="s">
-        <v>355</v>
+        <v>328</v>
       </c>
       <c r="C85" t="s">
-        <v>356</v>
+        <v>329</v>
       </c>
       <c r="D85" t="s">
         <v>14</v>
       </c>
-      <c r="E85" s="20" t="s">
-        <v>357</v>
+      <c r="E85" t="s">
+        <v>330</v>
       </c>
       <c r="F85" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H85" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I85">
-        <v>14165468250</v>
-      </c>
-      <c r="J85" s="14" t="s">
-        <v>39</v>
+        <v>16139669333</v>
+      </c>
+      <c r="J85" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>58</v>
+        <v>256</v>
       </c>
       <c r="B86" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C86" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="D86" t="s">
-        <v>14</v>
-      </c>
-      <c r="E86" s="20" t="s">
-        <v>360</v>
+        <v>110</v>
+      </c>
+      <c r="E86" t="s">
+        <v>354</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>860</v>
+        <v>19</v>
       </c>
       <c r="H86" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I86">
-        <v>16133926777</v>
-      </c>
-      <c r="J86" s="14" t="s">
-        <v>872</v>
+        <v>15199542600</v>
+      </c>
+      <c r="J86" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="B87" t="s">
-        <v>325</v>
+        <v>352</v>
       </c>
       <c r="C87" t="s">
-        <v>326</v>
+        <v>355</v>
       </c>
       <c r="D87" t="s">
         <v>14</v>
       </c>
       <c r="E87" t="s">
-        <v>327</v>
+        <v>354</v>
       </c>
       <c r="F87" s="6" t="s">
         <v>19</v>
@@ -5817,7 +5792,7 @@
         <v>36</v>
       </c>
       <c r="I87">
-        <v>15197360420</v>
+        <v>15199542600</v>
       </c>
       <c r="J87" t="s">
         <v>35</v>
@@ -5825,135 +5800,135 @@
     </row>
     <row r="88" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>131</v>
+        <v>356</v>
       </c>
       <c r="B88" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="C88" t="s">
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="D88" t="s">
         <v>14</v>
       </c>
-      <c r="E88" t="s">
-        <v>339</v>
+      <c r="E88" s="8" t="s">
+        <v>868</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H88" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I88">
-        <v>16139669333</v>
-      </c>
-      <c r="J88" t="s">
-        <v>35</v>
+        <v>18077279830</v>
+      </c>
+      <c r="J88" s="14" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>257</v>
+        <v>111</v>
       </c>
       <c r="B89" t="s">
+        <v>359</v>
+      </c>
+      <c r="C89" t="s">
+        <v>360</v>
+      </c>
+      <c r="D89" t="s">
+        <v>14</v>
+      </c>
+      <c r="E89" t="s">
         <v>361</v>
       </c>
-      <c r="C89" t="s">
-        <v>362</v>
-      </c>
-      <c r="D89" t="s">
-        <v>111</v>
-      </c>
-      <c r="E89" t="s">
-        <v>363</v>
-      </c>
       <c r="F89" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H89" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I89">
-        <v>15199542600</v>
+        <v>14165512550</v>
       </c>
       <c r="J89" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>57</v>
+        <v>150</v>
       </c>
       <c r="B90" t="s">
+        <v>362</v>
+      </c>
+      <c r="C90" t="s">
+        <v>363</v>
+      </c>
+      <c r="D90" t="s">
+        <v>14</v>
+      </c>
+      <c r="E90" t="s">
         <v>361</v>
       </c>
-      <c r="C90" t="s">
-        <v>364</v>
-      </c>
-      <c r="D90" t="s">
-        <v>14</v>
-      </c>
-      <c r="E90" t="s">
-        <v>363</v>
-      </c>
       <c r="F90" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H90" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I90">
-        <v>15199542600</v>
+        <v>14165512550</v>
       </c>
       <c r="J90" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>365</v>
+        <v>197</v>
       </c>
       <c r="B91" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="C91" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D91" t="s">
         <v>14</v>
       </c>
-      <c r="E91" s="8" t="s">
-        <v>879</v>
+      <c r="E91" t="s">
+        <v>361</v>
       </c>
       <c r="F91" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H91" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I91">
-        <v>18077279830</v>
-      </c>
-      <c r="J91" s="14" t="s">
-        <v>878</v>
+        <v>14165512550</v>
+      </c>
+      <c r="J91" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="B92" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="C92" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D92" t="s">
         <v>14</v>
       </c>
       <c r="E92" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="F92" s="6" t="s">
         <v>19</v>
@@ -5970,68 +5945,65 @@
     </row>
     <row r="93" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="B93" t="s">
+        <v>370</v>
+      </c>
+      <c r="C93" t="s">
         <v>371</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
+        <v>14</v>
+      </c>
+      <c r="E93" t="s">
         <v>372</v>
       </c>
-      <c r="D93" t="s">
-        <v>14</v>
-      </c>
-      <c r="E93" t="s">
-        <v>370</v>
-      </c>
       <c r="F93" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H93" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="I93">
-        <v>14165512550</v>
-      </c>
-      <c r="J93" t="s">
-        <v>17</v>
+        <v>14165460810</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>198</v>
+        <v>30</v>
       </c>
       <c r="B94" t="s">
-        <v>368</v>
+        <v>180</v>
       </c>
       <c r="C94" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="D94" t="s">
         <v>14</v>
       </c>
       <c r="E94" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="F94" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H94" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I94">
-        <v>14165512550</v>
+        <v>19055293037</v>
       </c>
       <c r="J94" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B95" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C95" t="s">
         <v>374</v>
@@ -6039,159 +6011,156 @@
       <c r="D95" t="s">
         <v>14</v>
       </c>
-      <c r="E95" t="s">
-        <v>370</v>
+      <c r="E95" s="20" t="s">
+        <v>375</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>19</v>
+        <v>808</v>
       </c>
       <c r="H95" t="s">
         <v>20</v>
       </c>
       <c r="I95">
-        <v>14165512550</v>
-      </c>
-      <c r="J95" t="s">
+        <v>12897552839</v>
+      </c>
+      <c r="J95" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>135</v>
+        <v>376</v>
       </c>
       <c r="B96" t="s">
+        <v>377</v>
+      </c>
+      <c r="C96" t="s">
+        <v>378</v>
+      </c>
+      <c r="D96" t="s">
+        <v>14</v>
+      </c>
+      <c r="E96" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="C96" t="s">
-        <v>380</v>
-      </c>
-      <c r="D96" t="s">
-        <v>14</v>
-      </c>
-      <c r="E96" t="s">
-        <v>381</v>
-      </c>
       <c r="F96" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H96" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="I96">
-        <v>14165460810</v>
+        <v>13433740100</v>
+      </c>
+      <c r="J96" s="14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="B97" t="s">
-        <v>181</v>
+        <v>380</v>
       </c>
       <c r="C97" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="D97" t="s">
         <v>14</v>
       </c>
-      <c r="E97" t="s">
-        <v>395</v>
+      <c r="E97" s="20" t="s">
+        <v>379</v>
       </c>
       <c r="F97" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H97" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I97">
-        <v>19055293037</v>
-      </c>
-      <c r="J97" t="s">
+        <v>13433980104</v>
+      </c>
+      <c r="J97" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B98" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="C98" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="D98" t="s">
         <v>14</v>
       </c>
-      <c r="E98" s="20" t="s">
-        <v>384</v>
+      <c r="E98" t="s">
+        <v>393</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>817</v>
+        <v>19</v>
       </c>
       <c r="H98" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I98">
-        <v>12897552839</v>
-      </c>
-      <c r="J98" s="14" t="s">
-        <v>17</v>
+        <v>16477465430</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>385</v>
+        <v>28</v>
       </c>
       <c r="B99" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="C99" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="D99" t="s">
         <v>14</v>
       </c>
-      <c r="E99" s="20" t="s">
-        <v>388</v>
+      <c r="E99" t="s">
+        <v>393</v>
       </c>
       <c r="F99" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H99" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I99">
-        <v>13433740100</v>
-      </c>
-      <c r="J99" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14374101420</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>140</v>
-      </c>
-      <c r="B100" t="s">
-        <v>389</v>
+        <v>23</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>382</v>
       </c>
       <c r="C100" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="D100" t="s">
         <v>14</v>
       </c>
       <c r="E100" s="20" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>19</v>
+        <v>808</v>
       </c>
       <c r="H100" t="s">
         <v>20</v>
       </c>
       <c r="I100">
-        <v>13433980104</v>
+        <v>14169779343</v>
       </c>
       <c r="J100" s="14" t="s">
         <v>17</v>
@@ -6199,100 +6168,103 @@
     </row>
     <row r="101" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>13</v>
+        <v>395</v>
       </c>
       <c r="B101" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C101" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D101" t="s">
         <v>14</v>
       </c>
       <c r="E101" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="F101" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H101" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I101">
-        <v>16477465430</v>
+        <v>15193892839</v>
+      </c>
+      <c r="J101" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B102" t="s">
+        <v>399</v>
+      </c>
+      <c r="C102" t="s">
         <v>400</v>
       </c>
-      <c r="C102" t="s">
-        <v>403</v>
-      </c>
       <c r="D102" t="s">
         <v>14</v>
       </c>
       <c r="E102" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F102" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H102" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I102">
-        <v>14374101420</v>
+        <v>18777990420</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>23</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>391</v>
+        <v>30</v>
+      </c>
+      <c r="B103" t="s">
+        <v>399</v>
       </c>
       <c r="C103" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="D103" t="s">
         <v>14</v>
       </c>
-      <c r="E103" s="20" t="s">
-        <v>393</v>
+      <c r="E103" t="s">
+        <v>401</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>817</v>
+        <v>19</v>
       </c>
       <c r="H103" t="s">
         <v>20</v>
       </c>
       <c r="I103">
-        <v>14169779343</v>
-      </c>
-      <c r="J103" s="14" t="s">
+        <v>19056286324</v>
+      </c>
+      <c r="J103" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
+        <v>115</v>
+      </c>
+      <c r="B104" t="s">
+        <v>403</v>
+      </c>
+      <c r="C104" t="s">
         <v>404</v>
       </c>
-      <c r="B104" t="s">
-        <v>405</v>
-      </c>
-      <c r="C104" t="s">
-        <v>406</v>
-      </c>
       <c r="D104" t="s">
         <v>14</v>
       </c>
       <c r="E104" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="F104" s="6" t="s">
         <v>19</v>
@@ -6301,7 +6273,7 @@
         <v>20</v>
       </c>
       <c r="I104">
-        <v>15193892839</v>
+        <v>12894260469</v>
       </c>
       <c r="J104" t="s">
         <v>17</v>
@@ -6309,74 +6281,77 @@
     </row>
     <row r="105" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>30</v>
+        <v>405</v>
       </c>
       <c r="B105" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C105" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D105" t="s">
         <v>14</v>
       </c>
       <c r="E105" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="F105" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H105" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I105">
-        <v>18777990420</v>
+        <v>12894480170</v>
+      </c>
+      <c r="J105" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B106" t="s">
+        <v>407</v>
+      </c>
+      <c r="C106" t="s">
         <v>408</v>
       </c>
-      <c r="C106" t="s">
-        <v>411</v>
-      </c>
       <c r="D106" t="s">
         <v>14</v>
       </c>
       <c r="E106" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F106" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H106" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="I106">
-        <v>19056286324</v>
+        <v>14167926477</v>
       </c>
       <c r="J106" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="B107" t="s">
+        <v>410</v>
+      </c>
+      <c r="C107" t="s">
+        <v>411</v>
+      </c>
+      <c r="D107" t="s">
+        <v>14</v>
+      </c>
+      <c r="E107" t="s">
         <v>412</v>
-      </c>
-      <c r="C107" t="s">
-        <v>413</v>
-      </c>
-      <c r="D107" t="s">
-        <v>14</v>
-      </c>
-      <c r="E107" t="s">
-        <v>410</v>
       </c>
       <c r="F107" s="6" t="s">
         <v>19</v>
@@ -6385,7 +6360,7 @@
         <v>20</v>
       </c>
       <c r="I107">
-        <v>12894260469</v>
+        <v>16135367110</v>
       </c>
       <c r="J107" t="s">
         <v>17</v>
@@ -6393,28 +6368,28 @@
     </row>
     <row r="108" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
+        <v>37</v>
+      </c>
+      <c r="B108" t="s">
+        <v>413</v>
+      </c>
+      <c r="C108" t="s">
         <v>414</v>
       </c>
-      <c r="B108" t="s">
-        <v>408</v>
-      </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
+        <v>14</v>
+      </c>
+      <c r="E108" t="s">
         <v>415</v>
       </c>
-      <c r="D108" t="s">
-        <v>14</v>
-      </c>
-      <c r="E108" t="s">
-        <v>410</v>
-      </c>
       <c r="F108" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H108" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I108">
-        <v>12894480170</v>
+        <v>16138364420</v>
       </c>
       <c r="J108" t="s">
         <v>17</v>
@@ -6422,7 +6397,7 @@
     </row>
     <row r="109" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B109" t="s">
         <v>416</v>
@@ -6440,68 +6415,65 @@
         <v>19</v>
       </c>
       <c r="H109" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I109">
-        <v>14167926477</v>
-      </c>
-      <c r="J109" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19055476002</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>54</v>
+        <v>387</v>
       </c>
       <c r="B110" t="s">
-        <v>419</v>
+        <v>388</v>
       </c>
       <c r="C110" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
       <c r="D110" t="s">
         <v>14</v>
       </c>
-      <c r="E110" t="s">
-        <v>421</v>
+      <c r="E110" s="20" t="s">
+        <v>390</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>19</v>
+        <v>857</v>
       </c>
       <c r="H110" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I110">
-        <v>16135367110</v>
-      </c>
-      <c r="J110" t="s">
+        <v>18078538888</v>
+      </c>
+      <c r="J110" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B111" t="s">
+        <v>420</v>
+      </c>
+      <c r="C111" t="s">
+        <v>421</v>
+      </c>
+      <c r="D111" t="s">
+        <v>14</v>
+      </c>
+      <c r="E111" t="s">
         <v>422</v>
       </c>
-      <c r="C111" t="s">
-        <v>423</v>
-      </c>
-      <c r="D111" t="s">
-        <v>14</v>
-      </c>
-      <c r="E111" t="s">
-        <v>424</v>
-      </c>
       <c r="F111" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H111" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I111">
-        <v>16138364420</v>
+        <v>14165469944</v>
       </c>
       <c r="J111" t="s">
         <v>17</v>
@@ -6509,19 +6481,19 @@
     </row>
     <row r="112" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>30</v>
+        <v>423</v>
       </c>
       <c r="B112" t="s">
+        <v>424</v>
+      </c>
+      <c r="C112" t="s">
         <v>425</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
+        <v>14</v>
+      </c>
+      <c r="E112" t="s">
         <v>426</v>
-      </c>
-      <c r="D112" t="s">
-        <v>14</v>
-      </c>
-      <c r="E112" t="s">
-        <v>427</v>
       </c>
       <c r="F112" s="6" t="s">
         <v>19</v>
@@ -6530,62 +6502,62 @@
         <v>18</v>
       </c>
       <c r="I112">
-        <v>19055476002</v>
+        <v>12894790420</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>396</v>
+        <v>33</v>
       </c>
       <c r="B113" t="s">
-        <v>397</v>
+        <v>427</v>
       </c>
       <c r="C113" t="s">
-        <v>398</v>
+        <v>428</v>
       </c>
       <c r="D113" t="s">
         <v>14</v>
       </c>
-      <c r="E113" s="20" t="s">
-        <v>399</v>
+      <c r="E113" t="s">
+        <v>429</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>866</v>
+        <v>19</v>
       </c>
       <c r="H113" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I113">
-        <v>18078538888</v>
-      </c>
-      <c r="J113" s="14" t="s">
-        <v>17</v>
+        <v>14165260000</v>
+      </c>
+      <c r="J113" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B114" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C114" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D114" t="s">
         <v>14</v>
       </c>
       <c r="E114" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F114" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H114" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I114">
-        <v>14165469944</v>
+        <v>16472779835</v>
       </c>
       <c r="J114" t="s">
         <v>17</v>
@@ -6593,7 +6565,7 @@
     </row>
     <row r="115" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>432</v>
+        <v>28</v>
       </c>
       <c r="B115" t="s">
         <v>433</v>
@@ -6611,50 +6583,53 @@
         <v>19</v>
       </c>
       <c r="H115" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I115">
-        <v>12894790420</v>
+        <v>14163951945</v>
+      </c>
+      <c r="J115" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B116" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C116" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="D116" t="s">
         <v>14</v>
       </c>
       <c r="E116" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="F116" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H116" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I116">
-        <v>14165260000</v>
+        <v>12893896764</v>
       </c>
       <c r="J116" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="B117" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C117" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="D117" t="s">
         <v>14</v>
@@ -6666,97 +6641,100 @@
         <v>19</v>
       </c>
       <c r="H117" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I117">
-        <v>16472779835</v>
+        <v>12893896764</v>
       </c>
       <c r="J117" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>28</v>
+        <v>436</v>
       </c>
       <c r="B118" t="s">
-        <v>442</v>
+        <v>64</v>
       </c>
       <c r="C118" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="D118" t="s">
         <v>14</v>
       </c>
-      <c r="E118" t="s">
-        <v>444</v>
+      <c r="E118" s="20" t="s">
+        <v>438</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>19</v>
+        <v>869</v>
       </c>
       <c r="H118" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I118">
-        <v>14163951945</v>
-      </c>
-      <c r="J118" t="s">
-        <v>17</v>
+        <v>12267224367</v>
+      </c>
+      <c r="J118" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B119" t="s">
+        <v>444</v>
+      </c>
+      <c r="C119" t="s">
+        <v>446</v>
+      </c>
+      <c r="D119" t="s">
+        <v>14</v>
+      </c>
+      <c r="E119" t="s">
+        <v>445</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H119" t="s">
+        <v>34</v>
+      </c>
+      <c r="I119">
+        <v>14162564815</v>
+      </c>
+      <c r="J119" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>60</v>
+      </c>
+      <c r="B120" t="s">
+        <v>447</v>
+      </c>
+      <c r="C120" t="s">
         <v>448</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D120" t="s">
+        <v>14</v>
+      </c>
+      <c r="E120" t="s">
         <v>449</v>
       </c>
-      <c r="D119" t="s">
-        <v>14</v>
-      </c>
-      <c r="E119" t="s">
-        <v>450</v>
-      </c>
-      <c r="F119" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H119" t="s">
-        <v>20</v>
-      </c>
-      <c r="I119">
-        <v>12893896764</v>
-      </c>
-      <c r="J119" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>73</v>
-      </c>
-      <c r="B120" t="s">
-        <v>451</v>
-      </c>
-      <c r="C120" t="s">
-        <v>452</v>
-      </c>
-      <c r="D120" t="s">
-        <v>14</v>
-      </c>
-      <c r="E120" t="s">
-        <v>450</v>
-      </c>
       <c r="F120" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="G120" s="13" t="s">
+        <v>853</v>
       </c>
       <c r="H120" t="s">
         <v>20</v>
       </c>
       <c r="I120">
-        <v>12893896764</v>
+        <v>16473451819</v>
       </c>
       <c r="J120" t="s">
         <v>17</v>
@@ -6764,31 +6742,31 @@
     </row>
     <row r="121" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="B121" t="s">
-        <v>64</v>
+        <v>452</v>
       </c>
       <c r="C121" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="D121" t="s">
         <v>14</v>
       </c>
-      <c r="E121" s="20" t="s">
-        <v>447</v>
+      <c r="E121" t="s">
+        <v>454</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>880</v>
+        <v>19</v>
       </c>
       <c r="H121" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I121">
-        <v>12267224367</v>
-      </c>
-      <c r="J121" s="14" t="s">
-        <v>39</v>
+        <v>17059350053</v>
+      </c>
+      <c r="J121" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -6796,57 +6774,51 @@
         <v>60</v>
       </c>
       <c r="B122" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C122" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D122" t="s">
         <v>14</v>
       </c>
       <c r="E122" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="F122" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H122" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I122">
-        <v>14162564815</v>
-      </c>
-      <c r="J122" t="s">
-        <v>35</v>
+        <v>14165512030</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>60</v>
+        <v>458</v>
       </c>
       <c r="B123" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C123" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="D123" t="s">
         <v>14</v>
       </c>
       <c r="E123" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G123" s="13" t="s">
-        <v>862</v>
+        <v>19</v>
       </c>
       <c r="H123" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I123">
-        <v>16473451819</v>
+        <v>17053621118</v>
       </c>
       <c r="J123" t="s">
         <v>17</v>
@@ -6854,19 +6826,19 @@
     </row>
     <row r="124" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="B124" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="C124" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D124" t="s">
         <v>14</v>
       </c>
       <c r="E124" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="F124" s="6" t="s">
         <v>19</v>
@@ -6875,7 +6847,7 @@
         <v>20</v>
       </c>
       <c r="I124">
-        <v>17059350053</v>
+        <v>19058877555</v>
       </c>
       <c r="J124" t="s">
         <v>17</v>
@@ -6883,54 +6855,57 @@
     </row>
     <row r="125" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="B125" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="C125" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="D125" t="s">
         <v>14</v>
       </c>
       <c r="E125" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F125" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H125" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I125">
-        <v>14165512030</v>
+        <v>14162316003</v>
+      </c>
+      <c r="J125" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>467</v>
+        <v>80</v>
       </c>
       <c r="B126" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C126" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="D126" t="s">
         <v>14</v>
       </c>
       <c r="E126" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="F126" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H126" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I126">
-        <v>17053621118</v>
+        <v>15192563602</v>
       </c>
       <c r="J126" t="s">
         <v>17</v>
@@ -6938,7 +6913,7 @@
     </row>
     <row r="127" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>473</v>
+        <v>43</v>
       </c>
       <c r="B127" t="s">
         <v>474</v>
@@ -6959,7 +6934,7 @@
         <v>20</v>
       </c>
       <c r="I127">
-        <v>19058877555</v>
+        <v>19056419333</v>
       </c>
       <c r="J127" t="s">
         <v>17</v>
@@ -6967,19 +6942,19 @@
     </row>
     <row r="128" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="B128" t="s">
+        <v>81</v>
+      </c>
+      <c r="C128" t="s">
         <v>477</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
+        <v>14</v>
+      </c>
+      <c r="E128" t="s">
         <v>478</v>
-      </c>
-      <c r="D128" t="s">
-        <v>14</v>
-      </c>
-      <c r="E128" t="s">
-        <v>479</v>
       </c>
       <c r="F128" s="6" t="s">
         <v>19</v>
@@ -6988,7 +6963,7 @@
         <v>20</v>
       </c>
       <c r="I128">
-        <v>14162316003</v>
+        <v>17052525599</v>
       </c>
       <c r="J128" t="s">
         <v>17</v>
@@ -6996,48 +6971,48 @@
     </row>
     <row r="129" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="B129" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C129" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D129" t="s">
         <v>14</v>
       </c>
       <c r="E129" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="F129" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H129" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="I129">
-        <v>15192563602</v>
+        <v>16137314367</v>
       </c>
       <c r="J129" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="130" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B130" t="s">
-        <v>483</v>
+        <v>462</v>
       </c>
       <c r="C130" t="s">
-        <v>484</v>
+        <v>463</v>
       </c>
       <c r="D130" t="s">
         <v>14</v>
       </c>
-      <c r="E130" t="s">
-        <v>485</v>
+      <c r="E130" s="20" t="s">
+        <v>872</v>
       </c>
       <c r="F130" s="6" t="s">
         <v>19</v>
@@ -7046,68 +7021,65 @@
         <v>20</v>
       </c>
       <c r="I130">
-        <v>19056419333</v>
-      </c>
-      <c r="J130" t="s">
-        <v>17</v>
+        <v>16134351420</v>
+      </c>
+      <c r="J130" s="14" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="B131" t="s">
-        <v>82</v>
+        <v>486</v>
       </c>
       <c r="C131" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D131" t="s">
         <v>14</v>
       </c>
       <c r="E131" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F131" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H131" t="s">
+        <v>18</v>
+      </c>
+      <c r="I131">
+        <v>14167629922</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>80</v>
+      </c>
+      <c r="B132" t="s">
+        <v>479</v>
+      </c>
+      <c r="C132" t="s">
+        <v>480</v>
+      </c>
+      <c r="D132" t="s">
+        <v>14</v>
+      </c>
+      <c r="E132" s="20" t="s">
+        <v>481</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>851</v>
+      </c>
+      <c r="H132" t="s">
         <v>20</v>
       </c>
-      <c r="I131">
-        <v>17052525599</v>
-      </c>
-      <c r="J131" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>41</v>
-      </c>
-      <c r="B132" t="s">
-        <v>491</v>
-      </c>
-      <c r="C132" t="s">
-        <v>492</v>
-      </c>
-      <c r="D132" t="s">
-        <v>14</v>
-      </c>
-      <c r="E132" t="s">
-        <v>493</v>
-      </c>
-      <c r="F132" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H132" t="s">
-        <v>36</v>
-      </c>
       <c r="I132">
-        <v>16137314367</v>
-      </c>
-      <c r="J132" t="s">
-        <v>35</v>
+        <v>12267732105</v>
+      </c>
+      <c r="J132" s="14" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="133" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -7115,88 +7087,91 @@
         <v>37</v>
       </c>
       <c r="B133" t="s">
-        <v>471</v>
+        <v>489</v>
       </c>
       <c r="C133" t="s">
-        <v>472</v>
+        <v>490</v>
       </c>
       <c r="D133" t="s">
         <v>14</v>
       </c>
-      <c r="E133" s="20" t="s">
-        <v>883</v>
+      <c r="E133" t="s">
+        <v>491</v>
       </c>
       <c r="F133" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H133" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I133">
-        <v>16134351420</v>
-      </c>
-      <c r="J133" s="14" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>13435881547</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B134" t="s">
+        <v>99</v>
+      </c>
+      <c r="C134" t="s">
+        <v>493</v>
+      </c>
+      <c r="D134" t="s">
+        <v>14</v>
+      </c>
+      <c r="E134" t="s">
+        <v>492</v>
+      </c>
+      <c r="F134" s="6" t="s">
+        <v>837</v>
+      </c>
+      <c r="H134" t="s">
+        <v>852</v>
+      </c>
+      <c r="I134">
+        <v>16134401420</v>
+      </c>
+      <c r="J134" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>494</v>
+      </c>
+      <c r="B135" t="s">
         <v>495</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C135" t="s">
         <v>496</v>
       </c>
-      <c r="D134" t="s">
-        <v>14</v>
-      </c>
-      <c r="E134" t="s">
-        <v>497</v>
-      </c>
-      <c r="F134" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H134" t="s">
-        <v>18</v>
-      </c>
-      <c r="I134">
-        <v>14167629922</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>81</v>
-      </c>
-      <c r="B135" t="s">
-        <v>488</v>
-      </c>
-      <c r="C135" t="s">
-        <v>489</v>
-      </c>
       <c r="D135" t="s">
         <v>14</v>
       </c>
       <c r="E135" s="20" t="s">
-        <v>490</v>
+        <v>875</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="H135" t="s">
         <v>20</v>
       </c>
       <c r="I135">
-        <v>12267732105</v>
+        <v>18076980012</v>
       </c>
       <c r="J135" s="14" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>874</v>
+      </c>
+      <c r="K135" s="14" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>37</v>
+        <v>497</v>
       </c>
       <c r="B136" t="s">
         <v>498</v>
@@ -7207,112 +7182,112 @@
       <c r="D136" t="s">
         <v>14</v>
       </c>
-      <c r="E136" t="s">
-        <v>500</v>
+      <c r="E136" s="20" t="s">
+        <v>877</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>19</v>
+        <v>857</v>
       </c>
       <c r="H136" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I136">
-        <v>13435881547</v>
+        <v>18076989420</v>
+      </c>
+      <c r="J136" s="14" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="137" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="B137" t="s">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="C137" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D137" t="s">
         <v>14</v>
       </c>
-      <c r="E137" t="s">
-        <v>501</v>
+      <c r="E137" s="20" t="s">
+        <v>880</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>846</v>
+        <v>19</v>
       </c>
       <c r="H137" t="s">
-        <v>861</v>
+        <v>38</v>
       </c>
       <c r="I137">
-        <v>16134401420</v>
-      </c>
-      <c r="J137" t="s">
-        <v>863</v>
+        <v>15193071300</v>
+      </c>
+      <c r="J137" s="14" t="s">
+        <v>878</v>
+      </c>
+      <c r="K137" s="14" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="138" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>503</v>
+        <v>267</v>
       </c>
       <c r="B138" t="s">
+        <v>230</v>
+      </c>
+      <c r="C138" t="s">
         <v>504</v>
       </c>
-      <c r="C138" t="s">
+      <c r="D138" t="s">
+        <v>14</v>
+      </c>
+      <c r="E138" t="s">
         <v>505</v>
       </c>
-      <c r="D138" t="s">
-        <v>14</v>
-      </c>
-      <c r="E138" s="20" t="s">
-        <v>886</v>
-      </c>
       <c r="F138" s="6" t="s">
-        <v>866</v>
+        <v>19</v>
       </c>
       <c r="H138" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="I138">
-        <v>18076980012</v>
-      </c>
-      <c r="J138" s="14" t="s">
-        <v>885</v>
-      </c>
-      <c r="K138" s="14" t="s">
-        <v>887</v>
+        <v>16135065874</v>
+      </c>
+      <c r="J138" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="139" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
+        <v>30</v>
+      </c>
+      <c r="B139" t="s">
         <v>506</v>
       </c>
-      <c r="B139" t="s">
+      <c r="C139" t="s">
         <v>507</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D139" t="s">
+        <v>14</v>
+      </c>
+      <c r="E139" t="s">
         <v>508</v>
       </c>
-      <c r="D139" t="s">
-        <v>14</v>
-      </c>
-      <c r="E139" s="20" t="s">
-        <v>888</v>
-      </c>
       <c r="F139" s="6" t="s">
-        <v>866</v>
+        <v>19</v>
       </c>
       <c r="H139" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="I139">
-        <v>18076989420</v>
-      </c>
-      <c r="J139" s="14" t="s">
-        <v>885</v>
+        <v>19055220184</v>
       </c>
     </row>
     <row r="140" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="B140" t="s">
         <v>509</v>
@@ -7323,460 +7298,460 @@
       <c r="D140" t="s">
         <v>14</v>
       </c>
-      <c r="E140" s="20" t="s">
-        <v>891</v>
+      <c r="E140" t="s">
+        <v>511</v>
       </c>
       <c r="F140" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H140" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I140">
-        <v>15193071300</v>
-      </c>
-      <c r="J140" s="14" t="s">
-        <v>889</v>
-      </c>
-      <c r="K140" s="14" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14167785659</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
+        <v>56</v>
+      </c>
+      <c r="B141" t="s">
+        <v>502</v>
+      </c>
+      <c r="C141" t="s">
         <v>268</v>
       </c>
-      <c r="B141" t="s">
-        <v>231</v>
-      </c>
-      <c r="C141" t="s">
-        <v>513</v>
-      </c>
       <c r="D141" t="s">
-        <v>14</v>
-      </c>
-      <c r="E141" t="s">
-        <v>514</v>
+        <v>110</v>
+      </c>
+      <c r="E141" s="20" t="s">
+        <v>503</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>19</v>
+        <v>808</v>
       </c>
       <c r="H141" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I141">
-        <v>16135065874</v>
-      </c>
-      <c r="J141" t="s">
-        <v>35</v>
+        <v>12899806868</v>
+      </c>
+      <c r="J141" s="14" t="s">
+        <v>881</v>
+      </c>
+      <c r="K141" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="142" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B142" t="s">
+        <v>238</v>
+      </c>
+      <c r="C142" t="s">
+        <v>512</v>
+      </c>
+      <c r="D142" t="s">
+        <v>14</v>
+      </c>
+      <c r="E142" t="s">
+        <v>513</v>
+      </c>
+      <c r="F142" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H142" t="s">
+        <v>20</v>
+      </c>
+      <c r="I142">
+        <v>14167833008</v>
+      </c>
+      <c r="J142" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>46</v>
+      </c>
+      <c r="B143" t="s">
+        <v>514</v>
+      </c>
+      <c r="C143" t="s">
         <v>515</v>
       </c>
-      <c r="C142" t="s">
+      <c r="D143" t="s">
+        <v>14</v>
+      </c>
+      <c r="E143" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="D142" t="s">
-        <v>14</v>
-      </c>
-      <c r="E142" t="s">
+      <c r="F143" s="6" t="s">
+        <v>857</v>
+      </c>
+      <c r="H143" t="s">
+        <v>22</v>
+      </c>
+      <c r="I143">
+        <v>17058814629</v>
+      </c>
+      <c r="J143" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>42</v>
+      </c>
+      <c r="B144" t="s">
+        <v>239</v>
+      </c>
+      <c r="C144" t="s">
         <v>517</v>
       </c>
-      <c r="F142" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H142" t="s">
-        <v>63</v>
-      </c>
-      <c r="I142">
-        <v>19055220184</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
-        <v>23</v>
-      </c>
-      <c r="B143" t="s">
-        <v>518</v>
-      </c>
-      <c r="C143" t="s">
-        <v>519</v>
-      </c>
-      <c r="D143" t="s">
-        <v>14</v>
-      </c>
-      <c r="E143" t="s">
-        <v>520</v>
-      </c>
-      <c r="F143" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H143" t="s">
-        <v>18</v>
-      </c>
-      <c r="I143">
-        <v>14167785659</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
-        <v>56</v>
-      </c>
-      <c r="B144" t="s">
-        <v>511</v>
-      </c>
-      <c r="C144" t="s">
-        <v>269</v>
-      </c>
       <c r="D144" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="E144" s="20" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>817</v>
+        <v>857</v>
       </c>
       <c r="H144" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I144">
-        <v>12899806868</v>
-      </c>
-      <c r="J144" s="14" t="s">
-        <v>892</v>
-      </c>
-      <c r="K144" t="s">
-        <v>893</v>
+        <v>17053250068</v>
+      </c>
+      <c r="J144" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="145" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B145" t="s">
-        <v>239</v>
+        <v>526</v>
       </c>
       <c r="C145" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="D145" t="s">
         <v>14</v>
       </c>
       <c r="E145" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="F145" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H145" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I145">
-        <v>14167833008</v>
-      </c>
-      <c r="J145" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19057043664</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="B146" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="C146" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="D146" t="s">
         <v>14</v>
       </c>
       <c r="E146" s="20" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="F146" s="6" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
       <c r="H146" t="s">
         <v>22</v>
       </c>
       <c r="I146">
-        <v>17058814629</v>
+        <v>14165199159</v>
       </c>
       <c r="J146" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B147" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C147" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="D147" t="s">
         <v>14</v>
       </c>
       <c r="E147" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="F147" s="6" t="s">
+        <v>857</v>
+      </c>
+      <c r="H147" t="s">
+        <v>29</v>
+      </c>
+      <c r="I147">
+        <v>17057071595</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>120</v>
+      </c>
+      <c r="B148" t="s">
+        <v>523</v>
+      </c>
+      <c r="C148" t="s">
+        <v>524</v>
+      </c>
+      <c r="D148" t="s">
+        <v>14</v>
+      </c>
+      <c r="E148" s="20" t="s">
         <v>525</v>
       </c>
-      <c r="F147" s="6" t="s">
-        <v>866</v>
-      </c>
-      <c r="H147" t="s">
-        <v>22</v>
-      </c>
-      <c r="I147">
-        <v>17053250068</v>
-      </c>
-      <c r="J147" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
-        <v>43</v>
-      </c>
-      <c r="B148" t="s">
-        <v>535</v>
-      </c>
-      <c r="C148" t="s">
-        <v>536</v>
-      </c>
-      <c r="D148" t="s">
-        <v>14</v>
-      </c>
-      <c r="E148" t="s">
-        <v>537</v>
-      </c>
       <c r="F148" s="6" t="s">
-        <v>19</v>
+        <v>808</v>
       </c>
       <c r="H148" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I148">
-        <v>19057043664</v>
+        <v>19052395300</v>
+      </c>
+      <c r="J148" s="14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="149" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>23</v>
+        <v>405</v>
       </c>
       <c r="B149" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C149" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D149" t="s">
         <v>14</v>
       </c>
-      <c r="E149" s="20" t="s">
-        <v>529</v>
+      <c r="E149" t="s">
+        <v>531</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>866</v>
+        <v>19</v>
       </c>
       <c r="H149" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I149">
-        <v>14165199159</v>
+        <v>19059308827</v>
       </c>
       <c r="J149" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="150" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="B150" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="C150" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D150" t="s">
         <v>14</v>
       </c>
-      <c r="E150" s="20" t="s">
-        <v>531</v>
+      <c r="E150" t="s">
+        <v>533</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>866</v>
+        <v>19</v>
       </c>
       <c r="H150" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I150">
-        <v>17057071595</v>
+        <v>16134222211</v>
+      </c>
+      <c r="J150" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="151" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>121</v>
+        <v>284</v>
       </c>
       <c r="B151" t="s">
-        <v>532</v>
+        <v>257</v>
       </c>
       <c r="C151" t="s">
+        <v>534</v>
+      </c>
+      <c r="D151" t="s">
+        <v>14</v>
+      </c>
+      <c r="E151" t="s">
         <v>533</v>
       </c>
-      <c r="D151" t="s">
-        <v>14</v>
-      </c>
-      <c r="E151" s="20" t="s">
-        <v>534</v>
-      </c>
       <c r="F151" s="6" t="s">
-        <v>817</v>
+        <v>19</v>
       </c>
       <c r="H151" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I151">
-        <v>19052395300</v>
-      </c>
-      <c r="J151" s="14" t="s">
-        <v>17</v>
+        <v>16134222211</v>
+      </c>
+      <c r="J151" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="152" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>414</v>
+        <v>41</v>
       </c>
       <c r="B152" t="s">
-        <v>538</v>
+        <v>257</v>
       </c>
       <c r="C152" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="D152" t="s">
         <v>14</v>
       </c>
       <c r="E152" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="F152" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H152" t="s">
-        <v>34</v>
+        <v>209</v>
       </c>
       <c r="I152">
-        <v>19059308827</v>
+        <v>16134222211</v>
       </c>
       <c r="J152" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="153" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="B153" t="s">
-        <v>258</v>
+        <v>537</v>
       </c>
       <c r="C153" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D153" t="s">
         <v>14</v>
       </c>
       <c r="E153" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="F153" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H153" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I153">
-        <v>16134222211</v>
+        <v>19056323154</v>
       </c>
       <c r="J153" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="154" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>293</v>
+        <v>23</v>
       </c>
       <c r="B154" t="s">
-        <v>258</v>
+        <v>539</v>
       </c>
       <c r="C154" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D154" t="s">
         <v>14</v>
       </c>
       <c r="E154" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F154" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H154" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I154">
-        <v>16134222211</v>
+        <v>14166910899</v>
       </c>
       <c r="J154" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="155" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="B155" t="s">
-        <v>258</v>
+        <v>542</v>
       </c>
       <c r="C155" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D155" t="s">
         <v>14</v>
       </c>
       <c r="E155" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F155" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H155" t="s">
-        <v>210</v>
+        <v>20</v>
       </c>
       <c r="I155">
-        <v>16134222211</v>
+        <v>14164105442</v>
       </c>
       <c r="J155" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="156" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="B156" t="s">
-        <v>546</v>
+        <v>126</v>
       </c>
       <c r="C156" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D156" t="s">
         <v>14</v>
@@ -7788,140 +7763,137 @@
         <v>19</v>
       </c>
       <c r="H156" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I156">
-        <v>19056323154</v>
-      </c>
-      <c r="J156" t="s">
-        <v>35</v>
+        <v>15199443180</v>
       </c>
     </row>
     <row r="157" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B157" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C157" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D157" t="s">
         <v>14</v>
       </c>
       <c r="E157" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F157" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H157" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I157">
-        <v>14166910899</v>
-      </c>
-      <c r="J157" t="s">
-        <v>17</v>
+        <v>19055745323</v>
       </c>
     </row>
     <row r="158" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="B158" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C158" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D158" t="s">
         <v>14</v>
       </c>
       <c r="E158" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="F158" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H158" t="s">
+        <v>18</v>
+      </c>
+      <c r="I158">
+        <v>14165852263</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>23</v>
+      </c>
+      <c r="B159" t="s">
+        <v>547</v>
+      </c>
+      <c r="C159" t="s">
+        <v>548</v>
+      </c>
+      <c r="D159" t="s">
+        <v>14</v>
+      </c>
+      <c r="E159" s="20" t="s">
+        <v>546</v>
+      </c>
+      <c r="F159" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="H159" t="s">
         <v>20</v>
       </c>
-      <c r="I158">
-        <v>14164105442</v>
-      </c>
-      <c r="J158" t="s">
+      <c r="I159">
+        <v>14167922447</v>
+      </c>
+      <c r="J159" s="14" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
-        <v>81</v>
-      </c>
-      <c r="B159" t="s">
-        <v>127</v>
-      </c>
-      <c r="C159" t="s">
-        <v>553</v>
-      </c>
-      <c r="D159" t="s">
-        <v>14</v>
-      </c>
-      <c r="E159" t="s">
-        <v>554</v>
-      </c>
-      <c r="F159" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H159" t="s">
-        <v>18</v>
-      </c>
-      <c r="I159">
-        <v>15199443180</v>
       </c>
     </row>
     <row r="160" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B160" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C160" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D160" t="s">
         <v>14</v>
       </c>
       <c r="E160" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="F160" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H160" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I160">
-        <v>19055745323</v>
+        <v>19054973131</v>
+      </c>
+      <c r="J160" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="161" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>23</v>
+        <v>561</v>
       </c>
       <c r="B161" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C161" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D161" t="s">
         <v>14</v>
       </c>
       <c r="E161" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F161" s="6" t="s">
         <v>19</v>
@@ -7930,36 +7902,39 @@
         <v>18</v>
       </c>
       <c r="I161">
-        <v>14165852263</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16133995777</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>23</v>
+        <v>191</v>
       </c>
       <c r="B162" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C162" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="D162" t="s">
         <v>14</v>
       </c>
       <c r="E162" s="20" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="F162" s="6" t="s">
-        <v>817</v>
+        <v>851</v>
       </c>
       <c r="H162" t="s">
         <v>20</v>
       </c>
       <c r="I162">
-        <v>14167922447</v>
+        <v>17053449086</v>
       </c>
       <c r="J162" s="14" t="s">
-        <v>17</v>
+        <v>883</v>
+      </c>
+      <c r="K162" s="14" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="163" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -7967,103 +7942,106 @@
         <v>49</v>
       </c>
       <c r="B163" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C163" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D163" t="s">
         <v>14</v>
       </c>
-      <c r="E163" t="s">
-        <v>566</v>
+      <c r="E163" s="20" t="s">
+        <v>567</v>
       </c>
       <c r="F163" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H163" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I163">
-        <v>19054973131</v>
-      </c>
-      <c r="J163" t="s">
+        <v>19054979585</v>
+      </c>
+      <c r="J163" s="14" t="s">
         <v>17</v>
+      </c>
+      <c r="K163" s="26" t="s">
+        <v>885</v>
       </c>
     </row>
     <row r="164" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>570</v>
+        <v>49</v>
       </c>
       <c r="B164" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C164" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="D164" t="s">
         <v>14</v>
       </c>
       <c r="E164" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F164" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H164" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I164">
-        <v>16133995777</v>
+        <v>19052161012</v>
       </c>
     </row>
     <row r="165" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>192</v>
+        <v>49</v>
       </c>
       <c r="B165" t="s">
+        <v>568</v>
+      </c>
+      <c r="C165" t="s">
+        <v>569</v>
+      </c>
+      <c r="D165" t="s">
+        <v>14</v>
+      </c>
+      <c r="E165" s="20" t="s">
         <v>567</v>
       </c>
-      <c r="C165" t="s">
-        <v>568</v>
-      </c>
-      <c r="D165" t="s">
-        <v>14</v>
-      </c>
-      <c r="E165" s="20" t="s">
-        <v>569</v>
-      </c>
       <c r="F165" s="6" t="s">
-        <v>860</v>
+        <v>19</v>
       </c>
       <c r="H165" t="s">
         <v>20</v>
       </c>
       <c r="I165">
-        <v>17053449086</v>
+        <v>19054979522</v>
       </c>
       <c r="J165" s="14" t="s">
-        <v>894</v>
-      </c>
-      <c r="K165" s="14" t="s">
-        <v>895</v>
+        <v>17</v>
+      </c>
+      <c r="K165" s="26" t="s">
+        <v>885</v>
       </c>
     </row>
     <row r="166" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="B166" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C166" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="D166" t="s">
         <v>14</v>
       </c>
-      <c r="E166" s="20" t="s">
-        <v>576</v>
+      <c r="E166" t="s">
+        <v>580</v>
       </c>
       <c r="F166" s="6" t="s">
         <v>19</v>
@@ -8072,172 +8050,163 @@
         <v>16</v>
       </c>
       <c r="I166">
-        <v>19054979585</v>
-      </c>
-      <c r="J166" s="14" t="s">
+        <v>14164771489</v>
+      </c>
+      <c r="J166" t="s">
         <v>17</v>
-      </c>
-      <c r="K166" s="26" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="167" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="B167" t="s">
-        <v>584</v>
+        <v>565</v>
       </c>
       <c r="C167" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="D167" t="s">
         <v>14</v>
       </c>
-      <c r="E167" t="s">
-        <v>586</v>
+      <c r="E167" s="20" t="s">
+        <v>567</v>
       </c>
       <c r="F167" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H167" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I167">
-        <v>19052161012</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19054979550</v>
+      </c>
+      <c r="J167" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K167" s="26" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>49</v>
+        <v>571</v>
       </c>
       <c r="B168" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="C168" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="D168" t="s">
         <v>14</v>
       </c>
       <c r="E168" s="20" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F168" s="6" t="s">
-        <v>19</v>
+        <v>851</v>
       </c>
       <c r="H168" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="I168">
-        <v>19054979522</v>
+        <v>15198485656</v>
       </c>
       <c r="J168" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K168" s="26" t="s">
-        <v>896</v>
+        <v>886</v>
+      </c>
+      <c r="K168" s="14" t="s">
+        <v>887</v>
       </c>
     </row>
     <row r="169" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>23</v>
+        <v>583</v>
       </c>
       <c r="B169" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C169" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D169" t="s">
         <v>14</v>
       </c>
       <c r="E169" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="F169" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H169" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I169">
-        <v>14164771489</v>
-      </c>
-      <c r="J169" t="s">
-        <v>17</v>
+        <v>16139240007</v>
       </c>
     </row>
     <row r="170" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>123</v>
+        <v>587</v>
       </c>
       <c r="B170" t="s">
-        <v>574</v>
+        <v>588</v>
       </c>
       <c r="C170" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="D170" t="s">
         <v>14</v>
       </c>
-      <c r="E170" s="20" t="s">
-        <v>576</v>
+      <c r="E170" t="s">
+        <v>590</v>
       </c>
       <c r="F170" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H170" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I170">
-        <v>19054979550</v>
-      </c>
-      <c r="J170" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K170" s="26" t="s">
-        <v>896</v>
+        <v>18072272045</v>
       </c>
     </row>
     <row r="171" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>580</v>
+        <v>121</v>
       </c>
       <c r="B171" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="C171" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="D171" t="s">
         <v>14</v>
       </c>
-      <c r="E171" s="20" t="s">
-        <v>583</v>
+      <c r="E171" t="s">
+        <v>593</v>
       </c>
       <c r="F171" s="6" t="s">
-        <v>860</v>
+        <v>19</v>
       </c>
       <c r="H171" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I171">
-        <v>15198485656</v>
-      </c>
-      <c r="J171" s="14" t="s">
-        <v>897</v>
-      </c>
-      <c r="K171" s="14" t="s">
-        <v>898</v>
+        <v>15197848420</v>
+      </c>
+      <c r="J171" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="172" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>592</v>
-      </c>
-      <c r="B172" t="s">
-        <v>593</v>
+        <v>23</v>
+      </c>
+      <c r="B172">
+        <v>1922</v>
       </c>
       <c r="C172" t="s">
         <v>594</v>
@@ -8252,73 +8221,79 @@
         <v>19</v>
       </c>
       <c r="H172" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="I172">
-        <v>16139240007</v>
+        <v>14162628744</v>
+      </c>
+      <c r="J172" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="173" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
+        <v>33</v>
+      </c>
+      <c r="B173" t="s">
         <v>596</v>
       </c>
-      <c r="B173" t="s">
+      <c r="C173" t="s">
         <v>597</v>
       </c>
-      <c r="C173" t="s">
+      <c r="D173" t="s">
+        <v>14</v>
+      </c>
+      <c r="E173" t="s">
         <v>598</v>
       </c>
-      <c r="D173" t="s">
-        <v>14</v>
-      </c>
-      <c r="E173" t="s">
-        <v>599</v>
-      </c>
       <c r="F173" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H173" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I173">
-        <v>18072272045</v>
+        <v>14162640777</v>
+      </c>
+      <c r="J173" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="174" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>122</v>
+        <v>60</v>
       </c>
       <c r="B174" t="s">
+        <v>599</v>
+      </c>
+      <c r="C174" t="s">
         <v>600</v>
       </c>
-      <c r="C174" t="s">
+      <c r="D174" t="s">
+        <v>14</v>
+      </c>
+      <c r="E174" t="s">
         <v>601</v>
       </c>
-      <c r="D174" t="s">
-        <v>14</v>
-      </c>
-      <c r="E174" t="s">
-        <v>602</v>
-      </c>
       <c r="F174" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H174" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="I174">
-        <v>15197848420</v>
+        <v>14165518982</v>
       </c>
       <c r="J174" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="175" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>23</v>
-      </c>
-      <c r="B175">
-        <v>1922</v>
+        <v>52</v>
+      </c>
+      <c r="B175" t="s">
+        <v>602</v>
       </c>
       <c r="C175" t="s">
         <v>603</v>
@@ -8333,13 +8308,13 @@
         <v>19</v>
       </c>
       <c r="H175" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I175">
-        <v>14162628744</v>
+        <v>15197586326</v>
       </c>
       <c r="J175" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="176" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -8347,167 +8322,167 @@
         <v>33</v>
       </c>
       <c r="B176" t="s">
+        <v>44</v>
+      </c>
+      <c r="C176" t="s">
         <v>605</v>
       </c>
-      <c r="C176" t="s">
+      <c r="D176" t="s">
+        <v>14</v>
+      </c>
+      <c r="E176" t="s">
         <v>606</v>
       </c>
-      <c r="D176" t="s">
-        <v>14</v>
-      </c>
-      <c r="E176" t="s">
-        <v>607</v>
-      </c>
       <c r="F176" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H176" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I176">
-        <v>14162640777</v>
-      </c>
-      <c r="J176" t="s">
-        <v>17</v>
+        <v>16477953809</v>
       </c>
     </row>
     <row r="177" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="B177" t="s">
+        <v>607</v>
+      </c>
+      <c r="C177" t="s">
         <v>608</v>
       </c>
-      <c r="C177" t="s">
+      <c r="D177" t="s">
+        <v>14</v>
+      </c>
+      <c r="E177" t="s">
         <v>609</v>
       </c>
-      <c r="D177" t="s">
-        <v>14</v>
-      </c>
-      <c r="E177" t="s">
-        <v>610</v>
-      </c>
       <c r="F177" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H177" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I177">
-        <v>14165518982</v>
+        <v>14166908081</v>
       </c>
       <c r="J177" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="178" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="B178" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C178" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D178" t="s">
         <v>14</v>
       </c>
       <c r="E178" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="F178" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H178" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I178">
-        <v>15197586326</v>
+        <v>14162837433</v>
       </c>
       <c r="J178" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="179" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>33</v>
+        <v>611</v>
       </c>
       <c r="B179" t="s">
-        <v>44</v>
+        <v>612</v>
       </c>
       <c r="C179" t="s">
+        <v>613</v>
+      </c>
+      <c r="D179" t="s">
+        <v>14</v>
+      </c>
+      <c r="E179" t="s">
         <v>614</v>
       </c>
-      <c r="D179" t="s">
-        <v>14</v>
-      </c>
-      <c r="E179" t="s">
-        <v>615</v>
-      </c>
       <c r="F179" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H179" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I179">
-        <v>16477953809</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16133590100</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="B180" t="s">
-        <v>616</v>
+        <v>155</v>
       </c>
       <c r="C180" t="s">
-        <v>617</v>
+        <v>581</v>
       </c>
       <c r="D180" t="s">
         <v>14</v>
       </c>
-      <c r="E180" t="s">
-        <v>618</v>
+      <c r="E180" s="20" t="s">
+        <v>582</v>
       </c>
       <c r="F180" s="6" t="s">
-        <v>19</v>
+        <v>851</v>
       </c>
       <c r="H180" t="s">
         <v>20</v>
       </c>
       <c r="I180">
-        <v>14166908081</v>
-      </c>
-      <c r="J180" t="s">
-        <v>17</v>
+        <v>19052782222</v>
+      </c>
+      <c r="J180" s="14" t="s">
+        <v>889</v>
+      </c>
+      <c r="K180" s="27" t="s">
+        <v>888</v>
       </c>
     </row>
     <row r="181" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>109</v>
+        <v>41</v>
       </c>
       <c r="B181" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="C181" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="D181" t="s">
         <v>14</v>
       </c>
       <c r="E181" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="F181" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H181" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I181">
-        <v>14162837433</v>
+        <v>16132333000</v>
       </c>
       <c r="J181" t="s">
         <v>17</v>
@@ -8515,106 +8490,97 @@
     </row>
     <row r="182" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>620</v>
+        <v>30</v>
       </c>
       <c r="B182" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="C182" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="D182" t="s">
         <v>14</v>
       </c>
       <c r="E182" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="F182" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H182" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I182">
-        <v>16133590100</v>
+        <v>12892461172</v>
       </c>
     </row>
     <row r="183" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="B183" t="s">
-        <v>156</v>
+        <v>627</v>
       </c>
       <c r="C183" t="s">
-        <v>590</v>
+        <v>628</v>
       </c>
       <c r="D183" t="s">
         <v>14</v>
       </c>
-      <c r="E183" s="20" t="s">
-        <v>591</v>
+      <c r="E183" t="s">
+        <v>626</v>
       </c>
       <c r="F183" s="6" t="s">
-        <v>860</v>
+        <v>19</v>
       </c>
       <c r="H183" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I183">
-        <v>19052782222</v>
-      </c>
-      <c r="J183" s="14" t="s">
-        <v>900</v>
-      </c>
-      <c r="K183" s="27" t="s">
-        <v>899</v>
+        <v>15199042637</v>
       </c>
     </row>
     <row r="184" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>41</v>
+        <v>629</v>
       </c>
       <c r="B184" t="s">
+        <v>627</v>
+      </c>
+      <c r="C184" t="s">
         <v>630</v>
       </c>
-      <c r="C184" t="s">
-        <v>631</v>
-      </c>
       <c r="D184" t="s">
         <v>14</v>
       </c>
       <c r="E184" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="F184" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H184" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I184">
-        <v>16132333000</v>
-      </c>
-      <c r="J184" t="s">
-        <v>17</v>
+        <v>12262530859</v>
       </c>
     </row>
     <row r="185" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="B185" t="s">
-        <v>633</v>
+        <v>198</v>
       </c>
       <c r="C185" t="s">
-        <v>634</v>
+        <v>366</v>
       </c>
       <c r="D185" t="s">
         <v>14</v>
       </c>
       <c r="E185" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="F185" s="6" t="s">
         <v>19</v>
@@ -8623,76 +8589,76 @@
         <v>18</v>
       </c>
       <c r="I185">
-        <v>12892461172</v>
+        <v>15193542255</v>
       </c>
     </row>
     <row r="186" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="B186" t="s">
-        <v>636</v>
+        <v>198</v>
       </c>
       <c r="C186" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="D186" t="s">
         <v>14</v>
       </c>
       <c r="E186" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="F186" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H186" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="I186">
-        <v>15199042637</v>
+        <v>15192582544</v>
       </c>
     </row>
     <row r="187" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>638</v>
+        <v>80</v>
       </c>
       <c r="B187" t="s">
-        <v>636</v>
+        <v>198</v>
       </c>
       <c r="C187" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="D187" t="s">
         <v>14</v>
       </c>
       <c r="E187" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F187" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H187" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I187">
-        <v>12262530859</v>
+        <v>15192500712</v>
       </c>
     </row>
     <row r="188" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="B188" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C188" t="s">
-        <v>375</v>
+        <v>635</v>
       </c>
       <c r="D188" t="s">
         <v>14</v>
       </c>
       <c r="E188" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="F188" s="6" t="s">
         <v>19</v>
@@ -8701,114 +8667,120 @@
         <v>18</v>
       </c>
       <c r="I188">
-        <v>15193542255</v>
+        <v>15199678818</v>
       </c>
     </row>
     <row r="189" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>81</v>
+        <v>636</v>
       </c>
       <c r="B189" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C189" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="D189" t="s">
         <v>14</v>
       </c>
       <c r="E189" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F189" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H189" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="I189">
-        <v>15192582544</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15195077830</v>
+      </c>
+      <c r="J189" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="B190" t="s">
-        <v>199</v>
+        <v>616</v>
       </c>
       <c r="C190" t="s">
-        <v>642</v>
+        <v>617</v>
       </c>
       <c r="D190" t="s">
         <v>14</v>
       </c>
-      <c r="E190" t="s">
-        <v>643</v>
+      <c r="E190" s="20" t="s">
+        <v>618</v>
       </c>
       <c r="F190" s="6" t="s">
-        <v>19</v>
+        <v>851</v>
       </c>
       <c r="H190" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I190">
-        <v>15192500712</v>
+        <v>19054530698</v>
+      </c>
+      <c r="J190" s="14" t="s">
+        <v>894</v>
       </c>
     </row>
     <row r="191" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>81</v>
+        <v>639</v>
       </c>
       <c r="B191" t="s">
-        <v>199</v>
+        <v>640</v>
       </c>
       <c r="C191" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D191" t="s">
         <v>14</v>
       </c>
       <c r="E191" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F191" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H191" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I191">
-        <v>15199678818</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16133722272</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>645</v>
+        <v>57</v>
       </c>
       <c r="B192" t="s">
-        <v>199</v>
+        <v>616</v>
       </c>
       <c r="C192" t="s">
-        <v>646</v>
+        <v>619</v>
       </c>
       <c r="D192" t="s">
         <v>14</v>
       </c>
-      <c r="E192" t="s">
-        <v>647</v>
+      <c r="E192" s="20" t="s">
+        <v>620</v>
       </c>
       <c r="F192" s="6" t="s">
-        <v>19</v>
+        <v>851</v>
       </c>
       <c r="H192" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I192">
-        <v>15195077830</v>
-      </c>
-      <c r="J192" t="s">
-        <v>35</v>
+        <v>15197446627</v>
+      </c>
+      <c r="J192" s="14" t="s">
+        <v>893</v>
       </c>
     </row>
     <row r="193" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -8816,140 +8788,137 @@
         <v>49</v>
       </c>
       <c r="B193" t="s">
-        <v>625</v>
+        <v>220</v>
       </c>
       <c r="C193" t="s">
-        <v>626</v>
+        <v>643</v>
       </c>
       <c r="D193" t="s">
         <v>14</v>
       </c>
-      <c r="E193" s="20" t="s">
-        <v>627</v>
+      <c r="E193" t="s">
+        <v>644</v>
       </c>
       <c r="F193" s="6" t="s">
-        <v>860</v>
+        <v>19</v>
       </c>
       <c r="H193" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I193">
-        <v>19054530698</v>
-      </c>
-      <c r="J193" s="14" t="s">
-        <v>905</v>
+        <v>19054956454</v>
       </c>
     </row>
     <row r="194" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>648</v>
+        <v>615</v>
       </c>
       <c r="B194" t="s">
-        <v>649</v>
+        <v>220</v>
       </c>
       <c r="C194" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="D194" t="s">
         <v>14</v>
       </c>
       <c r="E194" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="F194" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H194" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I194">
-        <v>16133722272</v>
+        <v>19054956454</v>
       </c>
     </row>
     <row r="195" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="B195" t="s">
-        <v>625</v>
+        <v>646</v>
       </c>
       <c r="C195" t="s">
-        <v>628</v>
+        <v>647</v>
       </c>
       <c r="D195" t="s">
         <v>14</v>
       </c>
-      <c r="E195" s="20" t="s">
-        <v>629</v>
+      <c r="E195" t="s">
+        <v>648</v>
       </c>
       <c r="F195" s="6" t="s">
-        <v>860</v>
+        <v>19</v>
       </c>
       <c r="H195" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I195">
-        <v>15197446627</v>
-      </c>
-      <c r="J195" s="14" t="s">
-        <v>904</v>
+        <v>19055288955</v>
       </c>
     </row>
     <row r="196" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B196" t="s">
-        <v>221</v>
+        <v>649</v>
       </c>
       <c r="C196" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D196" t="s">
         <v>14</v>
       </c>
       <c r="E196" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F196" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H196" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I196">
-        <v>19054956454</v>
+        <v>15197571001</v>
       </c>
     </row>
     <row r="197" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>624</v>
+        <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>221</v>
+        <v>652</v>
       </c>
       <c r="C197" t="s">
+        <v>653</v>
+      </c>
+      <c r="D197" t="s">
+        <v>14</v>
+      </c>
+      <c r="E197" t="s">
         <v>654</v>
       </c>
-      <c r="D197" t="s">
-        <v>14</v>
-      </c>
-      <c r="E197" t="s">
-        <v>653</v>
-      </c>
       <c r="F197" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H197" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I197">
-        <v>19054956454</v>
+        <v>17053209898</v>
+      </c>
+      <c r="J197" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="198" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="B198" t="s">
         <v>655</v>
@@ -8967,15 +8936,18 @@
         <v>19</v>
       </c>
       <c r="H198" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I198">
-        <v>19055288955</v>
+        <v>12265595922</v>
+      </c>
+      <c r="J198" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="199" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B199" t="s">
         <v>658</v>
@@ -8993,102 +8965,102 @@
         <v>19</v>
       </c>
       <c r="H199" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I199">
-        <v>15197571001</v>
+        <v>15199545323</v>
+      </c>
+      <c r="J199" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="200" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>201</v>
+        <v>661</v>
       </c>
       <c r="B200" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C200" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D200" t="s">
         <v>14</v>
       </c>
       <c r="E200" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="F200" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H200" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I200">
-        <v>17053209898</v>
-      </c>
-      <c r="J200" t="s">
-        <v>17</v>
+        <v>12892982856</v>
       </c>
     </row>
     <row r="201" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>211</v>
+        <v>307</v>
       </c>
       <c r="B201" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C201" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D201" t="s">
         <v>14</v>
       </c>
       <c r="E201" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="F201" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H201" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I201">
-        <v>12265595922</v>
+        <v>19055633933</v>
       </c>
       <c r="J201" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="202" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B202" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C202" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D202" t="s">
         <v>14</v>
       </c>
       <c r="E202" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="F202" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H202" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I202">
-        <v>15199545323</v>
+        <v>12892732782</v>
       </c>
       <c r="J202" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="203" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>670</v>
+        <v>52</v>
       </c>
       <c r="B203" t="s">
         <v>671</v>
@@ -9106,15 +9078,15 @@
         <v>19</v>
       </c>
       <c r="H203" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I203">
-        <v>12892982856</v>
+        <v>15193040660</v>
       </c>
     </row>
     <row r="204" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>316</v>
+        <v>368</v>
       </c>
       <c r="B204" t="s">
         <v>674</v>
@@ -9126,79 +9098,74 @@
         <v>14</v>
       </c>
       <c r="E204" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="F204" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H204" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I204">
-        <v>19055633933</v>
-      </c>
-      <c r="J204" t="s">
-        <v>17</v>
+        <v>17058879567</v>
       </c>
     </row>
     <row r="205" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B205" t="s">
+        <v>676</v>
+      </c>
+      <c r="C205" t="s">
         <v>677</v>
       </c>
-      <c r="C205" t="s">
+      <c r="D205" t="s">
+        <v>14</v>
+      </c>
+      <c r="E205" t="s">
         <v>678</v>
       </c>
-      <c r="D205" t="s">
-        <v>14</v>
-      </c>
-      <c r="E205" t="s">
+      <c r="F205" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H205" t="s">
+        <v>32</v>
+      </c>
+      <c r="I205"/>
+    </row>
+    <row r="206" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>72</v>
+      </c>
+      <c r="B206" t="s">
         <v>679</v>
       </c>
-      <c r="F205" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H205" t="s">
-        <v>20</v>
-      </c>
-      <c r="I205">
-        <v>12892732782</v>
-      </c>
-      <c r="J205" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A206" t="s">
-        <v>52</v>
-      </c>
-      <c r="B206" t="s">
+      <c r="C206" t="s">
         <v>680</v>
       </c>
-      <c r="C206" t="s">
+      <c r="D206" s="7" t="s">
         <v>681</v>
       </c>
-      <c r="D206" t="s">
-        <v>14</v>
-      </c>
-      <c r="E206" t="s">
+      <c r="E206" s="17" t="s">
         <v>682</v>
       </c>
       <c r="F206" s="6" t="s">
-        <v>19</v>
+        <v>837</v>
       </c>
       <c r="H206" t="s">
-        <v>29</v>
-      </c>
-      <c r="I206">
-        <v>15193040660</v>
+        <v>71</v>
+      </c>
+      <c r="I206" s="16">
+        <v>12262711259</v>
+      </c>
+      <c r="J206" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="207" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>377</v>
+        <v>83</v>
       </c>
       <c r="B207" t="s">
         <v>683</v>
@@ -9210,16 +9177,19 @@
         <v>14</v>
       </c>
       <c r="E207" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="F207" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H207" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I207">
-        <v>17058879567</v>
+        <v>14164002045</v>
+      </c>
+      <c r="J207" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="208" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -9227,7 +9197,7 @@
         <v>23</v>
       </c>
       <c r="B208" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C208" t="s">
         <v>686</v>
@@ -9236,83 +9206,88 @@
         <v>14</v>
       </c>
       <c r="E208" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F208" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H208" t="s">
-        <v>32</v>
-      </c>
-      <c r="I208"/>
+        <v>20</v>
+      </c>
+      <c r="I208">
+        <v>14164002883</v>
+      </c>
+      <c r="J208" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="209" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="B209" t="s">
+        <v>687</v>
+      </c>
+      <c r="C209" t="s">
         <v>688</v>
       </c>
-      <c r="C209" t="s">
+      <c r="D209" t="s">
+        <v>14</v>
+      </c>
+      <c r="E209" t="s">
         <v>689</v>
       </c>
-      <c r="D209" s="7" t="s">
-        <v>690</v>
-      </c>
-      <c r="E209" s="17" t="s">
-        <v>691</v>
-      </c>
       <c r="F209" s="6" t="s">
-        <v>846</v>
+        <v>19</v>
       </c>
       <c r="H209" t="s">
-        <v>72</v>
-      </c>
-      <c r="I209" s="16">
-        <v>12262711259</v>
+        <v>20</v>
+      </c>
+      <c r="I209">
+        <v>14167813128</v>
       </c>
       <c r="J209" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="210" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="B210" t="s">
+        <v>690</v>
+      </c>
+      <c r="C210" t="s">
+        <v>691</v>
+      </c>
+      <c r="D210" t="s">
+        <v>14</v>
+      </c>
+      <c r="E210" t="s">
         <v>692</v>
       </c>
-      <c r="C210" t="s">
-        <v>693</v>
-      </c>
-      <c r="D210" t="s">
-        <v>14</v>
-      </c>
-      <c r="E210" t="s">
-        <v>694</v>
-      </c>
       <c r="F210" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H210" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I210">
-        <v>14164002045</v>
+        <v>14166308420</v>
       </c>
       <c r="J210" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="211" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="B211" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C211" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D211" t="s">
         <v>14</v>
@@ -9324,13 +9299,13 @@
         <v>19</v>
       </c>
       <c r="H211" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="I211">
-        <v>14164002883</v>
+        <v>15482884335</v>
       </c>
       <c r="J211" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="212" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -9338,146 +9313,140 @@
         <v>23</v>
       </c>
       <c r="B212" t="s">
+        <v>690</v>
+      </c>
+      <c r="C212" t="s">
+        <v>695</v>
+      </c>
+      <c r="D212" t="s">
+        <v>14</v>
+      </c>
+      <c r="E212" t="s">
         <v>696</v>
       </c>
-      <c r="C212" t="s">
+      <c r="F212" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H212" t="s">
+        <v>32</v>
+      </c>
+      <c r="I212">
+        <v>16478079072</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>21</v>
+      </c>
+      <c r="B213" t="s">
+        <v>118</v>
+      </c>
+      <c r="C213" t="s">
+        <v>485</v>
+      </c>
+      <c r="D213" t="s">
+        <v>110</v>
+      </c>
+      <c r="E213" s="20" t="s">
         <v>697</v>
       </c>
-      <c r="D212" t="s">
-        <v>14</v>
-      </c>
-      <c r="E212" t="s">
-        <v>698</v>
-      </c>
-      <c r="F212" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H212" t="s">
+      <c r="F213" s="6" t="s">
+        <v>891</v>
+      </c>
+      <c r="H213" t="s">
         <v>20</v>
       </c>
-      <c r="I212">
-        <v>14167813128</v>
-      </c>
-      <c r="J212" t="s">
+      <c r="I213">
+        <v>19054274716</v>
+      </c>
+      <c r="J213" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A213" t="s">
-        <v>60</v>
-      </c>
-      <c r="B213" t="s">
-        <v>699</v>
-      </c>
-      <c r="C213" t="s">
-        <v>700</v>
-      </c>
-      <c r="D213" t="s">
-        <v>14</v>
-      </c>
-      <c r="E213" t="s">
-        <v>701</v>
-      </c>
-      <c r="F213" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H213" t="s">
-        <v>22</v>
-      </c>
-      <c r="I213">
-        <v>14166308420</v>
-      </c>
-      <c r="J213" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="214" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="B214" t="s">
+        <v>698</v>
+      </c>
+      <c r="C214" t="s">
         <v>699</v>
       </c>
-      <c r="C214" t="s">
-        <v>702</v>
-      </c>
       <c r="D214" t="s">
         <v>14</v>
       </c>
       <c r="E214" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="F214" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H214" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I214">
-        <v>15482884335</v>
+        <v>15199414500</v>
       </c>
       <c r="J214" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="215" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="B215" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="C215" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D215" t="s">
         <v>14</v>
       </c>
       <c r="E215" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="F215" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H215" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I215">
-        <v>16478079072</v>
+        <v>15198210555</v>
       </c>
     </row>
     <row r="216" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>21</v>
+        <v>615</v>
       </c>
       <c r="B216" t="s">
-        <v>119</v>
+        <v>704</v>
       </c>
       <c r="C216" t="s">
-        <v>494</v>
+        <v>705</v>
       </c>
       <c r="D216" t="s">
-        <v>111</v>
-      </c>
-      <c r="E216" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E216" t="s">
         <v>706</v>
       </c>
       <c r="F216" s="6" t="s">
-        <v>902</v>
+        <v>19</v>
       </c>
       <c r="H216" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I216">
-        <v>19054274716</v>
-      </c>
-      <c r="J216" t="s">
-        <v>17</v>
+        <v>15199255523</v>
       </c>
     </row>
     <row r="217" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="B217" t="s">
         <v>707</v>
@@ -9488,54 +9457,54 @@
       <c r="D217" t="s">
         <v>14</v>
       </c>
-      <c r="E217" t="s">
+      <c r="E217" s="20" t="s">
         <v>709</v>
       </c>
       <c r="F217" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H217" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="I217">
-        <v>15199414500</v>
-      </c>
-      <c r="J217" t="s">
-        <v>17</v>
+        <v>15193047465</v>
+      </c>
+      <c r="J217" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="218" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="B218" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="C218" t="s">
+        <v>713</v>
+      </c>
+      <c r="D218" t="s">
+        <v>14</v>
+      </c>
+      <c r="E218" t="s">
         <v>711</v>
       </c>
-      <c r="D218" t="s">
-        <v>14</v>
-      </c>
-      <c r="E218" t="s">
-        <v>712</v>
-      </c>
       <c r="F218" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H218" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I218">
-        <v>15198210555</v>
+        <v>12893896889</v>
       </c>
     </row>
     <row r="219" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>624</v>
+        <v>30</v>
       </c>
       <c r="B219" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C219" t="s">
         <v>714</v>
@@ -9544,250 +9513,256 @@
         <v>14</v>
       </c>
       <c r="E219" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="F219" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H219" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I219">
-        <v>15199255523</v>
+        <v>12893898989</v>
       </c>
     </row>
     <row r="220" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B220" t="s">
+        <v>721</v>
+      </c>
+      <c r="C220" t="s">
+        <v>722</v>
+      </c>
+      <c r="D220" t="s">
+        <v>14</v>
+      </c>
+      <c r="E220" t="s">
+        <v>723</v>
+      </c>
+      <c r="F220" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H220" t="s">
+        <v>29</v>
+      </c>
+      <c r="I220">
+        <v>14162669336</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>55</v>
+      </c>
+      <c r="B221" t="s">
+        <v>715</v>
+      </c>
+      <c r="C221" t="s">
         <v>716</v>
       </c>
-      <c r="C220" t="s">
+      <c r="D221" t="s">
+        <v>14</v>
+      </c>
+      <c r="E221" s="20" t="s">
         <v>717</v>
       </c>
-      <c r="D220" t="s">
-        <v>14</v>
-      </c>
-      <c r="E220" s="20" t="s">
+      <c r="F221" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="H221" t="s">
+        <v>20</v>
+      </c>
+      <c r="I221">
+        <v>18073456272</v>
+      </c>
+      <c r="J221" s="14" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>60</v>
+      </c>
+      <c r="B222" s="28" t="s">
         <v>718</v>
       </c>
-      <c r="F220" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H220" t="s">
-        <v>38</v>
-      </c>
-      <c r="I220">
-        <v>15193047465</v>
-      </c>
-      <c r="J220" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A221" t="s">
-        <v>30</v>
-      </c>
-      <c r="B221" t="s">
-        <v>721</v>
-      </c>
-      <c r="C221" t="s">
-        <v>722</v>
-      </c>
-      <c r="D221" t="s">
-        <v>14</v>
-      </c>
-      <c r="E221" t="s">
+      <c r="C222" t="s">
+        <v>719</v>
+      </c>
+      <c r="D222" t="s">
+        <v>14</v>
+      </c>
+      <c r="E222" s="20" t="s">
         <v>720</v>
       </c>
-      <c r="F221" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H221" t="s">
-        <v>18</v>
-      </c>
-      <c r="I221">
-        <v>12893896889</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A222" t="s">
-        <v>30</v>
-      </c>
-      <c r="B222" t="s">
-        <v>719</v>
-      </c>
-      <c r="C222" t="s">
-        <v>723</v>
-      </c>
-      <c r="D222" t="s">
-        <v>14</v>
-      </c>
-      <c r="E222" t="s">
-        <v>720</v>
-      </c>
       <c r="F222" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H222" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="I222">
-        <v>12893898989</v>
+        <v>14165513913</v>
       </c>
     </row>
     <row r="223" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="B223" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="C223" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D223" t="s">
         <v>14</v>
       </c>
       <c r="E223" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="F223" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H223" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="I223">
-        <v>14162669336</v>
+        <v>16139335005</v>
+      </c>
+      <c r="J223" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="224" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="B224" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="C224" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="D224" t="s">
         <v>14</v>
       </c>
-      <c r="E224" s="20" t="s">
-        <v>726</v>
+      <c r="E224" t="s">
+        <v>732</v>
       </c>
       <c r="F224" s="6" t="s">
-        <v>817</v>
+        <v>19</v>
       </c>
       <c r="H224" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I224">
-        <v>18073456272</v>
-      </c>
-      <c r="J224" s="14" t="s">
-        <v>903</v>
+        <v>16139322525</v>
       </c>
     </row>
     <row r="225" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>60</v>
-      </c>
-      <c r="B225" s="28" t="s">
-        <v>727</v>
+        <v>450</v>
+      </c>
+      <c r="B225" t="s">
+        <v>724</v>
       </c>
       <c r="C225" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="D225" t="s">
         <v>14</v>
       </c>
       <c r="E225" s="20" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="F225" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H225" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="I225">
-        <v>14165513913</v>
+        <v>13652053237</v>
+      </c>
+      <c r="J225" s="14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="226" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B226" t="s">
-        <v>736</v>
+        <v>303</v>
       </c>
       <c r="C226" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="D226" t="s">
         <v>14</v>
       </c>
-      <c r="E226" t="s">
-        <v>738</v>
+      <c r="E226" s="20" t="s">
+        <v>734</v>
       </c>
       <c r="F226" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H226" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I226">
-        <v>16139335005</v>
+        <v>15193157768</v>
       </c>
       <c r="J226" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="227" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B227" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C227" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="D227" t="s">
         <v>14</v>
       </c>
-      <c r="E227" t="s">
-        <v>741</v>
+      <c r="E227" s="20" t="s">
+        <v>734</v>
       </c>
       <c r="F227" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H227" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I227">
-        <v>16139322525</v>
+        <v>15193077768</v>
+      </c>
+      <c r="J227" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="228" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>459</v>
+        <v>56</v>
       </c>
       <c r="B228" t="s">
-        <v>733</v>
+        <v>303</v>
       </c>
       <c r="C228" t="s">
+        <v>737</v>
+      </c>
+      <c r="D228" t="s">
+        <v>14</v>
+      </c>
+      <c r="E228" s="20" t="s">
         <v>734</v>
-      </c>
-      <c r="D228" t="s">
-        <v>14</v>
-      </c>
-      <c r="E228" s="20" t="s">
-        <v>735</v>
       </c>
       <c r="F228" s="6" t="s">
         <v>19</v>
@@ -9796,27 +9771,27 @@
         <v>20</v>
       </c>
       <c r="I228">
-        <v>13652053237</v>
+        <v>19057287768</v>
       </c>
       <c r="J228" s="14" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="229" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="B229" t="s">
-        <v>312</v>
+        <v>738</v>
       </c>
       <c r="C229" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="D229" t="s">
         <v>14</v>
       </c>
       <c r="E229" s="20" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="F229" s="6" t="s">
         <v>19</v>
@@ -9825,143 +9800,140 @@
         <v>16</v>
       </c>
       <c r="I229">
-        <v>15193157768</v>
-      </c>
-      <c r="J229" t="s">
-        <v>17</v>
+        <v>19056840141</v>
+      </c>
+      <c r="J229" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="230" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B230" t="s">
-        <v>744</v>
+        <v>308</v>
       </c>
       <c r="C230" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="D230" t="s">
         <v>14</v>
       </c>
-      <c r="E230" s="20" t="s">
-        <v>743</v>
+      <c r="E230" t="s">
+        <v>741</v>
       </c>
       <c r="F230" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H230" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I230">
-        <v>15193077768</v>
-      </c>
-      <c r="J230" s="14" t="s">
+        <v>15199662525</v>
+      </c>
+      <c r="J230" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="231" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>56</v>
+        <v>327</v>
       </c>
       <c r="B231" t="s">
-        <v>312</v>
+        <v>742</v>
       </c>
       <c r="C231" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="D231" t="s">
         <v>14</v>
       </c>
-      <c r="E231" s="20" t="s">
-        <v>743</v>
+      <c r="E231" t="s">
+        <v>744</v>
       </c>
       <c r="F231" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H231" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="I231">
-        <v>19057287768</v>
-      </c>
-      <c r="J231" s="14" t="s">
-        <v>39</v>
+        <v>12265265555</v>
+      </c>
+      <c r="J231" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="232" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>43</v>
+        <v>745</v>
       </c>
       <c r="B232" t="s">
+        <v>746</v>
+      </c>
+      <c r="C232" t="s">
         <v>747</v>
       </c>
-      <c r="C232" t="s">
+      <c r="D232" t="s">
+        <v>14</v>
+      </c>
+      <c r="E232" t="s">
         <v>748</v>
       </c>
-      <c r="D232" t="s">
-        <v>14</v>
-      </c>
-      <c r="E232" s="20" t="s">
-        <v>743</v>
-      </c>
       <c r="F232" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H232" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I232">
-        <v>19056840141</v>
-      </c>
-      <c r="J232" s="14" t="s">
-        <v>39</v>
+        <v>17056223107</v>
+      </c>
+      <c r="J232" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="233" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="B233" t="s">
-        <v>317</v>
+        <v>749</v>
       </c>
       <c r="C233" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D233" t="s">
         <v>14</v>
       </c>
       <c r="E233" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="F233" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H233" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="I233">
-        <v>15199662525</v>
-      </c>
-      <c r="J233" t="s">
-        <v>39</v>
+        <v>16138282929</v>
       </c>
     </row>
     <row r="234" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>336</v>
+        <v>752</v>
       </c>
       <c r="B234" t="s">
-        <v>751</v>
+        <v>31</v>
       </c>
       <c r="C234" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D234" t="s">
         <v>14</v>
       </c>
       <c r="E234" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="F234" s="6" t="s">
         <v>19</v>
@@ -9970,7 +9942,7 @@
         <v>36</v>
       </c>
       <c r="I234">
-        <v>12265265555</v>
+        <v>17052010188</v>
       </c>
       <c r="J234" t="s">
         <v>35</v>
@@ -9978,7 +9950,7 @@
     </row>
     <row r="235" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>754</v>
+        <v>168</v>
       </c>
       <c r="B235" t="s">
         <v>755</v>
@@ -9990,134 +9962,134 @@
         <v>14</v>
       </c>
       <c r="E235" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="F235" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H235" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I235">
-        <v>17056223107</v>
-      </c>
-      <c r="J235" t="s">
-        <v>17</v>
+        <v>13434760363</v>
       </c>
     </row>
     <row r="236" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B236" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C236" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D236" t="s">
         <v>14</v>
       </c>
       <c r="E236" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="F236" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H236" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="I236">
-        <v>16138282929</v>
+        <v>17057206545</v>
+      </c>
+      <c r="J236" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="237" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>761</v>
+        <v>28</v>
       </c>
       <c r="B237" t="s">
-        <v>31</v>
+        <v>758</v>
       </c>
       <c r="C237" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="D237" t="s">
         <v>14</v>
       </c>
       <c r="E237" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="F237" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H237" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I237">
-        <v>17052010188</v>
-      </c>
-      <c r="J237" t="s">
-        <v>35</v>
+        <v>14165219993</v>
       </c>
     </row>
     <row r="238" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="B238" t="s">
-        <v>764</v>
+        <v>31</v>
       </c>
       <c r="C238" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="D238" t="s">
         <v>14</v>
       </c>
       <c r="E238" t="s">
+        <v>754</v>
+      </c>
+      <c r="F238" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H238" t="s">
+        <v>36</v>
+      </c>
+      <c r="I238">
+        <v>17057206545</v>
+      </c>
+      <c r="J238" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>49</v>
+      </c>
+      <c r="B239" t="s">
+        <v>761</v>
+      </c>
+      <c r="C239" t="s">
+        <v>762</v>
+      </c>
+      <c r="D239" t="s">
+        <v>14</v>
+      </c>
+      <c r="E239" s="20" t="s">
         <v>763</v>
       </c>
-      <c r="F238" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H238" t="s">
-        <v>18</v>
-      </c>
-      <c r="I238">
-        <v>13434760363</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A239" t="s">
-        <v>46</v>
-      </c>
-      <c r="B239" t="s">
-        <v>764</v>
-      </c>
-      <c r="C239" t="s">
-        <v>766</v>
-      </c>
-      <c r="D239" t="s">
-        <v>14</v>
-      </c>
-      <c r="E239" t="s">
-        <v>763</v>
-      </c>
       <c r="F239" s="6" t="s">
-        <v>19</v>
+        <v>808</v>
       </c>
       <c r="H239" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I239">
-        <v>17057206545</v>
-      </c>
-      <c r="J239" t="s">
-        <v>35</v>
+        <v>19054519600</v>
+      </c>
+      <c r="J239" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="240" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B240" t="s">
         <v>767</v>
@@ -10129,71 +10101,71 @@
         <v>14</v>
       </c>
       <c r="E240" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="F240" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H240" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I240">
-        <v>14165219993</v>
+        <v>14162910420</v>
       </c>
     </row>
     <row r="241" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>193</v>
+        <v>41</v>
       </c>
       <c r="B241" t="s">
-        <v>31</v>
+        <v>770</v>
       </c>
       <c r="C241" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="D241" t="s">
         <v>14</v>
       </c>
       <c r="E241" t="s">
-        <v>763</v>
+        <v>772</v>
       </c>
       <c r="F241" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H241" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I241">
-        <v>17057206545</v>
+        <v>16135638040</v>
       </c>
       <c r="J241" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="242" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="B242" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="C242" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="D242" t="s">
         <v>14</v>
       </c>
       <c r="E242" s="20" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="F242" s="6" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="H242" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="I242">
-        <v>19054519600</v>
+        <v>19057272020</v>
       </c>
       <c r="J242" s="14" t="s">
         <v>39</v>
@@ -10201,271 +10173,252 @@
     </row>
     <row r="243" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B243" t="s">
+        <v>773</v>
+      </c>
+      <c r="C243" t="s">
+        <v>774</v>
+      </c>
+      <c r="D243" t="s">
+        <v>14</v>
+      </c>
+      <c r="E243" t="s">
+        <v>775</v>
+      </c>
+      <c r="F243" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H243" t="s">
+        <v>20</v>
+      </c>
+      <c r="I243">
+        <v>16473411333</v>
+      </c>
+      <c r="J243" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>120</v>
+      </c>
+      <c r="B244" t="s">
         <v>776</v>
       </c>
-      <c r="C243" t="s">
+      <c r="C244" t="s">
         <v>777</v>
       </c>
-      <c r="D243" t="s">
-        <v>14</v>
-      </c>
-      <c r="E243" t="s">
+      <c r="D244" t="s">
+        <v>14</v>
+      </c>
+      <c r="E244" s="20" t="s">
         <v>778</v>
       </c>
-      <c r="F243" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H243" t="s">
-        <v>29</v>
-      </c>
-      <c r="I243">
-        <v>14162910420</v>
-      </c>
-    </row>
-    <row r="244" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A244" t="s">
-        <v>41</v>
-      </c>
-      <c r="B244" t="s">
-        <v>779</v>
-      </c>
-      <c r="C244" t="s">
-        <v>780</v>
-      </c>
-      <c r="D244" t="s">
-        <v>14</v>
-      </c>
-      <c r="E244" t="s">
-        <v>781</v>
-      </c>
       <c r="F244" s="6" t="s">
-        <v>19</v>
+        <v>851</v>
       </c>
       <c r="H244" t="s">
         <v>20</v>
       </c>
       <c r="I244">
-        <v>16135638040</v>
-      </c>
-      <c r="J244" t="s">
-        <v>17</v>
+        <v>16475535874</v>
+      </c>
+      <c r="J244" s="14" t="s">
+        <v>883</v>
       </c>
     </row>
     <row r="245" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="B245" t="s">
-        <v>773</v>
+        <v>782</v>
       </c>
       <c r="C245" t="s">
-        <v>774</v>
+        <v>783</v>
       </c>
       <c r="D245" t="s">
         <v>14</v>
       </c>
-      <c r="E245" s="20" t="s">
-        <v>775</v>
+      <c r="E245" t="s">
+        <v>784</v>
       </c>
       <c r="F245" s="6" t="s">
-        <v>817</v>
+        <v>19</v>
       </c>
       <c r="H245" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I245">
-        <v>19057272020</v>
-      </c>
-      <c r="J245" s="14" t="s">
+        <v>14166516673</v>
+      </c>
+      <c r="J245" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="246" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="B246" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="C246" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="D246" t="s">
         <v>14</v>
       </c>
       <c r="E246" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="F246" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H246" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I246">
-        <v>16473411333</v>
-      </c>
-      <c r="J246" t="s">
-        <v>17</v>
+        <v>15196013420</v>
       </c>
     </row>
     <row r="247" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="B247" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="C247" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="D247" t="s">
         <v>14</v>
       </c>
-      <c r="E247" s="20" t="s">
+      <c r="E247" t="s">
         <v>787</v>
       </c>
       <c r="F247" s="6" t="s">
-        <v>860</v>
+        <v>19</v>
       </c>
       <c r="H247" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I247">
-        <v>16475535874</v>
-      </c>
-      <c r="J247" s="14" t="s">
-        <v>894</v>
+        <v>15196071966</v>
       </c>
     </row>
     <row r="248" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B248" t="s">
+        <v>359</v>
+      </c>
+      <c r="C248" t="s">
+        <v>790</v>
+      </c>
+      <c r="D248" t="s">
+        <v>14</v>
+      </c>
+      <c r="E248" t="s">
         <v>791</v>
       </c>
-      <c r="C248" t="s">
-        <v>792</v>
-      </c>
-      <c r="D248" t="s">
-        <v>14</v>
-      </c>
-      <c r="E248" t="s">
-        <v>793</v>
-      </c>
       <c r="F248" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H248" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I248">
-        <v>14166516673</v>
+        <v>14162912553</v>
       </c>
       <c r="J248" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="249" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="B249" t="s">
-        <v>794</v>
+        <v>198</v>
       </c>
       <c r="C249" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="D249" t="s">
         <v>14</v>
       </c>
       <c r="E249" t="s">
-        <v>796</v>
+        <v>631</v>
       </c>
       <c r="F249" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H249" t="s">
-        <v>18</v>
-      </c>
-      <c r="I249">
-        <v>15196013420</v>
-      </c>
-    </row>
-    <row r="250" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I249"/>
+    </row>
+    <row r="250" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>71</v>
-      </c>
-      <c r="B250" t="s">
-        <v>797</v>
+        <v>45</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>779</v>
       </c>
       <c r="C250" t="s">
-        <v>798</v>
+        <v>780</v>
       </c>
       <c r="D250" t="s">
         <v>14</v>
       </c>
-      <c r="E250" t="s">
-        <v>796</v>
+      <c r="E250" s="20" t="s">
+        <v>781</v>
       </c>
       <c r="F250" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H250" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I250">
-        <v>15196071966</v>
+        <v>15197429366</v>
       </c>
     </row>
     <row r="251" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>33</v>
+        <v>199</v>
       </c>
       <c r="B251" t="s">
-        <v>368</v>
+        <v>793</v>
       </c>
       <c r="C251" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="D251" t="s">
         <v>14</v>
       </c>
       <c r="E251" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="F251" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H251" t="s">
-        <v>20</v>
-      </c>
-      <c r="I251">
-        <v>14162912553</v>
-      </c>
-      <c r="J251" t="s">
-        <v>17</v>
-      </c>
+      <c r="I251"/>
     </row>
     <row r="252" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>96</v>
+        <v>274</v>
       </c>
       <c r="B252" t="s">
-        <v>199</v>
+        <v>738</v>
       </c>
       <c r="C252" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="D252" t="s">
         <v>14</v>
       </c>
       <c r="E252" t="s">
-        <v>640</v>
+        <v>797</v>
       </c>
       <c r="F252" s="6" t="s">
         <v>19</v>
@@ -10474,42 +10427,40 @@
     </row>
     <row r="253" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>45</v>
-      </c>
-      <c r="B253" s="3" t="s">
-        <v>788</v>
+        <v>52</v>
+      </c>
+      <c r="B253">
+        <v>6420</v>
       </c>
       <c r="C253" t="s">
-        <v>789</v>
+        <v>798</v>
       </c>
       <c r="D253" t="s">
         <v>14</v>
       </c>
-      <c r="E253" s="20" t="s">
-        <v>790</v>
+      <c r="E253" t="s">
+        <v>799</v>
       </c>
       <c r="F253" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I253">
-        <v>15197429366</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="I253"/>
     </row>
     <row r="254" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>200</v>
+        <v>299</v>
       </c>
       <c r="B254" t="s">
-        <v>802</v>
+        <v>367</v>
       </c>
       <c r="C254" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="D254" t="s">
         <v>14</v>
       </c>
       <c r="E254" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="F254" s="6" t="s">
         <v>19</v>
@@ -10518,91 +10469,91 @@
     </row>
     <row r="255" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>275</v>
+        <v>119</v>
       </c>
       <c r="B255" t="s">
-        <v>747</v>
+        <v>198</v>
       </c>
       <c r="C255" t="s">
+        <v>802</v>
+      </c>
+      <c r="D255" t="s">
+        <v>14</v>
+      </c>
+      <c r="E255" t="s">
+        <v>803</v>
+      </c>
+      <c r="F255" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I255"/>
+    </row>
+    <row r="256" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>804</v>
+      </c>
+      <c r="B256" t="s">
         <v>805</v>
       </c>
-      <c r="D255" t="s">
-        <v>14</v>
-      </c>
-      <c r="E255" t="s">
+      <c r="C256" t="s">
         <v>806</v>
       </c>
-      <c r="F255" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I255"/>
-    </row>
-    <row r="256" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A256" t="s">
-        <v>52</v>
-      </c>
-      <c r="B256">
-        <v>6420</v>
-      </c>
-      <c r="C256" t="s">
+      <c r="D256" t="s">
+        <v>14</v>
+      </c>
+      <c r="E256" t="s">
         <v>807</v>
       </c>
-      <c r="D256" t="s">
-        <v>14</v>
-      </c>
-      <c r="E256" t="s">
+      <c r="F256" s="6" t="s">
         <v>808</v>
       </c>
-      <c r="F256" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="I256"/>
     </row>
-    <row r="257" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>308</v>
+        <v>23</v>
       </c>
       <c r="B257" t="s">
-        <v>376</v>
+        <v>419</v>
       </c>
       <c r="C257" t="s">
         <v>809</v>
       </c>
       <c r="D257" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="E257" t="s">
         <v>810</v>
       </c>
       <c r="F257" s="6" t="s">
-        <v>19</v>
+        <v>808</v>
       </c>
       <c r="I257"/>
     </row>
-    <row r="258" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="B258" t="s">
-        <v>199</v>
+        <v>811</v>
       </c>
       <c r="C258" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="D258" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="E258" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="F258" s="6" t="s">
-        <v>19</v>
+        <v>808</v>
       </c>
       <c r="I258"/>
     </row>
     <row r="259" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>813</v>
+        <v>23</v>
       </c>
       <c r="B259" t="s">
         <v>814</v>
@@ -10617,30 +10568,35 @@
         <v>816</v>
       </c>
       <c r="F259" s="6" t="s">
-        <v>817</v>
+        <v>19</v>
       </c>
       <c r="I259"/>
     </row>
-    <row r="260" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>23</v>
       </c>
       <c r="B260" t="s">
-        <v>428</v>
+        <v>817</v>
       </c>
       <c r="C260" t="s">
         <v>818</v>
       </c>
       <c r="D260" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="E260" t="s">
         <v>819</v>
       </c>
       <c r="F260" s="6" t="s">
-        <v>817</v>
-      </c>
-      <c r="I260"/>
+        <v>27</v>
+      </c>
+      <c r="H260" t="s">
+        <v>18</v>
+      </c>
+      <c r="I260">
+        <v>14165388225</v>
+      </c>
     </row>
     <row r="261" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
@@ -10653,17 +10609,17 @@
         <v>821</v>
       </c>
       <c r="D261" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="E261" t="s">
         <v>822</v>
       </c>
       <c r="F261" s="6" t="s">
-        <v>817</v>
+        <v>19</v>
       </c>
       <c r="I261"/>
     </row>
-    <row r="262" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>23</v>
       </c>
@@ -10674,45 +10630,48 @@
         <v>824</v>
       </c>
       <c r="D262" t="s">
-        <v>14</v>
-      </c>
-      <c r="E262" t="s">
-        <v>825</v>
+        <v>110</v>
+      </c>
+      <c r="E262" s="20" t="s">
+        <v>890</v>
       </c>
       <c r="F262" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I262"/>
+        <v>837</v>
+      </c>
+      <c r="H262" t="s">
+        <v>36</v>
+      </c>
+      <c r="I262" t="s">
+        <v>870</v>
+      </c>
+      <c r="J262" s="14" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="263" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="B263" t="s">
+        <v>198</v>
+      </c>
+      <c r="C263" t="s">
+        <v>825</v>
+      </c>
+      <c r="D263" t="s">
+        <v>110</v>
+      </c>
+      <c r="E263" t="s">
         <v>826</v>
       </c>
-      <c r="C263" t="s">
-        <v>827</v>
-      </c>
-      <c r="D263" t="s">
-        <v>14</v>
-      </c>
-      <c r="E263" t="s">
-        <v>828</v>
-      </c>
       <c r="F263" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H263" t="s">
-        <v>18</v>
-      </c>
-      <c r="I263">
-        <v>14165388225</v>
-      </c>
-    </row>
-    <row r="264" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="I263"/>
+    </row>
+    <row r="264" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="B264" t="s">
         <v>829</v>
@@ -10727,87 +10686,22 @@
         <v>831</v>
       </c>
       <c r="F264" s="6" t="s">
-        <v>19</v>
+        <v>832</v>
       </c>
       <c r="I264"/>
     </row>
-    <row r="265" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A265" t="s">
-        <v>23</v>
-      </c>
-      <c r="B265" t="s">
-        <v>832</v>
-      </c>
-      <c r="C265" t="s">
-        <v>833</v>
-      </c>
-      <c r="D265" t="s">
-        <v>111</v>
-      </c>
-      <c r="E265" s="20" t="s">
-        <v>901</v>
-      </c>
-      <c r="F265" s="6" t="s">
-        <v>846</v>
-      </c>
-      <c r="H265" t="s">
-        <v>36</v>
-      </c>
-      <c r="I265" t="s">
-        <v>881</v>
-      </c>
-      <c r="J265" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="266" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A266" t="s">
-        <v>81</v>
-      </c>
-      <c r="B266" t="s">
-        <v>199</v>
-      </c>
-      <c r="C266" t="s">
-        <v>834</v>
-      </c>
-      <c r="D266" t="s">
-        <v>111</v>
-      </c>
-      <c r="E266" t="s">
-        <v>835</v>
-      </c>
-      <c r="F266" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I266"/>
-    </row>
-    <row r="267" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A267" t="s">
-        <v>109</v>
-      </c>
-      <c r="B267" t="s">
-        <v>838</v>
-      </c>
-      <c r="C267" t="s">
-        <v>839</v>
-      </c>
-      <c r="D267" t="s">
-        <v>14</v>
-      </c>
-      <c r="E267" t="s">
-        <v>840</v>
-      </c>
-      <c r="F267" s="6" t="s">
-        <v>841</v>
-      </c>
-      <c r="I267"/>
-    </row>
   </sheetData>
-  <autoFilter ref="F1:F267" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="F1:F264" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Buddi"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="E10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="E40" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E91" r:id="rId3" location="/checkout" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E88" r:id="rId3" location="/checkout" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>

--- a/platform_scrapper/data/cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/cannabis_used_IDs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/528339229bf2dcd2/Desktop/DOT/cannabis-shops-scraping/platform_scrapper/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="11_052E697344AEC06F7E514043B69FD2FA56FCDEA0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36F0C5E9-F2DC-4740-9BFF-778A5A6D6A65}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="11_052E697344AEC06F7E514043B69FD2FA56FCDEA0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CAD976E-A3FA-4F98-9579-25850E026F41}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$F$264</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$F$263</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2037" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2032" uniqueCount="892">
   <si>
     <t>Municipality or First Nation</t>
   </si>
@@ -935,15 +935,6 @@
   </si>
   <si>
     <t>Spot420 The Cannabis Store</t>
-  </si>
-  <si>
-    <t>Straight Loud</t>
-  </si>
-  <si>
-    <t>1187 BRIMLEY RD</t>
-  </si>
-  <si>
-    <t>http://www.straightloud.ca/</t>
   </si>
   <si>
     <t>BEAMSVILLE</t>
@@ -3261,10 +3252,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:N264"/>
+  <dimension ref="A1:N263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3320,7 +3311,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>12</v>
@@ -3331,16 +3322,16 @@
         <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="C2" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>19</v>
@@ -3398,7 +3389,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>19</v>
@@ -3427,10 +3418,10 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="H5" t="s">
         <v>63</v>
@@ -3456,7 +3447,7 @@
         <v>66</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="H6" t="s">
         <v>29</v>
@@ -3485,7 +3476,7 @@
         <v>15</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>51</v>
@@ -3514,7 +3505,7 @@
         <v>78</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="H8" t="s">
         <v>32</v>
@@ -3566,10 +3557,10 @@
         <v>14</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="H10" t="s">
         <v>18</v>
@@ -3621,10 +3612,10 @@
         <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="H12" t="s">
         <v>20</v>
@@ -3650,13 +3641,13 @@
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="H13" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="I13">
         <v>16133471010</v>
@@ -3679,7 +3670,7 @@
         <v>103</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="H14" t="s">
         <v>32</v>
@@ -3693,22 +3684,22 @@
         <v>23</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>29</v>
@@ -3755,19 +3746,19 @@
     </row>
     <row r="17" spans="1:10" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="F17" s="22" t="s">
         <v>19</v>
@@ -3800,7 +3791,7 @@
         <v>133</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="H18" t="s">
         <v>16</v>
@@ -3858,7 +3849,7 @@
         <v>146</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="H20" t="s">
         <v>34</v>
@@ -3887,7 +3878,7 @@
         <v>149</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="H21" t="s">
         <v>20</v>
@@ -3919,7 +3910,7 @@
         <v>15</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="H22" s="9" t="s">
         <v>20</v>
@@ -3948,7 +3939,7 @@
         <v>157</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="H23" t="s">
         <v>20</v>
@@ -4038,7 +4029,7 @@
         <v>15</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>32</v>
@@ -4096,7 +4087,7 @@
         <v>203</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="H28" t="s">
         <v>32</v>
@@ -4125,7 +4116,7 @@
         <v>213</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="H29" t="s">
         <v>20</v>
@@ -4154,7 +4145,7 @@
         <v>217</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="H30" t="s">
         <v>18</v>
@@ -4180,7 +4171,7 @@
         <v>217</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="H31" t="s">
         <v>18</v>
@@ -4293,7 +4284,7 @@
         <v>107</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="H35" t="s">
         <v>71</v>
@@ -4322,7 +4313,7 @@
         <v>112</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="H36" t="s">
         <v>18</v>
@@ -4351,7 +4342,7 @@
         <v>125</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="H37" t="s">
         <v>20</v>
@@ -4409,7 +4400,7 @@
         <v>237</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="H39" t="s">
         <v>22</v>
@@ -4438,7 +4429,7 @@
         <v>241</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="H40" t="s">
         <v>38</v>
@@ -4467,7 +4458,7 @@
         <v>241</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="H41" t="s">
         <v>29</v>
@@ -4583,7 +4574,7 @@
         <v>241</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="H45" t="s">
         <v>18</v>
@@ -4612,7 +4603,7 @@
         <v>241</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="H46" t="s">
         <v>18</v>
@@ -4638,7 +4629,7 @@
         <v>14</v>
       </c>
       <c r="E47" s="20" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>19</v>
@@ -4786,7 +4777,7 @@
         <v>266</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="H52" t="s">
         <v>20</v>
@@ -4795,7 +4786,7 @@
         <v>16132675045</v>
       </c>
       <c r="J52" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -4815,7 +4806,7 @@
         <v>280</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="H53" t="s">
         <v>22</v>
@@ -4824,7 +4815,7 @@
         <v>18076222757</v>
       </c>
       <c r="J53" s="14" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -4881,6 +4872,9 @@
       <c r="I55">
         <v>14169005299</v>
       </c>
+      <c r="J55" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="56" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
@@ -4907,6 +4901,9 @@
       <c r="I56">
         <v>15195013797</v>
       </c>
+      <c r="J56" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="57" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
@@ -4925,7 +4922,7 @@
         <v>292</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="H57" t="s">
         <v>38</v>
@@ -4934,70 +4931,73 @@
         <v>16138254420</v>
       </c>
       <c r="J57" s="14" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B58" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C58" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D58" t="s">
         <v>14</v>
       </c>
-      <c r="E58" t="s">
-        <v>306</v>
+      <c r="E58" s="20" t="s">
+        <v>302</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H58" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I58">
-        <v>14164311333</v>
+        <v>14162557768</v>
+      </c>
+      <c r="J58" s="14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>28</v>
+        <v>285</v>
       </c>
       <c r="B59" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C59" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="D59" t="s">
         <v>14</v>
       </c>
-      <c r="E59" s="20" t="s">
-        <v>302</v>
+      <c r="E59" t="s">
+        <v>307</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H59" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="I59">
-        <v>14162557768</v>
-      </c>
-      <c r="J59" s="14" t="s">
-        <v>17</v>
+        <v>15196824224</v>
+      </c>
+      <c r="J59" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>285</v>
+        <v>308</v>
       </c>
       <c r="B60" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C60" t="s">
         <v>309</v>
@@ -5006,107 +5006,107 @@
         <v>14</v>
       </c>
       <c r="E60" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H60" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I60">
-        <v>15196824224</v>
-      </c>
-      <c r="J60" t="s">
-        <v>39</v>
+        <v>15198259888</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>310</v>
+      </c>
+      <c r="C61" t="s">
         <v>311</v>
       </c>
-      <c r="B61" t="s">
-        <v>308</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" t="s">
         <v>312</v>
       </c>
-      <c r="D61" t="s">
-        <v>14</v>
-      </c>
-      <c r="E61" t="s">
-        <v>310</v>
-      </c>
       <c r="F61" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H61" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I61">
-        <v>15198259888</v>
+        <v>14166509420</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B62" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="C62" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="D62" t="s">
         <v>14</v>
       </c>
       <c r="E62" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H62" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I62">
-        <v>14166509420</v>
+        <v>15196015367</v>
+      </c>
+      <c r="J62" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B63" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="C63" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="D63" t="s">
         <v>14</v>
       </c>
-      <c r="E63" t="s">
-        <v>333</v>
+      <c r="E63" s="20" t="s">
+        <v>860</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H63" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I63">
-        <v>15196015367</v>
-      </c>
-      <c r="J63" t="s">
-        <v>39</v>
+        <v>16473432837</v>
+      </c>
+      <c r="J63" s="14" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>83</v>
-      </c>
-      <c r="B64" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>319</v>
       </c>
       <c r="C64" t="s">
@@ -5116,7 +5116,7 @@
         <v>14</v>
       </c>
       <c r="E64" s="20" t="s">
-        <v>863</v>
+        <v>318</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>19</v>
@@ -5125,68 +5125,68 @@
         <v>20</v>
       </c>
       <c r="I64">
-        <v>16473432837</v>
+        <v>14167030222</v>
       </c>
       <c r="J64" s="14" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="B65" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C65" t="s">
         <v>322</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="D65" t="s">
-        <v>14</v>
-      </c>
-      <c r="E65" s="20" t="s">
-        <v>321</v>
-      </c>
       <c r="F65" s="6" t="s">
-        <v>19</v>
+        <v>805</v>
       </c>
       <c r="H65" t="s">
         <v>20</v>
       </c>
       <c r="I65">
-        <v>14167030222</v>
+        <v>15199422828</v>
       </c>
       <c r="J65" s="14" t="s">
-        <v>864</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>90</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>324</v>
+        <v>80</v>
+      </c>
+      <c r="B66" t="s">
+        <v>204</v>
       </c>
       <c r="C66" t="s">
-        <v>325</v>
+        <v>205</v>
       </c>
       <c r="D66" t="s">
         <v>14</v>
       </c>
-      <c r="E66" s="20" t="s">
-        <v>326</v>
+      <c r="E66" t="s">
+        <v>206</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>808</v>
+        <v>848</v>
       </c>
       <c r="H66" t="s">
-        <v>20</v>
+        <v>834</v>
       </c>
       <c r="I66">
-        <v>15199422828</v>
-      </c>
-      <c r="J66" s="14" t="s">
-        <v>39</v>
+        <v>12267734209</v>
+      </c>
+      <c r="J66" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5194,10 +5194,10 @@
         <v>80</v>
       </c>
       <c r="B67" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C67" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D67" t="s">
         <v>14</v>
@@ -5206,361 +5206,361 @@
         <v>206</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="H67" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="I67">
-        <v>12267734209</v>
+        <v>15199460570</v>
       </c>
       <c r="J67" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="B68" t="s">
-        <v>207</v>
+        <v>141</v>
       </c>
       <c r="C68" t="s">
-        <v>208</v>
+        <v>142</v>
       </c>
       <c r="D68" t="s">
         <v>14</v>
       </c>
       <c r="E68" t="s">
-        <v>206</v>
+        <v>143</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>851</v>
+        <v>19</v>
       </c>
       <c r="H68" t="s">
-        <v>837</v>
+        <v>34</v>
       </c>
       <c r="I68">
-        <v>15199460570</v>
+        <v>17059950684</v>
       </c>
       <c r="J68" t="s">
-        <v>837</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>140</v>
+        <v>331</v>
       </c>
       <c r="B69" t="s">
-        <v>141</v>
+        <v>332</v>
       </c>
       <c r="C69" t="s">
-        <v>142</v>
+        <v>333</v>
       </c>
       <c r="D69" t="s">
         <v>14</v>
       </c>
-      <c r="E69" t="s">
-        <v>143</v>
+      <c r="E69" s="20" t="s">
+        <v>334</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H69" t="s">
-        <v>34</v>
+        <v>335</v>
       </c>
       <c r="I69">
-        <v>17059950684</v>
-      </c>
-      <c r="J69" t="s">
-        <v>35</v>
+        <v>15195342628</v>
+      </c>
+      <c r="J69" s="14" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>334</v>
-      </c>
-      <c r="B70" t="s">
-        <v>335</v>
+        <v>46</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>337</v>
       </c>
       <c r="C70" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D70" t="s">
         <v>14</v>
       </c>
       <c r="E70" s="20" t="s">
-        <v>337</v>
+        <v>862</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H70" t="s">
-        <v>338</v>
+        <v>20</v>
       </c>
       <c r="I70">
-        <v>15195342628</v>
+        <v>15139227020</v>
       </c>
       <c r="J70" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>23</v>
+      </c>
+      <c r="B71" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>46</v>
-      </c>
-      <c r="B71" s="3" t="s">
+      <c r="C71" t="s">
         <v>340</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="D71" t="s">
-        <v>14</v>
-      </c>
-      <c r="E71" s="20" t="s">
-        <v>865</v>
-      </c>
       <c r="F71" s="6" t="s">
-        <v>19</v>
+        <v>848</v>
       </c>
       <c r="H71" t="s">
         <v>20</v>
       </c>
       <c r="I71">
-        <v>15139227020</v>
+        <v>14169011808</v>
       </c>
       <c r="J71" s="14" t="s">
-        <v>39</v>
+        <v>863</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="B72" t="s">
+        <v>339</v>
+      </c>
+      <c r="C72" t="s">
         <v>342</v>
       </c>
-      <c r="C72" t="s">
-        <v>343</v>
-      </c>
       <c r="D72" t="s">
         <v>14</v>
       </c>
       <c r="E72" s="20" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="H72" t="s">
         <v>20</v>
       </c>
       <c r="I72">
-        <v>14169011808</v>
+        <v>14165469808</v>
       </c>
       <c r="J72" s="14" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="B73" t="s">
-        <v>342</v>
+        <v>158</v>
       </c>
       <c r="C73" t="s">
-        <v>345</v>
+        <v>159</v>
       </c>
       <c r="D73" t="s">
         <v>14</v>
       </c>
-      <c r="E73" s="20" t="s">
-        <v>344</v>
+      <c r="E73" t="s">
+        <v>160</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>851</v>
+        <v>19</v>
       </c>
       <c r="H73" t="s">
+        <v>29</v>
+      </c>
+      <c r="I73">
+        <v>14164618366</v>
+      </c>
+      <c r="J73" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>169</v>
+      </c>
+      <c r="B74" t="s">
+        <v>170</v>
+      </c>
+      <c r="C74" t="s">
+        <v>171</v>
+      </c>
+      <c r="D74" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" t="s">
+        <v>172</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>848</v>
+      </c>
+      <c r="H74" t="s">
         <v>20</v>
       </c>
-      <c r="I73">
-        <v>14165469808</v>
-      </c>
-      <c r="J73" s="14" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>23</v>
-      </c>
-      <c r="B74" t="s">
-        <v>158</v>
-      </c>
-      <c r="C74" t="s">
-        <v>159</v>
-      </c>
-      <c r="D74" t="s">
-        <v>14</v>
-      </c>
-      <c r="E74" t="s">
-        <v>160</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H74" t="s">
-        <v>29</v>
-      </c>
       <c r="I74">
-        <v>14164618366</v>
+        <v>17052131010</v>
       </c>
       <c r="J74" t="s">
-        <v>35</v>
+        <v>845</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B75" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C75" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D75" t="s">
         <v>14</v>
       </c>
       <c r="E75" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>851</v>
+        <v>834</v>
       </c>
       <c r="H75" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I75">
-        <v>17052131010</v>
+        <v>16137992368</v>
       </c>
       <c r="J75" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B76" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="C76" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="D76" t="s">
         <v>14</v>
       </c>
       <c r="E76" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="H76" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I76">
-        <v>16137992368</v>
+        <v>18072779333</v>
       </c>
       <c r="J76" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>181</v>
+        <v>108</v>
       </c>
       <c r="B77" t="s">
-        <v>182</v>
+        <v>50</v>
       </c>
       <c r="C77" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D77" t="s">
         <v>14</v>
       </c>
       <c r="E77" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="H77" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="I77">
-        <v>18072779333</v>
+        <v>14162412837</v>
       </c>
       <c r="J77" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="B78" t="s">
-        <v>50</v>
+        <v>188</v>
       </c>
       <c r="C78" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D78" t="s">
         <v>14</v>
       </c>
       <c r="E78" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>837</v>
+        <v>19</v>
       </c>
       <c r="H78" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="I78">
-        <v>14162412837</v>
+        <v>16136957746</v>
       </c>
       <c r="J78" t="s">
-        <v>848</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>41</v>
+        <v>267</v>
       </c>
       <c r="B79" t="s">
-        <v>188</v>
+        <v>275</v>
       </c>
       <c r="C79" t="s">
-        <v>189</v>
+        <v>276</v>
       </c>
       <c r="D79" t="s">
         <v>14</v>
       </c>
       <c r="E79" t="s">
-        <v>190</v>
+        <v>277</v>
       </c>
       <c r="F79" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H79" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I79">
-        <v>16136957746</v>
+        <v>16136877335</v>
       </c>
       <c r="J79" t="s">
         <v>35</v>
@@ -5568,28 +5568,28 @@
     </row>
     <row r="80" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="B80" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="C80" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="D80" t="s">
         <v>14</v>
       </c>
       <c r="E80" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="F80" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H80" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I80">
-        <v>16136877335</v>
+        <v>18074739333</v>
       </c>
       <c r="J80" t="s">
         <v>35</v>
@@ -5597,36 +5597,36 @@
     </row>
     <row r="81" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>286</v>
+        <v>23</v>
       </c>
       <c r="B81" t="s">
-        <v>287</v>
+        <v>343</v>
       </c>
       <c r="C81" t="s">
-        <v>288</v>
+        <v>344</v>
       </c>
       <c r="D81" t="s">
         <v>14</v>
       </c>
-      <c r="E81" t="s">
-        <v>289</v>
+      <c r="E81" s="20" t="s">
+        <v>345</v>
       </c>
       <c r="F81" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H81" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I81">
-        <v>18074739333</v>
-      </c>
-      <c r="J81" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14165468250</v>
+      </c>
+      <c r="J81" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="B82" t="s">
         <v>346</v>
@@ -5641,62 +5641,62 @@
         <v>348</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>19</v>
+        <v>848</v>
       </c>
       <c r="H82" t="s">
         <v>38</v>
       </c>
       <c r="I82">
-        <v>14165468250</v>
+        <v>16133926777</v>
       </c>
       <c r="J82" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="B83" t="s">
-        <v>349</v>
+        <v>313</v>
       </c>
       <c r="C83" t="s">
-        <v>350</v>
+        <v>314</v>
       </c>
       <c r="D83" t="s">
         <v>14</v>
       </c>
-      <c r="E83" s="20" t="s">
-        <v>351</v>
+      <c r="E83" t="s">
+        <v>315</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>851</v>
+        <v>19</v>
       </c>
       <c r="H83" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I83">
-        <v>16133926777</v>
-      </c>
-      <c r="J83" s="14" t="s">
-        <v>861</v>
+        <v>15197360420</v>
+      </c>
+      <c r="J83" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="B84" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="C84" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="D84" t="s">
         <v>14</v>
       </c>
       <c r="E84" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="F84" s="6" t="s">
         <v>19</v>
@@ -5705,7 +5705,7 @@
         <v>36</v>
       </c>
       <c r="I84">
-        <v>15197360420</v>
+        <v>16139669333</v>
       </c>
       <c r="J84" t="s">
         <v>35</v>
@@ -5713,19 +5713,19 @@
     </row>
     <row r="85" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>130</v>
+        <v>256</v>
       </c>
       <c r="B85" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c r="C85" t="s">
-        <v>329</v>
+        <v>350</v>
       </c>
       <c r="D85" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="E85" t="s">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="F85" s="6" t="s">
         <v>19</v>
@@ -5734,7 +5734,7 @@
         <v>36</v>
       </c>
       <c r="I85">
-        <v>16139669333</v>
+        <v>15199542600</v>
       </c>
       <c r="J85" t="s">
         <v>35</v>
@@ -5742,19 +5742,19 @@
     </row>
     <row r="86" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>256</v>
+        <v>57</v>
       </c>
       <c r="B86" t="s">
+        <v>349</v>
+      </c>
+      <c r="C86" t="s">
         <v>352</v>
       </c>
-      <c r="C86" t="s">
-        <v>353</v>
-      </c>
       <c r="D86" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="E86" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F86" s="6" t="s">
         <v>19</v>
@@ -5771,10 +5771,10 @@
     </row>
     <row r="87" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>57</v>
+        <v>353</v>
       </c>
       <c r="B87" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C87" t="s">
         <v>355</v>
@@ -5782,54 +5782,54 @@
       <c r="D87" t="s">
         <v>14</v>
       </c>
-      <c r="E87" t="s">
-        <v>354</v>
+      <c r="E87" s="8" t="s">
+        <v>865</v>
       </c>
       <c r="F87" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H87" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I87">
-        <v>15199542600</v>
-      </c>
-      <c r="J87" t="s">
-        <v>35</v>
+        <v>18077279830</v>
+      </c>
+      <c r="J87" s="14" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
+        <v>111</v>
+      </c>
+      <c r="B88" t="s">
         <v>356</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>357</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
+        <v>14</v>
+      </c>
+      <c r="E88" t="s">
         <v>358</v>
       </c>
-      <c r="D88" t="s">
-        <v>14</v>
-      </c>
-      <c r="E88" s="8" t="s">
-        <v>868</v>
-      </c>
       <c r="F88" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H88" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I88">
-        <v>18077279830</v>
-      </c>
-      <c r="J88" s="14" t="s">
-        <v>867</v>
+        <v>14165512550</v>
+      </c>
+      <c r="J88" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="B89" t="s">
         <v>359</v>
@@ -5841,7 +5841,7 @@
         <v>14</v>
       </c>
       <c r="E89" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F89" s="6" t="s">
         <v>19</v>
@@ -5858,19 +5858,19 @@
     </row>
     <row r="90" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>150</v>
+        <v>197</v>
       </c>
       <c r="B90" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C90" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D90" t="s">
         <v>14</v>
       </c>
       <c r="E90" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F90" s="6" t="s">
         <v>19</v>
@@ -5887,19 +5887,19 @@
     </row>
     <row r="91" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>197</v>
+        <v>33</v>
       </c>
       <c r="B91" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C91" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D91" t="s">
         <v>14</v>
       </c>
       <c r="E91" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F91" s="6" t="s">
         <v>19</v>
@@ -5916,112 +5916,112 @@
     </row>
     <row r="92" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="B92" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="C92" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D92" t="s">
         <v>14</v>
       </c>
       <c r="E92" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="F92" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H92" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="I92">
-        <v>14165512550</v>
-      </c>
-      <c r="J92" t="s">
-        <v>17</v>
+        <v>14165460810</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="B93" t="s">
-        <v>370</v>
+        <v>180</v>
       </c>
       <c r="C93" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="D93" t="s">
         <v>14</v>
       </c>
       <c r="E93" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="F93" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H93" t="s">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="I93">
-        <v>14165460810</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19055293037</v>
+      </c>
+      <c r="J93" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>30</v>
       </c>
       <c r="B94" t="s">
-        <v>180</v>
+        <v>370</v>
       </c>
       <c r="C94" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="D94" t="s">
         <v>14</v>
       </c>
-      <c r="E94" t="s">
-        <v>386</v>
+      <c r="E94" s="20" t="s">
+        <v>372</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>19</v>
+        <v>805</v>
       </c>
       <c r="H94" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I94">
-        <v>19055293037</v>
-      </c>
-      <c r="J94" t="s">
+        <v>12897552839</v>
+      </c>
+      <c r="J94" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>30</v>
+        <v>373</v>
       </c>
       <c r="B95" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C95" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D95" t="s">
         <v>14</v>
       </c>
       <c r="E95" s="20" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>808</v>
+        <v>19</v>
       </c>
       <c r="H95" t="s">
         <v>20</v>
       </c>
       <c r="I95">
-        <v>12897552839</v>
+        <v>13433740100</v>
       </c>
       <c r="J95" s="14" t="s">
         <v>17</v>
@@ -6029,7 +6029,7 @@
     </row>
     <row r="96" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>376</v>
+        <v>139</v>
       </c>
       <c r="B96" t="s">
         <v>377</v>
@@ -6041,7 +6041,7 @@
         <v>14</v>
       </c>
       <c r="E96" s="20" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F96" s="6" t="s">
         <v>19</v>
@@ -6050,7 +6050,7 @@
         <v>20</v>
       </c>
       <c r="I96">
-        <v>13433740100</v>
+        <v>13433980104</v>
       </c>
       <c r="J96" s="14" t="s">
         <v>17</v>
@@ -6058,48 +6058,45 @@
     </row>
     <row r="97" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="B97" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="C97" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="D97" t="s">
         <v>14</v>
       </c>
-      <c r="E97" s="20" t="s">
-        <v>379</v>
+      <c r="E97" t="s">
+        <v>390</v>
       </c>
       <c r="F97" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H97" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I97">
-        <v>13433980104</v>
-      </c>
-      <c r="J97" s="14" t="s">
-        <v>17</v>
+        <v>16477465430</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B98" t="s">
+        <v>388</v>
+      </c>
+      <c r="C98" t="s">
         <v>391</v>
       </c>
-      <c r="C98" t="s">
-        <v>392</v>
-      </c>
       <c r="D98" t="s">
         <v>14</v>
       </c>
       <c r="E98" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F98" s="6" t="s">
         <v>19</v>
@@ -6108,67 +6105,70 @@
         <v>32</v>
       </c>
       <c r="I98">
-        <v>16477465430</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14374101420</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>28</v>
-      </c>
-      <c r="B99" t="s">
-        <v>391</v>
+        <v>23</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>379</v>
       </c>
       <c r="C99" t="s">
+        <v>380</v>
+      </c>
+      <c r="D99" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="H99" t="s">
+        <v>20</v>
+      </c>
+      <c r="I99">
+        <v>14169779343</v>
+      </c>
+      <c r="J99" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>392</v>
+      </c>
+      <c r="B100" t="s">
+        <v>393</v>
+      </c>
+      <c r="C100" t="s">
         <v>394</v>
       </c>
-      <c r="D99" t="s">
-        <v>14</v>
-      </c>
-      <c r="E99" t="s">
-        <v>393</v>
-      </c>
-      <c r="F99" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H99" t="s">
-        <v>32</v>
-      </c>
-      <c r="I99">
-        <v>14374101420</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>23</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="C100" t="s">
-        <v>383</v>
-      </c>
       <c r="D100" t="s">
         <v>14</v>
       </c>
-      <c r="E100" s="20" t="s">
-        <v>384</v>
+      <c r="E100" t="s">
+        <v>395</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>808</v>
+        <v>19</v>
       </c>
       <c r="H100" t="s">
         <v>20</v>
       </c>
       <c r="I100">
-        <v>14169779343</v>
-      </c>
-      <c r="J100" s="14" t="s">
+        <v>15193892839</v>
+      </c>
+      <c r="J100" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>395</v>
+        <v>30</v>
       </c>
       <c r="B101" t="s">
         <v>396</v>
@@ -6186,13 +6186,10 @@
         <v>19</v>
       </c>
       <c r="H101" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I101">
-        <v>15193892839</v>
-      </c>
-      <c r="J101" t="s">
-        <v>17</v>
+        <v>18777990420</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -6200,42 +6197,45 @@
         <v>30</v>
       </c>
       <c r="B102" t="s">
+        <v>396</v>
+      </c>
+      <c r="C102" t="s">
         <v>399</v>
       </c>
-      <c r="C102" t="s">
-        <v>400</v>
-      </c>
       <c r="D102" t="s">
         <v>14</v>
       </c>
       <c r="E102" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F102" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H102" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I102">
-        <v>18777990420</v>
+        <v>19056286324</v>
+      </c>
+      <c r="J102" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="B103" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C103" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D103" t="s">
         <v>14</v>
       </c>
       <c r="E103" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F103" s="6" t="s">
         <v>19</v>
@@ -6244,7 +6244,7 @@
         <v>20</v>
       </c>
       <c r="I103">
-        <v>19056286324</v>
+        <v>12894260469</v>
       </c>
       <c r="J103" t="s">
         <v>17</v>
@@ -6252,19 +6252,19 @@
     </row>
     <row r="104" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>115</v>
+        <v>402</v>
       </c>
       <c r="B104" t="s">
+        <v>396</v>
+      </c>
+      <c r="C104" t="s">
         <v>403</v>
       </c>
-      <c r="C104" t="s">
-        <v>404</v>
-      </c>
       <c r="D104" t="s">
         <v>14</v>
       </c>
       <c r="E104" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F104" s="6" t="s">
         <v>19</v>
@@ -6273,7 +6273,7 @@
         <v>20</v>
       </c>
       <c r="I104">
-        <v>12894260469</v>
+        <v>12894480170</v>
       </c>
       <c r="J104" t="s">
         <v>17</v>
@@ -6281,36 +6281,36 @@
     </row>
     <row r="105" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
+        <v>28</v>
+      </c>
+      <c r="B105" t="s">
+        <v>404</v>
+      </c>
+      <c r="C105" t="s">
         <v>405</v>
       </c>
-      <c r="B105" t="s">
-        <v>399</v>
-      </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105" t="s">
         <v>406</v>
       </c>
-      <c r="D105" t="s">
-        <v>14</v>
-      </c>
-      <c r="E105" t="s">
-        <v>401</v>
-      </c>
       <c r="F105" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H105" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="I105">
-        <v>12894480170</v>
+        <v>14167926477</v>
       </c>
       <c r="J105" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B106" t="s">
         <v>407</v>
@@ -6328,18 +6328,18 @@
         <v>19</v>
       </c>
       <c r="H106" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I106">
-        <v>14167926477</v>
+        <v>16135367110</v>
       </c>
       <c r="J106" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B107" t="s">
         <v>410</v>
@@ -6357,10 +6357,10 @@
         <v>19</v>
       </c>
       <c r="H107" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I107">
-        <v>16135367110</v>
+        <v>16138364420</v>
       </c>
       <c r="J107" t="s">
         <v>17</v>
@@ -6368,7 +6368,7 @@
     </row>
     <row r="108" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B108" t="s">
         <v>413</v>
@@ -6386,102 +6386,99 @@
         <v>19</v>
       </c>
       <c r="H108" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I108">
-        <v>16138364420</v>
-      </c>
-      <c r="J108" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19055476002</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>30</v>
+        <v>384</v>
       </c>
       <c r="B109" t="s">
-        <v>416</v>
+        <v>385</v>
       </c>
       <c r="C109" t="s">
-        <v>417</v>
+        <v>386</v>
       </c>
       <c r="D109" t="s">
         <v>14</v>
       </c>
-      <c r="E109" t="s">
-        <v>418</v>
+      <c r="E109" s="20" t="s">
+        <v>387</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>19</v>
+        <v>854</v>
       </c>
       <c r="H109" t="s">
         <v>18</v>
       </c>
       <c r="I109">
-        <v>19055476002</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>18078538888</v>
+      </c>
+      <c r="J109" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>387</v>
+        <v>23</v>
       </c>
       <c r="B110" t="s">
-        <v>388</v>
+        <v>417</v>
       </c>
       <c r="C110" t="s">
-        <v>389</v>
+        <v>418</v>
       </c>
       <c r="D110" t="s">
         <v>14</v>
       </c>
-      <c r="E110" s="20" t="s">
-        <v>390</v>
+      <c r="E110" t="s">
+        <v>419</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>857</v>
+        <v>19</v>
       </c>
       <c r="H110" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I110">
-        <v>18078538888</v>
-      </c>
-      <c r="J110" s="14" t="s">
+        <v>14165469944</v>
+      </c>
+      <c r="J110" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>23</v>
+        <v>420</v>
       </c>
       <c r="B111" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C111" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D111" t="s">
         <v>14</v>
       </c>
       <c r="E111" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F111" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H111" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I111">
-        <v>14165469944</v>
-      </c>
-      <c r="J111" t="s">
-        <v>17</v>
+        <v>12894790420</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>423</v>
+        <v>33</v>
       </c>
       <c r="B112" t="s">
         <v>424</v>
@@ -6499,10 +6496,13 @@
         <v>19</v>
       </c>
       <c r="H112" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I112">
-        <v>12894790420</v>
+        <v>14165260000</v>
+      </c>
+      <c r="J112" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -6525,18 +6525,18 @@
         <v>19</v>
       </c>
       <c r="H113" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I113">
-        <v>14165260000</v>
+        <v>16472779835</v>
       </c>
       <c r="J113" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B114" t="s">
         <v>430</v>
@@ -6554,10 +6554,10 @@
         <v>19</v>
       </c>
       <c r="H114" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I114">
-        <v>16472779835</v>
+        <v>14163951945</v>
       </c>
       <c r="J114" t="s">
         <v>17</v>
@@ -6565,19 +6565,19 @@
     </row>
     <row r="115" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B115" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C115" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="D115" t="s">
         <v>14</v>
       </c>
       <c r="E115" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="F115" s="6" t="s">
         <v>19</v>
@@ -6586,7 +6586,7 @@
         <v>20</v>
       </c>
       <c r="I115">
-        <v>14163951945</v>
+        <v>12893896764</v>
       </c>
       <c r="J115" t="s">
         <v>17</v>
@@ -6594,7 +6594,7 @@
     </row>
     <row r="116" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="B116" t="s">
         <v>439</v>
@@ -6606,7 +6606,7 @@
         <v>14</v>
       </c>
       <c r="E116" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F116" s="6" t="s">
         <v>19</v>
@@ -6621,65 +6621,65 @@
         <v>17</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>72</v>
+        <v>433</v>
       </c>
       <c r="B117" t="s">
+        <v>64</v>
+      </c>
+      <c r="C117" t="s">
+        <v>434</v>
+      </c>
+      <c r="D117" t="s">
+        <v>14</v>
+      </c>
+      <c r="E117" s="20" t="s">
+        <v>435</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>866</v>
+      </c>
+      <c r="H117" t="s">
+        <v>32</v>
+      </c>
+      <c r="I117">
+        <v>12267224367</v>
+      </c>
+      <c r="J117" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>60</v>
+      </c>
+      <c r="B118" t="s">
+        <v>441</v>
+      </c>
+      <c r="C118" t="s">
+        <v>443</v>
+      </c>
+      <c r="D118" t="s">
+        <v>14</v>
+      </c>
+      <c r="E118" t="s">
         <v>442</v>
       </c>
-      <c r="C117" t="s">
-        <v>443</v>
-      </c>
-      <c r="D117" t="s">
-        <v>14</v>
-      </c>
-      <c r="E117" t="s">
-        <v>441</v>
-      </c>
-      <c r="F117" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H117" t="s">
-        <v>20</v>
-      </c>
-      <c r="I117">
-        <v>12893896764</v>
-      </c>
-      <c r="J117" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>436</v>
-      </c>
-      <c r="B118" t="s">
-        <v>64</v>
-      </c>
-      <c r="C118" t="s">
-        <v>437</v>
-      </c>
-      <c r="D118" t="s">
-        <v>14</v>
-      </c>
-      <c r="E118" s="20" t="s">
-        <v>438</v>
-      </c>
       <c r="F118" s="6" t="s">
-        <v>869</v>
+        <v>19</v>
       </c>
       <c r="H118" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I118">
-        <v>12267224367</v>
-      </c>
-      <c r="J118" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14162564815</v>
+      </c>
+      <c r="J118" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>60</v>
       </c>
@@ -6687,54 +6687,54 @@
         <v>444</v>
       </c>
       <c r="C119" t="s">
+        <v>445</v>
+      </c>
+      <c r="D119" t="s">
+        <v>14</v>
+      </c>
+      <c r="E119" t="s">
         <v>446</v>
       </c>
-      <c r="D119" t="s">
-        <v>14</v>
-      </c>
-      <c r="E119" t="s">
-        <v>445</v>
-      </c>
       <c r="F119" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="G119" s="13" t="s">
+        <v>850</v>
       </c>
       <c r="H119" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I119">
-        <v>14162564815</v>
+        <v>16473451819</v>
       </c>
       <c r="J119" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>60</v>
+        <v>448</v>
       </c>
       <c r="B120" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C120" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D120" t="s">
         <v>14</v>
       </c>
       <c r="E120" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G120" s="13" t="s">
-        <v>853</v>
+        <v>19</v>
       </c>
       <c r="H120" t="s">
         <v>20</v>
       </c>
       <c r="I120">
-        <v>16473451819</v>
+        <v>17059350053</v>
       </c>
       <c r="J120" t="s">
         <v>17</v>
@@ -6742,7 +6742,7 @@
     </row>
     <row r="121" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>451</v>
+        <v>60</v>
       </c>
       <c r="B121" t="s">
         <v>452</v>
@@ -6760,65 +6760,65 @@
         <v>19</v>
       </c>
       <c r="H121" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I121">
-        <v>17059350053</v>
-      </c>
-      <c r="J121" t="s">
-        <v>17</v>
+        <v>14165512030</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>60</v>
+        <v>455</v>
       </c>
       <c r="B122" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C122" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D122" t="s">
         <v>14</v>
       </c>
       <c r="E122" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F122" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H122" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I122">
-        <v>14165512030</v>
+        <v>17053621118</v>
+      </c>
+      <c r="J122" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B123" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C123" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D123" t="s">
         <v>14</v>
       </c>
       <c r="E123" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="F123" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H123" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I123">
-        <v>17053621118</v>
+        <v>19058877555</v>
       </c>
       <c r="J123" t="s">
         <v>17</v>
@@ -6826,7 +6826,7 @@
     </row>
     <row r="124" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>464</v>
+        <v>28</v>
       </c>
       <c r="B124" t="s">
         <v>465</v>
@@ -6847,7 +6847,7 @@
         <v>20</v>
       </c>
       <c r="I124">
-        <v>19058877555</v>
+        <v>14162316003</v>
       </c>
       <c r="J124" t="s">
         <v>17</v>
@@ -6855,7 +6855,7 @@
     </row>
     <row r="125" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="B125" t="s">
         <v>468</v>
@@ -6876,7 +6876,7 @@
         <v>20</v>
       </c>
       <c r="I125">
-        <v>14162316003</v>
+        <v>15192563602</v>
       </c>
       <c r="J125" t="s">
         <v>17</v>
@@ -6884,7 +6884,7 @@
     </row>
     <row r="126" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="B126" t="s">
         <v>471</v>
@@ -6905,7 +6905,7 @@
         <v>20</v>
       </c>
       <c r="I126">
-        <v>15192563602</v>
+        <v>19056419333</v>
       </c>
       <c r="J126" t="s">
         <v>17</v>
@@ -6913,19 +6913,19 @@
     </row>
     <row r="127" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B127" t="s">
+        <v>81</v>
+      </c>
+      <c r="C127" t="s">
         <v>474</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
+        <v>14</v>
+      </c>
+      <c r="E127" t="s">
         <v>475</v>
-      </c>
-      <c r="D127" t="s">
-        <v>14</v>
-      </c>
-      <c r="E127" t="s">
-        <v>476</v>
       </c>
       <c r="F127" s="6" t="s">
         <v>19</v>
@@ -6934,7 +6934,7 @@
         <v>20</v>
       </c>
       <c r="I127">
-        <v>19056419333</v>
+        <v>17052525599</v>
       </c>
       <c r="J127" t="s">
         <v>17</v>
@@ -6942,152 +6942,149 @@
     </row>
     <row r="128" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B128" t="s">
-        <v>81</v>
+        <v>479</v>
       </c>
       <c r="C128" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="D128" t="s">
         <v>14</v>
       </c>
       <c r="E128" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="F128" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H128" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="I128">
-        <v>17052525599</v>
+        <v>16137314367</v>
       </c>
       <c r="J128" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="129" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B129" t="s">
-        <v>482</v>
+        <v>459</v>
       </c>
       <c r="C129" t="s">
-        <v>483</v>
+        <v>460</v>
       </c>
       <c r="D129" t="s">
         <v>14</v>
       </c>
-      <c r="E129" t="s">
-        <v>484</v>
+      <c r="E129" s="20" t="s">
+        <v>869</v>
       </c>
       <c r="F129" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H129" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I129">
-        <v>16137314367</v>
-      </c>
-      <c r="J129" t="s">
-        <v>35</v>
+        <v>16134351420</v>
+      </c>
+      <c r="J129" s="14" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="130" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
+        <v>23</v>
+      </c>
+      <c r="B130" t="s">
+        <v>483</v>
+      </c>
+      <c r="C130" t="s">
+        <v>484</v>
+      </c>
+      <c r="D130" t="s">
+        <v>14</v>
+      </c>
+      <c r="E130" t="s">
+        <v>485</v>
+      </c>
+      <c r="F130" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H130" t="s">
+        <v>18</v>
+      </c>
+      <c r="I130">
+        <v>14167629922</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>80</v>
+      </c>
+      <c r="B131" t="s">
+        <v>476</v>
+      </c>
+      <c r="C131" t="s">
+        <v>477</v>
+      </c>
+      <c r="D131" t="s">
+        <v>14</v>
+      </c>
+      <c r="E131" s="20" t="s">
+        <v>478</v>
+      </c>
+      <c r="F131" s="6" t="s">
+        <v>848</v>
+      </c>
+      <c r="H131" t="s">
+        <v>20</v>
+      </c>
+      <c r="I131">
+        <v>12267732105</v>
+      </c>
+      <c r="J131" s="14" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
         <v>37</v>
       </c>
-      <c r="B130" t="s">
-        <v>462</v>
-      </c>
-      <c r="C130" t="s">
-        <v>463</v>
-      </c>
-      <c r="D130" t="s">
-        <v>14</v>
-      </c>
-      <c r="E130" s="20" t="s">
-        <v>872</v>
-      </c>
-      <c r="F130" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H130" t="s">
-        <v>20</v>
-      </c>
-      <c r="I130">
-        <v>16134351420</v>
-      </c>
-      <c r="J130" s="14" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>23</v>
-      </c>
-      <c r="B131" t="s">
+      <c r="B132" t="s">
         <v>486</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C132" t="s">
         <v>487</v>
       </c>
-      <c r="D131" t="s">
-        <v>14</v>
-      </c>
-      <c r="E131" t="s">
+      <c r="D132" t="s">
+        <v>14</v>
+      </c>
+      <c r="E132" t="s">
         <v>488</v>
       </c>
-      <c r="F131" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H131" t="s">
+      <c r="F132" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H132" t="s">
         <v>18</v>
       </c>
-      <c r="I131">
-        <v>14167629922</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>80</v>
-      </c>
-      <c r="B132" t="s">
-        <v>479</v>
-      </c>
-      <c r="C132" t="s">
-        <v>480</v>
-      </c>
-      <c r="D132" t="s">
-        <v>14</v>
-      </c>
-      <c r="E132" s="20" t="s">
-        <v>481</v>
-      </c>
-      <c r="F132" s="6" t="s">
-        <v>851</v>
-      </c>
-      <c r="H132" t="s">
-        <v>20</v>
-      </c>
       <c r="I132">
-        <v>12267732105</v>
-      </c>
-      <c r="J132" s="14" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>13435881547</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B133" t="s">
-        <v>489</v>
+        <v>99</v>
       </c>
       <c r="C133" t="s">
         <v>490</v>
@@ -7096,24 +7093,27 @@
         <v>14</v>
       </c>
       <c r="E133" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>19</v>
+        <v>834</v>
       </c>
       <c r="H133" t="s">
-        <v>18</v>
+        <v>849</v>
       </c>
       <c r="I133">
-        <v>13435881547</v>
+        <v>16134401420</v>
+      </c>
+      <c r="J133" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="134" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>40</v>
+        <v>491</v>
       </c>
       <c r="B134" t="s">
-        <v>99</v>
+        <v>492</v>
       </c>
       <c r="C134" t="s">
         <v>493</v>
@@ -7121,20 +7121,23 @@
       <c r="D134" t="s">
         <v>14</v>
       </c>
-      <c r="E134" t="s">
-        <v>492</v>
+      <c r="E134" s="20" t="s">
+        <v>872</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>837</v>
+        <v>854</v>
       </c>
       <c r="H134" t="s">
-        <v>852</v>
+        <v>20</v>
       </c>
       <c r="I134">
-        <v>16134401420</v>
-      </c>
-      <c r="J134" t="s">
-        <v>854</v>
+        <v>18076980012</v>
+      </c>
+      <c r="J134" s="14" t="s">
+        <v>871</v>
+      </c>
+      <c r="K134" s="14" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="135" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7151,33 +7154,30 @@
         <v>14</v>
       </c>
       <c r="E135" s="20" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="H135" t="s">
         <v>20</v>
       </c>
       <c r="I135">
-        <v>18076980012</v>
+        <v>18076989420</v>
       </c>
       <c r="J135" s="14" t="s">
-        <v>874</v>
-      </c>
-      <c r="K135" s="14" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
+        <v>90</v>
+      </c>
+      <c r="B136" t="s">
         <v>497</v>
       </c>
-      <c r="B136" t="s">
+      <c r="C136" t="s">
         <v>498</v>
-      </c>
-      <c r="C136" t="s">
-        <v>499</v>
       </c>
       <c r="D136" t="s">
         <v>14</v>
@@ -7186,24 +7186,27 @@
         <v>877</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>857</v>
+        <v>19</v>
       </c>
       <c r="H136" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="I136">
-        <v>18076989420</v>
+        <v>15193071300</v>
       </c>
       <c r="J136" s="14" t="s">
-        <v>874</v>
+        <v>875</v>
+      </c>
+      <c r="K136" s="14" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="137" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>90</v>
+        <v>267</v>
       </c>
       <c r="B137" t="s">
-        <v>500</v>
+        <v>230</v>
       </c>
       <c r="C137" t="s">
         <v>501</v>
@@ -7211,31 +7214,28 @@
       <c r="D137" t="s">
         <v>14</v>
       </c>
-      <c r="E137" s="20" t="s">
-        <v>880</v>
+      <c r="E137" t="s">
+        <v>502</v>
       </c>
       <c r="F137" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H137" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I137">
-        <v>15193071300</v>
-      </c>
-      <c r="J137" s="14" t="s">
-        <v>878</v>
-      </c>
-      <c r="K137" s="14" t="s">
-        <v>879</v>
+        <v>16135065874</v>
+      </c>
+      <c r="J137" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="138" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>267</v>
+        <v>30</v>
       </c>
       <c r="B138" t="s">
-        <v>230</v>
+        <v>503</v>
       </c>
       <c r="C138" t="s">
         <v>504</v>
@@ -7250,18 +7250,15 @@
         <v>19</v>
       </c>
       <c r="H138" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="I138">
-        <v>16135065874</v>
-      </c>
-      <c r="J138" t="s">
-        <v>35</v>
+        <v>19055220184</v>
       </c>
     </row>
     <row r="139" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B139" t="s">
         <v>506</v>
@@ -7279,76 +7276,79 @@
         <v>19</v>
       </c>
       <c r="H139" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="I139">
-        <v>19055220184</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14167785659</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="B140" t="s">
+        <v>499</v>
+      </c>
+      <c r="C140" t="s">
+        <v>268</v>
+      </c>
+      <c r="D140" t="s">
+        <v>110</v>
+      </c>
+      <c r="E140" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="F140" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="H140" t="s">
+        <v>20</v>
+      </c>
+      <c r="I140">
+        <v>12899806868</v>
+      </c>
+      <c r="J140" s="14" t="s">
+        <v>878</v>
+      </c>
+      <c r="K140" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>60</v>
+      </c>
+      <c r="B141" t="s">
+        <v>238</v>
+      </c>
+      <c r="C141" t="s">
         <v>509</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D141" t="s">
+        <v>14</v>
+      </c>
+      <c r="E141" t="s">
         <v>510</v>
       </c>
-      <c r="D140" t="s">
-        <v>14</v>
-      </c>
-      <c r="E140" t="s">
-        <v>511</v>
-      </c>
-      <c r="F140" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H140" t="s">
-        <v>18</v>
-      </c>
-      <c r="I140">
-        <v>14167785659</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>56</v>
-      </c>
-      <c r="B141" t="s">
-        <v>502</v>
-      </c>
-      <c r="C141" t="s">
-        <v>268</v>
-      </c>
-      <c r="D141" t="s">
-        <v>110</v>
-      </c>
-      <c r="E141" s="20" t="s">
-        <v>503</v>
-      </c>
       <c r="F141" s="6" t="s">
-        <v>808</v>
+        <v>19</v>
       </c>
       <c r="H141" t="s">
         <v>20</v>
       </c>
       <c r="I141">
-        <v>12899806868</v>
-      </c>
-      <c r="J141" s="14" t="s">
-        <v>881</v>
-      </c>
-      <c r="K141" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14167833008</v>
+      </c>
+      <c r="J141" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B142" t="s">
-        <v>238</v>
+        <v>511</v>
       </c>
       <c r="C142" t="s">
         <v>512</v>
@@ -7356,141 +7356,138 @@
       <c r="D142" t="s">
         <v>14</v>
       </c>
-      <c r="E142" t="s">
+      <c r="E142" s="20" t="s">
         <v>513</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>19</v>
+        <v>854</v>
       </c>
       <c r="H142" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I142">
-        <v>14167833008</v>
+        <v>17058814629</v>
       </c>
       <c r="J142" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="143" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B143" t="s">
+        <v>239</v>
+      </c>
+      <c r="C143" t="s">
         <v>514</v>
       </c>
-      <c r="C143" t="s">
-        <v>515</v>
-      </c>
       <c r="D143" t="s">
         <v>14</v>
       </c>
       <c r="E143" s="20" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="H143" t="s">
         <v>22</v>
       </c>
       <c r="I143">
-        <v>17058814629</v>
+        <v>17053250068</v>
       </c>
       <c r="J143" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B144" t="s">
-        <v>239</v>
+        <v>523</v>
       </c>
       <c r="C144" t="s">
+        <v>524</v>
+      </c>
+      <c r="D144" t="s">
+        <v>14</v>
+      </c>
+      <c r="E144" t="s">
+        <v>525</v>
+      </c>
+      <c r="F144" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H144" t="s">
+        <v>29</v>
+      </c>
+      <c r="I144">
+        <v>19057043664</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>23</v>
+      </c>
+      <c r="B145" t="s">
+        <v>515</v>
+      </c>
+      <c r="C145" t="s">
+        <v>516</v>
+      </c>
+      <c r="D145" t="s">
+        <v>14</v>
+      </c>
+      <c r="E145" s="20" t="s">
         <v>517</v>
       </c>
-      <c r="D144" t="s">
-        <v>14</v>
-      </c>
-      <c r="E144" s="20" t="s">
-        <v>516</v>
-      </c>
-      <c r="F144" s="6" t="s">
-        <v>857</v>
-      </c>
-      <c r="H144" t="s">
+      <c r="F145" s="6" t="s">
+        <v>854</v>
+      </c>
+      <c r="H145" t="s">
         <v>22</v>
       </c>
-      <c r="I144">
-        <v>17053250068</v>
-      </c>
-      <c r="J144" t="s">
+      <c r="I145">
+        <v>14165199159</v>
+      </c>
+      <c r="J145" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
-        <v>43</v>
-      </c>
-      <c r="B145" t="s">
-        <v>526</v>
-      </c>
-      <c r="C145" t="s">
-        <v>527</v>
-      </c>
-      <c r="D145" t="s">
-        <v>14</v>
-      </c>
-      <c r="E145" t="s">
-        <v>528</v>
-      </c>
-      <c r="F145" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H145" t="s">
-        <v>29</v>
-      </c>
-      <c r="I145">
-        <v>19057043664</v>
       </c>
     </row>
     <row r="146" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="B146" t="s">
+        <v>239</v>
+      </c>
+      <c r="C146" t="s">
         <v>518</v>
       </c>
-      <c r="C146" t="s">
+      <c r="D146" t="s">
+        <v>14</v>
+      </c>
+      <c r="E146" s="20" t="s">
         <v>519</v>
       </c>
-      <c r="D146" t="s">
-        <v>14</v>
-      </c>
-      <c r="E146" s="20" t="s">
-        <v>520</v>
-      </c>
       <c r="F146" s="6" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="H146" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I146">
-        <v>14165199159</v>
-      </c>
-      <c r="J146" t="s">
-        <v>39</v>
+        <v>17057071595</v>
       </c>
     </row>
     <row r="147" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="B147" t="s">
-        <v>239</v>
+        <v>520</v>
       </c>
       <c r="C147" t="s">
         <v>521</v>
@@ -7502,88 +7499,91 @@
         <v>522</v>
       </c>
       <c r="F147" s="6" t="s">
-        <v>857</v>
+        <v>805</v>
       </c>
       <c r="H147" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I147">
-        <v>17057071595</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19052395300</v>
+      </c>
+      <c r="J147" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>120</v>
+        <v>402</v>
       </c>
       <c r="B148" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C148" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="D148" t="s">
         <v>14</v>
       </c>
-      <c r="E148" s="20" t="s">
-        <v>525</v>
+      <c r="E148" t="s">
+        <v>528</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>808</v>
+        <v>19</v>
       </c>
       <c r="H148" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="I148">
-        <v>19052395300</v>
-      </c>
-      <c r="J148" s="14" t="s">
-        <v>17</v>
+        <v>19059308827</v>
+      </c>
+      <c r="J148" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="149" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>405</v>
+        <v>82</v>
       </c>
       <c r="B149" t="s">
+        <v>257</v>
+      </c>
+      <c r="C149" t="s">
         <v>529</v>
       </c>
-      <c r="C149" t="s">
+      <c r="D149" t="s">
+        <v>14</v>
+      </c>
+      <c r="E149" t="s">
         <v>530</v>
       </c>
-      <c r="D149" t="s">
-        <v>14</v>
-      </c>
-      <c r="E149" t="s">
-        <v>531</v>
-      </c>
       <c r="F149" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H149" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I149">
-        <v>19059308827</v>
+        <v>16134222211</v>
       </c>
       <c r="J149" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="150" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>82</v>
+        <v>284</v>
       </c>
       <c r="B150" t="s">
         <v>257</v>
       </c>
       <c r="C150" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D150" t="s">
         <v>14</v>
       </c>
       <c r="E150" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F150" s="6" t="s">
         <v>19</v>
@@ -7600,25 +7600,25 @@
     </row>
     <row r="151" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>284</v>
+        <v>41</v>
       </c>
       <c r="B151" t="s">
         <v>257</v>
       </c>
       <c r="C151" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D151" t="s">
         <v>14</v>
       </c>
       <c r="E151" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F151" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H151" t="s">
-        <v>22</v>
+        <v>209</v>
       </c>
       <c r="I151">
         <v>16134222211</v>
@@ -7629,10 +7629,10 @@
     </row>
     <row r="152" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="B152" t="s">
-        <v>257</v>
+        <v>534</v>
       </c>
       <c r="C152" t="s">
         <v>535</v>
@@ -7647,47 +7647,47 @@
         <v>19</v>
       </c>
       <c r="H152" t="s">
-        <v>209</v>
+        <v>34</v>
       </c>
       <c r="I152">
-        <v>16134222211</v>
+        <v>19056323154</v>
       </c>
       <c r="J152" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="153" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B153" t="s">
+        <v>536</v>
+      </c>
+      <c r="C153" t="s">
         <v>537</v>
       </c>
-      <c r="C153" t="s">
+      <c r="D153" t="s">
+        <v>14</v>
+      </c>
+      <c r="E153" t="s">
         <v>538</v>
       </c>
-      <c r="D153" t="s">
-        <v>14</v>
-      </c>
-      <c r="E153" t="s">
-        <v>536</v>
-      </c>
       <c r="F153" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H153" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I153">
-        <v>19056323154</v>
+        <v>14166910899</v>
       </c>
       <c r="J153" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="154" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="B154" t="s">
         <v>539</v>
@@ -7699,7 +7699,7 @@
         <v>14</v>
       </c>
       <c r="E154" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F154" s="6" t="s">
         <v>19</v>
@@ -7708,7 +7708,7 @@
         <v>20</v>
       </c>
       <c r="I154">
-        <v>14166910899</v>
+        <v>14164105442</v>
       </c>
       <c r="J154" t="s">
         <v>17</v>
@@ -7716,62 +7716,59 @@
     </row>
     <row r="155" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="B155" t="s">
+        <v>126</v>
+      </c>
+      <c r="C155" t="s">
+        <v>541</v>
+      </c>
+      <c r="D155" t="s">
+        <v>14</v>
+      </c>
+      <c r="E155" t="s">
         <v>542</v>
       </c>
-      <c r="C155" t="s">
-        <v>543</v>
-      </c>
-      <c r="D155" t="s">
-        <v>14</v>
-      </c>
-      <c r="E155" t="s">
-        <v>541</v>
-      </c>
       <c r="F155" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H155" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I155">
-        <v>14164105442</v>
-      </c>
-      <c r="J155" t="s">
-        <v>17</v>
+        <v>15199443180</v>
       </c>
     </row>
     <row r="156" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="B156" t="s">
-        <v>126</v>
+        <v>546</v>
       </c>
       <c r="C156" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="D156" t="s">
         <v>14</v>
       </c>
       <c r="E156" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="F156" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H156" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I156">
-        <v>15199443180</v>
+        <v>19055745323</v>
       </c>
     </row>
     <row r="157" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B157" t="s">
         <v>549</v>
@@ -7789,152 +7786,158 @@
         <v>19</v>
       </c>
       <c r="H157" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I157">
-        <v>19055745323</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14165852263</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>23</v>
       </c>
       <c r="B158" t="s">
+        <v>544</v>
+      </c>
+      <c r="C158" t="s">
+        <v>545</v>
+      </c>
+      <c r="D158" t="s">
+        <v>14</v>
+      </c>
+      <c r="E158" s="20" t="s">
+        <v>543</v>
+      </c>
+      <c r="F158" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="H158" t="s">
+        <v>20</v>
+      </c>
+      <c r="I158">
+        <v>14167922447</v>
+      </c>
+      <c r="J158" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>49</v>
+      </c>
+      <c r="B159" t="s">
         <v>552</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C159" t="s">
         <v>553</v>
       </c>
-      <c r="D158" t="s">
-        <v>14</v>
-      </c>
-      <c r="E158" t="s">
+      <c r="D159" t="s">
+        <v>14</v>
+      </c>
+      <c r="E159" t="s">
         <v>554</v>
       </c>
-      <c r="F158" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H158" t="s">
-        <v>18</v>
-      </c>
-      <c r="I158">
-        <v>14165852263</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
-        <v>23</v>
-      </c>
-      <c r="B159" t="s">
-        <v>547</v>
-      </c>
-      <c r="C159" t="s">
-        <v>548</v>
-      </c>
-      <c r="D159" t="s">
-        <v>14</v>
-      </c>
-      <c r="E159" s="20" t="s">
-        <v>546</v>
-      </c>
       <c r="F159" s="6" t="s">
-        <v>808</v>
+        <v>19</v>
       </c>
       <c r="H159" t="s">
         <v>20</v>
       </c>
       <c r="I159">
-        <v>14167922447</v>
-      </c>
-      <c r="J159" s="14" t="s">
+        <v>19054973131</v>
+      </c>
+      <c r="J159" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="160" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
+        <v>558</v>
+      </c>
+      <c r="B160" t="s">
+        <v>559</v>
+      </c>
+      <c r="C160" t="s">
+        <v>560</v>
+      </c>
+      <c r="D160" t="s">
+        <v>14</v>
+      </c>
+      <c r="E160" t="s">
+        <v>561</v>
+      </c>
+      <c r="F160" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H160" t="s">
+        <v>18</v>
+      </c>
+      <c r="I160">
+        <v>16133995777</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>191</v>
+      </c>
+      <c r="B161" t="s">
+        <v>555</v>
+      </c>
+      <c r="C161" t="s">
+        <v>556</v>
+      </c>
+      <c r="D161" t="s">
+        <v>14</v>
+      </c>
+      <c r="E161" s="20" t="s">
+        <v>557</v>
+      </c>
+      <c r="F161" s="6" t="s">
+        <v>848</v>
+      </c>
+      <c r="H161" t="s">
+        <v>20</v>
+      </c>
+      <c r="I161">
+        <v>17053449086</v>
+      </c>
+      <c r="J161" s="14" t="s">
+        <v>880</v>
+      </c>
+      <c r="K161" s="14" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
         <v>49</v>
       </c>
-      <c r="B160" t="s">
-        <v>555</v>
-      </c>
-      <c r="C160" t="s">
-        <v>556</v>
-      </c>
-      <c r="D160" t="s">
-        <v>14</v>
-      </c>
-      <c r="E160" t="s">
-        <v>557</v>
-      </c>
-      <c r="F160" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H160" t="s">
-        <v>20</v>
-      </c>
-      <c r="I160">
-        <v>19054973131</v>
-      </c>
-      <c r="J160" t="s">
+      <c r="B162" t="s">
+        <v>562</v>
+      </c>
+      <c r="C162" t="s">
+        <v>563</v>
+      </c>
+      <c r="D162" t="s">
+        <v>14</v>
+      </c>
+      <c r="E162" s="20" t="s">
+        <v>564</v>
+      </c>
+      <c r="F162" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H162" t="s">
+        <v>16</v>
+      </c>
+      <c r="I162">
+        <v>19054979585</v>
+      </c>
+      <c r="J162" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="161" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
-        <v>561</v>
-      </c>
-      <c r="B161" t="s">
-        <v>562</v>
-      </c>
-      <c r="C161" t="s">
-        <v>563</v>
-      </c>
-      <c r="D161" t="s">
-        <v>14</v>
-      </c>
-      <c r="E161" t="s">
-        <v>564</v>
-      </c>
-      <c r="F161" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H161" t="s">
-        <v>18</v>
-      </c>
-      <c r="I161">
-        <v>16133995777</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
-        <v>191</v>
-      </c>
-      <c r="B162" t="s">
-        <v>558</v>
-      </c>
-      <c r="C162" t="s">
-        <v>559</v>
-      </c>
-      <c r="D162" t="s">
-        <v>14</v>
-      </c>
-      <c r="E162" s="20" t="s">
-        <v>560</v>
-      </c>
-      <c r="F162" s="6" t="s">
-        <v>851</v>
-      </c>
-      <c r="H162" t="s">
-        <v>20</v>
-      </c>
-      <c r="I162">
-        <v>17053449086</v>
-      </c>
-      <c r="J162" s="14" t="s">
-        <v>883</v>
-      </c>
-      <c r="K162" s="14" t="s">
-        <v>884</v>
+      <c r="K162" s="26" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="163" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -7942,31 +7945,25 @@
         <v>49</v>
       </c>
       <c r="B163" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="C163" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="D163" t="s">
         <v>14</v>
       </c>
-      <c r="E163" s="20" t="s">
-        <v>567</v>
+      <c r="E163" t="s">
+        <v>574</v>
       </c>
       <c r="F163" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H163" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I163">
-        <v>19054979585</v>
-      </c>
-      <c r="J163" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K163" s="26" t="s">
-        <v>885</v>
+        <v>19052161012</v>
       </c>
     </row>
     <row r="164" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -7974,94 +7971,100 @@
         <v>49</v>
       </c>
       <c r="B164" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="C164" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="D164" t="s">
         <v>14</v>
       </c>
-      <c r="E164" t="s">
-        <v>577</v>
+      <c r="E164" s="20" t="s">
+        <v>564</v>
       </c>
       <c r="F164" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H164" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I164">
-        <v>19052161012</v>
+        <v>19054979522</v>
+      </c>
+      <c r="J164" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K164" s="26" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="165" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="B165" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="C165" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="D165" t="s">
         <v>14</v>
       </c>
-      <c r="E165" s="20" t="s">
-        <v>567</v>
+      <c r="E165" t="s">
+        <v>577</v>
       </c>
       <c r="F165" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H165" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I165">
-        <v>19054979522</v>
-      </c>
-      <c r="J165" s="14" t="s">
+        <v>14164771489</v>
+      </c>
+      <c r="J165" t="s">
         <v>17</v>
-      </c>
-      <c r="K165" s="26" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="166" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="B166" t="s">
-        <v>578</v>
+        <v>562</v>
       </c>
       <c r="C166" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="D166" t="s">
         <v>14</v>
       </c>
-      <c r="E166" t="s">
-        <v>580</v>
+      <c r="E166" s="20" t="s">
+        <v>564</v>
       </c>
       <c r="F166" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H166" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I166">
-        <v>14164771489</v>
-      </c>
-      <c r="J166" t="s">
+        <v>19054979550</v>
+      </c>
+      <c r="J166" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="167" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K166" s="26" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>122</v>
+        <v>568</v>
       </c>
       <c r="B167" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="C167" t="s">
         <v>570</v>
@@ -8070,71 +8073,65 @@
         <v>14</v>
       </c>
       <c r="E167" s="20" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="F167" s="6" t="s">
-        <v>19</v>
+        <v>848</v>
       </c>
       <c r="H167" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="I167">
-        <v>19054979550</v>
+        <v>15198485656</v>
       </c>
       <c r="J167" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K167" s="26" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>883</v>
+      </c>
+      <c r="K167" s="14" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="B168" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="C168" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="D168" t="s">
         <v>14</v>
       </c>
-      <c r="E168" s="20" t="s">
-        <v>574</v>
+      <c r="E168" t="s">
+        <v>583</v>
       </c>
       <c r="F168" s="6" t="s">
-        <v>851</v>
+        <v>19</v>
       </c>
       <c r="H168" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I168">
-        <v>15198485656</v>
-      </c>
-      <c r="J168" s="14" t="s">
-        <v>886</v>
-      </c>
-      <c r="K168" s="14" t="s">
-        <v>887</v>
+        <v>16139240007</v>
       </c>
     </row>
     <row r="169" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B169" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C169" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D169" t="s">
         <v>14</v>
       </c>
       <c r="E169" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F169" s="6" t="s">
         <v>19</v>
@@ -8143,12 +8140,12 @@
         <v>29</v>
       </c>
       <c r="I169">
-        <v>16139240007</v>
+        <v>18072272045</v>
       </c>
     </row>
     <row r="170" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>587</v>
+        <v>121</v>
       </c>
       <c r="B170" t="s">
         <v>588</v>
@@ -8166,47 +8163,50 @@
         <v>19</v>
       </c>
       <c r="H170" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I170">
-        <v>18072272045</v>
+        <v>15197848420</v>
+      </c>
+      <c r="J170" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="171" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>121</v>
-      </c>
-      <c r="B171" t="s">
+        <v>23</v>
+      </c>
+      <c r="B171">
+        <v>1922</v>
+      </c>
+      <c r="C171" t="s">
         <v>591</v>
       </c>
-      <c r="C171" t="s">
+      <c r="D171" t="s">
+        <v>14</v>
+      </c>
+      <c r="E171" t="s">
         <v>592</v>
       </c>
-      <c r="D171" t="s">
-        <v>14</v>
-      </c>
-      <c r="E171" t="s">
-        <v>593</v>
-      </c>
       <c r="F171" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H171" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="I171">
-        <v>15197848420</v>
+        <v>14162628744</v>
       </c>
       <c r="J171" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="172" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>23</v>
-      </c>
-      <c r="B172">
-        <v>1922</v>
+        <v>33</v>
+      </c>
+      <c r="B172" t="s">
+        <v>593</v>
       </c>
       <c r="C172" t="s">
         <v>594</v>
@@ -8221,18 +8221,18 @@
         <v>19</v>
       </c>
       <c r="H172" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I172">
-        <v>14162628744</v>
+        <v>14162640777</v>
       </c>
       <c r="J172" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="173" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="B173" t="s">
         <v>596</v>
@@ -8250,18 +8250,18 @@
         <v>19</v>
       </c>
       <c r="H173" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="I173">
-        <v>14162640777</v>
+        <v>14165518982</v>
       </c>
       <c r="J173" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="174" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B174" t="s">
         <v>599</v>
@@ -8279,50 +8279,47 @@
         <v>19</v>
       </c>
       <c r="H174" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I174">
-        <v>14165518982</v>
+        <v>15197586326</v>
       </c>
       <c r="J174" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="175" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B175" t="s">
+        <v>44</v>
+      </c>
+      <c r="C175" t="s">
         <v>602</v>
       </c>
-      <c r="C175" t="s">
+      <c r="D175" t="s">
+        <v>14</v>
+      </c>
+      <c r="E175" t="s">
         <v>603</v>
       </c>
-      <c r="D175" t="s">
-        <v>14</v>
-      </c>
-      <c r="E175" t="s">
-        <v>604</v>
-      </c>
       <c r="F175" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H175" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I175">
-        <v>15197586326</v>
-      </c>
-      <c r="J175" t="s">
-        <v>35</v>
+        <v>16477953809</v>
       </c>
     </row>
     <row r="176" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B176" t="s">
-        <v>44</v>
+        <v>604</v>
       </c>
       <c r="C176" t="s">
         <v>605</v>
@@ -8337,36 +8334,39 @@
         <v>19</v>
       </c>
       <c r="H176" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I176">
-        <v>16477953809</v>
+        <v>14166908081</v>
+      </c>
+      <c r="J176" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="177" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="B177" t="s">
+        <v>604</v>
+      </c>
+      <c r="C177" t="s">
         <v>607</v>
       </c>
-      <c r="C177" t="s">
-        <v>608</v>
-      </c>
       <c r="D177" t="s">
         <v>14</v>
       </c>
       <c r="E177" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="F177" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H177" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I177">
-        <v>14166908081</v>
+        <v>14162837433</v>
       </c>
       <c r="J177" t="s">
         <v>17</v>
@@ -8374,10 +8374,10 @@
     </row>
     <row r="178" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>108</v>
+        <v>608</v>
       </c>
       <c r="B178" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C178" t="s">
         <v>610</v>
@@ -8386,82 +8386,82 @@
         <v>14</v>
       </c>
       <c r="E178" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="F178" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H178" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I178">
-        <v>14162837433</v>
-      </c>
-      <c r="J178" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16133590100</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>611</v>
+        <v>122</v>
       </c>
       <c r="B179" t="s">
-        <v>612</v>
+        <v>155</v>
       </c>
       <c r="C179" t="s">
-        <v>613</v>
+        <v>578</v>
       </c>
       <c r="D179" t="s">
         <v>14</v>
       </c>
-      <c r="E179" t="s">
-        <v>614</v>
+      <c r="E179" s="20" t="s">
+        <v>579</v>
       </c>
       <c r="F179" s="6" t="s">
-        <v>19</v>
+        <v>848</v>
       </c>
       <c r="H179" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I179">
-        <v>16133590100</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19052782222</v>
+      </c>
+      <c r="J179" s="14" t="s">
+        <v>886</v>
+      </c>
+      <c r="K179" s="27" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="B180" t="s">
-        <v>155</v>
+        <v>618</v>
       </c>
       <c r="C180" t="s">
-        <v>581</v>
+        <v>619</v>
       </c>
       <c r="D180" t="s">
         <v>14</v>
       </c>
-      <c r="E180" s="20" t="s">
-        <v>582</v>
+      <c r="E180" t="s">
+        <v>620</v>
       </c>
       <c r="F180" s="6" t="s">
-        <v>851</v>
+        <v>19</v>
       </c>
       <c r="H180" t="s">
         <v>20</v>
       </c>
       <c r="I180">
-        <v>19052782222</v>
-      </c>
-      <c r="J180" s="14" t="s">
-        <v>889</v>
-      </c>
-      <c r="K180" s="27" t="s">
-        <v>888</v>
+        <v>16132333000</v>
+      </c>
+      <c r="J180" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="181" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B181" t="s">
         <v>621</v>
@@ -8479,18 +8479,15 @@
         <v>19</v>
       </c>
       <c r="H181" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I181">
-        <v>16132333000</v>
-      </c>
-      <c r="J181" t="s">
-        <v>17</v>
+        <v>12892461172</v>
       </c>
     </row>
     <row r="182" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B182" t="s">
         <v>624</v>
@@ -8502,7 +8499,7 @@
         <v>14</v>
       </c>
       <c r="E182" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="F182" s="6" t="s">
         <v>19</v>
@@ -8511,24 +8508,24 @@
         <v>18</v>
       </c>
       <c r="I182">
-        <v>12892461172</v>
+        <v>15199042637</v>
       </c>
     </row>
     <row r="183" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>45</v>
+        <v>626</v>
       </c>
       <c r="B183" t="s">
+        <v>624</v>
+      </c>
+      <c r="C183" t="s">
         <v>627</v>
       </c>
-      <c r="C183" t="s">
-        <v>628</v>
-      </c>
       <c r="D183" t="s">
         <v>14</v>
       </c>
       <c r="E183" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="F183" s="6" t="s">
         <v>19</v>
@@ -8537,24 +8534,24 @@
         <v>18</v>
       </c>
       <c r="I183">
-        <v>15199042637</v>
+        <v>12262530859</v>
       </c>
     </row>
     <row r="184" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>629</v>
+        <v>121</v>
       </c>
       <c r="B184" t="s">
-        <v>627</v>
+        <v>198</v>
       </c>
       <c r="C184" t="s">
-        <v>630</v>
+        <v>363</v>
       </c>
       <c r="D184" t="s">
         <v>14</v>
       </c>
       <c r="E184" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="F184" s="6" t="s">
         <v>19</v>
@@ -8563,33 +8560,33 @@
         <v>18</v>
       </c>
       <c r="I184">
-        <v>12262530859</v>
+        <v>15193542255</v>
       </c>
     </row>
     <row r="185" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="B185" t="s">
         <v>198</v>
       </c>
       <c r="C185" t="s">
-        <v>366</v>
+        <v>629</v>
       </c>
       <c r="D185" t="s">
         <v>14</v>
       </c>
       <c r="E185" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F185" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H185" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="I185">
-        <v>15193542255</v>
+        <v>15192582544</v>
       </c>
     </row>
     <row r="186" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -8600,7 +8597,7 @@
         <v>198</v>
       </c>
       <c r="C186" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D186" t="s">
         <v>14</v>
@@ -8612,10 +8609,10 @@
         <v>19</v>
       </c>
       <c r="H186" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="I186">
-        <v>15192582544</v>
+        <v>15192500712</v>
       </c>
     </row>
     <row r="187" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -8626,178 +8623,178 @@
         <v>198</v>
       </c>
       <c r="C187" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D187" t="s">
         <v>14</v>
       </c>
       <c r="E187" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="F187" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H187" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I187">
-        <v>15192500712</v>
+        <v>15199678818</v>
       </c>
     </row>
     <row r="188" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>80</v>
+        <v>633</v>
       </c>
       <c r="B188" t="s">
         <v>198</v>
       </c>
       <c r="C188" t="s">
+        <v>634</v>
+      </c>
+      <c r="D188" t="s">
+        <v>14</v>
+      </c>
+      <c r="E188" t="s">
         <v>635</v>
       </c>
-      <c r="D188" t="s">
-        <v>14</v>
-      </c>
-      <c r="E188" t="s">
-        <v>634</v>
-      </c>
       <c r="F188" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H188" t="s">
+        <v>34</v>
+      </c>
+      <c r="I188">
+        <v>15195077830</v>
+      </c>
+      <c r="J188" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>49</v>
+      </c>
+      <c r="B189" t="s">
+        <v>613</v>
+      </c>
+      <c r="C189" t="s">
+        <v>614</v>
+      </c>
+      <c r="D189" t="s">
+        <v>14</v>
+      </c>
+      <c r="E189" s="20" t="s">
+        <v>615</v>
+      </c>
+      <c r="F189" s="6" t="s">
+        <v>848</v>
+      </c>
+      <c r="H189" t="s">
+        <v>20</v>
+      </c>
+      <c r="I189">
+        <v>19054530698</v>
+      </c>
+      <c r="J189" s="14" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>636</v>
+      </c>
+      <c r="B190" t="s">
+        <v>637</v>
+      </c>
+      <c r="C190" t="s">
+        <v>638</v>
+      </c>
+      <c r="D190" t="s">
+        <v>14</v>
+      </c>
+      <c r="E190" t="s">
+        <v>639</v>
+      </c>
+      <c r="F190" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H190" t="s">
+        <v>29</v>
+      </c>
+      <c r="I190">
+        <v>16133722272</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>57</v>
+      </c>
+      <c r="B191" t="s">
+        <v>613</v>
+      </c>
+      <c r="C191" t="s">
+        <v>616</v>
+      </c>
+      <c r="D191" t="s">
+        <v>14</v>
+      </c>
+      <c r="E191" s="20" t="s">
+        <v>617</v>
+      </c>
+      <c r="F191" s="6" t="s">
+        <v>848</v>
+      </c>
+      <c r="H191" t="s">
+        <v>20</v>
+      </c>
+      <c r="I191">
+        <v>15197446627</v>
+      </c>
+      <c r="J191" s="14" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>49</v>
+      </c>
+      <c r="B192" t="s">
+        <v>220</v>
+      </c>
+      <c r="C192" t="s">
+        <v>640</v>
+      </c>
+      <c r="D192" t="s">
+        <v>14</v>
+      </c>
+      <c r="E192" t="s">
+        <v>641</v>
+      </c>
+      <c r="F192" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H192" t="s">
         <v>18</v>
       </c>
-      <c r="I188">
-        <v>15199678818</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A189" t="s">
-        <v>636</v>
-      </c>
-      <c r="B189" t="s">
-        <v>198</v>
-      </c>
-      <c r="C189" t="s">
-        <v>637</v>
-      </c>
-      <c r="D189" t="s">
-        <v>14</v>
-      </c>
-      <c r="E189" t="s">
-        <v>638</v>
-      </c>
-      <c r="F189" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H189" t="s">
-        <v>34</v>
-      </c>
-      <c r="I189">
-        <v>15195077830</v>
-      </c>
-      <c r="J189" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
-        <v>49</v>
-      </c>
-      <c r="B190" t="s">
-        <v>616</v>
-      </c>
-      <c r="C190" t="s">
-        <v>617</v>
-      </c>
-      <c r="D190" t="s">
-        <v>14</v>
-      </c>
-      <c r="E190" s="20" t="s">
-        <v>618</v>
-      </c>
-      <c r="F190" s="6" t="s">
-        <v>851</v>
-      </c>
-      <c r="H190" t="s">
-        <v>20</v>
-      </c>
-      <c r="I190">
-        <v>19054530698</v>
-      </c>
-      <c r="J190" s="14" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A191" t="s">
-        <v>639</v>
-      </c>
-      <c r="B191" t="s">
-        <v>640</v>
-      </c>
-      <c r="C191" t="s">
-        <v>641</v>
-      </c>
-      <c r="D191" t="s">
-        <v>14</v>
-      </c>
-      <c r="E191" t="s">
-        <v>642</v>
-      </c>
-      <c r="F191" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H191" t="s">
-        <v>29</v>
-      </c>
-      <c r="I191">
-        <v>16133722272</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192" t="s">
-        <v>57</v>
-      </c>
-      <c r="B192" t="s">
-        <v>616</v>
-      </c>
-      <c r="C192" t="s">
-        <v>619</v>
-      </c>
-      <c r="D192" t="s">
-        <v>14</v>
-      </c>
-      <c r="E192" s="20" t="s">
-        <v>620</v>
-      </c>
-      <c r="F192" s="6" t="s">
-        <v>851</v>
-      </c>
-      <c r="H192" t="s">
-        <v>20</v>
-      </c>
       <c r="I192">
-        <v>15197446627</v>
-      </c>
-      <c r="J192" s="14" t="s">
-        <v>893</v>
+        <v>19054956454</v>
       </c>
     </row>
     <row r="193" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>49</v>
+        <v>612</v>
       </c>
       <c r="B193" t="s">
         <v>220</v>
       </c>
       <c r="C193" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D193" t="s">
         <v>14</v>
       </c>
       <c r="E193" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="F193" s="6" t="s">
         <v>19</v>
@@ -8811,19 +8808,19 @@
     </row>
     <row r="194" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>615</v>
+        <v>30</v>
       </c>
       <c r="B194" t="s">
-        <v>220</v>
+        <v>643</v>
       </c>
       <c r="C194" t="s">
+        <v>644</v>
+      </c>
+      <c r="D194" t="s">
+        <v>14</v>
+      </c>
+      <c r="E194" t="s">
         <v>645</v>
-      </c>
-      <c r="D194" t="s">
-        <v>14</v>
-      </c>
-      <c r="E194" t="s">
-        <v>644</v>
       </c>
       <c r="F194" s="6" t="s">
         <v>19</v>
@@ -8832,12 +8829,12 @@
         <v>18</v>
       </c>
       <c r="I194">
-        <v>19054956454</v>
+        <v>19055288955</v>
       </c>
     </row>
     <row r="195" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="B195" t="s">
         <v>646</v>
@@ -8855,15 +8852,15 @@
         <v>19</v>
       </c>
       <c r="H195" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I195">
-        <v>19055288955</v>
+        <v>15197571001</v>
       </c>
     </row>
     <row r="196" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>52</v>
+        <v>200</v>
       </c>
       <c r="B196" t="s">
         <v>649</v>
@@ -8881,15 +8878,18 @@
         <v>19</v>
       </c>
       <c r="H196" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I196">
-        <v>15197571001</v>
+        <v>17053209898</v>
+      </c>
+      <c r="J196" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="197" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="B197" t="s">
         <v>652</v>
@@ -8907,18 +8907,18 @@
         <v>19</v>
       </c>
       <c r="H197" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="I197">
-        <v>17053209898</v>
+        <v>12265595922</v>
       </c>
       <c r="J197" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="198" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>210</v>
+        <v>57</v>
       </c>
       <c r="B198" t="s">
         <v>655</v>
@@ -8936,47 +8936,44 @@
         <v>19</v>
       </c>
       <c r="H198" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I198">
-        <v>12265595922</v>
+        <v>15199545323</v>
       </c>
       <c r="J198" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="199" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>57</v>
+        <v>658</v>
       </c>
       <c r="B199" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C199" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D199" t="s">
         <v>14</v>
       </c>
       <c r="E199" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F199" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H199" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I199">
-        <v>15199545323</v>
-      </c>
-      <c r="J199" t="s">
-        <v>39</v>
+        <v>12892982856</v>
       </c>
     </row>
     <row r="200" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>661</v>
+        <v>304</v>
       </c>
       <c r="B200" t="s">
         <v>662</v>
@@ -8994,15 +8991,18 @@
         <v>19</v>
       </c>
       <c r="H200" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I200">
-        <v>12892982856</v>
+        <v>19055633933</v>
+      </c>
+      <c r="J200" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="201" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>307</v>
+        <v>43</v>
       </c>
       <c r="B201" t="s">
         <v>665</v>
@@ -9023,7 +9023,7 @@
         <v>20</v>
       </c>
       <c r="I201">
-        <v>19055633933</v>
+        <v>12892732782</v>
       </c>
       <c r="J201" t="s">
         <v>17</v>
@@ -9031,7 +9031,7 @@
     </row>
     <row r="202" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B202" t="s">
         <v>668</v>
@@ -9049,18 +9049,15 @@
         <v>19</v>
       </c>
       <c r="H202" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I202">
-        <v>12892732782</v>
-      </c>
-      <c r="J202" t="s">
-        <v>17</v>
+        <v>15193040660</v>
       </c>
     </row>
     <row r="203" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>52</v>
+        <v>365</v>
       </c>
       <c r="B203" t="s">
         <v>671</v>
@@ -9072,47 +9069,45 @@
         <v>14</v>
       </c>
       <c r="E203" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="F203" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H203" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I203">
-        <v>15193040660</v>
+        <v>17058879567</v>
       </c>
     </row>
     <row r="204" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>368</v>
+        <v>23</v>
       </c>
       <c r="B204" t="s">
+        <v>673</v>
+      </c>
+      <c r="C204" t="s">
         <v>674</v>
       </c>
-      <c r="C204" t="s">
+      <c r="D204" t="s">
+        <v>14</v>
+      </c>
+      <c r="E204" t="s">
         <v>675</v>
       </c>
-      <c r="D204" t="s">
-        <v>14</v>
-      </c>
-      <c r="E204" t="s">
-        <v>673</v>
-      </c>
       <c r="F204" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H204" t="s">
-        <v>18</v>
-      </c>
-      <c r="I204">
-        <v>17058879567</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="I204"/>
+    </row>
+    <row r="205" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="B205" t="s">
         <v>676</v>
@@ -9120,64 +9115,69 @@
       <c r="C205" t="s">
         <v>677</v>
       </c>
-      <c r="D205" t="s">
-        <v>14</v>
-      </c>
-      <c r="E205" t="s">
+      <c r="D205" s="7" t="s">
         <v>678</v>
       </c>
+      <c r="E205" s="17" t="s">
+        <v>679</v>
+      </c>
       <c r="F205" s="6" t="s">
-        <v>19</v>
+        <v>834</v>
       </c>
       <c r="H205" t="s">
-        <v>32</v>
-      </c>
-      <c r="I205"/>
-    </row>
-    <row r="206" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="I205" s="16">
+        <v>12262711259</v>
+      </c>
+      <c r="J205" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B206" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C206" t="s">
-        <v>680</v>
-      </c>
-      <c r="D206" s="7" t="s">
         <v>681</v>
       </c>
-      <c r="E206" s="17" t="s">
+      <c r="D206" t="s">
+        <v>14</v>
+      </c>
+      <c r="E206" t="s">
         <v>682</v>
       </c>
       <c r="F206" s="6" t="s">
-        <v>837</v>
+        <v>19</v>
       </c>
       <c r="H206" t="s">
-        <v>71</v>
-      </c>
-      <c r="I206" s="16">
-        <v>12262711259</v>
+        <v>20</v>
+      </c>
+      <c r="I206">
+        <v>14164002045</v>
       </c>
       <c r="J206" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="207" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="B207" t="s">
+        <v>680</v>
+      </c>
+      <c r="C207" t="s">
         <v>683</v>
       </c>
-      <c r="C207" t="s">
-        <v>684</v>
-      </c>
       <c r="D207" t="s">
         <v>14</v>
       </c>
       <c r="E207" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="F207" s="6" t="s">
         <v>19</v>
@@ -9186,7 +9186,7 @@
         <v>20</v>
       </c>
       <c r="I207">
-        <v>14164002045</v>
+        <v>14164002883</v>
       </c>
       <c r="J207" t="s">
         <v>17</v>
@@ -9197,16 +9197,16 @@
         <v>23</v>
       </c>
       <c r="B208" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C208" t="s">
+        <v>685</v>
+      </c>
+      <c r="D208" t="s">
+        <v>14</v>
+      </c>
+      <c r="E208" t="s">
         <v>686</v>
-      </c>
-      <c r="D208" t="s">
-        <v>14</v>
-      </c>
-      <c r="E208" t="s">
-        <v>685</v>
       </c>
       <c r="F208" s="6" t="s">
         <v>19</v>
@@ -9215,7 +9215,7 @@
         <v>20</v>
       </c>
       <c r="I208">
-        <v>14164002883</v>
+        <v>14167813128</v>
       </c>
       <c r="J208" t="s">
         <v>17</v>
@@ -9223,7 +9223,7 @@
     </row>
     <row r="209" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="B209" t="s">
         <v>687</v>
@@ -9241,39 +9241,39 @@
         <v>19</v>
       </c>
       <c r="H209" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I209">
-        <v>14167813128</v>
+        <v>14166308420</v>
       </c>
       <c r="J209" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="210" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="B210" t="s">
+        <v>687</v>
+      </c>
+      <c r="C210" t="s">
         <v>690</v>
       </c>
-      <c r="C210" t="s">
+      <c r="D210" t="s">
+        <v>14</v>
+      </c>
+      <c r="E210" t="s">
         <v>691</v>
       </c>
-      <c r="D210" t="s">
-        <v>14</v>
-      </c>
-      <c r="E210" t="s">
-        <v>692</v>
-      </c>
       <c r="F210" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H210" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I210">
-        <v>14166308420</v>
+        <v>15482884335</v>
       </c>
       <c r="J210" t="s">
         <v>39</v>
@@ -9281,83 +9281,83 @@
     </row>
     <row r="211" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="B211" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C211" t="s">
+        <v>692</v>
+      </c>
+      <c r="D211" t="s">
+        <v>14</v>
+      </c>
+      <c r="E211" t="s">
         <v>693</v>
       </c>
-      <c r="D211" t="s">
-        <v>14</v>
-      </c>
-      <c r="E211" t="s">
+      <c r="F211" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H211" t="s">
+        <v>32</v>
+      </c>
+      <c r="I211">
+        <v>16478079072</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>21</v>
+      </c>
+      <c r="B212" t="s">
+        <v>118</v>
+      </c>
+      <c r="C212" t="s">
+        <v>482</v>
+      </c>
+      <c r="D212" t="s">
+        <v>110</v>
+      </c>
+      <c r="E212" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="F211" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H211" t="s">
-        <v>38</v>
-      </c>
-      <c r="I211">
-        <v>15482884335</v>
-      </c>
-      <c r="J211" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A212" t="s">
-        <v>23</v>
-      </c>
-      <c r="B212" t="s">
-        <v>690</v>
-      </c>
-      <c r="C212" t="s">
+      <c r="F212" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="H212" t="s">
+        <v>20</v>
+      </c>
+      <c r="I212">
+        <v>19054274716</v>
+      </c>
+      <c r="J212" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>90</v>
+      </c>
+      <c r="B213" t="s">
         <v>695</v>
       </c>
-      <c r="D212" t="s">
-        <v>14</v>
-      </c>
-      <c r="E212" t="s">
+      <c r="C213" t="s">
         <v>696</v>
       </c>
-      <c r="F212" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H212" t="s">
-        <v>32</v>
-      </c>
-      <c r="I212">
-        <v>16478079072</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A213" t="s">
-        <v>21</v>
-      </c>
-      <c r="B213" t="s">
-        <v>118</v>
-      </c>
-      <c r="C213" t="s">
-        <v>485</v>
-      </c>
       <c r="D213" t="s">
-        <v>110</v>
-      </c>
-      <c r="E213" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E213" t="s">
         <v>697</v>
       </c>
       <c r="F213" s="6" t="s">
-        <v>891</v>
+        <v>19</v>
       </c>
       <c r="H213" t="s">
         <v>20</v>
       </c>
       <c r="I213">
-        <v>19054274716</v>
+        <v>15199414500</v>
       </c>
       <c r="J213" t="s">
         <v>17</v>
@@ -9365,7 +9365,7 @@
     </row>
     <row r="214" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="B214" t="s">
         <v>698</v>
@@ -9383,18 +9383,15 @@
         <v>19</v>
       </c>
       <c r="H214" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I214">
-        <v>15199414500</v>
-      </c>
-      <c r="J214" t="s">
-        <v>17</v>
+        <v>15198210555</v>
       </c>
     </row>
     <row r="215" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>116</v>
+        <v>612</v>
       </c>
       <c r="B215" t="s">
         <v>701</v>
@@ -9415,12 +9412,12 @@
         <v>29</v>
       </c>
       <c r="I215">
-        <v>15198210555</v>
+        <v>15199255523</v>
       </c>
     </row>
     <row r="216" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>615</v>
+        <v>52</v>
       </c>
       <c r="B216" t="s">
         <v>704</v>
@@ -9431,46 +9428,46 @@
       <c r="D216" t="s">
         <v>14</v>
       </c>
-      <c r="E216" t="s">
+      <c r="E216" s="20" t="s">
         <v>706</v>
       </c>
       <c r="F216" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H216" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="I216">
-        <v>15199255523</v>
+        <v>15193047465</v>
+      </c>
+      <c r="J216" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="217" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B217" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C217" t="s">
+        <v>710</v>
+      </c>
+      <c r="D217" t="s">
+        <v>14</v>
+      </c>
+      <c r="E217" t="s">
         <v>708</v>
       </c>
-      <c r="D217" t="s">
-        <v>14</v>
-      </c>
-      <c r="E217" s="20" t="s">
-        <v>709</v>
-      </c>
       <c r="F217" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H217" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I217">
-        <v>15193047465</v>
-      </c>
-      <c r="J217" s="14" t="s">
-        <v>39</v>
+        <v>12893896889</v>
       </c>
     </row>
     <row r="218" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -9478,16 +9475,16 @@
         <v>30</v>
       </c>
       <c r="B218" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="C218" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D218" t="s">
         <v>14</v>
       </c>
       <c r="E218" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="F218" s="6" t="s">
         <v>19</v>
@@ -9496,66 +9493,69 @@
         <v>18</v>
       </c>
       <c r="I218">
-        <v>12893896889</v>
+        <v>12893898989</v>
       </c>
     </row>
     <row r="219" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B219" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="C219" t="s">
+        <v>719</v>
+      </c>
+      <c r="D219" t="s">
+        <v>14</v>
+      </c>
+      <c r="E219" t="s">
+        <v>720</v>
+      </c>
+      <c r="F219" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H219" t="s">
+        <v>29</v>
+      </c>
+      <c r="I219">
+        <v>14162669336</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>55</v>
+      </c>
+      <c r="B220" t="s">
+        <v>712</v>
+      </c>
+      <c r="C220" t="s">
+        <v>713</v>
+      </c>
+      <c r="D220" t="s">
+        <v>14</v>
+      </c>
+      <c r="E220" s="20" t="s">
         <v>714</v>
       </c>
-      <c r="D219" t="s">
-        <v>14</v>
-      </c>
-      <c r="E219" t="s">
-        <v>711</v>
-      </c>
-      <c r="F219" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H219" t="s">
-        <v>18</v>
-      </c>
-      <c r="I219">
-        <v>12893898989</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A220" t="s">
-        <v>33</v>
-      </c>
-      <c r="B220" t="s">
-        <v>721</v>
-      </c>
-      <c r="C220" t="s">
-        <v>722</v>
-      </c>
-      <c r="D220" t="s">
-        <v>14</v>
-      </c>
-      <c r="E220" t="s">
-        <v>723</v>
-      </c>
       <c r="F220" s="6" t="s">
-        <v>19</v>
+        <v>805</v>
       </c>
       <c r="H220" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I220">
-        <v>14162669336</v>
+        <v>18073456272</v>
+      </c>
+      <c r="J220" s="14" t="s">
+        <v>889</v>
       </c>
     </row>
     <row r="221" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>55</v>
-      </c>
-      <c r="B221" t="s">
+        <v>60</v>
+      </c>
+      <c r="B221" s="28" t="s">
         <v>715</v>
       </c>
       <c r="C221" t="s">
@@ -9568,42 +9568,42 @@
         <v>717</v>
       </c>
       <c r="F221" s="6" t="s">
-        <v>808</v>
+        <v>15</v>
       </c>
       <c r="H221" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="I221">
-        <v>18073456272</v>
-      </c>
-      <c r="J221" s="14" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14165513913</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>60</v>
-      </c>
-      <c r="B222" s="28" t="s">
-        <v>718</v>
+        <v>82</v>
+      </c>
+      <c r="B222" t="s">
+        <v>724</v>
       </c>
       <c r="C222" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="D222" t="s">
         <v>14</v>
       </c>
-      <c r="E222" s="20" t="s">
-        <v>720</v>
+      <c r="E222" t="s">
+        <v>726</v>
       </c>
       <c r="F222" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H222" t="s">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="I222">
-        <v>14165513913</v>
+        <v>16139335005</v>
+      </c>
+      <c r="J222" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="223" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -9626,76 +9626,76 @@
         <v>19</v>
       </c>
       <c r="H223" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I223">
-        <v>16139335005</v>
-      </c>
-      <c r="J223" t="s">
-        <v>39</v>
+        <v>16139322525</v>
       </c>
     </row>
     <row r="224" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>82</v>
+        <v>447</v>
       </c>
       <c r="B224" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="C224" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="D224" t="s">
         <v>14</v>
       </c>
-      <c r="E224" t="s">
-        <v>732</v>
+      <c r="E224" s="20" t="s">
+        <v>723</v>
       </c>
       <c r="F224" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H224" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I224">
-        <v>16139322525</v>
+        <v>13652053237</v>
+      </c>
+      <c r="J224" s="14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="225" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>450</v>
+        <v>79</v>
       </c>
       <c r="B225" t="s">
-        <v>724</v>
+        <v>303</v>
       </c>
       <c r="C225" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="D225" t="s">
         <v>14</v>
       </c>
       <c r="E225" s="20" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="F225" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H225" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I225">
-        <v>13652053237</v>
-      </c>
-      <c r="J225" s="14" t="s">
+        <v>15193157768</v>
+      </c>
+      <c r="J225" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="226" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="B226" t="s">
-        <v>303</v>
+        <v>732</v>
       </c>
       <c r="C226" t="s">
         <v>733</v>
@@ -9704,7 +9704,7 @@
         <v>14</v>
       </c>
       <c r="E226" s="20" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="F226" s="6" t="s">
         <v>19</v>
@@ -9713,36 +9713,36 @@
         <v>16</v>
       </c>
       <c r="I226">
-        <v>15193157768</v>
-      </c>
-      <c r="J226" t="s">
-        <v>17</v>
+        <v>15193077768</v>
+      </c>
+      <c r="J226" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="227" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="B227" t="s">
-        <v>735</v>
+        <v>303</v>
       </c>
       <c r="C227" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D227" t="s">
         <v>14</v>
       </c>
       <c r="E227" s="20" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="F227" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H227" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I227">
-        <v>15193077768</v>
+        <v>19057287768</v>
       </c>
       <c r="J227" s="14" t="s">
         <v>39</v>
@@ -9750,28 +9750,28 @@
     </row>
     <row r="228" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B228" t="s">
-        <v>303</v>
+        <v>735</v>
       </c>
       <c r="C228" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D228" t="s">
         <v>14</v>
       </c>
       <c r="E228" s="20" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="F228" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H228" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I228">
-        <v>19057287768</v>
+        <v>19056840141</v>
       </c>
       <c r="J228" s="14" t="s">
         <v>39</v>
@@ -9779,39 +9779,39 @@
     </row>
     <row r="229" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="B229" t="s">
+        <v>305</v>
+      </c>
+      <c r="C229" t="s">
+        <v>737</v>
+      </c>
+      <c r="D229" t="s">
+        <v>14</v>
+      </c>
+      <c r="E229" t="s">
         <v>738</v>
       </c>
-      <c r="C229" t="s">
-        <v>739</v>
-      </c>
-      <c r="D229" t="s">
-        <v>14</v>
-      </c>
-      <c r="E229" s="20" t="s">
-        <v>734</v>
-      </c>
       <c r="F229" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H229" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I229">
-        <v>19056840141</v>
-      </c>
-      <c r="J229" s="14" t="s">
+        <v>15199662525</v>
+      </c>
+      <c r="J229" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="230" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>80</v>
+        <v>324</v>
       </c>
       <c r="B230" t="s">
-        <v>308</v>
+        <v>739</v>
       </c>
       <c r="C230" t="s">
         <v>740</v>
@@ -9826,47 +9826,47 @@
         <v>19</v>
       </c>
       <c r="H230" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="I230">
-        <v>15199662525</v>
+        <v>12265265555</v>
       </c>
       <c r="J230" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="231" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>327</v>
+        <v>742</v>
       </c>
       <c r="B231" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C231" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="D231" t="s">
         <v>14</v>
       </c>
       <c r="E231" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="F231" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H231" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I231">
-        <v>12265265555</v>
+        <v>17056223107</v>
       </c>
       <c r="J231" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="232" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>745</v>
+        <v>40</v>
       </c>
       <c r="B232" t="s">
         <v>746</v>
@@ -9884,21 +9884,18 @@
         <v>19</v>
       </c>
       <c r="H232" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="I232">
-        <v>17056223107</v>
-      </c>
-      <c r="J232" t="s">
-        <v>17</v>
+        <v>16138282929</v>
       </c>
     </row>
     <row r="233" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>40</v>
+        <v>749</v>
       </c>
       <c r="B233" t="s">
-        <v>749</v>
+        <v>31</v>
       </c>
       <c r="C233" t="s">
         <v>750</v>
@@ -9913,18 +9910,21 @@
         <v>19</v>
       </c>
       <c r="H233" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="I233">
-        <v>16138282929</v>
+        <v>17052010188</v>
+      </c>
+      <c r="J233" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="234" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
+        <v>168</v>
+      </c>
+      <c r="B234" t="s">
         <v>752</v>
-      </c>
-      <c r="B234" t="s">
-        <v>31</v>
       </c>
       <c r="C234" t="s">
         <v>753</v>
@@ -9933,163 +9933,160 @@
         <v>14</v>
       </c>
       <c r="E234" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="F234" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H234" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I234">
-        <v>17052010188</v>
-      </c>
-      <c r="J234" t="s">
-        <v>35</v>
+        <v>13434760363</v>
       </c>
     </row>
     <row r="235" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>168</v>
+        <v>46</v>
       </c>
       <c r="B235" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="C235" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="D235" t="s">
         <v>14</v>
       </c>
       <c r="E235" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="F235" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H235" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I235">
-        <v>13434760363</v>
+        <v>17057206545</v>
+      </c>
+      <c r="J235" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="236" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B236" t="s">
         <v>755</v>
       </c>
       <c r="C236" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D236" t="s">
         <v>14</v>
       </c>
       <c r="E236" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="F236" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H236" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I236">
-        <v>17057206545</v>
-      </c>
-      <c r="J236" t="s">
-        <v>35</v>
+        <v>14165219993</v>
       </c>
     </row>
     <row r="237" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>28</v>
+        <v>192</v>
       </c>
       <c r="B237" t="s">
+        <v>31</v>
+      </c>
+      <c r="C237" t="s">
+        <v>757</v>
+      </c>
+      <c r="D237" t="s">
+        <v>14</v>
+      </c>
+      <c r="E237" t="s">
+        <v>751</v>
+      </c>
+      <c r="F237" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H237" t="s">
+        <v>36</v>
+      </c>
+      <c r="I237">
+        <v>17057206545</v>
+      </c>
+      <c r="J237" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>49</v>
+      </c>
+      <c r="B238" t="s">
         <v>758</v>
       </c>
-      <c r="C237" t="s">
+      <c r="C238" t="s">
         <v>759</v>
       </c>
-      <c r="D237" t="s">
-        <v>14</v>
-      </c>
-      <c r="E237" t="s">
-        <v>754</v>
-      </c>
-      <c r="F237" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H237" t="s">
-        <v>18</v>
-      </c>
-      <c r="I237">
-        <v>14165219993</v>
-      </c>
-    </row>
-    <row r="238" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A238" t="s">
-        <v>192</v>
-      </c>
-      <c r="B238" t="s">
-        <v>31</v>
-      </c>
-      <c r="C238" t="s">
+      <c r="D238" t="s">
+        <v>14</v>
+      </c>
+      <c r="E238" s="20" t="s">
         <v>760</v>
       </c>
-      <c r="D238" t="s">
-        <v>14</v>
-      </c>
-      <c r="E238" t="s">
-        <v>754</v>
-      </c>
       <c r="F238" s="6" t="s">
-        <v>19</v>
+        <v>805</v>
       </c>
       <c r="H238" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I238">
-        <v>17057206545</v>
-      </c>
-      <c r="J238" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19054519600</v>
+      </c>
+      <c r="J238" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B239" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="C239" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="D239" t="s">
         <v>14</v>
       </c>
-      <c r="E239" s="20" t="s">
-        <v>763</v>
+      <c r="E239" t="s">
+        <v>766</v>
       </c>
       <c r="F239" s="6" t="s">
-        <v>808</v>
+        <v>19</v>
       </c>
       <c r="H239" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I239">
-        <v>19054519600</v>
-      </c>
-      <c r="J239" s="14" t="s">
-        <v>39</v>
+        <v>14162910420</v>
       </c>
     </row>
     <row r="240" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B240" t="s">
         <v>767</v>
@@ -10107,73 +10104,76 @@
         <v>19</v>
       </c>
       <c r="H240" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I240">
-        <v>14162910420</v>
-      </c>
-    </row>
-    <row r="241" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16135638040</v>
+      </c>
+      <c r="J240" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="B241" t="s">
+        <v>761</v>
+      </c>
+      <c r="C241" t="s">
+        <v>762</v>
+      </c>
+      <c r="D241" t="s">
+        <v>14</v>
+      </c>
+      <c r="E241" s="20" t="s">
+        <v>763</v>
+      </c>
+      <c r="F241" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="H241" t="s">
+        <v>38</v>
+      </c>
+      <c r="I241">
+        <v>19057272020</v>
+      </c>
+      <c r="J241" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>23</v>
+      </c>
+      <c r="B242" t="s">
         <v>770</v>
       </c>
-      <c r="C241" t="s">
+      <c r="C242" t="s">
         <v>771</v>
       </c>
-      <c r="D241" t="s">
-        <v>14</v>
-      </c>
-      <c r="E241" t="s">
+      <c r="D242" t="s">
+        <v>14</v>
+      </c>
+      <c r="E242" t="s">
         <v>772</v>
       </c>
-      <c r="F241" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H241" t="s">
+      <c r="F242" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H242" t="s">
         <v>20</v>
       </c>
-      <c r="I241">
-        <v>16135638040</v>
-      </c>
-      <c r="J241" t="s">
+      <c r="I242">
+        <v>16473411333</v>
+      </c>
+      <c r="J242" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="242" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A242" t="s">
-        <v>69</v>
-      </c>
-      <c r="B242" t="s">
-        <v>764</v>
-      </c>
-      <c r="C242" t="s">
-        <v>765</v>
-      </c>
-      <c r="D242" t="s">
-        <v>14</v>
-      </c>
-      <c r="E242" s="20" t="s">
-        <v>766</v>
-      </c>
-      <c r="F242" s="6" t="s">
-        <v>808</v>
-      </c>
-      <c r="H242" t="s">
-        <v>38</v>
-      </c>
-      <c r="I242">
-        <v>19057272020</v>
-      </c>
-      <c r="J242" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="243" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="B243" t="s">
         <v>773</v>
@@ -10184,54 +10184,54 @@
       <c r="D243" t="s">
         <v>14</v>
       </c>
-      <c r="E243" t="s">
+      <c r="E243" s="20" t="s">
         <v>775</v>
       </c>
       <c r="F243" s="6" t="s">
-        <v>19</v>
+        <v>848</v>
       </c>
       <c r="H243" t="s">
         <v>20</v>
       </c>
       <c r="I243">
-        <v>16473411333</v>
-      </c>
-      <c r="J243" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="244" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16475535874</v>
+      </c>
+      <c r="J243" s="14" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="B244" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="C244" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="D244" t="s">
         <v>14</v>
       </c>
-      <c r="E244" s="20" t="s">
-        <v>778</v>
+      <c r="E244" t="s">
+        <v>781</v>
       </c>
       <c r="F244" s="6" t="s">
-        <v>851</v>
+        <v>19</v>
       </c>
       <c r="H244" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I244">
-        <v>16475535874</v>
-      </c>
-      <c r="J244" s="14" t="s">
-        <v>883</v>
+        <v>14166516673</v>
+      </c>
+      <c r="J244" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="245" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="B245" t="s">
         <v>782</v>
@@ -10249,18 +10249,15 @@
         <v>19</v>
       </c>
       <c r="H245" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I245">
-        <v>14166516673</v>
-      </c>
-      <c r="J245" t="s">
-        <v>39</v>
+        <v>15196013420</v>
       </c>
     </row>
     <row r="246" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B246" t="s">
         <v>785</v>
@@ -10272,7 +10269,7 @@
         <v>14</v>
       </c>
       <c r="E246" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="F246" s="6" t="s">
         <v>19</v>
@@ -10281,123 +10278,118 @@
         <v>18</v>
       </c>
       <c r="I246">
-        <v>15196013420</v>
+        <v>15196071966</v>
       </c>
     </row>
     <row r="247" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="B247" t="s">
+        <v>356</v>
+      </c>
+      <c r="C247" t="s">
+        <v>787</v>
+      </c>
+      <c r="D247" t="s">
+        <v>14</v>
+      </c>
+      <c r="E247" t="s">
         <v>788</v>
       </c>
-      <c r="C247" t="s">
-        <v>789</v>
-      </c>
-      <c r="D247" t="s">
-        <v>14</v>
-      </c>
-      <c r="E247" t="s">
-        <v>787</v>
-      </c>
       <c r="F247" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H247" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I247">
-        <v>15196071966</v>
+        <v>14162912553</v>
+      </c>
+      <c r="J247" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="248" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="B248" t="s">
-        <v>359</v>
+        <v>198</v>
       </c>
       <c r="C248" t="s">
+        <v>789</v>
+      </c>
+      <c r="D248" t="s">
+        <v>14</v>
+      </c>
+      <c r="E248" t="s">
+        <v>628</v>
+      </c>
+      <c r="F248" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I248"/>
+    </row>
+    <row r="249" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>45</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="C249" t="s">
+        <v>777</v>
+      </c>
+      <c r="D249" t="s">
+        <v>14</v>
+      </c>
+      <c r="E249" s="20" t="s">
+        <v>778</v>
+      </c>
+      <c r="F249" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I249">
+        <v>15197429366</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>199</v>
+      </c>
+      <c r="B250" t="s">
         <v>790</v>
       </c>
-      <c r="D248" t="s">
-        <v>14</v>
-      </c>
-      <c r="E248" t="s">
+      <c r="C250" t="s">
         <v>791</v>
       </c>
-      <c r="F248" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H248" t="s">
-        <v>20</v>
-      </c>
-      <c r="I248">
-        <v>14162912553</v>
-      </c>
-      <c r="J248" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="249" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A249" t="s">
-        <v>95</v>
-      </c>
-      <c r="B249" t="s">
-        <v>198</v>
-      </c>
-      <c r="C249" t="s">
+      <c r="D250" t="s">
+        <v>14</v>
+      </c>
+      <c r="E250" t="s">
         <v>792</v>
       </c>
-      <c r="D249" t="s">
-        <v>14</v>
-      </c>
-      <c r="E249" t="s">
-        <v>631</v>
-      </c>
-      <c r="F249" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I249"/>
-    </row>
-    <row r="250" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A250" t="s">
-        <v>45</v>
-      </c>
-      <c r="B250" s="3" t="s">
-        <v>779</v>
-      </c>
-      <c r="C250" t="s">
-        <v>780</v>
-      </c>
-      <c r="D250" t="s">
-        <v>14</v>
-      </c>
-      <c r="E250" s="20" t="s">
-        <v>781</v>
-      </c>
       <c r="F250" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I250">
-        <v>15197429366</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="I250"/>
     </row>
     <row r="251" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>199</v>
+        <v>274</v>
       </c>
       <c r="B251" t="s">
+        <v>735</v>
+      </c>
+      <c r="C251" t="s">
         <v>793</v>
       </c>
-      <c r="C251" t="s">
+      <c r="D251" t="s">
+        <v>14</v>
+      </c>
+      <c r="E251" t="s">
         <v>794</v>
-      </c>
-      <c r="D251" t="s">
-        <v>14</v>
-      </c>
-      <c r="E251" t="s">
-        <v>795</v>
       </c>
       <c r="F251" s="6" t="s">
         <v>19</v>
@@ -10406,19 +10398,19 @@
     </row>
     <row r="252" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>274</v>
-      </c>
-      <c r="B252" t="s">
-        <v>738</v>
+        <v>52</v>
+      </c>
+      <c r="B252">
+        <v>6420</v>
       </c>
       <c r="C252" t="s">
+        <v>795</v>
+      </c>
+      <c r="D252" t="s">
+        <v>14</v>
+      </c>
+      <c r="E252" t="s">
         <v>796</v>
-      </c>
-      <c r="D252" t="s">
-        <v>14</v>
-      </c>
-      <c r="E252" t="s">
-        <v>797</v>
       </c>
       <c r="F252" s="6" t="s">
         <v>19</v>
@@ -10427,19 +10419,19 @@
     </row>
     <row r="253" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>52</v>
-      </c>
-      <c r="B253">
-        <v>6420</v>
+        <v>299</v>
+      </c>
+      <c r="B253" t="s">
+        <v>364</v>
       </c>
       <c r="C253" t="s">
+        <v>797</v>
+      </c>
+      <c r="D253" t="s">
+        <v>14</v>
+      </c>
+      <c r="E253" t="s">
         <v>798</v>
-      </c>
-      <c r="D253" t="s">
-        <v>14</v>
-      </c>
-      <c r="E253" t="s">
-        <v>799</v>
       </c>
       <c r="F253" s="6" t="s">
         <v>19</v>
@@ -10448,64 +10440,64 @@
     </row>
     <row r="254" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>299</v>
+        <v>119</v>
       </c>
       <c r="B254" t="s">
-        <v>367</v>
+        <v>198</v>
       </c>
       <c r="C254" t="s">
+        <v>799</v>
+      </c>
+      <c r="D254" t="s">
+        <v>14</v>
+      </c>
+      <c r="E254" t="s">
         <v>800</v>
       </c>
-      <c r="D254" t="s">
-        <v>14</v>
-      </c>
-      <c r="E254" t="s">
+      <c r="F254" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I254"/>
+    </row>
+    <row r="255" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
         <v>801</v>
       </c>
-      <c r="F254" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I254"/>
-    </row>
-    <row r="255" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A255" t="s">
-        <v>119</v>
-      </c>
       <c r="B255" t="s">
-        <v>198</v>
+        <v>802</v>
       </c>
       <c r="C255" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D255" t="s">
         <v>14</v>
       </c>
       <c r="E255" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="F255" s="6" t="s">
-        <v>19</v>
+        <v>805</v>
       </c>
       <c r="I255"/>
     </row>
     <row r="256" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>804</v>
+        <v>23</v>
       </c>
       <c r="B256" t="s">
-        <v>805</v>
+        <v>416</v>
       </c>
       <c r="C256" t="s">
         <v>806</v>
       </c>
       <c r="D256" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="E256" t="s">
         <v>807</v>
       </c>
       <c r="F256" s="6" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="I256"/>
     </row>
@@ -10514,7 +10506,7 @@
         <v>23</v>
       </c>
       <c r="B257" t="s">
-        <v>419</v>
+        <v>808</v>
       </c>
       <c r="C257" t="s">
         <v>809</v>
@@ -10526,11 +10518,11 @@
         <v>810</v>
       </c>
       <c r="F257" s="6" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="I257"/>
     </row>
-    <row r="258" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>23</v>
       </c>
@@ -10541,17 +10533,17 @@
         <v>812</v>
       </c>
       <c r="D258" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="E258" t="s">
         <v>813</v>
       </c>
       <c r="F258" s="6" t="s">
-        <v>808</v>
+        <v>19</v>
       </c>
       <c r="I258"/>
     </row>
-    <row r="259" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>23</v>
       </c>
@@ -10568,11 +10560,16 @@
         <v>816</v>
       </c>
       <c r="F259" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I259"/>
-    </row>
-    <row r="260" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="H259" t="s">
+        <v>18</v>
+      </c>
+      <c r="I259">
+        <v>14165388225</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>23</v>
       </c>
@@ -10589,16 +10586,11 @@
         <v>819</v>
       </c>
       <c r="F260" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H260" t="s">
-        <v>18</v>
-      </c>
-      <c r="I260">
-        <v>14165388225</v>
-      </c>
-    </row>
-    <row r="261" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="I260"/>
+    </row>
+    <row r="261" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>23</v>
       </c>
@@ -10609,89 +10601,68 @@
         <v>821</v>
       </c>
       <c r="D261" t="s">
-        <v>14</v>
-      </c>
-      <c r="E261" t="s">
+        <v>110</v>
+      </c>
+      <c r="E261" s="20" t="s">
+        <v>887</v>
+      </c>
+      <c r="F261" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="H261" t="s">
+        <v>36</v>
+      </c>
+      <c r="I261" t="s">
+        <v>867</v>
+      </c>
+      <c r="J261" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>80</v>
+      </c>
+      <c r="B262" t="s">
+        <v>198</v>
+      </c>
+      <c r="C262" t="s">
         <v>822</v>
-      </c>
-      <c r="F261" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I261"/>
-    </row>
-    <row r="262" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A262" t="s">
-        <v>23</v>
-      </c>
-      <c r="B262" t="s">
-        <v>823</v>
-      </c>
-      <c r="C262" t="s">
-        <v>824</v>
       </c>
       <c r="D262" t="s">
         <v>110</v>
       </c>
-      <c r="E262" s="20" t="s">
-        <v>890</v>
+      <c r="E262" t="s">
+        <v>823</v>
       </c>
       <c r="F262" s="6" t="s">
-        <v>837</v>
-      </c>
-      <c r="H262" t="s">
-        <v>36</v>
-      </c>
-      <c r="I262" t="s">
-        <v>870</v>
-      </c>
-      <c r="J262" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="263" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="I262"/>
+    </row>
+    <row r="263" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="B263" t="s">
-        <v>198</v>
+        <v>826</v>
       </c>
       <c r="C263" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="D263" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="E263" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="F263" s="6" t="s">
-        <v>19</v>
+        <v>829</v>
       </c>
       <c r="I263"/>
     </row>
-    <row r="264" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A264" t="s">
-        <v>108</v>
-      </c>
-      <c r="B264" t="s">
-        <v>829</v>
-      </c>
-      <c r="C264" t="s">
-        <v>830</v>
-      </c>
-      <c r="D264" t="s">
-        <v>14</v>
-      </c>
-      <c r="E264" t="s">
-        <v>831</v>
-      </c>
-      <c r="F264" s="6" t="s">
-        <v>832</v>
-      </c>
-      <c r="I264"/>
-    </row>
   </sheetData>
-  <autoFilter ref="F1:F264" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="F1:F263" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
         <filter val="Buddi"/>
@@ -10701,7 +10672,7 @@
   <hyperlinks>
     <hyperlink ref="E10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="E40" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E88" r:id="rId3" location="/checkout" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E87" r:id="rId3" location="/checkout" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>

--- a/platform_scrapper/data/cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/cannabis_used_IDs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/528339229bf2dcd2/Desktop/DOT/cannabis-shops-scraping/platform_scrapper/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="11_052E697344AEC06F7E514043B69FD2FA56FCDEA0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CAD976E-A3FA-4F98-9579-25850E026F41}"/>
+  <xr:revisionPtr revIDLastSave="110" documentId="11_052E697344AEC06F7E514043B69FD2FA56FCDEA0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A83A6E26-4E56-475B-9194-F800CE67ABEB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$F$263</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$J$260</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2032" uniqueCount="892">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2032" uniqueCount="885">
   <si>
     <t>Municipality or First Nation</t>
   </si>
@@ -880,9 +880,6 @@
     <t>MORRISBURG</t>
   </si>
   <si>
-    <t>TILBURY</t>
-  </si>
-  <si>
     <t>KAKABEKA FALLS</t>
   </si>
   <si>
@@ -925,15 +922,6 @@
     <t>COBOCONK</t>
   </si>
   <si>
-    <t>SPOT420</t>
-  </si>
-  <si>
-    <t>340 BROWNS LINE</t>
-  </si>
-  <si>
-    <t>http://www.spot420.ca/</t>
-  </si>
-  <si>
     <t>Spot420 The Cannabis Store</t>
   </si>
   <si>
@@ -943,9 +931,6 @@
     <t>The Higher Cannabis Company</t>
   </si>
   <si>
-    <t>30 MILL ST WEST</t>
-  </si>
-  <si>
     <t>http://www.thcco.ca/</t>
   </si>
   <si>
@@ -973,12 +958,6 @@
     <t>http://www.theacc.ca/</t>
   </si>
   <si>
-    <t>Alphabud Cannabis Company</t>
-  </si>
-  <si>
-    <t>1186 WOODBINE AVE</t>
-  </si>
-  <si>
     <t>http://www.thealphabud.com/</t>
   </si>
   <si>
@@ -2563,9 +2542,6 @@
     <t>['not found information on webstite']</t>
   </si>
   <si>
-    <t>['No-delivery / not found information on webstite']</t>
-  </si>
-  <si>
     <t>61d38e4ca8388a008cb50d87</t>
   </si>
   <si>
@@ -2605,9 +2581,6 @@
     <t>['Delivery', 'Same-day delivery', 'We serve within 6 km radius']</t>
   </si>
   <si>
-    <t>https://thealphabud.com/pages/shop/#/menu</t>
-  </si>
-  <si>
     <t>['Delivery / need scan map', 'Same-day delivery']</t>
   </si>
   <si>
@@ -2699,6 +2672,12 @@
   </si>
   <si>
     <t>['Delivery  within a 10km radius of our Waterloo store', 'Same-day delivery']</t>
+  </si>
+  <si>
+    <t>['No-delivery / Coming soon']</t>
+  </si>
+  <si>
+    <t>5edd18b7e41671013eeefa83</t>
   </si>
 </sst>
 </file>
@@ -3251,11 +3230,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:N263"/>
+  <dimension ref="A1:N260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B75" sqref="A75:XFD75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3311,7 +3289,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>12</v>
@@ -3322,16 +3300,16 @@
         <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="C2" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>19</v>
@@ -3346,7 +3324,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -3389,7 +3367,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>19</v>
@@ -3404,7 +3382,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -3418,10 +3396,10 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="H5" t="s">
         <v>63</v>
@@ -3430,7 +3408,7 @@
         <v>14165860420</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -3447,7 +3425,7 @@
         <v>66</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="H6" t="s">
         <v>29</v>
@@ -3456,7 +3434,7 @@
         <v>14165046420</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>60</v>
       </c>
@@ -3476,7 +3454,7 @@
         <v>15</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>51</v>
@@ -3488,7 +3466,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -3505,7 +3483,7 @@
         <v>78</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="H8" t="s">
         <v>32</v>
@@ -3543,7 +3521,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>88</v>
       </c>
@@ -3557,10 +3535,10 @@
         <v>14</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="H10" t="s">
         <v>18</v>
@@ -3598,7 +3576,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -3612,10 +3590,10 @@
         <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="H12" t="s">
         <v>20</v>
@@ -3627,7 +3605,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>98</v>
       </c>
@@ -3641,19 +3619,19 @@
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="H13" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="I13">
         <v>16133471010</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -3670,7 +3648,7 @@
         <v>103</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="H14" t="s">
         <v>32</v>
@@ -3679,27 +3657,27 @@
         <v>19187089959</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>29</v>
@@ -3746,19 +3724,19 @@
     </row>
     <row r="17" spans="1:10" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="F17" s="22" t="s">
         <v>19</v>
@@ -3774,7 +3752,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -3791,7 +3769,7 @@
         <v>133</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="H18" t="s">
         <v>16</v>
@@ -3832,7 +3810,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -3849,7 +3827,7 @@
         <v>146</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="H20" t="s">
         <v>34</v>
@@ -3861,7 +3839,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -3878,7 +3856,7 @@
         <v>149</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="H21" t="s">
         <v>20</v>
@@ -3890,7 +3868,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>150</v>
       </c>
@@ -3910,7 +3888,7 @@
         <v>15</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="H22" s="9" t="s">
         <v>20</v>
@@ -3922,7 +3900,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>120</v>
       </c>
@@ -3939,7 +3917,7 @@
         <v>157</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="H23" t="s">
         <v>20</v>
@@ -4009,7 +3987,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="9" customFormat="1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>49</v>
       </c>
@@ -4029,7 +4007,7 @@
         <v>15</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>32</v>
@@ -4070,7 +4048,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>108</v>
       </c>
@@ -4087,7 +4065,7 @@
         <v>203</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="H28" t="s">
         <v>32</v>
@@ -4099,7 +4077,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -4116,7 +4094,7 @@
         <v>213</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="H29" t="s">
         <v>20</v>
@@ -4128,7 +4106,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>214</v>
       </c>
@@ -4145,7 +4123,7 @@
         <v>217</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="H30" t="s">
         <v>18</v>
@@ -4154,7 +4132,7 @@
         <v>17055040080</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>218</v>
       </c>
@@ -4171,7 +4149,7 @@
         <v>217</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="H31" t="s">
         <v>18</v>
@@ -4267,7 +4245,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>72</v>
       </c>
@@ -4284,7 +4262,7 @@
         <v>107</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="H35" t="s">
         <v>71</v>
@@ -4296,7 +4274,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -4313,7 +4291,7 @@
         <v>112</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="H36" t="s">
         <v>18</v>
@@ -4325,7 +4303,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>122</v>
       </c>
@@ -4342,7 +4320,7 @@
         <v>125</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="H37" t="s">
         <v>20</v>
@@ -4383,7 +4361,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>234</v>
       </c>
@@ -4400,7 +4378,7 @@
         <v>237</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="H39" t="s">
         <v>22</v>
@@ -4412,7 +4390,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>52</v>
       </c>
@@ -4429,7 +4407,7 @@
         <v>241</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="H40" t="s">
         <v>38</v>
@@ -4441,7 +4419,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>117</v>
       </c>
@@ -4458,7 +4436,7 @@
         <v>241</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="H41" t="s">
         <v>29</v>
@@ -4557,7 +4535,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>243</v>
       </c>
@@ -4574,7 +4552,7 @@
         <v>241</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="H45" t="s">
         <v>18</v>
@@ -4586,7 +4564,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>65</v>
       </c>
@@ -4603,7 +4581,7 @@
         <v>241</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="H46" t="s">
         <v>18</v>
@@ -4629,7 +4607,7 @@
         <v>14</v>
       </c>
       <c r="E47" s="20" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>19</v>
@@ -4760,7 +4738,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>154</v>
       </c>
@@ -4777,7 +4755,7 @@
         <v>266</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="H52" t="s">
         <v>20</v>
@@ -4786,10 +4764,10 @@
         <v>16132675045</v>
       </c>
       <c r="J52" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -4806,7 +4784,7 @@
         <v>280</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="H53" t="s">
         <v>22</v>
@@ -4815,7 +4793,7 @@
         <v>18076222757</v>
       </c>
       <c r="J53" s="14" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -4852,16 +4830,16 @@
         <v>108</v>
       </c>
       <c r="B55" t="s">
+        <v>292</v>
+      </c>
+      <c r="C55" t="s">
         <v>293</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" t="s">
         <v>294</v>
-      </c>
-      <c r="D55" t="s">
-        <v>14</v>
-      </c>
-      <c r="E55" t="s">
-        <v>295</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>19</v>
@@ -4881,16 +4859,16 @@
         <v>117</v>
       </c>
       <c r="B56" t="s">
+        <v>295</v>
+      </c>
+      <c r="C56" t="s">
         <v>296</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" t="s">
         <v>297</v>
-      </c>
-      <c r="D56" t="s">
-        <v>14</v>
-      </c>
-      <c r="E56" t="s">
-        <v>298</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>19</v>
@@ -4905,24 +4883,24 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>40</v>
       </c>
       <c r="B57" t="s">
+        <v>289</v>
+      </c>
+      <c r="C57" t="s">
         <v>290</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="D57" t="s">
-        <v>14</v>
-      </c>
-      <c r="E57" s="20" t="s">
-        <v>292</v>
-      </c>
       <c r="F57" s="6" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="H57" t="s">
         <v>38</v>
@@ -4931,41 +4909,41 @@
         <v>16138254420</v>
       </c>
       <c r="J57" s="14" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>28</v>
+        <v>303</v>
       </c>
       <c r="B58" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C58" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D58" t="s">
         <v>14</v>
       </c>
-      <c r="E58" s="20" t="s">
+      <c r="E58" t="s">
         <v>302</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H58" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I58">
-        <v>14162557768</v>
+        <v>15198259888</v>
       </c>
       <c r="J58" s="14" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>285</v>
+        <v>60</v>
       </c>
       <c r="B59" t="s">
         <v>305</v>
@@ -4983,279 +4961,285 @@
         <v>19</v>
       </c>
       <c r="H59" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I59">
-        <v>15196824224</v>
-      </c>
-      <c r="J59" t="s">
-        <v>39</v>
+        <v>14166509420</v>
+      </c>
+      <c r="J59" s="14" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>308</v>
+        <v>72</v>
       </c>
       <c r="B60" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="C60" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="D60" t="s">
         <v>14</v>
       </c>
       <c r="E60" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H60" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I60">
-        <v>15198259888</v>
+        <v>15196015367</v>
+      </c>
+      <c r="J60" s="14" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>310</v>
+        <v>23</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>312</v>
       </c>
       <c r="C61" t="s">
+        <v>313</v>
+      </c>
+      <c r="D61" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="D61" t="s">
-        <v>14</v>
-      </c>
-      <c r="E61" t="s">
-        <v>312</v>
-      </c>
       <c r="F61" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H61" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I61">
-        <v>14166509420</v>
+        <v>14167030222</v>
+      </c>
+      <c r="J61" s="14" t="s">
+        <v>852</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>72</v>
-      </c>
-      <c r="B62" t="s">
-        <v>328</v>
+        <v>90</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>314</v>
       </c>
       <c r="C62" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="D62" t="s">
         <v>14</v>
       </c>
-      <c r="E62" t="s">
-        <v>330</v>
+      <c r="E62" s="20" t="s">
+        <v>316</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>19</v>
+        <v>798</v>
       </c>
       <c r="H62" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I62">
-        <v>15196015367</v>
-      </c>
-      <c r="J62" t="s">
+        <v>15199422828</v>
+      </c>
+      <c r="J62" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B63" t="s">
-        <v>316</v>
+        <v>204</v>
       </c>
       <c r="C63" t="s">
-        <v>317</v>
+        <v>205</v>
       </c>
       <c r="D63" t="s">
         <v>14</v>
       </c>
-      <c r="E63" s="20" t="s">
-        <v>860</v>
+      <c r="E63" t="s">
+        <v>206</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>19</v>
+        <v>840</v>
       </c>
       <c r="H63" t="s">
-        <v>20</v>
+        <v>827</v>
       </c>
       <c r="I63">
-        <v>16473432837</v>
-      </c>
-      <c r="J63" s="14" t="s">
-        <v>861</v>
+        <v>12267734209</v>
+      </c>
+      <c r="J63" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>23</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>319</v>
+        <v>80</v>
+      </c>
+      <c r="B64" t="s">
+        <v>207</v>
       </c>
       <c r="C64" t="s">
-        <v>320</v>
+        <v>208</v>
       </c>
       <c r="D64" t="s">
         <v>14</v>
       </c>
-      <c r="E64" s="20" t="s">
-        <v>318</v>
+      <c r="E64" t="s">
+        <v>206</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>19</v>
+        <v>840</v>
       </c>
       <c r="H64" t="s">
+        <v>827</v>
+      </c>
+      <c r="I64">
+        <v>15199460570</v>
+      </c>
+      <c r="J64" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>140</v>
+      </c>
+      <c r="B65" t="s">
+        <v>141</v>
+      </c>
+      <c r="C65" t="s">
+        <v>142</v>
+      </c>
+      <c r="D65" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" t="s">
+        <v>143</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H65" t="s">
+        <v>34</v>
+      </c>
+      <c r="I65">
+        <v>17059950684</v>
+      </c>
+      <c r="J65" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>324</v>
+      </c>
+      <c r="B66" t="s">
+        <v>325</v>
+      </c>
+      <c r="C66" t="s">
+        <v>326</v>
+      </c>
+      <c r="D66" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H66" t="s">
+        <v>328</v>
+      </c>
+      <c r="I66">
+        <v>15195342628</v>
+      </c>
+      <c r="J66" s="14" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>46</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C67" t="s">
+        <v>331</v>
+      </c>
+      <c r="D67" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="20" t="s">
+        <v>853</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H67" t="s">
         <v>20</v>
       </c>
-      <c r="I64">
-        <v>14167030222</v>
-      </c>
-      <c r="J64" s="14" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>90</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="C65" t="s">
-        <v>322</v>
-      </c>
-      <c r="D65" t="s">
-        <v>14</v>
-      </c>
-      <c r="E65" s="20" t="s">
-        <v>323</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>805</v>
-      </c>
-      <c r="H65" t="s">
-        <v>20</v>
-      </c>
-      <c r="I65">
-        <v>15199422828</v>
-      </c>
-      <c r="J65" s="14" t="s">
+      <c r="I67">
+        <v>15139227020</v>
+      </c>
+      <c r="J67" s="14" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>80</v>
-      </c>
-      <c r="B66" t="s">
-        <v>204</v>
-      </c>
-      <c r="C66" t="s">
-        <v>205</v>
-      </c>
-      <c r="D66" t="s">
-        <v>14</v>
-      </c>
-      <c r="E66" t="s">
-        <v>206</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>848</v>
-      </c>
-      <c r="H66" t="s">
-        <v>834</v>
-      </c>
-      <c r="I66">
-        <v>12267734209</v>
-      </c>
-      <c r="J66" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>80</v>
-      </c>
-      <c r="B67" t="s">
-        <v>207</v>
-      </c>
-      <c r="C67" t="s">
-        <v>208</v>
-      </c>
-      <c r="D67" t="s">
-        <v>14</v>
-      </c>
-      <c r="E67" t="s">
-        <v>206</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>848</v>
-      </c>
-      <c r="H67" t="s">
-        <v>834</v>
-      </c>
-      <c r="I67">
-        <v>15199460570</v>
-      </c>
-      <c r="J67" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="B68" t="s">
-        <v>141</v>
+        <v>332</v>
       </c>
       <c r="C68" t="s">
-        <v>142</v>
+        <v>333</v>
       </c>
       <c r="D68" t="s">
         <v>14</v>
       </c>
-      <c r="E68" t="s">
-        <v>143</v>
+      <c r="E68" s="20" t="s">
+        <v>334</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>19</v>
+        <v>840</v>
       </c>
       <c r="H68" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I68">
-        <v>17059950684</v>
-      </c>
-      <c r="J68" t="s">
-        <v>35</v>
+        <v>14169011808</v>
+      </c>
+      <c r="J68" s="14" t="s">
+        <v>854</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>331</v>
+        <v>108</v>
       </c>
       <c r="B69" t="s">
         <v>332</v>
       </c>
       <c r="C69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D69" t="s">
         <v>14</v>
@@ -5264,323 +5248,326 @@
         <v>334</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>19</v>
+        <v>840</v>
       </c>
       <c r="H69" t="s">
-        <v>335</v>
+        <v>20</v>
       </c>
       <c r="I69">
-        <v>15195342628</v>
+        <v>14165469808</v>
       </c>
       <c r="J69" s="14" t="s">
-        <v>336</v>
+        <v>854</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>46</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>337</v>
+        <v>23</v>
+      </c>
+      <c r="B70" t="s">
+        <v>158</v>
       </c>
       <c r="C70" t="s">
-        <v>338</v>
+        <v>159</v>
       </c>
       <c r="D70" t="s">
         <v>14</v>
       </c>
-      <c r="E70" s="20" t="s">
-        <v>862</v>
+      <c r="E70" t="s">
+        <v>160</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H70" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I70">
-        <v>15139227020</v>
+        <v>14164618366</v>
       </c>
       <c r="J70" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>23</v>
+        <v>169</v>
       </c>
       <c r="B71" t="s">
-        <v>339</v>
+        <v>170</v>
       </c>
       <c r="C71" t="s">
-        <v>340</v>
+        <v>171</v>
       </c>
       <c r="D71" t="s">
         <v>14</v>
       </c>
-      <c r="E71" s="20" t="s">
-        <v>341</v>
+      <c r="E71" t="s">
+        <v>172</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="H71" t="s">
         <v>20</v>
       </c>
       <c r="I71">
-        <v>14169011808</v>
-      </c>
-      <c r="J71" s="14" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>17052131010</v>
+      </c>
+      <c r="J71" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="B72" t="s">
-        <v>339</v>
+        <v>174</v>
       </c>
       <c r="C72" t="s">
-        <v>342</v>
+        <v>175</v>
       </c>
       <c r="D72" t="s">
         <v>14</v>
       </c>
-      <c r="E72" s="20" t="s">
-        <v>341</v>
+      <c r="E72" t="s">
+        <v>176</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>848</v>
+        <v>827</v>
       </c>
       <c r="H72" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I72">
-        <v>14165469808</v>
+        <v>16137992368</v>
       </c>
       <c r="J72" s="14" t="s">
-        <v>863</v>
+        <v>883</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>23</v>
+        <v>181</v>
       </c>
       <c r="B73" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="C73" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="D73" t="s">
         <v>14</v>
       </c>
       <c r="E73" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>19</v>
+        <v>827</v>
       </c>
       <c r="H73" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I73">
-        <v>14164618366</v>
+        <v>18072779333</v>
       </c>
       <c r="J73" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>108</v>
+      </c>
+      <c r="B74" t="s">
+        <v>50</v>
+      </c>
+      <c r="C74" t="s">
+        <v>186</v>
+      </c>
+      <c r="D74" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" t="s">
+        <v>185</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="H74" t="s">
+        <v>71</v>
+      </c>
+      <c r="I74">
+        <v>14162412837</v>
+      </c>
+      <c r="J74" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>41</v>
+      </c>
+      <c r="B75" t="s">
+        <v>188</v>
+      </c>
+      <c r="C75" t="s">
+        <v>189</v>
+      </c>
+      <c r="D75" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75" t="s">
+        <v>190</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="H75" t="s">
+        <v>36</v>
+      </c>
+      <c r="I75">
+        <v>16136957746</v>
+      </c>
+      <c r="J75" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>169</v>
-      </c>
-      <c r="B74" t="s">
-        <v>170</v>
-      </c>
-      <c r="C74" t="s">
-        <v>171</v>
-      </c>
-      <c r="D74" t="s">
-        <v>14</v>
-      </c>
-      <c r="E74" t="s">
-        <v>172</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>848</v>
-      </c>
-      <c r="H74" t="s">
-        <v>20</v>
-      </c>
-      <c r="I74">
-        <v>17052131010</v>
-      </c>
-      <c r="J74" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>173</v>
-      </c>
-      <c r="B75" t="s">
-        <v>174</v>
-      </c>
-      <c r="C75" t="s">
-        <v>175</v>
-      </c>
-      <c r="D75" t="s">
-        <v>14</v>
-      </c>
-      <c r="E75" t="s">
-        <v>176</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>834</v>
-      </c>
-      <c r="H75" t="s">
-        <v>32</v>
-      </c>
-      <c r="I75">
-        <v>16137992368</v>
-      </c>
-      <c r="J75" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>181</v>
+        <v>267</v>
       </c>
       <c r="B76" t="s">
-        <v>182</v>
+        <v>275</v>
       </c>
       <c r="C76" t="s">
-        <v>183</v>
+        <v>276</v>
       </c>
       <c r="D76" t="s">
         <v>14</v>
       </c>
       <c r="E76" t="s">
-        <v>184</v>
+        <v>277</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>834</v>
+        <v>19</v>
       </c>
       <c r="H76" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="I76">
-        <v>18072779333</v>
-      </c>
-      <c r="J76" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16136877335</v>
+      </c>
+      <c r="J76" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>108</v>
+        <v>285</v>
       </c>
       <c r="B77" t="s">
-        <v>50</v>
+        <v>286</v>
       </c>
       <c r="C77" t="s">
-        <v>186</v>
+        <v>287</v>
       </c>
       <c r="D77" t="s">
         <v>14</v>
       </c>
       <c r="E77" t="s">
-        <v>185</v>
+        <v>288</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>834</v>
+        <v>19</v>
       </c>
       <c r="H77" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="I77">
-        <v>14162412837</v>
-      </c>
-      <c r="J77" t="s">
-        <v>845</v>
+        <v>18074739333</v>
+      </c>
+      <c r="J77" s="14" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B78" t="s">
-        <v>188</v>
+        <v>336</v>
       </c>
       <c r="C78" t="s">
-        <v>189</v>
+        <v>337</v>
       </c>
       <c r="D78" t="s">
         <v>14</v>
       </c>
-      <c r="E78" t="s">
-        <v>190</v>
+      <c r="E78" s="20" t="s">
+        <v>338</v>
       </c>
       <c r="F78" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H78" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I78">
-        <v>16136957746</v>
-      </c>
-      <c r="J78" t="s">
-        <v>35</v>
+        <v>14165468250</v>
+      </c>
+      <c r="J78" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>267</v>
+        <v>58</v>
       </c>
       <c r="B79" t="s">
-        <v>275</v>
+        <v>339</v>
       </c>
       <c r="C79" t="s">
-        <v>276</v>
+        <v>340</v>
       </c>
       <c r="D79" t="s">
         <v>14</v>
       </c>
-      <c r="E79" t="s">
-        <v>277</v>
+      <c r="E79" s="20" t="s">
+        <v>341</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>19</v>
+        <v>840</v>
       </c>
       <c r="H79" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I79">
-        <v>16136877335</v>
-      </c>
-      <c r="J79" t="s">
-        <v>35</v>
+        <v>16133926777</v>
+      </c>
+      <c r="J79" s="14" t="s">
+        <v>850</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>286</v>
+        <v>95</v>
       </c>
       <c r="B80" t="s">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="C80" t="s">
-        <v>288</v>
+        <v>309</v>
       </c>
       <c r="D80" t="s">
         <v>14</v>
       </c>
       <c r="E80" t="s">
-        <v>289</v>
+        <v>310</v>
       </c>
       <c r="F80" s="6" t="s">
         <v>19</v>
@@ -5589,85 +5576,85 @@
         <v>36</v>
       </c>
       <c r="I80">
-        <v>18074739333</v>
-      </c>
-      <c r="J80" t="s">
+        <v>15197360420</v>
+      </c>
+      <c r="J80" s="14" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="B81" t="s">
+        <v>318</v>
+      </c>
+      <c r="C81" t="s">
+        <v>319</v>
+      </c>
+      <c r="D81" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81" t="s">
+        <v>320</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H81" t="s">
+        <v>36</v>
+      </c>
+      <c r="I81">
+        <v>16139669333</v>
+      </c>
+      <c r="J81" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>256</v>
+      </c>
+      <c r="B82" t="s">
+        <v>342</v>
+      </c>
+      <c r="C82" t="s">
         <v>343</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D82" t="s">
+        <v>110</v>
+      </c>
+      <c r="E82" t="s">
         <v>344</v>
       </c>
-      <c r="D81" t="s">
-        <v>14</v>
-      </c>
-      <c r="E81" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="F81" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H81" t="s">
-        <v>38</v>
-      </c>
-      <c r="I81">
-        <v>14165468250</v>
-      </c>
-      <c r="J81" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>58</v>
-      </c>
-      <c r="B82" t="s">
-        <v>346</v>
-      </c>
-      <c r="C82" t="s">
-        <v>347</v>
-      </c>
-      <c r="D82" t="s">
-        <v>14</v>
-      </c>
-      <c r="E82" s="20" t="s">
-        <v>348</v>
-      </c>
       <c r="F82" s="6" t="s">
-        <v>848</v>
+        <v>827</v>
       </c>
       <c r="H82" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I82">
-        <v>16133926777</v>
+        <v>15199542600</v>
       </c>
       <c r="J82" s="14" t="s">
-        <v>858</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="B83" t="s">
-        <v>313</v>
+        <v>342</v>
       </c>
       <c r="C83" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
       <c r="D83" t="s">
         <v>14</v>
       </c>
       <c r="E83" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="F83" s="6" t="s">
         <v>19</v>
@@ -5676,44 +5663,44 @@
         <v>36</v>
       </c>
       <c r="I83">
-        <v>15197360420</v>
-      </c>
-      <c r="J83" t="s">
+        <v>15199542600</v>
+      </c>
+      <c r="J83" s="14" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>130</v>
+        <v>346</v>
       </c>
       <c r="B84" t="s">
-        <v>325</v>
+        <v>347</v>
       </c>
       <c r="C84" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="D84" t="s">
         <v>14</v>
       </c>
-      <c r="E84" t="s">
-        <v>327</v>
+      <c r="E84" s="8" t="s">
+        <v>856</v>
       </c>
       <c r="F84" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H84" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I84">
-        <v>16139669333</v>
-      </c>
-      <c r="J84" t="s">
-        <v>35</v>
+        <v>18077279830</v>
+      </c>
+      <c r="J84" s="14" t="s">
+        <v>855</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>256</v>
+        <v>111</v>
       </c>
       <c r="B85" t="s">
         <v>349</v>
@@ -5722,7 +5709,7 @@
         <v>350</v>
       </c>
       <c r="D85" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="E85" t="s">
         <v>351</v>
@@ -5731,24 +5718,24 @@
         <v>19</v>
       </c>
       <c r="H85" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I85">
-        <v>15199542600</v>
+        <v>14165512550</v>
       </c>
       <c r="J85" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>57</v>
+        <v>150</v>
       </c>
       <c r="B86" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C86" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D86" t="s">
         <v>14</v>
@@ -5760,59 +5747,59 @@
         <v>19</v>
       </c>
       <c r="H86" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I86">
-        <v>15199542600</v>
+        <v>14165512550</v>
       </c>
       <c r="J86" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>353</v>
+        <v>197</v>
       </c>
       <c r="B87" t="s">
+        <v>349</v>
+      </c>
+      <c r="C87" t="s">
         <v>354</v>
       </c>
-      <c r="C87" t="s">
-        <v>355</v>
-      </c>
       <c r="D87" t="s">
         <v>14</v>
       </c>
-      <c r="E87" s="8" t="s">
-        <v>865</v>
+      <c r="E87" t="s">
+        <v>351</v>
       </c>
       <c r="F87" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H87" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I87">
-        <v>18077279830</v>
-      </c>
-      <c r="J87" s="14" t="s">
-        <v>864</v>
+        <v>14165512550</v>
+      </c>
+      <c r="J87" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="B88" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C88" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D88" t="s">
         <v>14</v>
       </c>
       <c r="E88" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>19</v>
@@ -5829,57 +5816,54 @@
     </row>
     <row r="89" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="B89" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C89" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D89" t="s">
         <v>14</v>
       </c>
       <c r="E89" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="F89" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H89" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="I89">
-        <v>14165512550</v>
-      </c>
-      <c r="J89" t="s">
-        <v>17</v>
+        <v>14165460810</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>197</v>
+        <v>30</v>
       </c>
       <c r="B90" t="s">
-        <v>356</v>
+        <v>180</v>
       </c>
       <c r="C90" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="D90" t="s">
         <v>14</v>
       </c>
       <c r="E90" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="F90" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H90" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I90">
-        <v>14165512550</v>
+        <v>19055293037</v>
       </c>
       <c r="J90" t="s">
         <v>17</v>
@@ -5887,36 +5871,36 @@
     </row>
     <row r="91" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B91" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="C91" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D91" t="s">
         <v>14</v>
       </c>
-      <c r="E91" t="s">
-        <v>358</v>
+      <c r="E91" s="20" t="s">
+        <v>365</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>19</v>
+        <v>798</v>
       </c>
       <c r="H91" t="s">
         <v>20</v>
       </c>
       <c r="I91">
-        <v>14165512550</v>
-      </c>
-      <c r="J91" t="s">
+        <v>12897552839</v>
+      </c>
+      <c r="J91" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>134</v>
+        <v>366</v>
       </c>
       <c r="B92" t="s">
         <v>367</v>
@@ -5927,130 +5911,133 @@
       <c r="D92" t="s">
         <v>14</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E92" s="20" t="s">
         <v>369</v>
       </c>
       <c r="F92" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H92" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="I92">
-        <v>14165460810</v>
+        <v>13433740100</v>
+      </c>
+      <c r="J92" s="14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="B93" t="s">
-        <v>180</v>
+        <v>370</v>
       </c>
       <c r="C93" t="s">
+        <v>371</v>
+      </c>
+      <c r="D93" t="s">
+        <v>14</v>
+      </c>
+      <c r="E93" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H93" t="s">
+        <v>20</v>
+      </c>
+      <c r="I93">
+        <v>13433980104</v>
+      </c>
+      <c r="J93" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>13</v>
+      </c>
+      <c r="B94" t="s">
+        <v>381</v>
+      </c>
+      <c r="C94" t="s">
         <v>382</v>
       </c>
-      <c r="D93" t="s">
-        <v>14</v>
-      </c>
-      <c r="E93" t="s">
+      <c r="D94" t="s">
+        <v>14</v>
+      </c>
+      <c r="E94" t="s">
         <v>383</v>
       </c>
-      <c r="F93" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H93" t="s">
-        <v>16</v>
-      </c>
-      <c r="I93">
-        <v>19055293037</v>
-      </c>
-      <c r="J93" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>30</v>
-      </c>
-      <c r="B94" t="s">
-        <v>370</v>
-      </c>
-      <c r="C94" t="s">
-        <v>371</v>
-      </c>
-      <c r="D94" t="s">
-        <v>14</v>
-      </c>
-      <c r="E94" s="20" t="s">
-        <v>372</v>
-      </c>
       <c r="F94" s="6" t="s">
-        <v>805</v>
+        <v>19</v>
       </c>
       <c r="H94" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I94">
-        <v>12897552839</v>
-      </c>
-      <c r="J94" s="14" t="s">
-        <v>17</v>
+        <v>16477465430</v>
+      </c>
+      <c r="J94" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>373</v>
+        <v>28</v>
       </c>
       <c r="B95" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="C95" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="D95" t="s">
         <v>14</v>
       </c>
-      <c r="E95" s="20" t="s">
-        <v>376</v>
+      <c r="E95" t="s">
+        <v>383</v>
       </c>
       <c r="F95" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H95" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I95">
-        <v>13433740100</v>
+        <v>14374101420</v>
       </c>
       <c r="J95" s="14" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>139</v>
-      </c>
-      <c r="B96" t="s">
-        <v>377</v>
+        <v>23</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>372</v>
       </c>
       <c r="C96" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D96" t="s">
         <v>14</v>
       </c>
       <c r="E96" s="20" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>19</v>
+        <v>798</v>
       </c>
       <c r="H96" t="s">
         <v>20</v>
       </c>
       <c r="I96">
-        <v>13433980104</v>
+        <v>14169779343</v>
       </c>
       <c r="J96" s="14" t="s">
         <v>17</v>
@@ -6058,88 +6045,94 @@
     </row>
     <row r="97" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>13</v>
+        <v>385</v>
       </c>
       <c r="B97" t="s">
+        <v>386</v>
+      </c>
+      <c r="C97" t="s">
+        <v>387</v>
+      </c>
+      <c r="D97" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" t="s">
         <v>388</v>
       </c>
-      <c r="C97" t="s">
-        <v>389</v>
-      </c>
-      <c r="D97" t="s">
-        <v>14</v>
-      </c>
-      <c r="E97" t="s">
-        <v>390</v>
-      </c>
       <c r="F97" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H97" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I97">
-        <v>16477465430</v>
+        <v>15193892839</v>
+      </c>
+      <c r="J97" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B98" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C98" t="s">
+        <v>390</v>
+      </c>
+      <c r="D98" t="s">
+        <v>14</v>
+      </c>
+      <c r="E98" t="s">
         <v>391</v>
       </c>
-      <c r="D98" t="s">
-        <v>14</v>
-      </c>
-      <c r="E98" t="s">
-        <v>390</v>
-      </c>
       <c r="F98" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H98" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I98">
-        <v>14374101420</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>18777990420</v>
+      </c>
+      <c r="J98" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>23</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>379</v>
+        <v>30</v>
+      </c>
+      <c r="B99" t="s">
+        <v>389</v>
       </c>
       <c r="C99" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="D99" t="s">
         <v>14</v>
       </c>
-      <c r="E99" s="20" t="s">
-        <v>381</v>
+      <c r="E99" t="s">
+        <v>391</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>805</v>
+        <v>19</v>
       </c>
       <c r="H99" t="s">
         <v>20</v>
       </c>
       <c r="I99">
-        <v>14169779343</v>
-      </c>
-      <c r="J99" s="14" t="s">
+        <v>19056286324</v>
+      </c>
+      <c r="J99" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>392</v>
+        <v>115</v>
       </c>
       <c r="B100" t="s">
         <v>393</v>
@@ -6151,7 +6144,7 @@
         <v>14</v>
       </c>
       <c r="E100" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F100" s="6" t="s">
         <v>19</v>
@@ -6160,7 +6153,7 @@
         <v>20</v>
       </c>
       <c r="I100">
-        <v>15193892839</v>
+        <v>12894260469</v>
       </c>
       <c r="J100" t="s">
         <v>17</v>
@@ -6168,62 +6161,65 @@
     </row>
     <row r="101" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>30</v>
+        <v>395</v>
       </c>
       <c r="B101" t="s">
+        <v>389</v>
+      </c>
+      <c r="C101" t="s">
         <v>396</v>
       </c>
-      <c r="C101" t="s">
-        <v>397</v>
-      </c>
       <c r="D101" t="s">
         <v>14</v>
       </c>
       <c r="E101" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="F101" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H101" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I101">
-        <v>18777990420</v>
+        <v>12894480170</v>
+      </c>
+      <c r="J101" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B102" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C102" t="s">
+        <v>398</v>
+      </c>
+      <c r="D102" t="s">
+        <v>14</v>
+      </c>
+      <c r="E102" t="s">
         <v>399</v>
       </c>
-      <c r="D102" t="s">
-        <v>14</v>
-      </c>
-      <c r="E102" t="s">
-        <v>398</v>
-      </c>
       <c r="F102" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H102" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="I102">
-        <v>19056286324</v>
+        <v>14167926477</v>
       </c>
       <c r="J102" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="B103" t="s">
         <v>400</v>
@@ -6235,7 +6231,7 @@
         <v>14</v>
       </c>
       <c r="E103" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="F103" s="6" t="s">
         <v>19</v>
@@ -6244,7 +6240,7 @@
         <v>20</v>
       </c>
       <c r="I103">
-        <v>12894260469</v>
+        <v>16135367110</v>
       </c>
       <c r="J103" t="s">
         <v>17</v>
@@ -6252,28 +6248,28 @@
     </row>
     <row r="104" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>402</v>
+        <v>37</v>
       </c>
       <c r="B104" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="C104" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D104" t="s">
         <v>14</v>
       </c>
       <c r="E104" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="F104" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H104" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I104">
-        <v>12894480170</v>
+        <v>16138364420</v>
       </c>
       <c r="J104" t="s">
         <v>17</v>
@@ -6281,65 +6277,65 @@
     </row>
     <row r="105" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B105" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C105" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D105" t="s">
         <v>14</v>
       </c>
       <c r="E105" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F105" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H105" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I105">
-        <v>14167926477</v>
-      </c>
-      <c r="J105" t="s">
-        <v>39</v>
+        <v>19055476002</v>
+      </c>
+      <c r="J105" s="14" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>54</v>
+        <v>377</v>
       </c>
       <c r="B106" t="s">
-        <v>407</v>
+        <v>378</v>
       </c>
       <c r="C106" t="s">
-        <v>408</v>
+        <v>379</v>
       </c>
       <c r="D106" t="s">
         <v>14</v>
       </c>
-      <c r="E106" t="s">
-        <v>409</v>
+      <c r="E106" s="20" t="s">
+        <v>380</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>19</v>
+        <v>846</v>
       </c>
       <c r="H106" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I106">
-        <v>16135367110</v>
-      </c>
-      <c r="J106" t="s">
+        <v>18078538888</v>
+      </c>
+      <c r="J106" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B107" t="s">
         <v>410</v>
@@ -6357,10 +6353,10 @@
         <v>19</v>
       </c>
       <c r="H107" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I107">
-        <v>16138364420</v>
+        <v>14165469944</v>
       </c>
       <c r="J107" t="s">
         <v>17</v>
@@ -6368,19 +6364,19 @@
     </row>
     <row r="108" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>30</v>
+        <v>413</v>
       </c>
       <c r="B108" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C108" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D108" t="s">
         <v>14</v>
       </c>
       <c r="E108" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F108" s="6" t="s">
         <v>19</v>
@@ -6389,62 +6385,65 @@
         <v>18</v>
       </c>
       <c r="I108">
-        <v>19055476002</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>12894790420</v>
+      </c>
+      <c r="J108" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>384</v>
+        <v>33</v>
       </c>
       <c r="B109" t="s">
-        <v>385</v>
+        <v>417</v>
       </c>
       <c r="C109" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="D109" t="s">
         <v>14</v>
       </c>
-      <c r="E109" s="20" t="s">
-        <v>387</v>
+      <c r="E109" t="s">
+        <v>419</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>854</v>
+        <v>19</v>
       </c>
       <c r="H109" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I109">
-        <v>18078538888</v>
-      </c>
-      <c r="J109" s="14" t="s">
-        <v>17</v>
+        <v>14165260000</v>
+      </c>
+      <c r="J109" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B110" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C110" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="D110" t="s">
         <v>14</v>
       </c>
       <c r="E110" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="F110" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H110" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I110">
-        <v>14165469944</v>
+        <v>16472779835</v>
       </c>
       <c r="J110" t="s">
         <v>17</v>
@@ -6452,83 +6451,86 @@
     </row>
     <row r="111" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>420</v>
+        <v>28</v>
       </c>
       <c r="B111" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C111" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D111" t="s">
         <v>14</v>
       </c>
       <c r="E111" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F111" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H111" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I111">
-        <v>12894790420</v>
+        <v>14163951945</v>
+      </c>
+      <c r="J111" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B112" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="C112" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="D112" t="s">
         <v>14</v>
       </c>
       <c r="E112" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="F112" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H112" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I112">
-        <v>14165260000</v>
+        <v>12893896764</v>
       </c>
       <c r="J112" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="B113" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="C113" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="D113" t="s">
         <v>14</v>
       </c>
       <c r="E113" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F113" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H113" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I113">
-        <v>16472779835</v>
+        <v>12893896764</v>
       </c>
       <c r="J113" t="s">
         <v>17</v>
@@ -6536,118 +6538,121 @@
     </row>
     <row r="114" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>28</v>
+        <v>426</v>
       </c>
       <c r="B114" t="s">
-        <v>430</v>
+        <v>64</v>
       </c>
       <c r="C114" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D114" t="s">
         <v>14</v>
       </c>
-      <c r="E114" t="s">
-        <v>432</v>
+      <c r="E114" s="20" t="s">
+        <v>428</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>19</v>
+        <v>857</v>
       </c>
       <c r="H114" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I114">
-        <v>14163951945</v>
-      </c>
-      <c r="J114" t="s">
-        <v>17</v>
+        <v>12267224367</v>
+      </c>
+      <c r="J114" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B115" t="s">
+        <v>434</v>
+      </c>
+      <c r="C115" t="s">
         <v>436</v>
       </c>
-      <c r="C115" t="s">
-        <v>437</v>
-      </c>
       <c r="D115" t="s">
         <v>14</v>
       </c>
       <c r="E115" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F115" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H115" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="I115">
-        <v>12893896764</v>
-      </c>
-      <c r="J115" t="s">
+        <v>14162564815</v>
+      </c>
+      <c r="J115" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B116" t="s">
+        <v>437</v>
+      </c>
+      <c r="C116" t="s">
+        <v>438</v>
+      </c>
+      <c r="D116" t="s">
+        <v>14</v>
+      </c>
+      <c r="E116" t="s">
         <v>439</v>
       </c>
-      <c r="C116" t="s">
-        <v>440</v>
-      </c>
-      <c r="D116" t="s">
-        <v>14</v>
-      </c>
-      <c r="E116" t="s">
-        <v>438</v>
-      </c>
       <c r="F116" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="G116" s="13" t="s">
+        <v>842</v>
       </c>
       <c r="H116" t="s">
         <v>20</v>
       </c>
       <c r="I116">
-        <v>12893896764</v>
+        <v>16473451819</v>
       </c>
       <c r="J116" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="B117" t="s">
-        <v>64</v>
+        <v>442</v>
       </c>
       <c r="C117" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="D117" t="s">
         <v>14</v>
       </c>
-      <c r="E117" s="20" t="s">
-        <v>435</v>
+      <c r="E117" t="s">
+        <v>444</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>866</v>
+        <v>19</v>
       </c>
       <c r="H117" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I117">
-        <v>12267224367</v>
-      </c>
-      <c r="J117" s="14" t="s">
-        <v>39</v>
+        <v>17059350053</v>
+      </c>
+      <c r="J117" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -6655,57 +6660,54 @@
         <v>60</v>
       </c>
       <c r="B118" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C118" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D118" t="s">
         <v>14</v>
       </c>
       <c r="E118" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="F118" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H118" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I118">
-        <v>14162564815</v>
-      </c>
-      <c r="J118" t="s">
+        <v>14165512030</v>
+      </c>
+      <c r="J118" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>60</v>
+        <v>448</v>
       </c>
       <c r="B119" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="C119" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="D119" t="s">
         <v>14</v>
       </c>
       <c r="E119" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G119" s="13" t="s">
-        <v>850</v>
+        <v>19</v>
       </c>
       <c r="H119" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I119">
-        <v>16473451819</v>
+        <v>17053621118</v>
       </c>
       <c r="J119" t="s">
         <v>17</v>
@@ -6713,19 +6715,19 @@
     </row>
     <row r="120" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="B120" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="C120" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="D120" t="s">
         <v>14</v>
       </c>
       <c r="E120" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="F120" s="6" t="s">
         <v>19</v>
@@ -6734,7 +6736,7 @@
         <v>20</v>
       </c>
       <c r="I120">
-        <v>17059350053</v>
+        <v>19058877555</v>
       </c>
       <c r="J120" t="s">
         <v>17</v>
@@ -6742,54 +6744,57 @@
     </row>
     <row r="121" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="B121" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="C121" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="D121" t="s">
         <v>14</v>
       </c>
       <c r="E121" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="F121" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H121" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I121">
-        <v>14165512030</v>
+        <v>14162316003</v>
+      </c>
+      <c r="J121" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>455</v>
+        <v>80</v>
       </c>
       <c r="B122" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="C122" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="D122" t="s">
         <v>14</v>
       </c>
       <c r="E122" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="F122" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H122" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I122">
-        <v>17053621118</v>
+        <v>15192563602</v>
       </c>
       <c r="J122" t="s">
         <v>17</v>
@@ -6797,19 +6802,19 @@
     </row>
     <row r="123" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>461</v>
+        <v>43</v>
       </c>
       <c r="B123" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C123" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D123" t="s">
         <v>14</v>
       </c>
       <c r="E123" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="F123" s="6" t="s">
         <v>19</v>
@@ -6818,7 +6823,7 @@
         <v>20</v>
       </c>
       <c r="I123">
-        <v>19058877555</v>
+        <v>19056419333</v>
       </c>
       <c r="J123" t="s">
         <v>17</v>
@@ -6826,19 +6831,19 @@
     </row>
     <row r="124" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="B124" t="s">
-        <v>465</v>
+        <v>81</v>
       </c>
       <c r="C124" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D124" t="s">
         <v>14</v>
       </c>
       <c r="E124" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F124" s="6" t="s">
         <v>19</v>
@@ -6847,7 +6852,7 @@
         <v>20</v>
       </c>
       <c r="I124">
-        <v>14162316003</v>
+        <v>17052525599</v>
       </c>
       <c r="J124" t="s">
         <v>17</v>
@@ -6855,48 +6860,48 @@
     </row>
     <row r="125" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="B125" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C125" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="D125" t="s">
         <v>14</v>
       </c>
       <c r="E125" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="F125" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H125" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="I125">
-        <v>15192563602</v>
-      </c>
-      <c r="J125" t="s">
-        <v>17</v>
+        <v>16137314367</v>
+      </c>
+      <c r="J125" s="14" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B126" t="s">
-        <v>471</v>
+        <v>452</v>
       </c>
       <c r="C126" t="s">
-        <v>472</v>
+        <v>453</v>
       </c>
       <c r="D126" t="s">
         <v>14</v>
       </c>
-      <c r="E126" t="s">
-        <v>473</v>
+      <c r="E126" s="20" t="s">
+        <v>860</v>
       </c>
       <c r="F126" s="6" t="s">
         <v>19</v>
@@ -6905,68 +6910,68 @@
         <v>20</v>
       </c>
       <c r="I126">
-        <v>19056419333</v>
-      </c>
-      <c r="J126" t="s">
-        <v>17</v>
+        <v>16134351420</v>
+      </c>
+      <c r="J126" s="14" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="B127" t="s">
-        <v>81</v>
+        <v>476</v>
       </c>
       <c r="C127" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="D127" t="s">
         <v>14</v>
       </c>
       <c r="E127" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="F127" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H127" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I127">
-        <v>17052525599</v>
+        <v>14167629922</v>
       </c>
       <c r="J127" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="B128" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="C128" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="D128" t="s">
         <v>14</v>
       </c>
-      <c r="E128" t="s">
-        <v>481</v>
+      <c r="E128" s="20" t="s">
+        <v>471</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>19</v>
+        <v>840</v>
       </c>
       <c r="H128" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I128">
-        <v>16137314367</v>
-      </c>
-      <c r="J128" t="s">
-        <v>35</v>
+        <v>12267732105</v>
+      </c>
+      <c r="J128" s="14" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="129" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -6974,813 +6979,834 @@
         <v>37</v>
       </c>
       <c r="B129" t="s">
-        <v>459</v>
+        <v>479</v>
       </c>
       <c r="C129" t="s">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="D129" t="s">
         <v>14</v>
       </c>
-      <c r="E129" s="20" t="s">
-        <v>869</v>
+      <c r="E129" t="s">
+        <v>481</v>
       </c>
       <c r="F129" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H129" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I129">
-        <v>16134351420</v>
+        <v>13435881547</v>
       </c>
       <c r="J129" s="14" t="s">
-        <v>868</v>
+        <v>35</v>
       </c>
     </row>
     <row r="130" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B130" t="s">
+        <v>99</v>
+      </c>
+      <c r="C130" t="s">
         <v>483</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D130" t="s">
+        <v>14</v>
+      </c>
+      <c r="E130" t="s">
+        <v>482</v>
+      </c>
+      <c r="F130" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="H130" t="s">
+        <v>841</v>
+      </c>
+      <c r="I130">
+        <v>16134401420</v>
+      </c>
+      <c r="J130" s="14" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
         <v>484</v>
       </c>
-      <c r="D130" t="s">
-        <v>14</v>
-      </c>
-      <c r="E130" t="s">
+      <c r="B131" t="s">
         <v>485</v>
       </c>
-      <c r="F130" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H130" t="s">
-        <v>18</v>
-      </c>
-      <c r="I130">
-        <v>14167629922</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>80</v>
-      </c>
-      <c r="B131" t="s">
-        <v>476</v>
-      </c>
       <c r="C131" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="D131" t="s">
         <v>14</v>
       </c>
       <c r="E131" s="20" t="s">
-        <v>478</v>
+        <v>863</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="H131" t="s">
         <v>20</v>
       </c>
       <c r="I131">
-        <v>12267732105</v>
+        <v>18076980012</v>
       </c>
       <c r="J131" s="14" t="s">
-        <v>870</v>
+        <v>862</v>
+      </c>
+      <c r="K131" s="14" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="132" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>37</v>
+        <v>487</v>
       </c>
       <c r="B132" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C132" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D132" t="s">
         <v>14</v>
       </c>
-      <c r="E132" t="s">
-        <v>488</v>
+      <c r="E132" s="20" t="s">
+        <v>865</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>19</v>
+        <v>846</v>
       </c>
       <c r="H132" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I132">
-        <v>13435881547</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>18076989420</v>
+      </c>
+      <c r="J132" s="14" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="B133" t="s">
-        <v>99</v>
+        <v>490</v>
       </c>
       <c r="C133" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D133" t="s">
         <v>14</v>
       </c>
-      <c r="E133" t="s">
-        <v>489</v>
+      <c r="E133" s="20" t="s">
+        <v>868</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>834</v>
+        <v>19</v>
       </c>
       <c r="H133" t="s">
-        <v>849</v>
+        <v>38</v>
       </c>
       <c r="I133">
-        <v>16134401420</v>
-      </c>
-      <c r="J133" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15193071300</v>
+      </c>
+      <c r="J133" s="14" t="s">
+        <v>866</v>
+      </c>
+      <c r="K133" s="14" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>491</v>
+        <v>267</v>
       </c>
       <c r="B134" t="s">
-        <v>492</v>
+        <v>230</v>
       </c>
       <c r="C134" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D134" t="s">
         <v>14</v>
       </c>
-      <c r="E134" s="20" t="s">
-        <v>872</v>
+      <c r="E134" t="s">
+        <v>495</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>854</v>
+        <v>19</v>
       </c>
       <c r="H134" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="I134">
-        <v>18076980012</v>
+        <v>16135065874</v>
       </c>
       <c r="J134" s="14" t="s">
-        <v>871</v>
-      </c>
-      <c r="K134" s="14" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>494</v>
+        <v>30</v>
       </c>
       <c r="B135" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C135" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D135" t="s">
         <v>14</v>
       </c>
-      <c r="E135" s="20" t="s">
-        <v>874</v>
+      <c r="E135" t="s">
+        <v>498</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>854</v>
+        <v>19</v>
       </c>
       <c r="H135" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="I135">
-        <v>18076989420</v>
+        <v>19055220184</v>
       </c>
       <c r="J135" s="14" t="s">
-        <v>871</v>
+        <v>35</v>
       </c>
     </row>
     <row r="136" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="B136" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C136" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D136" t="s">
         <v>14</v>
       </c>
-      <c r="E136" s="20" t="s">
-        <v>877</v>
+      <c r="E136" t="s">
+        <v>501</v>
       </c>
       <c r="F136" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H136" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I136">
-        <v>15193071300</v>
+        <v>14167785659</v>
       </c>
       <c r="J136" s="14" t="s">
-        <v>875</v>
-      </c>
-      <c r="K136" s="14" t="s">
-        <v>876</v>
+        <v>35</v>
       </c>
     </row>
     <row r="137" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>267</v>
+        <v>56</v>
       </c>
       <c r="B137" t="s">
-        <v>230</v>
+        <v>492</v>
       </c>
       <c r="C137" t="s">
-        <v>501</v>
+        <v>268</v>
       </c>
       <c r="D137" t="s">
-        <v>14</v>
-      </c>
-      <c r="E137" t="s">
-        <v>502</v>
+        <v>110</v>
+      </c>
+      <c r="E137" s="20" t="s">
+        <v>493</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>19</v>
+        <v>798</v>
       </c>
       <c r="H137" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I137">
-        <v>16135065874</v>
-      </c>
-      <c r="J137" t="s">
-        <v>35</v>
+        <v>12899806868</v>
+      </c>
+      <c r="J137" s="14" t="s">
+        <v>869</v>
+      </c>
+      <c r="K137" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="138" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B138" t="s">
+        <v>238</v>
+      </c>
+      <c r="C138" t="s">
+        <v>502</v>
+      </c>
+      <c r="D138" t="s">
+        <v>14</v>
+      </c>
+      <c r="E138" t="s">
         <v>503</v>
       </c>
-      <c r="C138" t="s">
-        <v>504</v>
-      </c>
-      <c r="D138" t="s">
-        <v>14</v>
-      </c>
-      <c r="E138" t="s">
-        <v>505</v>
-      </c>
       <c r="F138" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H138" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="I138">
-        <v>19055220184</v>
+        <v>14167833008</v>
+      </c>
+      <c r="J138" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="139" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B139" t="s">
+        <v>504</v>
+      </c>
+      <c r="C139" t="s">
+        <v>505</v>
+      </c>
+      <c r="D139" t="s">
+        <v>14</v>
+      </c>
+      <c r="E139" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="C139" t="s">
+      <c r="F139" s="6" t="s">
+        <v>846</v>
+      </c>
+      <c r="H139" t="s">
+        <v>22</v>
+      </c>
+      <c r="I139">
+        <v>17058814629</v>
+      </c>
+      <c r="J139" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>42</v>
+      </c>
+      <c r="B140" t="s">
+        <v>239</v>
+      </c>
+      <c r="C140" t="s">
         <v>507</v>
       </c>
-      <c r="D139" t="s">
-        <v>14</v>
-      </c>
-      <c r="E139" t="s">
-        <v>508</v>
-      </c>
-      <c r="F139" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H139" t="s">
-        <v>18</v>
-      </c>
-      <c r="I139">
-        <v>14167785659</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>56</v>
-      </c>
-      <c r="B140" t="s">
-        <v>499</v>
-      </c>
-      <c r="C140" t="s">
-        <v>268</v>
-      </c>
       <c r="D140" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="E140" s="20" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>805</v>
+        <v>846</v>
       </c>
       <c r="H140" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I140">
-        <v>12899806868</v>
-      </c>
-      <c r="J140" s="14" t="s">
-        <v>878</v>
-      </c>
-      <c r="K140" t="s">
-        <v>879</v>
+        <v>17053250068</v>
+      </c>
+      <c r="J140" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="141" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B141" t="s">
-        <v>238</v>
+        <v>516</v>
       </c>
       <c r="C141" t="s">
+        <v>517</v>
+      </c>
+      <c r="D141" t="s">
+        <v>14</v>
+      </c>
+      <c r="E141" t="s">
+        <v>518</v>
+      </c>
+      <c r="F141" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H141" t="s">
+        <v>29</v>
+      </c>
+      <c r="I141">
+        <v>19057043664</v>
+      </c>
+      <c r="J141" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>23</v>
+      </c>
+      <c r="B142" t="s">
+        <v>508</v>
+      </c>
+      <c r="C142" t="s">
         <v>509</v>
       </c>
-      <c r="D141" t="s">
-        <v>14</v>
-      </c>
-      <c r="E141" t="s">
+      <c r="D142" t="s">
+        <v>14</v>
+      </c>
+      <c r="E142" s="20" t="s">
         <v>510</v>
       </c>
-      <c r="F141" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H141" t="s">
-        <v>20</v>
-      </c>
-      <c r="I141">
-        <v>14167833008</v>
-      </c>
-      <c r="J141" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
-        <v>46</v>
-      </c>
-      <c r="B142" t="s">
-        <v>511</v>
-      </c>
-      <c r="C142" t="s">
-        <v>512</v>
-      </c>
-      <c r="D142" t="s">
-        <v>14</v>
-      </c>
-      <c r="E142" s="20" t="s">
-        <v>513</v>
-      </c>
       <c r="F142" s="6" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="H142" t="s">
         <v>22</v>
       </c>
       <c r="I142">
-        <v>17058814629</v>
+        <v>14165199159</v>
       </c>
       <c r="J142" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B143" t="s">
         <v>239</v>
       </c>
       <c r="C143" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D143" t="s">
         <v>14</v>
       </c>
       <c r="E143" s="20" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="H143" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I143">
-        <v>17053250068</v>
-      </c>
-      <c r="J143" t="s">
-        <v>39</v>
+        <v>17057071595</v>
       </c>
     </row>
     <row r="144" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="B144" t="s">
+        <v>513</v>
+      </c>
+      <c r="C144" t="s">
+        <v>514</v>
+      </c>
+      <c r="D144" t="s">
+        <v>14</v>
+      </c>
+      <c r="E144" s="20" t="s">
+        <v>515</v>
+      </c>
+      <c r="F144" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="H144" t="s">
+        <v>20</v>
+      </c>
+      <c r="I144">
+        <v>19052395300</v>
+      </c>
+      <c r="J144" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>395</v>
+      </c>
+      <c r="B145" t="s">
+        <v>519</v>
+      </c>
+      <c r="C145" t="s">
+        <v>520</v>
+      </c>
+      <c r="D145" t="s">
+        <v>14</v>
+      </c>
+      <c r="E145" t="s">
+        <v>521</v>
+      </c>
+      <c r="F145" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H145" t="s">
+        <v>34</v>
+      </c>
+      <c r="I145">
+        <v>19059308827</v>
+      </c>
+      <c r="J145" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>82</v>
+      </c>
+      <c r="B146" t="s">
+        <v>257</v>
+      </c>
+      <c r="C146" t="s">
+        <v>522</v>
+      </c>
+      <c r="D146" t="s">
+        <v>14</v>
+      </c>
+      <c r="E146" t="s">
         <v>523</v>
       </c>
-      <c r="C144" t="s">
+      <c r="F146" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H146" t="s">
+        <v>22</v>
+      </c>
+      <c r="I146">
+        <v>16134222211</v>
+      </c>
+      <c r="J146" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>284</v>
+      </c>
+      <c r="B147" t="s">
+        <v>257</v>
+      </c>
+      <c r="C147" t="s">
         <v>524</v>
       </c>
-      <c r="D144" t="s">
-        <v>14</v>
-      </c>
-      <c r="E144" t="s">
+      <c r="D147" t="s">
+        <v>14</v>
+      </c>
+      <c r="E147" t="s">
+        <v>523</v>
+      </c>
+      <c r="F147" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H147" t="s">
+        <v>22</v>
+      </c>
+      <c r="I147">
+        <v>16134222211</v>
+      </c>
+      <c r="J147" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>41</v>
+      </c>
+      <c r="B148" t="s">
+        <v>257</v>
+      </c>
+      <c r="C148" t="s">
         <v>525</v>
       </c>
-      <c r="F144" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H144" t="s">
+      <c r="D148" t="s">
+        <v>14</v>
+      </c>
+      <c r="E148" t="s">
+        <v>523</v>
+      </c>
+      <c r="F148" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H148" t="s">
+        <v>209</v>
+      </c>
+      <c r="I148">
+        <v>16134222211</v>
+      </c>
+      <c r="J148" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>13</v>
+      </c>
+      <c r="B149" t="s">
+        <v>527</v>
+      </c>
+      <c r="C149" t="s">
+        <v>528</v>
+      </c>
+      <c r="D149" t="s">
+        <v>14</v>
+      </c>
+      <c r="E149" t="s">
+        <v>526</v>
+      </c>
+      <c r="F149" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H149" t="s">
+        <v>34</v>
+      </c>
+      <c r="I149">
+        <v>19056323154</v>
+      </c>
+      <c r="J149" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>23</v>
+      </c>
+      <c r="B150" t="s">
+        <v>529</v>
+      </c>
+      <c r="C150" t="s">
+        <v>530</v>
+      </c>
+      <c r="D150" t="s">
+        <v>14</v>
+      </c>
+      <c r="E150" t="s">
+        <v>531</v>
+      </c>
+      <c r="F150" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H150" t="s">
+        <v>20</v>
+      </c>
+      <c r="I150">
+        <v>14166910899</v>
+      </c>
+      <c r="J150" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>108</v>
+      </c>
+      <c r="B151" t="s">
+        <v>532</v>
+      </c>
+      <c r="C151" t="s">
+        <v>533</v>
+      </c>
+      <c r="D151" t="s">
+        <v>14</v>
+      </c>
+      <c r="E151" t="s">
+        <v>531</v>
+      </c>
+      <c r="F151" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H151" t="s">
+        <v>20</v>
+      </c>
+      <c r="I151">
+        <v>14164105442</v>
+      </c>
+      <c r="J151" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>80</v>
+      </c>
+      <c r="B152" t="s">
+        <v>126</v>
+      </c>
+      <c r="C152" t="s">
+        <v>534</v>
+      </c>
+      <c r="D152" t="s">
+        <v>14</v>
+      </c>
+      <c r="E152" t="s">
+        <v>535</v>
+      </c>
+      <c r="F152" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H152" t="s">
+        <v>18</v>
+      </c>
+      <c r="I152">
+        <v>15199443180</v>
+      </c>
+      <c r="J152" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>30</v>
+      </c>
+      <c r="B153" t="s">
+        <v>539</v>
+      </c>
+      <c r="C153" t="s">
+        <v>540</v>
+      </c>
+      <c r="D153" t="s">
+        <v>14</v>
+      </c>
+      <c r="E153" t="s">
+        <v>541</v>
+      </c>
+      <c r="F153" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H153" t="s">
         <v>29</v>
       </c>
-      <c r="I144">
-        <v>19057043664</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
+      <c r="I153">
+        <v>19055745323</v>
+      </c>
+      <c r="J153" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
         <v>23</v>
       </c>
-      <c r="B145" t="s">
-        <v>515</v>
-      </c>
-      <c r="C145" t="s">
-        <v>516</v>
-      </c>
-      <c r="D145" t="s">
-        <v>14</v>
-      </c>
-      <c r="E145" s="20" t="s">
-        <v>517</v>
-      </c>
-      <c r="F145" s="6" t="s">
-        <v>854</v>
-      </c>
-      <c r="H145" t="s">
-        <v>22</v>
-      </c>
-      <c r="I145">
-        <v>14165199159</v>
-      </c>
-      <c r="J145" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>53</v>
-      </c>
-      <c r="B146" t="s">
-        <v>239</v>
-      </c>
-      <c r="C146" t="s">
-        <v>518</v>
-      </c>
-      <c r="D146" t="s">
-        <v>14</v>
-      </c>
-      <c r="E146" s="20" t="s">
-        <v>519</v>
-      </c>
-      <c r="F146" s="6" t="s">
-        <v>854</v>
-      </c>
-      <c r="H146" t="s">
-        <v>29</v>
-      </c>
-      <c r="I146">
-        <v>17057071595</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>120</v>
-      </c>
-      <c r="B147" t="s">
-        <v>520</v>
-      </c>
-      <c r="C147" t="s">
-        <v>521</v>
-      </c>
-      <c r="D147" t="s">
-        <v>14</v>
-      </c>
-      <c r="E147" s="20" t="s">
-        <v>522</v>
-      </c>
-      <c r="F147" s="6" t="s">
-        <v>805</v>
-      </c>
-      <c r="H147" t="s">
+      <c r="B154" t="s">
+        <v>542</v>
+      </c>
+      <c r="C154" t="s">
+        <v>543</v>
+      </c>
+      <c r="D154" t="s">
+        <v>14</v>
+      </c>
+      <c r="E154" t="s">
+        <v>544</v>
+      </c>
+      <c r="F154" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H154" t="s">
+        <v>18</v>
+      </c>
+      <c r="I154">
+        <v>14165852263</v>
+      </c>
+      <c r="J154" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>23</v>
+      </c>
+      <c r="B155" t="s">
+        <v>537</v>
+      </c>
+      <c r="C155" t="s">
+        <v>538</v>
+      </c>
+      <c r="D155" t="s">
+        <v>14</v>
+      </c>
+      <c r="E155" s="20" t="s">
+        <v>536</v>
+      </c>
+      <c r="F155" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="H155" t="s">
         <v>20</v>
       </c>
-      <c r="I147">
-        <v>19052395300</v>
-      </c>
-      <c r="J147" s="14" t="s">
+      <c r="I155">
+        <v>14167922447</v>
+      </c>
+      <c r="J155" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
-        <v>402</v>
-      </c>
-      <c r="B148" t="s">
-        <v>526</v>
-      </c>
-      <c r="C148" t="s">
-        <v>527</v>
-      </c>
-      <c r="D148" t="s">
-        <v>14</v>
-      </c>
-      <c r="E148" t="s">
-        <v>528</v>
-      </c>
-      <c r="F148" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H148" t="s">
-        <v>34</v>
-      </c>
-      <c r="I148">
-        <v>19059308827</v>
-      </c>
-      <c r="J148" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
-        <v>82</v>
-      </c>
-      <c r="B149" t="s">
-        <v>257</v>
-      </c>
-      <c r="C149" t="s">
-        <v>529</v>
-      </c>
-      <c r="D149" t="s">
-        <v>14</v>
-      </c>
-      <c r="E149" t="s">
-        <v>530</v>
-      </c>
-      <c r="F149" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H149" t="s">
-        <v>22</v>
-      </c>
-      <c r="I149">
-        <v>16134222211</v>
-      </c>
-      <c r="J149" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
-        <v>284</v>
-      </c>
-      <c r="B150" t="s">
-        <v>257</v>
-      </c>
-      <c r="C150" t="s">
-        <v>531</v>
-      </c>
-      <c r="D150" t="s">
-        <v>14</v>
-      </c>
-      <c r="E150" t="s">
-        <v>530</v>
-      </c>
-      <c r="F150" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H150" t="s">
-        <v>22</v>
-      </c>
-      <c r="I150">
-        <v>16134222211</v>
-      </c>
-      <c r="J150" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
-        <v>41</v>
-      </c>
-      <c r="B151" t="s">
-        <v>257</v>
-      </c>
-      <c r="C151" t="s">
-        <v>532</v>
-      </c>
-      <c r="D151" t="s">
-        <v>14</v>
-      </c>
-      <c r="E151" t="s">
-        <v>530</v>
-      </c>
-      <c r="F151" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H151" t="s">
-        <v>209</v>
-      </c>
-      <c r="I151">
-        <v>16134222211</v>
-      </c>
-      <c r="J151" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
-        <v>13</v>
-      </c>
-      <c r="B152" t="s">
-        <v>534</v>
-      </c>
-      <c r="C152" t="s">
-        <v>535</v>
-      </c>
-      <c r="D152" t="s">
-        <v>14</v>
-      </c>
-      <c r="E152" t="s">
-        <v>533</v>
-      </c>
-      <c r="F152" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H152" t="s">
-        <v>34</v>
-      </c>
-      <c r="I152">
-        <v>19056323154</v>
-      </c>
-      <c r="J152" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
-        <v>23</v>
-      </c>
-      <c r="B153" t="s">
-        <v>536</v>
-      </c>
-      <c r="C153" t="s">
-        <v>537</v>
-      </c>
-      <c r="D153" t="s">
-        <v>14</v>
-      </c>
-      <c r="E153" t="s">
-        <v>538</v>
-      </c>
-      <c r="F153" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H153" t="s">
+    <row r="156" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>49</v>
+      </c>
+      <c r="B156" t="s">
+        <v>545</v>
+      </c>
+      <c r="C156" t="s">
+        <v>546</v>
+      </c>
+      <c r="D156" t="s">
+        <v>14</v>
+      </c>
+      <c r="E156" t="s">
+        <v>547</v>
+      </c>
+      <c r="F156" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H156" t="s">
         <v>20</v>
       </c>
-      <c r="I153">
-        <v>14166910899</v>
-      </c>
-      <c r="J153" t="s">
+      <c r="I156">
+        <v>19054973131</v>
+      </c>
+      <c r="J156" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
-        <v>108</v>
-      </c>
-      <c r="B154" t="s">
-        <v>539</v>
-      </c>
-      <c r="C154" t="s">
-        <v>540</v>
-      </c>
-      <c r="D154" t="s">
-        <v>14</v>
-      </c>
-      <c r="E154" t="s">
-        <v>538</v>
-      </c>
-      <c r="F154" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H154" t="s">
-        <v>20</v>
-      </c>
-      <c r="I154">
-        <v>14164105442</v>
-      </c>
-      <c r="J154" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
-        <v>80</v>
-      </c>
-      <c r="B155" t="s">
-        <v>126</v>
-      </c>
-      <c r="C155" t="s">
-        <v>541</v>
-      </c>
-      <c r="D155" t="s">
-        <v>14</v>
-      </c>
-      <c r="E155" t="s">
-        <v>542</v>
-      </c>
-      <c r="F155" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H155" t="s">
-        <v>18</v>
-      </c>
-      <c r="I155">
-        <v>15199443180</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
-        <v>30</v>
-      </c>
-      <c r="B156" t="s">
-        <v>546</v>
-      </c>
-      <c r="C156" t="s">
-        <v>547</v>
-      </c>
-      <c r="D156" t="s">
-        <v>14</v>
-      </c>
-      <c r="E156" t="s">
-        <v>548</v>
-      </c>
-      <c r="F156" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H156" t="s">
-        <v>29</v>
-      </c>
-      <c r="I156">
-        <v>19055745323</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>23</v>
+        <v>551</v>
       </c>
       <c r="B157" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="C157" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="D157" t="s">
         <v>14</v>
       </c>
       <c r="E157" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="F157" s="6" t="s">
         <v>19</v>
@@ -7789,102 +7815,114 @@
         <v>18</v>
       </c>
       <c r="I157">
-        <v>14165852263</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16133995777</v>
+      </c>
+      <c r="J157" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>23</v>
+        <v>191</v>
       </c>
       <c r="B158" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="C158" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="D158" t="s">
         <v>14</v>
       </c>
       <c r="E158" s="20" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="F158" s="6" t="s">
-        <v>805</v>
+        <v>840</v>
       </c>
       <c r="H158" t="s">
         <v>20</v>
       </c>
       <c r="I158">
-        <v>14167922447</v>
+        <v>17053449086</v>
       </c>
       <c r="J158" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>871</v>
+      </c>
+      <c r="K158" s="14" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>49</v>
       </c>
       <c r="B159" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C159" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="D159" t="s">
         <v>14</v>
       </c>
-      <c r="E159" t="s">
-        <v>554</v>
+      <c r="E159" s="20" t="s">
+        <v>557</v>
       </c>
       <c r="F159" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H159" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I159">
-        <v>19054973131</v>
-      </c>
-      <c r="J159" t="s">
+        <v>19054979585</v>
+      </c>
+      <c r="J159" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="160" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K159" s="26" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
+        <v>49</v>
+      </c>
+      <c r="B160" t="s">
+        <v>565</v>
+      </c>
+      <c r="C160" t="s">
+        <v>566</v>
+      </c>
+      <c r="D160" t="s">
+        <v>14</v>
+      </c>
+      <c r="E160" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="F160" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H160" t="s">
+        <v>29</v>
+      </c>
+      <c r="I160">
+        <v>19052161012</v>
+      </c>
+      <c r="J160" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>49</v>
+      </c>
+      <c r="B161" t="s">
         <v>558</v>
       </c>
-      <c r="B160" t="s">
+      <c r="C161" t="s">
         <v>559</v>
-      </c>
-      <c r="C160" t="s">
-        <v>560</v>
-      </c>
-      <c r="D160" t="s">
-        <v>14</v>
-      </c>
-      <c r="E160" t="s">
-        <v>561</v>
-      </c>
-      <c r="F160" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H160" t="s">
-        <v>18</v>
-      </c>
-      <c r="I160">
-        <v>16133995777</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
-        <v>191</v>
-      </c>
-      <c r="B161" t="s">
-        <v>555</v>
-      </c>
-      <c r="C161" t="s">
-        <v>556</v>
       </c>
       <c r="D161" t="s">
         <v>14</v>
@@ -7893,36 +7931,36 @@
         <v>557</v>
       </c>
       <c r="F161" s="6" t="s">
-        <v>848</v>
+        <v>19</v>
       </c>
       <c r="H161" t="s">
         <v>20</v>
       </c>
       <c r="I161">
-        <v>17053449086</v>
+        <v>19054979522</v>
       </c>
       <c r="J161" s="14" t="s">
-        <v>880</v>
-      </c>
-      <c r="K161" s="14" t="s">
-        <v>881</v>
+        <v>17</v>
+      </c>
+      <c r="K161" s="26" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="162" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="B162" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="C162" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="D162" t="s">
         <v>14</v>
       </c>
-      <c r="E162" s="20" t="s">
-        <v>564</v>
+      <c r="E162" t="s">
+        <v>570</v>
       </c>
       <c r="F162" s="6" t="s">
         <v>19</v>
@@ -7931,50 +7969,53 @@
         <v>16</v>
       </c>
       <c r="I162">
-        <v>19054979585</v>
-      </c>
-      <c r="J162" s="14" t="s">
+        <v>14164771489</v>
+      </c>
+      <c r="J162" t="s">
         <v>17</v>
-      </c>
-      <c r="K162" s="26" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="163" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="B163" t="s">
-        <v>572</v>
+        <v>555</v>
       </c>
       <c r="C163" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="D163" t="s">
         <v>14</v>
       </c>
-      <c r="E163" t="s">
-        <v>574</v>
+      <c r="E163" s="20" t="s">
+        <v>557</v>
       </c>
       <c r="F163" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H163" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I163">
-        <v>19052161012</v>
+        <v>19054979550</v>
+      </c>
+      <c r="J163" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K163" s="26" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="164" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>49</v>
+        <v>561</v>
       </c>
       <c r="B164" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C164" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D164" t="s">
         <v>14</v>
@@ -7983,222 +8024,222 @@
         <v>564</v>
       </c>
       <c r="F164" s="6" t="s">
-        <v>19</v>
+        <v>840</v>
       </c>
       <c r="H164" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="I164">
-        <v>19054979522</v>
+        <v>15198485656</v>
       </c>
       <c r="J164" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K164" s="26" t="s">
-        <v>882</v>
+        <v>874</v>
+      </c>
+      <c r="K164" s="14" t="s">
+        <v>875</v>
       </c>
     </row>
     <row r="165" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>23</v>
+        <v>573</v>
       </c>
       <c r="B165" t="s">
+        <v>574</v>
+      </c>
+      <c r="C165" t="s">
         <v>575</v>
       </c>
-      <c r="C165" t="s">
+      <c r="D165" t="s">
+        <v>14</v>
+      </c>
+      <c r="E165" t="s">
         <v>576</v>
       </c>
-      <c r="D165" t="s">
-        <v>14</v>
-      </c>
-      <c r="E165" t="s">
-        <v>577</v>
-      </c>
       <c r="F165" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H165" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I165">
-        <v>14164771489</v>
-      </c>
-      <c r="J165" t="s">
-        <v>17</v>
+        <v>16139240007</v>
+      </c>
+      <c r="J165" s="14" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="166" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>122</v>
+        <v>577</v>
       </c>
       <c r="B166" t="s">
-        <v>562</v>
+        <v>578</v>
       </c>
       <c r="C166" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="D166" t="s">
         <v>14</v>
       </c>
-      <c r="E166" s="20" t="s">
-        <v>564</v>
+      <c r="E166" t="s">
+        <v>580</v>
       </c>
       <c r="F166" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H166" t="s">
+        <v>29</v>
+      </c>
+      <c r="I166">
+        <v>18072272045</v>
+      </c>
+      <c r="J166" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>121</v>
+      </c>
+      <c r="B167" t="s">
+        <v>581</v>
+      </c>
+      <c r="C167" t="s">
+        <v>582</v>
+      </c>
+      <c r="D167" t="s">
+        <v>14</v>
+      </c>
+      <c r="E167" t="s">
+        <v>583</v>
+      </c>
+      <c r="F167" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H167" t="s">
         <v>20</v>
       </c>
-      <c r="I166">
-        <v>19054979550</v>
-      </c>
-      <c r="J166" s="14" t="s">
+      <c r="I167">
+        <v>15197848420</v>
+      </c>
+      <c r="J167" t="s">
         <v>17</v>
-      </c>
-      <c r="K166" s="26" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
-        <v>568</v>
-      </c>
-      <c r="B167" t="s">
-        <v>569</v>
-      </c>
-      <c r="C167" t="s">
-        <v>570</v>
-      </c>
-      <c r="D167" t="s">
-        <v>14</v>
-      </c>
-      <c r="E167" s="20" t="s">
-        <v>571</v>
-      </c>
-      <c r="F167" s="6" t="s">
-        <v>848</v>
-      </c>
-      <c r="H167" t="s">
-        <v>38</v>
-      </c>
-      <c r="I167">
-        <v>15198485656</v>
-      </c>
-      <c r="J167" s="14" t="s">
-        <v>883</v>
-      </c>
-      <c r="K167" s="14" t="s">
-        <v>884</v>
       </c>
     </row>
     <row r="168" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>580</v>
-      </c>
-      <c r="B168" t="s">
-        <v>581</v>
+        <v>23</v>
+      </c>
+      <c r="B168">
+        <v>1922</v>
       </c>
       <c r="C168" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="D168" t="s">
         <v>14</v>
       </c>
       <c r="E168" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="F168" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H168" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="I168">
-        <v>16139240007</v>
+        <v>14162628744</v>
+      </c>
+      <c r="J168" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="169" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>584</v>
+        <v>33</v>
       </c>
       <c r="B169" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C169" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D169" t="s">
         <v>14</v>
       </c>
       <c r="E169" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F169" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H169" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I169">
-        <v>18072272045</v>
+        <v>14162640777</v>
+      </c>
+      <c r="J169" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="170" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="B170" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C170" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D170" t="s">
         <v>14</v>
       </c>
       <c r="E170" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F170" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H170" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="I170">
-        <v>15197848420</v>
+        <v>14165518982</v>
       </c>
       <c r="J170" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="171" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>23</v>
-      </c>
-      <c r="B171">
-        <v>1922</v>
+        <v>52</v>
+      </c>
+      <c r="B171" t="s">
+        <v>592</v>
       </c>
       <c r="C171" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="D171" t="s">
         <v>14</v>
       </c>
       <c r="E171" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="F171" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H171" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I171">
-        <v>14162628744</v>
-      </c>
-      <c r="J171" t="s">
-        <v>39</v>
+        <v>15197586326</v>
+      </c>
+      <c r="J171" s="14" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="172" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -8206,65 +8247,65 @@
         <v>33</v>
       </c>
       <c r="B172" t="s">
-        <v>593</v>
+        <v>44</v>
       </c>
       <c r="C172" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D172" t="s">
         <v>14</v>
       </c>
       <c r="E172" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F172" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H172" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I172">
-        <v>14162640777</v>
-      </c>
-      <c r="J172" t="s">
-        <v>17</v>
+        <v>16477953809</v>
+      </c>
+      <c r="J172" s="14" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="173" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="B173" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C173" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D173" t="s">
         <v>14</v>
       </c>
       <c r="E173" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F173" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H173" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I173">
-        <v>14165518982</v>
+        <v>14166908081</v>
       </c>
       <c r="J173" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="174" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="B174" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C174" t="s">
         <v>600</v>
@@ -8273,207 +8314,207 @@
         <v>14</v>
       </c>
       <c r="E174" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F174" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H174" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I174">
-        <v>15197586326</v>
+        <v>14162837433</v>
       </c>
       <c r="J174" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="175" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>33</v>
+        <v>601</v>
       </c>
       <c r="B175" t="s">
-        <v>44</v>
+        <v>602</v>
       </c>
       <c r="C175" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D175" t="s">
         <v>14</v>
       </c>
       <c r="E175" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F175" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H175" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I175">
-        <v>16477953809</v>
+        <v>16133590100</v>
+      </c>
+      <c r="J175" s="14" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="176" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="B176" t="s">
-        <v>604</v>
+        <v>155</v>
       </c>
       <c r="C176" t="s">
-        <v>605</v>
+        <v>571</v>
       </c>
       <c r="D176" t="s">
         <v>14</v>
       </c>
-      <c r="E176" t="s">
-        <v>606</v>
+      <c r="E176" s="20" t="s">
+        <v>572</v>
       </c>
       <c r="F176" s="6" t="s">
-        <v>19</v>
+        <v>840</v>
       </c>
       <c r="H176" t="s">
         <v>20</v>
       </c>
       <c r="I176">
-        <v>14166908081</v>
-      </c>
-      <c r="J176" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19052782222</v>
+      </c>
+      <c r="J176" s="14" t="s">
+        <v>877</v>
+      </c>
+      <c r="K176" s="27" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="B177" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="C177" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="D177" t="s">
         <v>14</v>
       </c>
       <c r="E177" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="F177" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H177" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I177">
-        <v>14162837433</v>
+        <v>16132333000</v>
       </c>
       <c r="J177" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="178" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>608</v>
+        <v>30</v>
       </c>
       <c r="B178" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="C178" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="D178" t="s">
         <v>14</v>
       </c>
       <c r="E178" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="F178" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H178" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I178">
-        <v>16133590100</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>12892461172</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="B179" t="s">
-        <v>155</v>
+        <v>617</v>
       </c>
       <c r="C179" t="s">
-        <v>578</v>
+        <v>618</v>
       </c>
       <c r="D179" t="s">
         <v>14</v>
       </c>
-      <c r="E179" s="20" t="s">
-        <v>579</v>
+      <c r="E179" t="s">
+        <v>616</v>
       </c>
       <c r="F179" s="6" t="s">
-        <v>848</v>
+        <v>19</v>
       </c>
       <c r="H179" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I179">
-        <v>19052782222</v>
+        <v>15199042637</v>
       </c>
       <c r="J179" s="14" t="s">
-        <v>886</v>
-      </c>
-      <c r="K179" s="27" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>41</v>
+        <v>619</v>
       </c>
       <c r="B180" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C180" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D180" t="s">
         <v>14</v>
       </c>
       <c r="E180" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="F180" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H180" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I180">
-        <v>16132333000</v>
-      </c>
-      <c r="J180" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>12262530859</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="B181" t="s">
+        <v>198</v>
+      </c>
+      <c r="C181" t="s">
+        <v>356</v>
+      </c>
+      <c r="D181" t="s">
+        <v>14</v>
+      </c>
+      <c r="E181" t="s">
         <v>621</v>
-      </c>
-      <c r="C181" t="s">
-        <v>622</v>
-      </c>
-      <c r="D181" t="s">
-        <v>14</v>
-      </c>
-      <c r="E181" t="s">
-        <v>623</v>
       </c>
       <c r="F181" s="6" t="s">
         <v>19</v>
@@ -8482,76 +8523,76 @@
         <v>18</v>
       </c>
       <c r="I181">
-        <v>12892461172</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15193542255</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="B182" t="s">
+        <v>198</v>
+      </c>
+      <c r="C182" t="s">
+        <v>622</v>
+      </c>
+      <c r="D182" t="s">
+        <v>14</v>
+      </c>
+      <c r="E182" t="s">
+        <v>621</v>
+      </c>
+      <c r="F182" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H182" t="s">
+        <v>63</v>
+      </c>
+      <c r="I182">
+        <v>15192582544</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>80</v>
+      </c>
+      <c r="B183" t="s">
+        <v>198</v>
+      </c>
+      <c r="C183" t="s">
+        <v>623</v>
+      </c>
+      <c r="D183" t="s">
+        <v>14</v>
+      </c>
+      <c r="E183" t="s">
         <v>624</v>
       </c>
-      <c r="C182" t="s">
-        <v>625</v>
-      </c>
-      <c r="D182" t="s">
-        <v>14</v>
-      </c>
-      <c r="E182" t="s">
-        <v>623</v>
-      </c>
-      <c r="F182" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H182" t="s">
-        <v>18</v>
-      </c>
-      <c r="I182">
-        <v>15199042637</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
-        <v>626</v>
-      </c>
-      <c r="B183" t="s">
-        <v>624</v>
-      </c>
-      <c r="C183" t="s">
-        <v>627</v>
-      </c>
-      <c r="D183" t="s">
-        <v>14</v>
-      </c>
-      <c r="E183" t="s">
-        <v>623</v>
-      </c>
       <c r="F183" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H183" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I183">
-        <v>12262530859</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15192500712</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="B184" t="s">
         <v>198</v>
       </c>
       <c r="C184" t="s">
-        <v>363</v>
+        <v>625</v>
       </c>
       <c r="D184" t="s">
         <v>14</v>
       </c>
       <c r="E184" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="F184" s="6" t="s">
         <v>19</v>
@@ -8560,18 +8601,18 @@
         <v>18</v>
       </c>
       <c r="I184">
-        <v>15193542255</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15199678818</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>80</v>
+        <v>626</v>
       </c>
       <c r="B185" t="s">
         <v>198</v>
       </c>
       <c r="C185" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D185" t="s">
         <v>14</v>
@@ -8583,183 +8624,183 @@
         <v>19</v>
       </c>
       <c r="H185" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="I185">
-        <v>15192582544</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15195077830</v>
+      </c>
+      <c r="J185" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B186" t="s">
-        <v>198</v>
+        <v>606</v>
       </c>
       <c r="C186" t="s">
+        <v>607</v>
+      </c>
+      <c r="D186" t="s">
+        <v>14</v>
+      </c>
+      <c r="E186" s="20" t="s">
+        <v>608</v>
+      </c>
+      <c r="F186" s="6" t="s">
+        <v>840</v>
+      </c>
+      <c r="H186" t="s">
+        <v>20</v>
+      </c>
+      <c r="I186">
+        <v>19054530698</v>
+      </c>
+      <c r="J186" s="14" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>629</v>
+      </c>
+      <c r="B187" t="s">
         <v>630</v>
       </c>
-      <c r="D186" t="s">
-        <v>14</v>
-      </c>
-      <c r="E186" t="s">
+      <c r="C187" t="s">
         <v>631</v>
       </c>
-      <c r="F186" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H186" t="s">
-        <v>32</v>
-      </c>
-      <c r="I186">
-        <v>15192500712</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
-        <v>80</v>
-      </c>
-      <c r="B187" t="s">
-        <v>198</v>
-      </c>
-      <c r="C187" t="s">
+      <c r="D187" t="s">
+        <v>14</v>
+      </c>
+      <c r="E187" t="s">
         <v>632</v>
       </c>
-      <c r="D187" t="s">
-        <v>14</v>
-      </c>
-      <c r="E187" t="s">
-        <v>631</v>
-      </c>
       <c r="F187" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H187" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I187">
-        <v>15199678818</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16133722272</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>633</v>
+        <v>57</v>
       </c>
       <c r="B188" t="s">
-        <v>198</v>
+        <v>606</v>
       </c>
       <c r="C188" t="s">
-        <v>634</v>
+        <v>609</v>
       </c>
       <c r="D188" t="s">
         <v>14</v>
       </c>
-      <c r="E188" t="s">
-        <v>635</v>
+      <c r="E188" s="20" t="s">
+        <v>610</v>
       </c>
       <c r="F188" s="6" t="s">
-        <v>19</v>
+        <v>840</v>
       </c>
       <c r="H188" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I188">
-        <v>15195077830</v>
-      </c>
-      <c r="J188" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15197446627</v>
+      </c>
+      <c r="J188" s="14" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>49</v>
       </c>
       <c r="B189" t="s">
-        <v>613</v>
+        <v>220</v>
       </c>
       <c r="C189" t="s">
-        <v>614</v>
+        <v>633</v>
       </c>
       <c r="D189" t="s">
         <v>14</v>
       </c>
-      <c r="E189" s="20" t="s">
-        <v>615</v>
+      <c r="E189" t="s">
+        <v>634</v>
       </c>
       <c r="F189" s="6" t="s">
-        <v>848</v>
+        <v>19</v>
       </c>
       <c r="H189" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I189">
-        <v>19054530698</v>
-      </c>
-      <c r="J189" s="14" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19054956454</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
+        <v>605</v>
+      </c>
+      <c r="B190" t="s">
+        <v>220</v>
+      </c>
+      <c r="C190" t="s">
+        <v>635</v>
+      </c>
+      <c r="D190" t="s">
+        <v>14</v>
+      </c>
+      <c r="E190" t="s">
+        <v>634</v>
+      </c>
+      <c r="F190" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H190" t="s">
+        <v>18</v>
+      </c>
+      <c r="I190">
+        <v>19054956454</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>30</v>
+      </c>
+      <c r="B191" t="s">
         <v>636</v>
       </c>
-      <c r="B190" t="s">
+      <c r="C191" t="s">
         <v>637</v>
       </c>
-      <c r="C190" t="s">
+      <c r="D191" t="s">
+        <v>14</v>
+      </c>
+      <c r="E191" t="s">
         <v>638</v>
       </c>
-      <c r="D190" t="s">
-        <v>14</v>
-      </c>
-      <c r="E190" t="s">
+      <c r="F191" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H191" t="s">
+        <v>18</v>
+      </c>
+      <c r="I191">
+        <v>19055288955</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>52</v>
+      </c>
+      <c r="B192" t="s">
         <v>639</v>
-      </c>
-      <c r="F190" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H190" t="s">
-        <v>29</v>
-      </c>
-      <c r="I190">
-        <v>16133722272</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A191" t="s">
-        <v>57</v>
-      </c>
-      <c r="B191" t="s">
-        <v>613</v>
-      </c>
-      <c r="C191" t="s">
-        <v>616</v>
-      </c>
-      <c r="D191" t="s">
-        <v>14</v>
-      </c>
-      <c r="E191" s="20" t="s">
-        <v>617</v>
-      </c>
-      <c r="F191" s="6" t="s">
-        <v>848</v>
-      </c>
-      <c r="H191" t="s">
-        <v>20</v>
-      </c>
-      <c r="I191">
-        <v>15197446627</v>
-      </c>
-      <c r="J191" s="14" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192" t="s">
-        <v>49</v>
-      </c>
-      <c r="B192" t="s">
-        <v>220</v>
       </c>
       <c r="C192" t="s">
         <v>640</v>
@@ -8774,311 +8815,315 @@
         <v>19</v>
       </c>
       <c r="H192" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I192">
-        <v>19054956454</v>
+        <v>15197571001</v>
       </c>
     </row>
     <row r="193" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>612</v>
+        <v>200</v>
       </c>
       <c r="B193" t="s">
-        <v>220</v>
+        <v>642</v>
       </c>
       <c r="C193" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D193" t="s">
         <v>14</v>
       </c>
       <c r="E193" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="F193" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H193" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I193">
-        <v>19054956454</v>
+        <v>17053209898</v>
+      </c>
+      <c r="J193" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="194" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="B194" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="C194" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="D194" t="s">
         <v>14</v>
       </c>
       <c r="E194" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="F194" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H194" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I194">
-        <v>19055288955</v>
+        <v>12265595922</v>
+      </c>
+      <c r="J194" s="14" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="195" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B195" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="C195" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D195" t="s">
         <v>14</v>
       </c>
       <c r="E195" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="F195" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H195" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I195">
-        <v>15197571001</v>
+        <v>15199545323</v>
+      </c>
+      <c r="J195" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="196" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>200</v>
+        <v>651</v>
       </c>
       <c r="B196" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="C196" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="D196" t="s">
         <v>14</v>
       </c>
       <c r="E196" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="F196" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H196" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I196">
-        <v>17053209898</v>
-      </c>
-      <c r="J196" t="s">
-        <v>17</v>
+        <v>12892982856</v>
       </c>
     </row>
     <row r="197" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="B197" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="C197" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="D197" t="s">
         <v>14</v>
       </c>
       <c r="E197" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="F197" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H197" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I197">
-        <v>12265595922</v>
+        <v>19055633933</v>
       </c>
       <c r="J197" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="198" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B198" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="C198" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="D198" t="s">
         <v>14</v>
       </c>
       <c r="E198" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="F198" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H198" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I198">
-        <v>15199545323</v>
+        <v>12892732782</v>
       </c>
       <c r="J198" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="199" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>658</v>
+        <v>52</v>
       </c>
       <c r="B199" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C199" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="D199" t="s">
         <v>14</v>
       </c>
       <c r="E199" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="F199" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H199" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I199">
-        <v>12892982856</v>
+        <v>15193040660</v>
       </c>
     </row>
     <row r="200" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>304</v>
+        <v>358</v>
       </c>
       <c r="B200" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C200" t="s">
+        <v>665</v>
+      </c>
+      <c r="D200" t="s">
+        <v>14</v>
+      </c>
+      <c r="E200" t="s">
         <v>663</v>
       </c>
-      <c r="D200" t="s">
-        <v>14</v>
-      </c>
-      <c r="E200" t="s">
-        <v>664</v>
-      </c>
       <c r="F200" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H200" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I200">
-        <v>19055633933</v>
-      </c>
-      <c r="J200" t="s">
-        <v>17</v>
+        <v>17058879567</v>
       </c>
     </row>
     <row r="201" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B201" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C201" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D201" t="s">
         <v>14</v>
       </c>
       <c r="E201" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="F201" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H201" t="s">
-        <v>20</v>
-      </c>
-      <c r="I201">
-        <v>12892732782</v>
-      </c>
-      <c r="J201" t="s">
-        <v>17</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="I201"/>
     </row>
     <row r="202" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="B202" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C202" t="s">
-        <v>669</v>
-      </c>
-      <c r="D202" t="s">
-        <v>14</v>
-      </c>
-      <c r="E202" t="s">
         <v>670</v>
       </c>
+      <c r="D202" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="E202" s="17" t="s">
+        <v>672</v>
+      </c>
       <c r="F202" s="6" t="s">
-        <v>19</v>
+        <v>827</v>
       </c>
       <c r="H202" t="s">
-        <v>29</v>
-      </c>
-      <c r="I202">
-        <v>15193040660</v>
+        <v>71</v>
+      </c>
+      <c r="I202" s="16">
+        <v>12262711259</v>
+      </c>
+      <c r="J202" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="203" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>365</v>
+        <v>83</v>
       </c>
       <c r="B203" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C203" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="D203" t="s">
         <v>14</v>
       </c>
       <c r="E203" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="F203" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H203" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I203">
-        <v>17058879567</v>
+        <v>14164002045</v>
+      </c>
+      <c r="J203" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="204" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -9089,7 +9134,7 @@
         <v>673</v>
       </c>
       <c r="C204" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="D204" t="s">
         <v>14</v>
@@ -9101,42 +9146,47 @@
         <v>19</v>
       </c>
       <c r="H204" t="s">
-        <v>32</v>
-      </c>
-      <c r="I204"/>
-    </row>
-    <row r="205" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I204">
+        <v>14164002883</v>
+      </c>
+      <c r="J204" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="B205" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C205" t="s">
-        <v>677</v>
-      </c>
-      <c r="D205" s="7" t="s">
         <v>678</v>
       </c>
-      <c r="E205" s="17" t="s">
+      <c r="D205" t="s">
+        <v>14</v>
+      </c>
+      <c r="E205" t="s">
         <v>679</v>
       </c>
       <c r="F205" s="6" t="s">
-        <v>834</v>
+        <v>19</v>
       </c>
       <c r="H205" t="s">
-        <v>71</v>
-      </c>
-      <c r="I205" s="16">
-        <v>12262711259</v>
+        <v>20</v>
+      </c>
+      <c r="I205">
+        <v>14167813128</v>
       </c>
       <c r="J205" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="206" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="B206" t="s">
         <v>680</v>
@@ -9154,18 +9204,18 @@
         <v>19</v>
       </c>
       <c r="H206" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I206">
-        <v>14164002045</v>
+        <v>14166308420</v>
       </c>
       <c r="J206" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="207" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="B207" t="s">
         <v>680</v>
@@ -9177,19 +9227,19 @@
         <v>14</v>
       </c>
       <c r="E207" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="F207" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H207" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="I207">
-        <v>14164002883</v>
+        <v>15482884335</v>
       </c>
       <c r="J207" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="208" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -9197,7 +9247,7 @@
         <v>23</v>
       </c>
       <c r="B208" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C208" t="s">
         <v>685</v>
@@ -9212,79 +9262,76 @@
         <v>19</v>
       </c>
       <c r="H208" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I208">
-        <v>14167813128</v>
-      </c>
-      <c r="J208" t="s">
-        <v>17</v>
+        <v>16478079072</v>
       </c>
     </row>
     <row r="209" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="B209" t="s">
+        <v>118</v>
+      </c>
+      <c r="C209" t="s">
+        <v>475</v>
+      </c>
+      <c r="D209" t="s">
+        <v>110</v>
+      </c>
+      <c r="E209" s="20" t="s">
         <v>687</v>
       </c>
-      <c r="C209" t="s">
-        <v>688</v>
-      </c>
-      <c r="D209" t="s">
-        <v>14</v>
-      </c>
-      <c r="E209" t="s">
-        <v>689</v>
-      </c>
       <c r="F209" s="6" t="s">
-        <v>19</v>
+        <v>879</v>
       </c>
       <c r="H209" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I209">
-        <v>14166308420</v>
+        <v>19054274716</v>
       </c>
       <c r="J209" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="210" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="B210" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C210" t="s">
+        <v>689</v>
+      </c>
+      <c r="D210" t="s">
+        <v>14</v>
+      </c>
+      <c r="E210" t="s">
         <v>690</v>
       </c>
-      <c r="D210" t="s">
-        <v>14</v>
-      </c>
-      <c r="E210" t="s">
-        <v>691</v>
-      </c>
       <c r="F210" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H210" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I210">
-        <v>15482884335</v>
+        <v>15199414500</v>
       </c>
       <c r="J210" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="211" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="B211" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="C211" t="s">
         <v>692</v>
@@ -9299,354 +9346,357 @@
         <v>19</v>
       </c>
       <c r="H211" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I211">
-        <v>16478079072</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15198210555</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>21</v>
+        <v>605</v>
       </c>
       <c r="B212" t="s">
-        <v>118</v>
+        <v>694</v>
       </c>
       <c r="C212" t="s">
-        <v>482</v>
+        <v>695</v>
       </c>
       <c r="D212" t="s">
-        <v>110</v>
-      </c>
-      <c r="E212" s="20" t="s">
-        <v>694</v>
+        <v>14</v>
+      </c>
+      <c r="E212" t="s">
+        <v>696</v>
       </c>
       <c r="F212" s="6" t="s">
-        <v>888</v>
+        <v>19</v>
       </c>
       <c r="H212" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I212">
-        <v>19054274716</v>
-      </c>
-      <c r="J212" t="s">
-        <v>17</v>
+        <v>15199255523</v>
       </c>
     </row>
     <row r="213" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="B213" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="C213" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="D213" t="s">
         <v>14</v>
       </c>
-      <c r="E213" t="s">
-        <v>697</v>
+      <c r="E213" s="20" t="s">
+        <v>699</v>
       </c>
       <c r="F213" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H213" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="I213">
-        <v>15199414500</v>
-      </c>
-      <c r="J213" t="s">
-        <v>17</v>
+        <v>15193047465</v>
+      </c>
+      <c r="J213" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="214" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="B214" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="C214" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="D214" t="s">
         <v>14</v>
       </c>
       <c r="E214" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="F214" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H214" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I214">
-        <v>15198210555</v>
+        <v>12893896889</v>
       </c>
     </row>
     <row r="215" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>612</v>
+        <v>30</v>
       </c>
       <c r="B215" t="s">
+        <v>700</v>
+      </c>
+      <c r="C215" t="s">
+        <v>704</v>
+      </c>
+      <c r="D215" t="s">
+        <v>14</v>
+      </c>
+      <c r="E215" t="s">
         <v>701</v>
       </c>
-      <c r="C215" t="s">
-        <v>702</v>
-      </c>
-      <c r="D215" t="s">
-        <v>14</v>
-      </c>
-      <c r="E215" t="s">
-        <v>703</v>
-      </c>
       <c r="F215" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H215" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I215">
-        <v>15199255523</v>
+        <v>12893898989</v>
       </c>
     </row>
     <row r="216" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B216" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
       <c r="C216" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
       <c r="D216" t="s">
         <v>14</v>
       </c>
-      <c r="E216" s="20" t="s">
-        <v>706</v>
+      <c r="E216" t="s">
+        <v>713</v>
       </c>
       <c r="F216" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H216" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I216">
-        <v>15193047465</v>
-      </c>
-      <c r="J216" s="14" t="s">
-        <v>39</v>
+        <v>14162669336</v>
       </c>
     </row>
     <row r="217" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B217" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="C217" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="D217" t="s">
         <v>14</v>
       </c>
-      <c r="E217" t="s">
-        <v>708</v>
+      <c r="E217" s="20" t="s">
+        <v>707</v>
       </c>
       <c r="F217" s="6" t="s">
-        <v>19</v>
+        <v>798</v>
       </c>
       <c r="H217" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I217">
-        <v>12893896889</v>
+        <v>18073456272</v>
+      </c>
+      <c r="J217" s="14" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="218" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>30</v>
-      </c>
-      <c r="B218" t="s">
-        <v>707</v>
+        <v>60</v>
+      </c>
+      <c r="B218" s="28" t="s">
+        <v>708</v>
       </c>
       <c r="C218" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D218" t="s">
         <v>14</v>
       </c>
-      <c r="E218" t="s">
-        <v>708</v>
+      <c r="E218" s="20" t="s">
+        <v>710</v>
       </c>
       <c r="F218" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H218" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="I218">
-        <v>12893898989</v>
+        <v>14165513913</v>
       </c>
     </row>
     <row r="219" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="B219" t="s">
+        <v>717</v>
+      </c>
+      <c r="C219" t="s">
         <v>718</v>
       </c>
-      <c r="C219" t="s">
+      <c r="D219" t="s">
+        <v>14</v>
+      </c>
+      <c r="E219" t="s">
         <v>719</v>
       </c>
-      <c r="D219" t="s">
-        <v>14</v>
-      </c>
-      <c r="E219" t="s">
+      <c r="F219" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H219" t="s">
+        <v>38</v>
+      </c>
+      <c r="I219">
+        <v>16139335005</v>
+      </c>
+      <c r="J219" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>82</v>
+      </c>
+      <c r="B220" t="s">
         <v>720</v>
       </c>
-      <c r="F219" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H219" t="s">
-        <v>29</v>
-      </c>
-      <c r="I219">
-        <v>14162669336</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A220" t="s">
-        <v>55</v>
-      </c>
-      <c r="B220" t="s">
-        <v>712</v>
-      </c>
       <c r="C220" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="D220" t="s">
         <v>14</v>
       </c>
-      <c r="E220" s="20" t="s">
+      <c r="E220" t="s">
+        <v>722</v>
+      </c>
+      <c r="F220" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H220" t="s">
+        <v>18</v>
+      </c>
+      <c r="I220">
+        <v>16139322525</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>440</v>
+      </c>
+      <c r="B221" t="s">
         <v>714</v>
       </c>
-      <c r="F220" s="6" t="s">
-        <v>805</v>
-      </c>
-      <c r="H220" t="s">
+      <c r="C221" t="s">
+        <v>715</v>
+      </c>
+      <c r="D221" t="s">
+        <v>14</v>
+      </c>
+      <c r="E221" s="20" t="s">
+        <v>716</v>
+      </c>
+      <c r="F221" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H221" t="s">
         <v>20</v>
       </c>
-      <c r="I220">
-        <v>18073456272</v>
-      </c>
-      <c r="J220" s="14" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A221" t="s">
-        <v>60</v>
-      </c>
-      <c r="B221" s="28" t="s">
-        <v>715</v>
-      </c>
-      <c r="C221" t="s">
-        <v>716</v>
-      </c>
-      <c r="D221" t="s">
-        <v>14</v>
-      </c>
-      <c r="E221" s="20" t="s">
-        <v>717</v>
-      </c>
-      <c r="F221" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H221" t="s">
-        <v>104</v>
-      </c>
       <c r="I221">
-        <v>14165513913</v>
+        <v>13652053237</v>
+      </c>
+      <c r="J221" s="14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="222" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B222" t="s">
+        <v>299</v>
+      </c>
+      <c r="C222" t="s">
+        <v>723</v>
+      </c>
+      <c r="D222" t="s">
+        <v>14</v>
+      </c>
+      <c r="E222" s="20" t="s">
         <v>724</v>
       </c>
-      <c r="C222" t="s">
-        <v>725</v>
-      </c>
-      <c r="D222" t="s">
-        <v>14</v>
-      </c>
-      <c r="E222" t="s">
-        <v>726</v>
-      </c>
       <c r="F222" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H222" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I222">
-        <v>16139335005</v>
+        <v>15193157768</v>
       </c>
       <c r="J222" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="223" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B223" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C223" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D223" t="s">
         <v>14</v>
       </c>
-      <c r="E223" t="s">
-        <v>729</v>
+      <c r="E223" s="20" t="s">
+        <v>724</v>
       </c>
       <c r="F223" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H223" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I223">
-        <v>16139322525</v>
+        <v>15193077768</v>
+      </c>
+      <c r="J223" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="224" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>447</v>
+        <v>56</v>
       </c>
       <c r="B224" t="s">
-        <v>721</v>
+        <v>299</v>
       </c>
       <c r="C224" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="D224" t="s">
         <v>14</v>
       </c>
       <c r="E224" s="20" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="F224" s="6" t="s">
         <v>19</v>
@@ -9655,27 +9705,27 @@
         <v>20</v>
       </c>
       <c r="I224">
-        <v>13652053237</v>
+        <v>19057287768</v>
       </c>
       <c r="J224" s="14" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="225" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="B225" t="s">
-        <v>303</v>
+        <v>728</v>
       </c>
       <c r="C225" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D225" t="s">
         <v>14</v>
       </c>
       <c r="E225" s="20" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="F225" s="6" t="s">
         <v>19</v>
@@ -9684,143 +9734,140 @@
         <v>16</v>
       </c>
       <c r="I225">
-        <v>15193157768</v>
-      </c>
-      <c r="J225" t="s">
-        <v>17</v>
+        <v>19056840141</v>
+      </c>
+      <c r="J225" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="226" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B226" t="s">
-        <v>732</v>
+        <v>301</v>
       </c>
       <c r="C226" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="D226" t="s">
         <v>14</v>
       </c>
-      <c r="E226" s="20" t="s">
+      <c r="E226" t="s">
         <v>731</v>
       </c>
       <c r="F226" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H226" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I226">
-        <v>15193077768</v>
-      </c>
-      <c r="J226" s="14" t="s">
+        <v>15199662525</v>
+      </c>
+      <c r="J226" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="227" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>56</v>
+        <v>317</v>
       </c>
       <c r="B227" t="s">
-        <v>303</v>
+        <v>732</v>
       </c>
       <c r="C227" t="s">
+        <v>733</v>
+      </c>
+      <c r="D227" t="s">
+        <v>14</v>
+      </c>
+      <c r="E227" t="s">
         <v>734</v>
       </c>
-      <c r="D227" t="s">
-        <v>14</v>
-      </c>
-      <c r="E227" s="20" t="s">
-        <v>731</v>
-      </c>
       <c r="F227" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H227" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="I227">
-        <v>19057287768</v>
+        <v>12265265555</v>
       </c>
       <c r="J227" s="14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="228" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>43</v>
+        <v>735</v>
       </c>
       <c r="B228" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C228" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D228" t="s">
         <v>14</v>
       </c>
-      <c r="E228" s="20" t="s">
-        <v>731</v>
+      <c r="E228" t="s">
+        <v>738</v>
       </c>
       <c r="F228" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H228" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I228">
-        <v>19056840141</v>
-      </c>
-      <c r="J228" s="14" t="s">
-        <v>39</v>
+        <v>17056223107</v>
+      </c>
+      <c r="J228" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="229" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="B229" t="s">
-        <v>305</v>
+        <v>739</v>
       </c>
       <c r="C229" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="D229" t="s">
         <v>14</v>
       </c>
       <c r="E229" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="F229" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H229" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="I229">
-        <v>15199662525</v>
-      </c>
-      <c r="J229" t="s">
-        <v>39</v>
+        <v>16138282929</v>
       </c>
     </row>
     <row r="230" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>324</v>
+        <v>742</v>
       </c>
       <c r="B230" t="s">
-        <v>739</v>
+        <v>31</v>
       </c>
       <c r="C230" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="D230" t="s">
         <v>14</v>
       </c>
       <c r="E230" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="F230" s="6" t="s">
         <v>19</v>
@@ -9829,47 +9876,44 @@
         <v>36</v>
       </c>
       <c r="I230">
-        <v>12265265555</v>
-      </c>
-      <c r="J230" t="s">
+        <v>17052010188</v>
+      </c>
+      <c r="J230" s="14" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="231" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>742</v>
+        <v>168</v>
       </c>
       <c r="B231" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="C231" t="s">
+        <v>746</v>
+      </c>
+      <c r="D231" t="s">
+        <v>14</v>
+      </c>
+      <c r="E231" t="s">
         <v>744</v>
       </c>
-      <c r="D231" t="s">
-        <v>14</v>
-      </c>
-      <c r="E231" t="s">
-        <v>745</v>
-      </c>
       <c r="F231" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H231" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I231">
-        <v>17056223107</v>
-      </c>
-      <c r="J231" t="s">
-        <v>17</v>
+        <v>13434760363</v>
       </c>
     </row>
     <row r="232" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B232" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C232" t="s">
         <v>747</v>
@@ -9878,181 +9922,184 @@
         <v>14</v>
       </c>
       <c r="E232" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="F232" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H232" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="I232">
-        <v>16138282929</v>
+        <v>17057206545</v>
+      </c>
+      <c r="J232" s="14" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="233" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
+        <v>28</v>
+      </c>
+      <c r="B233" t="s">
+        <v>748</v>
+      </c>
+      <c r="C233" t="s">
         <v>749</v>
       </c>
-      <c r="B233" t="s">
-        <v>31</v>
-      </c>
-      <c r="C233" t="s">
-        <v>750</v>
-      </c>
       <c r="D233" t="s">
         <v>14</v>
       </c>
       <c r="E233" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="F233" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H233" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I233">
-        <v>17052010188</v>
-      </c>
-      <c r="J233" t="s">
-        <v>35</v>
+        <v>14165219993</v>
       </c>
     </row>
     <row r="234" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="B234" t="s">
-        <v>752</v>
+        <v>31</v>
       </c>
       <c r="C234" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="D234" t="s">
         <v>14</v>
       </c>
       <c r="E234" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="F234" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H234" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I234">
-        <v>13434760363</v>
+        <v>17057206545</v>
+      </c>
+      <c r="J234" s="14" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="235" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B235" t="s">
+        <v>751</v>
+      </c>
+      <c r="C235" t="s">
         <v>752</v>
       </c>
-      <c r="C235" t="s">
-        <v>754</v>
-      </c>
       <c r="D235" t="s">
         <v>14</v>
       </c>
-      <c r="E235" t="s">
-        <v>751</v>
+      <c r="E235" s="20" t="s">
+        <v>753</v>
       </c>
       <c r="F235" s="6" t="s">
-        <v>19</v>
+        <v>798</v>
       </c>
       <c r="H235" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I235">
-        <v>17057206545</v>
-      </c>
-      <c r="J235" t="s">
-        <v>35</v>
+        <v>19054519600</v>
+      </c>
+      <c r="J235" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="236" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B236" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="C236" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="D236" t="s">
         <v>14</v>
       </c>
       <c r="E236" t="s">
-        <v>751</v>
+        <v>759</v>
       </c>
       <c r="F236" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H236" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I236">
-        <v>14165219993</v>
+        <v>14162910420</v>
       </c>
     </row>
     <row r="237" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="B237" t="s">
-        <v>31</v>
+        <v>760</v>
       </c>
       <c r="C237" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="D237" t="s">
         <v>14</v>
       </c>
       <c r="E237" t="s">
-        <v>751</v>
+        <v>762</v>
       </c>
       <c r="F237" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H237" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I237">
-        <v>17057206545</v>
+        <v>16135638040</v>
       </c>
       <c r="J237" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="238" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="B238" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="C238" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="D238" t="s">
         <v>14</v>
       </c>
       <c r="E238" s="20" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="F238" s="6" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="H238" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="I238">
-        <v>19054519600</v>
+        <v>19057272020</v>
       </c>
       <c r="J238" s="14" t="s">
         <v>39</v>
@@ -10060,152 +10107,149 @@
     </row>
     <row r="239" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B239" t="s">
+        <v>763</v>
+      </c>
+      <c r="C239" t="s">
         <v>764</v>
       </c>
-      <c r="C239" t="s">
+      <c r="D239" t="s">
+        <v>14</v>
+      </c>
+      <c r="E239" t="s">
         <v>765</v>
       </c>
-      <c r="D239" t="s">
-        <v>14</v>
-      </c>
-      <c r="E239" t="s">
-        <v>766</v>
-      </c>
       <c r="F239" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H239" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I239">
-        <v>14162910420</v>
+        <v>16473411333</v>
+      </c>
+      <c r="J239" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="240" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="B240" t="s">
+        <v>766</v>
+      </c>
+      <c r="C240" t="s">
         <v>767</v>
       </c>
-      <c r="C240" t="s">
+      <c r="D240" t="s">
+        <v>14</v>
+      </c>
+      <c r="E240" s="20" t="s">
         <v>768</v>
       </c>
-      <c r="D240" t="s">
-        <v>14</v>
-      </c>
-      <c r="E240" t="s">
-        <v>769</v>
-      </c>
       <c r="F240" s="6" t="s">
-        <v>19</v>
+        <v>840</v>
       </c>
       <c r="H240" t="s">
         <v>20</v>
       </c>
       <c r="I240">
-        <v>16135638040</v>
-      </c>
-      <c r="J240" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="241" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16475535874</v>
+      </c>
+      <c r="J240" s="14" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="B241" t="s">
-        <v>761</v>
+        <v>772</v>
       </c>
       <c r="C241" t="s">
-        <v>762</v>
+        <v>773</v>
       </c>
       <c r="D241" t="s">
         <v>14</v>
       </c>
-      <c r="E241" s="20" t="s">
-        <v>763</v>
+      <c r="E241" t="s">
+        <v>774</v>
       </c>
       <c r="F241" s="6" t="s">
-        <v>805</v>
+        <v>19</v>
       </c>
       <c r="H241" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I241">
-        <v>19057272020</v>
-      </c>
-      <c r="J241" s="14" t="s">
+        <v>14166516673</v>
+      </c>
+      <c r="J241" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="242" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="B242" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="C242" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="D242" t="s">
         <v>14</v>
       </c>
       <c r="E242" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="F242" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H242" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I242">
-        <v>16473411333</v>
-      </c>
-      <c r="J242" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="243" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15196013420</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="B243" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="C243" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="D243" t="s">
         <v>14</v>
       </c>
-      <c r="E243" s="20" t="s">
-        <v>775</v>
+      <c r="E243" t="s">
+        <v>777</v>
       </c>
       <c r="F243" s="6" t="s">
-        <v>848</v>
+        <v>19</v>
       </c>
       <c r="H243" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I243">
-        <v>16475535874</v>
-      </c>
-      <c r="J243" s="14" t="s">
-        <v>880</v>
+        <v>15196071966</v>
       </c>
     </row>
     <row r="244" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B244" t="s">
-        <v>779</v>
+        <v>349</v>
       </c>
       <c r="C244" t="s">
         <v>780</v>
@@ -10220,155 +10264,137 @@
         <v>19</v>
       </c>
       <c r="H244" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I244">
-        <v>14166516673</v>
+        <v>14162912553</v>
       </c>
       <c r="J244" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="245" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="B245" t="s">
+        <v>198</v>
+      </c>
+      <c r="C245" t="s">
         <v>782</v>
       </c>
-      <c r="C245" t="s">
-        <v>783</v>
-      </c>
       <c r="D245" t="s">
         <v>14</v>
       </c>
       <c r="E245" t="s">
-        <v>784</v>
+        <v>621</v>
       </c>
       <c r="F245" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H245" t="s">
-        <v>18</v>
-      </c>
-      <c r="I245">
-        <v>15196013420</v>
-      </c>
+      <c r="I245"/>
     </row>
     <row r="246" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>70</v>
-      </c>
-      <c r="B246" t="s">
-        <v>785</v>
+        <v>45</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>769</v>
       </c>
       <c r="C246" t="s">
-        <v>786</v>
+        <v>770</v>
       </c>
       <c r="D246" t="s">
         <v>14</v>
       </c>
-      <c r="E246" t="s">
-        <v>784</v>
+      <c r="E246" s="20" t="s">
+        <v>771</v>
       </c>
       <c r="F246" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H246" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I246">
-        <v>15196071966</v>
+        <v>15197429366</v>
       </c>
     </row>
     <row r="247" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>33</v>
+        <v>199</v>
       </c>
       <c r="B247" t="s">
-        <v>356</v>
+        <v>783</v>
       </c>
       <c r="C247" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="D247" t="s">
         <v>14</v>
       </c>
       <c r="E247" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="F247" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H247" t="s">
-        <v>20</v>
-      </c>
-      <c r="I247">
-        <v>14162912553</v>
-      </c>
-      <c r="J247" t="s">
-        <v>17</v>
-      </c>
+      <c r="I247"/>
     </row>
     <row r="248" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>95</v>
+        <v>274</v>
       </c>
       <c r="B248" t="s">
-        <v>198</v>
+        <v>728</v>
       </c>
       <c r="C248" t="s">
+        <v>786</v>
+      </c>
+      <c r="D248" t="s">
+        <v>14</v>
+      </c>
+      <c r="E248" t="s">
+        <v>787</v>
+      </c>
+      <c r="F248" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I248"/>
+    </row>
+    <row r="249" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>52</v>
+      </c>
+      <c r="B249">
+        <v>6420</v>
+      </c>
+      <c r="C249" t="s">
+        <v>788</v>
+      </c>
+      <c r="D249" t="s">
+        <v>14</v>
+      </c>
+      <c r="E249" t="s">
         <v>789</v>
       </c>
-      <c r="D248" t="s">
-        <v>14</v>
-      </c>
-      <c r="E248" t="s">
-        <v>628</v>
-      </c>
-      <c r="F248" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I248"/>
-    </row>
-    <row r="249" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A249" t="s">
-        <v>45</v>
-      </c>
-      <c r="B249" s="3" t="s">
-        <v>776</v>
-      </c>
-      <c r="C249" t="s">
-        <v>777</v>
-      </c>
-      <c r="D249" t="s">
-        <v>14</v>
-      </c>
-      <c r="E249" s="20" t="s">
-        <v>778</v>
-      </c>
       <c r="F249" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I249">
-        <v>15197429366</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="I249"/>
     </row>
     <row r="250" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>199</v>
+        <v>298</v>
       </c>
       <c r="B250" t="s">
+        <v>357</v>
+      </c>
+      <c r="C250" t="s">
         <v>790</v>
       </c>
-      <c r="C250" t="s">
+      <c r="D250" t="s">
+        <v>14</v>
+      </c>
+      <c r="E250" t="s">
         <v>791</v>
-      </c>
-      <c r="D250" t="s">
-        <v>14</v>
-      </c>
-      <c r="E250" t="s">
-        <v>792</v>
       </c>
       <c r="F250" s="6" t="s">
         <v>19</v>
@@ -10377,19 +10403,19 @@
     </row>
     <row r="251" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>274</v>
+        <v>119</v>
       </c>
       <c r="B251" t="s">
-        <v>735</v>
+        <v>198</v>
       </c>
       <c r="C251" t="s">
+        <v>792</v>
+      </c>
+      <c r="D251" t="s">
+        <v>14</v>
+      </c>
+      <c r="E251" t="s">
         <v>793</v>
-      </c>
-      <c r="D251" t="s">
-        <v>14</v>
-      </c>
-      <c r="E251" t="s">
-        <v>794</v>
       </c>
       <c r="F251" s="6" t="s">
         <v>19</v>
@@ -10398,127 +10424,132 @@
     </row>
     <row r="252" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>52</v>
-      </c>
-      <c r="B252">
-        <v>6420</v>
+        <v>794</v>
+      </c>
+      <c r="B252" t="s">
+        <v>795</v>
       </c>
       <c r="C252" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D252" t="s">
         <v>14</v>
       </c>
       <c r="E252" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="F252" s="6" t="s">
-        <v>19</v>
+        <v>798</v>
       </c>
       <c r="I252"/>
     </row>
     <row r="253" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>299</v>
+        <v>23</v>
       </c>
       <c r="B253" t="s">
-        <v>364</v>
+        <v>409</v>
       </c>
       <c r="C253" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="D253" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="E253" t="s">
+        <v>800</v>
+      </c>
+      <c r="F253" s="6" t="s">
         <v>798</v>
-      </c>
-      <c r="F253" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="I253"/>
     </row>
     <row r="254" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="B254" t="s">
-        <v>198</v>
+        <v>801</v>
       </c>
       <c r="C254" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="D254" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="E254" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="F254" s="6" t="s">
-        <v>19</v>
+        <v>798</v>
       </c>
       <c r="I254"/>
     </row>
-    <row r="255" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>801</v>
+        <v>23</v>
       </c>
       <c r="B255" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="C255" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="D255" t="s">
         <v>14</v>
       </c>
       <c r="E255" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="F255" s="6" t="s">
-        <v>805</v>
+        <v>19</v>
       </c>
       <c r="I255"/>
     </row>
-    <row r="256" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>23</v>
       </c>
       <c r="B256" t="s">
-        <v>416</v>
+        <v>807</v>
       </c>
       <c r="C256" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="D256" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="E256" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="F256" s="6" t="s">
-        <v>805</v>
-      </c>
-      <c r="I256"/>
-    </row>
-    <row r="257" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="H256" t="s">
+        <v>18</v>
+      </c>
+      <c r="I256">
+        <v>14165388225</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>23</v>
       </c>
       <c r="B257" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="C257" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="D257" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="E257" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="F257" s="6" t="s">
-        <v>805</v>
+        <v>19</v>
       </c>
       <c r="I257"/>
     </row>
@@ -10527,154 +10558,81 @@
         <v>23</v>
       </c>
       <c r="B258" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="C258" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="D258" t="s">
-        <v>14</v>
-      </c>
-      <c r="E258" t="s">
-        <v>813</v>
+        <v>110</v>
+      </c>
+      <c r="E258" s="20" t="s">
+        <v>878</v>
       </c>
       <c r="F258" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I258"/>
-    </row>
-    <row r="259" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>827</v>
+      </c>
+      <c r="H258" t="s">
+        <v>36</v>
+      </c>
+      <c r="I258" t="s">
+        <v>858</v>
+      </c>
+      <c r="J258" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="B259" t="s">
-        <v>814</v>
+        <v>198</v>
       </c>
       <c r="C259" t="s">
         <v>815</v>
       </c>
       <c r="D259" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="E259" t="s">
         <v>816</v>
       </c>
       <c r="F259" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H259" t="s">
-        <v>18</v>
-      </c>
-      <c r="I259">
-        <v>14165388225</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="I259"/>
     </row>
     <row r="260" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="B260" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="C260" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="D260" t="s">
         <v>14</v>
       </c>
       <c r="E260" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="F260" s="6" t="s">
-        <v>19</v>
+        <v>822</v>
       </c>
       <c r="I260"/>
     </row>
-    <row r="261" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A261" t="s">
-        <v>23</v>
-      </c>
-      <c r="B261" t="s">
-        <v>820</v>
-      </c>
-      <c r="C261" t="s">
-        <v>821</v>
-      </c>
-      <c r="D261" t="s">
-        <v>110</v>
-      </c>
-      <c r="E261" s="20" t="s">
-        <v>887</v>
-      </c>
-      <c r="F261" s="6" t="s">
-        <v>834</v>
-      </c>
-      <c r="H261" t="s">
-        <v>36</v>
-      </c>
-      <c r="I261" t="s">
-        <v>867</v>
-      </c>
-      <c r="J261" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="262" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A262" t="s">
-        <v>80</v>
-      </c>
-      <c r="B262" t="s">
-        <v>198</v>
-      </c>
-      <c r="C262" t="s">
-        <v>822</v>
-      </c>
-      <c r="D262" t="s">
-        <v>110</v>
-      </c>
-      <c r="E262" t="s">
-        <v>823</v>
-      </c>
-      <c r="F262" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I262"/>
-    </row>
-    <row r="263" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A263" t="s">
-        <v>108</v>
-      </c>
-      <c r="B263" t="s">
-        <v>826</v>
-      </c>
-      <c r="C263" t="s">
-        <v>827</v>
-      </c>
-      <c r="D263" t="s">
-        <v>14</v>
-      </c>
-      <c r="E263" t="s">
-        <v>828</v>
-      </c>
-      <c r="F263" s="6" t="s">
-        <v>829</v>
-      </c>
-      <c r="I263"/>
-    </row>
   </sheetData>
-  <autoFilter ref="F1:F263" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Buddi"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="F1:J260" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="E10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="E40" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E87" r:id="rId3" location="/checkout" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E84" r:id="rId3" location="/checkout" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E160" r:id="rId4" xr:uid="{31D945C2-31B3-42DD-9858-F8A37C19D403}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/platform_scrapper/data/cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/cannabis_used_IDs.xlsx
@@ -2939,10 +2939,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3232,8 +3228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B75" sqref="A75:XFD75"/>
+    <sheetView tabSelected="1" topLeftCell="B55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/platform_scrapper/data/cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/cannabis_used_IDs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/528339229bf2dcd2/Desktop/DOT/cannabis-shops-scraping/platform_scrapper/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="373" documentId="11_052E697344AEC06F7E514043B69FD2FA56FCDEA0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47DBF12B-EAFE-4491-8ACE-76F17554D0E2}"/>
+  <xr:revisionPtr revIDLastSave="391" documentId="11_052E697344AEC06F7E514043B69FD2FA56FCDEA0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D08248B8-F7DC-42CE-A4FA-5A69EE00475A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$J$187</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$J$182</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="635">
   <si>
     <t>Municipality or First Nation</t>
   </si>
@@ -178,9 +178,6 @@
     <t>WATERLOO</t>
   </si>
   <si>
-    <t>TRENTON</t>
-  </si>
-  <si>
     <t>NORTH YORK</t>
   </si>
   <si>
@@ -559,27 +556,9 @@
     <t>BOWMANVILLE</t>
   </si>
   <si>
-    <t xml:space="preserve">RAINBOW THUNDER BAY CANNABIS ACCESSORIES </t>
-  </si>
-  <si>
-    <t>428 VICTORIA AVE E</t>
-  </si>
-  <si>
-    <t>http://www.rainbowtbay.com/</t>
-  </si>
-  <si>
     <t>MORRISBURG</t>
   </si>
   <si>
-    <t>Smiley's Cannabis</t>
-  </si>
-  <si>
-    <t>3780 FALLOWFIELD RD UNIT 7</t>
-  </si>
-  <si>
-    <t>http://www.smileyscannabis.com/</t>
-  </si>
-  <si>
     <t>COBOCONK</t>
   </si>
   <si>
@@ -634,18 +613,6 @@
     <t>14D HAMILTON RD</t>
   </si>
   <si>
-    <t>THE POT SPOT</t>
-  </si>
-  <si>
-    <t>959 DOVERCOURT RD</t>
-  </si>
-  <si>
-    <t>http://www.thepotspottoronto.com/</t>
-  </si>
-  <si>
-    <t>1860B EGLINTON AVE W</t>
-  </si>
-  <si>
     <t xml:space="preserve">TREES IN THE SIX </t>
   </si>
   <si>
@@ -655,15 +622,6 @@
     <t>http://www.treesinthe6.com/</t>
   </si>
   <si>
-    <t>TRENTON CANNABIS</t>
-  </si>
-  <si>
-    <t>255 GLEN MILLER RD UNIT 4</t>
-  </si>
-  <si>
-    <t>http://www.trentoncannabis.ca/</t>
-  </si>
-  <si>
     <t>RED LAKE</t>
   </si>
   <si>
@@ -1879,22 +1837,10 @@
     <t>https://olympuscannabis.ca/?page_id=46#/menu</t>
   </si>
   <si>
-    <t>['Delivery / Free Delivery within 12 kms']</t>
-  </si>
-  <si>
-    <t>['Delivery / We serve within 10 km radius.']</t>
-  </si>
-  <si>
-    <t>['Delivery', 'Same-day delivery', 'We serve within 6 km radius']</t>
-  </si>
-  <si>
     <t>['Delivery / need scan map', 'Same-day delivery']</t>
   </si>
   <si>
     <t>https://www.cannjah.com/product-det/#/menu</t>
-  </si>
-  <si>
-    <t>['Delivery / free delivery within 7 KM', 'Same-day delivery']</t>
   </si>
   <si>
     <t>['Delivery / scan map']</t>
@@ -2229,10 +2175,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2521,21 +2463,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:N187"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G184" sqref="G184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="19.77734375" customWidth="1"/>
+    <col min="1" max="1" width="19.77734375" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" customWidth="1"/>
     <col min="4" max="4" width="19.77734375" style="7" customWidth="1"/>
     <col min="5" max="5" width="24.5546875" style="21" customWidth="1"/>
-    <col min="6" max="6" width="19.77734375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="9" style="6" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" style="16" customWidth="1"/>
     <col min="10" max="10" width="36" customWidth="1"/>
     <col min="11" max="12" width="16" customWidth="1"/>
     <col min="13" max="13" width="7.5546875" customWidth="1"/>
@@ -2580,7 +2524,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>12</v>
@@ -2588,19 +2532,19 @@
     </row>
     <row r="2" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="C2" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>19</v>
@@ -2629,7 +2573,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>19</v>
@@ -2646,25 +2590,25 @@
     </row>
     <row r="4" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>62</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>44</v>
@@ -2678,19 +2622,19 @@
     </row>
     <row r="5" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s">
         <v>68</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>69</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
         <v>70</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>71</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>19</v>
@@ -2710,22 +2654,22 @@
         <v>23</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>26</v>
@@ -2746,16 +2690,16 @@
         <v>36</v>
       </c>
       <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" t="s">
         <v>91</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
         <v>92</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>93</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>19</v>
@@ -2772,19 +2716,19 @@
     </row>
     <row r="8" spans="1:14" s="3" customFormat="1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>606</v>
+        <v>592</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>19</v>
@@ -2805,22 +2749,22 @@
         <v>39</v>
       </c>
       <c r="B9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" t="s">
         <v>94</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
         <v>95</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>96</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>652</v>
+        <v>634</v>
       </c>
       <c r="H9" t="s">
         <v>16</v>
@@ -2834,19 +2778,19 @@
     </row>
     <row r="10" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" t="s">
         <v>99</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>100</v>
       </c>
-      <c r="C10" t="s">
-        <v>101</v>
-      </c>
       <c r="D10" t="s">
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>19</v>
@@ -2866,19 +2810,19 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" t="s">
         <v>103</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
         <v>104</v>
       </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>105</v>
-      </c>
       <c r="F11" s="6" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="H11" t="s">
         <v>30</v>
@@ -2895,19 +2839,19 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" t="s">
         <v>106</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
         <v>107</v>
       </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>108</v>
-      </c>
       <c r="F12" s="6" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
       <c r="H12" t="s">
         <v>20</v>
@@ -2921,25 +2865,25 @@
     </row>
     <row r="13" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="C13" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="D13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>111</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>112</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>20</v>
@@ -2953,22 +2897,22 @@
     </row>
     <row r="14" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" t="s">
         <v>113</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
         <v>114</v>
       </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" t="s">
-        <v>115</v>
-      </c>
       <c r="F14" s="6" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="H14" t="s">
         <v>20</v>
@@ -2982,19 +2926,19 @@
     </row>
     <row r="15" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" t="s">
         <v>116</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>117</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
         <v>118</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>119</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>19</v>
@@ -3014,16 +2958,16 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" t="s">
         <v>120</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
         <v>121</v>
-      </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" t="s">
-        <v>122</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>19</v>
@@ -3043,22 +2987,22 @@
         <v>43</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="D17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>125</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>126</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="H17" s="9" t="s">
         <v>28</v>
@@ -3072,19 +3016,19 @@
     </row>
     <row r="18" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" t="s">
         <v>130</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>131</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
         <v>132</v>
-      </c>
-      <c r="D18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" t="s">
-        <v>133</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>19</v>
@@ -3101,22 +3045,22 @@
     </row>
     <row r="19" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" t="s">
         <v>138</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
         <v>139</v>
       </c>
-      <c r="D19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" t="s">
-        <v>140</v>
-      </c>
       <c r="F19" s="6" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="H19" t="s">
         <v>28</v>
@@ -3133,19 +3077,19 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" t="s">
         <v>142</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
         <v>143</v>
       </c>
-      <c r="D20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" t="s">
-        <v>144</v>
-      </c>
       <c r="F20" s="6" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="H20" t="s">
         <v>20</v>
@@ -3159,19 +3103,19 @@
     </row>
     <row r="21" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" t="s">
         <v>146</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
         <v>147</v>
-      </c>
-      <c r="D21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" t="s">
-        <v>148</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>19</v>
@@ -3191,16 +3135,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" t="s">
         <v>149</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s">
         <v>150</v>
-      </c>
-      <c r="D22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" t="s">
-        <v>151</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>19</v>
@@ -3217,19 +3161,19 @@
     </row>
     <row r="23" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B23" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" t="s">
         <v>152</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s">
         <v>153</v>
-      </c>
-      <c r="D23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" t="s">
-        <v>154</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>19</v>
@@ -3246,25 +3190,25 @@
     </row>
     <row r="24" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" t="s">
         <v>74</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="D24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>76</v>
-      </c>
       <c r="F24" s="6" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="H24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I24">
         <v>15486909020</v>
@@ -3275,22 +3219,22 @@
     </row>
     <row r="25" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" t="s">
         <v>87</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>88</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="D25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>90</v>
-      </c>
       <c r="F25" s="6" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="H25" t="s">
         <v>20</v>
@@ -3304,19 +3248,19 @@
     </row>
     <row r="26" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C26" t="s">
         <v>155</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s">
         <v>156</v>
-      </c>
-      <c r="D26" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" t="s">
-        <v>157</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>19</v>
@@ -3333,22 +3277,22 @@
     </row>
     <row r="27" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>157</v>
+      </c>
+      <c r="B27" t="s">
         <v>158</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>159</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="D27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>161</v>
-      </c>
       <c r="F27" s="6" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="H27" t="s">
         <v>22</v>
@@ -3365,19 +3309,19 @@
         <v>45</v>
       </c>
       <c r="B28" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" t="s">
         <v>163</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="D28" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>165</v>
-      </c>
       <c r="F28" s="6" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="H28" t="s">
         <v>33</v>
@@ -3391,22 +3335,22 @@
     </row>
     <row r="29" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C29" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D29" t="s">
         <v>14</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="H29" t="s">
         <v>26</v>
@@ -3423,16 +3367,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>169</v>
+      </c>
+      <c r="C30" t="s">
         <v>170</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" t="s">
         <v>171</v>
-      </c>
-      <c r="D30" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" t="s">
-        <v>172</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>19</v>
@@ -3449,22 +3393,22 @@
     </row>
     <row r="31" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>166</v>
+      </c>
+      <c r="B31" t="s">
+        <v>162</v>
+      </c>
+      <c r="C31" t="s">
         <v>167</v>
       </c>
-      <c r="B31" t="s">
-        <v>163</v>
-      </c>
-      <c r="C31" t="s">
-        <v>168</v>
-      </c>
       <c r="D31" t="s">
         <v>14</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="H31" t="s">
         <v>18</v>
@@ -3478,22 +3422,22 @@
     </row>
     <row r="32" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D32" t="s">
         <v>14</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="H32" t="s">
         <v>18</v>
@@ -3507,19 +3451,19 @@
     </row>
     <row r="33" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B33" t="s">
+        <v>172</v>
+      </c>
+      <c r="C33" t="s">
         <v>173</v>
       </c>
-      <c r="C33" t="s">
-        <v>174</v>
-      </c>
       <c r="D33" t="s">
         <v>14</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>19</v>
@@ -3536,115 +3480,115 @@
     </row>
     <row r="34" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" t="s">
-        <v>178</v>
+        <v>23</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="C34" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D34" t="s">
         <v>14</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>576</v>
+        <v>19</v>
       </c>
       <c r="H34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I34">
-        <v>18076222757</v>
+        <v>14167030222</v>
       </c>
       <c r="J34" s="14" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>182</v>
+        <v>71</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="C35" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D35" t="s">
         <v>14</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>613</v>
+        <v>562</v>
       </c>
       <c r="H35" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I35">
-        <v>16138254420</v>
+        <v>15199422828</v>
       </c>
       <c r="J35" s="14" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B36" t="s">
+        <v>189</v>
+      </c>
+      <c r="C36" t="s">
         <v>190</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="D36" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>189</v>
-      </c>
       <c r="F36" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H36" t="s">
-        <v>20</v>
+        <v>192</v>
       </c>
       <c r="I36">
-        <v>14167030222</v>
+        <v>15195342628</v>
       </c>
       <c r="J36" s="14" t="s">
-        <v>621</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C37" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D37" t="s">
         <v>14</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>194</v>
+        <v>605</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>576</v>
+        <v>19</v>
       </c>
       <c r="H37" t="s">
         <v>20</v>
       </c>
       <c r="I37">
-        <v>15199422828</v>
+        <v>15139227020</v>
       </c>
       <c r="J37" s="14" t="s">
         <v>34</v>
@@ -3652,7 +3596,7 @@
     </row>
     <row r="38" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>195</v>
+        <v>23</v>
       </c>
       <c r="B38" t="s">
         <v>196</v>
@@ -3670,79 +3614,79 @@
         <v>19</v>
       </c>
       <c r="H38" t="s">
+        <v>33</v>
+      </c>
+      <c r="I38">
+        <v>14165468250</v>
+      </c>
+      <c r="J38" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>199</v>
       </c>
-      <c r="I38">
-        <v>15195342628</v>
-      </c>
-      <c r="J38" s="14" t="s">
+      <c r="B39" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="3" t="s">
+      <c r="C39" t="s">
         <v>201</v>
       </c>
-      <c r="C39" t="s">
-        <v>202</v>
-      </c>
       <c r="D39" t="s">
         <v>14</v>
       </c>
-      <c r="E39" s="20" t="s">
-        <v>622</v>
+      <c r="E39" s="8" t="s">
+        <v>607</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H39" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I39">
-        <v>15139227020</v>
+        <v>18077279830</v>
       </c>
       <c r="J39" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="B40" t="s">
+        <v>204</v>
+      </c>
+      <c r="C40" t="s">
+        <v>205</v>
+      </c>
+      <c r="D40" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" t="s">
         <v>203</v>
       </c>
-      <c r="C40" t="s">
-        <v>204</v>
-      </c>
-      <c r="D40" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" s="20" t="s">
-        <v>205</v>
-      </c>
       <c r="F40" s="6" t="s">
-        <v>613</v>
+        <v>19</v>
       </c>
       <c r="H40" t="s">
         <v>20</v>
       </c>
       <c r="I40">
-        <v>14169011808</v>
-      </c>
-      <c r="J40" s="14" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14165512550</v>
+      </c>
+      <c r="J40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="B41" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C41" t="s">
         <v>206</v>
@@ -3750,124 +3694,124 @@
       <c r="D41" t="s">
         <v>14</v>
       </c>
-      <c r="E41" s="20" t="s">
-        <v>205</v>
+      <c r="E41" t="s">
+        <v>203</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>613</v>
+        <v>19</v>
       </c>
       <c r="H41" t="s">
         <v>20</v>
       </c>
       <c r="I41">
-        <v>14165469808</v>
-      </c>
-      <c r="J41" s="14" t="s">
-        <v>623</v>
+        <v>14165512550</v>
+      </c>
+      <c r="J41" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B42" t="s">
+        <v>202</v>
+      </c>
+      <c r="C42" t="s">
         <v>207</v>
       </c>
-      <c r="C42" t="s">
-        <v>208</v>
-      </c>
       <c r="D42" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="20" t="s">
-        <v>209</v>
+      <c r="E42" t="s">
+        <v>203</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H42" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I42">
-        <v>14165468250</v>
-      </c>
-      <c r="J42" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14165512550</v>
+      </c>
+      <c r="J42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B43" t="s">
-        <v>210</v>
+        <v>126</v>
       </c>
       <c r="C43" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="D43" t="s">
         <v>14</v>
       </c>
-      <c r="E43" s="20" t="s">
+      <c r="E43" t="s">
+        <v>225</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43">
+        <v>19055293037</v>
+      </c>
+      <c r="J43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" t="s">
         <v>212</v>
       </c>
-      <c r="F43" s="6" t="s">
-        <v>613</v>
-      </c>
-      <c r="H43" t="s">
-        <v>33</v>
-      </c>
-      <c r="I43">
-        <v>16133926777</v>
-      </c>
-      <c r="J43" s="14" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="C44" t="s">
         <v>213</v>
       </c>
-      <c r="B44" t="s">
+      <c r="D44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="C44" t="s">
-        <v>215</v>
-      </c>
-      <c r="D44" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>625</v>
-      </c>
       <c r="F44" s="6" t="s">
-        <v>19</v>
+        <v>562</v>
       </c>
       <c r="H44" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I44">
-        <v>18077279830</v>
+        <v>12897552839</v>
       </c>
       <c r="J44" s="14" t="s">
-        <v>624</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>109</v>
+        <v>215</v>
       </c>
       <c r="B45" t="s">
+        <v>216</v>
+      </c>
+      <c r="C45" t="s">
+        <v>217</v>
+      </c>
+      <c r="D45" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="20" t="s">
         <v>218</v>
-      </c>
-      <c r="C45" t="s">
-        <v>219</v>
-      </c>
-      <c r="D45" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" t="s">
-        <v>217</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>19</v>
@@ -3876,18 +3820,18 @@
         <v>20</v>
       </c>
       <c r="I45">
-        <v>14165512550</v>
-      </c>
-      <c r="J45" t="s">
+        <v>13433740100</v>
+      </c>
+      <c r="J45" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="B46" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C46" t="s">
         <v>220</v>
@@ -3895,8 +3839,8 @@
       <c r="D46" t="s">
         <v>14</v>
       </c>
-      <c r="E46" t="s">
-        <v>217</v>
+      <c r="E46" s="20" t="s">
+        <v>218</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>19</v>
@@ -3905,94 +3849,94 @@
         <v>20</v>
       </c>
       <c r="I46">
-        <v>14165512550</v>
-      </c>
-      <c r="J46" t="s">
+        <v>13433980104</v>
+      </c>
+      <c r="J46" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="C47" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="D47" t="s">
         <v>14</v>
       </c>
       <c r="E47" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H47" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I47">
-        <v>14165512550</v>
+        <v>16477465430</v>
       </c>
       <c r="J47" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B48" t="s">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="C48" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D48" t="s">
         <v>14</v>
       </c>
       <c r="E48" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H48" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I48">
-        <v>19055293037</v>
-      </c>
-      <c r="J48" t="s">
-        <v>17</v>
+        <v>14374101420</v>
+      </c>
+      <c r="J48" s="14" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>27</v>
-      </c>
-      <c r="B49" t="s">
-        <v>226</v>
+        <v>23</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>221</v>
       </c>
       <c r="C49" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D49" t="s">
         <v>14</v>
       </c>
       <c r="E49" s="20" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="H49" t="s">
         <v>20</v>
       </c>
       <c r="I49">
-        <v>12897552839</v>
+        <v>14169779343</v>
       </c>
       <c r="J49" s="14" t="s">
         <v>17</v>
@@ -4000,19 +3944,19 @@
     </row>
     <row r="50" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B50" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C50" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D50" t="s">
         <v>14</v>
       </c>
-      <c r="E50" s="20" t="s">
-        <v>232</v>
+      <c r="E50" t="s">
+        <v>237</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>19</v>
@@ -4021,27 +3965,27 @@
         <v>20</v>
       </c>
       <c r="I50">
-        <v>13433740100</v>
-      </c>
-      <c r="J50" s="14" t="s">
+        <v>15193892839</v>
+      </c>
+      <c r="J50" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="B51" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C51" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D51" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="20" t="s">
-        <v>232</v>
+      <c r="E51" t="s">
+        <v>239</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>19</v>
@@ -4050,114 +3994,114 @@
         <v>20</v>
       </c>
       <c r="I51">
-        <v>13433980104</v>
-      </c>
-      <c r="J51" s="14" t="s">
+        <v>19056286324</v>
+      </c>
+      <c r="J51" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="B52" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C52" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D52" t="s">
         <v>14</v>
       </c>
       <c r="E52" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H52" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I52">
-        <v>16477465430</v>
+        <v>12894260469</v>
       </c>
       <c r="J52" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>25</v>
+        <v>243</v>
       </c>
       <c r="B53" t="s">
+        <v>238</v>
+      </c>
+      <c r="C53" t="s">
         <v>244</v>
       </c>
-      <c r="C53" t="s">
-        <v>247</v>
-      </c>
       <c r="D53" t="s">
         <v>14</v>
       </c>
       <c r="E53" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H53" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I53">
-        <v>14374101420</v>
-      </c>
-      <c r="J53" s="14" t="s">
-        <v>34</v>
+        <v>12894480170</v>
+      </c>
+      <c r="J53" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>23</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>235</v>
+        <v>25</v>
+      </c>
+      <c r="B54" t="s">
+        <v>245</v>
       </c>
       <c r="C54" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="D54" t="s">
         <v>14</v>
       </c>
-      <c r="E54" s="20" t="s">
-        <v>237</v>
+      <c r="E54" t="s">
+        <v>247</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>576</v>
+        <v>19</v>
       </c>
       <c r="H54" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I54">
-        <v>14169779343</v>
-      </c>
-      <c r="J54" s="14" t="s">
-        <v>17</v>
+        <v>14167926477</v>
+      </c>
+      <c r="J54" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" t="s">
         <v>248</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>249</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" t="s">
         <v>250</v>
-      </c>
-      <c r="D55" t="s">
-        <v>14</v>
-      </c>
-      <c r="E55" t="s">
-        <v>251</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>19</v>
@@ -4166,7 +4110,7 @@
         <v>20</v>
       </c>
       <c r="I55">
-        <v>15193892839</v>
+        <v>16135367110</v>
       </c>
       <c r="J55" t="s">
         <v>17</v>
@@ -4174,13 +4118,13 @@
     </row>
     <row r="56" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B56" t="s">
+        <v>251</v>
+      </c>
+      <c r="C56" t="s">
         <v>252</v>
-      </c>
-      <c r="C56" t="s">
-        <v>254</v>
       </c>
       <c r="D56" t="s">
         <v>14</v>
@@ -4192,10 +4136,10 @@
         <v>19</v>
       </c>
       <c r="H56" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I56">
-        <v>19056286324</v>
+        <v>16138364420</v>
       </c>
       <c r="J56" t="s">
         <v>17</v>
@@ -4203,48 +4147,48 @@
     </row>
     <row r="57" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>80</v>
+        <v>226</v>
       </c>
       <c r="B57" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="C57" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="D57" t="s">
         <v>14</v>
       </c>
-      <c r="E57" t="s">
-        <v>253</v>
+      <c r="E57" s="20" t="s">
+        <v>229</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>19</v>
+        <v>602</v>
       </c>
       <c r="H57" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I57">
-        <v>12894260469</v>
-      </c>
-      <c r="J57" t="s">
+        <v>18078538888</v>
+      </c>
+      <c r="J57" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" t="s">
+        <v>255</v>
+      </c>
+      <c r="C58" t="s">
+        <v>256</v>
+      </c>
+      <c r="D58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" t="s">
         <v>257</v>
-      </c>
-      <c r="B58" t="s">
-        <v>252</v>
-      </c>
-      <c r="C58" t="s">
-        <v>258</v>
-      </c>
-      <c r="D58" t="s">
-        <v>14</v>
-      </c>
-      <c r="E58" t="s">
-        <v>253</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>19</v>
@@ -4253,7 +4197,7 @@
         <v>20</v>
       </c>
       <c r="I58">
-        <v>12894480170</v>
+        <v>14165469944</v>
       </c>
       <c r="J58" t="s">
         <v>17</v>
@@ -4261,28 +4205,28 @@
     </row>
     <row r="59" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B59" t="s">
+        <v>258</v>
+      </c>
+      <c r="C59" t="s">
         <v>259</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" t="s">
         <v>260</v>
       </c>
-      <c r="D59" t="s">
-        <v>14</v>
-      </c>
-      <c r="E59" t="s">
-        <v>261</v>
-      </c>
       <c r="F59" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H59" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I59">
-        <v>14167926477</v>
+        <v>14165260000</v>
       </c>
       <c r="J59" t="s">
         <v>34</v>
@@ -4290,28 +4234,28 @@
     </row>
     <row r="60" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B60" t="s">
+        <v>261</v>
+      </c>
+      <c r="C60" t="s">
         <v>262</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" t="s">
         <v>263</v>
       </c>
-      <c r="D60" t="s">
-        <v>14</v>
-      </c>
-      <c r="E60" t="s">
-        <v>264</v>
-      </c>
       <c r="F60" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H60" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I60">
-        <v>16135367110</v>
+        <v>16472779835</v>
       </c>
       <c r="J60" t="s">
         <v>17</v>
@@ -4319,28 +4263,28 @@
     </row>
     <row r="61" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B61" t="s">
+        <v>264</v>
+      </c>
+      <c r="C61" t="s">
         <v>265</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" t="s">
         <v>266</v>
       </c>
-      <c r="D61" t="s">
-        <v>14</v>
-      </c>
-      <c r="E61" t="s">
-        <v>267</v>
-      </c>
       <c r="F61" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H61" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I61">
-        <v>16138364420</v>
+        <v>14163951945</v>
       </c>
       <c r="J61" t="s">
         <v>17</v>
@@ -4348,48 +4292,48 @@
     </row>
     <row r="62" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>240</v>
+        <v>27</v>
       </c>
       <c r="B62" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="C62" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="D62" t="s">
         <v>14</v>
       </c>
-      <c r="E62" s="20" t="s">
-        <v>243</v>
+      <c r="E62" t="s">
+        <v>272</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>616</v>
+        <v>19</v>
       </c>
       <c r="H62" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I62">
-        <v>18078538888</v>
-      </c>
-      <c r="J62" s="14" t="s">
+        <v>12893896764</v>
+      </c>
+      <c r="J62" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="B63" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C63" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D63" t="s">
         <v>14</v>
       </c>
       <c r="E63" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>19</v>
@@ -4398,7 +4342,7 @@
         <v>20</v>
       </c>
       <c r="I63">
-        <v>14165469944</v>
+        <v>12893896764</v>
       </c>
       <c r="J63" t="s">
         <v>17</v>
@@ -4406,65 +4350,65 @@
     </row>
     <row r="64" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>29</v>
+        <v>267</v>
       </c>
       <c r="B64" t="s">
-        <v>272</v>
+        <v>53</v>
       </c>
       <c r="C64" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D64" t="s">
         <v>14</v>
       </c>
-      <c r="E64" t="s">
-        <v>274</v>
+      <c r="E64" s="20" t="s">
+        <v>269</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>19</v>
+        <v>608</v>
       </c>
       <c r="H64" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I64">
-        <v>14165260000</v>
-      </c>
-      <c r="J64" t="s">
+        <v>12267224367</v>
+      </c>
+      <c r="J64" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B65" t="s">
         <v>275</v>
       </c>
       <c r="C65" t="s">
+        <v>277</v>
+      </c>
+      <c r="D65" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" t="s">
         <v>276</v>
       </c>
-      <c r="D65" t="s">
-        <v>14</v>
-      </c>
-      <c r="E65" t="s">
-        <v>277</v>
-      </c>
       <c r="F65" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H65" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I65">
-        <v>16472779835</v>
-      </c>
-      <c r="J65" t="s">
+        <v>14162564815</v>
+      </c>
+      <c r="J65" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="B66" t="s">
         <v>278</v>
@@ -4479,33 +4423,36 @@
         <v>280</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="G66" s="13" t="s">
+        <v>600</v>
       </c>
       <c r="H66" t="s">
         <v>20</v>
       </c>
       <c r="I66">
-        <v>14163951945</v>
+        <v>16473451819</v>
       </c>
       <c r="J66" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>27</v>
+        <v>282</v>
       </c>
       <c r="B67" t="s">
+        <v>283</v>
+      </c>
+      <c r="C67" t="s">
         <v>284</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" t="s">
         <v>285</v>
-      </c>
-      <c r="D67" t="s">
-        <v>14</v>
-      </c>
-      <c r="E67" t="s">
-        <v>286</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>19</v>
@@ -4514,15 +4461,15 @@
         <v>20</v>
       </c>
       <c r="I67">
-        <v>12893896764</v>
+        <v>17059350053</v>
       </c>
       <c r="J67" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>59</v>
+        <v>286</v>
       </c>
       <c r="B68" t="s">
         <v>287</v>
@@ -4534,126 +4481,123 @@
         <v>14</v>
       </c>
       <c r="E68" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H68" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I68">
-        <v>12893896764</v>
+        <v>17053621118</v>
       </c>
       <c r="J68" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="B69" t="s">
-        <v>54</v>
+        <v>293</v>
       </c>
       <c r="C69" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="D69" t="s">
         <v>14</v>
       </c>
-      <c r="E69" s="20" t="s">
-        <v>283</v>
+      <c r="E69" t="s">
+        <v>295</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>626</v>
+        <v>19</v>
       </c>
       <c r="H69" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I69">
-        <v>12267224367</v>
-      </c>
-      <c r="J69" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19058877555</v>
+      </c>
+      <c r="J69" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="B70" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="C70" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="D70" t="s">
         <v>14</v>
       </c>
       <c r="E70" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H70" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I70">
-        <v>14162564815</v>
-      </c>
-      <c r="J70" s="14" t="s">
+        <v>14162316003</v>
+      </c>
+      <c r="J70" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B71" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="C71" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="D71" t="s">
         <v>14</v>
       </c>
       <c r="E71" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G71" s="13" t="s">
-        <v>614</v>
+        <v>19</v>
       </c>
       <c r="H71" t="s">
         <v>20</v>
       </c>
       <c r="I71">
-        <v>16473451819</v>
+        <v>15192563602</v>
       </c>
       <c r="J71" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>296</v>
+        <v>38</v>
       </c>
       <c r="B72" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C72" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D72" t="s">
         <v>14</v>
       </c>
       <c r="E72" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>19</v>
@@ -4662,56 +4606,56 @@
         <v>20</v>
       </c>
       <c r="I72">
-        <v>17059350053</v>
+        <v>19056419333</v>
       </c>
       <c r="J72" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="B73" t="s">
-        <v>301</v>
+        <v>64</v>
       </c>
       <c r="C73" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D73" t="s">
         <v>14</v>
       </c>
       <c r="E73" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H73" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I73">
-        <v>17053621118</v>
+        <v>17052525599</v>
       </c>
       <c r="J73" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>306</v>
+        <v>32</v>
       </c>
       <c r="B74" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="C74" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="D74" t="s">
         <v>14</v>
       </c>
-      <c r="E74" t="s">
-        <v>309</v>
+      <c r="E74" s="20" t="s">
+        <v>611</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>19</v>
@@ -4720,105 +4664,108 @@
         <v>20</v>
       </c>
       <c r="I74">
-        <v>19058877555</v>
-      </c>
-      <c r="J74" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16134351420</v>
+      </c>
+      <c r="J74" s="14" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B75" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C75" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D75" t="s">
         <v>14</v>
       </c>
       <c r="E75" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F75" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H75" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I75">
-        <v>14162316003</v>
+        <v>14167629922</v>
       </c>
       <c r="J75" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B76" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C76" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D76" t="s">
         <v>14</v>
       </c>
-      <c r="E76" t="s">
-        <v>315</v>
+      <c r="E76" s="20" t="s">
+        <v>309</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>19</v>
+        <v>599</v>
       </c>
       <c r="H76" t="s">
         <v>20</v>
       </c>
       <c r="I76">
-        <v>15192563602</v>
-      </c>
-      <c r="J76" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>12267732105</v>
+      </c>
+      <c r="J76" s="14" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>38</v>
+        <v>314</v>
       </c>
       <c r="B77" t="s">
+        <v>315</v>
+      </c>
+      <c r="C77" t="s">
         <v>316</v>
       </c>
-      <c r="C77" t="s">
-        <v>317</v>
-      </c>
       <c r="D77" t="s">
         <v>14</v>
       </c>
-      <c r="E77" t="s">
-        <v>318</v>
+      <c r="E77" s="20" t="s">
+        <v>614</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>19</v>
+        <v>602</v>
       </c>
       <c r="H77" t="s">
         <v>20</v>
       </c>
       <c r="I77">
-        <v>19056419333</v>
-      </c>
-      <c r="J77" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>18076980012</v>
+      </c>
+      <c r="J77" s="14" t="s">
+        <v>613</v>
+      </c>
+      <c r="K77" s="14" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>40</v>
+        <v>317</v>
       </c>
       <c r="B78" t="s">
-        <v>65</v>
+        <v>318</v>
       </c>
       <c r="C78" t="s">
         <v>319</v>
@@ -4826,287 +4773,281 @@
       <c r="D78" t="s">
         <v>14</v>
       </c>
-      <c r="E78" t="s">
-        <v>320</v>
+      <c r="E78" s="20" t="s">
+        <v>616</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>19</v>
+        <v>602</v>
       </c>
       <c r="H78" t="s">
         <v>20</v>
       </c>
       <c r="I78">
-        <v>17052525599</v>
-      </c>
-      <c r="J78" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>18076989420</v>
+      </c>
+      <c r="J78" s="14" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="B79" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="C79" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="D79" t="s">
         <v>14</v>
       </c>
       <c r="E79" s="20" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="F79" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H79" t="s">
+        <v>33</v>
+      </c>
+      <c r="I79">
+        <v>15193071300</v>
+      </c>
+      <c r="J79" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="K79" s="14" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>49</v>
+      </c>
+      <c r="B80" t="s">
+        <v>322</v>
+      </c>
+      <c r="C80" t="s">
+        <v>175</v>
+      </c>
+      <c r="D80" t="s">
+        <v>78</v>
+      </c>
+      <c r="E80" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="H80" t="s">
         <v>20</v>
       </c>
-      <c r="I79">
-        <v>16134351420</v>
-      </c>
-      <c r="J79" s="14" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>23</v>
-      </c>
-      <c r="B80" t="s">
+      <c r="I80">
+        <v>12899806868</v>
+      </c>
+      <c r="J80" s="14" t="s">
+        <v>620</v>
+      </c>
+      <c r="K80" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>51</v>
+      </c>
+      <c r="B81" t="s">
+        <v>161</v>
+      </c>
+      <c r="C81" t="s">
+        <v>324</v>
+      </c>
+      <c r="D81" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81" t="s">
         <v>325</v>
       </c>
-      <c r="C80" t="s">
-        <v>326</v>
-      </c>
-      <c r="D80" t="s">
-        <v>14</v>
-      </c>
-      <c r="E80" t="s">
-        <v>327</v>
-      </c>
-      <c r="F80" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H80" t="s">
-        <v>18</v>
-      </c>
-      <c r="I80">
-        <v>14167629922</v>
-      </c>
-      <c r="J80" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>64</v>
-      </c>
-      <c r="B81" t="s">
-        <v>321</v>
-      </c>
-      <c r="C81" t="s">
-        <v>322</v>
-      </c>
-      <c r="D81" t="s">
-        <v>14</v>
-      </c>
-      <c r="E81" s="20" t="s">
-        <v>323</v>
-      </c>
       <c r="F81" s="6" t="s">
-        <v>613</v>
+        <v>19</v>
       </c>
       <c r="H81" t="s">
         <v>20</v>
       </c>
       <c r="I81">
-        <v>12267732105</v>
-      </c>
-      <c r="J81" s="14" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14167833008</v>
+      </c>
+      <c r="J81" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
+        <v>40</v>
+      </c>
+      <c r="B82" t="s">
+        <v>326</v>
+      </c>
+      <c r="C82" t="s">
+        <v>327</v>
+      </c>
+      <c r="D82" t="s">
+        <v>14</v>
+      </c>
+      <c r="E82" s="20" t="s">
         <v>328</v>
       </c>
-      <c r="B82" t="s">
+      <c r="F82" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="H82" t="s">
+        <v>22</v>
+      </c>
+      <c r="I82">
+        <v>17058814629</v>
+      </c>
+      <c r="J82" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>37</v>
+      </c>
+      <c r="B83" t="s">
+        <v>162</v>
+      </c>
+      <c r="C83" t="s">
         <v>329</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D83" t="s">
+        <v>14</v>
+      </c>
+      <c r="E83" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="H83" t="s">
+        <v>22</v>
+      </c>
+      <c r="I83">
+        <v>17053250068</v>
+      </c>
+      <c r="J83" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>23</v>
+      </c>
+      <c r="B84" t="s">
         <v>330</v>
       </c>
-      <c r="D82" t="s">
-        <v>14</v>
-      </c>
-      <c r="E82" s="20" t="s">
-        <v>632</v>
-      </c>
-      <c r="F82" s="6" t="s">
-        <v>616</v>
-      </c>
-      <c r="H82" t="s">
-        <v>20</v>
-      </c>
-      <c r="I82">
-        <v>18076980012</v>
-      </c>
-      <c r="J82" s="14" t="s">
-        <v>631</v>
-      </c>
-      <c r="K82" s="14" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+      <c r="C84" t="s">
         <v>331</v>
       </c>
-      <c r="B83" t="s">
+      <c r="D84" t="s">
+        <v>14</v>
+      </c>
+      <c r="E84" s="20" t="s">
         <v>332</v>
       </c>
-      <c r="C83" t="s">
+      <c r="F84" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="H84" t="s">
+        <v>22</v>
+      </c>
+      <c r="I84">
+        <v>14165199159</v>
+      </c>
+      <c r="J84" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>46</v>
+      </c>
+      <c r="B85" t="s">
+        <v>162</v>
+      </c>
+      <c r="C85" t="s">
         <v>333</v>
       </c>
-      <c r="D83" t="s">
-        <v>14</v>
-      </c>
-      <c r="E83" s="20" t="s">
-        <v>634</v>
-      </c>
-      <c r="F83" s="6" t="s">
-        <v>616</v>
-      </c>
-      <c r="H83" t="s">
-        <v>20</v>
-      </c>
-      <c r="I83">
-        <v>18076989420</v>
-      </c>
-      <c r="J83" s="14" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>72</v>
-      </c>
-      <c r="B84" t="s">
+      <c r="D85" t="s">
+        <v>14</v>
+      </c>
+      <c r="E85" s="20" t="s">
         <v>334</v>
       </c>
-      <c r="C84" t="s">
-        <v>335</v>
-      </c>
-      <c r="D84" t="s">
-        <v>14</v>
-      </c>
-      <c r="E84" s="20" t="s">
-        <v>637</v>
-      </c>
-      <c r="F84" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H84" t="s">
-        <v>33</v>
-      </c>
-      <c r="I84">
-        <v>15193071300</v>
-      </c>
-      <c r="J84" s="14" t="s">
-        <v>635</v>
-      </c>
-      <c r="K84" s="14" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>49</v>
-      </c>
-      <c r="B85" t="s">
-        <v>336</v>
-      </c>
-      <c r="C85" t="s">
-        <v>176</v>
-      </c>
-      <c r="D85" t="s">
-        <v>79</v>
-      </c>
-      <c r="E85" s="20" t="s">
-        <v>337</v>
-      </c>
       <c r="F85" s="6" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="H85" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I85">
-        <v>12899806868</v>
-      </c>
-      <c r="J85" s="14" t="s">
-        <v>638</v>
-      </c>
-      <c r="K85" t="s">
-        <v>639</v>
+        <v>17057071595</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>162</v>
+        <v>335</v>
       </c>
       <c r="C86" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D86" t="s">
         <v>14</v>
       </c>
-      <c r="E86" t="s">
-        <v>339</v>
+      <c r="E86" s="20" t="s">
+        <v>337</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>19</v>
+        <v>562</v>
       </c>
       <c r="H86" t="s">
         <v>20</v>
       </c>
       <c r="I86">
-        <v>14167833008</v>
-      </c>
-      <c r="J86" t="s">
+        <v>19052395300</v>
+      </c>
+      <c r="J86" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="B87" t="s">
-        <v>340</v>
+        <v>174</v>
       </c>
       <c r="C87" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D87" t="s">
         <v>14</v>
       </c>
-      <c r="E87" s="20" t="s">
-        <v>342</v>
+      <c r="E87" t="s">
+        <v>339</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>616</v>
+        <v>19</v>
       </c>
       <c r="H87" t="s">
         <v>22</v>
       </c>
       <c r="I87">
-        <v>17058814629</v>
+        <v>16134222211</v>
       </c>
       <c r="J87" t="s">
         <v>34</v>
@@ -5114,28 +5055,28 @@
     </row>
     <row r="88" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>37</v>
+        <v>177</v>
       </c>
       <c r="B88" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="C88" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D88" t="s">
         <v>14</v>
       </c>
-      <c r="E88" s="20" t="s">
-        <v>342</v>
+      <c r="E88" t="s">
+        <v>339</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>616</v>
+        <v>19</v>
       </c>
       <c r="H88" t="s">
         <v>22</v>
       </c>
       <c r="I88">
-        <v>17053250068</v>
+        <v>16134222211</v>
       </c>
       <c r="J88" t="s">
         <v>34</v>
@@ -5143,28 +5084,28 @@
     </row>
     <row r="89" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B89" t="s">
-        <v>344</v>
+        <v>174</v>
       </c>
       <c r="C89" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D89" t="s">
         <v>14</v>
       </c>
-      <c r="E89" s="20" t="s">
-        <v>346</v>
+      <c r="E89" t="s">
+        <v>339</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>616</v>
+        <v>19</v>
       </c>
       <c r="H89" t="s">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="I89">
-        <v>14165199159</v>
+        <v>16134222211</v>
       </c>
       <c r="J89" t="s">
         <v>34</v>
@@ -5172,149 +5113,155 @@
     </row>
     <row r="90" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="B90" t="s">
-        <v>163</v>
+        <v>342</v>
       </c>
       <c r="C90" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D90" t="s">
         <v>14</v>
       </c>
-      <c r="E90" s="20" t="s">
-        <v>348</v>
+      <c r="E90" t="s">
+        <v>344</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>616</v>
+        <v>19</v>
       </c>
       <c r="H90" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I90">
-        <v>17057071595</v>
+        <v>14166910899</v>
+      </c>
+      <c r="J90" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B91" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C91" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D91" t="s">
         <v>14</v>
       </c>
-      <c r="E91" s="20" t="s">
-        <v>351</v>
+      <c r="E91" t="s">
+        <v>344</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>576</v>
+        <v>19</v>
       </c>
       <c r="H91" t="s">
         <v>20</v>
       </c>
       <c r="I91">
-        <v>19052395300</v>
-      </c>
-      <c r="J91" s="14" t="s">
+        <v>14164105442</v>
+      </c>
+      <c r="J91" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="B92" t="s">
-        <v>175</v>
+        <v>348</v>
       </c>
       <c r="C92" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D92" t="s">
         <v>14</v>
       </c>
-      <c r="E92" t="s">
-        <v>353</v>
+      <c r="E92" s="20" t="s">
+        <v>347</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>19</v>
+        <v>562</v>
       </c>
       <c r="H92" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I92">
-        <v>16134222211</v>
-      </c>
-      <c r="J92" t="s">
-        <v>34</v>
+        <v>14167922447</v>
+      </c>
+      <c r="J92" s="14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>181</v>
+        <v>43</v>
       </c>
       <c r="B93" t="s">
-        <v>175</v>
+        <v>350</v>
       </c>
       <c r="C93" t="s">
+        <v>351</v>
+      </c>
+      <c r="D93" t="s">
+        <v>14</v>
+      </c>
+      <c r="E93" t="s">
+        <v>352</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H93" t="s">
+        <v>20</v>
+      </c>
+      <c r="I93">
+        <v>19054973131</v>
+      </c>
+      <c r="J93" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>128</v>
+      </c>
+      <c r="B94" t="s">
+        <v>353</v>
+      </c>
+      <c r="C94" t="s">
         <v>354</v>
       </c>
-      <c r="D93" t="s">
-        <v>14</v>
-      </c>
-      <c r="E93" t="s">
-        <v>353</v>
-      </c>
-      <c r="F93" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H93" t="s">
-        <v>22</v>
-      </c>
-      <c r="I93">
-        <v>16134222211</v>
-      </c>
-      <c r="J93" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>36</v>
-      </c>
-      <c r="B94" t="s">
-        <v>175</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
+        <v>14</v>
+      </c>
+      <c r="E94" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="D94" t="s">
-        <v>14</v>
-      </c>
-      <c r="E94" t="s">
-        <v>353</v>
-      </c>
       <c r="F94" s="6" t="s">
-        <v>19</v>
+        <v>599</v>
       </c>
       <c r="H94" t="s">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="I94">
-        <v>16134222211</v>
-      </c>
-      <c r="J94" t="s">
-        <v>34</v>
+        <v>17053449086</v>
+      </c>
+      <c r="J94" s="14" t="s">
+        <v>622</v>
+      </c>
+      <c r="K94" s="14" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B95" t="s">
         <v>356</v>
@@ -5325,25 +5272,28 @@
       <c r="D95" t="s">
         <v>14</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E95" s="20" t="s">
         <v>358</v>
       </c>
       <c r="F95" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H95" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I95">
-        <v>14166910899</v>
-      </c>
-      <c r="J95" t="s">
+        <v>19054979585</v>
+      </c>
+      <c r="J95" s="14" t="s">
         <v>17</v>
+      </c>
+      <c r="K95" s="25" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="B96" t="s">
         <v>359</v>
@@ -5354,7 +5304,7 @@
       <c r="D96" t="s">
         <v>14</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E96" s="20" t="s">
         <v>358</v>
       </c>
       <c r="F96" s="6" t="s">
@@ -5364,10 +5314,13 @@
         <v>20</v>
       </c>
       <c r="I96">
-        <v>14164105442</v>
-      </c>
-      <c r="J96" t="s">
+        <v>19054979522</v>
+      </c>
+      <c r="J96" s="14" t="s">
         <v>17</v>
+      </c>
+      <c r="K96" s="25" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5375,45 +5328,45 @@
         <v>23</v>
       </c>
       <c r="B97" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C97" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="D97" t="s">
         <v>14</v>
       </c>
-      <c r="E97" s="20" t="s">
-        <v>361</v>
+      <c r="E97" t="s">
+        <v>368</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>576</v>
+        <v>19</v>
       </c>
       <c r="H97" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I97">
-        <v>14167922447</v>
-      </c>
-      <c r="J97" s="14" t="s">
+        <v>14164771489</v>
+      </c>
+      <c r="J97" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="B98" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C98" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D98" t="s">
         <v>14</v>
       </c>
-      <c r="E98" t="s">
-        <v>366</v>
+      <c r="E98" s="20" t="s">
+        <v>358</v>
       </c>
       <c r="F98" s="6" t="s">
         <v>19</v>
@@ -5422,82 +5375,82 @@
         <v>20</v>
       </c>
       <c r="I98">
-        <v>19054973131</v>
-      </c>
-      <c r="J98" t="s">
+        <v>19054979550</v>
+      </c>
+      <c r="J98" s="14" t="s">
         <v>17</v>
+      </c>
+      <c r="K98" s="25" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>129</v>
+        <v>362</v>
       </c>
       <c r="B99" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C99" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D99" t="s">
         <v>14</v>
       </c>
       <c r="E99" s="20" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="H99" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I99">
-        <v>17053449086</v>
+        <v>15198485656</v>
       </c>
       <c r="J99" s="14" t="s">
-        <v>640</v>
+        <v>625</v>
       </c>
       <c r="K99" s="14" t="s">
-        <v>641</v>
+        <v>626</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="B100" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C100" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D100" t="s">
         <v>14</v>
       </c>
-      <c r="E100" s="20" t="s">
-        <v>372</v>
+      <c r="E100" t="s">
+        <v>373</v>
       </c>
       <c r="F100" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H100" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I100">
-        <v>19054979585</v>
-      </c>
-      <c r="J100" s="14" t="s">
+        <v>15197848420</v>
+      </c>
+      <c r="J100" t="s">
         <v>17</v>
-      </c>
-      <c r="K100" s="25" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>43</v>
-      </c>
-      <c r="B101" t="s">
-        <v>373</v>
+        <v>23</v>
+      </c>
+      <c r="B101">
+        <v>1922</v>
       </c>
       <c r="C101" t="s">
         <v>374</v>
@@ -5505,49 +5458,46 @@
       <c r="D101" t="s">
         <v>14</v>
       </c>
-      <c r="E101" s="20" t="s">
-        <v>372</v>
+      <c r="E101" t="s">
+        <v>375</v>
       </c>
       <c r="F101" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H101" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I101">
-        <v>19054979522</v>
-      </c>
-      <c r="J101" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K101" s="25" t="s">
-        <v>642</v>
+        <v>14162628744</v>
+      </c>
+      <c r="J101" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B102" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C102" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D102" t="s">
         <v>14</v>
       </c>
       <c r="E102" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F102" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H102" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I102">
-        <v>14164771489</v>
+        <v>14162640777</v>
       </c>
       <c r="J102" t="s">
         <v>17</v>
@@ -5555,141 +5505,138 @@
     </row>
     <row r="103" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="B103" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="C103" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="D103" t="s">
         <v>14</v>
       </c>
-      <c r="E103" s="20" t="s">
-        <v>372</v>
+      <c r="E103" t="s">
+        <v>381</v>
       </c>
       <c r="F103" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H103" t="s">
+        <v>33</v>
+      </c>
+      <c r="I103">
+        <v>14165518982</v>
+      </c>
+      <c r="J103" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>23</v>
+      </c>
+      <c r="B104" t="s">
+        <v>382</v>
+      </c>
+      <c r="C104" t="s">
+        <v>383</v>
+      </c>
+      <c r="D104" t="s">
+        <v>14</v>
+      </c>
+      <c r="E104" t="s">
+        <v>384</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H104" t="s">
         <v>20</v>
       </c>
-      <c r="I103">
-        <v>19054979550</v>
-      </c>
-      <c r="J103" s="14" t="s">
+      <c r="I104">
+        <v>14166908081</v>
+      </c>
+      <c r="J104" t="s">
         <v>17</v>
-      </c>
-      <c r="K103" s="25" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>376</v>
-      </c>
-      <c r="B104" t="s">
-        <v>377</v>
-      </c>
-      <c r="C104" t="s">
-        <v>378</v>
-      </c>
-      <c r="D104" t="s">
-        <v>14</v>
-      </c>
-      <c r="E104" s="20" t="s">
-        <v>379</v>
-      </c>
-      <c r="F104" s="6" t="s">
-        <v>613</v>
-      </c>
-      <c r="H104" t="s">
-        <v>33</v>
-      </c>
-      <c r="I104">
-        <v>15198485656</v>
-      </c>
-      <c r="J104" s="14" t="s">
-        <v>643</v>
-      </c>
-      <c r="K104" s="14" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B105" t="s">
+        <v>382</v>
+      </c>
+      <c r="C105" t="s">
         <v>385</v>
       </c>
-      <c r="C105" t="s">
-        <v>386</v>
-      </c>
       <c r="D105" t="s">
         <v>14</v>
       </c>
       <c r="E105" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F105" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H105" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I105">
-        <v>15197848420</v>
+        <v>14162837433</v>
       </c>
       <c r="J105" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>23</v>
-      </c>
-      <c r="B106">
-        <v>1922</v>
+        <v>86</v>
+      </c>
+      <c r="B106" t="s">
+        <v>112</v>
       </c>
       <c r="C106" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="D106" t="s">
         <v>14</v>
       </c>
-      <c r="E106" t="s">
-        <v>389</v>
+      <c r="E106" s="20" t="s">
+        <v>370</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>19</v>
+        <v>599</v>
       </c>
       <c r="H106" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I106">
-        <v>14162628744</v>
-      </c>
-      <c r="J106" t="s">
-        <v>34</v>
+        <v>19052782222</v>
+      </c>
+      <c r="J106" s="14" t="s">
+        <v>628</v>
+      </c>
+      <c r="K106" s="26" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B107" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C107" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D107" t="s">
         <v>14</v>
       </c>
       <c r="E107" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F107" s="6" t="s">
         <v>19</v>
@@ -5698,7 +5645,7 @@
         <v>20</v>
       </c>
       <c r="I107">
-        <v>14162640777</v>
+        <v>16132333000</v>
       </c>
       <c r="J107" t="s">
         <v>17</v>
@@ -5706,167 +5653,149 @@
     </row>
     <row r="108" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="B108" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C108" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D108" t="s">
         <v>14</v>
       </c>
       <c r="E108" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F108" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H108" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I108">
-        <v>14165518982</v>
-      </c>
-      <c r="J108" t="s">
-        <v>34</v>
+        <v>12892461172</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>23</v>
+        <v>399</v>
       </c>
       <c r="B109" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C109" t="s">
+        <v>400</v>
+      </c>
+      <c r="D109" t="s">
+        <v>14</v>
+      </c>
+      <c r="E109" t="s">
         <v>397</v>
       </c>
-      <c r="D109" t="s">
-        <v>14</v>
-      </c>
-      <c r="E109" t="s">
-        <v>398</v>
-      </c>
       <c r="F109" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H109" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I109">
-        <v>14166908081</v>
-      </c>
-      <c r="J109" t="s">
-        <v>17</v>
+        <v>12262530859</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B110" t="s">
-        <v>396</v>
+        <v>134</v>
       </c>
       <c r="C110" t="s">
-        <v>399</v>
+        <v>208</v>
       </c>
       <c r="D110" t="s">
         <v>14</v>
       </c>
       <c r="E110" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="F110" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H110" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I110">
-        <v>14162837433</v>
-      </c>
-      <c r="J110" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15193542255</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B111" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="C111" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="D111" t="s">
         <v>14</v>
       </c>
-      <c r="E111" s="20" t="s">
-        <v>384</v>
+      <c r="E111" t="s">
+        <v>401</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>613</v>
+        <v>19</v>
       </c>
       <c r="H111" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="I111">
-        <v>19052782222</v>
-      </c>
-      <c r="J111" s="14" t="s">
-        <v>646</v>
-      </c>
-      <c r="K111" s="26" t="s">
-        <v>645</v>
+        <v>15192582544</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="B112" t="s">
-        <v>406</v>
+        <v>134</v>
       </c>
       <c r="C112" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D112" t="s">
         <v>14</v>
       </c>
       <c r="E112" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F112" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H112" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I112">
-        <v>16132333000</v>
-      </c>
-      <c r="J112" t="s">
-        <v>17</v>
+        <v>15192500712</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="B113" t="s">
-        <v>409</v>
+        <v>134</v>
       </c>
       <c r="C113" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D113" t="s">
         <v>14</v>
       </c>
       <c r="E113" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F113" s="6" t="s">
         <v>19</v>
@@ -5875,128 +5804,134 @@
         <v>18</v>
       </c>
       <c r="I113">
-        <v>12892461172</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15199678818</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>413</v>
+        <v>43</v>
       </c>
       <c r="B114" t="s">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="C114" t="s">
-        <v>414</v>
+        <v>388</v>
       </c>
       <c r="D114" t="s">
         <v>14</v>
       </c>
-      <c r="E114" t="s">
-        <v>411</v>
+      <c r="E114" s="20" t="s">
+        <v>389</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>19</v>
+        <v>599</v>
       </c>
       <c r="H114" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I114">
-        <v>12262530859</v>
+        <v>19054530698</v>
+      </c>
+      <c r="J114" s="14" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>86</v>
+        <v>406</v>
       </c>
       <c r="B115" t="s">
-        <v>135</v>
+        <v>407</v>
       </c>
       <c r="C115" t="s">
-        <v>222</v>
+        <v>408</v>
       </c>
       <c r="D115" t="s">
         <v>14</v>
       </c>
       <c r="E115" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="F115" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H115" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I115">
-        <v>15193542255</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16133722272</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>135</v>
+        <v>387</v>
       </c>
       <c r="C116" t="s">
-        <v>416</v>
+        <v>390</v>
       </c>
       <c r="D116" t="s">
         <v>14</v>
       </c>
-      <c r="E116" t="s">
-        <v>415</v>
+      <c r="E116" s="20" t="s">
+        <v>391</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>19</v>
+        <v>599</v>
       </c>
       <c r="H116" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="I116">
-        <v>15192582544</v>
+        <v>15197446627</v>
+      </c>
+      <c r="J116" s="14" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="B117" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C117" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D117" t="s">
         <v>14</v>
       </c>
       <c r="E117" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="F117" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H117" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I117">
-        <v>15192500712</v>
+        <v>19054956454</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>64</v>
+        <v>386</v>
       </c>
       <c r="B118" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C118" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="D118" t="s">
         <v>14</v>
       </c>
       <c r="E118" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="F118" s="6" t="s">
         <v>19</v>
@@ -6005,134 +5940,134 @@
         <v>18</v>
       </c>
       <c r="I118">
-        <v>15199678818</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19054956454</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B119" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="C119" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="D119" t="s">
         <v>14</v>
       </c>
-      <c r="E119" s="20" t="s">
-        <v>403</v>
+      <c r="E119" t="s">
+        <v>415</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>613</v>
+        <v>19</v>
       </c>
       <c r="H119" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I119">
-        <v>19054530698</v>
-      </c>
-      <c r="J119" s="14" t="s">
-        <v>651</v>
+        <v>19055288955</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
+        <v>45</v>
+      </c>
+      <c r="B120" t="s">
+        <v>416</v>
+      </c>
+      <c r="C120" t="s">
+        <v>417</v>
+      </c>
+      <c r="D120" t="s">
+        <v>14</v>
+      </c>
+      <c r="E120" t="s">
+        <v>418</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H120" t="s">
+        <v>28</v>
+      </c>
+      <c r="I120">
+        <v>15197571001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>136</v>
+      </c>
+      <c r="B121" t="s">
+        <v>419</v>
+      </c>
+      <c r="C121" t="s">
         <v>420</v>
       </c>
-      <c r="B120" t="s">
+      <c r="D121" t="s">
+        <v>14</v>
+      </c>
+      <c r="E121" t="s">
         <v>421</v>
       </c>
-      <c r="C120" t="s">
-        <v>422</v>
-      </c>
-      <c r="D120" t="s">
-        <v>14</v>
-      </c>
-      <c r="E120" t="s">
-        <v>423</v>
-      </c>
-      <c r="F120" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H120" t="s">
-        <v>26</v>
-      </c>
-      <c r="I120">
-        <v>16133722272</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>50</v>
-      </c>
-      <c r="B121" t="s">
-        <v>401</v>
-      </c>
-      <c r="C121" t="s">
-        <v>404</v>
-      </c>
-      <c r="D121" t="s">
-        <v>14</v>
-      </c>
-      <c r="E121" s="20" t="s">
-        <v>405</v>
-      </c>
       <c r="F121" s="6" t="s">
-        <v>613</v>
+        <v>19</v>
       </c>
       <c r="H121" t="s">
         <v>20</v>
       </c>
       <c r="I121">
-        <v>15197446627</v>
-      </c>
-      <c r="J121" s="14" t="s">
-        <v>650</v>
+        <v>17053209898</v>
+      </c>
+      <c r="J121" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B122" t="s">
-        <v>145</v>
+        <v>422</v>
       </c>
       <c r="C122" t="s">
+        <v>423</v>
+      </c>
+      <c r="D122" t="s">
+        <v>14</v>
+      </c>
+      <c r="E122" t="s">
         <v>424</v>
       </c>
-      <c r="D122" t="s">
-        <v>14</v>
-      </c>
-      <c r="E122" t="s">
-        <v>425</v>
-      </c>
       <c r="F122" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H122" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I122">
-        <v>19054956454</v>
+        <v>15199545323</v>
+      </c>
+      <c r="J122" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="B123" t="s">
-        <v>145</v>
+        <v>426</v>
       </c>
       <c r="C123" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D123" t="s">
         <v>14</v>
       </c>
       <c r="E123" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="F123" s="6" t="s">
         <v>19</v>
@@ -6141,122 +6076,122 @@
         <v>18</v>
       </c>
       <c r="I123">
-        <v>19054956454</v>
+        <v>12892982856</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="B124" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C124" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D124" t="s">
         <v>14</v>
       </c>
       <c r="E124" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F124" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H124" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I124">
-        <v>19055288955</v>
+        <v>19055633933</v>
+      </c>
+      <c r="J124" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B125" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C125" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D125" t="s">
         <v>14</v>
       </c>
       <c r="E125" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F125" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H125" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I125">
-        <v>15197571001</v>
+        <v>12892732782</v>
+      </c>
+      <c r="J125" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="B126" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C126" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D126" t="s">
         <v>14</v>
       </c>
       <c r="E126" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="F126" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H126" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I126">
-        <v>17053209898</v>
-      </c>
-      <c r="J126" t="s">
-        <v>17</v>
+        <v>15193040660</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>50</v>
+        <v>210</v>
       </c>
       <c r="B127" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C127" t="s">
+        <v>439</v>
+      </c>
+      <c r="D127" t="s">
+        <v>14</v>
+      </c>
+      <c r="E127" t="s">
         <v>437</v>
       </c>
-      <c r="D127" t="s">
-        <v>14</v>
-      </c>
-      <c r="E127" t="s">
-        <v>438</v>
-      </c>
       <c r="F127" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H127" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I127">
-        <v>15199545323</v>
-      </c>
-      <c r="J127" t="s">
-        <v>34</v>
+        <v>17058879567</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>439</v>
+        <v>23</v>
       </c>
       <c r="B128" t="s">
         <v>440</v>
@@ -6274,15 +6209,13 @@
         <v>19</v>
       </c>
       <c r="H128" t="s">
-        <v>18</v>
-      </c>
-      <c r="I128">
-        <v>12892982856</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="I128"/>
     </row>
     <row r="129" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>187</v>
+        <v>58</v>
       </c>
       <c r="B129" t="s">
         <v>443</v>
@@ -6290,40 +6223,40 @@
       <c r="C129" t="s">
         <v>444</v>
       </c>
-      <c r="D129" t="s">
-        <v>14</v>
-      </c>
-      <c r="E129" t="s">
+      <c r="D129" s="7" t="s">
         <v>445</v>
       </c>
+      <c r="E129" s="17" t="s">
+        <v>446</v>
+      </c>
       <c r="F129" s="6" t="s">
-        <v>19</v>
+        <v>590</v>
       </c>
       <c r="H129" t="s">
-        <v>20</v>
-      </c>
-      <c r="I129">
-        <v>19055633933</v>
+        <v>57</v>
+      </c>
+      <c r="I129" s="16">
+        <v>12262711259</v>
       </c>
       <c r="J129" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="B130" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C130" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D130" t="s">
         <v>14</v>
       </c>
       <c r="E130" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F130" s="6" t="s">
         <v>19</v>
@@ -6332,7 +6265,7 @@
         <v>20</v>
       </c>
       <c r="I130">
-        <v>12892732782</v>
+        <v>14164002045</v>
       </c>
       <c r="J130" t="s">
         <v>17</v>
@@ -6340,10 +6273,10 @@
     </row>
     <row r="131" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B131" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C131" t="s">
         <v>450</v>
@@ -6352,47 +6285,53 @@
         <v>14</v>
       </c>
       <c r="E131" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F131" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H131" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I131">
-        <v>15193040660</v>
+        <v>14164002883</v>
+      </c>
+      <c r="J131" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>224</v>
+        <v>23</v>
       </c>
       <c r="B132" t="s">
+        <v>451</v>
+      </c>
+      <c r="C132" t="s">
         <v>452</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
+        <v>14</v>
+      </c>
+      <c r="E132" t="s">
         <v>453</v>
       </c>
-      <c r="D132" t="s">
-        <v>14</v>
-      </c>
-      <c r="E132" t="s">
-        <v>451</v>
-      </c>
       <c r="F132" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H132" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I132">
-        <v>17058879567</v>
+        <v>14167813128</v>
+      </c>
+      <c r="J132" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="B133" t="s">
         <v>454</v>
@@ -6410,34 +6349,39 @@
         <v>19</v>
       </c>
       <c r="H133" t="s">
-        <v>28</v>
-      </c>
-      <c r="I133"/>
+        <v>22</v>
+      </c>
+      <c r="I133">
+        <v>14166308420</v>
+      </c>
+      <c r="J133" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="134" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="B134" t="s">
+        <v>454</v>
+      </c>
+      <c r="C134" t="s">
         <v>457</v>
       </c>
-      <c r="C134" t="s">
+      <c r="D134" t="s">
+        <v>14</v>
+      </c>
+      <c r="E134" t="s">
         <v>458</v>
       </c>
-      <c r="D134" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="E134" s="17" t="s">
-        <v>460</v>
-      </c>
       <c r="F134" s="6" t="s">
-        <v>604</v>
+        <v>19</v>
       </c>
       <c r="H134" t="s">
-        <v>58</v>
-      </c>
-      <c r="I134" s="16">
-        <v>12262711259</v>
+        <v>33</v>
+      </c>
+      <c r="I134">
+        <v>15482884335</v>
       </c>
       <c r="J134" t="s">
         <v>34</v>
@@ -6445,57 +6389,54 @@
     </row>
     <row r="135" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="B135" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C135" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D135" t="s">
         <v>14</v>
       </c>
       <c r="E135" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F135" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H135" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I135">
-        <v>14164002045</v>
-      </c>
-      <c r="J135" t="s">
-        <v>17</v>
+        <v>16478079072</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B136" t="s">
+        <v>82</v>
+      </c>
+      <c r="C136" t="s">
+        <v>310</v>
+      </c>
+      <c r="D136" t="s">
+        <v>78</v>
+      </c>
+      <c r="E136" s="20" t="s">
         <v>461</v>
       </c>
-      <c r="C136" t="s">
-        <v>464</v>
-      </c>
-      <c r="D136" t="s">
-        <v>14</v>
-      </c>
-      <c r="E136" t="s">
-        <v>463</v>
-      </c>
       <c r="F136" s="6" t="s">
-        <v>19</v>
+        <v>630</v>
       </c>
       <c r="H136" t="s">
         <v>20</v>
       </c>
       <c r="I136">
-        <v>14164002883</v>
+        <v>19054274716</v>
       </c>
       <c r="J136" t="s">
         <v>17</v>
@@ -6503,19 +6444,19 @@
     </row>
     <row r="137" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="B137" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C137" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D137" t="s">
         <v>14</v>
       </c>
       <c r="E137" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F137" s="6" t="s">
         <v>19</v>
@@ -6524,7 +6465,7 @@
         <v>20</v>
       </c>
       <c r="I137">
-        <v>14167813128</v>
+        <v>15199414500</v>
       </c>
       <c r="J137" t="s">
         <v>17</v>
@@ -6532,161 +6473,152 @@
     </row>
     <row r="138" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="B138" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C138" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D138" t="s">
         <v>14</v>
       </c>
       <c r="E138" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F138" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H138" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I138">
-        <v>14166308420</v>
-      </c>
-      <c r="J138" t="s">
-        <v>34</v>
+        <v>15198210555</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>82</v>
+        <v>386</v>
       </c>
       <c r="B139" t="s">
         <v>468</v>
       </c>
       <c r="C139" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D139" t="s">
         <v>14</v>
       </c>
       <c r="E139" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F139" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H139" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I139">
-        <v>15482884335</v>
-      </c>
-      <c r="J139" t="s">
-        <v>34</v>
+        <v>15199255523</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B140" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C140" t="s">
+        <v>472</v>
+      </c>
+      <c r="D140" t="s">
+        <v>14</v>
+      </c>
+      <c r="E140" s="20" t="s">
         <v>473</v>
       </c>
-      <c r="D140" t="s">
-        <v>14</v>
-      </c>
-      <c r="E140" t="s">
-        <v>474</v>
-      </c>
       <c r="F140" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H140" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I140">
-        <v>16478079072</v>
+        <v>15193047465</v>
+      </c>
+      <c r="J140" s="14" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B141" t="s">
-        <v>83</v>
+        <v>476</v>
       </c>
       <c r="C141" t="s">
-        <v>324</v>
+        <v>477</v>
       </c>
       <c r="D141" t="s">
-        <v>79</v>
-      </c>
-      <c r="E141" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E141" t="s">
         <v>475</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>648</v>
+        <v>19</v>
       </c>
       <c r="H141" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I141">
-        <v>19054274716</v>
-      </c>
-      <c r="J141" t="s">
-        <v>17</v>
+        <v>12893896889</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="B142" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C142" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D142" t="s">
         <v>14</v>
       </c>
       <c r="E142" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F142" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H142" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I142">
-        <v>15199414500</v>
-      </c>
-      <c r="J142" t="s">
-        <v>17</v>
+        <v>12893898989</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="B143" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C143" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D143" t="s">
         <v>14</v>
       </c>
       <c r="E143" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="F143" s="6" t="s">
         <v>19</v>
@@ -6695,50 +6627,53 @@
         <v>26</v>
       </c>
       <c r="I143">
-        <v>15198210555</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14162669336</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="B144" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C144" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D144" t="s">
         <v>14</v>
       </c>
-      <c r="E144" t="s">
-        <v>484</v>
+      <c r="E144" s="20" t="s">
+        <v>481</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>19</v>
+        <v>562</v>
       </c>
       <c r="H144" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I144">
-        <v>15199255523</v>
+        <v>18073456272</v>
+      </c>
+      <c r="J144" s="14" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="145" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="B145" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="C145" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="D145" t="s">
         <v>14</v>
       </c>
-      <c r="E145" s="20" t="s">
-        <v>487</v>
+      <c r="E145" t="s">
+        <v>490</v>
       </c>
       <c r="F145" s="6" t="s">
         <v>19</v>
@@ -6747,27 +6682,27 @@
         <v>33</v>
       </c>
       <c r="I145">
-        <v>15193047465</v>
-      </c>
-      <c r="J145" s="14" t="s">
+        <v>16139335005</v>
+      </c>
+      <c r="J145" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="146" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="B146" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C146" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D146" t="s">
         <v>14</v>
       </c>
       <c r="E146" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="F146" s="6" t="s">
         <v>19</v>
@@ -6776,70 +6711,76 @@
         <v>18</v>
       </c>
       <c r="I146">
-        <v>12893896889</v>
+        <v>16139322525</v>
       </c>
     </row>
     <row r="147" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>27</v>
+        <v>281</v>
       </c>
       <c r="B147" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C147" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="D147" t="s">
         <v>14</v>
       </c>
-      <c r="E147" t="s">
-        <v>489</v>
+      <c r="E147" s="20" t="s">
+        <v>487</v>
       </c>
       <c r="F147" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H147" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I147">
-        <v>12893898989</v>
+        <v>13652053237</v>
+      </c>
+      <c r="J147" s="14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="148" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="B148" t="s">
+        <v>179</v>
+      </c>
+      <c r="C148" t="s">
+        <v>494</v>
+      </c>
+      <c r="D148" t="s">
+        <v>14</v>
+      </c>
+      <c r="E148" s="20" t="s">
+        <v>495</v>
+      </c>
+      <c r="F148" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H148" t="s">
+        <v>16</v>
+      </c>
+      <c r="I148">
+        <v>15193157768</v>
+      </c>
+      <c r="J148" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>71</v>
+      </c>
+      <c r="B149" t="s">
         <v>496</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C149" t="s">
         <v>497</v>
-      </c>
-      <c r="D148" t="s">
-        <v>14</v>
-      </c>
-      <c r="E148" t="s">
-        <v>498</v>
-      </c>
-      <c r="F148" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H148" t="s">
-        <v>26</v>
-      </c>
-      <c r="I148">
-        <v>14162669336</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
-        <v>48</v>
-      </c>
-      <c r="B149" t="s">
-        <v>493</v>
-      </c>
-      <c r="C149" t="s">
-        <v>494</v>
       </c>
       <c r="D149" t="s">
         <v>14</v>
@@ -6848,126 +6789,129 @@
         <v>495</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>576</v>
+        <v>19</v>
       </c>
       <c r="H149" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I149">
-        <v>18073456272</v>
+        <v>15193077768</v>
       </c>
       <c r="J149" s="14" t="s">
-        <v>649</v>
+        <v>34</v>
       </c>
     </row>
     <row r="150" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="B150" t="s">
-        <v>502</v>
+        <v>179</v>
       </c>
       <c r="C150" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="D150" t="s">
         <v>14</v>
       </c>
-      <c r="E150" t="s">
-        <v>504</v>
+      <c r="E150" s="20" t="s">
+        <v>495</v>
       </c>
       <c r="F150" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H150" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I150">
-        <v>16139335005</v>
-      </c>
-      <c r="J150" t="s">
+        <v>19057287768</v>
+      </c>
+      <c r="J150" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="151" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="B151" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="C151" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="D151" t="s">
         <v>14</v>
       </c>
-      <c r="E151" t="s">
-        <v>507</v>
+      <c r="E151" s="20" t="s">
+        <v>495</v>
       </c>
       <c r="F151" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H151" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I151">
-        <v>16139322525</v>
+        <v>19056840141</v>
+      </c>
+      <c r="J151" s="14" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="152" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>295</v>
+        <v>63</v>
       </c>
       <c r="B152" t="s">
-        <v>499</v>
+        <v>181</v>
       </c>
       <c r="C152" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D152" t="s">
         <v>14</v>
       </c>
-      <c r="E152" s="20" t="s">
-        <v>501</v>
+      <c r="E152" t="s">
+        <v>502</v>
       </c>
       <c r="F152" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H152" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I152">
-        <v>13652053237</v>
-      </c>
-      <c r="J152" s="14" t="s">
-        <v>17</v>
+        <v>15199662525</v>
+      </c>
+      <c r="J152" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="153" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>63</v>
+        <v>503</v>
       </c>
       <c r="B153" t="s">
-        <v>186</v>
+        <v>504</v>
       </c>
       <c r="C153" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D153" t="s">
         <v>14</v>
       </c>
-      <c r="E153" s="20" t="s">
-        <v>509</v>
+      <c r="E153" t="s">
+        <v>506</v>
       </c>
       <c r="F153" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H153" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I153">
-        <v>15193157768</v>
+        <v>17056223107</v>
       </c>
       <c r="J153" t="s">
         <v>17</v>
@@ -6975,39 +6919,36 @@
     </row>
     <row r="154" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="B154" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C154" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D154" t="s">
         <v>14</v>
       </c>
-      <c r="E154" s="20" t="s">
+      <c r="E154" t="s">
         <v>509</v>
       </c>
       <c r="F154" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H154" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I154">
-        <v>15193077768</v>
-      </c>
-      <c r="J154" s="14" t="s">
-        <v>34</v>
+        <v>16138282929</v>
       </c>
     </row>
     <row r="155" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="B155" t="s">
-        <v>186</v>
+        <v>511</v>
       </c>
       <c r="C155" t="s">
         <v>512</v>
@@ -7015,25 +6956,22 @@
       <c r="D155" t="s">
         <v>14</v>
       </c>
-      <c r="E155" s="20" t="s">
-        <v>509</v>
+      <c r="E155" t="s">
+        <v>510</v>
       </c>
       <c r="F155" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H155" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I155">
-        <v>19057287768</v>
-      </c>
-      <c r="J155" s="14" t="s">
-        <v>34</v>
+        <v>13434760363</v>
       </c>
     </row>
     <row r="156" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B156" t="s">
         <v>513</v>
@@ -7044,135 +6982,135 @@
       <c r="D156" t="s">
         <v>14</v>
       </c>
-      <c r="E156" s="20" t="s">
-        <v>509</v>
+      <c r="E156" t="s">
+        <v>510</v>
       </c>
       <c r="F156" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H156" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I156">
-        <v>19056840141</v>
-      </c>
-      <c r="J156" s="14" t="s">
-        <v>34</v>
+        <v>14165219993</v>
       </c>
     </row>
     <row r="157" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="B157" t="s">
-        <v>188</v>
+        <v>515</v>
       </c>
       <c r="C157" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D157" t="s">
         <v>14</v>
       </c>
-      <c r="E157" t="s">
-        <v>516</v>
+      <c r="E157" s="20" t="s">
+        <v>517</v>
       </c>
       <c r="F157" s="6" t="s">
-        <v>19</v>
+        <v>562</v>
       </c>
       <c r="H157" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I157">
-        <v>15199662525</v>
-      </c>
-      <c r="J157" t="s">
+        <v>19054519600</v>
+      </c>
+      <c r="J157" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="158" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>517</v>
+        <v>29</v>
       </c>
       <c r="B158" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C158" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="D158" t="s">
         <v>14</v>
       </c>
       <c r="E158" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="F158" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H158" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I158">
-        <v>17056223107</v>
-      </c>
-      <c r="J158" t="s">
-        <v>17</v>
+        <v>14162910420</v>
       </c>
     </row>
     <row r="159" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B159" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C159" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="D159" t="s">
         <v>14</v>
       </c>
       <c r="E159" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="F159" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H159" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="I159">
-        <v>16138282929</v>
+        <v>16135638040</v>
+      </c>
+      <c r="J159" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="160" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="B160" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="C160" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="D160" t="s">
         <v>14</v>
       </c>
-      <c r="E160" t="s">
-        <v>524</v>
+      <c r="E160" s="20" t="s">
+        <v>520</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>19</v>
+        <v>562</v>
       </c>
       <c r="H160" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I160">
-        <v>13434760363</v>
+        <v>19057272020</v>
+      </c>
+      <c r="J160" s="14" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="161" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B161" t="s">
         <v>527</v>
@@ -7184,100 +7122,103 @@
         <v>14</v>
       </c>
       <c r="E161" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="F161" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H161" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I161">
-        <v>14165219993</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16473411333</v>
+      </c>
+      <c r="J161" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B162" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C162" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D162" t="s">
         <v>14</v>
       </c>
       <c r="E162" s="20" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F162" s="6" t="s">
-        <v>576</v>
+        <v>599</v>
       </c>
       <c r="H162" t="s">
         <v>20</v>
       </c>
       <c r="I162">
-        <v>19054519600</v>
+        <v>16475535874</v>
       </c>
       <c r="J162" s="14" t="s">
-        <v>34</v>
+        <v>622</v>
       </c>
     </row>
     <row r="163" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B163" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C163" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D163" t="s">
         <v>14</v>
       </c>
       <c r="E163" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F163" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H163" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I163">
-        <v>14162910420</v>
+        <v>14166516673</v>
+      </c>
+      <c r="J163" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="164" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B164" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C164" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D164" t="s">
         <v>14</v>
       </c>
       <c r="E164" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F164" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H164" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I164">
-        <v>16135638040</v>
-      </c>
-      <c r="J164" t="s">
-        <v>17</v>
+        <v>15196013420</v>
       </c>
     </row>
     <row r="165" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7285,45 +7226,42 @@
         <v>56</v>
       </c>
       <c r="B165" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="C165" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="D165" t="s">
         <v>14</v>
       </c>
-      <c r="E165" s="20" t="s">
-        <v>534</v>
+      <c r="E165" t="s">
+        <v>541</v>
       </c>
       <c r="F165" s="6" t="s">
-        <v>576</v>
+        <v>19</v>
       </c>
       <c r="H165" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I165">
-        <v>19057272020</v>
-      </c>
-      <c r="J165" s="14" t="s">
-        <v>34</v>
+        <v>15196071966</v>
       </c>
     </row>
     <row r="166" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B166" t="s">
-        <v>541</v>
+        <v>202</v>
       </c>
       <c r="C166" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D166" t="s">
         <v>14</v>
       </c>
       <c r="E166" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="F166" s="6" t="s">
         <v>19</v>
@@ -7332,166 +7270,134 @@
         <v>20</v>
       </c>
       <c r="I166">
-        <v>16473411333</v>
+        <v>14162912553</v>
       </c>
       <c r="J166" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="167" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B167" t="s">
-        <v>544</v>
+        <v>134</v>
       </c>
       <c r="C167" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D167" t="s">
         <v>14</v>
       </c>
-      <c r="E167" s="20" t="s">
-        <v>546</v>
+      <c r="E167" t="s">
+        <v>401</v>
       </c>
       <c r="F167" s="6" t="s">
-        <v>613</v>
-      </c>
-      <c r="H167" t="s">
-        <v>20</v>
-      </c>
-      <c r="I167">
-        <v>16475535874</v>
-      </c>
-      <c r="J167" s="14" t="s">
-        <v>640</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="I167"/>
     </row>
     <row r="168" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>23</v>
-      </c>
-      <c r="B168" t="s">
-        <v>550</v>
+        <v>39</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>533</v>
       </c>
       <c r="C168" t="s">
-        <v>551</v>
+        <v>534</v>
       </c>
       <c r="D168" t="s">
         <v>14</v>
       </c>
-      <c r="E168" t="s">
-        <v>552</v>
+      <c r="E168" s="20" t="s">
+        <v>535</v>
       </c>
       <c r="F168" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H168" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I168">
-        <v>14166516673</v>
-      </c>
-      <c r="J168" t="s">
-        <v>34</v>
+        <v>15197429366</v>
       </c>
     </row>
     <row r="169" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="B169" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="C169" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="D169" t="s">
         <v>14</v>
       </c>
       <c r="E169" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="F169" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H169" t="s">
-        <v>18</v>
-      </c>
-      <c r="I169">
-        <v>15196013420</v>
-      </c>
+      <c r="I169"/>
     </row>
     <row r="170" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>57</v>
+        <v>176</v>
       </c>
       <c r="B170" t="s">
-        <v>556</v>
+        <v>499</v>
       </c>
       <c r="C170" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="D170" t="s">
         <v>14</v>
       </c>
       <c r="E170" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F170" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H170" t="s">
-        <v>18</v>
-      </c>
-      <c r="I170">
-        <v>15196071966</v>
-      </c>
+      <c r="I170"/>
     </row>
     <row r="171" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>29</v>
-      </c>
-      <c r="B171" t="s">
-        <v>216</v>
+        <v>45</v>
+      </c>
+      <c r="B171">
+        <v>6420</v>
       </c>
       <c r="C171" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="D171" t="s">
         <v>14</v>
       </c>
       <c r="E171" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="F171" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H171" t="s">
-        <v>20</v>
-      </c>
-      <c r="I171">
-        <v>14162912553</v>
-      </c>
-      <c r="J171" t="s">
-        <v>17</v>
-      </c>
+      <c r="I171"/>
     </row>
     <row r="172" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>73</v>
+        <v>178</v>
       </c>
       <c r="B172" t="s">
-        <v>135</v>
+        <v>209</v>
       </c>
       <c r="C172" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="D172" t="s">
         <v>14</v>
       </c>
       <c r="E172" t="s">
-        <v>415</v>
+        <v>555</v>
       </c>
       <c r="F172" s="6" t="s">
         <v>19</v>
@@ -7500,105 +7406,103 @@
     </row>
     <row r="173" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>39</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>547</v>
+        <v>83</v>
+      </c>
+      <c r="B173" t="s">
+        <v>134</v>
       </c>
       <c r="C173" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="D173" t="s">
         <v>14</v>
       </c>
-      <c r="E173" s="20" t="s">
-        <v>549</v>
+      <c r="E173" t="s">
+        <v>557</v>
       </c>
       <c r="F173" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I173">
-        <v>15197429366</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="I173"/>
     </row>
     <row r="174" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>136</v>
+        <v>558</v>
       </c>
       <c r="B174" t="s">
+        <v>559</v>
+      </c>
+      <c r="C174" t="s">
+        <v>560</v>
+      </c>
+      <c r="D174" t="s">
+        <v>14</v>
+      </c>
+      <c r="E174" t="s">
         <v>561</v>
       </c>
-      <c r="C174" t="s">
+      <c r="F174" s="6" t="s">
         <v>562</v>
-      </c>
-      <c r="D174" t="s">
-        <v>14</v>
-      </c>
-      <c r="E174" t="s">
-        <v>563</v>
-      </c>
-      <c r="F174" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="I174"/>
     </row>
     <row r="175" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>177</v>
+        <v>23</v>
       </c>
       <c r="B175" t="s">
-        <v>513</v>
+        <v>254</v>
       </c>
       <c r="C175" t="s">
+        <v>563</v>
+      </c>
+      <c r="D175" t="s">
+        <v>78</v>
+      </c>
+      <c r="E175" t="s">
         <v>564</v>
       </c>
-      <c r="D175" t="s">
-        <v>14</v>
-      </c>
-      <c r="E175" t="s">
-        <v>565</v>
-      </c>
       <c r="F175" s="6" t="s">
-        <v>19</v>
+        <v>562</v>
       </c>
       <c r="I175"/>
     </row>
     <row r="176" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>45</v>
-      </c>
-      <c r="B176">
-        <v>6420</v>
+        <v>23</v>
+      </c>
+      <c r="B176" t="s">
+        <v>565</v>
       </c>
       <c r="C176" t="s">
         <v>566</v>
       </c>
       <c r="D176" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E176" t="s">
         <v>567</v>
       </c>
       <c r="F176" s="6" t="s">
-        <v>19</v>
+        <v>562</v>
       </c>
       <c r="I176"/>
     </row>
     <row r="177" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>185</v>
+        <v>23</v>
       </c>
       <c r="B177" t="s">
-        <v>223</v>
+        <v>568</v>
       </c>
       <c r="C177" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D177" t="s">
         <v>14</v>
       </c>
       <c r="E177" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F177" s="6" t="s">
         <v>19</v>
@@ -7607,43 +7511,48 @@
     </row>
     <row r="178" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="B178" t="s">
-        <v>135</v>
+        <v>571</v>
       </c>
       <c r="C178" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="D178" t="s">
         <v>14</v>
       </c>
       <c r="E178" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="F178" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I178"/>
+        <v>24</v>
+      </c>
+      <c r="H178" t="s">
+        <v>18</v>
+      </c>
+      <c r="I178">
+        <v>14165388225</v>
+      </c>
     </row>
     <row r="179" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>572</v>
+        <v>23</v>
       </c>
       <c r="B179" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C179" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D179" t="s">
         <v>14</v>
       </c>
       <c r="E179" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="F179" s="6" t="s">
-        <v>576</v>
+        <v>19</v>
       </c>
       <c r="I179"/>
     </row>
@@ -7652,184 +7561,74 @@
         <v>23</v>
       </c>
       <c r="B180" t="s">
-        <v>268</v>
+        <v>577</v>
       </c>
       <c r="C180" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D180" t="s">
-        <v>79</v>
-      </c>
-      <c r="E180" t="s">
-        <v>578</v>
+        <v>78</v>
+      </c>
+      <c r="E180" s="20" t="s">
+        <v>629</v>
       </c>
       <c r="F180" s="6" t="s">
-        <v>576</v>
-      </c>
-      <c r="I180"/>
+        <v>590</v>
+      </c>
+      <c r="H180" t="s">
+        <v>31</v>
+      </c>
+      <c r="I180" t="s">
+        <v>609</v>
+      </c>
+      <c r="J180" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="181" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="B181" t="s">
+        <v>134</v>
+      </c>
+      <c r="C181" t="s">
         <v>579</v>
       </c>
-      <c r="C181" t="s">
+      <c r="D181" t="s">
+        <v>78</v>
+      </c>
+      <c r="E181" t="s">
         <v>580</v>
       </c>
-      <c r="D181" t="s">
-        <v>79</v>
-      </c>
-      <c r="E181" t="s">
-        <v>581</v>
-      </c>
       <c r="F181" s="6" t="s">
-        <v>576</v>
+        <v>19</v>
       </c>
       <c r="I181"/>
     </row>
     <row r="182" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="B182" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C182" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D182" t="s">
         <v>14</v>
       </c>
       <c r="E182" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F182" s="6" t="s">
-        <v>19</v>
+        <v>586</v>
       </c>
       <c r="I182"/>
     </row>
-    <row r="183" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
-        <v>23</v>
-      </c>
-      <c r="B183" t="s">
-        <v>585</v>
-      </c>
-      <c r="C183" t="s">
-        <v>586</v>
-      </c>
-      <c r="D183" t="s">
-        <v>14</v>
-      </c>
-      <c r="E183" t="s">
-        <v>587</v>
-      </c>
-      <c r="F183" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H183" t="s">
-        <v>18</v>
-      </c>
-      <c r="I183">
-        <v>14165388225</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
-        <v>23</v>
-      </c>
-      <c r="B184" t="s">
-        <v>588</v>
-      </c>
-      <c r="C184" t="s">
-        <v>589</v>
-      </c>
-      <c r="D184" t="s">
-        <v>14</v>
-      </c>
-      <c r="E184" t="s">
-        <v>590</v>
-      </c>
-      <c r="F184" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I184"/>
-    </row>
-    <row r="185" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
-        <v>23</v>
-      </c>
-      <c r="B185" t="s">
-        <v>591</v>
-      </c>
-      <c r="C185" t="s">
-        <v>592</v>
-      </c>
-      <c r="D185" t="s">
-        <v>79</v>
-      </c>
-      <c r="E185" s="20" t="s">
-        <v>647</v>
-      </c>
-      <c r="F185" s="6" t="s">
-        <v>604</v>
-      </c>
-      <c r="H185" t="s">
-        <v>31</v>
-      </c>
-      <c r="I185" t="s">
-        <v>627</v>
-      </c>
-      <c r="J185" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
-        <v>64</v>
-      </c>
-      <c r="B186" t="s">
-        <v>135</v>
-      </c>
-      <c r="C186" t="s">
-        <v>593</v>
-      </c>
-      <c r="D186" t="s">
-        <v>79</v>
-      </c>
-      <c r="E186" t="s">
-        <v>594</v>
-      </c>
-      <c r="F186" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I186"/>
-    </row>
-    <row r="187" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
-        <v>77</v>
-      </c>
-      <c r="B187" t="s">
-        <v>597</v>
-      </c>
-      <c r="C187" t="s">
-        <v>598</v>
-      </c>
-      <c r="D187" t="s">
-        <v>14</v>
-      </c>
-      <c r="E187" t="s">
-        <v>599</v>
-      </c>
-      <c r="F187" s="6" t="s">
-        <v>600</v>
-      </c>
-      <c r="I187"/>
-    </row>
   </sheetData>
-  <autoFilter ref="F1:J187" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="F1:J182" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="4">
       <filters>
         <filter val="['Delivery  within a 10km radius of our Waterloo store', 'Same-day delivery']"/>
@@ -7855,7 +7654,7 @@
   </autoFilter>
   <hyperlinks>
     <hyperlink ref="E28" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E44" r:id="rId2" location="/checkout" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E39" r:id="rId2" location="/checkout" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/platform_scrapper/data/cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/cannabis_used_IDs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/528339229bf2dcd2/Desktop/DOT/cannabis-shops-scraping/platform_scrapper/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parsy\OneDrive\Desktop\DOT\cannabis-shops-scraping\platform_scrapper\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="391" documentId="11_052E697344AEC06F7E514043B69FD2FA56FCDEA0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D08248B8-F7DC-42CE-A4FA-5A69EE00475A}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{FD3100CF-290C-466A-9D45-3C977A621E58}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{602E845E-660F-44C0-967A-4257ED24E0FF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$J$182</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$J$175</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="601">
   <si>
     <t>Municipality or First Nation</t>
   </si>
@@ -622,15 +622,6 @@
     <t>http://www.treesinthe6.com/</t>
   </si>
   <si>
-    <t>RED LAKE</t>
-  </si>
-  <si>
-    <t>West End Cannabis Co.</t>
-  </si>
-  <si>
-    <t>260 HOWEY STREET</t>
-  </si>
-  <si>
     <t>Your Local Cannabis</t>
   </si>
   <si>
@@ -895,12 +886,6 @@
     <t>https://evergreenleaf.ca/</t>
   </si>
   <si>
-    <t>Roll'd Cannabis Company</t>
-  </si>
-  <si>
-    <t>500 HAZELDEAN RD SUITE 105</t>
-  </si>
-  <si>
     <t>WHITCHURCH-STOUFFVILLE</t>
   </si>
   <si>
@@ -946,15 +931,6 @@
     <t>https://greenlightdistrict.ca/cannabis-store-barrie/</t>
   </si>
   <si>
-    <t>Harvest Bud Cannabis</t>
-  </si>
-  <si>
-    <t>2155 WYANDOTTE ST W SUITE B</t>
-  </si>
-  <si>
-    <t>https://harvestbud.ca/</t>
-  </si>
-  <si>
     <t>955 WESTNEY RD S, UNIT 4-II</t>
   </si>
   <si>
@@ -967,30 +943,6 @@
     <t>https://herbs-cannabis.com/</t>
   </si>
   <si>
-    <t>MARATHON</t>
-  </si>
-  <si>
-    <t>HIGH SOCIETY CANNABIS CO.</t>
-  </si>
-  <si>
-    <t>13 STEVENS AVENUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THUNDER BAY </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIGH SOCIETY </t>
-  </si>
-  <si>
-    <t>210 ALGOMA ST S SUITE 101A</t>
-  </si>
-  <si>
-    <t>Broadway Cannabis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71 BROADWAY UNIT 2 </t>
-  </si>
-  <si>
     <t>Kapn Chronic</t>
   </si>
   <si>
@@ -1111,18 +1063,6 @@
     <t>3355 HURONTARIO ST SUITE 6A</t>
   </si>
   <si>
-    <t>ARTHUR</t>
-  </si>
-  <si>
-    <t>The Green Cloud Cannabis</t>
-  </si>
-  <si>
-    <t>7999 WELLINGTON RD 109 BUILDING 1 UNIT 3</t>
-  </si>
-  <si>
-    <t>https://thegreencloudcannabis.com/</t>
-  </si>
-  <si>
     <t>The Kensary</t>
   </si>
   <si>
@@ -1843,48 +1783,12 @@
     <t>https://www.cannjah.com/product-det/#/menu</t>
   </si>
   <si>
-    <t>['Delivery / scan map']</t>
-  </si>
-  <si>
-    <t>https://westendcannabisco.com/red-lake-store/#/checkout</t>
-  </si>
-  <si>
     <t>Tymber</t>
   </si>
   <si>
     <t>['doesn't exist']</t>
   </si>
   <si>
-    <t>['Delivery / scan map', 'Same-day delivery']</t>
-  </si>
-  <si>
-    <t>https://getrolld.ca/menu/#/checkout</t>
-  </si>
-  <si>
-    <t>['Delivery within 5 km radius.', 'Same-day delivery']</t>
-  </si>
-  <si>
-    <t>['Delivery within 25km', 'Same-day delivery']</t>
-  </si>
-  <si>
-    <t>https://budler.ca/high-society/marathon/checkout</t>
-  </si>
-  <si>
-    <t>min-20$</t>
-  </si>
-  <si>
-    <t>https://budler.ca/high-society/thunderbay/shop</t>
-  </si>
-  <si>
-    <t>['Delivery 30km radium from 71 Broadway']</t>
-  </si>
-  <si>
-    <t>Minimum Delivery Order is $40.00 $5.00 Delivery Fee or FREE on orders over $50.00</t>
-  </si>
-  <si>
-    <t>https://broadwaycannabis.ca/shop-menu/#/menu</t>
-  </si>
-  <si>
     <t>['Delivery in Courtice, Whitby, Oshawa', 'Same-day delivery']</t>
   </si>
   <si>
@@ -1898,12 +1802,6 @@
   </si>
   <si>
     <t>Minimum Delivery Order is $50.00. $4.99 Delivery Fee or FREE on orders over $75.00</t>
-  </si>
-  <si>
-    <t>['Delivery within Arthur Ontario N0G 1A0']</t>
-  </si>
-  <si>
-    <t>Minimum For Delivery $75 $5 (CASH ONLY) Delivery Fee To Be Paid Upon Delivery</t>
   </si>
   <si>
     <t>$40 minimum order </t>
@@ -1934,7 +1832,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2160,9 +2058,9 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2463,13 +2361,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:N182"/>
+  <dimension ref="A1:N175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G184" sqref="G184"/>
+      <selection activeCell="D178" sqref="D178"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="19.77734375" customWidth="1"/>
     <col min="2" max="2" width="22.5546875" customWidth="1"/>
@@ -2486,7 +2384,7 @@
     <col min="14" max="14" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2524,27 +2422,27 @@
         <v>11</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>587</v>
+        <v>567</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="14.4" hidden="1" customHeight="1">
       <c r="A2" t="s">
         <v>63</v>
       </c>
       <c r="B2" t="s">
+        <v>561</v>
+      </c>
+      <c r="C2" t="s">
+        <v>562</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>581</v>
-      </c>
-      <c r="C2" t="s">
-        <v>582</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>601</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>19</v>
@@ -2559,7 +2457,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="14.4" hidden="1" customHeight="1">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -2573,7 +2471,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>588</v>
+        <v>568</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>19</v>
@@ -2588,7 +2486,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="14.4" hidden="1" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>51</v>
       </c>
@@ -2608,7 +2506,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>589</v>
+        <v>569</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>44</v>
@@ -2620,7 +2518,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="14.4" hidden="1" customHeight="1">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -2649,27 +2547,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="14.4" hidden="1" customHeight="1">
       <c r="A6" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>594</v>
+        <v>574</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>595</v>
+        <v>575</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>597</v>
+        <v>577</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>26</v>
@@ -2685,7 +2583,7 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="14.4" hidden="1" customHeight="1">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -2714,21 +2612,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="3" customFormat="1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" s="3" customFormat="1" ht="14.4" hidden="1" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>592</v>
+        <v>572</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>593</v>
+        <v>573</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>19</v>
@@ -2744,7 +2642,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="14.4" hidden="1" customHeight="1">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -2764,7 +2662,7 @@
         <v>15</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>634</v>
+        <v>600</v>
       </c>
       <c r="H9" t="s">
         <v>16</v>
@@ -2776,7 +2674,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="14.4" hidden="1" customHeight="1">
       <c r="A10" t="s">
         <v>98</v>
       </c>
@@ -2805,7 +2703,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="14.4" hidden="1" customHeight="1">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -2822,7 +2720,7 @@
         <v>104</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>599</v>
+        <v>579</v>
       </c>
       <c r="H11" t="s">
         <v>30</v>
@@ -2834,7 +2732,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="14.4" hidden="1" customHeight="1">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -2851,7 +2749,7 @@
         <v>107</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>590</v>
+        <v>570</v>
       </c>
       <c r="H12" t="s">
         <v>20</v>
@@ -2863,7 +2761,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="14.4" hidden="1" customHeight="1">
       <c r="A13" s="9" t="s">
         <v>108</v>
       </c>
@@ -2883,7 +2781,7 @@
         <v>15</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>591</v>
+        <v>571</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>20</v>
@@ -2895,7 +2793,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="14.4" hidden="1" customHeight="1">
       <c r="A14" t="s">
         <v>84</v>
       </c>
@@ -2912,7 +2810,7 @@
         <v>114</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>599</v>
+        <v>579</v>
       </c>
       <c r="H14" t="s">
         <v>20</v>
@@ -2924,7 +2822,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="14.4" hidden="1" customHeight="1">
       <c r="A15" t="s">
         <v>115</v>
       </c>
@@ -2953,7 +2851,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="14.4" hidden="1" customHeight="1">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2982,7 +2880,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="9" customFormat="1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="9" customFormat="1" ht="14.4" hidden="1" customHeight="1">
       <c r="A17" s="9" t="s">
         <v>43</v>
       </c>
@@ -3002,7 +2900,7 @@
         <v>15</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>598</v>
+        <v>578</v>
       </c>
       <c r="H17" s="9" t="s">
         <v>28</v>
@@ -3014,7 +2912,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A18" t="s">
         <v>129</v>
       </c>
@@ -3043,7 +2941,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A19" t="s">
         <v>76</v>
       </c>
@@ -3060,7 +2958,7 @@
         <v>139</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>599</v>
+        <v>579</v>
       </c>
       <c r="H19" t="s">
         <v>28</v>
@@ -3072,7 +2970,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -3089,7 +2987,7 @@
         <v>143</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>562</v>
+        <v>542</v>
       </c>
       <c r="H20" t="s">
         <v>20</v>
@@ -3101,7 +2999,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -3130,7 +3028,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3159,7 +3057,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -3188,7 +3086,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -3205,7 +3103,7 @@
         <v>75</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>562</v>
+        <v>542</v>
       </c>
       <c r="H24" t="s">
         <v>57</v>
@@ -3217,7 +3115,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A25" t="s">
         <v>86</v>
       </c>
@@ -3234,7 +3132,7 @@
         <v>89</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>562</v>
+        <v>542</v>
       </c>
       <c r="H25" t="s">
         <v>20</v>
@@ -3246,7 +3144,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A26" t="s">
         <v>127</v>
       </c>
@@ -3275,7 +3173,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A27" t="s">
         <v>157</v>
       </c>
@@ -3292,7 +3190,7 @@
         <v>160</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>562</v>
+        <v>542</v>
       </c>
       <c r="H27" t="s">
         <v>22</v>
@@ -3304,7 +3202,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -3321,7 +3219,7 @@
         <v>164</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="H28" t="s">
         <v>33</v>
@@ -3333,7 +3231,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -3350,7 +3248,7 @@
         <v>164</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="H29" t="s">
         <v>26</v>
@@ -3362,7 +3260,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -3391,7 +3289,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A31" t="s">
         <v>166</v>
       </c>
@@ -3408,7 +3306,7 @@
         <v>164</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="H31" t="s">
         <v>18</v>
@@ -3420,7 +3318,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A32" t="s">
         <v>54</v>
       </c>
@@ -3437,7 +3335,7 @@
         <v>164</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="H32" t="s">
         <v>18</v>
@@ -3449,7 +3347,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A33" t="s">
         <v>96</v>
       </c>
@@ -3463,7 +3361,7 @@
         <v>14</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>603</v>
+        <v>583</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>19</v>
@@ -3478,7 +3376,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="14.4" customHeight="1">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -3504,10 +3402,10 @@
         <v>14167030222</v>
       </c>
       <c r="J34" s="14" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A35" t="s">
         <v>71</v>
       </c>
@@ -3524,7 +3422,7 @@
         <v>187</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>562</v>
+        <v>542</v>
       </c>
       <c r="H35" t="s">
         <v>20</v>
@@ -3536,7 +3434,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A36" t="s">
         <v>188</v>
       </c>
@@ -3565,7 +3463,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -3579,7 +3477,7 @@
         <v>14</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>605</v>
+        <v>585</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>19</v>
@@ -3594,7 +3492,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A38" t="s">
         <v>23</v>
       </c>
@@ -3623,50 +3521,50 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A39" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" t="s">
+        <v>201</v>
+      </c>
+      <c r="C39" t="s">
+        <v>202</v>
+      </c>
+      <c r="D39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" t="s">
+        <v>200</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39">
+        <v>14165512550</v>
+      </c>
+      <c r="J39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+      <c r="A40" t="s">
+        <v>133</v>
+      </c>
+      <c r="B40" t="s">
         <v>199</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C40" t="s">
+        <v>203</v>
+      </c>
+      <c r="D40" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" t="s">
         <v>200</v>
-      </c>
-      <c r="C39" t="s">
-        <v>201</v>
-      </c>
-      <c r="D39" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>607</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H39" t="s">
-        <v>18</v>
-      </c>
-      <c r="I39">
-        <v>18077279830</v>
-      </c>
-      <c r="J39" s="14" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>108</v>
-      </c>
-      <c r="B40" t="s">
-        <v>204</v>
-      </c>
-      <c r="C40" t="s">
-        <v>205</v>
-      </c>
-      <c r="D40" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" t="s">
-        <v>203</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>19</v>
@@ -3681,21 +3579,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A41" t="s">
-        <v>133</v>
+        <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C41" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D41" t="s">
         <v>14</v>
       </c>
       <c r="E41" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>19</v>
@@ -3710,96 +3608,96 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B42" t="s">
-        <v>202</v>
+        <v>126</v>
       </c>
       <c r="C42" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="D42" t="s">
         <v>14</v>
       </c>
       <c r="E42" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H42" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I42">
-        <v>14165512550</v>
+        <v>19055293037</v>
       </c>
       <c r="J42" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A43" t="s">
         <v>27</v>
       </c>
       <c r="B43" t="s">
-        <v>126</v>
+        <v>209</v>
       </c>
       <c r="C43" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="D43" t="s">
         <v>14</v>
       </c>
-      <c r="E43" t="s">
-        <v>225</v>
+      <c r="E43" s="20" t="s">
+        <v>211</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>19</v>
+        <v>542</v>
       </c>
       <c r="H43" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I43">
-        <v>19055293037</v>
-      </c>
-      <c r="J43" t="s">
+        <v>12897552839</v>
+      </c>
+      <c r="J43" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A44" t="s">
-        <v>27</v>
+        <v>212</v>
       </c>
       <c r="B44" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C44" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D44" t="s">
         <v>14</v>
       </c>
       <c r="E44" s="20" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>562</v>
+        <v>19</v>
       </c>
       <c r="H44" t="s">
         <v>20</v>
       </c>
       <c r="I44">
-        <v>12897552839</v>
+        <v>13433740100</v>
       </c>
       <c r="J44" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A45" t="s">
-        <v>215</v>
+        <v>101</v>
       </c>
       <c r="B45" t="s">
         <v>216</v>
@@ -3811,7 +3709,7 @@
         <v>14</v>
       </c>
       <c r="E45" s="20" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>19</v>
@@ -3820,56 +3718,56 @@
         <v>20</v>
       </c>
       <c r="I45">
-        <v>13433740100</v>
+        <v>13433980104</v>
       </c>
       <c r="J45" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A46" t="s">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="B46" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="C46" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="D46" t="s">
         <v>14</v>
       </c>
-      <c r="E46" s="20" t="s">
-        <v>218</v>
+      <c r="E46" t="s">
+        <v>229</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H46" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I46">
-        <v>13433980104</v>
-      </c>
-      <c r="J46" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16477465430</v>
+      </c>
+      <c r="J46" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A47" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B47" t="s">
+        <v>227</v>
+      </c>
+      <c r="C47" t="s">
         <v>230</v>
       </c>
-      <c r="C47" t="s">
-        <v>231</v>
-      </c>
       <c r="D47" t="s">
         <v>14</v>
       </c>
       <c r="E47" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>19</v>
@@ -3878,85 +3776,85 @@
         <v>28</v>
       </c>
       <c r="I47">
-        <v>16477465430</v>
-      </c>
-      <c r="J47" t="s">
+        <v>14374101420</v>
+      </c>
+      <c r="J47" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A48" t="s">
-        <v>25</v>
-      </c>
-      <c r="B48" t="s">
-        <v>230</v>
+        <v>23</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>218</v>
       </c>
       <c r="C48" t="s">
+        <v>219</v>
+      </c>
+      <c r="D48" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="H48" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48">
+        <v>14169779343</v>
+      </c>
+      <c r="J48" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+      <c r="A49" t="s">
+        <v>231</v>
+      </c>
+      <c r="B49" t="s">
+        <v>232</v>
+      </c>
+      <c r="C49" t="s">
         <v>233</v>
       </c>
-      <c r="D48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" t="s">
-        <v>232</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H48" t="s">
-        <v>28</v>
-      </c>
-      <c r="I48">
-        <v>14374101420</v>
-      </c>
-      <c r="J48" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>23</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C49" t="s">
-        <v>222</v>
-      </c>
       <c r="D49" t="s">
         <v>14</v>
       </c>
-      <c r="E49" s="20" t="s">
-        <v>223</v>
+      <c r="E49" t="s">
+        <v>234</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>562</v>
+        <v>19</v>
       </c>
       <c r="H49" t="s">
         <v>20</v>
       </c>
       <c r="I49">
-        <v>14169779343</v>
-      </c>
-      <c r="J49" s="14" t="s">
+        <v>15193892839</v>
+      </c>
+      <c r="J49" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A50" t="s">
-        <v>234</v>
+        <v>27</v>
       </c>
       <c r="B50" t="s">
         <v>235</v>
       </c>
       <c r="C50" t="s">
+        <v>237</v>
+      </c>
+      <c r="D50" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" t="s">
         <v>236</v>
-      </c>
-      <c r="D50" t="s">
-        <v>14</v>
-      </c>
-      <c r="E50" t="s">
-        <v>237</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>19</v>
@@ -3965,27 +3863,27 @@
         <v>20</v>
       </c>
       <c r="I50">
-        <v>15193892839</v>
+        <v>19056286324</v>
       </c>
       <c r="J50" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A51" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="B51" t="s">
         <v>238</v>
       </c>
       <c r="C51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D51" t="s">
         <v>14</v>
       </c>
       <c r="E51" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>19</v>
@@ -3994,27 +3892,27 @@
         <v>20</v>
       </c>
       <c r="I51">
-        <v>19056286324</v>
+        <v>12894260469</v>
       </c>
       <c r="J51" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A52" t="s">
-        <v>79</v>
+        <v>240</v>
       </c>
       <c r="B52" t="s">
+        <v>235</v>
+      </c>
+      <c r="C52" t="s">
         <v>241</v>
       </c>
-      <c r="C52" t="s">
-        <v>242</v>
-      </c>
       <c r="D52" t="s">
         <v>14</v>
       </c>
       <c r="E52" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>19</v>
@@ -4023,44 +3921,44 @@
         <v>20</v>
       </c>
       <c r="I52">
-        <v>12894260469</v>
+        <v>12894480170</v>
       </c>
       <c r="J52" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A53" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" t="s">
+        <v>242</v>
+      </c>
+      <c r="C53" t="s">
         <v>243</v>
       </c>
-      <c r="B53" t="s">
-        <v>238</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" t="s">
         <v>244</v>
       </c>
-      <c r="D53" t="s">
-        <v>14</v>
-      </c>
-      <c r="E53" t="s">
-        <v>239</v>
-      </c>
       <c r="F53" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H53" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I53">
-        <v>12894480170</v>
+        <v>14167926477</v>
       </c>
       <c r="J53" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A54" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B54" t="s">
         <v>245</v>
@@ -4078,18 +3976,18 @@
         <v>19</v>
       </c>
       <c r="H54" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I54">
-        <v>14167926477</v>
+        <v>16135367110</v>
       </c>
       <c r="J54" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A55" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B55" t="s">
         <v>248</v>
@@ -4107,76 +4005,76 @@
         <v>19</v>
       </c>
       <c r="H55" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I55">
-        <v>16135367110</v>
+        <v>16138364420</v>
       </c>
       <c r="J55" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A56" t="s">
-        <v>32</v>
+        <v>223</v>
       </c>
       <c r="B56" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="C56" t="s">
+        <v>225</v>
+      </c>
+      <c r="D56" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="H56" t="s">
+        <v>18</v>
+      </c>
+      <c r="I56">
+        <v>18078538888</v>
+      </c>
+      <c r="J56" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+      <c r="A57" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" t="s">
         <v>252</v>
       </c>
-      <c r="D56" t="s">
-        <v>14</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="C57" t="s">
         <v>253</v>
       </c>
-      <c r="F56" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H56" t="s">
-        <v>16</v>
-      </c>
-      <c r="I56">
-        <v>16138364420</v>
-      </c>
-      <c r="J56" t="s">
+      <c r="D57" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" t="s">
+        <v>254</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" t="s">
+        <v>20</v>
+      </c>
+      <c r="I57">
+        <v>14165469944</v>
+      </c>
+      <c r="J57" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>226</v>
-      </c>
-      <c r="B57" t="s">
-        <v>227</v>
-      </c>
-      <c r="C57" t="s">
-        <v>228</v>
-      </c>
-      <c r="D57" t="s">
-        <v>14</v>
-      </c>
-      <c r="E57" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>602</v>
-      </c>
-      <c r="H57" t="s">
-        <v>18</v>
-      </c>
-      <c r="I57">
-        <v>18078538888</v>
-      </c>
-      <c r="J57" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A58" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B58" t="s">
         <v>255</v>
@@ -4194,16 +4092,16 @@
         <v>19</v>
       </c>
       <c r="H58" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I58">
-        <v>14165469944</v>
+        <v>14165260000</v>
       </c>
       <c r="J58" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A59" t="s">
         <v>29</v>
       </c>
@@ -4223,18 +4121,18 @@
         <v>19</v>
       </c>
       <c r="H59" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I59">
-        <v>14165260000</v>
+        <v>16472779835</v>
       </c>
       <c r="J59" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A60" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B60" t="s">
         <v>261</v>
@@ -4252,30 +4150,30 @@
         <v>19</v>
       </c>
       <c r="H60" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I60">
-        <v>16472779835</v>
+        <v>14163951945</v>
       </c>
       <c r="J60" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A61" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B61" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C61" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D61" t="s">
         <v>14</v>
       </c>
       <c r="E61" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>19</v>
@@ -4284,15 +4182,15 @@
         <v>20</v>
       </c>
       <c r="I61">
-        <v>14163951945</v>
+        <v>12893896764</v>
       </c>
       <c r="J61" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A62" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="B62" t="s">
         <v>270</v>
@@ -4304,7 +4202,7 @@
         <v>14</v>
       </c>
       <c r="E62" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>19</v>
@@ -4319,65 +4217,65 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A63" t="s">
-        <v>58</v>
+        <v>264</v>
       </c>
       <c r="B63" t="s">
+        <v>53</v>
+      </c>
+      <c r="C63" t="s">
+        <v>265</v>
+      </c>
+      <c r="D63" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="H63" t="s">
+        <v>28</v>
+      </c>
+      <c r="I63">
+        <v>12267224367</v>
+      </c>
+      <c r="J63" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+      <c r="A64" t="s">
+        <v>51</v>
+      </c>
+      <c r="B64" t="s">
+        <v>272</v>
+      </c>
+      <c r="C64" t="s">
+        <v>274</v>
+      </c>
+      <c r="D64" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" t="s">
         <v>273</v>
       </c>
-      <c r="C63" t="s">
-        <v>274</v>
-      </c>
-      <c r="D63" t="s">
-        <v>14</v>
-      </c>
-      <c r="E63" t="s">
-        <v>272</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H63" t="s">
-        <v>20</v>
-      </c>
-      <c r="I63">
-        <v>12893896764</v>
-      </c>
-      <c r="J63" t="s">
+      <c r="F64" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H64" t="s">
+        <v>30</v>
+      </c>
+      <c r="I64">
+        <v>14162564815</v>
+      </c>
+      <c r="J64" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>267</v>
-      </c>
-      <c r="B64" t="s">
-        <v>53</v>
-      </c>
-      <c r="C64" t="s">
-        <v>268</v>
-      </c>
-      <c r="D64" t="s">
-        <v>14</v>
-      </c>
-      <c r="E64" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>608</v>
-      </c>
-      <c r="H64" t="s">
-        <v>28</v>
-      </c>
-      <c r="I64">
-        <v>12267224367</v>
-      </c>
-      <c r="J64" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" ht="14.4" hidden="1" customHeight="1">
       <c r="A65" t="s">
         <v>51</v>
       </c>
@@ -4385,132 +4283,132 @@
         <v>275</v>
       </c>
       <c r="C65" t="s">
+        <v>276</v>
+      </c>
+      <c r="D65" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" t="s">
         <v>277</v>
       </c>
-      <c r="D65" t="s">
-        <v>14</v>
-      </c>
-      <c r="E65" t="s">
-        <v>276</v>
-      </c>
       <c r="F65" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="G65" s="13" t="s">
+        <v>580</v>
       </c>
       <c r="H65" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I65">
-        <v>14162564815</v>
-      </c>
-      <c r="J65" s="14" t="s">
+        <v>16473451819</v>
+      </c>
+      <c r="J65" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" ht="14.4" hidden="1" customHeight="1">
       <c r="A66" t="s">
-        <v>51</v>
+        <v>279</v>
       </c>
       <c r="B66" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C66" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D66" t="s">
         <v>14</v>
       </c>
       <c r="E66" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G66" s="13" t="s">
-        <v>600</v>
+        <v>19</v>
       </c>
       <c r="H66" t="s">
         <v>20</v>
       </c>
       <c r="I66">
-        <v>16473451819</v>
+        <v>17059350053</v>
       </c>
       <c r="J66" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" ht="14.4" hidden="1" customHeight="1">
       <c r="A67" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B67" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C67" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D67" t="s">
         <v>14</v>
       </c>
       <c r="E67" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H67" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I67">
-        <v>17059350053</v>
+        <v>17053621118</v>
       </c>
       <c r="J67" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" ht="14.4" hidden="1" customHeight="1">
       <c r="A68" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B68" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C68" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D68" t="s">
         <v>14</v>
       </c>
       <c r="E68" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H68" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I68">
-        <v>17053621118</v>
+        <v>19058877555</v>
       </c>
       <c r="J68" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" ht="14.4" hidden="1" customHeight="1">
       <c r="A69" t="s">
+        <v>25</v>
+      </c>
+      <c r="B69" t="s">
+        <v>291</v>
+      </c>
+      <c r="C69" t="s">
         <v>292</v>
       </c>
-      <c r="B69" t="s">
+      <c r="D69" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69" t="s">
         <v>293</v>
-      </c>
-      <c r="C69" t="s">
-        <v>294</v>
-      </c>
-      <c r="D69" t="s">
-        <v>14</v>
-      </c>
-      <c r="E69" t="s">
-        <v>295</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>19</v>
@@ -4519,27 +4417,27 @@
         <v>20</v>
       </c>
       <c r="I69">
-        <v>19058877555</v>
+        <v>14162316003</v>
       </c>
       <c r="J69" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" ht="14.4" hidden="1" customHeight="1">
       <c r="A70" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="B70" t="s">
+        <v>294</v>
+      </c>
+      <c r="C70" t="s">
+        <v>295</v>
+      </c>
+      <c r="D70" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" t="s">
         <v>296</v>
-      </c>
-      <c r="C70" t="s">
-        <v>297</v>
-      </c>
-      <c r="D70" t="s">
-        <v>14</v>
-      </c>
-      <c r="E70" t="s">
-        <v>298</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>19</v>
@@ -4548,27 +4446,27 @@
         <v>20</v>
       </c>
       <c r="I70">
-        <v>14162316003</v>
+        <v>15192563602</v>
       </c>
       <c r="J70" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="14.4" hidden="1" customHeight="1">
       <c r="A71" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="B71" t="s">
+        <v>297</v>
+      </c>
+      <c r="C71" t="s">
+        <v>298</v>
+      </c>
+      <c r="D71" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71" t="s">
         <v>299</v>
-      </c>
-      <c r="C71" t="s">
-        <v>300</v>
-      </c>
-      <c r="D71" t="s">
-        <v>14</v>
-      </c>
-      <c r="E71" t="s">
-        <v>301</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>19</v>
@@ -4577,27 +4475,27 @@
         <v>20</v>
       </c>
       <c r="I71">
-        <v>15192563602</v>
+        <v>19056419333</v>
       </c>
       <c r="J71" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="14.4" hidden="1" customHeight="1">
       <c r="A72" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B72" t="s">
-        <v>302</v>
+        <v>64</v>
       </c>
       <c r="C72" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D72" t="s">
         <v>14</v>
       </c>
       <c r="E72" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>19</v>
@@ -4606,488 +4504,485 @@
         <v>20</v>
       </c>
       <c r="I72">
-        <v>19056419333</v>
+        <v>17052525599</v>
       </c>
       <c r="J72" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" ht="14.4" hidden="1" customHeight="1">
       <c r="A73" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B73" t="s">
-        <v>64</v>
+        <v>303</v>
       </c>
       <c r="C73" t="s">
+        <v>304</v>
+      </c>
+      <c r="D73" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" t="s">
         <v>305</v>
       </c>
-      <c r="D73" t="s">
-        <v>14</v>
-      </c>
-      <c r="E73" t="s">
+      <c r="F73" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H73" t="s">
+        <v>18</v>
+      </c>
+      <c r="I73">
+        <v>14167629922</v>
+      </c>
+      <c r="J73" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="14.4" customHeight="1">
+      <c r="A74" t="s">
+        <v>49</v>
+      </c>
+      <c r="B74" t="s">
         <v>306</v>
       </c>
-      <c r="F73" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H73" t="s">
-        <v>20</v>
-      </c>
-      <c r="I73">
-        <v>17052525599</v>
-      </c>
-      <c r="J73" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>32</v>
-      </c>
-      <c r="B74" t="s">
-        <v>290</v>
-      </c>
       <c r="C74" t="s">
-        <v>291</v>
+        <v>175</v>
       </c>
       <c r="D74" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E74" s="20" t="s">
-        <v>611</v>
+        <v>307</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>19</v>
+        <v>542</v>
       </c>
       <c r="H74" t="s">
         <v>20</v>
       </c>
       <c r="I74">
-        <v>16134351420</v>
+        <v>12899806868</v>
       </c>
       <c r="J74" s="14" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>588</v>
+      </c>
+      <c r="K74" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="14.4" hidden="1" customHeight="1">
       <c r="A75" t="s">
+        <v>51</v>
+      </c>
+      <c r="B75" t="s">
+        <v>161</v>
+      </c>
+      <c r="C75" t="s">
+        <v>308</v>
+      </c>
+      <c r="D75" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75" t="s">
+        <v>309</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H75" t="s">
+        <v>20</v>
+      </c>
+      <c r="I75">
+        <v>14167833008</v>
+      </c>
+      <c r="J75" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="14.4" hidden="1" customHeight="1">
+      <c r="A76" t="s">
+        <v>40</v>
+      </c>
+      <c r="B76" t="s">
+        <v>310</v>
+      </c>
+      <c r="C76" t="s">
+        <v>311</v>
+      </c>
+      <c r="D76" t="s">
+        <v>14</v>
+      </c>
+      <c r="E76" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="H76" t="s">
+        <v>22</v>
+      </c>
+      <c r="I76">
+        <v>17058814629</v>
+      </c>
+      <c r="J76" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="14.4" hidden="1" customHeight="1">
+      <c r="A77" t="s">
+        <v>37</v>
+      </c>
+      <c r="B77" t="s">
+        <v>162</v>
+      </c>
+      <c r="C77" t="s">
+        <v>313</v>
+      </c>
+      <c r="D77" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="H77" t="s">
+        <v>22</v>
+      </c>
+      <c r="I77">
+        <v>17053250068</v>
+      </c>
+      <c r="J77" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="14.4" hidden="1" customHeight="1">
+      <c r="A78" t="s">
         <v>23</v>
       </c>
-      <c r="B75" t="s">
-        <v>311</v>
-      </c>
-      <c r="C75" t="s">
-        <v>312</v>
-      </c>
-      <c r="D75" t="s">
-        <v>14</v>
-      </c>
-      <c r="E75" t="s">
-        <v>313</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H75" t="s">
-        <v>18</v>
-      </c>
-      <c r="I75">
-        <v>14167629922</v>
-      </c>
-      <c r="J75" t="s">
+      <c r="B78" t="s">
+        <v>314</v>
+      </c>
+      <c r="C78" t="s">
+        <v>315</v>
+      </c>
+      <c r="D78" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="H78" t="s">
+        <v>22</v>
+      </c>
+      <c r="I78">
+        <v>14165199159</v>
+      </c>
+      <c r="J78" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>63</v>
-      </c>
-      <c r="B76" t="s">
-        <v>307</v>
-      </c>
-      <c r="C76" t="s">
-        <v>308</v>
-      </c>
-      <c r="D76" t="s">
-        <v>14</v>
-      </c>
-      <c r="E76" s="20" t="s">
-        <v>309</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="H76" t="s">
-        <v>20</v>
-      </c>
-      <c r="I76">
-        <v>12267732105</v>
-      </c>
-      <c r="J76" s="14" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>314</v>
-      </c>
-      <c r="B77" t="s">
-        <v>315</v>
-      </c>
-      <c r="C77" t="s">
-        <v>316</v>
-      </c>
-      <c r="D77" t="s">
-        <v>14</v>
-      </c>
-      <c r="E77" s="20" t="s">
-        <v>614</v>
-      </c>
-      <c r="F77" s="6" t="s">
-        <v>602</v>
-      </c>
-      <c r="H77" t="s">
-        <v>20</v>
-      </c>
-      <c r="I77">
-        <v>18076980012</v>
-      </c>
-      <c r="J77" s="14" t="s">
-        <v>613</v>
-      </c>
-      <c r="K77" s="14" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+    <row r="79" spans="1:11" ht="14.4" hidden="1" customHeight="1">
+      <c r="A79" t="s">
+        <v>46</v>
+      </c>
+      <c r="B79" t="s">
+        <v>162</v>
+      </c>
+      <c r="C79" t="s">
         <v>317</v>
       </c>
-      <c r="B78" t="s">
+      <c r="D79" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" s="20" t="s">
         <v>318</v>
       </c>
-      <c r="C78" t="s">
+      <c r="F79" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="H79" t="s">
+        <v>26</v>
+      </c>
+      <c r="I79">
+        <v>17057071595</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="14.4" hidden="1" customHeight="1">
+      <c r="A80" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" t="s">
         <v>319</v>
       </c>
-      <c r="D78" t="s">
-        <v>14</v>
-      </c>
-      <c r="E78" s="20" t="s">
-        <v>616</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>602</v>
-      </c>
-      <c r="H78" t="s">
-        <v>20</v>
-      </c>
-      <c r="I78">
-        <v>18076989420</v>
-      </c>
-      <c r="J78" s="14" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>71</v>
-      </c>
-      <c r="B79" t="s">
+      <c r="C80" t="s">
         <v>320</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D80" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="D79" t="s">
-        <v>14</v>
-      </c>
-      <c r="E79" s="20" t="s">
-        <v>619</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H79" t="s">
-        <v>33</v>
-      </c>
-      <c r="I79">
-        <v>15193071300</v>
-      </c>
-      <c r="J79" s="14" t="s">
-        <v>617</v>
-      </c>
-      <c r="K79" s="14" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>49</v>
-      </c>
-      <c r="B80" t="s">
-        <v>322</v>
-      </c>
-      <c r="C80" t="s">
-        <v>175</v>
-      </c>
-      <c r="D80" t="s">
-        <v>78</v>
-      </c>
-      <c r="E80" s="20" t="s">
-        <v>323</v>
-      </c>
       <c r="F80" s="6" t="s">
-        <v>562</v>
+        <v>542</v>
       </c>
       <c r="H80" t="s">
         <v>20</v>
       </c>
       <c r="I80">
-        <v>12899806868</v>
+        <v>19052395300</v>
       </c>
       <c r="J80" s="14" t="s">
-        <v>620</v>
-      </c>
-      <c r="K80" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="14.4" hidden="1" customHeight="1">
       <c r="A81" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="B81" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="C81" t="s">
+        <v>322</v>
+      </c>
+      <c r="D81" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81" t="s">
+        <v>323</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H81" t="s">
+        <v>22</v>
+      </c>
+      <c r="I81">
+        <v>16134222211</v>
+      </c>
+      <c r="J81" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="14.4" hidden="1" customHeight="1">
+      <c r="A82" t="s">
+        <v>177</v>
+      </c>
+      <c r="B82" t="s">
+        <v>174</v>
+      </c>
+      <c r="C82" t="s">
         <v>324</v>
       </c>
-      <c r="D81" t="s">
-        <v>14</v>
-      </c>
-      <c r="E81" t="s">
-        <v>325</v>
-      </c>
-      <c r="F81" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H81" t="s">
-        <v>20</v>
-      </c>
-      <c r="I81">
-        <v>14167833008</v>
-      </c>
-      <c r="J81" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>40</v>
-      </c>
-      <c r="B82" t="s">
-        <v>326</v>
-      </c>
-      <c r="C82" t="s">
-        <v>327</v>
-      </c>
       <c r="D82" t="s">
         <v>14</v>
       </c>
-      <c r="E82" s="20" t="s">
-        <v>328</v>
+      <c r="E82" t="s">
+        <v>323</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>602</v>
+        <v>19</v>
       </c>
       <c r="H82" t="s">
         <v>22</v>
       </c>
       <c r="I82">
-        <v>17058814629</v>
+        <v>16134222211</v>
       </c>
       <c r="J82" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" ht="14.4" hidden="1" customHeight="1">
       <c r="A83" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B83" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="C83" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D83" t="s">
         <v>14</v>
       </c>
-      <c r="E83" s="20" t="s">
-        <v>328</v>
+      <c r="E83" t="s">
+        <v>323</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>602</v>
+        <v>19</v>
       </c>
       <c r="H83" t="s">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="I83">
-        <v>17053250068</v>
+        <v>16134222211</v>
       </c>
       <c r="J83" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" ht="14.4" hidden="1" customHeight="1">
       <c r="A84" t="s">
         <v>23</v>
       </c>
       <c r="B84" t="s">
+        <v>326</v>
+      </c>
+      <c r="C84" t="s">
+        <v>327</v>
+      </c>
+      <c r="D84" t="s">
+        <v>14</v>
+      </c>
+      <c r="E84" t="s">
+        <v>328</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H84" t="s">
+        <v>20</v>
+      </c>
+      <c r="I84">
+        <v>14166910899</v>
+      </c>
+      <c r="J84" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="14.4" hidden="1" customHeight="1">
+      <c r="A85" t="s">
+        <v>76</v>
+      </c>
+      <c r="B85" t="s">
+        <v>329</v>
+      </c>
+      <c r="C85" t="s">
         <v>330</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D85" t="s">
+        <v>14</v>
+      </c>
+      <c r="E85" t="s">
+        <v>328</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I85">
+        <v>14164105442</v>
+      </c>
+      <c r="J85" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="14.4" hidden="1" customHeight="1">
+      <c r="A86" t="s">
+        <v>23</v>
+      </c>
+      <c r="B86" t="s">
+        <v>332</v>
+      </c>
+      <c r="C86" t="s">
+        <v>333</v>
+      </c>
+      <c r="D86" t="s">
+        <v>14</v>
+      </c>
+      <c r="E86" s="20" t="s">
         <v>331</v>
       </c>
-      <c r="D84" t="s">
-        <v>14</v>
-      </c>
-      <c r="E84" s="20" t="s">
-        <v>332</v>
-      </c>
-      <c r="F84" s="6" t="s">
-        <v>602</v>
-      </c>
-      <c r="H84" t="s">
-        <v>22</v>
-      </c>
-      <c r="I84">
-        <v>14165199159</v>
-      </c>
-      <c r="J84" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>46</v>
-      </c>
-      <c r="B85" t="s">
-        <v>162</v>
-      </c>
-      <c r="C85" t="s">
-        <v>333</v>
-      </c>
-      <c r="D85" t="s">
-        <v>14</v>
-      </c>
-      <c r="E85" s="20" t="s">
-        <v>334</v>
-      </c>
-      <c r="F85" s="6" t="s">
-        <v>602</v>
-      </c>
-      <c r="H85" t="s">
-        <v>26</v>
-      </c>
-      <c r="I85">
-        <v>17057071595</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>84</v>
-      </c>
-      <c r="B86" t="s">
-        <v>335</v>
-      </c>
-      <c r="C86" t="s">
-        <v>336</v>
-      </c>
-      <c r="D86" t="s">
-        <v>14</v>
-      </c>
-      <c r="E86" s="20" t="s">
-        <v>337</v>
-      </c>
       <c r="F86" s="6" t="s">
-        <v>562</v>
+        <v>542</v>
       </c>
       <c r="H86" t="s">
         <v>20</v>
       </c>
       <c r="I86">
-        <v>19052395300</v>
+        <v>14167922447</v>
       </c>
       <c r="J86" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="14.4" hidden="1" customHeight="1">
       <c r="A87" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="B87" t="s">
-        <v>174</v>
+        <v>334</v>
       </c>
       <c r="C87" t="s">
+        <v>335</v>
+      </c>
+      <c r="D87" t="s">
+        <v>14</v>
+      </c>
+      <c r="E87" t="s">
+        <v>336</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H87" t="s">
+        <v>20</v>
+      </c>
+      <c r="I87">
+        <v>19054973131</v>
+      </c>
+      <c r="J87" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="14.4" customHeight="1">
+      <c r="A88" t="s">
+        <v>128</v>
+      </c>
+      <c r="B88" t="s">
+        <v>337</v>
+      </c>
+      <c r="C88" t="s">
         <v>338</v>
       </c>
-      <c r="D87" t="s">
-        <v>14</v>
-      </c>
-      <c r="E87" t="s">
+      <c r="D88" t="s">
+        <v>14</v>
+      </c>
+      <c r="E88" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="F87" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H87" t="s">
-        <v>22</v>
-      </c>
-      <c r="I87">
-        <v>16134222211</v>
-      </c>
-      <c r="J87" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>177</v>
-      </c>
-      <c r="B88" t="s">
-        <v>174</v>
-      </c>
-      <c r="C88" t="s">
+      <c r="F88" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="H88" t="s">
+        <v>20</v>
+      </c>
+      <c r="I88">
+        <v>17053449086</v>
+      </c>
+      <c r="J88" s="14" t="s">
+        <v>590</v>
+      </c>
+      <c r="K88" s="14" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="14.4" hidden="1" customHeight="1">
+      <c r="A89" t="s">
+        <v>43</v>
+      </c>
+      <c r="B89" t="s">
         <v>340</v>
-      </c>
-      <c r="D88" t="s">
-        <v>14</v>
-      </c>
-      <c r="E88" t="s">
-        <v>339</v>
-      </c>
-      <c r="F88" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H88" t="s">
-        <v>22</v>
-      </c>
-      <c r="I88">
-        <v>16134222211</v>
-      </c>
-      <c r="J88" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>36</v>
-      </c>
-      <c r="B89" t="s">
-        <v>174</v>
       </c>
       <c r="C89" t="s">
         <v>341</v>
@@ -5095,37 +4990,40 @@
       <c r="D89" t="s">
         <v>14</v>
       </c>
-      <c r="E89" t="s">
-        <v>339</v>
+      <c r="E89" s="20" t="s">
+        <v>342</v>
       </c>
       <c r="F89" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H89" t="s">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="I89">
-        <v>16134222211</v>
-      </c>
-      <c r="J89" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19054979585</v>
+      </c>
+      <c r="J89" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K89" s="25" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="14.4" hidden="1" customHeight="1">
       <c r="A90" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B90" t="s">
+        <v>343</v>
+      </c>
+      <c r="C90" t="s">
+        <v>344</v>
+      </c>
+      <c r="D90" t="s">
+        <v>14</v>
+      </c>
+      <c r="E90" s="20" t="s">
         <v>342</v>
-      </c>
-      <c r="C90" t="s">
-        <v>343</v>
-      </c>
-      <c r="D90" t="s">
-        <v>14</v>
-      </c>
-      <c r="E90" t="s">
-        <v>344</v>
       </c>
       <c r="F90" s="6" t="s">
         <v>19</v>
@@ -5134,85 +5032,91 @@
         <v>20</v>
       </c>
       <c r="I90">
-        <v>14166910899</v>
-      </c>
-      <c r="J90" t="s">
+        <v>19054979522</v>
+      </c>
+      <c r="J90" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K90" s="25" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="14.4" hidden="1" customHeight="1">
       <c r="A91" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="B91" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C91" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D91" t="s">
         <v>14</v>
       </c>
       <c r="E91" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="F91" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H91" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I91">
-        <v>14164105442</v>
+        <v>14164771489</v>
       </c>
       <c r="J91" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" ht="14.4" hidden="1" customHeight="1">
       <c r="A92" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="B92" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C92" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D92" t="s">
         <v>14</v>
       </c>
       <c r="E92" s="20" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>562</v>
+        <v>19</v>
       </c>
       <c r="H92" t="s">
         <v>20</v>
       </c>
       <c r="I92">
-        <v>14167922447</v>
+        <v>19054979550</v>
       </c>
       <c r="J92" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K92" s="25" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="14.4" hidden="1" customHeight="1">
       <c r="A93" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="B93" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C93" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D93" t="s">
         <v>14</v>
       </c>
       <c r="E93" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F93" s="6" t="s">
         <v>19</v>
@@ -5221,18 +5125,18 @@
         <v>20</v>
       </c>
       <c r="I93">
-        <v>19054973131</v>
+        <v>15197848420</v>
       </c>
       <c r="J93" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" ht="14.4" hidden="1" customHeight="1">
       <c r="A94" t="s">
-        <v>128</v>
-      </c>
-      <c r="B94" t="s">
-        <v>353</v>
+        <v>23</v>
+      </c>
+      <c r="B94">
+        <v>1922</v>
       </c>
       <c r="C94" t="s">
         <v>354</v>
@@ -5240,28 +5144,25 @@
       <c r="D94" t="s">
         <v>14</v>
       </c>
-      <c r="E94" s="20" t="s">
+      <c r="E94" t="s">
         <v>355</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>599</v>
+        <v>19</v>
       </c>
       <c r="H94" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I94">
-        <v>17053449086</v>
-      </c>
-      <c r="J94" s="14" t="s">
-        <v>622</v>
-      </c>
-      <c r="K94" s="14" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14162628744</v>
+      </c>
+      <c r="J94" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="14.4" hidden="1" customHeight="1">
       <c r="A95" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B95" t="s">
         <v>356</v>
@@ -5272,28 +5173,25 @@
       <c r="D95" t="s">
         <v>14</v>
       </c>
-      <c r="E95" s="20" t="s">
+      <c r="E95" t="s">
         <v>358</v>
       </c>
       <c r="F95" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H95" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I95">
-        <v>19054979585</v>
-      </c>
-      <c r="J95" s="14" t="s">
+        <v>14162640777</v>
+      </c>
+      <c r="J95" t="s">
         <v>17</v>
       </c>
-      <c r="K95" s="25" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:11" ht="14.4" hidden="1" customHeight="1">
       <c r="A96" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B96" t="s">
         <v>359</v>
@@ -5304,133 +5202,127 @@
       <c r="D96" t="s">
         <v>14</v>
       </c>
-      <c r="E96" s="20" t="s">
-        <v>358</v>
+      <c r="E96" t="s">
+        <v>361</v>
       </c>
       <c r="F96" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H96" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I96">
-        <v>19054979522</v>
-      </c>
-      <c r="J96" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K96" s="25" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14165518982</v>
+      </c>
+      <c r="J96" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="14.4" hidden="1" customHeight="1">
       <c r="A97" t="s">
         <v>23</v>
       </c>
       <c r="B97" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C97" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D97" t="s">
         <v>14</v>
       </c>
       <c r="E97" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F97" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H97" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I97">
-        <v>14164771489</v>
+        <v>14166908081</v>
       </c>
       <c r="J97" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" ht="14.4" hidden="1" customHeight="1">
       <c r="A98" t="s">
+        <v>76</v>
+      </c>
+      <c r="B98" t="s">
+        <v>362</v>
+      </c>
+      <c r="C98" t="s">
+        <v>365</v>
+      </c>
+      <c r="D98" t="s">
+        <v>14</v>
+      </c>
+      <c r="E98" t="s">
+        <v>364</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H98" t="s">
+        <v>16</v>
+      </c>
+      <c r="I98">
+        <v>14162837433</v>
+      </c>
+      <c r="J98" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="14.4" customHeight="1">
+      <c r="A99" t="s">
         <v>86</v>
       </c>
-      <c r="B98" t="s">
-        <v>356</v>
-      </c>
-      <c r="C98" t="s">
-        <v>361</v>
-      </c>
-      <c r="D98" t="s">
-        <v>14</v>
-      </c>
-      <c r="E98" s="20" t="s">
-        <v>358</v>
-      </c>
-      <c r="F98" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H98" t="s">
+      <c r="B99" t="s">
+        <v>112</v>
+      </c>
+      <c r="C99" t="s">
+        <v>349</v>
+      </c>
+      <c r="D99" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="H99" t="s">
         <v>20</v>
       </c>
-      <c r="I98">
-        <v>19054979550</v>
-      </c>
-      <c r="J98" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K98" s="25" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>362</v>
-      </c>
-      <c r="B99" t="s">
-        <v>363</v>
-      </c>
-      <c r="C99" t="s">
-        <v>364</v>
-      </c>
-      <c r="D99" t="s">
-        <v>14</v>
-      </c>
-      <c r="E99" s="20" t="s">
-        <v>365</v>
-      </c>
-      <c r="F99" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="H99" t="s">
-        <v>33</v>
-      </c>
       <c r="I99">
-        <v>15198485656</v>
+        <v>19052782222</v>
       </c>
       <c r="J99" s="14" t="s">
-        <v>625</v>
-      </c>
-      <c r="K99" s="14" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>594</v>
+      </c>
+      <c r="K99" s="26" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="14.4" hidden="1" customHeight="1">
       <c r="A100" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="B100" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C100" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D100" t="s">
         <v>14</v>
       </c>
       <c r="E100" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F100" s="6" t="s">
         <v>19</v>
@@ -5439,79 +5331,73 @@
         <v>20</v>
       </c>
       <c r="I100">
-        <v>15197848420</v>
+        <v>16132333000</v>
       </c>
       <c r="J100" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" ht="14.4" hidden="1" customHeight="1">
       <c r="A101" t="s">
-        <v>23</v>
-      </c>
-      <c r="B101">
-        <v>1922</v>
+        <v>27</v>
+      </c>
+      <c r="B101" t="s">
+        <v>375</v>
       </c>
       <c r="C101" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D101" t="s">
         <v>14</v>
       </c>
       <c r="E101" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F101" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H101" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I101">
-        <v>14162628744</v>
-      </c>
-      <c r="J101" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>12892461172</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="14.4" hidden="1" customHeight="1">
       <c r="A102" t="s">
-        <v>29</v>
+        <v>379</v>
       </c>
       <c r="B102" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C102" t="s">
+        <v>380</v>
+      </c>
+      <c r="D102" t="s">
+        <v>14</v>
+      </c>
+      <c r="E102" t="s">
         <v>377</v>
       </c>
-      <c r="D102" t="s">
-        <v>14</v>
-      </c>
-      <c r="E102" t="s">
-        <v>378</v>
-      </c>
       <c r="F102" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H102" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I102">
-        <v>14162640777</v>
-      </c>
-      <c r="J102" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>12262530859</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="14.4" hidden="1" customHeight="1">
       <c r="A103" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="B103" t="s">
-        <v>379</v>
+        <v>134</v>
       </c>
       <c r="C103" t="s">
-        <v>380</v>
+        <v>205</v>
       </c>
       <c r="D103" t="s">
         <v>14</v>
@@ -5523,53 +5409,47 @@
         <v>19</v>
       </c>
       <c r="H103" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I103">
-        <v>14165518982</v>
-      </c>
-      <c r="J103" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15193542255</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="14.4" hidden="1" customHeight="1">
       <c r="A104" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="B104" t="s">
+        <v>134</v>
+      </c>
+      <c r="C104" t="s">
         <v>382</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
+        <v>14</v>
+      </c>
+      <c r="E104" t="s">
+        <v>381</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H104" t="s">
+        <v>52</v>
+      </c>
+      <c r="I104">
+        <v>15192582544</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="14.4" hidden="1" customHeight="1">
+      <c r="A105" t="s">
+        <v>63</v>
+      </c>
+      <c r="B105" t="s">
+        <v>134</v>
+      </c>
+      <c r="C105" t="s">
         <v>383</v>
-      </c>
-      <c r="D104" t="s">
-        <v>14</v>
-      </c>
-      <c r="E104" t="s">
-        <v>384</v>
-      </c>
-      <c r="F104" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H104" t="s">
-        <v>20</v>
-      </c>
-      <c r="I104">
-        <v>14166908081</v>
-      </c>
-      <c r="J104" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>76</v>
-      </c>
-      <c r="B105" t="s">
-        <v>382</v>
-      </c>
-      <c r="C105" t="s">
-        <v>385</v>
       </c>
       <c r="D105" t="s">
         <v>14</v>
@@ -5581,143 +5461,137 @@
         <v>19</v>
       </c>
       <c r="H105" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I105">
-        <v>14162837433</v>
-      </c>
-      <c r="J105" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15192500712</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="14.4" hidden="1" customHeight="1">
       <c r="A106" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="B106" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="C106" t="s">
+        <v>385</v>
+      </c>
+      <c r="D106" t="s">
+        <v>14</v>
+      </c>
+      <c r="E106" t="s">
+        <v>384</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H106" t="s">
+        <v>18</v>
+      </c>
+      <c r="I106">
+        <v>15199678818</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="14.4" customHeight="1">
+      <c r="A107" t="s">
+        <v>43</v>
+      </c>
+      <c r="B107" t="s">
+        <v>367</v>
+      </c>
+      <c r="C107" t="s">
+        <v>368</v>
+      </c>
+      <c r="D107" t="s">
+        <v>14</v>
+      </c>
+      <c r="E107" s="20" t="s">
         <v>369</v>
       </c>
-      <c r="D106" t="s">
-        <v>14</v>
-      </c>
-      <c r="E106" s="20" t="s">
-        <v>370</v>
-      </c>
-      <c r="F106" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="H106" t="s">
-        <v>20</v>
-      </c>
-      <c r="I106">
-        <v>19052782222</v>
-      </c>
-      <c r="J106" s="14" t="s">
-        <v>628</v>
-      </c>
-      <c r="K106" s="26" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>36</v>
-      </c>
-      <c r="B107" t="s">
-        <v>392</v>
-      </c>
-      <c r="C107" t="s">
-        <v>393</v>
-      </c>
-      <c r="D107" t="s">
-        <v>14</v>
-      </c>
-      <c r="E107" t="s">
-        <v>394</v>
-      </c>
       <c r="F107" s="6" t="s">
-        <v>19</v>
+        <v>579</v>
       </c>
       <c r="H107" t="s">
         <v>20</v>
       </c>
       <c r="I107">
-        <v>16132333000</v>
-      </c>
-      <c r="J107" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19054530698</v>
+      </c>
+      <c r="J107" s="14" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="14.4" hidden="1" customHeight="1">
       <c r="A108" t="s">
-        <v>27</v>
+        <v>386</v>
       </c>
       <c r="B108" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="C108" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="D108" t="s">
         <v>14</v>
       </c>
       <c r="E108" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="F108" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H108" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I108">
-        <v>12892461172</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16133722272</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="14.4" customHeight="1">
       <c r="A109" t="s">
-        <v>399</v>
+        <v>50</v>
       </c>
       <c r="B109" t="s">
-        <v>398</v>
+        <v>367</v>
       </c>
       <c r="C109" t="s">
-        <v>400</v>
+        <v>370</v>
       </c>
       <c r="D109" t="s">
         <v>14</v>
       </c>
-      <c r="E109" t="s">
-        <v>397</v>
+      <c r="E109" s="20" t="s">
+        <v>371</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>19</v>
+        <v>579</v>
       </c>
       <c r="H109" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I109">
-        <v>12262530859</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15197446627</v>
+      </c>
+      <c r="J109" s="14" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="14.4" hidden="1" customHeight="1">
       <c r="A110" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="B110" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C110" t="s">
-        <v>208</v>
+        <v>390</v>
       </c>
       <c r="D110" t="s">
         <v>14</v>
       </c>
       <c r="E110" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="F110" s="6" t="s">
         <v>19</v>
@@ -5726,177 +5600,177 @@
         <v>18</v>
       </c>
       <c r="I110">
-        <v>15193542255</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19054956454</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="14.4" hidden="1" customHeight="1">
       <c r="A111" t="s">
-        <v>63</v>
+        <v>366</v>
       </c>
       <c r="B111" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C111" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="D111" t="s">
         <v>14</v>
       </c>
       <c r="E111" t="s">
+        <v>391</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H111" t="s">
+        <v>18</v>
+      </c>
+      <c r="I111">
+        <v>19054956454</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="14.4" hidden="1" customHeight="1">
+      <c r="A112" t="s">
+        <v>27</v>
+      </c>
+      <c r="B112" t="s">
+        <v>393</v>
+      </c>
+      <c r="C112" t="s">
+        <v>394</v>
+      </c>
+      <c r="D112" t="s">
+        <v>14</v>
+      </c>
+      <c r="E112" t="s">
+        <v>395</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H112" t="s">
+        <v>18</v>
+      </c>
+      <c r="I112">
+        <v>19055288955</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+      <c r="A113" t="s">
+        <v>45</v>
+      </c>
+      <c r="B113" t="s">
+        <v>396</v>
+      </c>
+      <c r="C113" t="s">
+        <v>397</v>
+      </c>
+      <c r="D113" t="s">
+        <v>14</v>
+      </c>
+      <c r="E113" t="s">
+        <v>398</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H113" t="s">
+        <v>28</v>
+      </c>
+      <c r="I113">
+        <v>15197571001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+      <c r="A114" t="s">
+        <v>136</v>
+      </c>
+      <c r="B114" t="s">
+        <v>399</v>
+      </c>
+      <c r="C114" t="s">
+        <v>400</v>
+      </c>
+      <c r="D114" t="s">
+        <v>14</v>
+      </c>
+      <c r="E114" t="s">
         <v>401</v>
       </c>
-      <c r="F111" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H111" t="s">
-        <v>52</v>
-      </c>
-      <c r="I111">
-        <v>15192582544</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>63</v>
-      </c>
-      <c r="B112" t="s">
-        <v>134</v>
-      </c>
-      <c r="C112" t="s">
-        <v>403</v>
-      </c>
-      <c r="D112" t="s">
-        <v>14</v>
-      </c>
-      <c r="E112" t="s">
-        <v>404</v>
-      </c>
-      <c r="F112" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H112" t="s">
-        <v>28</v>
-      </c>
-      <c r="I112">
-        <v>15192500712</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>63</v>
-      </c>
-      <c r="B113" t="s">
-        <v>134</v>
-      </c>
-      <c r="C113" t="s">
-        <v>405</v>
-      </c>
-      <c r="D113" t="s">
-        <v>14</v>
-      </c>
-      <c r="E113" t="s">
-        <v>404</v>
-      </c>
-      <c r="F113" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H113" t="s">
-        <v>18</v>
-      </c>
-      <c r="I113">
-        <v>15199678818</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>43</v>
-      </c>
-      <c r="B114" t="s">
-        <v>387</v>
-      </c>
-      <c r="C114" t="s">
-        <v>388</v>
-      </c>
-      <c r="D114" t="s">
-        <v>14</v>
-      </c>
-      <c r="E114" s="20" t="s">
-        <v>389</v>
-      </c>
       <c r="F114" s="6" t="s">
-        <v>599</v>
+        <v>19</v>
       </c>
       <c r="H114" t="s">
         <v>20</v>
       </c>
       <c r="I114">
-        <v>19054530698</v>
-      </c>
-      <c r="J114" s="14" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>17053209898</v>
+      </c>
+      <c r="J114" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A115" t="s">
+        <v>50</v>
+      </c>
+      <c r="B115" t="s">
+        <v>402</v>
+      </c>
+      <c r="C115" t="s">
+        <v>403</v>
+      </c>
+      <c r="D115" t="s">
+        <v>14</v>
+      </c>
+      <c r="E115" t="s">
+        <v>404</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H115" t="s">
+        <v>33</v>
+      </c>
+      <c r="I115">
+        <v>15199545323</v>
+      </c>
+      <c r="J115" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+      <c r="A116" t="s">
+        <v>405</v>
+      </c>
+      <c r="B116" t="s">
         <v>406</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C116" t="s">
         <v>407</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D116" t="s">
+        <v>14</v>
+      </c>
+      <c r="E116" t="s">
         <v>408</v>
       </c>
-      <c r="D115" t="s">
-        <v>14</v>
-      </c>
-      <c r="E115" t="s">
+      <c r="F116" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H116" t="s">
+        <v>18</v>
+      </c>
+      <c r="I116">
+        <v>12892982856</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+      <c r="A117" t="s">
+        <v>180</v>
+      </c>
+      <c r="B117" t="s">
         <v>409</v>
-      </c>
-      <c r="F115" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H115" t="s">
-        <v>26</v>
-      </c>
-      <c r="I115">
-        <v>16133722272</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>50</v>
-      </c>
-      <c r="B116" t="s">
-        <v>387</v>
-      </c>
-      <c r="C116" t="s">
-        <v>390</v>
-      </c>
-      <c r="D116" t="s">
-        <v>14</v>
-      </c>
-      <c r="E116" s="20" t="s">
-        <v>391</v>
-      </c>
-      <c r="F116" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="H116" t="s">
-        <v>20</v>
-      </c>
-      <c r="I116">
-        <v>15197446627</v>
-      </c>
-      <c r="J116" s="14" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>43</v>
-      </c>
-      <c r="B117" t="s">
-        <v>144</v>
       </c>
       <c r="C117" t="s">
         <v>410</v>
@@ -5911,180 +5785,184 @@
         <v>19</v>
       </c>
       <c r="H117" t="s">
+        <v>20</v>
+      </c>
+      <c r="I117">
+        <v>19055633933</v>
+      </c>
+      <c r="J117" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+      <c r="A118" t="s">
+        <v>38</v>
+      </c>
+      <c r="B118" t="s">
+        <v>412</v>
+      </c>
+      <c r="C118" t="s">
+        <v>413</v>
+      </c>
+      <c r="D118" t="s">
+        <v>14</v>
+      </c>
+      <c r="E118" t="s">
+        <v>414</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H118" t="s">
+        <v>20</v>
+      </c>
+      <c r="I118">
+        <v>12892732782</v>
+      </c>
+      <c r="J118" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+      <c r="A119" t="s">
+        <v>45</v>
+      </c>
+      <c r="B119" t="s">
+        <v>415</v>
+      </c>
+      <c r="C119" t="s">
+        <v>416</v>
+      </c>
+      <c r="D119" t="s">
+        <v>14</v>
+      </c>
+      <c r="E119" t="s">
+        <v>417</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H119" t="s">
+        <v>26</v>
+      </c>
+      <c r="I119">
+        <v>15193040660</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+      <c r="A120" t="s">
+        <v>207</v>
+      </c>
+      <c r="B120" t="s">
+        <v>418</v>
+      </c>
+      <c r="C120" t="s">
+        <v>419</v>
+      </c>
+      <c r="D120" t="s">
+        <v>14</v>
+      </c>
+      <c r="E120" t="s">
+        <v>417</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H120" t="s">
         <v>18</v>
       </c>
-      <c r="I117">
-        <v>19054956454</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>386</v>
-      </c>
-      <c r="B118" t="s">
-        <v>144</v>
-      </c>
-      <c r="C118" t="s">
-        <v>412</v>
-      </c>
-      <c r="D118" t="s">
-        <v>14</v>
-      </c>
-      <c r="E118" t="s">
-        <v>411</v>
-      </c>
-      <c r="F118" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H118" t="s">
-        <v>18</v>
-      </c>
-      <c r="I118">
-        <v>19054956454</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>27</v>
-      </c>
-      <c r="B119" t="s">
-        <v>413</v>
-      </c>
-      <c r="C119" t="s">
-        <v>414</v>
-      </c>
-      <c r="D119" t="s">
-        <v>14</v>
-      </c>
-      <c r="E119" t="s">
-        <v>415</v>
-      </c>
-      <c r="F119" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H119" t="s">
-        <v>18</v>
-      </c>
-      <c r="I119">
-        <v>19055288955</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>45</v>
-      </c>
-      <c r="B120" t="s">
-        <v>416</v>
-      </c>
-      <c r="C120" t="s">
-        <v>417</v>
-      </c>
-      <c r="D120" t="s">
-        <v>14</v>
-      </c>
-      <c r="E120" t="s">
-        <v>418</v>
-      </c>
-      <c r="F120" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H120" t="s">
+      <c r="I120">
+        <v>17058879567</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+      <c r="A121" t="s">
+        <v>23</v>
+      </c>
+      <c r="B121" t="s">
+        <v>420</v>
+      </c>
+      <c r="C121" t="s">
+        <v>421</v>
+      </c>
+      <c r="D121" t="s">
+        <v>14</v>
+      </c>
+      <c r="E121" t="s">
+        <v>422</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H121" t="s">
         <v>28</v>
       </c>
-      <c r="I120">
-        <v>15197571001</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>136</v>
-      </c>
-      <c r="B121" t="s">
-        <v>419</v>
-      </c>
-      <c r="C121" t="s">
-        <v>420</v>
-      </c>
-      <c r="D121" t="s">
-        <v>14</v>
-      </c>
-      <c r="E121" t="s">
-        <v>421</v>
-      </c>
-      <c r="F121" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H121" t="s">
-        <v>20</v>
-      </c>
-      <c r="I121">
-        <v>17053209898</v>
-      </c>
-      <c r="J121" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I121"/>
+    </row>
+    <row r="122" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A122" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B122" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C122" t="s">
-        <v>423</v>
-      </c>
-      <c r="D122" t="s">
-        <v>14</v>
-      </c>
-      <c r="E122" t="s">
         <v>424</v>
       </c>
+      <c r="D122" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="E122" s="17" t="s">
+        <v>426</v>
+      </c>
       <c r="F122" s="6" t="s">
-        <v>19</v>
+        <v>570</v>
       </c>
       <c r="H122" t="s">
-        <v>33</v>
-      </c>
-      <c r="I122">
-        <v>15199545323</v>
+        <v>57</v>
+      </c>
+      <c r="I122" s="16">
+        <v>12262711259</v>
       </c>
       <c r="J122" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A123" t="s">
-        <v>425</v>
+        <v>66</v>
       </c>
       <c r="B123" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C123" t="s">
+        <v>428</v>
+      </c>
+      <c r="D123" t="s">
+        <v>14</v>
+      </c>
+      <c r="E123" t="s">
+        <v>429</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H123" t="s">
+        <v>20</v>
+      </c>
+      <c r="I123">
+        <v>14164002045</v>
+      </c>
+      <c r="J123" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+      <c r="A124" t="s">
+        <v>23</v>
+      </c>
+      <c r="B124" t="s">
         <v>427</v>
-      </c>
-      <c r="D123" t="s">
-        <v>14</v>
-      </c>
-      <c r="E123" t="s">
-        <v>428</v>
-      </c>
-      <c r="F123" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H123" t="s">
-        <v>18</v>
-      </c>
-      <c r="I123">
-        <v>12892982856</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>180</v>
-      </c>
-      <c r="B124" t="s">
-        <v>429</v>
       </c>
       <c r="C124" t="s">
         <v>430</v>
@@ -6093,7 +5971,7 @@
         <v>14</v>
       </c>
       <c r="E124" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F124" s="6" t="s">
         <v>19</v>
@@ -6102,27 +5980,27 @@
         <v>20</v>
       </c>
       <c r="I124">
-        <v>19055633933</v>
+        <v>14164002883</v>
       </c>
       <c r="J124" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A125" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B125" t="s">
+        <v>431</v>
+      </c>
+      <c r="C125" t="s">
         <v>432</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
+        <v>14</v>
+      </c>
+      <c r="E125" t="s">
         <v>433</v>
-      </c>
-      <c r="D125" t="s">
-        <v>14</v>
-      </c>
-      <c r="E125" t="s">
-        <v>434</v>
       </c>
       <c r="F125" s="6" t="s">
         <v>19</v>
@@ -6131,79 +6009,85 @@
         <v>20</v>
       </c>
       <c r="I125">
-        <v>12892732782</v>
+        <v>14167813128</v>
       </c>
       <c r="J125" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A126" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B126" t="s">
+        <v>434</v>
+      </c>
+      <c r="C126" t="s">
         <v>435</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
+        <v>14</v>
+      </c>
+      <c r="E126" t="s">
         <v>436</v>
       </c>
-      <c r="D126" t="s">
-        <v>14</v>
-      </c>
-      <c r="E126" t="s">
+      <c r="F126" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H126" t="s">
+        <v>22</v>
+      </c>
+      <c r="I126">
+        <v>14166308420</v>
+      </c>
+      <c r="J126" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+      <c r="A127" t="s">
+        <v>81</v>
+      </c>
+      <c r="B127" t="s">
+        <v>434</v>
+      </c>
+      <c r="C127" t="s">
         <v>437</v>
       </c>
-      <c r="F126" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H126" t="s">
-        <v>26</v>
-      </c>
-      <c r="I126">
-        <v>15193040660</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>210</v>
-      </c>
-      <c r="B127" t="s">
+      <c r="D127" t="s">
+        <v>14</v>
+      </c>
+      <c r="E127" t="s">
         <v>438</v>
       </c>
-      <c r="C127" t="s">
-        <v>439</v>
-      </c>
-      <c r="D127" t="s">
-        <v>14</v>
-      </c>
-      <c r="E127" t="s">
-        <v>437</v>
-      </c>
       <c r="F127" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H127" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I127">
-        <v>17058879567</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15482884335</v>
+      </c>
+      <c r="J127" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A128" t="s">
         <v>23</v>
       </c>
       <c r="B128" t="s">
+        <v>434</v>
+      </c>
+      <c r="C128" t="s">
+        <v>439</v>
+      </c>
+      <c r="D128" t="s">
+        <v>14</v>
+      </c>
+      <c r="E128" t="s">
         <v>440</v>
-      </c>
-      <c r="C128" t="s">
-        <v>441</v>
-      </c>
-      <c r="D128" t="s">
-        <v>14</v>
-      </c>
-      <c r="E128" t="s">
-        <v>442</v>
       </c>
       <c r="F128" s="6" t="s">
         <v>19</v>
@@ -6211,52 +6095,54 @@
       <c r="H128" t="s">
         <v>28</v>
       </c>
-      <c r="I128"/>
-    </row>
-    <row r="129" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I128">
+        <v>16478079072</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A129" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="B129" t="s">
+        <v>82</v>
+      </c>
+      <c r="C129" t="s">
+        <v>302</v>
+      </c>
+      <c r="D129" t="s">
+        <v>78</v>
+      </c>
+      <c r="E129" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="H129" t="s">
+        <v>20</v>
+      </c>
+      <c r="I129">
+        <v>19054274716</v>
+      </c>
+      <c r="J129" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+      <c r="A130" t="s">
+        <v>71</v>
+      </c>
+      <c r="B130" t="s">
+        <v>442</v>
+      </c>
+      <c r="C130" t="s">
         <v>443</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D130" t="s">
+        <v>14</v>
+      </c>
+      <c r="E130" t="s">
         <v>444</v>
-      </c>
-      <c r="D129" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="E129" s="17" t="s">
-        <v>446</v>
-      </c>
-      <c r="F129" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="H129" t="s">
-        <v>57</v>
-      </c>
-      <c r="I129" s="16">
-        <v>12262711259</v>
-      </c>
-      <c r="J129" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>66</v>
-      </c>
-      <c r="B130" t="s">
-        <v>447</v>
-      </c>
-      <c r="C130" t="s">
-        <v>448</v>
-      </c>
-      <c r="D130" t="s">
-        <v>14</v>
-      </c>
-      <c r="E130" t="s">
-        <v>449</v>
       </c>
       <c r="F130" s="6" t="s">
         <v>19</v>
@@ -6265,105 +6151,99 @@
         <v>20</v>
       </c>
       <c r="I130">
-        <v>14164002045</v>
+        <v>15199414500</v>
       </c>
       <c r="J130" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A131" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="B131" t="s">
+        <v>445</v>
+      </c>
+      <c r="C131" t="s">
+        <v>446</v>
+      </c>
+      <c r="D131" t="s">
+        <v>14</v>
+      </c>
+      <c r="E131" t="s">
         <v>447</v>
       </c>
-      <c r="C131" t="s">
+      <c r="F131" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H131" t="s">
+        <v>26</v>
+      </c>
+      <c r="I131">
+        <v>15198210555</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+      <c r="A132" t="s">
+        <v>366</v>
+      </c>
+      <c r="B132" t="s">
+        <v>448</v>
+      </c>
+      <c r="C132" t="s">
+        <v>449</v>
+      </c>
+      <c r="D132" t="s">
+        <v>14</v>
+      </c>
+      <c r="E132" t="s">
         <v>450</v>
       </c>
-      <c r="D131" t="s">
-        <v>14</v>
-      </c>
-      <c r="E131" t="s">
-        <v>449</v>
-      </c>
-      <c r="F131" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H131" t="s">
-        <v>20</v>
-      </c>
-      <c r="I131">
-        <v>14164002883</v>
-      </c>
-      <c r="J131" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>23</v>
-      </c>
-      <c r="B132" t="s">
+      <c r="F132" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H132" t="s">
+        <v>26</v>
+      </c>
+      <c r="I132">
+        <v>15199255523</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+      <c r="A133" t="s">
+        <v>45</v>
+      </c>
+      <c r="B133" t="s">
         <v>451</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C133" t="s">
         <v>452</v>
       </c>
-      <c r="D132" t="s">
-        <v>14</v>
-      </c>
-      <c r="E132" t="s">
+      <c r="D133" t="s">
+        <v>14</v>
+      </c>
+      <c r="E133" s="20" t="s">
         <v>453</v>
       </c>
-      <c r="F132" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H132" t="s">
-        <v>20</v>
-      </c>
-      <c r="I132">
-        <v>14167813128</v>
-      </c>
-      <c r="J132" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>51</v>
-      </c>
-      <c r="B133" t="s">
-        <v>454</v>
-      </c>
-      <c r="C133" t="s">
-        <v>455</v>
-      </c>
-      <c r="D133" t="s">
-        <v>14</v>
-      </c>
-      <c r="E133" t="s">
+      <c r="F133" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H133" t="s">
+        <v>33</v>
+      </c>
+      <c r="I133">
+        <v>15193047465</v>
+      </c>
+      <c r="J133" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+      <c r="A134" t="s">
+        <v>27</v>
+      </c>
+      <c r="B134" t="s">
         <v>456</v>
-      </c>
-      <c r="F133" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H133" t="s">
-        <v>22</v>
-      </c>
-      <c r="I133">
-        <v>14166308420</v>
-      </c>
-      <c r="J133" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>81</v>
-      </c>
-      <c r="B134" t="s">
-        <v>454</v>
       </c>
       <c r="C134" t="s">
         <v>457</v>
@@ -6372,267 +6252,273 @@
         <v>14</v>
       </c>
       <c r="E134" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="F134" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H134" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I134">
-        <v>15482884335</v>
-      </c>
-      <c r="J134" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>12893896889</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A135" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B135" t="s">
         <v>454</v>
       </c>
       <c r="C135" t="s">
+        <v>458</v>
+      </c>
+      <c r="D135" t="s">
+        <v>14</v>
+      </c>
+      <c r="E135" t="s">
+        <v>455</v>
+      </c>
+      <c r="F135" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H135" t="s">
+        <v>18</v>
+      </c>
+      <c r="I135">
+        <v>12893898989</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+      <c r="A136" t="s">
+        <v>29</v>
+      </c>
+      <c r="B136" t="s">
+        <v>462</v>
+      </c>
+      <c r="C136" t="s">
+        <v>463</v>
+      </c>
+      <c r="D136" t="s">
+        <v>14</v>
+      </c>
+      <c r="E136" t="s">
+        <v>464</v>
+      </c>
+      <c r="F136" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H136" t="s">
+        <v>26</v>
+      </c>
+      <c r="I136">
+        <v>14162669336</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="14.4" customHeight="1">
+      <c r="A137" t="s">
+        <v>48</v>
+      </c>
+      <c r="B137" t="s">
         <v>459</v>
       </c>
-      <c r="D135" t="s">
-        <v>14</v>
-      </c>
-      <c r="E135" t="s">
+      <c r="C137" t="s">
         <v>460</v>
       </c>
-      <c r="F135" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H135" t="s">
-        <v>28</v>
-      </c>
-      <c r="I135">
-        <v>16478079072</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>21</v>
-      </c>
-      <c r="B136" t="s">
-        <v>82</v>
-      </c>
-      <c r="C136" t="s">
-        <v>310</v>
-      </c>
-      <c r="D136" t="s">
-        <v>78</v>
-      </c>
-      <c r="E136" s="20" t="s">
+      <c r="D137" t="s">
+        <v>14</v>
+      </c>
+      <c r="E137" s="20" t="s">
         <v>461</v>
       </c>
-      <c r="F136" s="6" t="s">
-        <v>630</v>
-      </c>
-      <c r="H136" t="s">
-        <v>20</v>
-      </c>
-      <c r="I136">
-        <v>19054274716</v>
-      </c>
-      <c r="J136" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>71</v>
-      </c>
-      <c r="B137" t="s">
-        <v>462</v>
-      </c>
-      <c r="C137" t="s">
-        <v>463</v>
-      </c>
-      <c r="D137" t="s">
-        <v>14</v>
-      </c>
-      <c r="E137" t="s">
-        <v>464</v>
-      </c>
       <c r="F137" s="6" t="s">
-        <v>19</v>
+        <v>542</v>
       </c>
       <c r="H137" t="s">
         <v>20</v>
       </c>
       <c r="I137">
-        <v>15199414500</v>
-      </c>
-      <c r="J137" t="s">
+        <v>18073456272</v>
+      </c>
+      <c r="J137" s="14" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+      <c r="A138" t="s">
+        <v>65</v>
+      </c>
+      <c r="B138" t="s">
+        <v>468</v>
+      </c>
+      <c r="C138" t="s">
+        <v>469</v>
+      </c>
+      <c r="D138" t="s">
+        <v>14</v>
+      </c>
+      <c r="E138" t="s">
+        <v>470</v>
+      </c>
+      <c r="F138" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H138" t="s">
+        <v>33</v>
+      </c>
+      <c r="I138">
+        <v>16139335005</v>
+      </c>
+      <c r="J138" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+      <c r="A139" t="s">
+        <v>65</v>
+      </c>
+      <c r="B139" t="s">
+        <v>471</v>
+      </c>
+      <c r="C139" t="s">
+        <v>472</v>
+      </c>
+      <c r="D139" t="s">
+        <v>14</v>
+      </c>
+      <c r="E139" t="s">
+        <v>473</v>
+      </c>
+      <c r="F139" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H139" t="s">
+        <v>18</v>
+      </c>
+      <c r="I139">
+        <v>16139322525</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+      <c r="A140" t="s">
+        <v>278</v>
+      </c>
+      <c r="B140" t="s">
+        <v>465</v>
+      </c>
+      <c r="C140" t="s">
+        <v>466</v>
+      </c>
+      <c r="D140" t="s">
+        <v>14</v>
+      </c>
+      <c r="E140" s="20" t="s">
+        <v>467</v>
+      </c>
+      <c r="F140" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H140" t="s">
+        <v>20</v>
+      </c>
+      <c r="I140">
+        <v>13652053237</v>
+      </c>
+      <c r="J140" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>80</v>
-      </c>
-      <c r="B138" t="s">
-        <v>465</v>
-      </c>
-      <c r="C138" t="s">
-        <v>466</v>
-      </c>
-      <c r="D138" t="s">
-        <v>14</v>
-      </c>
-      <c r="E138" t="s">
-        <v>467</v>
-      </c>
-      <c r="F138" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H138" t="s">
-        <v>26</v>
-      </c>
-      <c r="I138">
-        <v>15198210555</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>386</v>
-      </c>
-      <c r="B139" t="s">
-        <v>468</v>
-      </c>
-      <c r="C139" t="s">
-        <v>469</v>
-      </c>
-      <c r="D139" t="s">
-        <v>14</v>
-      </c>
-      <c r="E139" t="s">
-        <v>470</v>
-      </c>
-      <c r="F139" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H139" t="s">
-        <v>26</v>
-      </c>
-      <c r="I139">
-        <v>15199255523</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>45</v>
-      </c>
-      <c r="B140" t="s">
-        <v>471</v>
-      </c>
-      <c r="C140" t="s">
-        <v>472</v>
-      </c>
-      <c r="D140" t="s">
-        <v>14</v>
-      </c>
-      <c r="E140" s="20" t="s">
-        <v>473</v>
-      </c>
-      <c r="F140" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H140" t="s">
-        <v>33</v>
-      </c>
-      <c r="I140">
-        <v>15193047465</v>
-      </c>
-      <c r="J140" s="14" t="s">
+    <row r="141" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+      <c r="A141" t="s">
+        <v>62</v>
+      </c>
+      <c r="B141" t="s">
+        <v>179</v>
+      </c>
+      <c r="C141" t="s">
+        <v>474</v>
+      </c>
+      <c r="D141" t="s">
+        <v>14</v>
+      </c>
+      <c r="E141" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="F141" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H141" t="s">
+        <v>16</v>
+      </c>
+      <c r="I141">
+        <v>15193157768</v>
+      </c>
+      <c r="J141" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+      <c r="A142" t="s">
+        <v>71</v>
+      </c>
+      <c r="B142" t="s">
+        <v>476</v>
+      </c>
+      <c r="C142" t="s">
+        <v>477</v>
+      </c>
+      <c r="D142" t="s">
+        <v>14</v>
+      </c>
+      <c r="E142" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="F142" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H142" t="s">
+        <v>16</v>
+      </c>
+      <c r="I142">
+        <v>15193077768</v>
+      </c>
+      <c r="J142" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>27</v>
-      </c>
-      <c r="B141" t="s">
-        <v>476</v>
-      </c>
-      <c r="C141" t="s">
-        <v>477</v>
-      </c>
-      <c r="D141" t="s">
-        <v>14</v>
-      </c>
-      <c r="E141" t="s">
+    <row r="143" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+      <c r="A143" t="s">
+        <v>49</v>
+      </c>
+      <c r="B143" t="s">
+        <v>179</v>
+      </c>
+      <c r="C143" t="s">
+        <v>478</v>
+      </c>
+      <c r="D143" t="s">
+        <v>14</v>
+      </c>
+      <c r="E143" s="20" t="s">
         <v>475</v>
       </c>
-      <c r="F141" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H141" t="s">
-        <v>18</v>
-      </c>
-      <c r="I141">
-        <v>12893896889</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
-        <v>27</v>
-      </c>
-      <c r="B142" t="s">
-        <v>474</v>
-      </c>
-      <c r="C142" t="s">
-        <v>478</v>
-      </c>
-      <c r="D142" t="s">
-        <v>14</v>
-      </c>
-      <c r="E142" t="s">
-        <v>475</v>
-      </c>
-      <c r="F142" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H142" t="s">
-        <v>18</v>
-      </c>
-      <c r="I142">
-        <v>12893898989</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
-        <v>29</v>
-      </c>
-      <c r="B143" t="s">
-        <v>482</v>
-      </c>
-      <c r="C143" t="s">
-        <v>483</v>
-      </c>
-      <c r="D143" t="s">
-        <v>14</v>
-      </c>
-      <c r="E143" t="s">
-        <v>484</v>
-      </c>
       <c r="F143" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H143" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I143">
-        <v>14162669336</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19057287768</v>
+      </c>
+      <c r="J143" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A144" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B144" t="s">
         <v>479</v>
@@ -6644,282 +6530,273 @@
         <v>14</v>
       </c>
       <c r="E144" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="F144" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H144" t="s">
+        <v>16</v>
+      </c>
+      <c r="I144">
+        <v>19056840141</v>
+      </c>
+      <c r="J144" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+      <c r="A145" t="s">
+        <v>63</v>
+      </c>
+      <c r="B145" t="s">
+        <v>181</v>
+      </c>
+      <c r="C145" t="s">
         <v>481</v>
       </c>
-      <c r="F144" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="H144" t="s">
-        <v>20</v>
-      </c>
-      <c r="I144">
-        <v>18073456272</v>
-      </c>
-      <c r="J144" s="14" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
-        <v>65</v>
-      </c>
-      <c r="B145" t="s">
-        <v>488</v>
-      </c>
-      <c r="C145" t="s">
-        <v>489</v>
-      </c>
       <c r="D145" t="s">
         <v>14</v>
       </c>
       <c r="E145" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="F145" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H145" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I145">
-        <v>16139335005</v>
+        <v>15199662525</v>
       </c>
       <c r="J145" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A146" t="s">
-        <v>65</v>
+        <v>483</v>
       </c>
       <c r="B146" t="s">
+        <v>484</v>
+      </c>
+      <c r="C146" t="s">
+        <v>485</v>
+      </c>
+      <c r="D146" t="s">
+        <v>14</v>
+      </c>
+      <c r="E146" t="s">
+        <v>486</v>
+      </c>
+      <c r="F146" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H146" t="s">
+        <v>20</v>
+      </c>
+      <c r="I146">
+        <v>17056223107</v>
+      </c>
+      <c r="J146" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+      <c r="A147" t="s">
+        <v>35</v>
+      </c>
+      <c r="B147" t="s">
+        <v>487</v>
+      </c>
+      <c r="C147" t="s">
+        <v>488</v>
+      </c>
+      <c r="D147" t="s">
+        <v>14</v>
+      </c>
+      <c r="E147" t="s">
+        <v>489</v>
+      </c>
+      <c r="F147" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H147" t="s">
+        <v>52</v>
+      </c>
+      <c r="I147">
+        <v>16138282929</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+      <c r="A148" t="s">
+        <v>122</v>
+      </c>
+      <c r="B148" t="s">
         <v>491</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C148" t="s">
         <v>492</v>
       </c>
-      <c r="D146" t="s">
-        <v>14</v>
-      </c>
-      <c r="E146" t="s">
+      <c r="D148" t="s">
+        <v>14</v>
+      </c>
+      <c r="E148" t="s">
+        <v>490</v>
+      </c>
+      <c r="F148" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H148" t="s">
+        <v>18</v>
+      </c>
+      <c r="I148">
+        <v>13434760363</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+      <c r="A149" t="s">
+        <v>25</v>
+      </c>
+      <c r="B149" t="s">
         <v>493</v>
       </c>
-      <c r="F146" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H146" t="s">
+      <c r="C149" t="s">
+        <v>494</v>
+      </c>
+      <c r="D149" t="s">
+        <v>14</v>
+      </c>
+      <c r="E149" t="s">
+        <v>490</v>
+      </c>
+      <c r="F149" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H149" t="s">
         <v>18</v>
       </c>
-      <c r="I146">
-        <v>16139322525</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>281</v>
-      </c>
-      <c r="B147" t="s">
-        <v>485</v>
-      </c>
-      <c r="C147" t="s">
-        <v>486</v>
-      </c>
-      <c r="D147" t="s">
-        <v>14</v>
-      </c>
-      <c r="E147" s="20" t="s">
-        <v>487</v>
-      </c>
-      <c r="F147" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H147" t="s">
-        <v>20</v>
-      </c>
-      <c r="I147">
-        <v>13652053237</v>
-      </c>
-      <c r="J147" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
-        <v>62</v>
-      </c>
-      <c r="B148" t="s">
-        <v>179</v>
-      </c>
-      <c r="C148" t="s">
-        <v>494</v>
-      </c>
-      <c r="D148" t="s">
-        <v>14</v>
-      </c>
-      <c r="E148" s="20" t="s">
+      <c r="I149">
+        <v>14165219993</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+      <c r="A150" t="s">
+        <v>43</v>
+      </c>
+      <c r="B150" t="s">
         <v>495</v>
       </c>
-      <c r="F148" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H148" t="s">
-        <v>16</v>
-      </c>
-      <c r="I148">
-        <v>15193157768</v>
-      </c>
-      <c r="J148" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
-        <v>71</v>
-      </c>
-      <c r="B149" t="s">
+      <c r="C150" t="s">
         <v>496</v>
       </c>
-      <c r="C149" t="s">
+      <c r="D150" t="s">
+        <v>14</v>
+      </c>
+      <c r="E150" s="20" t="s">
         <v>497</v>
       </c>
-      <c r="D149" t="s">
-        <v>14</v>
-      </c>
-      <c r="E149" s="20" t="s">
-        <v>495</v>
-      </c>
-      <c r="F149" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H149" t="s">
-        <v>16</v>
-      </c>
-      <c r="I149">
-        <v>15193077768</v>
-      </c>
-      <c r="J149" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
-        <v>49</v>
-      </c>
-      <c r="B150" t="s">
-        <v>179</v>
-      </c>
-      <c r="C150" t="s">
-        <v>498</v>
-      </c>
-      <c r="D150" t="s">
-        <v>14</v>
-      </c>
-      <c r="E150" s="20" t="s">
-        <v>495</v>
-      </c>
       <c r="F150" s="6" t="s">
-        <v>19</v>
+        <v>542</v>
       </c>
       <c r="H150" t="s">
         <v>20</v>
       </c>
       <c r="I150">
-        <v>19057287768</v>
+        <v>19054519600</v>
       </c>
       <c r="J150" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A151" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B151" t="s">
+        <v>501</v>
+      </c>
+      <c r="C151" t="s">
+        <v>502</v>
+      </c>
+      <c r="D151" t="s">
+        <v>14</v>
+      </c>
+      <c r="E151" t="s">
+        <v>503</v>
+      </c>
+      <c r="F151" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H151" t="s">
+        <v>26</v>
+      </c>
+      <c r="I151">
+        <v>14162910420</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+      <c r="A152" t="s">
+        <v>36</v>
+      </c>
+      <c r="B152" t="s">
+        <v>504</v>
+      </c>
+      <c r="C152" t="s">
+        <v>505</v>
+      </c>
+      <c r="D152" t="s">
+        <v>14</v>
+      </c>
+      <c r="E152" t="s">
+        <v>506</v>
+      </c>
+      <c r="F152" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H152" t="s">
+        <v>20</v>
+      </c>
+      <c r="I152">
+        <v>16135638040</v>
+      </c>
+      <c r="J152" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+      <c r="A153" t="s">
+        <v>55</v>
+      </c>
+      <c r="B153" t="s">
+        <v>498</v>
+      </c>
+      <c r="C153" t="s">
         <v>499</v>
       </c>
-      <c r="C151" t="s">
+      <c r="D153" t="s">
+        <v>14</v>
+      </c>
+      <c r="E153" s="20" t="s">
         <v>500</v>
       </c>
-      <c r="D151" t="s">
-        <v>14</v>
-      </c>
-      <c r="E151" s="20" t="s">
-        <v>495</v>
-      </c>
-      <c r="F151" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H151" t="s">
-        <v>16</v>
-      </c>
-      <c r="I151">
-        <v>19056840141</v>
-      </c>
-      <c r="J151" s="14" t="s">
+      <c r="F153" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="H153" t="s">
+        <v>33</v>
+      </c>
+      <c r="I153">
+        <v>19057272020</v>
+      </c>
+      <c r="J153" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
-        <v>63</v>
-      </c>
-      <c r="B152" t="s">
-        <v>181</v>
-      </c>
-      <c r="C152" t="s">
-        <v>501</v>
-      </c>
-      <c r="D152" t="s">
-        <v>14</v>
-      </c>
-      <c r="E152" t="s">
-        <v>502</v>
-      </c>
-      <c r="F152" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H152" t="s">
-        <v>22</v>
-      </c>
-      <c r="I152">
-        <v>15199662525</v>
-      </c>
-      <c r="J152" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
-        <v>503</v>
-      </c>
-      <c r="B153" t="s">
-        <v>504</v>
-      </c>
-      <c r="C153" t="s">
-        <v>505</v>
-      </c>
-      <c r="D153" t="s">
-        <v>14</v>
-      </c>
-      <c r="E153" t="s">
-        <v>506</v>
-      </c>
-      <c r="F153" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H153" t="s">
-        <v>20</v>
-      </c>
-      <c r="I153">
-        <v>17056223107</v>
-      </c>
-      <c r="J153" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A154" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B154" t="s">
         <v>507</v>
@@ -6937,134 +6814,140 @@
         <v>19</v>
       </c>
       <c r="H154" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="I154">
-        <v>16138282929</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16473411333</v>
+      </c>
+      <c r="J154" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" ht="14.4" customHeight="1">
       <c r="A155" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="B155" t="s">
+        <v>510</v>
+      </c>
+      <c r="C155" t="s">
         <v>511</v>
       </c>
-      <c r="C155" t="s">
+      <c r="D155" t="s">
+        <v>14</v>
+      </c>
+      <c r="E155" s="20" t="s">
         <v>512</v>
       </c>
-      <c r="D155" t="s">
-        <v>14</v>
-      </c>
-      <c r="E155" t="s">
-        <v>510</v>
-      </c>
       <c r="F155" s="6" t="s">
-        <v>19</v>
+        <v>579</v>
       </c>
       <c r="H155" t="s">
+        <v>20</v>
+      </c>
+      <c r="I155">
+        <v>16475535874</v>
+      </c>
+      <c r="J155" s="14" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+      <c r="A156" t="s">
+        <v>23</v>
+      </c>
+      <c r="B156" t="s">
+        <v>516</v>
+      </c>
+      <c r="C156" t="s">
+        <v>517</v>
+      </c>
+      <c r="D156" t="s">
+        <v>14</v>
+      </c>
+      <c r="E156" t="s">
+        <v>518</v>
+      </c>
+      <c r="F156" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H156" t="s">
+        <v>22</v>
+      </c>
+      <c r="I156">
+        <v>14166516673</v>
+      </c>
+      <c r="J156" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+      <c r="A157" t="s">
+        <v>58</v>
+      </c>
+      <c r="B157" t="s">
+        <v>519</v>
+      </c>
+      <c r="C157" t="s">
+        <v>520</v>
+      </c>
+      <c r="D157" t="s">
+        <v>14</v>
+      </c>
+      <c r="E157" t="s">
+        <v>521</v>
+      </c>
+      <c r="F157" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H157" t="s">
         <v>18</v>
       </c>
-      <c r="I155">
-        <v>13434760363</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
-        <v>25</v>
-      </c>
-      <c r="B156" t="s">
-        <v>513</v>
-      </c>
-      <c r="C156" t="s">
-        <v>514</v>
-      </c>
-      <c r="D156" t="s">
-        <v>14</v>
-      </c>
-      <c r="E156" t="s">
-        <v>510</v>
-      </c>
-      <c r="F156" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H156" t="s">
+      <c r="I157">
+        <v>15196013420</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+      <c r="A158" t="s">
+        <v>56</v>
+      </c>
+      <c r="B158" t="s">
+        <v>522</v>
+      </c>
+      <c r="C158" t="s">
+        <v>523</v>
+      </c>
+      <c r="D158" t="s">
+        <v>14</v>
+      </c>
+      <c r="E158" t="s">
+        <v>521</v>
+      </c>
+      <c r="F158" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H158" t="s">
         <v>18</v>
       </c>
-      <c r="I156">
-        <v>14165219993</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
-        <v>43</v>
-      </c>
-      <c r="B157" t="s">
-        <v>515</v>
-      </c>
-      <c r="C157" t="s">
-        <v>516</v>
-      </c>
-      <c r="D157" t="s">
-        <v>14</v>
-      </c>
-      <c r="E157" s="20" t="s">
-        <v>517</v>
-      </c>
-      <c r="F157" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="H157" t="s">
-        <v>20</v>
-      </c>
-      <c r="I157">
-        <v>19054519600</v>
-      </c>
-      <c r="J157" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
+      <c r="I158">
+        <v>15196071966</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+      <c r="A159" t="s">
         <v>29</v>
       </c>
-      <c r="B158" t="s">
-        <v>521</v>
-      </c>
-      <c r="C158" t="s">
-        <v>522</v>
-      </c>
-      <c r="D158" t="s">
-        <v>14</v>
-      </c>
-      <c r="E158" t="s">
-        <v>523</v>
-      </c>
-      <c r="F158" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H158" t="s">
-        <v>26</v>
-      </c>
-      <c r="I158">
-        <v>14162910420</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
-        <v>36</v>
-      </c>
       <c r="B159" t="s">
+        <v>199</v>
+      </c>
+      <c r="C159" t="s">
         <v>524</v>
       </c>
-      <c r="C159" t="s">
+      <c r="D159" t="s">
+        <v>14</v>
+      </c>
+      <c r="E159" t="s">
         <v>525</v>
-      </c>
-      <c r="D159" t="s">
-        <v>14</v>
-      </c>
-      <c r="E159" t="s">
-        <v>526</v>
       </c>
       <c r="F159" s="6" t="s">
         <v>19</v>
@@ -7073,301 +6956,251 @@
         <v>20</v>
       </c>
       <c r="I159">
-        <v>16135638040</v>
+        <v>14162912553</v>
       </c>
       <c r="J159" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="160" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A160" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="B160" t="s">
-        <v>518</v>
+        <v>134</v>
       </c>
       <c r="C160" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="D160" t="s">
         <v>14</v>
       </c>
-      <c r="E160" s="20" t="s">
-        <v>520</v>
+      <c r="E160" t="s">
+        <v>381</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="H160" t="s">
-        <v>33</v>
-      </c>
-      <c r="I160">
-        <v>19057272020</v>
-      </c>
-      <c r="J160" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="I160"/>
+    </row>
+    <row r="161" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A161" t="s">
+        <v>39</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="C161" t="s">
+        <v>514</v>
+      </c>
+      <c r="D161" t="s">
+        <v>14</v>
+      </c>
+      <c r="E161" s="20" t="s">
+        <v>515</v>
+      </c>
+      <c r="F161" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I161">
+        <v>15197429366</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+      <c r="A162" t="s">
+        <v>135</v>
+      </c>
+      <c r="B162" t="s">
+        <v>527</v>
+      </c>
+      <c r="C162" t="s">
+        <v>528</v>
+      </c>
+      <c r="D162" t="s">
+        <v>14</v>
+      </c>
+      <c r="E162" t="s">
+        <v>529</v>
+      </c>
+      <c r="F162" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I162"/>
+    </row>
+    <row r="163" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+      <c r="A163" t="s">
+        <v>176</v>
+      </c>
+      <c r="B163" t="s">
+        <v>479</v>
+      </c>
+      <c r="C163" t="s">
+        <v>530</v>
+      </c>
+      <c r="D163" t="s">
+        <v>14</v>
+      </c>
+      <c r="E163" t="s">
+        <v>531</v>
+      </c>
+      <c r="F163" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I163"/>
+    </row>
+    <row r="164" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+      <c r="A164" t="s">
+        <v>45</v>
+      </c>
+      <c r="B164">
+        <v>6420</v>
+      </c>
+      <c r="C164" t="s">
+        <v>532</v>
+      </c>
+      <c r="D164" t="s">
+        <v>14</v>
+      </c>
+      <c r="E164" t="s">
+        <v>533</v>
+      </c>
+      <c r="F164" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I164"/>
+    </row>
+    <row r="165" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+      <c r="A165" t="s">
+        <v>178</v>
+      </c>
+      <c r="B165" t="s">
+        <v>206</v>
+      </c>
+      <c r="C165" t="s">
+        <v>534</v>
+      </c>
+      <c r="D165" t="s">
+        <v>14</v>
+      </c>
+      <c r="E165" t="s">
+        <v>535</v>
+      </c>
+      <c r="F165" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I165"/>
+    </row>
+    <row r="166" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+      <c r="A166" t="s">
+        <v>83</v>
+      </c>
+      <c r="B166" t="s">
+        <v>134</v>
+      </c>
+      <c r="C166" t="s">
+        <v>536</v>
+      </c>
+      <c r="D166" t="s">
+        <v>14</v>
+      </c>
+      <c r="E166" t="s">
+        <v>537</v>
+      </c>
+      <c r="F166" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I166"/>
+    </row>
+    <row r="167" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+      <c r="A167" t="s">
+        <v>538</v>
+      </c>
+      <c r="B167" t="s">
+        <v>539</v>
+      </c>
+      <c r="C167" t="s">
+        <v>540</v>
+      </c>
+      <c r="D167" t="s">
+        <v>14</v>
+      </c>
+      <c r="E167" t="s">
+        <v>541</v>
+      </c>
+      <c r="F167" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="I167"/>
+    </row>
+    <row r="168" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+      <c r="A168" t="s">
         <v>23</v>
       </c>
-      <c r="B161" t="s">
-        <v>527</v>
-      </c>
-      <c r="C161" t="s">
-        <v>528</v>
-      </c>
-      <c r="D161" t="s">
-        <v>14</v>
-      </c>
-      <c r="E161" t="s">
-        <v>529</v>
-      </c>
-      <c r="F161" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H161" t="s">
-        <v>20</v>
-      </c>
-      <c r="I161">
-        <v>16473411333</v>
-      </c>
-      <c r="J161" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
-        <v>84</v>
-      </c>
-      <c r="B162" t="s">
-        <v>530</v>
-      </c>
-      <c r="C162" t="s">
-        <v>531</v>
-      </c>
-      <c r="D162" t="s">
-        <v>14</v>
-      </c>
-      <c r="E162" s="20" t="s">
-        <v>532</v>
-      </c>
-      <c r="F162" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="H162" t="s">
-        <v>20</v>
-      </c>
-      <c r="I162">
-        <v>16475535874</v>
-      </c>
-      <c r="J162" s="14" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
+      <c r="B168" t="s">
+        <v>251</v>
+      </c>
+      <c r="C168" t="s">
+        <v>543</v>
+      </c>
+      <c r="D168" t="s">
+        <v>78</v>
+      </c>
+      <c r="E168" t="s">
+        <v>544</v>
+      </c>
+      <c r="F168" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="I168"/>
+    </row>
+    <row r="169" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+      <c r="A169" t="s">
         <v>23</v>
       </c>
-      <c r="B163" t="s">
-        <v>536</v>
-      </c>
-      <c r="C163" t="s">
-        <v>537</v>
-      </c>
-      <c r="D163" t="s">
-        <v>14</v>
-      </c>
-      <c r="E163" t="s">
-        <v>538</v>
-      </c>
-      <c r="F163" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H163" t="s">
-        <v>22</v>
-      </c>
-      <c r="I163">
-        <v>14166516673</v>
-      </c>
-      <c r="J163" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
-        <v>58</v>
-      </c>
-      <c r="B164" t="s">
-        <v>539</v>
-      </c>
-      <c r="C164" t="s">
-        <v>540</v>
-      </c>
-      <c r="D164" t="s">
-        <v>14</v>
-      </c>
-      <c r="E164" t="s">
-        <v>541</v>
-      </c>
-      <c r="F164" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H164" t="s">
-        <v>18</v>
-      </c>
-      <c r="I164">
-        <v>15196013420</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
-        <v>56</v>
-      </c>
-      <c r="B165" t="s">
+      <c r="B169" t="s">
+        <v>545</v>
+      </c>
+      <c r="C169" t="s">
+        <v>546</v>
+      </c>
+      <c r="D169" t="s">
+        <v>78</v>
+      </c>
+      <c r="E169" t="s">
+        <v>547</v>
+      </c>
+      <c r="F169" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="C165" t="s">
-        <v>543</v>
-      </c>
-      <c r="D165" t="s">
-        <v>14</v>
-      </c>
-      <c r="E165" t="s">
-        <v>541</v>
-      </c>
-      <c r="F165" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H165" t="s">
-        <v>18</v>
-      </c>
-      <c r="I165">
-        <v>15196071966</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
-        <v>29</v>
-      </c>
-      <c r="B166" t="s">
-        <v>202</v>
-      </c>
-      <c r="C166" t="s">
-        <v>544</v>
-      </c>
-      <c r="D166" t="s">
-        <v>14</v>
-      </c>
-      <c r="E166" t="s">
-        <v>545</v>
-      </c>
-      <c r="F166" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H166" t="s">
-        <v>20</v>
-      </c>
-      <c r="I166">
-        <v>14162912553</v>
-      </c>
-      <c r="J166" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
-        <v>72</v>
-      </c>
-      <c r="B167" t="s">
-        <v>134</v>
-      </c>
-      <c r="C167" t="s">
-        <v>546</v>
-      </c>
-      <c r="D167" t="s">
-        <v>14</v>
-      </c>
-      <c r="E167" t="s">
-        <v>401</v>
-      </c>
-      <c r="F167" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I167"/>
-    </row>
-    <row r="168" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
-        <v>39</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="C168" t="s">
-        <v>534</v>
-      </c>
-      <c r="D168" t="s">
-        <v>14</v>
-      </c>
-      <c r="E168" s="20" t="s">
-        <v>535</v>
-      </c>
-      <c r="F168" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I168">
-        <v>15197429366</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
-        <v>135</v>
-      </c>
-      <c r="B169" t="s">
-        <v>547</v>
-      </c>
-      <c r="C169" t="s">
+      <c r="I169"/>
+    </row>
+    <row r="170" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+      <c r="A170" t="s">
+        <v>23</v>
+      </c>
+      <c r="B170" t="s">
         <v>548</v>
       </c>
-      <c r="D169" t="s">
-        <v>14</v>
-      </c>
-      <c r="E169" t="s">
+      <c r="C170" t="s">
         <v>549</v>
       </c>
-      <c r="F169" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I169"/>
-    </row>
-    <row r="170" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
-        <v>176</v>
-      </c>
-      <c r="B170" t="s">
-        <v>499</v>
-      </c>
-      <c r="C170" t="s">
+      <c r="D170" t="s">
+        <v>14</v>
+      </c>
+      <c r="E170" t="s">
         <v>550</v>
       </c>
-      <c r="D170" t="s">
-        <v>14</v>
-      </c>
-      <c r="E170" t="s">
+      <c r="F170" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I170"/>
+    </row>
+    <row r="171" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+      <c r="A171" t="s">
+        <v>23</v>
+      </c>
+      <c r="B171" t="s">
         <v>551</v>
-      </c>
-      <c r="F170" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I170"/>
-    </row>
-    <row r="171" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
-        <v>45</v>
-      </c>
-      <c r="B171">
-        <v>6420</v>
       </c>
       <c r="C171" t="s">
         <v>552</v>
@@ -7379,256 +7212,109 @@
         <v>553</v>
       </c>
       <c r="F171" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I171"/>
-    </row>
-    <row r="172" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="H171" t="s">
+        <v>18</v>
+      </c>
+      <c r="I171">
+        <v>14165388225</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A172" t="s">
-        <v>178</v>
+        <v>23</v>
       </c>
       <c r="B172" t="s">
-        <v>209</v>
+        <v>554</v>
       </c>
       <c r="C172" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D172" t="s">
         <v>14</v>
       </c>
       <c r="E172" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F172" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I172"/>
     </row>
-    <row r="173" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A173" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="B173" t="s">
+        <v>557</v>
+      </c>
+      <c r="C173" t="s">
+        <v>558</v>
+      </c>
+      <c r="D173" t="s">
+        <v>78</v>
+      </c>
+      <c r="E173" s="20" t="s">
+        <v>595</v>
+      </c>
+      <c r="F173" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="H173" t="s">
+        <v>31</v>
+      </c>
+      <c r="I173" t="s">
+        <v>587</v>
+      </c>
+      <c r="J173" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+      <c r="A174" t="s">
+        <v>63</v>
+      </c>
+      <c r="B174" t="s">
         <v>134</v>
       </c>
-      <c r="C173" t="s">
-        <v>556</v>
-      </c>
-      <c r="D173" t="s">
-        <v>14</v>
-      </c>
-      <c r="E173" t="s">
-        <v>557</v>
-      </c>
-      <c r="F173" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I173"/>
-    </row>
-    <row r="174" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
-        <v>558</v>
-      </c>
-      <c r="B174" t="s">
+      <c r="C174" t="s">
         <v>559</v>
       </c>
-      <c r="C174" t="s">
+      <c r="D174" t="s">
+        <v>78</v>
+      </c>
+      <c r="E174" t="s">
         <v>560</v>
       </c>
-      <c r="D174" t="s">
-        <v>14</v>
-      </c>
-      <c r="E174" t="s">
-        <v>561</v>
-      </c>
       <c r="F174" s="6" t="s">
-        <v>562</v>
+        <v>19</v>
       </c>
       <c r="I174"/>
     </row>
-    <row r="175" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A175" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="B175" t="s">
-        <v>254</v>
+        <v>563</v>
       </c>
       <c r="C175" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D175" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="E175" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F175" s="6" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="I175"/>
     </row>
-    <row r="176" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
-        <v>23</v>
-      </c>
-      <c r="B176" t="s">
-        <v>565</v>
-      </c>
-      <c r="C176" t="s">
-        <v>566</v>
-      </c>
-      <c r="D176" t="s">
-        <v>78</v>
-      </c>
-      <c r="E176" t="s">
-        <v>567</v>
-      </c>
-      <c r="F176" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="I176"/>
-    </row>
-    <row r="177" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
-        <v>23</v>
-      </c>
-      <c r="B177" t="s">
-        <v>568</v>
-      </c>
-      <c r="C177" t="s">
-        <v>569</v>
-      </c>
-      <c r="D177" t="s">
-        <v>14</v>
-      </c>
-      <c r="E177" t="s">
-        <v>570</v>
-      </c>
-      <c r="F177" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I177"/>
-    </row>
-    <row r="178" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
-        <v>23</v>
-      </c>
-      <c r="B178" t="s">
-        <v>571</v>
-      </c>
-      <c r="C178" t="s">
-        <v>572</v>
-      </c>
-      <c r="D178" t="s">
-        <v>14</v>
-      </c>
-      <c r="E178" t="s">
-        <v>573</v>
-      </c>
-      <c r="F178" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H178" t="s">
-        <v>18</v>
-      </c>
-      <c r="I178">
-        <v>14165388225</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
-        <v>23</v>
-      </c>
-      <c r="B179" t="s">
-        <v>574</v>
-      </c>
-      <c r="C179" t="s">
-        <v>575</v>
-      </c>
-      <c r="D179" t="s">
-        <v>14</v>
-      </c>
-      <c r="E179" t="s">
-        <v>576</v>
-      </c>
-      <c r="F179" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I179"/>
-    </row>
-    <row r="180" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
-        <v>23</v>
-      </c>
-      <c r="B180" t="s">
-        <v>577</v>
-      </c>
-      <c r="C180" t="s">
-        <v>578</v>
-      </c>
-      <c r="D180" t="s">
-        <v>78</v>
-      </c>
-      <c r="E180" s="20" t="s">
-        <v>629</v>
-      </c>
-      <c r="F180" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="H180" t="s">
-        <v>31</v>
-      </c>
-      <c r="I180" t="s">
-        <v>609</v>
-      </c>
-      <c r="J180" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
-        <v>63</v>
-      </c>
-      <c r="B181" t="s">
-        <v>134</v>
-      </c>
-      <c r="C181" t="s">
-        <v>579</v>
-      </c>
-      <c r="D181" t="s">
-        <v>78</v>
-      </c>
-      <c r="E181" t="s">
-        <v>580</v>
-      </c>
-      <c r="F181" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I181"/>
-    </row>
-    <row r="182" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
-        <v>76</v>
-      </c>
-      <c r="B182" t="s">
-        <v>583</v>
-      </c>
-      <c r="C182" t="s">
-        <v>584</v>
-      </c>
-      <c r="D182" t="s">
-        <v>14</v>
-      </c>
-      <c r="E182" t="s">
-        <v>585</v>
-      </c>
-      <c r="F182" s="6" t="s">
-        <v>586</v>
-      </c>
-      <c r="I182"/>
-    </row>
   </sheetData>
-  <autoFilter ref="F1:J182" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="F1:J175" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="4">
       <filters>
         <filter val="['Delivery  within a 10km radius of our Waterloo store', 'Same-day delivery']"/>
@@ -7654,9 +7340,8 @@
   </autoFilter>
   <hyperlinks>
     <hyperlink ref="E28" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E39" r:id="rId2" location="/checkout" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/platform_scrapper/data/cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/cannabis_used_IDs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parsy\OneDrive\Desktop\DOT\cannabis-shops-scraping\platform_scrapper\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{FD3100CF-290C-466A-9D45-3C977A621E58}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{602E845E-660F-44C0-967A-4257ED24E0FF}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{FD3100CF-290C-466A-9D45-3C977A621E58}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{764D1F31-87D9-4BE0-9B5C-966C5FA8EF09}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2360,11 +2360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:N175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D178" sqref="D178"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2428,7 +2427,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="14.4" hidden="1" customHeight="1">
+    <row r="2" spans="1:14" ht="14.4" customHeight="1">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -2457,7 +2456,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="14.4" hidden="1" customHeight="1">
+    <row r="3" spans="1:14" ht="14.4" customHeight="1">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -2486,7 +2485,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="14.4" hidden="1" customHeight="1">
+    <row r="4" spans="1:14" ht="14.4" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>51</v>
       </c>
@@ -2518,7 +2517,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="14.4" hidden="1" customHeight="1">
+    <row r="5" spans="1:14" ht="14.4" customHeight="1">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -2547,7 +2546,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="14.4" hidden="1" customHeight="1">
+    <row r="6" spans="1:14" ht="14.4" customHeight="1">
       <c r="A6" s="9" t="s">
         <v>23</v>
       </c>
@@ -2583,7 +2582,7 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:14" ht="14.4" hidden="1" customHeight="1">
+    <row r="7" spans="1:14" ht="14.4" customHeight="1">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -2612,7 +2611,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="3" customFormat="1" ht="14.4" hidden="1" customHeight="1">
+    <row r="8" spans="1:14" s="3" customFormat="1" ht="14.4" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>208</v>
       </c>
@@ -2642,7 +2641,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="14.4" hidden="1" customHeight="1">
+    <row r="9" spans="1:14" ht="14.4" customHeight="1">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -2674,7 +2673,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="14.4" hidden="1" customHeight="1">
+    <row r="10" spans="1:14" ht="14.4" customHeight="1">
       <c r="A10" t="s">
         <v>98</v>
       </c>
@@ -2703,7 +2702,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="14.4" hidden="1" customHeight="1">
+    <row r="11" spans="1:14" ht="14.4" customHeight="1">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -2732,7 +2731,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="14.4" hidden="1" customHeight="1">
+    <row r="12" spans="1:14" ht="14.4" customHeight="1">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -2761,7 +2760,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="14.4" hidden="1" customHeight="1">
+    <row r="13" spans="1:14" ht="14.4" customHeight="1">
       <c r="A13" s="9" t="s">
         <v>108</v>
       </c>
@@ -2793,7 +2792,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="14.4" hidden="1" customHeight="1">
+    <row r="14" spans="1:14" ht="14.4" customHeight="1">
       <c r="A14" t="s">
         <v>84</v>
       </c>
@@ -2822,7 +2821,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="14.4" hidden="1" customHeight="1">
+    <row r="15" spans="1:14" ht="14.4" customHeight="1">
       <c r="A15" t="s">
         <v>115</v>
       </c>
@@ -2851,7 +2850,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="14.4" hidden="1" customHeight="1">
+    <row r="16" spans="1:14" ht="14.4" customHeight="1">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2880,7 +2879,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="9" customFormat="1" ht="14.4" hidden="1" customHeight="1">
+    <row r="17" spans="1:10" s="9" customFormat="1" ht="14.4" customHeight="1">
       <c r="A17" s="9" t="s">
         <v>43</v>
       </c>
@@ -2912,7 +2911,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="18" spans="1:10" ht="14.4" customHeight="1">
       <c r="A18" t="s">
         <v>129</v>
       </c>
@@ -2941,7 +2940,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="19" spans="1:10" ht="14.4" customHeight="1">
       <c r="A19" t="s">
         <v>76</v>
       </c>
@@ -2970,7 +2969,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="20" spans="1:10" ht="14.4" customHeight="1">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2999,7 +2998,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="21" spans="1:10" ht="14.4" customHeight="1">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -3028,7 +3027,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="22" spans="1:10" ht="14.4" customHeight="1">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3057,7 +3056,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="23" spans="1:10" ht="14.4" customHeight="1">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -3086,7 +3085,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="24" spans="1:10" ht="14.4" customHeight="1">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -3115,7 +3114,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="25" spans="1:10" ht="14.4" customHeight="1">
       <c r="A25" t="s">
         <v>86</v>
       </c>
@@ -3144,7 +3143,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="26" spans="1:10" ht="14.4" customHeight="1">
       <c r="A26" t="s">
         <v>127</v>
       </c>
@@ -3173,7 +3172,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="27" spans="1:10" ht="14.4" customHeight="1">
       <c r="A27" t="s">
         <v>157</v>
       </c>
@@ -3202,7 +3201,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="28" spans="1:10" ht="14.4" customHeight="1">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -3231,7 +3230,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="29" spans="1:10" ht="14.4" customHeight="1">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -3260,7 +3259,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="30" spans="1:10" ht="14.4" customHeight="1">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -3289,7 +3288,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="31" spans="1:10" ht="14.4" customHeight="1">
       <c r="A31" t="s">
         <v>166</v>
       </c>
@@ -3318,7 +3317,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="32" spans="1:10" ht="14.4" customHeight="1">
       <c r="A32" t="s">
         <v>54</v>
       </c>
@@ -3347,7 +3346,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="33" spans="1:10" ht="14.4" customHeight="1">
       <c r="A33" t="s">
         <v>96</v>
       </c>
@@ -3405,7 +3404,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="35" spans="1:10" ht="14.4" customHeight="1">
       <c r="A35" t="s">
         <v>71</v>
       </c>
@@ -3434,7 +3433,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="36" spans="1:10" ht="14.4" customHeight="1">
       <c r="A36" t="s">
         <v>188</v>
       </c>
@@ -3463,7 +3462,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="37" spans="1:10" ht="14.4" customHeight="1">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -3492,7 +3491,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="38" spans="1:10" ht="14.4" customHeight="1">
       <c r="A38" t="s">
         <v>23</v>
       </c>
@@ -3521,7 +3520,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="39" spans="1:10" ht="14.4" customHeight="1">
       <c r="A39" t="s">
         <v>108</v>
       </c>
@@ -3550,7 +3549,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="40" spans="1:10" ht="14.4" customHeight="1">
       <c r="A40" t="s">
         <v>133</v>
       </c>
@@ -3579,7 +3578,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="41" spans="1:10" ht="14.4" customHeight="1">
       <c r="A41" t="s">
         <v>29</v>
       </c>
@@ -3608,7 +3607,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="42" spans="1:10" ht="14.4" customHeight="1">
       <c r="A42" t="s">
         <v>27</v>
       </c>
@@ -3637,7 +3636,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="43" spans="1:10" ht="14.4" customHeight="1">
       <c r="A43" t="s">
         <v>27</v>
       </c>
@@ -3666,7 +3665,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="44" spans="1:10" ht="14.4" customHeight="1">
       <c r="A44" t="s">
         <v>212</v>
       </c>
@@ -3695,7 +3694,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="45" spans="1:10" ht="14.4" customHeight="1">
       <c r="A45" t="s">
         <v>101</v>
       </c>
@@ -3724,7 +3723,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="46" spans="1:10" ht="14.4" customHeight="1">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -3753,7 +3752,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="47" spans="1:10" ht="14.4" customHeight="1">
       <c r="A47" t="s">
         <v>25</v>
       </c>
@@ -3782,7 +3781,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="48" spans="1:10" ht="14.4" customHeight="1">
       <c r="A48" t="s">
         <v>23</v>
       </c>
@@ -3811,7 +3810,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="49" spans="1:10" ht="14.4" customHeight="1">
       <c r="A49" t="s">
         <v>231</v>
       </c>
@@ -3840,7 +3839,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="50" spans="1:10" ht="14.4" customHeight="1">
       <c r="A50" t="s">
         <v>27</v>
       </c>
@@ -3869,7 +3868,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="51" spans="1:10" ht="14.4" customHeight="1">
       <c r="A51" t="s">
         <v>79</v>
       </c>
@@ -3898,7 +3897,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="52" spans="1:10" ht="14.4" customHeight="1">
       <c r="A52" t="s">
         <v>240</v>
       </c>
@@ -3927,7 +3926,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="53" spans="1:10" ht="14.4" customHeight="1">
       <c r="A53" t="s">
         <v>25</v>
       </c>
@@ -3956,7 +3955,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="54" spans="1:10" ht="14.4" customHeight="1">
       <c r="A54" t="s">
         <v>47</v>
       </c>
@@ -3985,7 +3984,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="55" spans="1:10" ht="14.4" customHeight="1">
       <c r="A55" t="s">
         <v>32</v>
       </c>
@@ -4014,7 +4013,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="56" spans="1:10" ht="14.4" customHeight="1">
       <c r="A56" t="s">
         <v>223</v>
       </c>
@@ -4043,7 +4042,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="57" spans="1:10" ht="14.4" customHeight="1">
       <c r="A57" t="s">
         <v>23</v>
       </c>
@@ -4072,7 +4071,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="58" spans="1:10" ht="14.4" customHeight="1">
       <c r="A58" t="s">
         <v>29</v>
       </c>
@@ -4101,7 +4100,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="59" spans="1:10" ht="14.4" customHeight="1">
       <c r="A59" t="s">
         <v>29</v>
       </c>
@@ -4130,7 +4129,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="60" spans="1:10" ht="14.4" customHeight="1">
       <c r="A60" t="s">
         <v>25</v>
       </c>
@@ -4159,7 +4158,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="61" spans="1:10" ht="14.4" customHeight="1">
       <c r="A61" t="s">
         <v>27</v>
       </c>
@@ -4188,7 +4187,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="62" spans="1:10" ht="14.4" customHeight="1">
       <c r="A62" t="s">
         <v>58</v>
       </c>
@@ -4217,7 +4216,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="63" spans="1:10" ht="14.4" customHeight="1">
       <c r="A63" t="s">
         <v>264</v>
       </c>
@@ -4246,7 +4245,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="64" spans="1:10" ht="14.4" customHeight="1">
       <c r="A64" t="s">
         <v>51</v>
       </c>
@@ -4275,7 +4274,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="14.4" hidden="1" customHeight="1">
+    <row r="65" spans="1:11" ht="14.4" customHeight="1">
       <c r="A65" t="s">
         <v>51</v>
       </c>
@@ -4307,7 +4306,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="14.4" hidden="1" customHeight="1">
+    <row r="66" spans="1:11" ht="14.4" customHeight="1">
       <c r="A66" t="s">
         <v>279</v>
       </c>
@@ -4336,7 +4335,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="14.4" hidden="1" customHeight="1">
+    <row r="67" spans="1:11" ht="14.4" customHeight="1">
       <c r="A67" t="s">
         <v>283</v>
       </c>
@@ -4365,7 +4364,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="14.4" hidden="1" customHeight="1">
+    <row r="68" spans="1:11" ht="14.4" customHeight="1">
       <c r="A68" t="s">
         <v>287</v>
       </c>
@@ -4394,7 +4393,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="14.4" hidden="1" customHeight="1">
+    <row r="69" spans="1:11" ht="14.4" customHeight="1">
       <c r="A69" t="s">
         <v>25</v>
       </c>
@@ -4423,7 +4422,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="14.4" hidden="1" customHeight="1">
+    <row r="70" spans="1:11" ht="14.4" customHeight="1">
       <c r="A70" t="s">
         <v>63</v>
       </c>
@@ -4452,7 +4451,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="14.4" hidden="1" customHeight="1">
+    <row r="71" spans="1:11" ht="14.4" customHeight="1">
       <c r="A71" t="s">
         <v>38</v>
       </c>
@@ -4481,7 +4480,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="14.4" hidden="1" customHeight="1">
+    <row r="72" spans="1:11" ht="14.4" customHeight="1">
       <c r="A72" t="s">
         <v>40</v>
       </c>
@@ -4510,7 +4509,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="14.4" hidden="1" customHeight="1">
+    <row r="73" spans="1:11" ht="14.4" customHeight="1">
       <c r="A73" t="s">
         <v>23</v>
       </c>
@@ -4571,7 +4570,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="14.4" hidden="1" customHeight="1">
+    <row r="75" spans="1:11" ht="14.4" customHeight="1">
       <c r="A75" t="s">
         <v>51</v>
       </c>
@@ -4600,7 +4599,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="14.4" hidden="1" customHeight="1">
+    <row r="76" spans="1:11" ht="14.4" customHeight="1">
       <c r="A76" t="s">
         <v>40</v>
       </c>
@@ -4629,7 +4628,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="14.4" hidden="1" customHeight="1">
+    <row r="77" spans="1:11" ht="14.4" customHeight="1">
       <c r="A77" t="s">
         <v>37</v>
       </c>
@@ -4658,7 +4657,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="14.4" hidden="1" customHeight="1">
+    <row r="78" spans="1:11" ht="14.4" customHeight="1">
       <c r="A78" t="s">
         <v>23</v>
       </c>
@@ -4687,7 +4686,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="14.4" hidden="1" customHeight="1">
+    <row r="79" spans="1:11" ht="14.4" customHeight="1">
       <c r="A79" t="s">
         <v>46</v>
       </c>
@@ -4713,7 +4712,7 @@
         <v>17057071595</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="14.4" hidden="1" customHeight="1">
+    <row r="80" spans="1:11" ht="14.4" customHeight="1">
       <c r="A80" t="s">
         <v>84</v>
       </c>
@@ -4742,7 +4741,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="14.4" hidden="1" customHeight="1">
+    <row r="81" spans="1:11" ht="14.4" customHeight="1">
       <c r="A81" t="s">
         <v>65</v>
       </c>
@@ -4771,7 +4770,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="14.4" hidden="1" customHeight="1">
+    <row r="82" spans="1:11" ht="14.4" customHeight="1">
       <c r="A82" t="s">
         <v>177</v>
       </c>
@@ -4800,7 +4799,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="14.4" hidden="1" customHeight="1">
+    <row r="83" spans="1:11" ht="14.4" customHeight="1">
       <c r="A83" t="s">
         <v>36</v>
       </c>
@@ -4829,7 +4828,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="14.4" hidden="1" customHeight="1">
+    <row r="84" spans="1:11" ht="14.4" customHeight="1">
       <c r="A84" t="s">
         <v>23</v>
       </c>
@@ -4858,7 +4857,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="14.4" hidden="1" customHeight="1">
+    <row r="85" spans="1:11" ht="14.4" customHeight="1">
       <c r="A85" t="s">
         <v>76</v>
       </c>
@@ -4887,7 +4886,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="14.4" hidden="1" customHeight="1">
+    <row r="86" spans="1:11" ht="14.4" customHeight="1">
       <c r="A86" t="s">
         <v>23</v>
       </c>
@@ -4916,7 +4915,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="14.4" hidden="1" customHeight="1">
+    <row r="87" spans="1:11" ht="14.4" customHeight="1">
       <c r="A87" t="s">
         <v>43</v>
       </c>
@@ -4977,7 +4976,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="14.4" hidden="1" customHeight="1">
+    <row r="89" spans="1:11" ht="14.4" customHeight="1">
       <c r="A89" t="s">
         <v>43</v>
       </c>
@@ -5009,7 +5008,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="14.4" hidden="1" customHeight="1">
+    <row r="90" spans="1:11" ht="14.4" customHeight="1">
       <c r="A90" t="s">
         <v>43</v>
       </c>
@@ -5041,7 +5040,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="14.4" hidden="1" customHeight="1">
+    <row r="91" spans="1:11" ht="14.4" customHeight="1">
       <c r="A91" t="s">
         <v>23</v>
       </c>
@@ -5070,7 +5069,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="14.4" hidden="1" customHeight="1">
+    <row r="92" spans="1:11" ht="14.4" customHeight="1">
       <c r="A92" t="s">
         <v>86</v>
       </c>
@@ -5102,7 +5101,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="14.4" hidden="1" customHeight="1">
+    <row r="93" spans="1:11" ht="14.4" customHeight="1">
       <c r="A93" t="s">
         <v>85</v>
       </c>
@@ -5131,7 +5130,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="14.4" hidden="1" customHeight="1">
+    <row r="94" spans="1:11" ht="14.4" customHeight="1">
       <c r="A94" t="s">
         <v>23</v>
       </c>
@@ -5160,7 +5159,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="14.4" hidden="1" customHeight="1">
+    <row r="95" spans="1:11" ht="14.4" customHeight="1">
       <c r="A95" t="s">
         <v>29</v>
       </c>
@@ -5189,7 +5188,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="14.4" hidden="1" customHeight="1">
+    <row r="96" spans="1:11" ht="14.4" customHeight="1">
       <c r="A96" t="s">
         <v>51</v>
       </c>
@@ -5218,7 +5217,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="14.4" hidden="1" customHeight="1">
+    <row r="97" spans="1:11" ht="14.4" customHeight="1">
       <c r="A97" t="s">
         <v>23</v>
       </c>
@@ -5247,7 +5246,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="14.4" hidden="1" customHeight="1">
+    <row r="98" spans="1:11" ht="14.4" customHeight="1">
       <c r="A98" t="s">
         <v>76</v>
       </c>
@@ -5308,7 +5307,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="14.4" hidden="1" customHeight="1">
+    <row r="100" spans="1:11" ht="14.4" customHeight="1">
       <c r="A100" t="s">
         <v>36</v>
       </c>
@@ -5337,7 +5336,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="14.4" hidden="1" customHeight="1">
+    <row r="101" spans="1:11" ht="14.4" customHeight="1">
       <c r="A101" t="s">
         <v>27</v>
       </c>
@@ -5363,7 +5362,7 @@
         <v>12892461172</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="14.4" hidden="1" customHeight="1">
+    <row r="102" spans="1:11" ht="14.4" customHeight="1">
       <c r="A102" t="s">
         <v>379</v>
       </c>
@@ -5389,7 +5388,7 @@
         <v>12262530859</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="14.4" hidden="1" customHeight="1">
+    <row r="103" spans="1:11" ht="14.4" customHeight="1">
       <c r="A103" t="s">
         <v>85</v>
       </c>
@@ -5415,7 +5414,7 @@
         <v>15193542255</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="14.4" hidden="1" customHeight="1">
+    <row r="104" spans="1:11" ht="14.4" customHeight="1">
       <c r="A104" t="s">
         <v>63</v>
       </c>
@@ -5441,7 +5440,7 @@
         <v>15192582544</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="14.4" hidden="1" customHeight="1">
+    <row r="105" spans="1:11" ht="14.4" customHeight="1">
       <c r="A105" t="s">
         <v>63</v>
       </c>
@@ -5467,7 +5466,7 @@
         <v>15192500712</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="14.4" hidden="1" customHeight="1">
+    <row r="106" spans="1:11" ht="14.4" customHeight="1">
       <c r="A106" t="s">
         <v>63</v>
       </c>
@@ -5522,7 +5521,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="14.4" hidden="1" customHeight="1">
+    <row r="108" spans="1:11" ht="14.4" customHeight="1">
       <c r="A108" t="s">
         <v>386</v>
       </c>
@@ -5577,7 +5576,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="14.4" hidden="1" customHeight="1">
+    <row r="110" spans="1:11" ht="14.4" customHeight="1">
       <c r="A110" t="s">
         <v>43</v>
       </c>
@@ -5603,7 +5602,7 @@
         <v>19054956454</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="14.4" hidden="1" customHeight="1">
+    <row r="111" spans="1:11" ht="14.4" customHeight="1">
       <c r="A111" t="s">
         <v>366</v>
       </c>
@@ -5629,7 +5628,7 @@
         <v>19054956454</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="14.4" hidden="1" customHeight="1">
+    <row r="112" spans="1:11" ht="14.4" customHeight="1">
       <c r="A112" t="s">
         <v>27</v>
       </c>
@@ -5655,7 +5654,7 @@
         <v>19055288955</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="113" spans="1:10" ht="14.4" customHeight="1">
       <c r="A113" t="s">
         <v>45</v>
       </c>
@@ -5681,7 +5680,7 @@
         <v>15197571001</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="114" spans="1:10" ht="14.4" customHeight="1">
       <c r="A114" t="s">
         <v>136</v>
       </c>
@@ -5710,7 +5709,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="115" spans="1:10" ht="14.4" customHeight="1">
       <c r="A115" t="s">
         <v>50</v>
       </c>
@@ -5739,7 +5738,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="116" spans="1:10" ht="14.4" customHeight="1">
       <c r="A116" t="s">
         <v>405</v>
       </c>
@@ -5765,7 +5764,7 @@
         <v>12892982856</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="117" spans="1:10" ht="14.4" customHeight="1">
       <c r="A117" t="s">
         <v>180</v>
       </c>
@@ -5794,7 +5793,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="118" spans="1:10" ht="14.4" customHeight="1">
       <c r="A118" t="s">
         <v>38</v>
       </c>
@@ -5823,7 +5822,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="119" spans="1:10" ht="14.4" customHeight="1">
       <c r="A119" t="s">
         <v>45</v>
       </c>
@@ -5849,7 +5848,7 @@
         <v>15193040660</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="120" spans="1:10" ht="14.4" customHeight="1">
       <c r="A120" t="s">
         <v>207</v>
       </c>
@@ -5875,7 +5874,7 @@
         <v>17058879567</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="121" spans="1:10" ht="14.4" customHeight="1">
       <c r="A121" t="s">
         <v>23</v>
       </c>
@@ -5899,7 +5898,7 @@
       </c>
       <c r="I121"/>
     </row>
-    <row r="122" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="122" spans="1:10" ht="14.4" customHeight="1">
       <c r="A122" t="s">
         <v>58</v>
       </c>
@@ -5928,7 +5927,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="123" spans="1:10" ht="14.4" customHeight="1">
       <c r="A123" t="s">
         <v>66</v>
       </c>
@@ -5957,7 +5956,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="124" spans="1:10" ht="14.4" customHeight="1">
       <c r="A124" t="s">
         <v>23</v>
       </c>
@@ -5986,7 +5985,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="125" spans="1:10" ht="14.4" customHeight="1">
       <c r="A125" t="s">
         <v>23</v>
       </c>
@@ -6015,7 +6014,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="126" spans="1:10" ht="14.4" customHeight="1">
       <c r="A126" t="s">
         <v>51</v>
       </c>
@@ -6044,7 +6043,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="127" spans="1:10" ht="14.4" customHeight="1">
       <c r="A127" t="s">
         <v>81</v>
       </c>
@@ -6073,7 +6072,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="128" spans="1:10" ht="14.4" customHeight="1">
       <c r="A128" t="s">
         <v>23</v>
       </c>
@@ -6099,7 +6098,7 @@
         <v>16478079072</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="129" spans="1:10" ht="14.4" customHeight="1">
       <c r="A129" t="s">
         <v>21</v>
       </c>
@@ -6128,7 +6127,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="130" spans="1:10" ht="14.4" customHeight="1">
       <c r="A130" t="s">
         <v>71</v>
       </c>
@@ -6157,7 +6156,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="131" spans="1:10" ht="14.4" customHeight="1">
       <c r="A131" t="s">
         <v>80</v>
       </c>
@@ -6183,7 +6182,7 @@
         <v>15198210555</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="132" spans="1:10" ht="14.4" customHeight="1">
       <c r="A132" t="s">
         <v>366</v>
       </c>
@@ -6209,7 +6208,7 @@
         <v>15199255523</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="133" spans="1:10" ht="14.4" customHeight="1">
       <c r="A133" t="s">
         <v>45</v>
       </c>
@@ -6238,7 +6237,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="134" spans="1:10" ht="14.4" customHeight="1">
       <c r="A134" t="s">
         <v>27</v>
       </c>
@@ -6264,7 +6263,7 @@
         <v>12893896889</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="135" spans="1:10" ht="14.4" customHeight="1">
       <c r="A135" t="s">
         <v>27</v>
       </c>
@@ -6290,7 +6289,7 @@
         <v>12893898989</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="136" spans="1:10" ht="14.4" customHeight="1">
       <c r="A136" t="s">
         <v>29</v>
       </c>
@@ -6345,7 +6344,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="138" spans="1:10" ht="14.4" customHeight="1">
       <c r="A138" t="s">
         <v>65</v>
       </c>
@@ -6374,7 +6373,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="139" spans="1:10" ht="14.4" customHeight="1">
       <c r="A139" t="s">
         <v>65</v>
       </c>
@@ -6400,7 +6399,7 @@
         <v>16139322525</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="140" spans="1:10" ht="14.4" customHeight="1">
       <c r="A140" t="s">
         <v>278</v>
       </c>
@@ -6429,7 +6428,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="141" spans="1:10" ht="14.4" customHeight="1">
       <c r="A141" t="s">
         <v>62</v>
       </c>
@@ -6458,7 +6457,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="142" spans="1:10" ht="14.4" customHeight="1">
       <c r="A142" t="s">
         <v>71</v>
       </c>
@@ -6487,7 +6486,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="143" spans="1:10" ht="14.4" customHeight="1">
       <c r="A143" t="s">
         <v>49</v>
       </c>
@@ -6516,7 +6515,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="144" spans="1:10" ht="14.4" customHeight="1">
       <c r="A144" t="s">
         <v>38</v>
       </c>
@@ -6545,7 +6544,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="145" spans="1:10" ht="14.4" customHeight="1">
       <c r="A145" t="s">
         <v>63</v>
       </c>
@@ -6574,7 +6573,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="146" spans="1:10" ht="14.4" customHeight="1">
       <c r="A146" t="s">
         <v>483</v>
       </c>
@@ -6603,7 +6602,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="147" spans="1:10" ht="14.4" customHeight="1">
       <c r="A147" t="s">
         <v>35</v>
       </c>
@@ -6629,7 +6628,7 @@
         <v>16138282929</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="148" spans="1:10" ht="14.4" customHeight="1">
       <c r="A148" t="s">
         <v>122</v>
       </c>
@@ -6655,7 +6654,7 @@
         <v>13434760363</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="149" spans="1:10" ht="14.4" customHeight="1">
       <c r="A149" t="s">
         <v>25</v>
       </c>
@@ -6681,7 +6680,7 @@
         <v>14165219993</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="150" spans="1:10" ht="14.4" customHeight="1">
       <c r="A150" t="s">
         <v>43</v>
       </c>
@@ -6710,7 +6709,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="151" spans="1:10" ht="14.4" customHeight="1">
       <c r="A151" t="s">
         <v>29</v>
       </c>
@@ -6736,7 +6735,7 @@
         <v>14162910420</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="152" spans="1:10" ht="14.4" customHeight="1">
       <c r="A152" t="s">
         <v>36</v>
       </c>
@@ -6765,7 +6764,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="153" spans="1:10" ht="14.4" customHeight="1">
       <c r="A153" t="s">
         <v>55</v>
       </c>
@@ -6794,7 +6793,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="154" spans="1:10" ht="14.4" customHeight="1">
       <c r="A154" t="s">
         <v>23</v>
       </c>
@@ -6852,7 +6851,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="156" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="156" spans="1:10" ht="14.4" customHeight="1">
       <c r="A156" t="s">
         <v>23</v>
       </c>
@@ -6881,7 +6880,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="157" spans="1:10" ht="14.4" customHeight="1">
       <c r="A157" t="s">
         <v>58</v>
       </c>
@@ -6907,7 +6906,7 @@
         <v>15196013420</v>
       </c>
     </row>
-    <row r="158" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="158" spans="1:10" ht="14.4" customHeight="1">
       <c r="A158" t="s">
         <v>56</v>
       </c>
@@ -6933,7 +6932,7 @@
         <v>15196071966</v>
       </c>
     </row>
-    <row r="159" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="159" spans="1:10" ht="14.4" customHeight="1">
       <c r="A159" t="s">
         <v>29</v>
       </c>
@@ -6962,7 +6961,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="160" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="160" spans="1:10" ht="14.4" customHeight="1">
       <c r="A160" t="s">
         <v>72</v>
       </c>
@@ -6983,7 +6982,7 @@
       </c>
       <c r="I160"/>
     </row>
-    <row r="161" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="161" spans="1:10" ht="14.4" customHeight="1">
       <c r="A161" t="s">
         <v>39</v>
       </c>
@@ -7006,7 +7005,7 @@
         <v>15197429366</v>
       </c>
     </row>
-    <row r="162" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="162" spans="1:10" ht="14.4" customHeight="1">
       <c r="A162" t="s">
         <v>135</v>
       </c>
@@ -7027,7 +7026,7 @@
       </c>
       <c r="I162"/>
     </row>
-    <row r="163" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="163" spans="1:10" ht="14.4" customHeight="1">
       <c r="A163" t="s">
         <v>176</v>
       </c>
@@ -7048,7 +7047,7 @@
       </c>
       <c r="I163"/>
     </row>
-    <row r="164" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="164" spans="1:10" ht="14.4" customHeight="1">
       <c r="A164" t="s">
         <v>45</v>
       </c>
@@ -7069,7 +7068,7 @@
       </c>
       <c r="I164"/>
     </row>
-    <row r="165" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="165" spans="1:10" ht="14.4" customHeight="1">
       <c r="A165" t="s">
         <v>178</v>
       </c>
@@ -7090,7 +7089,7 @@
       </c>
       <c r="I165"/>
     </row>
-    <row r="166" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="166" spans="1:10" ht="14.4" customHeight="1">
       <c r="A166" t="s">
         <v>83</v>
       </c>
@@ -7111,7 +7110,7 @@
       </c>
       <c r="I166"/>
     </row>
-    <row r="167" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="167" spans="1:10" ht="14.4" customHeight="1">
       <c r="A167" t="s">
         <v>538</v>
       </c>
@@ -7132,7 +7131,7 @@
       </c>
       <c r="I167"/>
     </row>
-    <row r="168" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="168" spans="1:10" ht="14.4" customHeight="1">
       <c r="A168" t="s">
         <v>23</v>
       </c>
@@ -7153,7 +7152,7 @@
       </c>
       <c r="I168"/>
     </row>
-    <row r="169" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="169" spans="1:10" ht="14.4" customHeight="1">
       <c r="A169" t="s">
         <v>23</v>
       </c>
@@ -7174,7 +7173,7 @@
       </c>
       <c r="I169"/>
     </row>
-    <row r="170" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="170" spans="1:10" ht="14.4" customHeight="1">
       <c r="A170" t="s">
         <v>23</v>
       </c>
@@ -7195,7 +7194,7 @@
       </c>
       <c r="I170"/>
     </row>
-    <row r="171" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="171" spans="1:10" ht="14.4" customHeight="1">
       <c r="A171" t="s">
         <v>23</v>
       </c>
@@ -7221,7 +7220,7 @@
         <v>14165388225</v>
       </c>
     </row>
-    <row r="172" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="172" spans="1:10" ht="14.4" customHeight="1">
       <c r="A172" t="s">
         <v>23</v>
       </c>
@@ -7242,7 +7241,7 @@
       </c>
       <c r="I172"/>
     </row>
-    <row r="173" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="173" spans="1:10" ht="14.4" customHeight="1">
       <c r="A173" t="s">
         <v>23</v>
       </c>
@@ -7271,7 +7270,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="174" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="174" spans="1:10" ht="14.4" customHeight="1">
       <c r="A174" t="s">
         <v>63</v>
       </c>
@@ -7292,7 +7291,7 @@
       </c>
       <c r="I174"/>
     </row>
-    <row r="175" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="175" spans="1:10" ht="14.4" customHeight="1">
       <c r="A175" t="s">
         <v>76</v>
       </c>
@@ -7314,30 +7313,7 @@
       <c r="I175"/>
     </row>
   </sheetData>
-  <autoFilter ref="F1:J175" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="['Delivery  within a 10km radius of our Waterloo store', 'Same-day delivery']"/>
-        <filter val="['Delivery  within a 20km radius of our Waterloo store', 'Same-day delivery']"/>
-        <filter val="['Delivery / Free Delivery within 12 kms']"/>
-        <filter val="['Delivery / free delivery within 7 KM', 'Same-day delivery']"/>
-        <filter val="['Delivery / need scan map', 'Same-day delivery']"/>
-        <filter val="['Delivery / scan map', 'Same-day delivery']"/>
-        <filter val="['Delivery / scan map']"/>
-        <filter val="['Delivery / We serve within 10 km radius.']"/>
-        <filter val="['Delivery 30km radium from 71 Broadway']"/>
-        <filter val="['Delivery in Courtice, Whitby, Oshawa', 'Same-day delivery']"/>
-        <filter val="['Delivery serve within 30 km radius', 'Same-day delivery']"/>
-        <filter val="['Delivery within 12 kms', 'Same-day delivery']"/>
-        <filter val="['Delivery within 25km', 'Same-day delivery']"/>
-        <filter val="['Delivery within 5 km radius.', 'Same-day delivery']"/>
-        <filter val="['Delivery within 50 km radius', 'Same-day delivery']"/>
-        <filter val="['Delivery within Arthur Ontario N0G 1A0']"/>
-        <filter val="['Delivery', 'Same-day delivery', 'We serve within 6 km radius']"/>
-        <filter val="['serve within 10 km radius, calculate', 'Delivery', 'Same-day delivery']"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="F1:J175" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="E28" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>

--- a/platform_scrapper/data/cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/cannabis_used_IDs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parsy\OneDrive\Desktop\DOT\cannabis-shops-scraping\platform_scrapper\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{FD3100CF-290C-466A-9D45-3C977A621E58}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{764D1F31-87D9-4BE0-9B5C-966C5FA8EF09}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{FD3100CF-290C-466A-9D45-3C977A621E58}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{CFDB74CD-3F4E-4651-8B47-D68132D23DBA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$J$175</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$J$170</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="578">
   <si>
     <t>Municipality or First Nation</t>
   </si>
@@ -169,9 +169,6 @@
     <t>KINGSTON</t>
   </si>
   <si>
-    <t>THUNDER BAY</t>
-  </si>
-  <si>
     <t>OSHAWA</t>
   </si>
   <si>
@@ -571,15 +568,6 @@
     <t>The Higher Cannabis Company</t>
   </si>
   <si>
-    <t>http://www.thealphabud.com/</t>
-  </si>
-  <si>
-    <t>Alphabud Cannabis Company (Sherbourne)</t>
-  </si>
-  <si>
-    <t>114 SHERBOURNE ST</t>
-  </si>
-  <si>
     <t>Altered Nation Cannabis</t>
   </si>
   <si>
@@ -1072,12 +1060,6 @@
     <t>https://thekensary.ca/</t>
   </si>
   <si>
-    <t>296 LAKESHORE RD W</t>
-  </si>
-  <si>
-    <t>https://toughbud.ca/shop-missisauga/</t>
-  </si>
-  <si>
     <t>WILLY'S CANNABIS SUPPLY CO.</t>
   </si>
   <si>
@@ -1126,21 +1108,6 @@
     <t>SHELBURNE</t>
   </si>
   <si>
-    <t>Chamba Cannabis Co</t>
-  </si>
-  <si>
-    <t>20 GILLINGHAM DR UNIT 609</t>
-  </si>
-  <si>
-    <t>https://www.chamba.ca/?utm_source=Google+&amp;utm_medium=organic&amp;utm_campaign=Google_My_Business_Brampton+</t>
-  </si>
-  <si>
-    <t>425 UNIVERSITY AVE E UNIT D</t>
-  </si>
-  <si>
-    <t>https://www.chamba.ca/?utm_source=Google+&amp;utm_medium=organic&amp;utm_campaign=Google_My_Business_Waterloo</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cheech &amp; Chung Cannabis </t>
   </si>
   <si>
@@ -1402,15 +1369,6 @@
     <t>1104 FENNELL AVE E UNIT 8</t>
   </si>
   <si>
-    <t>Rainbow Thunder Bay Cannabis Accessories</t>
-  </si>
-  <si>
-    <t>264 BAY ST</t>
-  </si>
-  <si>
-    <t>https://www.rainbowtbay.com/</t>
-  </si>
-  <si>
     <t>Rockwood Cannabis</t>
   </si>
   <si>
@@ -1555,15 +1513,6 @@
     <t>https://www.whiterabbitcann.com/</t>
   </si>
   <si>
-    <t>YOUR KUSH HOUSE</t>
-  </si>
-  <si>
-    <t>1134 BALTIC LANE</t>
-  </si>
-  <si>
-    <t>https://www.yourkushhouse.com/</t>
-  </si>
-  <si>
     <t>Zen Cannabis</t>
   </si>
   <si>
@@ -1777,9 +1726,6 @@
     <t>https://olympuscannabis.ca/?page_id=46#/menu</t>
   </si>
   <si>
-    <t>['Delivery / need scan map', 'Same-day delivery']</t>
-  </si>
-  <si>
     <t>https://www.cannjah.com/product-det/#/menu</t>
   </si>
   <si>
@@ -1804,25 +1750,10 @@
     <t>Minimum Delivery Order is $50.00. $4.99 Delivery Fee or FREE on orders over $75.00</t>
   </si>
   <si>
-    <t>$40 minimum order </t>
-  </si>
-  <si>
-    <t>['Delivery serve within 30 km radius', 'Same-day delivery']</t>
-  </si>
-  <si>
     <t>['url not found']</t>
   </si>
   <si>
     <t xml:space="preserve">WAIO </t>
-  </si>
-  <si>
-    <t>['Delivery within 12 kms', 'Same-day delivery']</t>
-  </si>
-  <si>
-    <t>['Delivery  within a 20km radius of our Waterloo store', 'Same-day delivery']</t>
-  </si>
-  <si>
-    <t>['Delivery  within a 10km radius of our Waterloo store', 'Same-day delivery']</t>
   </si>
   <si>
     <t>6195e7e9a7493e00a8efe518</t>
@@ -1832,7 +1763,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1947,12 +1878,6 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF333333"/>
-      <name val="Nunito"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2014,7 +1939,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2055,7 +1980,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -2360,13 +2284,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N175"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:N170"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E172" sqref="E172"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.77734375" customWidth="1"/>
     <col min="2" max="2" width="22.5546875" customWidth="1"/>
@@ -2383,7 +2308,7 @@
     <col min="14" max="14" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2421,27 +2346,27 @@
         <v>11</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="14.4" customHeight="1">
+    <row r="2" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="C2" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>581</v>
+        <v>564</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>19</v>
@@ -2456,7 +2381,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="14.4" customHeight="1">
+    <row r="3" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -2470,7 +2395,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>568</v>
+        <v>551</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>19</v>
@@ -2485,27 +2410,27 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="14.4" customHeight="1">
+    <row r="4" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>61</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>569</v>
+        <v>552</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>44</v>
@@ -2517,21 +2442,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="14.4" customHeight="1">
+    <row r="5" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
         <v>67</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>68</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
         <v>69</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>70</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>19</v>
@@ -2546,27 +2471,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="14.4" customHeight="1">
+    <row r="6" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>574</v>
+        <v>557</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>575</v>
+        <v>558</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>576</v>
+        <v>559</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>577</v>
+        <v>560</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>26</v>
@@ -2582,21 +2507,21 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:14" ht="14.4" customHeight="1">
+    <row r="7" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>36</v>
       </c>
       <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" t="s">
         <v>90</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
         <v>91</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>92</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>19</v>
@@ -2611,21 +2536,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="3" customFormat="1" ht="14.4" customHeight="1">
+    <row r="8" spans="1:14" s="3" customFormat="1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>572</v>
+        <v>555</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>573</v>
+        <v>556</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>19</v>
@@ -2641,27 +2566,27 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="14.4" customHeight="1">
+    <row r="9" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>39</v>
       </c>
       <c r="B9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" t="s">
         <v>93</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
         <v>94</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>95</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>600</v>
+        <v>577</v>
       </c>
       <c r="H9" t="s">
         <v>16</v>
@@ -2673,21 +2598,21 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="14.4" customHeight="1">
+    <row r="10" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" t="s">
         <v>98</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>99</v>
       </c>
-      <c r="C10" t="s">
-        <v>100</v>
-      </c>
       <c r="D10" t="s">
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>19</v>
@@ -2702,24 +2627,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="14.4" customHeight="1">
+    <row r="11" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>25</v>
       </c>
       <c r="B11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" t="s">
         <v>102</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
         <v>103</v>
       </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>104</v>
-      </c>
       <c r="F11" s="6" t="s">
-        <v>579</v>
+        <v>562</v>
       </c>
       <c r="H11" t="s">
         <v>30</v>
@@ -2731,24 +2656,24 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="14.4" customHeight="1">
+    <row r="12" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
       <c r="B12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" t="s">
         <v>105</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
         <v>106</v>
       </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>107</v>
-      </c>
       <c r="F12" s="6" t="s">
-        <v>570</v>
+        <v>553</v>
       </c>
       <c r="H12" t="s">
         <v>20</v>
@@ -2760,27 +2685,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="14.4" customHeight="1">
+    <row r="13" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="C13" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="D13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>110</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>111</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>571</v>
+        <v>554</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>20</v>
@@ -2792,24 +2717,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="14.4" customHeight="1">
+    <row r="14" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" t="s">
         <v>112</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
         <v>113</v>
       </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" t="s">
-        <v>114</v>
-      </c>
       <c r="F14" s="6" t="s">
-        <v>579</v>
+        <v>562</v>
       </c>
       <c r="H14" t="s">
         <v>20</v>
@@ -2821,21 +2746,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="14.4" customHeight="1">
+    <row r="15" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" t="s">
         <v>115</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>116</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
         <v>117</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>118</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>19</v>
@@ -2850,21 +2775,21 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="14.4" customHeight="1">
+    <row r="16" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
       <c r="B16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" t="s">
         <v>119</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
         <v>120</v>
-      </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" t="s">
-        <v>121</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>19</v>
@@ -2879,27 +2804,27 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="9" customFormat="1" ht="14.4" customHeight="1">
+    <row r="17" spans="1:10" s="9" customFormat="1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>43</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="D17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>124</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>125</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>578</v>
+        <v>561</v>
       </c>
       <c r="H17" s="9" t="s">
         <v>28</v>
@@ -2911,21 +2836,21 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="14.4" customHeight="1">
+    <row r="18" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" t="s">
         <v>129</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>130</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
         <v>131</v>
-      </c>
-      <c r="D18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" t="s">
-        <v>132</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>19</v>
@@ -2940,24 +2865,24 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="14.4" customHeight="1">
+    <row r="19" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" t="s">
         <v>137</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
         <v>138</v>
       </c>
-      <c r="D19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" t="s">
-        <v>139</v>
-      </c>
       <c r="F19" s="6" t="s">
-        <v>579</v>
+        <v>562</v>
       </c>
       <c r="H19" t="s">
         <v>28</v>
@@ -2969,24 +2894,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="14.4" customHeight="1">
+    <row r="20" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
       <c r="B20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" t="s">
         <v>141</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
         <v>142</v>
       </c>
-      <c r="D20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" t="s">
-        <v>143</v>
-      </c>
       <c r="F20" s="6" t="s">
-        <v>542</v>
+        <v>525</v>
       </c>
       <c r="H20" t="s">
         <v>20</v>
@@ -2998,21 +2923,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="14.4" customHeight="1">
+    <row r="21" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" t="s">
         <v>145</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
         <v>146</v>
-      </c>
-      <c r="D21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" t="s">
-        <v>147</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>19</v>
@@ -3027,21 +2952,21 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="14.4" customHeight="1">
+    <row r="22" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" t="s">
         <v>148</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s">
         <v>149</v>
-      </c>
-      <c r="D22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" t="s">
-        <v>150</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>19</v>
@@ -3056,21 +2981,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="14.4" customHeight="1">
+    <row r="23" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" t="s">
         <v>151</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s">
         <v>152</v>
-      </c>
-      <c r="D23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" t="s">
-        <v>153</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>19</v>
@@ -3085,27 +3010,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="14.4" customHeight="1">
+    <row r="24" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" t="s">
         <v>73</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="D24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>75</v>
-      </c>
       <c r="F24" s="6" t="s">
-        <v>542</v>
+        <v>525</v>
       </c>
       <c r="H24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I24">
         <v>15486909020</v>
@@ -3114,24 +3039,24 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="14.4" customHeight="1">
+    <row r="25" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" t="s">
         <v>86</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>87</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="D25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>89</v>
-      </c>
       <c r="F25" s="6" t="s">
-        <v>542</v>
+        <v>525</v>
       </c>
       <c r="H25" t="s">
         <v>20</v>
@@ -3143,21 +3068,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="14.4" customHeight="1">
+    <row r="26" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26" t="s">
         <v>154</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s">
         <v>155</v>
-      </c>
-      <c r="D26" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" t="s">
-        <v>156</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>19</v>
@@ -3172,24 +3097,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="14.4" customHeight="1">
+    <row r="27" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>156</v>
+      </c>
+      <c r="B27" t="s">
         <v>157</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>158</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="D27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>160</v>
-      </c>
       <c r="F27" s="6" t="s">
-        <v>542</v>
+        <v>525</v>
       </c>
       <c r="H27" t="s">
         <v>22</v>
@@ -3201,24 +3126,24 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="14.4" customHeight="1">
+    <row r="28" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>45</v>
       </c>
       <c r="B28" t="s">
+        <v>161</v>
+      </c>
+      <c r="C28" t="s">
         <v>162</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="D28" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>164</v>
-      </c>
       <c r="F28" s="6" t="s">
-        <v>582</v>
+        <v>565</v>
       </c>
       <c r="H28" t="s">
         <v>33</v>
@@ -3230,24 +3155,24 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="14.4" customHeight="1">
+    <row r="29" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D29" t="s">
         <v>14</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>582</v>
+        <v>565</v>
       </c>
       <c r="H29" t="s">
         <v>26</v>
@@ -3259,21 +3184,21 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="14.4" customHeight="1">
+    <row r="30" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>168</v>
+      </c>
+      <c r="C30" t="s">
         <v>169</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" t="s">
         <v>170</v>
-      </c>
-      <c r="D30" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" t="s">
-        <v>171</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>19</v>
@@ -3288,24 +3213,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="14.4" customHeight="1">
+    <row r="31" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>165</v>
+      </c>
+      <c r="B31" t="s">
+        <v>161</v>
+      </c>
+      <c r="C31" t="s">
         <v>166</v>
       </c>
-      <c r="B31" t="s">
-        <v>162</v>
-      </c>
-      <c r="C31" t="s">
-        <v>167</v>
-      </c>
       <c r="D31" t="s">
         <v>14</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>582</v>
+        <v>565</v>
       </c>
       <c r="H31" t="s">
         <v>18</v>
@@ -3317,24 +3242,24 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="14.4" customHeight="1">
+    <row r="32" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D32" t="s">
         <v>14</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>582</v>
+        <v>565</v>
       </c>
       <c r="H32" t="s">
         <v>18</v>
@@ -3346,21 +3271,21 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="14.4" customHeight="1">
+    <row r="33" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B33" t="s">
+        <v>171</v>
+      </c>
+      <c r="C33" t="s">
         <v>172</v>
       </c>
-      <c r="C33" t="s">
-        <v>173</v>
-      </c>
       <c r="D33" t="s">
         <v>14</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>583</v>
+        <v>566</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>19</v>
@@ -3375,40 +3300,40 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="14.4" customHeight="1">
+    <row r="34" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C34" t="s">
+        <v>182</v>
+      </c>
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="C34" t="s">
-        <v>184</v>
-      </c>
-      <c r="D34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="20" t="s">
-        <v>182</v>
-      </c>
       <c r="F34" s="6" t="s">
-        <v>19</v>
+        <v>525</v>
       </c>
       <c r="H34" t="s">
         <v>20</v>
       </c>
       <c r="I34">
-        <v>14167030222</v>
+        <v>15199422828</v>
       </c>
       <c r="J34" s="14" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="14.4" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B35" t="s">
         <v>185</v>
       </c>
       <c r="C35" t="s">
@@ -3421,120 +3346,120 @@
         <v>187</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>542</v>
+        <v>19</v>
       </c>
       <c r="H35" t="s">
+        <v>188</v>
+      </c>
+      <c r="I35">
+        <v>15195342628</v>
+      </c>
+      <c r="J35" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C36" t="s">
+        <v>191</v>
+      </c>
+      <c r="D36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>567</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" t="s">
         <v>20</v>
       </c>
-      <c r="I35">
-        <v>15199422828</v>
-      </c>
-      <c r="J35" s="14" t="s">
+      <c r="I36">
+        <v>15139227020</v>
+      </c>
+      <c r="J36" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A36" t="s">
-        <v>188</v>
-      </c>
-      <c r="B36" t="s">
-        <v>189</v>
-      </c>
-      <c r="C36" t="s">
-        <v>190</v>
-      </c>
-      <c r="D36" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H36" t="s">
+    <row r="37" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" t="s">
         <v>192</v>
       </c>
-      <c r="I36">
-        <v>15195342628</v>
-      </c>
-      <c r="J36" s="14" t="s">
+      <c r="C37" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A37" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="3" t="s">
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="C37" t="s">
-        <v>195</v>
-      </c>
-      <c r="D37" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>585</v>
-      </c>
       <c r="F37" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H37" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I37">
-        <v>15139227020</v>
+        <v>14165468250</v>
       </c>
       <c r="J37" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="14.4" customHeight="1">
+    <row r="38" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="B38" t="s">
+        <v>197</v>
+      </c>
+      <c r="C38" t="s">
+        <v>198</v>
+      </c>
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" t="s">
         <v>196</v>
       </c>
-      <c r="C38" t="s">
-        <v>197</v>
-      </c>
-      <c r="D38" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" s="20" t="s">
-        <v>198</v>
-      </c>
       <c r="F38" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H38" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I38">
-        <v>14165468250</v>
-      </c>
-      <c r="J38" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="14.4" customHeight="1">
+        <v>14165512550</v>
+      </c>
+      <c r="J38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="B39" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C39" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D39" t="s">
         <v>14</v>
       </c>
       <c r="E39" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>19</v>
@@ -3549,21 +3474,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="14.4" customHeight="1">
+    <row r="40" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>133</v>
+        <v>29</v>
       </c>
       <c r="B40" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C40" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D40" t="s">
         <v>14</v>
       </c>
       <c r="E40" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>19</v>
@@ -3578,67 +3503,67 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="14.4" customHeight="1">
+    <row r="41" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B41" t="s">
-        <v>199</v>
+        <v>125</v>
       </c>
       <c r="C41" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="D41" t="s">
         <v>14</v>
       </c>
       <c r="E41" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H41" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I41">
-        <v>14165512550</v>
+        <v>19055293037</v>
       </c>
       <c r="J41" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="14.4" customHeight="1">
+    <row r="42" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>27</v>
       </c>
       <c r="B42" t="s">
-        <v>126</v>
+        <v>205</v>
       </c>
       <c r="C42" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="D42" t="s">
         <v>14</v>
       </c>
-      <c r="E42" t="s">
-        <v>222</v>
+      <c r="E42" s="20" t="s">
+        <v>207</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>19</v>
+        <v>525</v>
       </c>
       <c r="H42" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I42">
-        <v>19055293037</v>
-      </c>
-      <c r="J42" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="14.4" customHeight="1">
+        <v>12897552839</v>
+      </c>
+      <c r="J42" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>27</v>
+        <v>208</v>
       </c>
       <c r="B43" t="s">
         <v>209</v>
@@ -3653,33 +3578,33 @@
         <v>211</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>542</v>
+        <v>19</v>
       </c>
       <c r="H43" t="s">
         <v>20</v>
       </c>
       <c r="I43">
-        <v>12897552839</v>
+        <v>13433740100</v>
       </c>
       <c r="J43" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="14.4" customHeight="1">
+    <row r="44" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" t="s">
         <v>212</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>213</v>
       </c>
-      <c r="C44" t="s">
-        <v>214</v>
-      </c>
       <c r="D44" t="s">
         <v>14</v>
       </c>
       <c r="E44" s="20" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>19</v>
@@ -3688,56 +3613,56 @@
         <v>20</v>
       </c>
       <c r="I44">
-        <v>13433740100</v>
+        <v>13433980104</v>
       </c>
       <c r="J44" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="14.4" customHeight="1">
+    <row r="45" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="B45" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C45" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="D45" t="s">
         <v>14</v>
       </c>
-      <c r="E45" s="20" t="s">
-        <v>215</v>
+      <c r="E45" t="s">
+        <v>225</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H45" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I45">
-        <v>13433980104</v>
-      </c>
-      <c r="J45" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="14.4" customHeight="1">
+        <v>16477465430</v>
+      </c>
+      <c r="J45" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B46" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C46" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D46" t="s">
         <v>14</v>
       </c>
       <c r="E46" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>19</v>
@@ -3746,76 +3671,76 @@
         <v>28</v>
       </c>
       <c r="I46">
-        <v>16477465430</v>
-      </c>
-      <c r="J46" t="s">
+        <v>14374101420</v>
+      </c>
+      <c r="J46" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="14.4" customHeight="1">
+    <row r="47" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>25</v>
-      </c>
-      <c r="B47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C47" t="s">
+        <v>215</v>
+      </c>
+      <c r="D47" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="H47" t="s">
+        <v>20</v>
+      </c>
+      <c r="I47">
+        <v>14169779343</v>
+      </c>
+      <c r="J47" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>227</v>
       </c>
-      <c r="C47" t="s">
+      <c r="B48" t="s">
+        <v>228</v>
+      </c>
+      <c r="C48" t="s">
+        <v>229</v>
+      </c>
+      <c r="D48" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" t="s">
         <v>230</v>
       </c>
-      <c r="D47" t="s">
-        <v>14</v>
-      </c>
-      <c r="E47" t="s">
-        <v>229</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H47" t="s">
-        <v>28</v>
-      </c>
-      <c r="I47">
-        <v>14374101420</v>
-      </c>
-      <c r="J47" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A48" t="s">
-        <v>23</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C48" t="s">
-        <v>219</v>
-      </c>
-      <c r="D48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" s="20" t="s">
-        <v>220</v>
-      </c>
       <c r="F48" s="6" t="s">
-        <v>542</v>
+        <v>19</v>
       </c>
       <c r="H48" t="s">
         <v>20</v>
       </c>
       <c r="I48">
-        <v>14169779343</v>
-      </c>
-      <c r="J48" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="14.4" customHeight="1">
+        <v>15193892839</v>
+      </c>
+      <c r="J48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" t="s">
         <v>231</v>
-      </c>
-      <c r="B49" t="s">
-        <v>232</v>
       </c>
       <c r="C49" t="s">
         <v>233</v>
@@ -3824,7 +3749,7 @@
         <v>14</v>
       </c>
       <c r="E49" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>19</v>
@@ -3833,27 +3758,27 @@
         <v>20</v>
       </c>
       <c r="I49">
-        <v>15193892839</v>
+        <v>19056286324</v>
       </c>
       <c r="J49" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="14.4" customHeight="1">
+    <row r="50" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="B50" t="s">
+        <v>234</v>
+      </c>
+      <c r="C50" t="s">
         <v>235</v>
       </c>
-      <c r="C50" t="s">
-        <v>237</v>
-      </c>
       <c r="D50" t="s">
         <v>14</v>
       </c>
       <c r="E50" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>19</v>
@@ -3862,27 +3787,27 @@
         <v>20</v>
       </c>
       <c r="I50">
-        <v>19056286324</v>
+        <v>12894260469</v>
       </c>
       <c r="J50" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="14.4" customHeight="1">
+    <row r="51" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>79</v>
+        <v>236</v>
       </c>
       <c r="B51" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C51" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D51" t="s">
         <v>14</v>
       </c>
       <c r="E51" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>19</v>
@@ -3891,259 +3816,259 @@
         <v>20</v>
       </c>
       <c r="I51">
-        <v>12894260469</v>
+        <v>12894480170</v>
       </c>
       <c r="J51" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="14.4" customHeight="1">
+    <row r="52" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" t="s">
+        <v>238</v>
+      </c>
+      <c r="C52" t="s">
+        <v>239</v>
+      </c>
+      <c r="D52" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" t="s">
         <v>240</v>
       </c>
-      <c r="B52" t="s">
-        <v>235</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="F52" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H52" t="s">
+        <v>33</v>
+      </c>
+      <c r="I52">
+        <v>14167926477</v>
+      </c>
+      <c r="J52" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" t="s">
         <v>241</v>
       </c>
-      <c r="D52" t="s">
-        <v>14</v>
-      </c>
-      <c r="E52" t="s">
-        <v>236</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H52" t="s">
+      <c r="C53" t="s">
+        <v>242</v>
+      </c>
+      <c r="D53" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" t="s">
+        <v>243</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H53" t="s">
         <v>20</v>
       </c>
-      <c r="I52">
-        <v>12894480170</v>
-      </c>
-      <c r="J52" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A53" t="s">
-        <v>25</v>
-      </c>
-      <c r="B53" t="s">
-        <v>242</v>
-      </c>
-      <c r="C53" t="s">
-        <v>243</v>
-      </c>
-      <c r="D53" t="s">
-        <v>14</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="I53">
+        <v>16135367110</v>
+      </c>
+      <c r="J53" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" t="s">
         <v>244</v>
       </c>
-      <c r="F53" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H53" t="s">
-        <v>33</v>
-      </c>
-      <c r="I53">
-        <v>14167926477</v>
-      </c>
-      <c r="J53" t="s">
+      <c r="C54" t="s">
+        <v>245</v>
+      </c>
+      <c r="D54" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" t="s">
+        <v>246</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H54" t="s">
+        <v>16</v>
+      </c>
+      <c r="I54">
+        <v>16138364420</v>
+      </c>
+      <c r="J54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>219</v>
+      </c>
+      <c r="B55" t="s">
+        <v>220</v>
+      </c>
+      <c r="C55" t="s">
+        <v>221</v>
+      </c>
+      <c r="D55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="H55" t="s">
+        <v>18</v>
+      </c>
+      <c r="I55">
+        <v>18078538888</v>
+      </c>
+      <c r="J55" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" t="s">
+        <v>248</v>
+      </c>
+      <c r="C56" t="s">
+        <v>249</v>
+      </c>
+      <c r="D56" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" t="s">
+        <v>250</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H56" t="s">
+        <v>20</v>
+      </c>
+      <c r="I56">
+        <v>14165469944</v>
+      </c>
+      <c r="J56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>29</v>
+      </c>
+      <c r="B57" t="s">
+        <v>251</v>
+      </c>
+      <c r="C57" t="s">
+        <v>252</v>
+      </c>
+      <c r="D57" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" t="s">
+        <v>253</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" t="s">
+        <v>22</v>
+      </c>
+      <c r="I57">
+        <v>14165260000</v>
+      </c>
+      <c r="J57" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A54" t="s">
-        <v>47</v>
-      </c>
-      <c r="B54" t="s">
-        <v>245</v>
-      </c>
-      <c r="C54" t="s">
-        <v>246</v>
-      </c>
-      <c r="D54" t="s">
-        <v>14</v>
-      </c>
-      <c r="E54" t="s">
-        <v>247</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H54" t="s">
-        <v>20</v>
-      </c>
-      <c r="I54">
-        <v>16135367110</v>
-      </c>
-      <c r="J54" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A55" t="s">
-        <v>32</v>
-      </c>
-      <c r="B55" t="s">
-        <v>248</v>
-      </c>
-      <c r="C55" t="s">
-        <v>249</v>
-      </c>
-      <c r="D55" t="s">
-        <v>14</v>
-      </c>
-      <c r="E55" t="s">
-        <v>250</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H55" t="s">
-        <v>16</v>
-      </c>
-      <c r="I55">
-        <v>16138364420</v>
-      </c>
-      <c r="J55" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A56" t="s">
-        <v>223</v>
-      </c>
-      <c r="B56" t="s">
-        <v>224</v>
-      </c>
-      <c r="C56" t="s">
-        <v>225</v>
-      </c>
-      <c r="D56" t="s">
-        <v>14</v>
-      </c>
-      <c r="E56" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>582</v>
-      </c>
-      <c r="H56" t="s">
-        <v>18</v>
-      </c>
-      <c r="I56">
-        <v>18078538888</v>
-      </c>
-      <c r="J56" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A57" t="s">
-        <v>23</v>
-      </c>
-      <c r="B57" t="s">
-        <v>252</v>
-      </c>
-      <c r="C57" t="s">
-        <v>253</v>
-      </c>
-      <c r="D57" t="s">
-        <v>14</v>
-      </c>
-      <c r="E57" t="s">
-        <v>254</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H57" t="s">
-        <v>20</v>
-      </c>
-      <c r="I57">
-        <v>14165469944</v>
-      </c>
-      <c r="J57" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="14.4" customHeight="1">
+    <row r="58" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>29</v>
       </c>
       <c r="B58" t="s">
+        <v>254</v>
+      </c>
+      <c r="C58" t="s">
         <v>255</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" t="s">
         <v>256</v>
       </c>
-      <c r="D58" t="s">
-        <v>14</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="F58" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58" t="s">
+        <v>16</v>
+      </c>
+      <c r="I58">
+        <v>16472779835</v>
+      </c>
+      <c r="J58" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59" t="s">
         <v>257</v>
       </c>
-      <c r="F58" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H58" t="s">
-        <v>22</v>
-      </c>
-      <c r="I58">
-        <v>14165260000</v>
-      </c>
-      <c r="J58" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A59" t="s">
-        <v>29</v>
-      </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>258</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" t="s">
         <v>259</v>
       </c>
-      <c r="D59" t="s">
-        <v>14</v>
-      </c>
-      <c r="E59" t="s">
-        <v>260</v>
-      </c>
       <c r="F59" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H59" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I59">
-        <v>16472779835</v>
+        <v>14163951945</v>
       </c>
       <c r="J59" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="14.4" customHeight="1">
+    <row r="60" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B60" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C60" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D60" t="s">
         <v>14</v>
       </c>
       <c r="E60" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>19</v>
@@ -4152,27 +4077,27 @@
         <v>20</v>
       </c>
       <c r="I60">
-        <v>14163951945</v>
+        <v>12893896764</v>
       </c>
       <c r="J60" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="14.4" customHeight="1">
+    <row r="61" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="B61" t="s">
+        <v>266</v>
+      </c>
+      <c r="C61" t="s">
         <v>267</v>
       </c>
-      <c r="C61" t="s">
-        <v>268</v>
-      </c>
       <c r="D61" t="s">
         <v>14</v>
       </c>
       <c r="E61" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>19</v>
@@ -4187,73 +4112,73 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="14.4" customHeight="1">
+    <row r="62" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>58</v>
+        <v>260</v>
       </c>
       <c r="B62" t="s">
+        <v>52</v>
+      </c>
+      <c r="C62" t="s">
+        <v>261</v>
+      </c>
+      <c r="D62" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="H62" t="s">
+        <v>28</v>
+      </c>
+      <c r="I62">
+        <v>12267224367</v>
+      </c>
+      <c r="J62" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>50</v>
+      </c>
+      <c r="B63" t="s">
+        <v>268</v>
+      </c>
+      <c r="C63" t="s">
         <v>270</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D63" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" t="s">
+        <v>269</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H63" t="s">
+        <v>30</v>
+      </c>
+      <c r="I63">
+        <v>14162564815</v>
+      </c>
+      <c r="J63" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>50</v>
+      </c>
+      <c r="B64" t="s">
         <v>271</v>
       </c>
-      <c r="D62" t="s">
-        <v>14</v>
-      </c>
-      <c r="E62" t="s">
-        <v>269</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H62" t="s">
-        <v>20</v>
-      </c>
-      <c r="I62">
-        <v>12893896764</v>
-      </c>
-      <c r="J62" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A63" t="s">
-        <v>264</v>
-      </c>
-      <c r="B63" t="s">
-        <v>53</v>
-      </c>
-      <c r="C63" t="s">
-        <v>265</v>
-      </c>
-      <c r="D63" t="s">
-        <v>14</v>
-      </c>
-      <c r="E63" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>586</v>
-      </c>
-      <c r="H63" t="s">
-        <v>28</v>
-      </c>
-      <c r="I63">
-        <v>12267224367</v>
-      </c>
-      <c r="J63" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A64" t="s">
-        <v>51</v>
-      </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>272</v>
-      </c>
-      <c r="C64" t="s">
-        <v>274</v>
       </c>
       <c r="D64" t="s">
         <v>14</v>
@@ -4262,51 +4187,51 @@
         <v>273</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>563</v>
       </c>
       <c r="H64" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I64">
-        <v>14162564815</v>
-      </c>
-      <c r="J64" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="14.4" customHeight="1">
+        <v>16473451819</v>
+      </c>
+      <c r="J64" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>51</v>
+        <v>275</v>
       </c>
       <c r="B65" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C65" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D65" t="s">
         <v>14</v>
       </c>
       <c r="E65" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G65" s="13" t="s">
-        <v>580</v>
+        <v>19</v>
       </c>
       <c r="H65" t="s">
         <v>20</v>
       </c>
       <c r="I65">
-        <v>16473451819</v>
+        <v>17059350053</v>
       </c>
       <c r="J65" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="14.4" customHeight="1">
+    <row r="66" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>279</v>
       </c>
@@ -4326,16 +4251,16 @@
         <v>19</v>
       </c>
       <c r="H66" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I66">
-        <v>17059350053</v>
+        <v>17053621118</v>
       </c>
       <c r="J66" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="14.4" customHeight="1">
+    <row r="67" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>283</v>
       </c>
@@ -4355,30 +4280,30 @@
         <v>19</v>
       </c>
       <c r="H67" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I67">
-        <v>17053621118</v>
+        <v>19058877555</v>
       </c>
       <c r="J67" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="14.4" customHeight="1">
+    <row r="68" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
+        <v>25</v>
+      </c>
+      <c r="B68" t="s">
         <v>287</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>288</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" t="s">
         <v>289</v>
-      </c>
-      <c r="D68" t="s">
-        <v>14</v>
-      </c>
-      <c r="E68" t="s">
-        <v>290</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>19</v>
@@ -4387,27 +4312,27 @@
         <v>20</v>
       </c>
       <c r="I68">
-        <v>19058877555</v>
+        <v>14162316003</v>
       </c>
       <c r="J68" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="14.4" customHeight="1">
+    <row r="69" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="B69" t="s">
+        <v>290</v>
+      </c>
+      <c r="C69" t="s">
         <v>291</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69" t="s">
         <v>292</v>
-      </c>
-      <c r="D69" t="s">
-        <v>14</v>
-      </c>
-      <c r="E69" t="s">
-        <v>293</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>19</v>
@@ -4416,27 +4341,27 @@
         <v>20</v>
       </c>
       <c r="I69">
-        <v>14162316003</v>
+        <v>15192563602</v>
       </c>
       <c r="J69" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="14.4" customHeight="1">
+    <row r="70" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="B70" t="s">
+        <v>293</v>
+      </c>
+      <c r="C70" t="s">
         <v>294</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" t="s">
         <v>295</v>
-      </c>
-      <c r="D70" t="s">
-        <v>14</v>
-      </c>
-      <c r="E70" t="s">
-        <v>296</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>19</v>
@@ -4445,27 +4370,27 @@
         <v>20</v>
       </c>
       <c r="I70">
-        <v>15192563602</v>
+        <v>19056419333</v>
       </c>
       <c r="J70" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="14.4" customHeight="1">
+    <row r="71" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B71" t="s">
+        <v>63</v>
+      </c>
+      <c r="C71" t="s">
+        <v>296</v>
+      </c>
+      <c r="D71" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71" t="s">
         <v>297</v>
-      </c>
-      <c r="C71" t="s">
-        <v>298</v>
-      </c>
-      <c r="D71" t="s">
-        <v>14</v>
-      </c>
-      <c r="E71" t="s">
-        <v>299</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>19</v>
@@ -4474,18 +4399,18 @@
         <v>20</v>
       </c>
       <c r="I71">
-        <v>19056419333</v>
+        <v>17052525599</v>
       </c>
       <c r="J71" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="14.4" customHeight="1">
+    <row r="72" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B72" t="s">
-        <v>64</v>
+        <v>299</v>
       </c>
       <c r="C72" t="s">
         <v>300</v>
@@ -4500,143 +4425,143 @@
         <v>19</v>
       </c>
       <c r="H72" t="s">
+        <v>18</v>
+      </c>
+      <c r="I72">
+        <v>14167629922</v>
+      </c>
+      <c r="J72" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>48</v>
+      </c>
+      <c r="B73" t="s">
+        <v>302</v>
+      </c>
+      <c r="C73" t="s">
+        <v>174</v>
+      </c>
+      <c r="D73" t="s">
+        <v>77</v>
+      </c>
+      <c r="E73" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="H73" t="s">
         <v>20</v>
       </c>
-      <c r="I72">
-        <v>17052525599</v>
-      </c>
-      <c r="J72" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="14.4" customHeight="1">
-      <c r="A73" t="s">
-        <v>23</v>
-      </c>
-      <c r="B73" t="s">
-        <v>303</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="I73">
+        <v>12899806868</v>
+      </c>
+      <c r="J73" s="14" t="s">
+        <v>570</v>
+      </c>
+      <c r="K73" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>50</v>
+      </c>
+      <c r="B74" t="s">
+        <v>160</v>
+      </c>
+      <c r="C74" t="s">
         <v>304</v>
       </c>
-      <c r="D73" t="s">
-        <v>14</v>
-      </c>
-      <c r="E73" t="s">
+      <c r="D74" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" t="s">
         <v>305</v>
       </c>
-      <c r="F73" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H73" t="s">
-        <v>18</v>
-      </c>
-      <c r="I73">
-        <v>14167629922</v>
-      </c>
-      <c r="J73" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="14.4" customHeight="1">
-      <c r="A74" t="s">
-        <v>49</v>
-      </c>
-      <c r="B74" t="s">
-        <v>306</v>
-      </c>
-      <c r="C74" t="s">
-        <v>175</v>
-      </c>
-      <c r="D74" t="s">
-        <v>78</v>
-      </c>
-      <c r="E74" s="20" t="s">
-        <v>307</v>
-      </c>
       <c r="F74" s="6" t="s">
-        <v>542</v>
+        <v>19</v>
       </c>
       <c r="H74" t="s">
         <v>20</v>
       </c>
       <c r="I74">
-        <v>12899806868</v>
-      </c>
-      <c r="J74" s="14" t="s">
-        <v>588</v>
-      </c>
-      <c r="K74" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="14.4" customHeight="1">
+        <v>14167833008</v>
+      </c>
+      <c r="J74" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B75" t="s">
+        <v>306</v>
+      </c>
+      <c r="C75" t="s">
+        <v>307</v>
+      </c>
+      <c r="D75" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="H75" t="s">
+        <v>22</v>
+      </c>
+      <c r="I75">
+        <v>17058814629</v>
+      </c>
+      <c r="J75" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>37</v>
+      </c>
+      <c r="B76" t="s">
         <v>161</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C76" t="s">
+        <v>309</v>
+      </c>
+      <c r="D76" t="s">
+        <v>14</v>
+      </c>
+      <c r="E76" s="20" t="s">
         <v>308</v>
       </c>
-      <c r="D75" t="s">
-        <v>14</v>
-      </c>
-      <c r="E75" t="s">
-        <v>309</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H75" t="s">
-        <v>20</v>
-      </c>
-      <c r="I75">
-        <v>14167833008</v>
-      </c>
-      <c r="J75" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="14.4" customHeight="1">
-      <c r="A76" t="s">
-        <v>40</v>
-      </c>
-      <c r="B76" t="s">
-        <v>310</v>
-      </c>
-      <c r="C76" t="s">
-        <v>311</v>
-      </c>
-      <c r="D76" t="s">
-        <v>14</v>
-      </c>
-      <c r="E76" s="20" t="s">
-        <v>312</v>
-      </c>
       <c r="F76" s="6" t="s">
-        <v>582</v>
+        <v>565</v>
       </c>
       <c r="H76" t="s">
         <v>22</v>
       </c>
       <c r="I76">
-        <v>17058814629</v>
+        <v>17053250068</v>
       </c>
       <c r="J76" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="14.4" customHeight="1">
+    <row r="77" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B77" t="s">
-        <v>162</v>
+        <v>310</v>
       </c>
       <c r="C77" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D77" t="s">
         <v>14</v>
@@ -4645,117 +4570,117 @@
         <v>312</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>582</v>
+        <v>565</v>
       </c>
       <c r="H77" t="s">
         <v>22</v>
       </c>
       <c r="I77">
-        <v>17053250068</v>
+        <v>14165199159</v>
       </c>
       <c r="J77" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="14.4" customHeight="1">
+    <row r="78" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B78" t="s">
+        <v>161</v>
+      </c>
+      <c r="C78" t="s">
+        <v>313</v>
+      </c>
+      <c r="D78" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78" s="20" t="s">
         <v>314</v>
       </c>
-      <c r="C78" t="s">
+      <c r="F78" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="H78" t="s">
+        <v>26</v>
+      </c>
+      <c r="I78">
+        <v>17057071595</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>83</v>
+      </c>
+      <c r="B79" t="s">
         <v>315</v>
       </c>
-      <c r="D78" t="s">
-        <v>14</v>
-      </c>
-      <c r="E78" s="20" t="s">
+      <c r="C79" t="s">
         <v>316</v>
       </c>
-      <c r="F78" s="6" t="s">
-        <v>582</v>
-      </c>
-      <c r="H78" t="s">
+      <c r="D79" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="H79" t="s">
+        <v>20</v>
+      </c>
+      <c r="I79">
+        <v>19052395300</v>
+      </c>
+      <c r="J79" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>64</v>
+      </c>
+      <c r="B80" t="s">
+        <v>173</v>
+      </c>
+      <c r="C80" t="s">
+        <v>318</v>
+      </c>
+      <c r="D80" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" t="s">
+        <v>319</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H80" t="s">
         <v>22</v>
       </c>
-      <c r="I78">
-        <v>14165199159</v>
-      </c>
-      <c r="J78" t="s">
+      <c r="I80">
+        <v>16134222211</v>
+      </c>
+      <c r="J80" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="14.4" customHeight="1">
-      <c r="A79" t="s">
-        <v>46</v>
-      </c>
-      <c r="B79" t="s">
-        <v>162</v>
-      </c>
-      <c r="C79" t="s">
-        <v>317</v>
-      </c>
-      <c r="D79" t="s">
-        <v>14</v>
-      </c>
-      <c r="E79" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>582</v>
-      </c>
-      <c r="H79" t="s">
-        <v>26</v>
-      </c>
-      <c r="I79">
-        <v>17057071595</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="14.4" customHeight="1">
-      <c r="A80" t="s">
-        <v>84</v>
-      </c>
-      <c r="B80" t="s">
+    <row r="81" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>176</v>
+      </c>
+      <c r="B81" t="s">
+        <v>173</v>
+      </c>
+      <c r="C81" t="s">
+        <v>320</v>
+      </c>
+      <c r="D81" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81" t="s">
         <v>319</v>
-      </c>
-      <c r="C80" t="s">
-        <v>320</v>
-      </c>
-      <c r="D80" t="s">
-        <v>14</v>
-      </c>
-      <c r="E80" s="20" t="s">
-        <v>321</v>
-      </c>
-      <c r="F80" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="H80" t="s">
-        <v>20</v>
-      </c>
-      <c r="I80">
-        <v>19052395300</v>
-      </c>
-      <c r="J80" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="14.4" customHeight="1">
-      <c r="A81" t="s">
-        <v>65</v>
-      </c>
-      <c r="B81" t="s">
-        <v>174</v>
-      </c>
-      <c r="C81" t="s">
-        <v>322</v>
-      </c>
-      <c r="D81" t="s">
-        <v>14</v>
-      </c>
-      <c r="E81" t="s">
-        <v>323</v>
       </c>
       <c r="F81" s="6" t="s">
         <v>19</v>
@@ -4770,27 +4695,27 @@
         <v>34</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="14.4" customHeight="1">
+    <row r="82" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>177</v>
+        <v>36</v>
       </c>
       <c r="B82" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C82" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D82" t="s">
         <v>14</v>
       </c>
       <c r="E82" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H82" t="s">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="I82">
         <v>16134222211</v>
@@ -4799,50 +4724,50 @@
         <v>34</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="14.4" customHeight="1">
+    <row r="83" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B83" t="s">
-        <v>174</v>
+        <v>322</v>
       </c>
       <c r="C83" t="s">
+        <v>323</v>
+      </c>
+      <c r="D83" t="s">
+        <v>14</v>
+      </c>
+      <c r="E83" t="s">
+        <v>324</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H83" t="s">
+        <v>20</v>
+      </c>
+      <c r="I83">
+        <v>14166910899</v>
+      </c>
+      <c r="J83" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>75</v>
+      </c>
+      <c r="B84" t="s">
         <v>325</v>
       </c>
-      <c r="D83" t="s">
-        <v>14</v>
-      </c>
-      <c r="E83" t="s">
-        <v>323</v>
-      </c>
-      <c r="F83" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H83" t="s">
-        <v>140</v>
-      </c>
-      <c r="I83">
-        <v>16134222211</v>
-      </c>
-      <c r="J83" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="14.4" customHeight="1">
-      <c r="A84" t="s">
-        <v>23</v>
-      </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>326</v>
       </c>
-      <c r="C84" t="s">
-        <v>327</v>
-      </c>
       <c r="D84" t="s">
         <v>14</v>
       </c>
       <c r="E84" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F84" s="6" t="s">
         <v>19</v>
@@ -4851,239 +4776,242 @@
         <v>20</v>
       </c>
       <c r="I84">
-        <v>14166910899</v>
+        <v>14164105442</v>
       </c>
       <c r="J84" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="14.4" customHeight="1">
+    <row r="85" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="B85" t="s">
+        <v>328</v>
+      </c>
+      <c r="C85" t="s">
         <v>329</v>
       </c>
-      <c r="C85" t="s">
-        <v>330</v>
-      </c>
       <c r="D85" t="s">
         <v>14</v>
       </c>
-      <c r="E85" t="s">
-        <v>328</v>
+      <c r="E85" s="20" t="s">
+        <v>327</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>19</v>
+        <v>525</v>
       </c>
       <c r="H85" t="s">
         <v>20</v>
       </c>
       <c r="I85">
-        <v>14164105442</v>
-      </c>
-      <c r="J85" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="14.4" customHeight="1">
+        <v>14167922447</v>
+      </c>
+      <c r="J85" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B86" t="s">
+        <v>330</v>
+      </c>
+      <c r="C86" t="s">
+        <v>331</v>
+      </c>
+      <c r="D86" t="s">
+        <v>14</v>
+      </c>
+      <c r="E86" t="s">
         <v>332</v>
       </c>
-      <c r="C86" t="s">
-        <v>333</v>
-      </c>
-      <c r="D86" t="s">
-        <v>14</v>
-      </c>
-      <c r="E86" s="20" t="s">
-        <v>331</v>
-      </c>
       <c r="F86" s="6" t="s">
-        <v>542</v>
+        <v>19</v>
       </c>
       <c r="H86" t="s">
         <v>20</v>
       </c>
       <c r="I86">
-        <v>14167922447</v>
-      </c>
-      <c r="J86" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" ht="14.4" customHeight="1">
+        <v>19054973131</v>
+      </c>
+      <c r="J86" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="B87" t="s">
+        <v>333</v>
+      </c>
+      <c r="C87" t="s">
         <v>334</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
+        <v>14</v>
+      </c>
+      <c r="E87" s="20" t="s">
         <v>335</v>
       </c>
-      <c r="D87" t="s">
-        <v>14</v>
-      </c>
-      <c r="E87" t="s">
-        <v>336</v>
-      </c>
       <c r="F87" s="6" t="s">
-        <v>19</v>
+        <v>562</v>
       </c>
       <c r="H87" t="s">
         <v>20</v>
       </c>
       <c r="I87">
-        <v>19054973131</v>
-      </c>
-      <c r="J87" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" ht="14.4" customHeight="1">
+        <v>17053449086</v>
+      </c>
+      <c r="J87" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="K87" s="14" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="B88" t="s">
+        <v>336</v>
+      </c>
+      <c r="C88" t="s">
         <v>337</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
+        <v>14</v>
+      </c>
+      <c r="E88" s="20" t="s">
         <v>338</v>
       </c>
-      <c r="D88" t="s">
-        <v>14</v>
-      </c>
-      <c r="E88" s="20" t="s">
-        <v>339</v>
-      </c>
       <c r="F88" s="6" t="s">
-        <v>579</v>
+        <v>19</v>
       </c>
       <c r="H88" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I88">
-        <v>17053449086</v>
+        <v>19054979585</v>
       </c>
       <c r="J88" s="14" t="s">
-        <v>590</v>
-      </c>
-      <c r="K88" s="14" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" ht="14.4" customHeight="1">
+        <v>17</v>
+      </c>
+      <c r="K88" s="25" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>43</v>
       </c>
       <c r="B89" t="s">
+        <v>339</v>
+      </c>
+      <c r="C89" t="s">
         <v>340</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
+        <v>14</v>
+      </c>
+      <c r="E89" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H89" t="s">
+        <v>20</v>
+      </c>
+      <c r="I89">
+        <v>19054979522</v>
+      </c>
+      <c r="J89" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K89" s="25" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>23</v>
+      </c>
+      <c r="B90" t="s">
+        <v>342</v>
+      </c>
+      <c r="C90" t="s">
+        <v>343</v>
+      </c>
+      <c r="D90" t="s">
+        <v>14</v>
+      </c>
+      <c r="E90" t="s">
+        <v>344</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H90" t="s">
+        <v>16</v>
+      </c>
+      <c r="I90">
+        <v>14164771489</v>
+      </c>
+      <c r="J90" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>85</v>
+      </c>
+      <c r="B91" t="s">
+        <v>336</v>
+      </c>
+      <c r="C91" t="s">
         <v>341</v>
       </c>
-      <c r="D89" t="s">
-        <v>14</v>
-      </c>
-      <c r="E89" s="20" t="s">
-        <v>342</v>
-      </c>
-      <c r="F89" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H89" t="s">
-        <v>16</v>
-      </c>
-      <c r="I89">
-        <v>19054979585</v>
-      </c>
-      <c r="J89" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K89" s="25" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" ht="14.4" customHeight="1">
-      <c r="A90" t="s">
-        <v>43</v>
-      </c>
-      <c r="B90" t="s">
-        <v>343</v>
-      </c>
-      <c r="C90" t="s">
-        <v>344</v>
-      </c>
-      <c r="D90" t="s">
-        <v>14</v>
-      </c>
-      <c r="E90" s="20" t="s">
-        <v>342</v>
-      </c>
-      <c r="F90" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H90" t="s">
+      <c r="D91" t="s">
+        <v>14</v>
+      </c>
+      <c r="E91" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H91" t="s">
         <v>20</v>
       </c>
-      <c r="I90">
-        <v>19054979522</v>
-      </c>
-      <c r="J90" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K90" s="25" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" ht="14.4" customHeight="1">
-      <c r="A91" t="s">
-        <v>23</v>
-      </c>
-      <c r="B91" t="s">
+      <c r="I91">
+        <v>19054979550</v>
+      </c>
+      <c r="J91" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K91" s="25" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>84</v>
+      </c>
+      <c r="B92" t="s">
+        <v>345</v>
+      </c>
+      <c r="C92" t="s">
         <v>346</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D92" t="s">
+        <v>14</v>
+      </c>
+      <c r="E92" t="s">
         <v>347</v>
-      </c>
-      <c r="D91" t="s">
-        <v>14</v>
-      </c>
-      <c r="E91" t="s">
-        <v>348</v>
-      </c>
-      <c r="F91" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H91" t="s">
-        <v>16</v>
-      </c>
-      <c r="I91">
-        <v>14164771489</v>
-      </c>
-      <c r="J91" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" ht="14.4" customHeight="1">
-      <c r="A92" t="s">
-        <v>86</v>
-      </c>
-      <c r="B92" t="s">
-        <v>340</v>
-      </c>
-      <c r="C92" t="s">
-        <v>345</v>
-      </c>
-      <c r="D92" t="s">
-        <v>14</v>
-      </c>
-      <c r="E92" s="20" t="s">
-        <v>342</v>
       </c>
       <c r="F92" s="6" t="s">
         <v>19</v>
@@ -5092,265 +5020,253 @@
         <v>20</v>
       </c>
       <c r="I92">
-        <v>19054979550</v>
-      </c>
-      <c r="J92" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K92" s="25" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" ht="14.4" customHeight="1">
+        <v>15197848420</v>
+      </c>
+      <c r="J92" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>85</v>
-      </c>
-      <c r="B93" t="s">
+        <v>23</v>
+      </c>
+      <c r="B93">
+        <v>1922</v>
+      </c>
+      <c r="C93" t="s">
+        <v>348</v>
+      </c>
+      <c r="D93" t="s">
+        <v>14</v>
+      </c>
+      <c r="E93" t="s">
+        <v>349</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H93" t="s">
+        <v>33</v>
+      </c>
+      <c r="I93">
+        <v>14162628744</v>
+      </c>
+      <c r="J93" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>29</v>
+      </c>
+      <c r="B94" t="s">
+        <v>350</v>
+      </c>
+      <c r="C94" t="s">
         <v>351</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D94" t="s">
+        <v>14</v>
+      </c>
+      <c r="E94" t="s">
         <v>352</v>
       </c>
-      <c r="D93" t="s">
-        <v>14</v>
-      </c>
-      <c r="E93" t="s">
+      <c r="F94" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H94" t="s">
+        <v>20</v>
+      </c>
+      <c r="I94">
+        <v>14162640777</v>
+      </c>
+      <c r="J94" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>50</v>
+      </c>
+      <c r="B95" t="s">
         <v>353</v>
       </c>
-      <c r="F93" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H93" t="s">
+      <c r="C95" t="s">
+        <v>354</v>
+      </c>
+      <c r="D95" t="s">
+        <v>14</v>
+      </c>
+      <c r="E95" t="s">
+        <v>355</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H95" t="s">
+        <v>33</v>
+      </c>
+      <c r="I95">
+        <v>14165518982</v>
+      </c>
+      <c r="J95" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>23</v>
+      </c>
+      <c r="B96" t="s">
+        <v>356</v>
+      </c>
+      <c r="C96" t="s">
+        <v>357</v>
+      </c>
+      <c r="D96" t="s">
+        <v>14</v>
+      </c>
+      <c r="E96" t="s">
+        <v>358</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H96" t="s">
         <v>20</v>
       </c>
-      <c r="I93">
-        <v>15197848420</v>
-      </c>
-      <c r="J93" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" ht="14.4" customHeight="1">
-      <c r="A94" t="s">
-        <v>23</v>
-      </c>
-      <c r="B94">
-        <v>1922</v>
-      </c>
-      <c r="C94" t="s">
-        <v>354</v>
-      </c>
-      <c r="D94" t="s">
-        <v>14</v>
-      </c>
-      <c r="E94" t="s">
-        <v>355</v>
-      </c>
-      <c r="F94" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H94" t="s">
-        <v>33</v>
-      </c>
-      <c r="I94">
-        <v>14162628744</v>
-      </c>
-      <c r="J94" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" ht="14.4" customHeight="1">
-      <c r="A95" t="s">
-        <v>29</v>
-      </c>
-      <c r="B95" t="s">
+      <c r="I96">
+        <v>14166908081</v>
+      </c>
+      <c r="J96" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>75</v>
+      </c>
+      <c r="B97" t="s">
         <v>356</v>
       </c>
-      <c r="C95" t="s">
-        <v>357</v>
-      </c>
-      <c r="D95" t="s">
-        <v>14</v>
-      </c>
-      <c r="E95" t="s">
+      <c r="C97" t="s">
+        <v>359</v>
+      </c>
+      <c r="D97" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" t="s">
         <v>358</v>
       </c>
-      <c r="F95" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H95" t="s">
+      <c r="F97" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H97" t="s">
+        <v>16</v>
+      </c>
+      <c r="I97">
+        <v>14162837433</v>
+      </c>
+      <c r="J97" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>36</v>
+      </c>
+      <c r="B98" t="s">
+        <v>361</v>
+      </c>
+      <c r="C98" t="s">
+        <v>362</v>
+      </c>
+      <c r="D98" t="s">
+        <v>14</v>
+      </c>
+      <c r="E98" t="s">
+        <v>363</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H98" t="s">
         <v>20</v>
       </c>
-      <c r="I95">
-        <v>14162640777</v>
-      </c>
-      <c r="J95" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" ht="14.4" customHeight="1">
-      <c r="A96" t="s">
-        <v>51</v>
-      </c>
-      <c r="B96" t="s">
-        <v>359</v>
-      </c>
-      <c r="C96" t="s">
-        <v>360</v>
-      </c>
-      <c r="D96" t="s">
-        <v>14</v>
-      </c>
-      <c r="E96" t="s">
-        <v>361</v>
-      </c>
-      <c r="F96" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H96" t="s">
-        <v>33</v>
-      </c>
-      <c r="I96">
-        <v>14165518982</v>
-      </c>
-      <c r="J96" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" ht="14.4" customHeight="1">
-      <c r="A97" t="s">
-        <v>23</v>
-      </c>
-      <c r="B97" t="s">
-        <v>362</v>
-      </c>
-      <c r="C97" t="s">
-        <v>363</v>
-      </c>
-      <c r="D97" t="s">
-        <v>14</v>
-      </c>
-      <c r="E97" t="s">
+      <c r="I98">
+        <v>16132333000</v>
+      </c>
+      <c r="J98" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>27</v>
+      </c>
+      <c r="B99" t="s">
         <v>364</v>
       </c>
-      <c r="F97" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H97" t="s">
-        <v>20</v>
-      </c>
-      <c r="I97">
-        <v>14166908081</v>
-      </c>
-      <c r="J97" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" ht="14.4" customHeight="1">
-      <c r="A98" t="s">
-        <v>76</v>
-      </c>
-      <c r="B98" t="s">
-        <v>362</v>
-      </c>
-      <c r="C98" t="s">
+      <c r="C99" t="s">
         <v>365</v>
       </c>
-      <c r="D98" t="s">
-        <v>14</v>
-      </c>
-      <c r="E98" t="s">
-        <v>364</v>
-      </c>
-      <c r="F98" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H98" t="s">
-        <v>16</v>
-      </c>
-      <c r="I98">
-        <v>14162837433</v>
-      </c>
-      <c r="J98" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" ht="14.4" customHeight="1">
-      <c r="A99" t="s">
-        <v>86</v>
-      </c>
-      <c r="B99" t="s">
-        <v>112</v>
-      </c>
-      <c r="C99" t="s">
-        <v>349</v>
-      </c>
       <c r="D99" t="s">
         <v>14</v>
       </c>
-      <c r="E99" s="20" t="s">
-        <v>350</v>
+      <c r="E99" t="s">
+        <v>366</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>579</v>
+        <v>19</v>
       </c>
       <c r="H99" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I99">
-        <v>19052782222</v>
-      </c>
-      <c r="J99" s="14" t="s">
-        <v>594</v>
-      </c>
-      <c r="K99" s="26" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" ht="14.4" customHeight="1">
+        <v>12892461172</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>36</v>
+        <v>368</v>
       </c>
       <c r="B100" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C100" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D100" t="s">
         <v>14</v>
       </c>
       <c r="E100" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="F100" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H100" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I100">
-        <v>16132333000</v>
-      </c>
-      <c r="J100" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" ht="14.4" customHeight="1">
+        <v>12262530859</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="B101" t="s">
-        <v>375</v>
+        <v>133</v>
       </c>
       <c r="C101" t="s">
-        <v>376</v>
+        <v>201</v>
       </c>
       <c r="D101" t="s">
         <v>14</v>
       </c>
       <c r="E101" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F101" s="6" t="s">
         <v>19</v>
@@ -5359,128 +5275,128 @@
         <v>18</v>
       </c>
       <c r="I101">
-        <v>12892461172</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" ht="14.4" customHeight="1">
+        <v>15193542255</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
+        <v>62</v>
+      </c>
+      <c r="B102" t="s">
+        <v>133</v>
+      </c>
+      <c r="C102" t="s">
+        <v>371</v>
+      </c>
+      <c r="D102" t="s">
+        <v>14</v>
+      </c>
+      <c r="E102" t="s">
+        <v>370</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H102" t="s">
+        <v>51</v>
+      </c>
+      <c r="I102">
+        <v>15192582544</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>62</v>
+      </c>
+      <c r="B103" t="s">
+        <v>133</v>
+      </c>
+      <c r="C103" t="s">
+        <v>372</v>
+      </c>
+      <c r="D103" t="s">
+        <v>14</v>
+      </c>
+      <c r="E103" t="s">
+        <v>373</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H103" t="s">
+        <v>28</v>
+      </c>
+      <c r="I103">
+        <v>15192500712</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>62</v>
+      </c>
+      <c r="B104" t="s">
+        <v>133</v>
+      </c>
+      <c r="C104" t="s">
+        <v>374</v>
+      </c>
+      <c r="D104" t="s">
+        <v>14</v>
+      </c>
+      <c r="E104" t="s">
+        <v>373</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H104" t="s">
+        <v>18</v>
+      </c>
+      <c r="I104">
+        <v>15199678818</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>375</v>
+      </c>
+      <c r="B105" t="s">
+        <v>376</v>
+      </c>
+      <c r="C105" t="s">
+        <v>377</v>
+      </c>
+      <c r="D105" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105" t="s">
+        <v>378</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H105" t="s">
+        <v>26</v>
+      </c>
+      <c r="I105">
+        <v>16133722272</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>43</v>
+      </c>
+      <c r="B106" t="s">
+        <v>143</v>
+      </c>
+      <c r="C106" t="s">
         <v>379</v>
       </c>
-      <c r="B102" t="s">
-        <v>378</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="D106" t="s">
+        <v>14</v>
+      </c>
+      <c r="E106" t="s">
         <v>380</v>
-      </c>
-      <c r="D102" t="s">
-        <v>14</v>
-      </c>
-      <c r="E102" t="s">
-        <v>377</v>
-      </c>
-      <c r="F102" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H102" t="s">
-        <v>18</v>
-      </c>
-      <c r="I102">
-        <v>12262530859</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" ht="14.4" customHeight="1">
-      <c r="A103" t="s">
-        <v>85</v>
-      </c>
-      <c r="B103" t="s">
-        <v>134</v>
-      </c>
-      <c r="C103" t="s">
-        <v>205</v>
-      </c>
-      <c r="D103" t="s">
-        <v>14</v>
-      </c>
-      <c r="E103" t="s">
-        <v>381</v>
-      </c>
-      <c r="F103" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H103" t="s">
-        <v>18</v>
-      </c>
-      <c r="I103">
-        <v>15193542255</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" ht="14.4" customHeight="1">
-      <c r="A104" t="s">
-        <v>63</v>
-      </c>
-      <c r="B104" t="s">
-        <v>134</v>
-      </c>
-      <c r="C104" t="s">
-        <v>382</v>
-      </c>
-      <c r="D104" t="s">
-        <v>14</v>
-      </c>
-      <c r="E104" t="s">
-        <v>381</v>
-      </c>
-      <c r="F104" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H104" t="s">
-        <v>52</v>
-      </c>
-      <c r="I104">
-        <v>15192582544</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" ht="14.4" customHeight="1">
-      <c r="A105" t="s">
-        <v>63</v>
-      </c>
-      <c r="B105" t="s">
-        <v>134</v>
-      </c>
-      <c r="C105" t="s">
-        <v>383</v>
-      </c>
-      <c r="D105" t="s">
-        <v>14</v>
-      </c>
-      <c r="E105" t="s">
-        <v>384</v>
-      </c>
-      <c r="F105" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H105" t="s">
-        <v>28</v>
-      </c>
-      <c r="I105">
-        <v>15192500712</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" ht="14.4" customHeight="1">
-      <c r="A106" t="s">
-        <v>63</v>
-      </c>
-      <c r="B106" t="s">
-        <v>134</v>
-      </c>
-      <c r="C106" t="s">
-        <v>385</v>
-      </c>
-      <c r="D106" t="s">
-        <v>14</v>
-      </c>
-      <c r="E106" t="s">
-        <v>384</v>
       </c>
       <c r="F106" s="6" t="s">
         <v>19</v>
@@ -5489,125 +5405,122 @@
         <v>18</v>
       </c>
       <c r="I106">
-        <v>15199678818</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" ht="14.4" customHeight="1">
+        <v>19054956454</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>43</v>
+        <v>360</v>
       </c>
       <c r="B107" t="s">
-        <v>367</v>
+        <v>143</v>
       </c>
       <c r="C107" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="D107" t="s">
         <v>14</v>
       </c>
-      <c r="E107" s="20" t="s">
-        <v>369</v>
+      <c r="E107" t="s">
+        <v>380</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>579</v>
+        <v>19</v>
       </c>
       <c r="H107" t="s">
+        <v>18</v>
+      </c>
+      <c r="I107">
+        <v>19054956454</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>27</v>
+      </c>
+      <c r="B108" t="s">
+        <v>382</v>
+      </c>
+      <c r="C108" t="s">
+        <v>383</v>
+      </c>
+      <c r="D108" t="s">
+        <v>14</v>
+      </c>
+      <c r="E108" t="s">
+        <v>384</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H108" t="s">
+        <v>18</v>
+      </c>
+      <c r="I108">
+        <v>19055288955</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>45</v>
+      </c>
+      <c r="B109" t="s">
+        <v>385</v>
+      </c>
+      <c r="C109" t="s">
+        <v>386</v>
+      </c>
+      <c r="D109" t="s">
+        <v>14</v>
+      </c>
+      <c r="E109" t="s">
+        <v>387</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H109" t="s">
+        <v>28</v>
+      </c>
+      <c r="I109">
+        <v>15197571001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>135</v>
+      </c>
+      <c r="B110" t="s">
+        <v>388</v>
+      </c>
+      <c r="C110" t="s">
+        <v>389</v>
+      </c>
+      <c r="D110" t="s">
+        <v>14</v>
+      </c>
+      <c r="E110" t="s">
+        <v>390</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H110" t="s">
         <v>20</v>
       </c>
-      <c r="I107">
-        <v>19054530698</v>
-      </c>
-      <c r="J107" s="14" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" ht="14.4" customHeight="1">
-      <c r="A108" t="s">
-        <v>386</v>
-      </c>
-      <c r="B108" t="s">
-        <v>387</v>
-      </c>
-      <c r="C108" t="s">
-        <v>388</v>
-      </c>
-      <c r="D108" t="s">
-        <v>14</v>
-      </c>
-      <c r="E108" t="s">
-        <v>389</v>
-      </c>
-      <c r="F108" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H108" t="s">
-        <v>26</v>
-      </c>
-      <c r="I108">
-        <v>16133722272</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" ht="14.4" customHeight="1">
-      <c r="A109" t="s">
-        <v>50</v>
-      </c>
-      <c r="B109" t="s">
-        <v>367</v>
-      </c>
-      <c r="C109" t="s">
-        <v>370</v>
-      </c>
-      <c r="D109" t="s">
-        <v>14</v>
-      </c>
-      <c r="E109" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="F109" s="6" t="s">
-        <v>579</v>
-      </c>
-      <c r="H109" t="s">
-        <v>20</v>
-      </c>
-      <c r="I109">
-        <v>15197446627</v>
-      </c>
-      <c r="J109" s="14" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" ht="14.4" customHeight="1">
-      <c r="A110" t="s">
-        <v>43</v>
-      </c>
-      <c r="B110" t="s">
-        <v>144</v>
-      </c>
-      <c r="C110" t="s">
-        <v>390</v>
-      </c>
-      <c r="D110" t="s">
-        <v>14</v>
-      </c>
-      <c r="E110" t="s">
+      <c r="I110">
+        <v>17053209898</v>
+      </c>
+      <c r="J110" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>49</v>
+      </c>
+      <c r="B111" t="s">
         <v>391</v>
-      </c>
-      <c r="F110" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H110" t="s">
-        <v>18</v>
-      </c>
-      <c r="I110">
-        <v>19054956454</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" ht="14.4" customHeight="1">
-      <c r="A111" t="s">
-        <v>366</v>
-      </c>
-      <c r="B111" t="s">
-        <v>144</v>
       </c>
       <c r="C111" t="s">
         <v>392</v>
@@ -5616,33 +5529,36 @@
         <v>14</v>
       </c>
       <c r="E111" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F111" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H111" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I111">
-        <v>19054956454</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" ht="14.4" customHeight="1">
+        <v>15199545323</v>
+      </c>
+      <c r="J111" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>27</v>
+        <v>394</v>
       </c>
       <c r="B112" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C112" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D112" t="s">
         <v>14</v>
       </c>
       <c r="E112" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F112" s="6" t="s">
         <v>19</v>
@@ -5651,50 +5567,53 @@
         <v>18</v>
       </c>
       <c r="I112">
-        <v>19055288955</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" ht="14.4" customHeight="1">
+        <v>12892982856</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>45</v>
+        <v>179</v>
       </c>
       <c r="B113" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C113" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D113" t="s">
         <v>14</v>
       </c>
       <c r="E113" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F113" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H113" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I113">
-        <v>15197571001</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" ht="14.4" customHeight="1">
+        <v>19055633933</v>
+      </c>
+      <c r="J113" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="B114" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C114" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D114" t="s">
         <v>14</v>
       </c>
       <c r="E114" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F114" s="6" t="s">
         <v>19</v>
@@ -5703,56 +5622,53 @@
         <v>20</v>
       </c>
       <c r="I114">
-        <v>17053209898</v>
+        <v>12892732782</v>
       </c>
       <c r="J114" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="14.4" customHeight="1">
+    <row r="115" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B115" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C115" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D115" t="s">
         <v>14</v>
       </c>
       <c r="E115" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F115" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H115" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I115">
-        <v>15199545323</v>
-      </c>
-      <c r="J115" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" ht="14.4" customHeight="1">
+        <v>15193040660</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>405</v>
+        <v>203</v>
       </c>
       <c r="B116" t="s">
+        <v>407</v>
+      </c>
+      <c r="C116" t="s">
+        <v>408</v>
+      </c>
+      <c r="D116" t="s">
+        <v>14</v>
+      </c>
+      <c r="E116" t="s">
         <v>406</v>
-      </c>
-      <c r="C116" t="s">
-        <v>407</v>
-      </c>
-      <c r="D116" t="s">
-        <v>14</v>
-      </c>
-      <c r="E116" t="s">
-        <v>408</v>
       </c>
       <c r="F116" s="6" t="s">
         <v>19</v>
@@ -5761,12 +5677,12 @@
         <v>18</v>
       </c>
       <c r="I116">
-        <v>12892982856</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" ht="14.4" customHeight="1">
+        <v>17058879567</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>180</v>
+        <v>23</v>
       </c>
       <c r="B117" t="s">
         <v>409</v>
@@ -5784,18 +5700,13 @@
         <v>19</v>
       </c>
       <c r="H117" t="s">
-        <v>20</v>
-      </c>
-      <c r="I117">
-        <v>19055633933</v>
-      </c>
-      <c r="J117" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" ht="14.4" customHeight="1">
+        <v>28</v>
+      </c>
+      <c r="I117"/>
+    </row>
+    <row r="118" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="B118" t="s">
         <v>412</v>
@@ -5803,57 +5714,60 @@
       <c r="C118" t="s">
         <v>413</v>
       </c>
-      <c r="D118" t="s">
-        <v>14</v>
-      </c>
-      <c r="E118" t="s">
+      <c r="D118" s="7" t="s">
         <v>414</v>
       </c>
+      <c r="E118" s="17" t="s">
+        <v>415</v>
+      </c>
       <c r="F118" s="6" t="s">
-        <v>19</v>
+        <v>553</v>
       </c>
       <c r="H118" t="s">
+        <v>56</v>
+      </c>
+      <c r="I118" s="16">
+        <v>12262711259</v>
+      </c>
+      <c r="J118" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>65</v>
+      </c>
+      <c r="B119" t="s">
+        <v>416</v>
+      </c>
+      <c r="C119" t="s">
+        <v>417</v>
+      </c>
+      <c r="D119" t="s">
+        <v>14</v>
+      </c>
+      <c r="E119" t="s">
+        <v>418</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H119" t="s">
         <v>20</v>
       </c>
-      <c r="I118">
-        <v>12892732782</v>
-      </c>
-      <c r="J118" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A119" t="s">
-        <v>45</v>
-      </c>
-      <c r="B119" t="s">
-        <v>415</v>
-      </c>
-      <c r="C119" t="s">
+      <c r="I119">
+        <v>14164002045</v>
+      </c>
+      <c r="J119" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>23</v>
+      </c>
+      <c r="B120" t="s">
         <v>416</v>
-      </c>
-      <c r="D119" t="s">
-        <v>14</v>
-      </c>
-      <c r="E119" t="s">
-        <v>417</v>
-      </c>
-      <c r="F119" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H119" t="s">
-        <v>26</v>
-      </c>
-      <c r="I119">
-        <v>15193040660</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A120" t="s">
-        <v>207</v>
-      </c>
-      <c r="B120" t="s">
-        <v>418</v>
       </c>
       <c r="C120" t="s">
         <v>419</v>
@@ -5862,19 +5776,22 @@
         <v>14</v>
       </c>
       <c r="E120" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F120" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H120" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I120">
-        <v>17058879567</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" ht="14.4" customHeight="1">
+        <v>14164002883</v>
+      </c>
+      <c r="J120" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>23</v>
       </c>
@@ -5894,13 +5811,18 @@
         <v>19</v>
       </c>
       <c r="H121" t="s">
-        <v>28</v>
-      </c>
-      <c r="I121"/>
-    </row>
-    <row r="122" spans="1:10" ht="14.4" customHeight="1">
+        <v>20</v>
+      </c>
+      <c r="I121">
+        <v>14167813128</v>
+      </c>
+      <c r="J121" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B122" t="s">
         <v>423</v>
@@ -5908,63 +5830,63 @@
       <c r="C122" t="s">
         <v>424</v>
       </c>
-      <c r="D122" s="7" t="s">
+      <c r="D122" t="s">
+        <v>14</v>
+      </c>
+      <c r="E122" t="s">
         <v>425</v>
       </c>
-      <c r="E122" s="17" t="s">
-        <v>426</v>
-      </c>
       <c r="F122" s="6" t="s">
-        <v>570</v>
+        <v>19</v>
       </c>
       <c r="H122" t="s">
-        <v>57</v>
-      </c>
-      <c r="I122" s="16">
-        <v>12262711259</v>
+        <v>22</v>
+      </c>
+      <c r="I122">
+        <v>14166308420</v>
       </c>
       <c r="J122" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="14.4" customHeight="1">
+    <row r="123" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="B123" t="s">
+        <v>423</v>
+      </c>
+      <c r="C123" t="s">
+        <v>426</v>
+      </c>
+      <c r="D123" t="s">
+        <v>14</v>
+      </c>
+      <c r="E123" t="s">
         <v>427</v>
       </c>
-      <c r="C123" t="s">
-        <v>428</v>
-      </c>
-      <c r="D123" t="s">
-        <v>14</v>
-      </c>
-      <c r="E123" t="s">
-        <v>429</v>
-      </c>
       <c r="F123" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H123" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I123">
-        <v>14164002045</v>
+        <v>15482884335</v>
       </c>
       <c r="J123" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" ht="14.4" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>23</v>
       </c>
       <c r="B124" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C124" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D124" t="s">
         <v>14</v>
@@ -5976,166 +5898,160 @@
         <v>19</v>
       </c>
       <c r="H124" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I124">
-        <v>14164002883</v>
-      </c>
-      <c r="J124" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" ht="14.4" customHeight="1">
+        <v>16478079072</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B125" t="s">
-        <v>431</v>
+        <v>81</v>
       </c>
       <c r="C125" t="s">
-        <v>432</v>
+        <v>298</v>
       </c>
       <c r="D125" t="s">
-        <v>14</v>
-      </c>
-      <c r="E125" t="s">
-        <v>433</v>
+        <v>77</v>
+      </c>
+      <c r="E125" s="20" t="s">
+        <v>430</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>19</v>
+        <v>576</v>
       </c>
       <c r="H125" t="s">
         <v>20</v>
       </c>
       <c r="I125">
-        <v>14167813128</v>
+        <v>19054274716</v>
       </c>
       <c r="J125" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="14.4" customHeight="1">
+    <row r="126" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="B126" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C126" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D126" t="s">
         <v>14</v>
       </c>
       <c r="E126" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="F126" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H126" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I126">
-        <v>14166308420</v>
+        <v>15199414500</v>
       </c>
       <c r="J126" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" ht="14.4" customHeight="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B127" t="s">
         <v>434</v>
       </c>
       <c r="C127" t="s">
+        <v>435</v>
+      </c>
+      <c r="D127" t="s">
+        <v>14</v>
+      </c>
+      <c r="E127" t="s">
+        <v>436</v>
+      </c>
+      <c r="F127" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H127" t="s">
+        <v>26</v>
+      </c>
+      <c r="I127">
+        <v>15198210555</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>360</v>
+      </c>
+      <c r="B128" t="s">
         <v>437</v>
       </c>
-      <c r="D127" t="s">
-        <v>14</v>
-      </c>
-      <c r="E127" t="s">
+      <c r="C128" t="s">
         <v>438</v>
       </c>
-      <c r="F127" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H127" t="s">
+      <c r="D128" t="s">
+        <v>14</v>
+      </c>
+      <c r="E128" t="s">
+        <v>439</v>
+      </c>
+      <c r="F128" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H128" t="s">
+        <v>26</v>
+      </c>
+      <c r="I128">
+        <v>15199255523</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>45</v>
+      </c>
+      <c r="B129" t="s">
+        <v>440</v>
+      </c>
+      <c r="C129" t="s">
+        <v>441</v>
+      </c>
+      <c r="D129" t="s">
+        <v>14</v>
+      </c>
+      <c r="E129" s="20" t="s">
+        <v>442</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H129" t="s">
         <v>33</v>
       </c>
-      <c r="I127">
-        <v>15482884335</v>
-      </c>
-      <c r="J127" t="s">
+      <c r="I129">
+        <v>15193047465</v>
+      </c>
+      <c r="J129" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A128" t="s">
-        <v>23</v>
-      </c>
-      <c r="B128" t="s">
-        <v>434</v>
-      </c>
-      <c r="C128" t="s">
-        <v>439</v>
-      </c>
-      <c r="D128" t="s">
-        <v>14</v>
-      </c>
-      <c r="E128" t="s">
-        <v>440</v>
-      </c>
-      <c r="F128" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H128" t="s">
-        <v>28</v>
-      </c>
-      <c r="I128">
-        <v>16478079072</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A129" t="s">
-        <v>21</v>
-      </c>
-      <c r="B129" t="s">
-        <v>82</v>
-      </c>
-      <c r="C129" t="s">
-        <v>302</v>
-      </c>
-      <c r="D129" t="s">
-        <v>78</v>
-      </c>
-      <c r="E129" s="20" t="s">
-        <v>441</v>
-      </c>
-      <c r="F129" s="6" t="s">
-        <v>596</v>
-      </c>
-      <c r="H129" t="s">
-        <v>20</v>
-      </c>
-      <c r="I129">
-        <v>19054274716</v>
-      </c>
-      <c r="J129" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" ht="14.4" customHeight="1">
+    <row r="130" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="B130" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C130" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D130" t="s">
         <v>14</v>
@@ -6147,44 +6063,41 @@
         <v>19</v>
       </c>
       <c r="H130" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I130">
-        <v>15199414500</v>
-      </c>
-      <c r="J130" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" ht="14.4" customHeight="1">
+        <v>12893896889</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="B131" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C131" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D131" t="s">
         <v>14</v>
       </c>
       <c r="E131" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F131" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H131" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I131">
-        <v>15198210555</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" ht="14.4" customHeight="1">
+        <v>12893898989</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>366</v>
+        <v>29</v>
       </c>
       <c r="B132" t="s">
         <v>448</v>
@@ -6205,24 +6118,24 @@
         <v>26</v>
       </c>
       <c r="I132">
-        <v>15199255523</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" ht="14.4" customHeight="1">
+        <v>14162669336</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="B133" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C133" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="D133" t="s">
         <v>14</v>
       </c>
-      <c r="E133" s="20" t="s">
-        <v>453</v>
+      <c r="E133" t="s">
+        <v>456</v>
       </c>
       <c r="F133" s="6" t="s">
         <v>19</v>
@@ -6231,27 +6144,27 @@
         <v>33</v>
       </c>
       <c r="I133">
-        <v>15193047465</v>
-      </c>
-      <c r="J133" s="14" t="s">
+        <v>16139335005</v>
+      </c>
+      <c r="J133" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="14.4" customHeight="1">
+    <row r="134" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="B134" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C134" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D134" t="s">
         <v>14</v>
       </c>
       <c r="E134" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="F134" s="6" t="s">
         <v>19</v>
@@ -6260,70 +6173,76 @@
         <v>18</v>
       </c>
       <c r="I134">
-        <v>12893896889</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" ht="14.4" customHeight="1">
+        <v>16139322525</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>27</v>
+        <v>274</v>
       </c>
       <c r="B135" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C135" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D135" t="s">
         <v>14</v>
       </c>
-      <c r="E135" t="s">
-        <v>455</v>
+      <c r="E135" s="20" t="s">
+        <v>453</v>
       </c>
       <c r="F135" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H135" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I135">
-        <v>12893898989</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" ht="14.4" customHeight="1">
+        <v>13652053237</v>
+      </c>
+      <c r="J135" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="B136" t="s">
+        <v>178</v>
+      </c>
+      <c r="C136" t="s">
+        <v>460</v>
+      </c>
+      <c r="D136" t="s">
+        <v>14</v>
+      </c>
+      <c r="E136" s="20" t="s">
+        <v>461</v>
+      </c>
+      <c r="F136" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H136" t="s">
+        <v>16</v>
+      </c>
+      <c r="I136">
+        <v>15193157768</v>
+      </c>
+      <c r="J136" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>70</v>
+      </c>
+      <c r="B137" t="s">
         <v>462</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C137" t="s">
         <v>463</v>
-      </c>
-      <c r="D136" t="s">
-        <v>14</v>
-      </c>
-      <c r="E136" t="s">
-        <v>464</v>
-      </c>
-      <c r="F136" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H136" t="s">
-        <v>26</v>
-      </c>
-      <c r="I136">
-        <v>14162669336</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A137" t="s">
-        <v>48</v>
-      </c>
-      <c r="B137" t="s">
-        <v>459</v>
-      </c>
-      <c r="C137" t="s">
-        <v>460</v>
       </c>
       <c r="D137" t="s">
         <v>14</v>
@@ -6332,166 +6251,166 @@
         <v>461</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>542</v>
+        <v>19</v>
       </c>
       <c r="H137" t="s">
+        <v>16</v>
+      </c>
+      <c r="I137">
+        <v>15193077768</v>
+      </c>
+      <c r="J137" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>48</v>
+      </c>
+      <c r="B138" t="s">
+        <v>178</v>
+      </c>
+      <c r="C138" t="s">
+        <v>464</v>
+      </c>
+      <c r="D138" t="s">
+        <v>14</v>
+      </c>
+      <c r="E138" s="20" t="s">
+        <v>461</v>
+      </c>
+      <c r="F138" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H138" t="s">
         <v>20</v>
       </c>
-      <c r="I137">
-        <v>18073456272</v>
-      </c>
-      <c r="J137" s="14" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A138" t="s">
-        <v>65</v>
-      </c>
-      <c r="B138" t="s">
+      <c r="I138">
+        <v>19057287768</v>
+      </c>
+      <c r="J138" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>38</v>
+      </c>
+      <c r="B139" t="s">
+        <v>465</v>
+      </c>
+      <c r="C139" t="s">
+        <v>466</v>
+      </c>
+      <c r="D139" t="s">
+        <v>14</v>
+      </c>
+      <c r="E139" s="20" t="s">
+        <v>461</v>
+      </c>
+      <c r="F139" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H139" t="s">
+        <v>16</v>
+      </c>
+      <c r="I139">
+        <v>19056840141</v>
+      </c>
+      <c r="J139" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>62</v>
+      </c>
+      <c r="B140" t="s">
+        <v>180</v>
+      </c>
+      <c r="C140" t="s">
+        <v>467</v>
+      </c>
+      <c r="D140" t="s">
+        <v>14</v>
+      </c>
+      <c r="E140" t="s">
         <v>468</v>
       </c>
-      <c r="C138" t="s">
+      <c r="F140" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H140" t="s">
+        <v>22</v>
+      </c>
+      <c r="I140">
+        <v>15199662525</v>
+      </c>
+      <c r="J140" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
         <v>469</v>
       </c>
-      <c r="D138" t="s">
-        <v>14</v>
-      </c>
-      <c r="E138" t="s">
+      <c r="B141" t="s">
         <v>470</v>
       </c>
-      <c r="F138" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H138" t="s">
-        <v>33</v>
-      </c>
-      <c r="I138">
-        <v>16139335005</v>
-      </c>
-      <c r="J138" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A139" t="s">
-        <v>65</v>
-      </c>
-      <c r="B139" t="s">
+      <c r="C141" t="s">
         <v>471</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D141" t="s">
+        <v>14</v>
+      </c>
+      <c r="E141" t="s">
         <v>472</v>
       </c>
-      <c r="D139" t="s">
-        <v>14</v>
-      </c>
-      <c r="E139" t="s">
+      <c r="F141" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H141" t="s">
+        <v>20</v>
+      </c>
+      <c r="I141">
+        <v>17056223107</v>
+      </c>
+      <c r="J141" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>35</v>
+      </c>
+      <c r="B142" t="s">
         <v>473</v>
       </c>
-      <c r="F139" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H139" t="s">
-        <v>18</v>
-      </c>
-      <c r="I139">
-        <v>16139322525</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A140" t="s">
-        <v>278</v>
-      </c>
-      <c r="B140" t="s">
-        <v>465</v>
-      </c>
-      <c r="C140" t="s">
-        <v>466</v>
-      </c>
-      <c r="D140" t="s">
-        <v>14</v>
-      </c>
-      <c r="E140" s="20" t="s">
-        <v>467</v>
-      </c>
-      <c r="F140" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H140" t="s">
-        <v>20</v>
-      </c>
-      <c r="I140">
-        <v>13652053237</v>
-      </c>
-      <c r="J140" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A141" t="s">
-        <v>62</v>
-      </c>
-      <c r="B141" t="s">
-        <v>179</v>
-      </c>
-      <c r="C141" t="s">
+      <c r="C142" t="s">
         <v>474</v>
       </c>
-      <c r="D141" t="s">
-        <v>14</v>
-      </c>
-      <c r="E141" s="20" t="s">
+      <c r="D142" t="s">
+        <v>14</v>
+      </c>
+      <c r="E142" t="s">
         <v>475</v>
       </c>
-      <c r="F141" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H141" t="s">
-        <v>16</v>
-      </c>
-      <c r="I141">
-        <v>15193157768</v>
-      </c>
-      <c r="J141" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A142" t="s">
-        <v>71</v>
-      </c>
-      <c r="B142" t="s">
-        <v>476</v>
-      </c>
-      <c r="C142" t="s">
+      <c r="F142" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H142" t="s">
+        <v>51</v>
+      </c>
+      <c r="I142">
+        <v>16138282929</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>121</v>
+      </c>
+      <c r="B143" t="s">
         <v>477</v>
-      </c>
-      <c r="D142" t="s">
-        <v>14</v>
-      </c>
-      <c r="E142" s="20" t="s">
-        <v>475</v>
-      </c>
-      <c r="F142" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H142" t="s">
-        <v>16</v>
-      </c>
-      <c r="I142">
-        <v>15193077768</v>
-      </c>
-      <c r="J142" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A143" t="s">
-        <v>49</v>
-      </c>
-      <c r="B143" t="s">
-        <v>179</v>
       </c>
       <c r="C143" t="s">
         <v>478</v>
@@ -6499,25 +6418,22 @@
       <c r="D143" t="s">
         <v>14</v>
       </c>
-      <c r="E143" s="20" t="s">
-        <v>475</v>
+      <c r="E143" t="s">
+        <v>476</v>
       </c>
       <c r="F143" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H143" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I143">
-        <v>19057287768</v>
-      </c>
-      <c r="J143" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" ht="14.4" customHeight="1">
+        <v>13434760363</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B144" t="s">
         <v>479</v>
@@ -6528,135 +6444,135 @@
       <c r="D144" t="s">
         <v>14</v>
       </c>
-      <c r="E144" s="20" t="s">
-        <v>475</v>
+      <c r="E144" t="s">
+        <v>476</v>
       </c>
       <c r="F144" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H144" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I144">
-        <v>19056840141</v>
-      </c>
-      <c r="J144" s="14" t="s">
+        <v>14165219993</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>43</v>
+      </c>
+      <c r="B145" t="s">
+        <v>481</v>
+      </c>
+      <c r="C145" t="s">
+        <v>482</v>
+      </c>
+      <c r="D145" t="s">
+        <v>14</v>
+      </c>
+      <c r="E145" s="20" t="s">
+        <v>483</v>
+      </c>
+      <c r="F145" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="H145" t="s">
+        <v>20</v>
+      </c>
+      <c r="I145">
+        <v>19054519600</v>
+      </c>
+      <c r="J145" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A145" t="s">
-        <v>63</v>
-      </c>
-      <c r="B145" t="s">
-        <v>181</v>
-      </c>
-      <c r="C145" t="s">
-        <v>481</v>
-      </c>
-      <c r="D145" t="s">
-        <v>14</v>
-      </c>
-      <c r="E145" t="s">
-        <v>482</v>
-      </c>
-      <c r="F145" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H145" t="s">
-        <v>22</v>
-      </c>
-      <c r="I145">
-        <v>15199662525</v>
-      </c>
-      <c r="J145" t="s">
+    <row r="146" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>29</v>
+      </c>
+      <c r="B146" t="s">
+        <v>487</v>
+      </c>
+      <c r="C146" t="s">
+        <v>488</v>
+      </c>
+      <c r="D146" t="s">
+        <v>14</v>
+      </c>
+      <c r="E146" t="s">
+        <v>489</v>
+      </c>
+      <c r="F146" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H146" t="s">
+        <v>26</v>
+      </c>
+      <c r="I146">
+        <v>14162910420</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>36</v>
+      </c>
+      <c r="B147" t="s">
+        <v>490</v>
+      </c>
+      <c r="C147" t="s">
+        <v>491</v>
+      </c>
+      <c r="D147" t="s">
+        <v>14</v>
+      </c>
+      <c r="E147" t="s">
+        <v>492</v>
+      </c>
+      <c r="F147" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H147" t="s">
+        <v>20</v>
+      </c>
+      <c r="I147">
+        <v>16135638040</v>
+      </c>
+      <c r="J147" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>54</v>
+      </c>
+      <c r="B148" t="s">
+        <v>484</v>
+      </c>
+      <c r="C148" t="s">
+        <v>485</v>
+      </c>
+      <c r="D148" t="s">
+        <v>14</v>
+      </c>
+      <c r="E148" s="20" t="s">
+        <v>486</v>
+      </c>
+      <c r="F148" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="H148" t="s">
+        <v>33</v>
+      </c>
+      <c r="I148">
+        <v>19057272020</v>
+      </c>
+      <c r="J148" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A146" t="s">
-        <v>483</v>
-      </c>
-      <c r="B146" t="s">
-        <v>484</v>
-      </c>
-      <c r="C146" t="s">
-        <v>485</v>
-      </c>
-      <c r="D146" t="s">
-        <v>14</v>
-      </c>
-      <c r="E146" t="s">
-        <v>486</v>
-      </c>
-      <c r="F146" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H146" t="s">
-        <v>20</v>
-      </c>
-      <c r="I146">
-        <v>17056223107</v>
-      </c>
-      <c r="J146" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A147" t="s">
-        <v>35</v>
-      </c>
-      <c r="B147" t="s">
-        <v>487</v>
-      </c>
-      <c r="C147" t="s">
-        <v>488</v>
-      </c>
-      <c r="D147" t="s">
-        <v>14</v>
-      </c>
-      <c r="E147" t="s">
-        <v>489</v>
-      </c>
-      <c r="F147" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H147" t="s">
-        <v>52</v>
-      </c>
-      <c r="I147">
-        <v>16138282929</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A148" t="s">
-        <v>122</v>
-      </c>
-      <c r="B148" t="s">
-        <v>491</v>
-      </c>
-      <c r="C148" t="s">
-        <v>492</v>
-      </c>
-      <c r="D148" t="s">
-        <v>14</v>
-      </c>
-      <c r="E148" t="s">
-        <v>490</v>
-      </c>
-      <c r="F148" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H148" t="s">
-        <v>18</v>
-      </c>
-      <c r="I148">
-        <v>13434760363</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" ht="14.4" customHeight="1">
+    <row r="149" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B149" t="s">
         <v>493</v>
@@ -6668,146 +6584,117 @@
         <v>14</v>
       </c>
       <c r="E149" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="F149" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H149" t="s">
+        <v>20</v>
+      </c>
+      <c r="I149">
+        <v>16473411333</v>
+      </c>
+      <c r="J149" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>23</v>
+      </c>
+      <c r="B151" t="s">
+        <v>499</v>
+      </c>
+      <c r="C151" t="s">
+        <v>500</v>
+      </c>
+      <c r="D151" t="s">
+        <v>14</v>
+      </c>
+      <c r="E151" t="s">
+        <v>501</v>
+      </c>
+      <c r="F151" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H151" t="s">
+        <v>22</v>
+      </c>
+      <c r="I151">
+        <v>14166516673</v>
+      </c>
+      <c r="J151" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>57</v>
+      </c>
+      <c r="B152" t="s">
+        <v>502</v>
+      </c>
+      <c r="C152" t="s">
+        <v>503</v>
+      </c>
+      <c r="D152" t="s">
+        <v>14</v>
+      </c>
+      <c r="E152" t="s">
+        <v>504</v>
+      </c>
+      <c r="F152" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H152" t="s">
         <v>18</v>
       </c>
-      <c r="I149">
-        <v>14165219993</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A150" t="s">
-        <v>43</v>
-      </c>
-      <c r="B150" t="s">
-        <v>495</v>
-      </c>
-      <c r="C150" t="s">
-        <v>496</v>
-      </c>
-      <c r="D150" t="s">
-        <v>14</v>
-      </c>
-      <c r="E150" s="20" t="s">
-        <v>497</v>
-      </c>
-      <c r="F150" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="H150" t="s">
-        <v>20</v>
-      </c>
-      <c r="I150">
-        <v>19054519600</v>
-      </c>
-      <c r="J150" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A151" t="s">
-        <v>29</v>
-      </c>
-      <c r="B151" t="s">
-        <v>501</v>
-      </c>
-      <c r="C151" t="s">
-        <v>502</v>
-      </c>
-      <c r="D151" t="s">
-        <v>14</v>
-      </c>
-      <c r="E151" t="s">
-        <v>503</v>
-      </c>
-      <c r="F151" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H151" t="s">
-        <v>26</v>
-      </c>
-      <c r="I151">
-        <v>14162910420</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A152" t="s">
-        <v>36</v>
-      </c>
-      <c r="B152" t="s">
-        <v>504</v>
-      </c>
-      <c r="C152" t="s">
-        <v>505</v>
-      </c>
-      <c r="D152" t="s">
-        <v>14</v>
-      </c>
-      <c r="E152" t="s">
-        <v>506</v>
-      </c>
-      <c r="F152" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H152" t="s">
-        <v>20</v>
-      </c>
       <c r="I152">
-        <v>16135638040</v>
-      </c>
-      <c r="J152" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" ht="14.4" customHeight="1">
+        <v>15196013420</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>55</v>
       </c>
       <c r="B153" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="C153" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="D153" t="s">
         <v>14</v>
       </c>
-      <c r="E153" s="20" t="s">
-        <v>500</v>
+      <c r="E153" t="s">
+        <v>504</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>542</v>
+        <v>19</v>
       </c>
       <c r="H153" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I153">
-        <v>19057272020</v>
-      </c>
-      <c r="J153" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" ht="14.4" customHeight="1">
+        <v>15196071966</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B154" t="s">
+        <v>195</v>
+      </c>
+      <c r="C154" t="s">
         <v>507</v>
       </c>
-      <c r="C154" t="s">
+      <c r="D154" t="s">
+        <v>14</v>
+      </c>
+      <c r="E154" t="s">
         <v>508</v>
-      </c>
-      <c r="D154" t="s">
-        <v>14</v>
-      </c>
-      <c r="E154" t="s">
-        <v>509</v>
       </c>
       <c r="F154" s="6" t="s">
         <v>19</v>
@@ -6816,504 +6703,377 @@
         <v>20</v>
       </c>
       <c r="I154">
-        <v>16473411333</v>
+        <v>14162912553</v>
       </c>
       <c r="J154" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="14.4" customHeight="1">
+    <row r="155" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B155" t="s">
+        <v>133</v>
+      </c>
+      <c r="C155" t="s">
+        <v>509</v>
+      </c>
+      <c r="D155" t="s">
+        <v>14</v>
+      </c>
+      <c r="E155" t="s">
+        <v>370</v>
+      </c>
+      <c r="F155" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I155"/>
+    </row>
+    <row r="156" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>39</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C156" t="s">
+        <v>497</v>
+      </c>
+      <c r="D156" t="s">
+        <v>14</v>
+      </c>
+      <c r="E156" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="F156" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I156">
+        <v>15197429366</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>134</v>
+      </c>
+      <c r="B157" t="s">
         <v>510</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C157" t="s">
         <v>511</v>
       </c>
-      <c r="D155" t="s">
-        <v>14</v>
-      </c>
-      <c r="E155" s="20" t="s">
+      <c r="D157" t="s">
+        <v>14</v>
+      </c>
+      <c r="E157" t="s">
         <v>512</v>
       </c>
-      <c r="F155" s="6" t="s">
-        <v>579</v>
-      </c>
-      <c r="H155" t="s">
-        <v>20</v>
-      </c>
-      <c r="I155">
-        <v>16475535874</v>
-      </c>
-      <c r="J155" s="14" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A156" t="s">
+      <c r="F157" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I157"/>
+    </row>
+    <row r="158" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>175</v>
+      </c>
+      <c r="B158" t="s">
+        <v>465</v>
+      </c>
+      <c r="C158" t="s">
+        <v>513</v>
+      </c>
+      <c r="D158" t="s">
+        <v>14</v>
+      </c>
+      <c r="E158" t="s">
+        <v>514</v>
+      </c>
+      <c r="F158" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I158"/>
+    </row>
+    <row r="159" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>45</v>
+      </c>
+      <c r="B159">
+        <v>6420</v>
+      </c>
+      <c r="C159" t="s">
+        <v>515</v>
+      </c>
+      <c r="D159" t="s">
+        <v>14</v>
+      </c>
+      <c r="E159" t="s">
+        <v>516</v>
+      </c>
+      <c r="F159" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I159"/>
+    </row>
+    <row r="160" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>177</v>
+      </c>
+      <c r="B160" t="s">
+        <v>202</v>
+      </c>
+      <c r="C160" t="s">
+        <v>517</v>
+      </c>
+      <c r="D160" t="s">
+        <v>14</v>
+      </c>
+      <c r="E160" t="s">
+        <v>518</v>
+      </c>
+      <c r="F160" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I160"/>
+    </row>
+    <row r="161" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>82</v>
+      </c>
+      <c r="B161" t="s">
+        <v>133</v>
+      </c>
+      <c r="C161" t="s">
+        <v>519</v>
+      </c>
+      <c r="D161" t="s">
+        <v>14</v>
+      </c>
+      <c r="E161" t="s">
+        <v>520</v>
+      </c>
+      <c r="F161" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I161"/>
+    </row>
+    <row r="162" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>521</v>
+      </c>
+      <c r="B162" t="s">
+        <v>522</v>
+      </c>
+      <c r="C162" t="s">
+        <v>523</v>
+      </c>
+      <c r="D162" t="s">
+        <v>14</v>
+      </c>
+      <c r="E162" t="s">
+        <v>524</v>
+      </c>
+      <c r="F162" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="I162"/>
+    </row>
+    <row r="163" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
         <v>23</v>
       </c>
-      <c r="B156" t="s">
-        <v>516</v>
-      </c>
-      <c r="C156" t="s">
-        <v>517</v>
-      </c>
-      <c r="D156" t="s">
-        <v>14</v>
-      </c>
-      <c r="E156" t="s">
-        <v>518</v>
-      </c>
-      <c r="F156" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H156" t="s">
-        <v>22</v>
-      </c>
-      <c r="I156">
-        <v>14166516673</v>
-      </c>
-      <c r="J156" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A157" t="s">
-        <v>58</v>
-      </c>
-      <c r="B157" t="s">
-        <v>519</v>
-      </c>
-      <c r="C157" t="s">
-        <v>520</v>
-      </c>
-      <c r="D157" t="s">
-        <v>14</v>
-      </c>
-      <c r="E157" t="s">
-        <v>521</v>
-      </c>
-      <c r="F157" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H157" t="s">
+      <c r="B163" t="s">
+        <v>247</v>
+      </c>
+      <c r="C163" t="s">
+        <v>526</v>
+      </c>
+      <c r="D163" t="s">
+        <v>77</v>
+      </c>
+      <c r="E163" t="s">
+        <v>527</v>
+      </c>
+      <c r="F163" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="I163"/>
+    </row>
+    <row r="164" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>23</v>
+      </c>
+      <c r="B164" t="s">
+        <v>528</v>
+      </c>
+      <c r="C164" t="s">
+        <v>529</v>
+      </c>
+      <c r="D164" t="s">
+        <v>77</v>
+      </c>
+      <c r="E164" t="s">
+        <v>530</v>
+      </c>
+      <c r="F164" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="I164"/>
+    </row>
+    <row r="165" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>23</v>
+      </c>
+      <c r="B165" t="s">
+        <v>531</v>
+      </c>
+      <c r="C165" t="s">
+        <v>532</v>
+      </c>
+      <c r="D165" t="s">
+        <v>14</v>
+      </c>
+      <c r="E165" t="s">
+        <v>533</v>
+      </c>
+      <c r="F165" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I165"/>
+    </row>
+    <row r="166" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>23</v>
+      </c>
+      <c r="B166" t="s">
+        <v>534</v>
+      </c>
+      <c r="C166" t="s">
+        <v>535</v>
+      </c>
+      <c r="D166" t="s">
+        <v>14</v>
+      </c>
+      <c r="E166" t="s">
+        <v>536</v>
+      </c>
+      <c r="F166" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H166" t="s">
         <v>18</v>
       </c>
-      <c r="I157">
-        <v>15196013420</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A158" t="s">
-        <v>56</v>
-      </c>
-      <c r="B158" t="s">
-        <v>522</v>
-      </c>
-      <c r="C158" t="s">
-        <v>523</v>
-      </c>
-      <c r="D158" t="s">
-        <v>14</v>
-      </c>
-      <c r="E158" t="s">
-        <v>521</v>
-      </c>
-      <c r="F158" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H158" t="s">
-        <v>18</v>
-      </c>
-      <c r="I158">
-        <v>15196071966</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A159" t="s">
-        <v>29</v>
-      </c>
-      <c r="B159" t="s">
-        <v>199</v>
-      </c>
-      <c r="C159" t="s">
-        <v>524</v>
-      </c>
-      <c r="D159" t="s">
-        <v>14</v>
-      </c>
-      <c r="E159" t="s">
-        <v>525</v>
-      </c>
-      <c r="F159" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H159" t="s">
-        <v>20</v>
-      </c>
-      <c r="I159">
-        <v>14162912553</v>
-      </c>
-      <c r="J159" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A160" t="s">
-        <v>72</v>
-      </c>
-      <c r="B160" t="s">
-        <v>134</v>
-      </c>
-      <c r="C160" t="s">
-        <v>526</v>
-      </c>
-      <c r="D160" t="s">
-        <v>14</v>
-      </c>
-      <c r="E160" t="s">
-        <v>381</v>
-      </c>
-      <c r="F160" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I160"/>
-    </row>
-    <row r="161" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A161" t="s">
-        <v>39</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="C161" t="s">
-        <v>514</v>
-      </c>
-      <c r="D161" t="s">
-        <v>14</v>
-      </c>
-      <c r="E161" s="20" t="s">
-        <v>515</v>
-      </c>
-      <c r="F161" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I161">
-        <v>15197429366</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A162" t="s">
-        <v>135</v>
-      </c>
-      <c r="B162" t="s">
-        <v>527</v>
-      </c>
-      <c r="C162" t="s">
-        <v>528</v>
-      </c>
-      <c r="D162" t="s">
-        <v>14</v>
-      </c>
-      <c r="E162" t="s">
-        <v>529</v>
-      </c>
-      <c r="F162" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I162"/>
-    </row>
-    <row r="163" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A163" t="s">
-        <v>176</v>
-      </c>
-      <c r="B163" t="s">
-        <v>479</v>
-      </c>
-      <c r="C163" t="s">
-        <v>530</v>
-      </c>
-      <c r="D163" t="s">
-        <v>14</v>
-      </c>
-      <c r="E163" t="s">
-        <v>531</v>
-      </c>
-      <c r="F163" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I163"/>
-    </row>
-    <row r="164" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A164" t="s">
-        <v>45</v>
-      </c>
-      <c r="B164">
-        <v>6420</v>
-      </c>
-      <c r="C164" t="s">
-        <v>532</v>
-      </c>
-      <c r="D164" t="s">
-        <v>14</v>
-      </c>
-      <c r="E164" t="s">
-        <v>533</v>
-      </c>
-      <c r="F164" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I164"/>
-    </row>
-    <row r="165" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A165" t="s">
-        <v>178</v>
-      </c>
-      <c r="B165" t="s">
-        <v>206</v>
-      </c>
-      <c r="C165" t="s">
-        <v>534</v>
-      </c>
-      <c r="D165" t="s">
-        <v>14</v>
-      </c>
-      <c r="E165" t="s">
-        <v>535</v>
-      </c>
-      <c r="F165" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I165"/>
-    </row>
-    <row r="166" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A166" t="s">
-        <v>83</v>
-      </c>
-      <c r="B166" t="s">
-        <v>134</v>
-      </c>
-      <c r="C166" t="s">
-        <v>536</v>
-      </c>
-      <c r="D166" t="s">
-        <v>14</v>
-      </c>
-      <c r="E166" t="s">
+      <c r="I166">
+        <v>14165388225</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>23</v>
+      </c>
+      <c r="B167" t="s">
         <v>537</v>
       </c>
-      <c r="F166" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I166"/>
-    </row>
-    <row r="167" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A167" t="s">
+      <c r="C167" t="s">
         <v>538</v>
       </c>
-      <c r="B167" t="s">
+      <c r="D167" t="s">
+        <v>14</v>
+      </c>
+      <c r="E167" t="s">
         <v>539</v>
       </c>
-      <c r="C167" t="s">
-        <v>540</v>
-      </c>
-      <c r="D167" t="s">
-        <v>14</v>
-      </c>
-      <c r="E167" t="s">
-        <v>541</v>
-      </c>
       <c r="F167" s="6" t="s">
-        <v>542</v>
+        <v>19</v>
       </c>
       <c r="I167"/>
     </row>
-    <row r="168" spans="1:10" ht="14.4" customHeight="1">
+    <row r="168" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>23</v>
       </c>
       <c r="B168" t="s">
-        <v>251</v>
+        <v>540</v>
       </c>
       <c r="C168" t="s">
+        <v>541</v>
+      </c>
+      <c r="D168" t="s">
+        <v>77</v>
+      </c>
+      <c r="E168" s="20" t="s">
+        <v>575</v>
+      </c>
+      <c r="F168" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="H168" t="s">
+        <v>31</v>
+      </c>
+      <c r="I168" t="s">
+        <v>569</v>
+      </c>
+      <c r="J168" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>62</v>
+      </c>
+      <c r="B169" t="s">
+        <v>133</v>
+      </c>
+      <c r="C169" t="s">
+        <v>542</v>
+      </c>
+      <c r="D169" t="s">
+        <v>77</v>
+      </c>
+      <c r="E169" t="s">
         <v>543</v>
       </c>
-      <c r="D168" t="s">
-        <v>78</v>
-      </c>
-      <c r="E168" t="s">
-        <v>544</v>
-      </c>
-      <c r="F168" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="I168"/>
-    </row>
-    <row r="169" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A169" t="s">
-        <v>23</v>
-      </c>
-      <c r="B169" t="s">
-        <v>545</v>
-      </c>
-      <c r="C169" t="s">
+      <c r="F169" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I169"/>
+    </row>
+    <row r="170" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>75</v>
+      </c>
+      <c r="B170" t="s">
         <v>546</v>
       </c>
-      <c r="D169" t="s">
-        <v>78</v>
-      </c>
-      <c r="E169" t="s">
+      <c r="C170" t="s">
         <v>547</v>
       </c>
-      <c r="F169" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="I169"/>
-    </row>
-    <row r="170" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A170" t="s">
-        <v>23</v>
-      </c>
-      <c r="B170" t="s">
+      <c r="D170" t="s">
+        <v>14</v>
+      </c>
+      <c r="E170" t="s">
         <v>548</v>
       </c>
-      <c r="C170" t="s">
+      <c r="F170" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="D170" t="s">
-        <v>14</v>
-      </c>
-      <c r="E170" t="s">
-        <v>550</v>
-      </c>
-      <c r="F170" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="I170"/>
     </row>
-    <row r="171" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A171" t="s">
-        <v>23</v>
-      </c>
-      <c r="B171" t="s">
-        <v>551</v>
-      </c>
-      <c r="C171" t="s">
-        <v>552</v>
-      </c>
-      <c r="D171" t="s">
-        <v>14</v>
-      </c>
-      <c r="E171" t="s">
-        <v>553</v>
-      </c>
-      <c r="F171" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H171" t="s">
-        <v>18</v>
-      </c>
-      <c r="I171">
-        <v>14165388225</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A172" t="s">
-        <v>23</v>
-      </c>
-      <c r="B172" t="s">
-        <v>554</v>
-      </c>
-      <c r="C172" t="s">
-        <v>555</v>
-      </c>
-      <c r="D172" t="s">
-        <v>14</v>
-      </c>
-      <c r="E172" t="s">
-        <v>556</v>
-      </c>
-      <c r="F172" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I172"/>
-    </row>
-    <row r="173" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A173" t="s">
-        <v>23</v>
-      </c>
-      <c r="B173" t="s">
-        <v>557</v>
-      </c>
-      <c r="C173" t="s">
-        <v>558</v>
-      </c>
-      <c r="D173" t="s">
-        <v>78</v>
-      </c>
-      <c r="E173" s="20" t="s">
-        <v>595</v>
-      </c>
-      <c r="F173" s="6" t="s">
-        <v>570</v>
-      </c>
-      <c r="H173" t="s">
-        <v>31</v>
-      </c>
-      <c r="I173" t="s">
-        <v>587</v>
-      </c>
-      <c r="J173" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A174" t="s">
-        <v>63</v>
-      </c>
-      <c r="B174" t="s">
-        <v>134</v>
-      </c>
-      <c r="C174" t="s">
-        <v>559</v>
-      </c>
-      <c r="D174" t="s">
-        <v>78</v>
-      </c>
-      <c r="E174" t="s">
-        <v>560</v>
-      </c>
-      <c r="F174" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I174"/>
-    </row>
-    <row r="175" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A175" t="s">
-        <v>76</v>
-      </c>
-      <c r="B175" t="s">
-        <v>563</v>
-      </c>
-      <c r="C175" t="s">
-        <v>564</v>
-      </c>
-      <c r="D175" t="s">
-        <v>14</v>
-      </c>
-      <c r="E175" t="s">
-        <v>565</v>
-      </c>
-      <c r="F175" s="6" t="s">
-        <v>566</v>
-      </c>
-      <c r="I175"/>
-    </row>
   </sheetData>
-  <autoFilter ref="F1:J175" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="F1:J170" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="['Delivery  within a 10km radius of our Waterloo store', 'Same-day delivery']"/>
+        <filter val="['Delivery  within a 20km radius of our Waterloo store', 'Same-day delivery']"/>
+        <filter val="['Delivery / need scan map', 'Same-day delivery']"/>
+        <filter val="['Delivery in Courtice, Whitby, Oshawa', 'Same-day delivery']"/>
+        <filter val="['Delivery serve within 30 km radius', 'Same-day delivery']"/>
+        <filter val="['Delivery within 12 kms', 'Same-day delivery']"/>
+        <filter val="['Delivery within 50 km radius', 'Same-day delivery']"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="E28" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>

--- a/platform_scrapper/data/cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/cannabis_used_IDs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parsy\OneDrive\Desktop\DOT\cannabis-shops-scraping\platform_scrapper\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{FD3100CF-290C-466A-9D45-3C977A621E58}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{CFDB74CD-3F4E-4651-8B47-D68132D23DBA}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="8_{FD3100CF-290C-466A-9D45-3C977A621E58}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{ECD0F66A-A3D9-4DE9-989B-A878DD55C524}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$J$170</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$J$169</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="586">
   <si>
     <t>Municipality or First Nation</t>
   </si>
@@ -97,9 +97,6 @@
     <t>TORONTO</t>
   </si>
   <si>
-    <t>Leafly</t>
-  </si>
-  <si>
     <t>ETOBICOKE</t>
   </si>
   <si>
@@ -1633,9 +1630,6 @@
     <t>1698 QUEEN ST W</t>
   </si>
   <si>
-    <t>https://www.leafly.ca/cannabis-store/spiritleaf-1698-queen-st-w</t>
-  </si>
-  <si>
     <t>The Burning Bush</t>
   </si>
   <si>
@@ -1654,9 +1648,6 @@
     <t>3218 SANDWICH ST</t>
   </si>
   <si>
-    <t>https://www.discountedcannabis.ca/amherstburg#/menu</t>
-  </si>
-  <si>
     <t>Grass Roots</t>
   </si>
   <si>
@@ -1757,13 +1748,46 @@
   </si>
   <si>
     <t>6195e7e9a7493e00a8efe518</t>
+  </si>
+  <si>
+    <t>(416) 410-0420</t>
+  </si>
+  <si>
+    <t>['No Delivery']</t>
+  </si>
+  <si>
+    <t>https://www.discountedcannabis.ca/windsor-3218-sandwich#/menu</t>
+  </si>
+  <si>
+    <t>Public Notice Period: Ended 2023/12/12</t>
+  </si>
+  <si>
+    <t>5f16f5b08f3ff100af816eeb</t>
+  </si>
+  <si>
+    <t>https://spiritleaf.ca/collections/spiritleaf-parkdale-queen-street-west?birthMonth=01&amp;birthDay=01&amp;birthYear=1994</t>
+  </si>
+  <si>
+    <t>['In-store pickup', ''Delivery,'In-store shopping']</t>
+  </si>
+  <si>
+    <t>6102ddead99fab00d6d64fce</t>
+  </si>
+  <si>
+    <t>642daeed8426f7004713f005</t>
+  </si>
+  <si>
+    <t>60b69a15fa1bf000d21f5601</t>
+  </si>
+  <si>
+    <t>['No Delivery / Permanently closed']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1878,6 +1902,17 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Poppins"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1939,7 +1974,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1961,13 +1996,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1975,11 +2003,32 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -2285,30 +2334,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:N170"/>
+  <dimension ref="A1:N169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E172" sqref="E172"/>
+      <selection activeCell="G125" sqref="G125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="19.77734375" customWidth="1"/>
     <col min="2" max="2" width="22.5546875" customWidth="1"/>
     <col min="3" max="3" width="19.77734375" customWidth="1"/>
     <col min="4" max="4" width="19.77734375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="24.5546875" style="21" customWidth="1"/>
+    <col min="5" max="5" width="24.5546875" style="18" customWidth="1"/>
     <col min="6" max="6" width="9" style="6" customWidth="1"/>
     <col min="7" max="7" width="9.21875" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.77734375" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" style="16" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" style="25" customWidth="1"/>
     <col min="10" max="10" width="36" customWidth="1"/>
     <col min="11" max="12" width="16" customWidth="1"/>
     <col min="13" max="13" width="7.5546875" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2321,7 +2370,7 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -2333,7 +2382,7 @@
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="24" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="4" t="s">
@@ -2346,56 +2395,56 @@
         <v>11</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="14.4" hidden="1" customHeight="1">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C2" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>564</v>
+      <c r="E2" s="15" t="s">
+        <v>561</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="16">
+        <v>30</v>
+      </c>
+      <c r="I2" s="25">
         <v>12267397668</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="14.4" hidden="1" customHeight="1">
       <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
         <v>40</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>41</v>
       </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
       <c r="D3" t="s">
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>19</v>
@@ -2403,60 +2452,60 @@
       <c r="H3" t="s">
         <v>18</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="25">
         <v>17057224420</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="14.4" hidden="1" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>60</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="9">
+        <v>43</v>
+      </c>
+      <c r="I4" s="26">
         <v>16478128873</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="14.4" hidden="1" customHeight="1">
       <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
         <v>66</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>67</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
         <v>68</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>69</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>19</v>
@@ -2464,64 +2513,64 @@
       <c r="H5" t="s">
         <v>18</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="25">
         <v>15196050433</v>
       </c>
       <c r="J5" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="14.4" hidden="1" customHeight="1">
       <c r="A6" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="9">
+        <v>25</v>
+      </c>
+      <c r="I6" s="26">
         <v>16478125989</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="14.4" hidden="1" customHeight="1">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" t="s">
         <v>89</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
         <v>90</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>91</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>19</v>
@@ -2529,90 +2578,90 @@
       <c r="H7" t="s">
         <v>20</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="25">
         <v>16137229333</v>
       </c>
       <c r="J7" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="3" customFormat="1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" s="3" customFormat="1" ht="14.4" hidden="1" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="22"/>
+      <c r="G8" s="19"/>
       <c r="H8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="27">
         <v>17052860887</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="14.4" hidden="1" customHeight="1">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" t="s">
         <v>92</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
         <v>93</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>94</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="H9" t="s">
         <v>16</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="25">
         <v>15198960708</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="14.4" hidden="1" customHeight="1">
       <c r="A10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" t="s">
         <v>97</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>98</v>
       </c>
-      <c r="C10" t="s">
-        <v>99</v>
-      </c>
       <c r="D10" t="s">
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>19</v>
@@ -2620,237 +2669,237 @@
       <c r="H10" t="s">
         <v>16</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="25">
         <v>15195331414</v>
       </c>
       <c r="J10" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="14.4" hidden="1" customHeight="1">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" t="s">
         <v>101</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
         <v>102</v>
       </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>103</v>
-      </c>
       <c r="F11" s="6" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="H11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11">
+        <v>29</v>
+      </c>
+      <c r="I11" s="25">
         <v>14165513823</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="14.4" hidden="1" customHeight="1">
       <c r="A12" t="s">
         <v>23</v>
       </c>
       <c r="B12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" t="s">
         <v>104</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
         <v>105</v>
       </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>106</v>
-      </c>
       <c r="F12" s="6" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="H12" t="s">
         <v>20</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="25">
         <v>14163226262</v>
       </c>
       <c r="J12" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="14.4" hidden="1" customHeight="1">
       <c r="A13" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="C13" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="D13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>109</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>110</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="26">
         <v>12898039462</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="14.4" hidden="1" customHeight="1">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" t="s">
         <v>111</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
         <v>112</v>
       </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" t="s">
-        <v>113</v>
-      </c>
       <c r="F14" s="6" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="H14" t="s">
         <v>20</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="25">
         <v>19058394499</v>
       </c>
       <c r="J14" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="14.4" hidden="1" customHeight="1">
       <c r="A15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" t="s">
         <v>114</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>115</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
         <v>116</v>
       </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="F15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="25">
+        <v>16136594404</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="14.4" hidden="1" customHeight="1">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
         <v>117</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15">
-        <v>16136594404</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>118</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
         <v>119</v>
       </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" t="s">
-        <v>120</v>
-      </c>
       <c r="F16" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="25">
+        <v>19055409969</v>
+      </c>
+      <c r="J16" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I16">
-        <v>19055409969</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="9" customFormat="1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:10" s="9" customFormat="1" ht="14.4" hidden="1" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="D17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>123</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>124</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="24" t="s">
-        <v>561</v>
+      <c r="G17" s="20" t="s">
+        <v>558</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" s="9">
+        <v>27</v>
+      </c>
+      <c r="I17" s="26">
         <v>19054580439</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" t="s">
         <v>128</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>129</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
         <v>130</v>
-      </c>
-      <c r="D18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" t="s">
-        <v>131</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>19</v>
@@ -2858,115 +2907,115 @@
       <c r="H18" t="s">
         <v>18</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="25">
         <v>12266783420</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" t="s">
         <v>136</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
         <v>137</v>
       </c>
-      <c r="D19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" t="s">
-        <v>138</v>
-      </c>
       <c r="F19" s="6" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="H19" t="s">
-        <v>28</v>
-      </c>
-      <c r="I19">
+        <v>27</v>
+      </c>
+      <c r="I19" s="25">
         <v>14169013445</v>
       </c>
       <c r="J19" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A20" t="s">
         <v>23</v>
       </c>
       <c r="B20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" t="s">
         <v>140</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
         <v>141</v>
       </c>
-      <c r="D20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" t="s">
-        <v>142</v>
-      </c>
       <c r="F20" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H20" t="s">
         <v>20</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="25">
         <v>14165339150</v>
       </c>
       <c r="J20" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" t="s">
         <v>144</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
         <v>145</v>
       </c>
-      <c r="D21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" t="s">
-        <v>146</v>
-      </c>
       <c r="F21" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="25">
+        <v>14166369333</v>
+      </c>
+      <c r="J21" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I21">
-        <v>14166369333</v>
-      </c>
-      <c r="J21" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22" t="s">
         <v>147</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s">
         <v>148</v>
-      </c>
-      <c r="D22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" t="s">
-        <v>149</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>19</v>
@@ -2974,28 +3023,28 @@
       <c r="H22" t="s">
         <v>20</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="25">
         <v>19054270577</v>
       </c>
       <c r="J22" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" t="s">
         <v>150</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s">
         <v>151</v>
-      </c>
-      <c r="D23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" t="s">
-        <v>152</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>19</v>
@@ -3003,86 +3052,86 @@
       <c r="H23" t="s">
         <v>20</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="25">
         <v>12263032924</v>
       </c>
       <c r="J23" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" t="s">
         <v>72</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="D24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="F24" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H24" t="s">
-        <v>56</v>
-      </c>
-      <c r="I24">
+        <v>55</v>
+      </c>
+      <c r="I24" s="25">
         <v>15486909020</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" t="s">
         <v>85</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>86</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>88</v>
-      </c>
       <c r="F25" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H25" t="s">
         <v>20</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="25">
         <v>17059994420</v>
       </c>
       <c r="J25" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B26" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" t="s">
         <v>153</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s">
         <v>154</v>
-      </c>
-      <c r="D26" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" t="s">
-        <v>155</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>19</v>
@@ -3090,115 +3139,115 @@
       <c r="H26" t="s">
         <v>20</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="25">
         <v>15193055323</v>
       </c>
       <c r="J26" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A27" t="s">
+        <v>155</v>
+      </c>
+      <c r="B27" t="s">
         <v>156</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>157</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="D27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>159</v>
-      </c>
       <c r="F27" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H27" t="s">
         <v>22</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="25">
         <v>19055919222</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28" t="s">
         <v>161</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D28" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="8" t="s">
+      <c r="F28" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="H28" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" s="25">
+        <v>12262278659</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+      <c r="A29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" t="s">
+        <v>160</v>
+      </c>
+      <c r="C29" t="s">
         <v>163</v>
       </c>
-      <c r="F28" s="6" t="s">
-        <v>565</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="D29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="H29" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="25">
+        <v>12265359763</v>
+      </c>
+      <c r="J29" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I28">
-        <v>12262278659</v>
-      </c>
-      <c r="J28" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" t="s">
-        <v>161</v>
-      </c>
-      <c r="C29" t="s">
-        <v>164</v>
-      </c>
-      <c r="D29" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>565</v>
-      </c>
-      <c r="H29" t="s">
-        <v>26</v>
-      </c>
-      <c r="I29">
-        <v>12265359763</v>
-      </c>
-      <c r="J29" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
+        <v>167</v>
+      </c>
+      <c r="C30" t="s">
         <v>168</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" t="s">
         <v>169</v>
-      </c>
-      <c r="D30" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" t="s">
-        <v>170</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>19</v>
@@ -3206,86 +3255,86 @@
       <c r="H30" t="s">
         <v>20</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="25">
         <v>14162931118</v>
       </c>
       <c r="J30" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A31" t="s">
+        <v>164</v>
+      </c>
+      <c r="B31" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" t="s">
         <v>165</v>
       </c>
-      <c r="B31" t="s">
-        <v>161</v>
-      </c>
-      <c r="C31" t="s">
-        <v>166</v>
-      </c>
       <c r="D31" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="20" t="s">
-        <v>163</v>
+      <c r="E31" s="17" t="s">
+        <v>162</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="H31" t="s">
         <v>18</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="25">
         <v>17058812472</v>
       </c>
       <c r="J31" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D32" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="20" t="s">
-        <v>163</v>
+      <c r="E32" s="17" t="s">
+        <v>162</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="H32" t="s">
         <v>18</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="25">
         <v>17054006750</v>
       </c>
       <c r="J32" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B33" t="s">
+        <v>170</v>
+      </c>
+      <c r="C33" t="s">
         <v>171</v>
       </c>
-      <c r="C33" t="s">
-        <v>172</v>
-      </c>
       <c r="D33" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="20" t="s">
-        <v>566</v>
+      <c r="E33" s="17" t="s">
+        <v>563</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>19</v>
@@ -3293,86 +3342,86 @@
       <c r="H33" t="s">
         <v>20</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="25">
         <v>19055510717</v>
       </c>
       <c r="J33" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C34" t="s">
         <v>181</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="D34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="20" t="s">
-        <v>183</v>
-      </c>
       <c r="F34" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H34" t="s">
         <v>20</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="25">
         <v>15199422828</v>
       </c>
       <c r="J34" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A35" t="s">
+        <v>183</v>
+      </c>
+      <c r="B35" t="s">
         <v>184</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>185</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="D35" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="20" t="s">
+      <c r="F35" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" t="s">
         <v>187</v>
       </c>
-      <c r="F35" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="I35" s="25">
+        <v>15195342628</v>
+      </c>
+      <c r="J35" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="I35">
-        <v>15195342628</v>
-      </c>
-      <c r="J35" s="14" t="s">
+    </row>
+    <row r="36" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="3" t="s">
+      <c r="C36" t="s">
         <v>190</v>
       </c>
-      <c r="C36" t="s">
-        <v>191</v>
-      </c>
       <c r="D36" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="20" t="s">
-        <v>567</v>
+      <c r="E36" s="17" t="s">
+        <v>564</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>19</v>
@@ -3380,57 +3429,57 @@
       <c r="H36" t="s">
         <v>20</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="25">
         <v>15139227020</v>
       </c>
       <c r="J36" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A37" t="s">
         <v>23</v>
       </c>
       <c r="B37" t="s">
+        <v>191</v>
+      </c>
+      <c r="C37" t="s">
         <v>192</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="D37" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>194</v>
-      </c>
       <c r="F37" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H37" t="s">
+        <v>32</v>
+      </c>
+      <c r="I37" s="25">
+        <v>14165468250</v>
+      </c>
+      <c r="J37" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I37">
-        <v>14165468250</v>
-      </c>
-      <c r="J37" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B38" t="s">
+        <v>196</v>
+      </c>
+      <c r="C38" t="s">
         <v>197</v>
       </c>
-      <c r="C38" t="s">
-        <v>198</v>
-      </c>
       <c r="D38" t="s">
         <v>14</v>
       </c>
       <c r="E38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>19</v>
@@ -3438,28 +3487,28 @@
       <c r="H38" t="s">
         <v>20</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="25">
         <v>14165512550</v>
       </c>
       <c r="J38" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B39" t="s">
+        <v>194</v>
+      </c>
+      <c r="C39" t="s">
+        <v>198</v>
+      </c>
+      <c r="D39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" t="s">
         <v>195</v>
-      </c>
-      <c r="C39" t="s">
-        <v>199</v>
-      </c>
-      <c r="D39" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" t="s">
-        <v>196</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>19</v>
@@ -3467,28 +3516,28 @@
       <c r="H39" t="s">
         <v>20</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="25">
         <v>14165512550</v>
       </c>
       <c r="J39" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B40" t="s">
+        <v>194</v>
+      </c>
+      <c r="C40" t="s">
+        <v>199</v>
+      </c>
+      <c r="D40" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" t="s">
         <v>195</v>
-      </c>
-      <c r="C40" t="s">
-        <v>200</v>
-      </c>
-      <c r="D40" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" t="s">
-        <v>196</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>19</v>
@@ -3496,28 +3545,28 @@
       <c r="H40" t="s">
         <v>20</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="25">
         <v>14165512550</v>
       </c>
       <c r="J40" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C41" t="s">
+        <v>216</v>
+      </c>
+      <c r="D41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" t="s">
         <v>217</v>
-      </c>
-      <c r="D41" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" t="s">
-        <v>218</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>19</v>
@@ -3525,57 +3574,57 @@
       <c r="H41" t="s">
         <v>16</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="25">
         <v>19055293037</v>
       </c>
       <c r="J41" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B42" t="s">
+        <v>204</v>
+      </c>
+      <c r="C42" t="s">
         <v>205</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="D42" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42" s="20" t="s">
-        <v>207</v>
-      </c>
       <c r="F42" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H42" t="s">
         <v>20</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="25">
         <v>12897552839</v>
       </c>
       <c r="J42" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A43" t="s">
+        <v>207</v>
+      </c>
+      <c r="B43" t="s">
         <v>208</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>209</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="17" t="s">
         <v>210</v>
-      </c>
-      <c r="D43" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43" s="20" t="s">
-        <v>211</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>19</v>
@@ -3583,28 +3632,28 @@
       <c r="H43" t="s">
         <v>20</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="25">
         <v>13433740100</v>
       </c>
       <c r="J43" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B44" t="s">
+        <v>211</v>
+      </c>
+      <c r="C44" t="s">
         <v>212</v>
       </c>
-      <c r="C44" t="s">
-        <v>213</v>
-      </c>
       <c r="D44" t="s">
         <v>14</v>
       </c>
-      <c r="E44" s="20" t="s">
-        <v>211</v>
+      <c r="E44" s="17" t="s">
+        <v>210</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>19</v>
@@ -3612,115 +3661,115 @@
       <c r="H44" t="s">
         <v>20</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="25">
         <v>13433980104</v>
       </c>
       <c r="J44" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A45" t="s">
         <v>13</v>
       </c>
       <c r="B45" t="s">
+        <v>222</v>
+      </c>
+      <c r="C45" t="s">
         <v>223</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" t="s">
         <v>224</v>
       </c>
-      <c r="D45" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="F45" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" t="s">
+        <v>27</v>
+      </c>
+      <c r="I45" s="25">
+        <v>16477465430</v>
+      </c>
+      <c r="J45" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+      <c r="A46" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" t="s">
+        <v>222</v>
+      </c>
+      <c r="C46" t="s">
         <v>225</v>
       </c>
-      <c r="F45" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H45" t="s">
-        <v>28</v>
-      </c>
-      <c r="I45">
-        <v>16477465430</v>
-      </c>
-      <c r="J45" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>25</v>
-      </c>
-      <c r="B46" t="s">
-        <v>223</v>
-      </c>
-      <c r="C46" t="s">
-        <v>226</v>
-      </c>
       <c r="D46" t="s">
         <v>14</v>
       </c>
       <c r="E46" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H46" t="s">
-        <v>28</v>
-      </c>
-      <c r="I46">
+        <v>27</v>
+      </c>
+      <c r="I46" s="25">
         <v>14374101420</v>
       </c>
       <c r="J46" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A47" t="s">
         <v>23</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C47" t="s">
         <v>214</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="D47" t="s">
-        <v>14</v>
-      </c>
-      <c r="E47" s="20" t="s">
-        <v>216</v>
-      </c>
       <c r="F47" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H47" t="s">
         <v>20</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="25">
         <v>14169779343</v>
       </c>
       <c r="J47" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A48" t="s">
+        <v>226</v>
+      </c>
+      <c r="B48" t="s">
         <v>227</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>228</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" t="s">
         <v>229</v>
-      </c>
-      <c r="D48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" t="s">
-        <v>230</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>19</v>
@@ -3728,28 +3777,28 @@
       <c r="H48" t="s">
         <v>20</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="25">
         <v>15193892839</v>
       </c>
       <c r="J48" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B49" t="s">
+        <v>230</v>
+      </c>
+      <c r="C49" t="s">
+        <v>232</v>
+      </c>
+      <c r="D49" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" t="s">
         <v>231</v>
-      </c>
-      <c r="C49" t="s">
-        <v>233</v>
-      </c>
-      <c r="D49" t="s">
-        <v>14</v>
-      </c>
-      <c r="E49" t="s">
-        <v>232</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>19</v>
@@ -3757,28 +3806,28 @@
       <c r="H49" t="s">
         <v>20</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="25">
         <v>19056286324</v>
       </c>
       <c r="J49" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B50" t="s">
+        <v>233</v>
+      </c>
+      <c r="C50" t="s">
         <v>234</v>
       </c>
-      <c r="C50" t="s">
-        <v>235</v>
-      </c>
       <c r="D50" t="s">
         <v>14</v>
       </c>
       <c r="E50" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>19</v>
@@ -3786,28 +3835,28 @@
       <c r="H50" t="s">
         <v>20</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="25">
         <v>12894260469</v>
       </c>
       <c r="J50" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A51" t="s">
+        <v>235</v>
+      </c>
+      <c r="B51" t="s">
+        <v>230</v>
+      </c>
+      <c r="C51" t="s">
         <v>236</v>
       </c>
-      <c r="B51" t="s">
+      <c r="D51" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" t="s">
         <v>231</v>
-      </c>
-      <c r="C51" t="s">
-        <v>237</v>
-      </c>
-      <c r="D51" t="s">
-        <v>14</v>
-      </c>
-      <c r="E51" t="s">
-        <v>232</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>19</v>
@@ -3815,57 +3864,57 @@
       <c r="H51" t="s">
         <v>20</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="25">
         <v>12894480170</v>
       </c>
       <c r="J51" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B52" t="s">
+        <v>237</v>
+      </c>
+      <c r="C52" t="s">
         <v>238</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" t="s">
         <v>239</v>
       </c>
-      <c r="D52" t="s">
-        <v>14</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="F52" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H52" t="s">
+        <v>32</v>
+      </c>
+      <c r="I52" s="25">
+        <v>14167926477</v>
+      </c>
+      <c r="J52" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+      <c r="A53" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53" t="s">
         <v>240</v>
       </c>
-      <c r="F52" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H52" t="s">
-        <v>33</v>
-      </c>
-      <c r="I52">
-        <v>14167926477</v>
-      </c>
-      <c r="J52" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>47</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>241</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" t="s">
         <v>242</v>
-      </c>
-      <c r="D53" t="s">
-        <v>14</v>
-      </c>
-      <c r="E53" t="s">
-        <v>243</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>19</v>
@@ -3873,28 +3922,28 @@
       <c r="H53" t="s">
         <v>20</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="25">
         <v>16135367110</v>
       </c>
       <c r="J53" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B54" t="s">
+        <v>243</v>
+      </c>
+      <c r="C54" t="s">
         <v>244</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" t="s">
         <v>245</v>
-      </c>
-      <c r="D54" t="s">
-        <v>14</v>
-      </c>
-      <c r="E54" t="s">
-        <v>246</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>19</v>
@@ -3902,57 +3951,57 @@
       <c r="H54" t="s">
         <v>16</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="25">
         <v>16138364420</v>
       </c>
       <c r="J54" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A55" t="s">
+        <v>218</v>
+      </c>
+      <c r="B55" t="s">
         <v>219</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>220</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="D55" t="s">
-        <v>14</v>
-      </c>
-      <c r="E55" s="20" t="s">
-        <v>222</v>
-      </c>
       <c r="F55" s="6" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="H55" t="s">
         <v>18</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="25">
         <v>18078538888</v>
       </c>
       <c r="J55" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A56" t="s">
         <v>23</v>
       </c>
       <c r="B56" t="s">
+        <v>247</v>
+      </c>
+      <c r="C56" t="s">
         <v>248</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" t="s">
         <v>249</v>
-      </c>
-      <c r="D56" t="s">
-        <v>14</v>
-      </c>
-      <c r="E56" t="s">
-        <v>250</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>19</v>
@@ -3960,28 +4009,28 @@
       <c r="H56" t="s">
         <v>20</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="25">
         <v>14165469944</v>
       </c>
       <c r="J56" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A57" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B57" t="s">
+        <v>250</v>
+      </c>
+      <c r="C57" t="s">
         <v>251</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" t="s">
         <v>252</v>
-      </c>
-      <c r="D57" t="s">
-        <v>14</v>
-      </c>
-      <c r="E57" t="s">
-        <v>253</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>19</v>
@@ -3989,28 +4038,28 @@
       <c r="H57" t="s">
         <v>22</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="25">
         <v>14165260000</v>
       </c>
       <c r="J57" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B58" t="s">
+        <v>253</v>
+      </c>
+      <c r="C58" t="s">
         <v>254</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" t="s">
         <v>255</v>
-      </c>
-      <c r="D58" t="s">
-        <v>14</v>
-      </c>
-      <c r="E58" t="s">
-        <v>256</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>19</v>
@@ -4018,28 +4067,28 @@
       <c r="H58" t="s">
         <v>16</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="25">
         <v>16472779835</v>
       </c>
       <c r="J58" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B59" t="s">
+        <v>256</v>
+      </c>
+      <c r="C59" t="s">
         <v>257</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" t="s">
         <v>258</v>
-      </c>
-      <c r="D59" t="s">
-        <v>14</v>
-      </c>
-      <c r="E59" t="s">
-        <v>259</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>19</v>
@@ -4047,28 +4096,28 @@
       <c r="H59" t="s">
         <v>20</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="25">
         <v>14163951945</v>
       </c>
       <c r="J59" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A60" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B60" t="s">
+        <v>262</v>
+      </c>
+      <c r="C60" t="s">
         <v>263</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" t="s">
         <v>264</v>
-      </c>
-      <c r="D60" t="s">
-        <v>14</v>
-      </c>
-      <c r="E60" t="s">
-        <v>265</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>19</v>
@@ -4076,28 +4125,28 @@
       <c r="H60" t="s">
         <v>20</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="25">
         <v>12893896764</v>
       </c>
       <c r="J60" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A61" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B61" t="s">
+        <v>265</v>
+      </c>
+      <c r="C61" t="s">
         <v>266</v>
       </c>
-      <c r="C61" t="s">
-        <v>267</v>
-      </c>
       <c r="D61" t="s">
         <v>14</v>
       </c>
       <c r="E61" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>19</v>
@@ -4105,118 +4154,118 @@
       <c r="H61" t="s">
         <v>20</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="25">
         <v>12893896764</v>
       </c>
       <c r="J61" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A62" t="s">
+        <v>259</v>
+      </c>
+      <c r="B62" t="s">
+        <v>51</v>
+      </c>
+      <c r="C62" t="s">
         <v>260</v>
       </c>
-      <c r="B62" t="s">
-        <v>52</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="D62" t="s">
-        <v>14</v>
-      </c>
-      <c r="E62" s="20" t="s">
-        <v>262</v>
-      </c>
       <c r="F62" s="6" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H62" t="s">
-        <v>28</v>
-      </c>
-      <c r="I62">
+        <v>27</v>
+      </c>
+      <c r="I62" s="25">
         <v>12267224367</v>
       </c>
       <c r="J62" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B63" t="s">
+        <v>267</v>
+      </c>
+      <c r="C63" t="s">
+        <v>269</v>
+      </c>
+      <c r="D63" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" t="s">
         <v>268</v>
       </c>
-      <c r="C63" t="s">
-        <v>270</v>
-      </c>
-      <c r="D63" t="s">
-        <v>14</v>
-      </c>
-      <c r="E63" t="s">
-        <v>269</v>
-      </c>
       <c r="F63" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H63" t="s">
-        <v>30</v>
-      </c>
-      <c r="I63">
+        <v>29</v>
+      </c>
+      <c r="I63" s="25">
         <v>14162564815</v>
       </c>
       <c r="J63" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B64" t="s">
+        <v>270</v>
+      </c>
+      <c r="C64" t="s">
         <v>271</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" t="s">
         <v>272</v>
-      </c>
-      <c r="D64" t="s">
-        <v>14</v>
-      </c>
-      <c r="E64" t="s">
-        <v>273</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="H64" t="s">
         <v>20</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="25">
         <v>16473451819</v>
       </c>
       <c r="J64" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" ht="14.4" hidden="1" customHeight="1">
       <c r="A65" t="s">
+        <v>274</v>
+      </c>
+      <c r="B65" t="s">
         <v>275</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>276</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" t="s">
         <v>277</v>
-      </c>
-      <c r="D65" t="s">
-        <v>14</v>
-      </c>
-      <c r="E65" t="s">
-        <v>278</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>19</v>
@@ -4224,28 +4273,28 @@
       <c r="H65" t="s">
         <v>20</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="25">
         <v>17059350053</v>
       </c>
       <c r="J65" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" ht="14.4" hidden="1" customHeight="1">
       <c r="A66" t="s">
+        <v>278</v>
+      </c>
+      <c r="B66" t="s">
         <v>279</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>280</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" t="s">
         <v>281</v>
-      </c>
-      <c r="D66" t="s">
-        <v>14</v>
-      </c>
-      <c r="E66" t="s">
-        <v>282</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>19</v>
@@ -4253,28 +4302,28 @@
       <c r="H66" t="s">
         <v>16</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="25">
         <v>17053621118</v>
       </c>
       <c r="J66" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" ht="14.4" hidden="1" customHeight="1">
       <c r="A67" t="s">
+        <v>282</v>
+      </c>
+      <c r="B67" t="s">
         <v>283</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>284</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" t="s">
         <v>285</v>
-      </c>
-      <c r="D67" t="s">
-        <v>14</v>
-      </c>
-      <c r="E67" t="s">
-        <v>286</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>19</v>
@@ -4282,28 +4331,28 @@
       <c r="H67" t="s">
         <v>20</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="25">
         <v>19058877555</v>
       </c>
       <c r="J67" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" ht="14.4" hidden="1" customHeight="1">
       <c r="A68" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B68" t="s">
+        <v>286</v>
+      </c>
+      <c r="C68" t="s">
         <v>287</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" t="s">
         <v>288</v>
-      </c>
-      <c r="D68" t="s">
-        <v>14</v>
-      </c>
-      <c r="E68" t="s">
-        <v>289</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>19</v>
@@ -4311,28 +4360,28 @@
       <c r="H68" t="s">
         <v>20</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="25">
         <v>14162316003</v>
       </c>
       <c r="J68" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" ht="14.4" hidden="1" customHeight="1">
       <c r="A69" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B69" t="s">
+        <v>289</v>
+      </c>
+      <c r="C69" t="s">
         <v>290</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69" t="s">
         <v>291</v>
-      </c>
-      <c r="D69" t="s">
-        <v>14</v>
-      </c>
-      <c r="E69" t="s">
-        <v>292</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>19</v>
@@ -4340,28 +4389,28 @@
       <c r="H69" t="s">
         <v>20</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="25">
         <v>15192563602</v>
       </c>
       <c r="J69" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" ht="14.4" hidden="1" customHeight="1">
       <c r="A70" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B70" t="s">
+        <v>292</v>
+      </c>
+      <c r="C70" t="s">
         <v>293</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" t="s">
         <v>294</v>
-      </c>
-      <c r="D70" t="s">
-        <v>14</v>
-      </c>
-      <c r="E70" t="s">
-        <v>295</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>19</v>
@@ -4369,28 +4418,28 @@
       <c r="H70" t="s">
         <v>20</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="25">
         <v>19056419333</v>
       </c>
       <c r="J70" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="14.4" hidden="1" customHeight="1">
       <c r="A71" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B71" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C71" t="s">
+        <v>295</v>
+      </c>
+      <c r="D71" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71" t="s">
         <v>296</v>
-      </c>
-      <c r="D71" t="s">
-        <v>14</v>
-      </c>
-      <c r="E71" t="s">
-        <v>297</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>19</v>
@@ -4398,28 +4447,28 @@
       <c r="H71" t="s">
         <v>20</v>
       </c>
-      <c r="I71">
+      <c r="I71" s="25">
         <v>17052525599</v>
       </c>
       <c r="J71" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="14.4" hidden="1" customHeight="1">
       <c r="A72" t="s">
         <v>23</v>
       </c>
       <c r="B72" t="s">
+        <v>298</v>
+      </c>
+      <c r="C72" t="s">
         <v>299</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
+        <v>14</v>
+      </c>
+      <c r="E72" t="s">
         <v>300</v>
-      </c>
-      <c r="D72" t="s">
-        <v>14</v>
-      </c>
-      <c r="E72" t="s">
-        <v>301</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>19</v>
@@ -4427,60 +4476,60 @@
       <c r="H72" t="s">
         <v>18</v>
       </c>
-      <c r="I72">
+      <c r="I72" s="25">
         <v>14167629922</v>
       </c>
       <c r="J72" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="14.4" hidden="1" customHeight="1">
       <c r="A73" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B73" t="s">
+        <v>301</v>
+      </c>
+      <c r="C73" t="s">
+        <v>173</v>
+      </c>
+      <c r="D73" t="s">
+        <v>76</v>
+      </c>
+      <c r="E73" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="C73" t="s">
-        <v>174</v>
-      </c>
-      <c r="D73" t="s">
-        <v>77</v>
-      </c>
-      <c r="E73" s="20" t="s">
-        <v>303</v>
-      </c>
       <c r="F73" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H73" t="s">
         <v>20</v>
       </c>
-      <c r="I73">
+      <c r="I73" s="25">
         <v>12899806868</v>
       </c>
       <c r="J73" s="14" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="K73" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="14.4" hidden="1" customHeight="1">
       <c r="A74" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B74" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C74" t="s">
+        <v>303</v>
+      </c>
+      <c r="D74" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" t="s">
         <v>304</v>
-      </c>
-      <c r="D74" t="s">
-        <v>14</v>
-      </c>
-      <c r="E74" t="s">
-        <v>305</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>19</v>
@@ -4488,170 +4537,170 @@
       <c r="H74" t="s">
         <v>20</v>
       </c>
-      <c r="I74">
+      <c r="I74" s="25">
         <v>14167833008</v>
       </c>
       <c r="J74" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" ht="14.4" hidden="1" customHeight="1">
       <c r="A75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B75" t="s">
+        <v>305</v>
+      </c>
+      <c r="C75" t="s">
         <v>306</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="D75" t="s">
-        <v>14</v>
-      </c>
-      <c r="E75" s="20" t="s">
-        <v>308</v>
-      </c>
       <c r="F75" s="6" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="H75" t="s">
         <v>22</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="25">
         <v>17058814629</v>
       </c>
       <c r="J75" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="14.4" hidden="1" customHeight="1">
       <c r="A76" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B76" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C76" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D76" t="s">
         <v>14</v>
       </c>
-      <c r="E76" s="20" t="s">
-        <v>308</v>
+      <c r="E76" s="17" t="s">
+        <v>307</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="H76" t="s">
         <v>22</v>
       </c>
-      <c r="I76">
+      <c r="I76" s="25">
         <v>17053250068</v>
       </c>
       <c r="J76" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="14.4" hidden="1" customHeight="1">
       <c r="A77" t="s">
         <v>23</v>
       </c>
       <c r="B77" t="s">
+        <v>309</v>
+      </c>
+      <c r="C77" t="s">
         <v>310</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="D77" t="s">
-        <v>14</v>
-      </c>
-      <c r="E77" s="20" t="s">
-        <v>312</v>
-      </c>
       <c r="F77" s="6" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="H77" t="s">
         <v>22</v>
       </c>
-      <c r="I77">
+      <c r="I77" s="25">
         <v>14165199159</v>
       </c>
       <c r="J77" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="14.4" hidden="1" customHeight="1">
       <c r="A78" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B78" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C78" t="s">
+        <v>312</v>
+      </c>
+      <c r="D78" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="D78" t="s">
-        <v>14</v>
-      </c>
-      <c r="E78" s="20" t="s">
+      <c r="F78" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="H78" t="s">
+        <v>25</v>
+      </c>
+      <c r="I78" s="25">
+        <v>17057071595</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="14.4" hidden="1" customHeight="1">
+      <c r="A79" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" t="s">
         <v>314</v>
       </c>
-      <c r="F78" s="6" t="s">
-        <v>565</v>
-      </c>
-      <c r="H78" t="s">
-        <v>26</v>
-      </c>
-      <c r="I78">
-        <v>17057071595</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>83</v>
-      </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>315</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="D79" t="s">
-        <v>14</v>
-      </c>
-      <c r="E79" s="20" t="s">
-        <v>317</v>
-      </c>
       <c r="F79" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H79" t="s">
         <v>20</v>
       </c>
-      <c r="I79">
+      <c r="I79" s="25">
         <v>19052395300</v>
       </c>
       <c r="J79" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" ht="14.4" hidden="1" customHeight="1">
       <c r="A80" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B80" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C80" t="s">
+        <v>317</v>
+      </c>
+      <c r="D80" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" t="s">
         <v>318</v>
-      </c>
-      <c r="D80" t="s">
-        <v>14</v>
-      </c>
-      <c r="E80" t="s">
-        <v>319</v>
       </c>
       <c r="F80" s="6" t="s">
         <v>19</v>
@@ -4659,28 +4708,28 @@
       <c r="H80" t="s">
         <v>22</v>
       </c>
-      <c r="I80">
+      <c r="I80" s="25">
         <v>16134222211</v>
       </c>
       <c r="J80" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="14.4" hidden="1" customHeight="1">
       <c r="A81" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B81" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C81" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D81" t="s">
         <v>14</v>
       </c>
       <c r="E81" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F81" s="6" t="s">
         <v>19</v>
@@ -4688,57 +4737,57 @@
       <c r="H81" t="s">
         <v>22</v>
       </c>
-      <c r="I81">
+      <c r="I81" s="25">
         <v>16134222211</v>
       </c>
       <c r="J81" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="14.4" hidden="1" customHeight="1">
       <c r="A82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B82" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C82" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D82" t="s">
         <v>14</v>
       </c>
       <c r="E82" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H82" t="s">
-        <v>139</v>
-      </c>
-      <c r="I82">
+        <v>138</v>
+      </c>
+      <c r="I82" s="25">
         <v>16134222211</v>
       </c>
       <c r="J82" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="14.4" hidden="1" customHeight="1">
       <c r="A83" t="s">
         <v>23</v>
       </c>
       <c r="B83" t="s">
+        <v>321</v>
+      </c>
+      <c r="C83" t="s">
         <v>322</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
+        <v>14</v>
+      </c>
+      <c r="E83" t="s">
         <v>323</v>
-      </c>
-      <c r="D83" t="s">
-        <v>14</v>
-      </c>
-      <c r="E83" t="s">
-        <v>324</v>
       </c>
       <c r="F83" s="6" t="s">
         <v>19</v>
@@ -4746,28 +4795,28 @@
       <c r="H83" t="s">
         <v>20</v>
       </c>
-      <c r="I83">
+      <c r="I83" s="25">
         <v>14166910899</v>
       </c>
       <c r="J83" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" ht="14.4" hidden="1" customHeight="1">
       <c r="A84" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B84" t="s">
+        <v>324</v>
+      </c>
+      <c r="C84" t="s">
         <v>325</v>
       </c>
-      <c r="C84" t="s">
-        <v>326</v>
-      </c>
       <c r="D84" t="s">
         <v>14</v>
       </c>
       <c r="E84" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F84" s="6" t="s">
         <v>19</v>
@@ -4775,57 +4824,57 @@
       <c r="H84" t="s">
         <v>20</v>
       </c>
-      <c r="I84">
+      <c r="I84" s="25">
         <v>14164105442</v>
       </c>
       <c r="J84" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" ht="14.4" hidden="1" customHeight="1">
       <c r="A85" t="s">
         <v>23</v>
       </c>
       <c r="B85" t="s">
+        <v>327</v>
+      </c>
+      <c r="C85" t="s">
         <v>328</v>
       </c>
-      <c r="C85" t="s">
-        <v>329</v>
-      </c>
       <c r="D85" t="s">
         <v>14</v>
       </c>
-      <c r="E85" s="20" t="s">
-        <v>327</v>
+      <c r="E85" s="17" t="s">
+        <v>326</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H85" t="s">
         <v>20</v>
       </c>
-      <c r="I85">
+      <c r="I85" s="25">
         <v>14167922447</v>
       </c>
       <c r="J85" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" ht="14.4" hidden="1" customHeight="1">
       <c r="A86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B86" t="s">
+        <v>329</v>
+      </c>
+      <c r="C86" t="s">
         <v>330</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
+        <v>14</v>
+      </c>
+      <c r="E86" t="s">
         <v>331</v>
-      </c>
-      <c r="D86" t="s">
-        <v>14</v>
-      </c>
-      <c r="E86" t="s">
-        <v>332</v>
       </c>
       <c r="F86" s="6" t="s">
         <v>19</v>
@@ -4833,60 +4882,61 @@
       <c r="H86" t="s">
         <v>20</v>
       </c>
-      <c r="I86">
+      <c r="I86" s="25">
         <v>19054973131</v>
       </c>
       <c r="J86" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>127</v>
-      </c>
-      <c r="B87" t="s">
+    <row r="87" spans="1:11" s="9" customFormat="1" ht="14.4" hidden="1" customHeight="1">
+      <c r="A87" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="C87" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E87" s="22" t="s">
         <v>334</v>
       </c>
-      <c r="D87" t="s">
-        <v>14</v>
-      </c>
-      <c r="E87" s="20" t="s">
+      <c r="F87" s="10" t="s">
+        <v>559</v>
+      </c>
+      <c r="G87" s="11"/>
+      <c r="H87" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I87" s="26">
+        <v>17053449086</v>
+      </c>
+      <c r="J87" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="K87" s="9" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="14.4" hidden="1" customHeight="1">
+      <c r="A88" t="s">
+        <v>42</v>
+      </c>
+      <c r="B88" t="s">
         <v>335</v>
       </c>
-      <c r="F87" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="H87" t="s">
-        <v>20</v>
-      </c>
-      <c r="I87">
-        <v>17053449086</v>
-      </c>
-      <c r="J87" s="14" t="s">
-        <v>572</v>
-      </c>
-      <c r="K87" s="14" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>43</v>
-      </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>336</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
+        <v>14</v>
+      </c>
+      <c r="E88" s="17" t="s">
         <v>337</v>
-      </c>
-      <c r="D88" t="s">
-        <v>14</v>
-      </c>
-      <c r="E88" s="20" t="s">
-        <v>338</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>19</v>
@@ -4894,31 +4944,31 @@
       <c r="H88" t="s">
         <v>16</v>
       </c>
-      <c r="I88">
+      <c r="I88" s="25">
         <v>19054979585</v>
       </c>
       <c r="J88" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="K88" s="25" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K88" s="21" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="14.4" hidden="1" customHeight="1">
       <c r="A89" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B89" t="s">
+        <v>338</v>
+      </c>
+      <c r="C89" t="s">
         <v>339</v>
       </c>
-      <c r="C89" t="s">
-        <v>340</v>
-      </c>
       <c r="D89" t="s">
         <v>14</v>
       </c>
-      <c r="E89" s="20" t="s">
-        <v>338</v>
+      <c r="E89" s="17" t="s">
+        <v>337</v>
       </c>
       <c r="F89" s="6" t="s">
         <v>19</v>
@@ -4926,31 +4976,31 @@
       <c r="H89" t="s">
         <v>20</v>
       </c>
-      <c r="I89">
+      <c r="I89" s="25">
         <v>19054979522</v>
       </c>
       <c r="J89" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="K89" s="25" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K89" s="21" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="14.4" hidden="1" customHeight="1">
       <c r="A90" t="s">
         <v>23</v>
       </c>
       <c r="B90" t="s">
+        <v>341</v>
+      </c>
+      <c r="C90" t="s">
         <v>342</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
+        <v>14</v>
+      </c>
+      <c r="E90" t="s">
         <v>343</v>
-      </c>
-      <c r="D90" t="s">
-        <v>14</v>
-      </c>
-      <c r="E90" t="s">
-        <v>344</v>
       </c>
       <c r="F90" s="6" t="s">
         <v>19</v>
@@ -4958,28 +5008,28 @@
       <c r="H90" t="s">
         <v>16</v>
       </c>
-      <c r="I90">
+      <c r="I90" s="25">
         <v>14164771489</v>
       </c>
       <c r="J90" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" ht="14.4" hidden="1" customHeight="1">
       <c r="A91" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B91" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C91" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D91" t="s">
         <v>14</v>
       </c>
-      <c r="E91" s="20" t="s">
-        <v>338</v>
+      <c r="E91" s="17" t="s">
+        <v>337</v>
       </c>
       <c r="F91" s="6" t="s">
         <v>19</v>
@@ -4987,31 +5037,31 @@
       <c r="H91" t="s">
         <v>20</v>
       </c>
-      <c r="I91">
+      <c r="I91" s="25">
         <v>19054979550</v>
       </c>
       <c r="J91" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="K91" s="25" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K91" s="21" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="14.4" hidden="1" customHeight="1">
       <c r="A92" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B92" t="s">
+        <v>344</v>
+      </c>
+      <c r="C92" t="s">
         <v>345</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
+        <v>14</v>
+      </c>
+      <c r="E92" t="s">
         <v>346</v>
-      </c>
-      <c r="D92" t="s">
-        <v>14</v>
-      </c>
-      <c r="E92" t="s">
-        <v>347</v>
       </c>
       <c r="F92" s="6" t="s">
         <v>19</v>
@@ -5019,14 +5069,14 @@
       <c r="H92" t="s">
         <v>20</v>
       </c>
-      <c r="I92">
+      <c r="I92" s="25">
         <v>15197848420</v>
       </c>
       <c r="J92" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" ht="14.4" hidden="1" customHeight="1">
       <c r="A93" t="s">
         <v>23</v>
       </c>
@@ -5034,42 +5084,42 @@
         <v>1922</v>
       </c>
       <c r="C93" t="s">
+        <v>347</v>
+      </c>
+      <c r="D93" t="s">
+        <v>14</v>
+      </c>
+      <c r="E93" t="s">
         <v>348</v>
       </c>
-      <c r="D93" t="s">
-        <v>14</v>
-      </c>
-      <c r="E93" t="s">
+      <c r="F93" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H93" t="s">
+        <v>32</v>
+      </c>
+      <c r="I93" s="25">
+        <v>14162628744</v>
+      </c>
+      <c r="J93" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="14.4" hidden="1" customHeight="1">
+      <c r="A94" t="s">
+        <v>28</v>
+      </c>
+      <c r="B94" t="s">
         <v>349</v>
       </c>
-      <c r="F93" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H93" t="s">
-        <v>33</v>
-      </c>
-      <c r="I93">
-        <v>14162628744</v>
-      </c>
-      <c r="J93" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>29</v>
-      </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>350</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
+        <v>14</v>
+      </c>
+      <c r="E94" t="s">
         <v>351</v>
-      </c>
-      <c r="D94" t="s">
-        <v>14</v>
-      </c>
-      <c r="E94" t="s">
-        <v>352</v>
       </c>
       <c r="F94" s="6" t="s">
         <v>19</v>
@@ -5077,57 +5127,57 @@
       <c r="H94" t="s">
         <v>20</v>
       </c>
-      <c r="I94">
+      <c r="I94" s="25">
         <v>14162640777</v>
       </c>
       <c r="J94" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" ht="14.4" hidden="1" customHeight="1">
       <c r="A95" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B95" t="s">
+        <v>352</v>
+      </c>
+      <c r="C95" t="s">
         <v>353</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
+        <v>14</v>
+      </c>
+      <c r="E95" t="s">
         <v>354</v>
       </c>
-      <c r="D95" t="s">
-        <v>14</v>
-      </c>
-      <c r="E95" t="s">
-        <v>355</v>
-      </c>
       <c r="F95" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H95" t="s">
+        <v>32</v>
+      </c>
+      <c r="I95" s="25">
+        <v>14165518982</v>
+      </c>
+      <c r="J95" t="s">
         <v>33</v>
       </c>
-      <c r="I95">
-        <v>14165518982</v>
-      </c>
-      <c r="J95" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:11" ht="14.4" hidden="1" customHeight="1">
       <c r="A96" t="s">
         <v>23</v>
       </c>
       <c r="B96" t="s">
+        <v>355</v>
+      </c>
+      <c r="C96" t="s">
         <v>356</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
+        <v>14</v>
+      </c>
+      <c r="E96" t="s">
         <v>357</v>
-      </c>
-      <c r="D96" t="s">
-        <v>14</v>
-      </c>
-      <c r="E96" t="s">
-        <v>358</v>
       </c>
       <c r="F96" s="6" t="s">
         <v>19</v>
@@ -5135,28 +5185,28 @@
       <c r="H96" t="s">
         <v>20</v>
       </c>
-      <c r="I96">
+      <c r="I96" s="25">
         <v>14166908081</v>
       </c>
       <c r="J96" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A97" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B97" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C97" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D97" t="s">
         <v>14</v>
       </c>
       <c r="E97" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F97" s="6" t="s">
         <v>19</v>
@@ -5164,28 +5214,28 @@
       <c r="H97" t="s">
         <v>16</v>
       </c>
-      <c r="I97">
+      <c r="I97" s="25">
         <v>14162837433</v>
       </c>
       <c r="J97" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B98" t="s">
+        <v>360</v>
+      </c>
+      <c r="C98" t="s">
         <v>361</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
+        <v>14</v>
+      </c>
+      <c r="E98" t="s">
         <v>362</v>
-      </c>
-      <c r="D98" t="s">
-        <v>14</v>
-      </c>
-      <c r="E98" t="s">
-        <v>363</v>
       </c>
       <c r="F98" s="6" t="s">
         <v>19</v>
@@ -5193,28 +5243,28 @@
       <c r="H98" t="s">
         <v>20</v>
       </c>
-      <c r="I98">
+      <c r="I98" s="25">
         <v>16132333000</v>
       </c>
       <c r="J98" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" ht="14.4" customHeight="1">
       <c r="A99" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B99" t="s">
+        <v>363</v>
+      </c>
+      <c r="C99" t="s">
         <v>364</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99" t="s">
         <v>365</v>
-      </c>
-      <c r="D99" t="s">
-        <v>14</v>
-      </c>
-      <c r="E99" t="s">
-        <v>366</v>
       </c>
       <c r="F99" s="6" t="s">
         <v>19</v>
@@ -5222,25 +5272,28 @@
       <c r="H99" t="s">
         <v>18</v>
       </c>
-      <c r="I99">
+      <c r="I99" s="25">
         <v>12892461172</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J99" s="14" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="14.4" customHeight="1">
       <c r="A100" t="s">
+        <v>367</v>
+      </c>
+      <c r="B100" t="s">
+        <v>366</v>
+      </c>
+      <c r="C100" t="s">
         <v>368</v>
       </c>
-      <c r="B100" t="s">
-        <v>367</v>
-      </c>
-      <c r="C100" t="s">
-        <v>369</v>
-      </c>
       <c r="D100" t="s">
         <v>14</v>
       </c>
       <c r="E100" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F100" s="6" t="s">
         <v>19</v>
@@ -5248,25 +5301,28 @@
       <c r="H100" t="s">
         <v>18</v>
       </c>
-      <c r="I100">
+      <c r="I100" s="25">
         <v>12262530859</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J100" s="14" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="14.4" customHeight="1">
       <c r="A101" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B101" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C101" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D101" t="s">
         <v>14</v>
       </c>
       <c r="E101" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F101" s="6" t="s">
         <v>19</v>
@@ -5274,77 +5330,86 @@
       <c r="H101" t="s">
         <v>18</v>
       </c>
-      <c r="I101">
+      <c r="I101" s="25">
         <v>15193542255</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J101" s="14" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="14.4" customHeight="1">
       <c r="A102" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B102" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C102" t="s">
+        <v>370</v>
+      </c>
+      <c r="D102" t="s">
+        <v>14</v>
+      </c>
+      <c r="E102" t="s">
+        <v>369</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H102" t="s">
+        <v>50</v>
+      </c>
+      <c r="I102" s="25">
+        <v>15192582544</v>
+      </c>
+      <c r="J102" s="14" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="14.4" customHeight="1">
+      <c r="A103" t="s">
+        <v>61</v>
+      </c>
+      <c r="B103" t="s">
+        <v>132</v>
+      </c>
+      <c r="C103" t="s">
         <v>371</v>
       </c>
-      <c r="D102" t="s">
-        <v>14</v>
-      </c>
-      <c r="E102" t="s">
-        <v>370</v>
-      </c>
-      <c r="F102" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H102" t="s">
-        <v>51</v>
-      </c>
-      <c r="I102">
-        <v>15192582544</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>62</v>
-      </c>
-      <c r="B103" t="s">
-        <v>133</v>
-      </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
+        <v>14</v>
+      </c>
+      <c r="E103" t="s">
         <v>372</v>
       </c>
-      <c r="D103" t="s">
-        <v>14</v>
-      </c>
-      <c r="E103" t="s">
+      <c r="F103" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H103" t="s">
+        <v>27</v>
+      </c>
+      <c r="I103" s="25">
+        <v>15192500712</v>
+      </c>
+      <c r="J103" s="14" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="14.4" customHeight="1">
+      <c r="A104" t="s">
+        <v>61</v>
+      </c>
+      <c r="B104" t="s">
+        <v>132</v>
+      </c>
+      <c r="C104" t="s">
         <v>373</v>
       </c>
-      <c r="F103" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H103" t="s">
-        <v>28</v>
-      </c>
-      <c r="I103">
-        <v>15192500712</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>62</v>
-      </c>
-      <c r="B104" t="s">
-        <v>133</v>
-      </c>
-      <c r="C104" t="s">
-        <v>374</v>
-      </c>
       <c r="D104" t="s">
         <v>14</v>
       </c>
       <c r="E104" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F104" s="6" t="s">
         <v>19</v>
@@ -5352,51 +5417,57 @@
       <c r="H104" t="s">
         <v>18</v>
       </c>
-      <c r="I104">
+      <c r="I104" s="25">
         <v>15199678818</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J104" s="14" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="14.4" customHeight="1">
       <c r="A105" t="s">
+        <v>374</v>
+      </c>
+      <c r="B105" t="s">
         <v>375</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>376</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105" t="s">
         <v>377</v>
       </c>
-      <c r="D105" t="s">
-        <v>14</v>
-      </c>
-      <c r="E105" t="s">
+      <c r="F105" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H105" t="s">
+        <v>25</v>
+      </c>
+      <c r="I105" s="25">
+        <v>16133722272</v>
+      </c>
+      <c r="J105" s="14" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="14.4" customHeight="1">
+      <c r="A106" t="s">
+        <v>42</v>
+      </c>
+      <c r="B106" t="s">
+        <v>142</v>
+      </c>
+      <c r="C106" t="s">
         <v>378</v>
       </c>
-      <c r="F105" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H105" t="s">
-        <v>26</v>
-      </c>
-      <c r="I105">
-        <v>16133722272</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>43</v>
-      </c>
-      <c r="B106" t="s">
-        <v>143</v>
-      </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
+        <v>14</v>
+      </c>
+      <c r="E106" t="s">
         <v>379</v>
-      </c>
-      <c r="D106" t="s">
-        <v>14</v>
-      </c>
-      <c r="E106" t="s">
-        <v>380</v>
       </c>
       <c r="F106" s="6" t="s">
         <v>19</v>
@@ -5404,25 +5475,28 @@
       <c r="H106" t="s">
         <v>18</v>
       </c>
-      <c r="I106">
+      <c r="I106" s="25">
         <v>19054956454</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J106" s="14" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A107" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B107" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C107" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D107" t="s">
         <v>14</v>
       </c>
       <c r="E107" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F107" s="6" t="s">
         <v>19</v>
@@ -5430,25 +5504,28 @@
       <c r="H107" t="s">
         <v>18</v>
       </c>
-      <c r="I107">
+      <c r="I107" s="25">
         <v>19054956454</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J107" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="14.4" customHeight="1">
       <c r="A108" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B108" t="s">
+        <v>381</v>
+      </c>
+      <c r="C108" t="s">
         <v>382</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
+        <v>14</v>
+      </c>
+      <c r="E108" t="s">
         <v>383</v>
-      </c>
-      <c r="D108" t="s">
-        <v>14</v>
-      </c>
-      <c r="E108" t="s">
-        <v>384</v>
       </c>
       <c r="F108" s="6" t="s">
         <v>19</v>
@@ -5456,51 +5533,57 @@
       <c r="H108" t="s">
         <v>18</v>
       </c>
-      <c r="I108">
+      <c r="I108" s="25">
         <v>19055288955</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J108" s="14" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="14.4" customHeight="1">
       <c r="A109" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B109" t="s">
+        <v>384</v>
+      </c>
+      <c r="C109" t="s">
         <v>385</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
+        <v>14</v>
+      </c>
+      <c r="E109" t="s">
         <v>386</v>
       </c>
-      <c r="D109" t="s">
-        <v>14</v>
-      </c>
-      <c r="E109" t="s">
+      <c r="F109" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H109" t="s">
+        <v>27</v>
+      </c>
+      <c r="I109" s="25">
+        <v>15197571001</v>
+      </c>
+      <c r="J109" s="14" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+      <c r="A110" t="s">
+        <v>134</v>
+      </c>
+      <c r="B110" t="s">
         <v>387</v>
       </c>
-      <c r="F109" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H109" t="s">
-        <v>28</v>
-      </c>
-      <c r="I109">
-        <v>15197571001</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>135</v>
-      </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
         <v>388</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
+        <v>14</v>
+      </c>
+      <c r="E110" t="s">
         <v>389</v>
-      </c>
-      <c r="D110" t="s">
-        <v>14</v>
-      </c>
-      <c r="E110" t="s">
-        <v>390</v>
       </c>
       <c r="F110" s="6" t="s">
         <v>19</v>
@@ -5508,57 +5591,57 @@
       <c r="H110" t="s">
         <v>20</v>
       </c>
-      <c r="I110">
+      <c r="I110" s="25">
         <v>17053209898</v>
       </c>
-      <c r="J110" t="s">
+      <c r="J110" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A111" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B111" t="s">
+        <v>390</v>
+      </c>
+      <c r="C111" t="s">
         <v>391</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
+        <v>14</v>
+      </c>
+      <c r="E111" t="s">
         <v>392</v>
       </c>
-      <c r="D111" t="s">
-        <v>14</v>
-      </c>
-      <c r="E111" t="s">
+      <c r="F111" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H111" t="s">
+        <v>32</v>
+      </c>
+      <c r="I111" s="25">
+        <v>15199545323</v>
+      </c>
+      <c r="J111" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="14.4" customHeight="1">
+      <c r="A112" t="s">
         <v>393</v>
       </c>
-      <c r="F111" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H111" t="s">
-        <v>33</v>
-      </c>
-      <c r="I111">
-        <v>15199545323</v>
-      </c>
-      <c r="J111" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
+      <c r="B112" t="s">
         <v>394</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
         <v>395</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
+        <v>14</v>
+      </c>
+      <c r="E112" t="s">
         <v>396</v>
-      </c>
-      <c r="D112" t="s">
-        <v>14</v>
-      </c>
-      <c r="E112" t="s">
-        <v>397</v>
       </c>
       <c r="F112" s="6" t="s">
         <v>19</v>
@@ -5566,25 +5649,28 @@
       <c r="H112" t="s">
         <v>18</v>
       </c>
-      <c r="I112">
+      <c r="I112" s="25">
         <v>12892982856</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J112" s="14" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="14.4" customHeight="1">
       <c r="A113" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B113" t="s">
+        <v>397</v>
+      </c>
+      <c r="C113" t="s">
         <v>398</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
+        <v>14</v>
+      </c>
+      <c r="E113" t="s">
         <v>399</v>
-      </c>
-      <c r="D113" t="s">
-        <v>14</v>
-      </c>
-      <c r="E113" t="s">
-        <v>400</v>
       </c>
       <c r="F113" s="6" t="s">
         <v>19</v>
@@ -5592,28 +5678,28 @@
       <c r="H113" t="s">
         <v>20</v>
       </c>
-      <c r="I113">
+      <c r="I113" s="25">
         <v>19055633933</v>
       </c>
-      <c r="J113" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J113" s="14" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A114" t="s">
-        <v>38</v>
-      </c>
-      <c r="B114" t="s">
+        <v>37</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
+        <v>14</v>
+      </c>
+      <c r="E114" t="s">
         <v>402</v>
-      </c>
-      <c r="D114" t="s">
-        <v>14</v>
-      </c>
-      <c r="E114" t="s">
-        <v>403</v>
       </c>
       <c r="F114" s="6" t="s">
         <v>19</v>
@@ -5621,54 +5707,57 @@
       <c r="H114" t="s">
         <v>20</v>
       </c>
-      <c r="I114">
+      <c r="I114" s="25">
         <v>12892732782</v>
       </c>
-      <c r="J114" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J114" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="14.4" customHeight="1">
       <c r="A115" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B115" t="s">
+        <v>403</v>
+      </c>
+      <c r="C115" t="s">
         <v>404</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
+        <v>14</v>
+      </c>
+      <c r="E115" t="s">
         <v>405</v>
       </c>
-      <c r="D115" t="s">
-        <v>14</v>
-      </c>
-      <c r="E115" t="s">
+      <c r="F115" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H115" t="s">
+        <v>25</v>
+      </c>
+      <c r="I115" s="25">
+        <v>15193040660</v>
+      </c>
+      <c r="J115" s="14" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+      <c r="A116" t="s">
+        <v>202</v>
+      </c>
+      <c r="B116" t="s">
         <v>406</v>
       </c>
-      <c r="F115" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H115" t="s">
-        <v>26</v>
-      </c>
-      <c r="I115">
-        <v>15193040660</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>203</v>
-      </c>
-      <c r="B116" t="s">
+      <c r="C116" t="s">
         <v>407</v>
       </c>
-      <c r="C116" t="s">
-        <v>408</v>
-      </c>
       <c r="D116" t="s">
         <v>14</v>
       </c>
       <c r="E116" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F116" s="6" t="s">
         <v>19</v>
@@ -5676,78 +5765,86 @@
       <c r="H116" t="s">
         <v>18</v>
       </c>
-      <c r="I116">
+      <c r="I116" s="25">
         <v>17058879567</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J116" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="14.4" customHeight="1">
       <c r="A117" t="s">
         <v>23</v>
       </c>
       <c r="B117" t="s">
+        <v>408</v>
+      </c>
+      <c r="C117" t="s">
         <v>409</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
+        <v>14</v>
+      </c>
+      <c r="E117" t="s">
         <v>410</v>
       </c>
-      <c r="D117" t="s">
-        <v>14</v>
-      </c>
-      <c r="E117" t="s">
+      <c r="F117" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H117" t="s">
+        <v>27</v>
+      </c>
+      <c r="I117" s="25">
+        <v>4169210688</v>
+      </c>
+      <c r="J117" s="14" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="14.4" customHeight="1">
+      <c r="A118" t="s">
+        <v>56</v>
+      </c>
+      <c r="B118" t="s">
         <v>411</v>
       </c>
-      <c r="F117" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H117" t="s">
-        <v>28</v>
-      </c>
-      <c r="I117"/>
-    </row>
-    <row r="118" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>57</v>
-      </c>
-      <c r="B118" t="s">
+      <c r="C118" t="s">
         <v>412</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="D118" s="7" t="s">
+      <c r="E118" s="31" t="s">
         <v>414</v>
       </c>
-      <c r="E118" s="17" t="s">
+      <c r="F118" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="H118" t="s">
+        <v>55</v>
+      </c>
+      <c r="I118" s="25">
+        <v>12262711259</v>
+      </c>
+      <c r="J118" s="14" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+      <c r="A119" t="s">
+        <v>64</v>
+      </c>
+      <c r="B119" t="s">
         <v>415</v>
       </c>
-      <c r="F118" s="6" t="s">
-        <v>553</v>
-      </c>
-      <c r="H118" t="s">
-        <v>56</v>
-      </c>
-      <c r="I118" s="16">
-        <v>12262711259</v>
-      </c>
-      <c r="J118" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>65</v>
-      </c>
-      <c r="B119" t="s">
+      <c r="C119" t="s">
         <v>416</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
+        <v>14</v>
+      </c>
+      <c r="E119" t="s">
         <v>417</v>
-      </c>
-      <c r="D119" t="s">
-        <v>14</v>
-      </c>
-      <c r="E119" t="s">
-        <v>418</v>
       </c>
       <c r="F119" s="6" t="s">
         <v>19</v>
@@ -5755,28 +5852,28 @@
       <c r="H119" t="s">
         <v>20</v>
       </c>
-      <c r="I119">
+      <c r="I119" s="25">
         <v>14164002045</v>
       </c>
-      <c r="J119" t="s">
+      <c r="J119" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A120" t="s">
         <v>23</v>
       </c>
       <c r="B120" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C120" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D120" t="s">
         <v>14</v>
       </c>
       <c r="E120" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F120" s="6" t="s">
         <v>19</v>
@@ -5784,28 +5881,28 @@
       <c r="H120" t="s">
         <v>20</v>
       </c>
-      <c r="I120">
+      <c r="I120" s="25">
         <v>14164002883</v>
       </c>
-      <c r="J120" t="s">
+      <c r="J120" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A121" t="s">
         <v>23</v>
       </c>
       <c r="B121" t="s">
+        <v>419</v>
+      </c>
+      <c r="C121" t="s">
         <v>420</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
+        <v>14</v>
+      </c>
+      <c r="E121" t="s">
         <v>421</v>
-      </c>
-      <c r="D121" t="s">
-        <v>14</v>
-      </c>
-      <c r="E121" t="s">
-        <v>422</v>
       </c>
       <c r="F121" s="6" t="s">
         <v>19</v>
@@ -5813,28 +5910,28 @@
       <c r="H121" t="s">
         <v>20</v>
       </c>
-      <c r="I121">
+      <c r="I121" s="25">
         <v>14167813128</v>
       </c>
-      <c r="J121" t="s">
+      <c r="J121" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A122" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B122" t="s">
+        <v>422</v>
+      </c>
+      <c r="C122" t="s">
         <v>423</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
+        <v>14</v>
+      </c>
+      <c r="E122" t="s">
         <v>424</v>
-      </c>
-      <c r="D122" t="s">
-        <v>14</v>
-      </c>
-      <c r="E122" t="s">
-        <v>425</v>
       </c>
       <c r="F122" s="6" t="s">
         <v>19</v>
@@ -5842,112 +5939,115 @@
       <c r="H122" t="s">
         <v>22</v>
       </c>
-      <c r="I122">
+      <c r="I122" s="25">
         <v>14166308420</v>
       </c>
-      <c r="J122" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J122" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="14.4" customHeight="1">
       <c r="A123" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B123" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C123" t="s">
+        <v>425</v>
+      </c>
+      <c r="D123" t="s">
+        <v>14</v>
+      </c>
+      <c r="E123" t="s">
         <v>426</v>
       </c>
-      <c r="D123" t="s">
-        <v>14</v>
-      </c>
-      <c r="E123" t="s">
-        <v>427</v>
-      </c>
       <c r="F123" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H123" t="s">
-        <v>33</v>
-      </c>
-      <c r="I123">
+        <v>32</v>
+      </c>
+      <c r="I123" s="25">
         <v>15482884335</v>
       </c>
-      <c r="J123" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J123" s="14" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="14.4" customHeight="1">
       <c r="A124" t="s">
         <v>23</v>
       </c>
       <c r="B124" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C124" t="s">
+        <v>427</v>
+      </c>
+      <c r="D124" t="s">
+        <v>14</v>
+      </c>
+      <c r="E124" t="s">
         <v>428</v>
       </c>
-      <c r="D124" t="s">
-        <v>14</v>
-      </c>
-      <c r="E124" t="s">
-        <v>429</v>
-      </c>
       <c r="F124" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H124" t="s">
-        <v>28</v>
-      </c>
-      <c r="I124">
+        <v>27</v>
+      </c>
+      <c r="I124" s="25">
         <v>16478079072</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J124" s="14" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="14.4" customHeight="1">
       <c r="A125" t="s">
         <v>21</v>
       </c>
       <c r="B125" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C125" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D125" t="s">
-        <v>77</v>
-      </c>
-      <c r="E125" s="20" t="s">
-        <v>430</v>
+        <v>76</v>
+      </c>
+      <c r="E125" s="17" t="s">
+        <v>429</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="H125" t="s">
         <v>20</v>
       </c>
-      <c r="I125">
+      <c r="I125" s="25">
         <v>19054274716</v>
       </c>
-      <c r="J125" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J125" s="14" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="14.4" customHeight="1">
       <c r="A126" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B126" t="s">
+        <v>430</v>
+      </c>
+      <c r="C126" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
+        <v>14</v>
+      </c>
+      <c r="E126" t="s">
         <v>432</v>
-      </c>
-      <c r="D126" t="s">
-        <v>14</v>
-      </c>
-      <c r="E126" t="s">
-        <v>433</v>
       </c>
       <c r="F126" s="6" t="s">
         <v>19</v>
@@ -5955,242 +6055,266 @@
       <c r="H126" t="s">
         <v>20</v>
       </c>
-      <c r="I126">
+      <c r="I126" s="25">
         <v>15199414500</v>
       </c>
-      <c r="J126" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J126" s="14" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="14.4" customHeight="1">
       <c r="A127" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B127" t="s">
+        <v>433</v>
+      </c>
+      <c r="C127" t="s">
         <v>434</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
+        <v>14</v>
+      </c>
+      <c r="E127" t="s">
         <v>435</v>
       </c>
-      <c r="D127" t="s">
-        <v>14</v>
-      </c>
-      <c r="E127" t="s">
+      <c r="F127" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H127" t="s">
+        <v>25</v>
+      </c>
+      <c r="I127" s="25">
+        <v>15198210555</v>
+      </c>
+      <c r="J127" s="14" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="14.4" customHeight="1">
+      <c r="A128" t="s">
+        <v>359</v>
+      </c>
+      <c r="B128" t="s">
         <v>436</v>
       </c>
-      <c r="F127" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H127" t="s">
+      <c r="C128" t="s">
+        <v>437</v>
+      </c>
+      <c r="D128" t="s">
+        <v>14</v>
+      </c>
+      <c r="E128" t="s">
+        <v>438</v>
+      </c>
+      <c r="F128" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H128" t="s">
+        <v>25</v>
+      </c>
+      <c r="I128" s="25">
+        <v>15199255523</v>
+      </c>
+      <c r="J128" s="14" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+      <c r="A129" t="s">
+        <v>44</v>
+      </c>
+      <c r="B129" t="s">
+        <v>439</v>
+      </c>
+      <c r="C129" t="s">
+        <v>440</v>
+      </c>
+      <c r="D129" t="s">
+        <v>14</v>
+      </c>
+      <c r="E129" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H129" t="s">
+        <v>32</v>
+      </c>
+      <c r="I129" s="25">
+        <v>15193047465</v>
+      </c>
+      <c r="J129" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="14.4" customHeight="1">
+      <c r="A130" t="s">
         <v>26</v>
       </c>
-      <c r="I127">
-        <v>15198210555</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>360</v>
-      </c>
-      <c r="B128" t="s">
-        <v>437</v>
-      </c>
-      <c r="C128" t="s">
-        <v>438</v>
-      </c>
-      <c r="D128" t="s">
-        <v>14</v>
-      </c>
-      <c r="E128" t="s">
-        <v>439</v>
-      </c>
-      <c r="F128" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H128" t="s">
-        <v>26</v>
-      </c>
-      <c r="I128">
-        <v>15199255523</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>45</v>
-      </c>
-      <c r="B129" t="s">
-        <v>440</v>
-      </c>
-      <c r="C129" t="s">
-        <v>441</v>
-      </c>
-      <c r="D129" t="s">
-        <v>14</v>
-      </c>
-      <c r="E129" s="20" t="s">
-        <v>442</v>
-      </c>
-      <c r="F129" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H129" t="s">
-        <v>33</v>
-      </c>
-      <c r="I129">
-        <v>15193047465</v>
-      </c>
-      <c r="J129" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>27</v>
-      </c>
       <c r="B130" t="s">
+        <v>444</v>
+      </c>
+      <c r="C130" t="s">
         <v>445</v>
       </c>
-      <c r="C130" t="s">
-        <v>446</v>
-      </c>
       <c r="D130" t="s">
         <v>14</v>
       </c>
       <c r="E130" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>584</v>
       </c>
       <c r="H130" t="s">
         <v>18</v>
       </c>
-      <c r="I130">
+      <c r="I130" s="25">
         <v>12893896889</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J130" s="14" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="14.4" customHeight="1">
       <c r="A131" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B131" t="s">
+        <v>442</v>
+      </c>
+      <c r="C131" t="s">
+        <v>446</v>
+      </c>
+      <c r="D131" t="s">
+        <v>14</v>
+      </c>
+      <c r="E131" t="s">
         <v>443</v>
       </c>
-      <c r="C131" t="s">
-        <v>447</v>
-      </c>
-      <c r="D131" t="s">
-        <v>14</v>
-      </c>
-      <c r="E131" t="s">
-        <v>444</v>
-      </c>
       <c r="F131" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>583</v>
       </c>
       <c r="H131" t="s">
         <v>18</v>
       </c>
-      <c r="I131">
+      <c r="I131" s="25">
         <v>12893898989</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J131" s="14" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="14.4" customHeight="1">
       <c r="A132" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B132" t="s">
+        <v>447</v>
+      </c>
+      <c r="C132" t="s">
         <v>448</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
+        <v>14</v>
+      </c>
+      <c r="E132" t="s">
         <v>449</v>
       </c>
-      <c r="D132" t="s">
-        <v>14</v>
-      </c>
-      <c r="E132" t="s">
+      <c r="F132" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H132" t="s">
+        <v>25</v>
+      </c>
+      <c r="I132" s="25">
+        <v>14162669336</v>
+      </c>
+      <c r="J132" s="14" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+      <c r="A133" t="s">
+        <v>63</v>
+      </c>
+      <c r="B133" t="s">
+        <v>453</v>
+      </c>
+      <c r="C133" t="s">
+        <v>454</v>
+      </c>
+      <c r="D133" t="s">
+        <v>14</v>
+      </c>
+      <c r="E133" t="s">
+        <v>455</v>
+      </c>
+      <c r="F133" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H133" t="s">
+        <v>32</v>
+      </c>
+      <c r="I133" s="25">
+        <v>16139335005</v>
+      </c>
+      <c r="J133" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+      <c r="A134" t="s">
+        <v>63</v>
+      </c>
+      <c r="B134" t="s">
+        <v>456</v>
+      </c>
+      <c r="C134" t="s">
+        <v>457</v>
+      </c>
+      <c r="D134" t="s">
+        <v>14</v>
+      </c>
+      <c r="E134" t="s">
+        <v>458</v>
+      </c>
+      <c r="F134" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H134" t="s">
+        <v>32</v>
+      </c>
+      <c r="I134" s="25">
+        <v>16139322525</v>
+      </c>
+      <c r="J134" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+      <c r="A135" t="s">
+        <v>273</v>
+      </c>
+      <c r="B135" t="s">
         <v>450</v>
       </c>
-      <c r="F132" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H132" t="s">
-        <v>26</v>
-      </c>
-      <c r="I132">
-        <v>14162669336</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>64</v>
-      </c>
-      <c r="B133" t="s">
-        <v>454</v>
-      </c>
-      <c r="C133" t="s">
-        <v>455</v>
-      </c>
-      <c r="D133" t="s">
-        <v>14</v>
-      </c>
-      <c r="E133" t="s">
-        <v>456</v>
-      </c>
-      <c r="F133" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H133" t="s">
-        <v>33</v>
-      </c>
-      <c r="I133">
-        <v>16139335005</v>
-      </c>
-      <c r="J133" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>64</v>
-      </c>
-      <c r="B134" t="s">
-        <v>457</v>
-      </c>
-      <c r="C134" t="s">
-        <v>458</v>
-      </c>
-      <c r="D134" t="s">
-        <v>14</v>
-      </c>
-      <c r="E134" t="s">
-        <v>459</v>
-      </c>
-      <c r="F134" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H134" t="s">
-        <v>18</v>
-      </c>
-      <c r="I134">
-        <v>16139322525</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>274</v>
-      </c>
-      <c r="B135" t="s">
+      <c r="C135" t="s">
         <v>451</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
+        <v>14</v>
+      </c>
+      <c r="E135" s="17" t="s">
         <v>452</v>
-      </c>
-      <c r="D135" t="s">
-        <v>14</v>
-      </c>
-      <c r="E135" s="20" t="s">
-        <v>453</v>
       </c>
       <c r="F135" s="6" t="s">
         <v>19</v>
@@ -6198,28 +6322,28 @@
       <c r="H135" t="s">
         <v>20</v>
       </c>
-      <c r="I135">
+      <c r="I135" s="25">
         <v>13652053237</v>
       </c>
       <c r="J135" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A136" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B136" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C136" t="s">
+        <v>459</v>
+      </c>
+      <c r="D136" t="s">
+        <v>14</v>
+      </c>
+      <c r="E136" s="17" t="s">
         <v>460</v>
-      </c>
-      <c r="D136" t="s">
-        <v>14</v>
-      </c>
-      <c r="E136" s="20" t="s">
-        <v>461</v>
       </c>
       <c r="F136" s="6" t="s">
         <v>19</v>
@@ -6227,28 +6351,28 @@
       <c r="H136" t="s">
         <v>16</v>
       </c>
-      <c r="I136">
+      <c r="I136" s="25">
         <v>15193157768</v>
       </c>
-      <c r="J136" t="s">
+      <c r="J136" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A137" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B137" t="s">
+        <v>461</v>
+      </c>
+      <c r="C137" t="s">
         <v>462</v>
       </c>
-      <c r="C137" t="s">
-        <v>463</v>
-      </c>
       <c r="D137" t="s">
         <v>14</v>
       </c>
-      <c r="E137" s="20" t="s">
-        <v>461</v>
+      <c r="E137" s="17" t="s">
+        <v>460</v>
       </c>
       <c r="F137" s="6" t="s">
         <v>19</v>
@@ -6256,28 +6380,28 @@
       <c r="H137" t="s">
         <v>16</v>
       </c>
-      <c r="I137">
+      <c r="I137" s="25">
         <v>15193077768</v>
       </c>
       <c r="J137" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A138" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B138" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C138" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D138" t="s">
         <v>14</v>
       </c>
-      <c r="E138" s="20" t="s">
-        <v>461</v>
+      <c r="E138" s="17" t="s">
+        <v>460</v>
       </c>
       <c r="F138" s="6" t="s">
         <v>19</v>
@@ -6285,28 +6409,28 @@
       <c r="H138" t="s">
         <v>20</v>
       </c>
-      <c r="I138">
+      <c r="I138" s="25">
         <v>19057287768</v>
       </c>
       <c r="J138" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A139" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B139" t="s">
+        <v>464</v>
+      </c>
+      <c r="C139" t="s">
         <v>465</v>
       </c>
-      <c r="C139" t="s">
-        <v>466</v>
-      </c>
       <c r="D139" t="s">
         <v>14</v>
       </c>
-      <c r="E139" s="20" t="s">
-        <v>461</v>
+      <c r="E139" s="17" t="s">
+        <v>460</v>
       </c>
       <c r="F139" s="6" t="s">
         <v>19</v>
@@ -6314,28 +6438,28 @@
       <c r="H139" t="s">
         <v>16</v>
       </c>
-      <c r="I139">
+      <c r="I139" s="25">
         <v>19056840141</v>
       </c>
       <c r="J139" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A140" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B140" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C140" t="s">
+        <v>466</v>
+      </c>
+      <c r="D140" t="s">
+        <v>14</v>
+      </c>
+      <c r="E140" t="s">
         <v>467</v>
-      </c>
-      <c r="D140" t="s">
-        <v>14</v>
-      </c>
-      <c r="E140" t="s">
-        <v>468</v>
       </c>
       <c r="F140" s="6" t="s">
         <v>19</v>
@@ -6343,28 +6467,28 @@
       <c r="H140" t="s">
         <v>22</v>
       </c>
-      <c r="I140">
+      <c r="I140" s="25">
         <v>15199662525</v>
       </c>
-      <c r="J140" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J140" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="14.4" customHeight="1">
       <c r="A141" t="s">
+        <v>468</v>
+      </c>
+      <c r="B141" t="s">
         <v>469</v>
       </c>
-      <c r="B141" t="s">
+      <c r="C141" t="s">
         <v>470</v>
       </c>
-      <c r="C141" t="s">
+      <c r="D141" t="s">
+        <v>14</v>
+      </c>
+      <c r="E141" t="s">
         <v>471</v>
-      </c>
-      <c r="D141" t="s">
-        <v>14</v>
-      </c>
-      <c r="E141" t="s">
-        <v>472</v>
       </c>
       <c r="F141" s="6" t="s">
         <v>19</v>
@@ -6372,54 +6496,57 @@
       <c r="H141" t="s">
         <v>20</v>
       </c>
-      <c r="I141">
+      <c r="I141" s="25">
         <v>17056223107</v>
       </c>
-      <c r="J141" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J141" s="14" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" ht="14.4" customHeight="1">
       <c r="A142" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B142" t="s">
+        <v>472</v>
+      </c>
+      <c r="C142" t="s">
         <v>473</v>
       </c>
-      <c r="C142" t="s">
+      <c r="D142" t="s">
+        <v>14</v>
+      </c>
+      <c r="E142" t="s">
         <v>474</v>
       </c>
-      <c r="D142" t="s">
-        <v>14</v>
-      </c>
-      <c r="E142" t="s">
+      <c r="F142" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H142" t="s">
+        <v>50</v>
+      </c>
+      <c r="I142" s="25">
+        <v>16138282929</v>
+      </c>
+      <c r="J142" s="14" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="14.4" customHeight="1">
+      <c r="A143" t="s">
+        <v>120</v>
+      </c>
+      <c r="B143" t="s">
+        <v>476</v>
+      </c>
+      <c r="C143" t="s">
+        <v>477</v>
+      </c>
+      <c r="D143" t="s">
+        <v>14</v>
+      </c>
+      <c r="E143" t="s">
         <v>475</v>
-      </c>
-      <c r="F142" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H142" t="s">
-        <v>51</v>
-      </c>
-      <c r="I142">
-        <v>16138282929</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
-        <v>121</v>
-      </c>
-      <c r="B143" t="s">
-        <v>477</v>
-      </c>
-      <c r="C143" t="s">
-        <v>478</v>
-      </c>
-      <c r="D143" t="s">
-        <v>14</v>
-      </c>
-      <c r="E143" t="s">
-        <v>476</v>
       </c>
       <c r="F143" s="6" t="s">
         <v>19</v>
@@ -6427,25 +6554,28 @@
       <c r="H143" t="s">
         <v>18</v>
       </c>
-      <c r="I143">
+      <c r="I143" s="25">
         <v>13434760363</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J143" s="14" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="14.4" customHeight="1">
       <c r="A144" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B144" t="s">
+        <v>478</v>
+      </c>
+      <c r="C144" t="s">
         <v>479</v>
       </c>
-      <c r="C144" t="s">
-        <v>480</v>
-      </c>
       <c r="D144" t="s">
         <v>14</v>
       </c>
       <c r="E144" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F144" s="6" t="s">
         <v>19</v>
@@ -6453,80 +6583,86 @@
       <c r="H144" t="s">
         <v>18</v>
       </c>
-      <c r="I144">
+      <c r="I144" s="25">
         <v>14165219993</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J144" s="14" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A145" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B145" t="s">
+        <v>480</v>
+      </c>
+      <c r="C145" t="s">
         <v>481</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D145" t="s">
+        <v>14</v>
+      </c>
+      <c r="E145" s="17" t="s">
         <v>482</v>
       </c>
-      <c r="D145" t="s">
-        <v>14</v>
-      </c>
-      <c r="E145" s="20" t="s">
-        <v>483</v>
-      </c>
       <c r="F145" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H145" t="s">
         <v>20</v>
       </c>
-      <c r="I145">
+      <c r="I145" s="25">
         <v>19054519600</v>
       </c>
       <c r="J145" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" ht="14.4" customHeight="1">
       <c r="A146" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B146" t="s">
+        <v>486</v>
+      </c>
+      <c r="C146" t="s">
         <v>487</v>
       </c>
-      <c r="C146" t="s">
+      <c r="D146" t="s">
+        <v>14</v>
+      </c>
+      <c r="E146" t="s">
         <v>488</v>
       </c>
-      <c r="D146" t="s">
-        <v>14</v>
-      </c>
-      <c r="E146" t="s">
+      <c r="F146" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H146" t="s">
+        <v>18</v>
+      </c>
+      <c r="I146" s="25">
+        <v>14162910420</v>
+      </c>
+      <c r="J146" s="14" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+      <c r="A147" t="s">
+        <v>35</v>
+      </c>
+      <c r="B147" t="s">
         <v>489</v>
       </c>
-      <c r="F146" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H146" t="s">
-        <v>26</v>
-      </c>
-      <c r="I146">
-        <v>14162910420</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>36</v>
-      </c>
-      <c r="B147" t="s">
+      <c r="C147" t="s">
         <v>490</v>
       </c>
-      <c r="C147" t="s">
+      <c r="D147" t="s">
+        <v>14</v>
+      </c>
+      <c r="E147" t="s">
         <v>491</v>
-      </c>
-      <c r="D147" t="s">
-        <v>14</v>
-      </c>
-      <c r="E147" t="s">
-        <v>492</v>
       </c>
       <c r="F147" s="6" t="s">
         <v>19</v>
@@ -6534,57 +6670,57 @@
       <c r="H147" t="s">
         <v>20</v>
       </c>
-      <c r="I147">
+      <c r="I147" s="25">
         <v>16135638040</v>
       </c>
-      <c r="J147" t="s">
+      <c r="J147" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A148" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B148" t="s">
+        <v>483</v>
+      </c>
+      <c r="C148" t="s">
         <v>484</v>
       </c>
-      <c r="C148" t="s">
+      <c r="D148" t="s">
+        <v>14</v>
+      </c>
+      <c r="E148" s="17" t="s">
         <v>485</v>
       </c>
-      <c r="D148" t="s">
-        <v>14</v>
-      </c>
-      <c r="E148" s="20" t="s">
-        <v>486</v>
-      </c>
       <c r="F148" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H148" t="s">
+        <v>32</v>
+      </c>
+      <c r="I148" s="25">
+        <v>19057272020</v>
+      </c>
+      <c r="J148" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I148">
-        <v>19057272020</v>
-      </c>
-      <c r="J148" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A149" t="s">
         <v>23</v>
       </c>
       <c r="B149" t="s">
+        <v>492</v>
+      </c>
+      <c r="C149" t="s">
         <v>493</v>
       </c>
-      <c r="C149" t="s">
+      <c r="D149" t="s">
+        <v>14</v>
+      </c>
+      <c r="E149" t="s">
         <v>494</v>
-      </c>
-      <c r="D149" t="s">
-        <v>14</v>
-      </c>
-      <c r="E149" t="s">
-        <v>495</v>
       </c>
       <c r="F149" s="6" t="s">
         <v>19</v>
@@ -6592,74 +6728,106 @@
       <c r="H149" t="s">
         <v>20</v>
       </c>
-      <c r="I149">
+      <c r="I149" s="25">
         <v>16473411333</v>
       </c>
-      <c r="J149" t="s">
+      <c r="J149" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+      <c r="A150" t="s">
+        <v>23</v>
+      </c>
+      <c r="B150" t="s">
+        <v>498</v>
+      </c>
+      <c r="C150" t="s">
+        <v>499</v>
+      </c>
+      <c r="D150" t="s">
+        <v>14</v>
+      </c>
+      <c r="E150" t="s">
+        <v>500</v>
+      </c>
+      <c r="F150" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H150" t="s">
+        <v>581</v>
+      </c>
+      <c r="I150" s="25">
+        <v>14166516673</v>
+      </c>
+      <c r="J150" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="14.4" customHeight="1">
       <c r="A151" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="B151" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C151" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D151" t="s">
         <v>14</v>
       </c>
       <c r="E151" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="F151" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H151" t="s">
-        <v>22</v>
-      </c>
-      <c r="I151">
-        <v>14166516673</v>
-      </c>
-      <c r="J151" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I151" s="25">
+        <v>15196013420</v>
+      </c>
+      <c r="J151" s="14" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A152" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B152" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C152" t="s">
+        <v>505</v>
+      </c>
+      <c r="D152" t="s">
+        <v>14</v>
+      </c>
+      <c r="E152" t="s">
         <v>503</v>
       </c>
-      <c r="D152" t="s">
-        <v>14</v>
-      </c>
-      <c r="E152" t="s">
-        <v>504</v>
-      </c>
       <c r="F152" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H152" t="s">
-        <v>18</v>
-      </c>
-      <c r="I152">
-        <v>15196013420</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>581</v>
+      </c>
+      <c r="I152" s="25">
+        <v>15196071966</v>
+      </c>
+      <c r="J152" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" ht="14.4" customHeight="1">
       <c r="A153" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="B153" t="s">
-        <v>505</v>
+        <v>194</v>
       </c>
       <c r="C153" t="s">
         <v>506</v>
@@ -6668,416 +6836,500 @@
         <v>14</v>
       </c>
       <c r="E153" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="F153" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H153" t="s">
+        <v>20</v>
+      </c>
+      <c r="I153" s="25">
+        <v>14162912553</v>
+      </c>
+      <c r="J153" s="14" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" ht="14.4" customHeight="1">
+      <c r="A154" t="s">
+        <v>70</v>
+      </c>
+      <c r="B154" t="s">
+        <v>132</v>
+      </c>
+      <c r="C154" t="s">
+        <v>508</v>
+      </c>
+      <c r="D154" t="s">
+        <v>14</v>
+      </c>
+      <c r="E154" t="s">
+        <v>369</v>
+      </c>
+      <c r="F154" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H154" t="s">
         <v>18</v>
       </c>
-      <c r="I153">
-        <v>15196071966</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
-        <v>29</v>
-      </c>
-      <c r="B154" t="s">
-        <v>195</v>
-      </c>
-      <c r="C154" t="s">
-        <v>507</v>
-      </c>
-      <c r="D154" t="s">
-        <v>14</v>
-      </c>
-      <c r="E154" t="s">
-        <v>508</v>
-      </c>
-      <c r="F154" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H154" t="s">
-        <v>20</v>
-      </c>
-      <c r="I154">
-        <v>14162912553</v>
-      </c>
-      <c r="J154" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
-        <v>71</v>
-      </c>
-      <c r="B155" t="s">
+      <c r="I154" s="27">
+        <v>15197364343</v>
+      </c>
+      <c r="J154" s="14" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" s="3" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A155" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E155" s="23" t="s">
+        <v>497</v>
+      </c>
+      <c r="F155" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="H155" t="s">
+        <v>18</v>
+      </c>
+      <c r="I155" s="27">
+        <v>15197429366</v>
+      </c>
+      <c r="J155" s="14" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" ht="14.4" customHeight="1">
+      <c r="A156" t="s">
         <v>133</v>
       </c>
-      <c r="C155" t="s">
+      <c r="B156" t="s">
         <v>509</v>
       </c>
-      <c r="D155" t="s">
-        <v>14</v>
-      </c>
-      <c r="E155" t="s">
-        <v>370</v>
-      </c>
-      <c r="F155" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I155"/>
-    </row>
-    <row r="156" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
-        <v>39</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>496</v>
-      </c>
       <c r="C156" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="D156" t="s">
         <v>14</v>
       </c>
-      <c r="E156" s="20" t="s">
-        <v>498</v>
+      <c r="E156" t="s">
+        <v>511</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I156">
-        <v>15197429366</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="H156" t="s">
+        <v>18</v>
+      </c>
+      <c r="I156" s="28">
+        <v>7057381818</v>
+      </c>
+      <c r="J156" s="14" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A157" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="B157" t="s">
-        <v>510</v>
+        <v>464</v>
       </c>
       <c r="C157" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D157" t="s">
         <v>14</v>
       </c>
       <c r="E157" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F157" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I157"/>
-    </row>
-    <row r="158" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H157" t="s">
+        <v>581</v>
+      </c>
+      <c r="I157" s="29">
+        <v>4168974714</v>
+      </c>
+      <c r="J157" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" ht="14.4" customHeight="1">
       <c r="A158" t="s">
-        <v>175</v>
-      </c>
-      <c r="B158" t="s">
-        <v>465</v>
+        <v>44</v>
+      </c>
+      <c r="B158">
+        <v>6420</v>
       </c>
       <c r="C158" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D158" t="s">
         <v>14</v>
       </c>
       <c r="E158" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F158" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I158"/>
-    </row>
-    <row r="159" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H158" t="s">
+        <v>18</v>
+      </c>
+      <c r="I158" s="25">
+        <v>15483380035</v>
+      </c>
+      <c r="J158" s="14" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" ht="14.4" customHeight="1">
       <c r="A159" t="s">
-        <v>45</v>
-      </c>
-      <c r="B159">
-        <v>6420</v>
+        <v>176</v>
+      </c>
+      <c r="B159" t="s">
+        <v>201</v>
       </c>
       <c r="C159" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D159" t="s">
         <v>14</v>
       </c>
       <c r="E159" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F159" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I159"/>
-    </row>
-    <row r="160" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H159" t="s">
+        <v>18</v>
+      </c>
+      <c r="I159" s="30">
+        <v>7054545888</v>
+      </c>
+      <c r="J159" s="14" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" ht="14.4" customHeight="1">
       <c r="A160" t="s">
-        <v>177</v>
+        <v>81</v>
       </c>
       <c r="B160" t="s">
-        <v>202</v>
+        <v>132</v>
       </c>
       <c r="C160" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D160" t="s">
         <v>14</v>
       </c>
       <c r="E160" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="F160" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I160"/>
-    </row>
-    <row r="161" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
-        <v>82</v>
-      </c>
-      <c r="B161" t="s">
-        <v>133</v>
-      </c>
-      <c r="C161" t="s">
-        <v>519</v>
-      </c>
-      <c r="D161" t="s">
-        <v>14</v>
-      </c>
-      <c r="E161" t="s">
+      <c r="H160" t="s">
+        <v>18</v>
+      </c>
+      <c r="I160" s="30">
+        <v>5199793939</v>
+      </c>
+      <c r="J160" s="14" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" s="9" customFormat="1" ht="14.4" hidden="1" customHeight="1">
+      <c r="A161" s="9" t="s">
         <v>520</v>
       </c>
-      <c r="F161" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I161"/>
-    </row>
-    <row r="162" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B161" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="D161" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E161" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="F161" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="G161" s="11"/>
+      <c r="I161" s="26"/>
+    </row>
+    <row r="162" spans="1:10" ht="14.4" customHeight="1">
       <c r="A162" t="s">
-        <v>521</v>
+        <v>23</v>
       </c>
       <c r="B162" t="s">
-        <v>522</v>
+        <v>246</v>
       </c>
       <c r="C162" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="D162" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="E162" t="s">
+        <v>526</v>
+      </c>
+      <c r="F162" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="F162" s="6" t="s">
-        <v>525</v>
-      </c>
-      <c r="I162"/>
-    </row>
-    <row r="163" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H162" t="s">
+        <v>18</v>
+      </c>
+      <c r="I162" s="30">
+        <v>16473419333</v>
+      </c>
+      <c r="J162" s="14" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" ht="14.4" customHeight="1">
       <c r="A163" t="s">
         <v>23</v>
       </c>
       <c r="B163" t="s">
-        <v>247</v>
+        <v>527</v>
       </c>
       <c r="C163" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D163" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E163" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="F163" s="6" t="s">
-        <v>525</v>
-      </c>
-      <c r="I163"/>
-    </row>
-    <row r="164" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>559</v>
+      </c>
+      <c r="H163" t="s">
+        <v>18</v>
+      </c>
+      <c r="I163" s="25">
+        <v>14378808449</v>
+      </c>
+      <c r="J163" s="14" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" ht="14.4" hidden="1" customHeight="1">
       <c r="A164" t="s">
         <v>23</v>
       </c>
       <c r="B164" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C164" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="D164" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="E164" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="F164" s="6" t="s">
-        <v>525</v>
-      </c>
-      <c r="I164"/>
-    </row>
-    <row r="165" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="H164" t="s">
+        <v>581</v>
+      </c>
+      <c r="I164" s="25">
+        <v>18444286225</v>
+      </c>
+      <c r="J164" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" ht="14.4" customHeight="1">
       <c r="A165" t="s">
         <v>23</v>
       </c>
       <c r="B165" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C165" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D165" t="s">
         <v>14</v>
       </c>
       <c r="E165" t="s">
-        <v>533</v>
+        <v>580</v>
       </c>
       <c r="F165" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I165"/>
-    </row>
-    <row r="166" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="H165" t="s">
+        <v>18</v>
+      </c>
+      <c r="I165" s="25">
+        <v>14165388225</v>
+      </c>
+      <c r="J165" s="14" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" ht="14.4" customHeight="1">
       <c r="A166" t="s">
         <v>23</v>
       </c>
       <c r="B166" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C166" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D166" t="s">
         <v>14</v>
       </c>
       <c r="E166" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F166" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H166" t="s">
-        <v>18</v>
-      </c>
-      <c r="I166">
-        <v>14165388225</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="I166" s="25">
+        <v>14165346888</v>
+      </c>
+      <c r="J166" s="14" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" ht="14.4" customHeight="1">
       <c r="A167" t="s">
         <v>23</v>
       </c>
       <c r="B167" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C167" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D167" t="s">
-        <v>14</v>
-      </c>
-      <c r="E167" t="s">
-        <v>539</v>
+        <v>578</v>
+      </c>
+      <c r="E167" s="17" t="s">
+        <v>572</v>
       </c>
       <c r="F167" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I167"/>
-    </row>
-    <row r="168" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>550</v>
+      </c>
+      <c r="H167" t="s">
+        <v>30</v>
+      </c>
+      <c r="I167" s="25" t="s">
+        <v>566</v>
+      </c>
+      <c r="J167" s="14" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" ht="14.4" customHeight="1">
       <c r="A168" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="B168" t="s">
+        <v>132</v>
+      </c>
+      <c r="C168" t="s">
         <v>540</v>
       </c>
-      <c r="C168" t="s">
-        <v>541</v>
-      </c>
       <c r="D168" t="s">
-        <v>77</v>
-      </c>
-      <c r="E168" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E168" t="s">
+        <v>577</v>
+      </c>
+      <c r="F168" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H168" t="s">
+        <v>30</v>
+      </c>
+      <c r="I168" s="25">
+        <v>15192531811</v>
+      </c>
+      <c r="J168" s="14" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" ht="14.4" customHeight="1">
+      <c r="A169" t="s">
+        <v>74</v>
+      </c>
+      <c r="B169" t="s">
+        <v>543</v>
+      </c>
+      <c r="C169" t="s">
+        <v>544</v>
+      </c>
+      <c r="D169" t="s">
+        <v>14</v>
+      </c>
+      <c r="E169" t="s">
+        <v>545</v>
+      </c>
+      <c r="F169" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="H169" t="s">
+        <v>30</v>
+      </c>
+      <c r="I169" s="25" t="s">
         <v>575</v>
       </c>
-      <c r="F168" s="6" t="s">
-        <v>553</v>
-      </c>
-      <c r="H168" t="s">
-        <v>31</v>
-      </c>
-      <c r="I168" t="s">
-        <v>569</v>
-      </c>
-      <c r="J168" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
-        <v>62</v>
-      </c>
-      <c r="B169" t="s">
-        <v>133</v>
-      </c>
-      <c r="C169" t="s">
-        <v>542</v>
-      </c>
-      <c r="D169" t="s">
-        <v>77</v>
-      </c>
-      <c r="E169" t="s">
-        <v>543</v>
-      </c>
-      <c r="F169" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I169"/>
-    </row>
-    <row r="170" spans="1:10" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
-        <v>75</v>
-      </c>
-      <c r="B170" t="s">
-        <v>546</v>
-      </c>
-      <c r="C170" t="s">
-        <v>547</v>
-      </c>
-      <c r="D170" t="s">
-        <v>14</v>
-      </c>
-      <c r="E170" t="s">
-        <v>548</v>
-      </c>
-      <c r="F170" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="I170"/>
+      <c r="J169" s="14" t="s">
+        <v>576</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="F1:J170" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="F1:J169" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="4">
       <filters>
-        <filter val="['Delivery  within a 10km radius of our Waterloo store', 'Same-day delivery']"/>
-        <filter val="['Delivery  within a 20km radius of our Waterloo store', 'Same-day delivery']"/>
-        <filter val="['Delivery / need scan map', 'Same-day delivery']"/>
-        <filter val="['Delivery in Courtice, Whitby, Oshawa', 'Same-day delivery']"/>
-        <filter val="['Delivery serve within 30 km radius', 'Same-day delivery']"/>
-        <filter val="['Delivery within 12 kms', 'Same-day delivery']"/>
-        <filter val="['Delivery within 50 km radius', 'Same-day delivery']"/>
+        <filter val="['No Delivery / Permanently closed']"/>
+        <filter val="['No Delivery']"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <hyperlinks>
     <hyperlink ref="E28" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="I162" r:id="rId2" display="tel:6473419333" xr:uid="{78DEF400-8D91-440D-841A-7E8B7EE57A54}"/>
+    <hyperlink ref="I160" r:id="rId3" display="https://www.google.com/search?q=Discounted+Cannabis+13139+TECUMSEH+RD+E&amp;oq=Discounted+Cannabis%0913139+TECUMSEH+RD+E&amp;gs_lcrp=EgZjaHJvbWUqBggAEEUYOzIGCAAQRRg70gEHNTAxajBqN6gCALACAA&amp;sourceid=chrome&amp;ie=UTF-8" xr:uid="{D56AFE3D-C577-4C58-8EF2-7E92BEEF4D5F}"/>
+    <hyperlink ref="I159" r:id="rId4" display="https://www.google.com/search?q=EIGHTH+CANNABIS+6694+HWY+35+NORTH&amp;sca_esv=2e1e5fac6755c7bb&amp;ei=RVrXZb_5G6G6kPIP67CqwAY&amp;ved=0ahUKEwj_r7mplL-EAxUhHUQIHWuYCmgQ4dUDCBA&amp;uact=5&amp;oq=EIGHTH+CANNABIS+6694+HWY+35+NORTH&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiIUVJR0hUSCBDQU5OQUJJUyA2Njk0IEhXWSAzNSBOT1JUSDIKEAAYRxjWBBiwAzIKEAAYRxjWBBiwAzIKEAAYRxjWBBiwAzIKEAAYRxjWBBiwAzIKEAAYRxjWBBiwAzIKEAAYRxjWBBiwAzIKEAAYRxjWBBiwAzIKEAAYRxjWBBiwA0imBlD6A1j6A3ABeAGQAQCYAQCgAQCqAQC4AQPIAQD4AQGIBgGQBgg&amp;sclient=gws-wiz-serp" xr:uid="{DED64D0E-3CC8-4997-A138-CA2BB9EC767A}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/platform_scrapper/data/cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/cannabis_used_IDs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parsy\OneDrive\Desktop\DOT\cannabis-shops-scraping\platform_scrapper\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/528339229bf2dcd2/Desktop/DOT/cannabis-shops-scraping/platform_scrapper/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{E519580A-5EDF-4E02-83B0-BD51129F2E06}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{DC56D6DD-DC4F-4BC0-84CC-045D05F3B4B7}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{E519580A-5EDF-4E02-83B0-BD51129F2E06}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{3599AAC2-4D21-4C32-BE57-D32581E66263}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$J$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$J$42</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="175">
   <si>
     <t>Municipality or First Nation</t>
   </si>
@@ -97,18 +97,9 @@
     <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
   </si>
   <si>
-    <t>HAMILTON</t>
-  </si>
-  <si>
     <t>['In-store shopping']</t>
   </si>
   <si>
-    <t>SCARBOROUGH</t>
-  </si>
-  <si>
-    <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
-  </si>
-  <si>
     <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
   </si>
   <si>
@@ -121,9 +112,6 @@
     <t>OTTAWA</t>
   </si>
   <si>
-    <t>ST CATHARINES</t>
-  </si>
-  <si>
     <t>BARRIE</t>
   </si>
   <si>
@@ -133,9 +121,6 @@
     <t>BRANTFORD</t>
   </si>
   <si>
-    <t>NORTH YORK</t>
-  </si>
-  <si>
     <t>PETERBOROUGH</t>
   </si>
   <si>
@@ -160,18 +145,6 @@
     <t>EAST YORK</t>
   </si>
   <si>
-    <t>ROCKWOOD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GreenSpace Co </t>
-  </si>
-  <si>
-    <t>126 MAIN ST S</t>
-  </si>
-  <si>
-    <t>http://gspacecannabis.com/</t>
-  </si>
-  <si>
     <t>ORANGEVILLE</t>
   </si>
   <si>
@@ -187,15 +160,9 @@
     <t>YORK</t>
   </si>
   <si>
-    <t>CAMBRIDGE</t>
-  </si>
-  <si>
     <t>PICKERING</t>
   </si>
   <si>
-    <t>CHATHAM</t>
-  </si>
-  <si>
     <t>MISSISSAUGA</t>
   </si>
   <si>
@@ -205,9 +172,6 @@
     <t>2800 SKYMARK AVE UNIT 12</t>
   </si>
   <si>
-    <t>http://potherb.ca/</t>
-  </si>
-  <si>
     <t>Secret Garden Cannabis</t>
   </si>
   <si>
@@ -217,9 +181,6 @@
     <t>http://secretgardencannabis.ca/</t>
   </si>
   <si>
-    <t>BRADFORD</t>
-  </si>
-  <si>
     <t>http://stellarbud.ca/</t>
   </si>
   <si>
@@ -277,15 +238,6 @@
     <t>http://www.flowerpotcannabis.ca/</t>
   </si>
   <si>
-    <t>GREEN MARKET CANNABIS</t>
-  </si>
-  <si>
-    <t>2737 KEELE ST SUITE 29</t>
-  </si>
-  <si>
-    <t>http://www.greenmarketcanna.com/</t>
-  </si>
-  <si>
     <t>Little Leaf</t>
   </si>
   <si>
@@ -295,27 +247,12 @@
     <t>http://www.littleleafcannabisco.com/</t>
   </si>
   <si>
-    <t>STOUFFVILLE</t>
-  </si>
-  <si>
-    <t>JOLLY GREEN CANNABIS</t>
-  </si>
-  <si>
-    <t>6134 MAIN ST</t>
-  </si>
-  <si>
-    <t>http://www.livejollygreen.com/</t>
-  </si>
-  <si>
     <t>Miss Jones</t>
   </si>
   <si>
     <t>http://www.missjonescannabis.com/</t>
   </si>
   <si>
-    <t>480 HESPELER RD UNIT 9/10A</t>
-  </si>
-  <si>
     <t>GRAVENHURST</t>
   </si>
   <si>
@@ -325,21 +262,6 @@
     <t>1154 CHEMONG ROAD</t>
   </si>
   <si>
-    <t>North 80</t>
-  </si>
-  <si>
-    <t>19 MILLIKEN BLVD SUITE 25C</t>
-  </si>
-  <si>
-    <t>http://www.n80.ca/</t>
-  </si>
-  <si>
-    <t>Olympus Cannabis</t>
-  </si>
-  <si>
-    <t>12 HOLLAND ST W</t>
-  </si>
-  <si>
     <t>The Oz Store</t>
   </si>
   <si>
@@ -370,21 +292,6 @@
     <t>http://www.treesinthe6.com/</t>
   </si>
   <si>
-    <t>Your Local Cannabis</t>
-  </si>
-  <si>
-    <t>http://yourlocalcannabis.com/</t>
-  </si>
-  <si>
-    <t>1260 KENNEDY RD UNIT 9</t>
-  </si>
-  <si>
-    <t>EIGHTH CANNABIS</t>
-  </si>
-  <si>
-    <t>MINDEN</t>
-  </si>
-  <si>
     <t>https://bigrivercannabis.ca/</t>
   </si>
   <si>
@@ -400,18 +307,6 @@
     <t>64 SPADINA AVE</t>
   </si>
   <si>
-    <t>GERALDTON</t>
-  </si>
-  <si>
-    <t>Greenstone Cannabis Shop</t>
-  </si>
-  <si>
-    <t>506 MAIN ST</t>
-  </si>
-  <si>
-    <t>https://budler.ca/greenstone-cannabis/greenstone-cannabis-shop-7784/shop</t>
-  </si>
-  <si>
     <t>Buds House</t>
   </si>
   <si>
@@ -421,15 +316,6 @@
     <t>38A REXDALE BLVD UNIT 2</t>
   </si>
   <si>
-    <t>CABBAGE BROTHERS</t>
-  </si>
-  <si>
-    <t>https://cabbagebros.com/</t>
-  </si>
-  <si>
-    <t>57 COOTES DR</t>
-  </si>
-  <si>
     <t>COSMIC GARDENS</t>
   </si>
   <si>
@@ -439,30 +325,6 @@
     <t>https://cosmicgardens.ca/</t>
   </si>
   <si>
-    <t>Dope Cannabis</t>
-  </si>
-  <si>
-    <t>https://dopecannabis.ca/</t>
-  </si>
-  <si>
-    <t>3430 BATHURST ST</t>
-  </si>
-  <si>
-    <t>WATERDOWN</t>
-  </si>
-  <si>
-    <t>HEARST</t>
-  </si>
-  <si>
-    <t>Evergreen Leaf</t>
-  </si>
-  <si>
-    <t>631 FRONT STREET UNIT#01</t>
-  </si>
-  <si>
-    <t>https://evergreenleaf.ca/</t>
-  </si>
-  <si>
     <t>Gram Station</t>
   </si>
   <si>
@@ -472,15 +334,6 @@
     <t>https://gramstationcannabis.com/</t>
   </si>
   <si>
-    <t>GRASS ROOTS</t>
-  </si>
-  <si>
-    <t>398 UNIVERSITY AVE W</t>
-  </si>
-  <si>
-    <t>https://grassrootswindsor.com/</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Miss Jones</t>
   </si>
   <si>
@@ -517,12 +370,6 @@
     <t>294 SOMERSET ST W</t>
   </si>
   <si>
-    <t>Pot Palace Cannabis Company</t>
-  </si>
-  <si>
-    <t>1908 GERRARD ST E UNIT B</t>
-  </si>
-  <si>
     <t>https://potpalace.cc/</t>
   </si>
   <si>
@@ -577,15 +424,6 @@
     <t>3355 HURONTARIO ST SUITE 6A</t>
   </si>
   <si>
-    <t>WILLY'S CANNABIS SUPPLY CO.</t>
-  </si>
-  <si>
-    <t>143 KING ST W</t>
-  </si>
-  <si>
-    <t>https://willys420.com/</t>
-  </si>
-  <si>
     <t>GreenLeaf Cannabis</t>
   </si>
   <si>
@@ -595,15 +433,6 @@
     <t>https://www.greenleafcannabis.me/</t>
   </si>
   <si>
-    <t>High Leaf Cannabis</t>
-  </si>
-  <si>
-    <t>359 CARLTON ST UNIT 9</t>
-  </si>
-  <si>
-    <t>https://www.highleafcannabis.com/</t>
-  </si>
-  <si>
     <t>Mind Flower Cannabis Company</t>
   </si>
   <si>
@@ -616,24 +445,6 @@
     <t>1220B KING ST W</t>
   </si>
   <si>
-    <t>Minerva Cannabis</t>
-  </si>
-  <si>
-    <t>1050 BATHURST ST</t>
-  </si>
-  <si>
-    <t>https://www.minervacannabis.ca/weed-dispensary-toronto/?utm_source=terrayn_gbp&amp;utm_medium=organic&amp;utm_campaign=toronto</t>
-  </si>
-  <si>
-    <t>Modern Day Cannabis</t>
-  </si>
-  <si>
-    <t>4119 BATHURST ST UNIT 4</t>
-  </si>
-  <si>
-    <t>https://www.moderndaycannabis.ca/</t>
-  </si>
-  <si>
     <t>Pink Alien</t>
   </si>
   <si>
@@ -643,33 +454,6 @@
     <t>https://www.pinkaliencannabis.ca/</t>
   </si>
   <si>
-    <t>ROYAL LEAFS WATERDOWN</t>
-  </si>
-  <si>
-    <t>40 MAIN ST N</t>
-  </si>
-  <si>
-    <t>https://www.royalleafs.ca/</t>
-  </si>
-  <si>
-    <t>SHINYBUD CANNABIS CO. 410 MONTREAL</t>
-  </si>
-  <si>
-    <t>410 MONTREAL RD</t>
-  </si>
-  <si>
-    <t>https://www.shinybud.com/cornwall-montreal/</t>
-  </si>
-  <si>
-    <t>SHINYBUD CANNABIS CO. 621 PITT</t>
-  </si>
-  <si>
-    <t>621 PITT ST</t>
-  </si>
-  <si>
-    <t>https://www.shinybud.com/cornwall-pitt/</t>
-  </si>
-  <si>
     <t>76 MAIN STREET</t>
   </si>
   <si>
@@ -715,15 +499,6 @@
     <t>Custom</t>
   </si>
   <si>
-    <t>HIGH MILES INCORPORATED</t>
-  </si>
-  <si>
-    <t>1829 DAVENPORT RD UNIT 1B</t>
-  </si>
-  <si>
-    <t>https://highmiles.net/shop-2/#/menu</t>
-  </si>
-  <si>
     <t>Grass Roots</t>
   </si>
   <si>
@@ -736,12 +511,6 @@
     <t>2261116815efa0af00a9068d41</t>
   </si>
   <si>
-    <t>10 BOBCAYGEON ROAD</t>
-  </si>
-  <si>
-    <t>https://8th.ca/shop-minden/?store_id=3952#/menu</t>
-  </si>
-  <si>
     <t>Body and Spirit Cannabis</t>
   </si>
   <si>
@@ -766,9 +535,6 @@
     <t>Budler</t>
   </si>
   <si>
-    <t>https://olympuscannabis.ca/?page_id=46#/menu</t>
-  </si>
-  <si>
     <t>https://www.cannjah.com/product-det/#/menu</t>
   </si>
   <si>
@@ -781,14 +547,14 @@
     <t>Minimum Delivery Order is $50.00. $4.99 Delivery Fee or FREE on orders over $75.00</t>
   </si>
   <si>
-    <t>['In-store pickup', ''Delivery,'In-store shopping']</t>
+    <t>https://www.potherb.ca/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -841,15 +607,6 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -962,7 +719,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -982,16 +739,15 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -999,9 +755,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -1314,10 +1067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N64"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1330,7 +1083,7 @@
     <col min="6" max="6" width="9" style="6" customWidth="1"/>
     <col min="7" max="7" width="9.21875" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.77734375" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" style="21" customWidth="1"/>
     <col min="10" max="10" width="36" customWidth="1"/>
     <col min="11" max="12" width="16" customWidth="1"/>
     <col min="13" max="13" width="7.5546875" customWidth="1"/>
@@ -1362,7 +1115,7 @@
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="20" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="4" t="s">
@@ -1375,7 +1128,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>235</v>
+        <v>160</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>12</v>
@@ -1383,469 +1136,468 @@
     </row>
     <row r="2" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>158</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
+        <v>159</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>245</v>
+        <v>168</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="21">
+        <v>12267397668</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="22">
+        <v>16478125989</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="22">
-        <v>12267397668</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="22">
-        <v>15196050433</v>
-      </c>
-      <c r="J3" s="12" t="s">
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="21">
+        <v>16137229333</v>
+      </c>
+      <c r="J4" s="12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="23">
-        <v>16478125989</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="22">
-        <v>16137229333</v>
+        <v>15</v>
+      </c>
+      <c r="I5" s="21">
+        <v>15195331414</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="24">
-        <v>17052860887</v>
-      </c>
-      <c r="J6" s="12" t="s">
+    <row r="6" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="22">
+        <v>12898039462</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="22">
+        <v>19054580439</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="23" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="22">
-        <v>15195331414</v>
-      </c>
-      <c r="J7" s="12" t="s">
+      <c r="C8" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="G8" s="25"/>
+      <c r="H8" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="26">
+        <v>14165339150</v>
+      </c>
+      <c r="J8" s="23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="H8" s="8" t="s">
+    <row r="9" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="H9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="21">
+        <v>15486909020</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="H10" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="23">
-        <v>12898039462</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="23">
-        <v>19054580439</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="25" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="G10" s="27"/>
-      <c r="H10" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="28">
-        <v>14165339150</v>
-      </c>
-      <c r="J10" s="25" t="s">
+      <c r="I10" s="21">
+        <v>17059994420</v>
+      </c>
+      <c r="J10" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="22">
-        <v>14166369333</v>
+        <v>19</v>
+      </c>
+      <c r="I11" s="21">
+        <v>15193055323</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>229</v>
+        <v>169</v>
       </c>
       <c r="H12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" s="22">
-        <v>15486909020</v>
+        <v>17</v>
+      </c>
+      <c r="I12" s="21">
+        <v>17058812472</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>229</v>
+        <v>169</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="22">
-        <v>17059994420</v>
+        <v>17</v>
+      </c>
+      <c r="I13" s="21">
+        <v>17054006750</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" t="s">
-        <v>87</v>
+        <v>40</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
       </c>
-      <c r="E14" t="s">
-        <v>89</v>
+      <c r="E14" s="15" t="s">
+        <v>83</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>18</v>
+        <v>157</v>
       </c>
       <c r="H14" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="22">
-        <v>15193055323</v>
+      <c r="I14" s="21">
+        <v>15199422828</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15" t="s">
-        <v>91</v>
+        <v>29</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>93</v>
+        <v>170</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>229</v>
+        <v>18</v>
       </c>
       <c r="H15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="22">
-        <v>19055919222</v>
+        <v>19</v>
+      </c>
+      <c r="I15" s="21">
+        <v>15139227020</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>246</v>
+        <v>18</v>
       </c>
       <c r="H16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="22">
-        <v>12265359763</v>
+        <v>26</v>
+      </c>
+      <c r="I16" s="21">
+        <v>14165468250</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" t="s">
-        <v>102</v>
+      <c r="E17" s="15" t="s">
+        <v>89</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>18</v>
@@ -1853,86 +1605,86 @@
       <c r="H17" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="22">
-        <v>14162931118</v>
+      <c r="I17" s="21">
+        <v>13433980104</v>
       </c>
       <c r="J17" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>94</v>
       </c>
       <c r="C18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="21">
+        <v>14374101420</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="H19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="21">
+        <v>14169779343</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" t="s">
         <v>98</v>
       </c>
-      <c r="D18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="H18" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="22">
-        <v>17058812472</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
         <v>99</v>
-      </c>
-      <c r="D19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="H19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="22">
-        <v>17054006750</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" t="s">
-        <v>103</v>
-      </c>
-      <c r="C20" t="s">
-        <v>104</v>
-      </c>
-      <c r="D20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>247</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>18</v>
@@ -1940,376 +1692,386 @@
       <c r="H20" t="s">
         <v>19</v>
       </c>
-      <c r="I20" s="22">
-        <v>19055510717</v>
+      <c r="I20" s="21">
+        <v>14163951945</v>
       </c>
       <c r="J20" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>107</v>
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>100</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D21" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="15" t="s">
-        <v>109</v>
+      <c r="E21" t="s">
+        <v>102</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>229</v>
+        <v>18</v>
       </c>
       <c r="H21" t="s">
         <v>19</v>
       </c>
-      <c r="I21" s="22">
-        <v>15199422828</v>
+      <c r="I21" s="21">
+        <v>14162316003</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>110</v>
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>103</v>
       </c>
       <c r="C22" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D22" t="s">
         <v>13</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>248</v>
+        <v>105</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="H22" t="s">
-        <v>19</v>
-      </c>
-      <c r="I22" s="22">
-        <v>15139227020</v>
+        <v>20</v>
+      </c>
+      <c r="I22" s="21">
+        <v>17058814629</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C23" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="H23" t="s">
-        <v>29</v>
-      </c>
-      <c r="I23" s="22">
-        <v>14165468250</v>
+        <v>20</v>
+      </c>
+      <c r="I23" s="21">
+        <v>14165199159</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C24" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D24" t="s">
         <v>13</v>
       </c>
-      <c r="E24" t="s">
-        <v>116</v>
+      <c r="E24" s="15" t="s">
+        <v>111</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>18</v>
+        <v>157</v>
       </c>
       <c r="H24" t="s">
         <v>19</v>
       </c>
-      <c r="I24" s="22">
-        <v>14165512550</v>
+      <c r="I24" s="21">
+        <v>19052395300</v>
       </c>
       <c r="J24" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D25" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="15" t="s">
-        <v>120</v>
+      <c r="E25" t="s">
+        <v>113</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H25" t="s">
-        <v>19</v>
-      </c>
-      <c r="I25" s="22">
-        <v>13433980104</v>
+        <v>20</v>
+      </c>
+      <c r="I25" s="21">
+        <v>16134222211</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="C26" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="D26" t="s">
         <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H26" t="s">
-        <v>19</v>
-      </c>
-      <c r="I26" s="22">
-        <v>14374101420</v>
+        <v>67</v>
+      </c>
+      <c r="I26" s="21">
+        <v>16134222211</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>123</v>
+        <v>44</v>
+      </c>
+      <c r="B27" t="s">
+        <v>116</v>
       </c>
       <c r="C27" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D27" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="15" t="s">
-        <v>221</v>
+      <c r="E27" t="s">
+        <v>115</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>229</v>
+        <v>18</v>
       </c>
       <c r="H27" t="s">
         <v>19</v>
       </c>
-      <c r="I27" s="22">
-        <v>14169779343</v>
+      <c r="I27" s="21">
+        <v>14164105442</v>
       </c>
       <c r="J27" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="C28" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="D28" t="s">
         <v>13</v>
       </c>
-      <c r="E28" t="s">
-        <v>133</v>
+      <c r="E28" s="15" t="s">
+        <v>118</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>18</v>
+        <v>157</v>
       </c>
       <c r="H28" t="s">
         <v>19</v>
       </c>
-      <c r="I28" s="22">
-        <v>19056286324</v>
+      <c r="I28" s="21">
+        <v>14167922447</v>
       </c>
       <c r="J28" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C29" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D29" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="15" t="s">
-        <v>128</v>
+      <c r="E29" t="s">
+        <v>123</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>246</v>
+        <v>18</v>
       </c>
       <c r="H29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I29" s="22">
-        <v>18078538888</v>
+        <v>19</v>
+      </c>
+      <c r="I29" s="21">
+        <v>19054973131</v>
       </c>
       <c r="J29" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" t="s">
-        <v>135</v>
-      </c>
-      <c r="C30" t="s">
-        <v>136</v>
-      </c>
-      <c r="D30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" t="s">
-        <v>137</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H30" t="s">
+    <row r="30" spans="1:11" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="G30" s="10"/>
+      <c r="H30" s="8" t="s">
         <v>19</v>
       </c>
       <c r="I30" s="22">
-        <v>14163951945</v>
-      </c>
-      <c r="J30" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>17053449086</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C31" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D31" t="s">
         <v>13</v>
       </c>
-      <c r="E31" t="s">
-        <v>139</v>
+      <c r="E31" s="15" t="s">
+        <v>129</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H31" t="s">
-        <v>27</v>
-      </c>
-      <c r="I31" s="22">
-        <v>14162564815</v>
+        <v>15</v>
+      </c>
+      <c r="I31" s="21">
+        <v>19054979585</v>
       </c>
       <c r="J31" s="12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K31" s="18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>142</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C32" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="D32" t="s">
         <v>13</v>
       </c>
-      <c r="E32" t="s">
-        <v>145</v>
+      <c r="E32" s="15" t="s">
+        <v>129</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H32" t="s">
-        <v>15</v>
-      </c>
-      <c r="I32" s="22">
-        <v>17053621118</v>
+        <v>19</v>
+      </c>
+      <c r="I32" s="21">
+        <v>19054979522</v>
       </c>
       <c r="J32" s="12" t="s">
         <v>16</v>
       </c>
+      <c r="K32" s="18" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="33" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="C33" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="D33" t="s">
         <v>13</v>
       </c>
-      <c r="E33" t="s">
-        <v>148</v>
+      <c r="E33" s="15" t="s">
+        <v>129</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>18</v>
@@ -2317,28 +2079,31 @@
       <c r="H33" t="s">
         <v>19</v>
       </c>
-      <c r="I33" s="22">
-        <v>14162316003</v>
+      <c r="I33" s="21">
+        <v>19054979550</v>
       </c>
       <c r="J33" s="12" t="s">
         <v>16</v>
       </c>
+      <c r="K33" s="18" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="34" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="C34" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D34" t="s">
         <v>13</v>
       </c>
       <c r="E34" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>18</v>
@@ -2346,8 +2111,8 @@
       <c r="H34" t="s">
         <v>19</v>
       </c>
-      <c r="I34" s="22">
-        <v>15192563602</v>
+      <c r="I34" s="21">
+        <v>17053209898</v>
       </c>
       <c r="J34" s="12" t="s">
         <v>16</v>
@@ -2355,31 +2120,31 @@
     </row>
     <row r="35" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="C35" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="D35" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="15" t="s">
-        <v>154</v>
+      <c r="E35" t="s">
+        <v>138</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>246</v>
+        <v>18</v>
       </c>
       <c r="H35" t="s">
-        <v>20</v>
-      </c>
-      <c r="I35" s="22">
-        <v>17058814629</v>
+        <v>19</v>
+      </c>
+      <c r="I35" s="21">
+        <v>14164002045</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2387,850 +2152,199 @@
         <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="C36" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="D36" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="15" t="s">
-        <v>157</v>
+      <c r="E36" t="s">
+        <v>138</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>246</v>
+        <v>18</v>
       </c>
       <c r="H36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I36" s="22">
-        <v>14165199159</v>
+        <v>19</v>
+      </c>
+      <c r="I36" s="21">
+        <v>14164002883</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="C37" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="D37" t="s">
         <v>13</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>229</v>
+        <v>18</v>
       </c>
       <c r="H37" t="s">
-        <v>19</v>
-      </c>
-      <c r="I37" s="22">
-        <v>19052395300</v>
+        <v>26</v>
+      </c>
+      <c r="I37" s="21">
+        <v>15193047465</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="C38" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="D38" t="s">
         <v>13</v>
       </c>
-      <c r="E38" t="s">
-        <v>162</v>
+      <c r="E38" s="15" t="s">
+        <v>144</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H38" t="s">
-        <v>20</v>
-      </c>
-      <c r="I38" s="22">
-        <v>16134222211</v>
+        <v>15</v>
+      </c>
+      <c r="I38" s="21">
+        <v>15193157768</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="C39" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="D39" t="s">
         <v>13</v>
       </c>
-      <c r="E39" t="s">
-        <v>162</v>
+      <c r="E39" s="15" t="s">
+        <v>144</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H39" t="s">
-        <v>80</v>
-      </c>
-      <c r="I39" s="22">
-        <v>16134222211</v>
+        <v>15</v>
+      </c>
+      <c r="I39" s="21">
+        <v>15193077768</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B40" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="C40" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="D40" t="s">
         <v>13</v>
       </c>
-      <c r="E40" t="s">
-        <v>166</v>
+      <c r="E40" s="15" t="s">
+        <v>149</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>18</v>
+        <v>157</v>
       </c>
       <c r="H40" t="s">
         <v>19</v>
       </c>
-      <c r="I40" s="22">
-        <v>14166910899</v>
+      <c r="I40" s="21">
+        <v>19054519600</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B41" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="C41" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="D41" t="s">
         <v>13</v>
       </c>
-      <c r="E41" t="s">
-        <v>166</v>
+      <c r="E41" s="15" t="s">
+        <v>152</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>18</v>
+        <v>157</v>
       </c>
       <c r="H41" t="s">
-        <v>19</v>
-      </c>
-      <c r="I41" s="22">
-        <v>14164105442</v>
+        <v>26</v>
+      </c>
+      <c r="I41" s="21">
+        <v>19057272020</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>21</v>
-      </c>
-      <c r="B42" t="s">
-        <v>170</v>
-      </c>
-      <c r="C42" t="s">
-        <v>171</v>
-      </c>
-      <c r="D42" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="H42" t="s">
-        <v>19</v>
-      </c>
-      <c r="I42" s="22">
-        <v>14167922447</v>
-      </c>
-      <c r="J42" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43" t="s">
-        <v>172</v>
-      </c>
-      <c r="C43" t="s">
-        <v>173</v>
-      </c>
-      <c r="D43" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" t="s">
-        <v>174</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H43" t="s">
-        <v>19</v>
-      </c>
-      <c r="I43" s="22">
-        <v>19054973131</v>
-      </c>
-      <c r="J43" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G44" s="10"/>
-      <c r="H44" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I44" s="23">
-        <v>17053449086</v>
-      </c>
-      <c r="J44" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="K44" s="8" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>34</v>
-      </c>
-      <c r="B45" t="s">
-        <v>178</v>
-      </c>
-      <c r="C45" t="s">
-        <v>179</v>
-      </c>
-      <c r="D45" t="s">
-        <v>13</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H45" t="s">
-        <v>15</v>
-      </c>
-      <c r="I45" s="22">
-        <v>19054979585</v>
-      </c>
-      <c r="J45" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K45" s="19" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>34</v>
-      </c>
-      <c r="B46" t="s">
-        <v>181</v>
-      </c>
-      <c r="C46" t="s">
-        <v>182</v>
-      </c>
-      <c r="D46" t="s">
-        <v>13</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H46" t="s">
-        <v>19</v>
-      </c>
-      <c r="I46" s="22">
-        <v>19054979522</v>
-      </c>
-      <c r="J46" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K46" s="19" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>57</v>
-      </c>
-      <c r="B47" t="s">
-        <v>178</v>
-      </c>
-      <c r="C47" t="s">
-        <v>183</v>
-      </c>
-      <c r="D47" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H47" t="s">
-        <v>19</v>
-      </c>
-      <c r="I47" s="22">
-        <v>19054979550</v>
-      </c>
-      <c r="J47" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K47" s="19" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>56</v>
-      </c>
-      <c r="B48" t="s">
-        <v>184</v>
-      </c>
-      <c r="C48" t="s">
-        <v>185</v>
-      </c>
-      <c r="D48" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" t="s">
-        <v>186</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H48" t="s">
-        <v>19</v>
-      </c>
-      <c r="I48" s="22">
-        <v>15197848420</v>
-      </c>
-      <c r="J48" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>79</v>
-      </c>
-      <c r="B49" t="s">
-        <v>187</v>
-      </c>
-      <c r="C49" t="s">
-        <v>188</v>
-      </c>
-      <c r="D49" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49" t="s">
-        <v>189</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H49" t="s">
-        <v>19</v>
-      </c>
-      <c r="I49" s="22">
-        <v>17053209898</v>
-      </c>
-      <c r="J49" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>32</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D50" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50" t="s">
-        <v>192</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H50" t="s">
-        <v>19</v>
-      </c>
-      <c r="I50" s="22">
-        <v>12892732782</v>
-      </c>
-      <c r="J50" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>44</v>
-      </c>
-      <c r="B51" t="s">
-        <v>193</v>
-      </c>
-      <c r="C51" t="s">
-        <v>194</v>
-      </c>
-      <c r="D51" t="s">
-        <v>13</v>
-      </c>
-      <c r="E51" t="s">
-        <v>195</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H51" t="s">
-        <v>19</v>
-      </c>
-      <c r="I51" s="22">
-        <v>14164002045</v>
-      </c>
-      <c r="J51" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>21</v>
-      </c>
-      <c r="B52" t="s">
-        <v>193</v>
-      </c>
-      <c r="C52" t="s">
-        <v>196</v>
-      </c>
-      <c r="D52" t="s">
-        <v>13</v>
-      </c>
-      <c r="E52" t="s">
-        <v>195</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H52" t="s">
-        <v>19</v>
-      </c>
-      <c r="I52" s="22">
-        <v>14164002883</v>
-      </c>
-      <c r="J52" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>21</v>
-      </c>
-      <c r="B53" t="s">
-        <v>197</v>
-      </c>
-      <c r="C53" t="s">
-        <v>198</v>
-      </c>
-      <c r="D53" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" t="s">
-        <v>199</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H53" t="s">
-        <v>19</v>
-      </c>
-      <c r="I53" s="22">
-        <v>14167813128</v>
-      </c>
-      <c r="J53" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>36</v>
-      </c>
-      <c r="B54" t="s">
-        <v>200</v>
-      </c>
-      <c r="C54" t="s">
-        <v>201</v>
-      </c>
-      <c r="D54" t="s">
-        <v>13</v>
-      </c>
-      <c r="E54" t="s">
-        <v>202</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H54" t="s">
-        <v>20</v>
-      </c>
-      <c r="I54" s="22">
-        <v>14166308420</v>
-      </c>
-      <c r="J54" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>35</v>
-      </c>
-      <c r="B55" t="s">
-        <v>203</v>
-      </c>
-      <c r="C55" t="s">
-        <v>204</v>
-      </c>
-      <c r="D55" t="s">
-        <v>13</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H55" t="s">
-        <v>29</v>
-      </c>
-      <c r="I55" s="22">
-        <v>15193047465</v>
-      </c>
-      <c r="J55" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>43</v>
-      </c>
-      <c r="B56" t="s">
-        <v>209</v>
-      </c>
-      <c r="C56" t="s">
-        <v>210</v>
-      </c>
-      <c r="D56" t="s">
-        <v>13</v>
-      </c>
-      <c r="E56" t="s">
-        <v>211</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H56" t="s">
-        <v>29</v>
-      </c>
-      <c r="I56" s="22">
-        <v>16139335005</v>
-      </c>
-      <c r="J56" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>43</v>
-      </c>
-      <c r="B57" t="s">
-        <v>212</v>
-      </c>
-      <c r="C57" t="s">
-        <v>213</v>
-      </c>
-      <c r="D57" t="s">
-        <v>13</v>
-      </c>
-      <c r="E57" t="s">
-        <v>214</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H57" t="s">
-        <v>29</v>
-      </c>
-      <c r="I57" s="22">
-        <v>16139322525</v>
-      </c>
-      <c r="J57" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>141</v>
-      </c>
-      <c r="B58" t="s">
-        <v>206</v>
-      </c>
-      <c r="C58" t="s">
-        <v>207</v>
-      </c>
-      <c r="D58" t="s">
-        <v>13</v>
-      </c>
-      <c r="E58" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H58" t="s">
-        <v>19</v>
-      </c>
-      <c r="I58" s="22">
-        <v>13652053237</v>
-      </c>
-      <c r="J58" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>41</v>
-      </c>
-      <c r="B59" t="s">
-        <v>106</v>
-      </c>
-      <c r="C59" t="s">
-        <v>215</v>
-      </c>
-      <c r="D59" t="s">
-        <v>13</v>
-      </c>
-      <c r="E59" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H59" t="s">
-        <v>15</v>
-      </c>
-      <c r="I59" s="22">
-        <v>15193157768</v>
-      </c>
-      <c r="J59" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>49</v>
-      </c>
-      <c r="B60" t="s">
-        <v>217</v>
-      </c>
-      <c r="C60" t="s">
-        <v>218</v>
-      </c>
-      <c r="D60" t="s">
-        <v>13</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H60" t="s">
-        <v>15</v>
-      </c>
-      <c r="I60" s="22">
-        <v>15193077768</v>
-      </c>
-      <c r="J60" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>34</v>
-      </c>
-      <c r="B61" t="s">
-        <v>219</v>
-      </c>
-      <c r="C61" t="s">
-        <v>220</v>
-      </c>
-      <c r="D61" t="s">
-        <v>13</v>
-      </c>
-      <c r="E61" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="H61" t="s">
-        <v>19</v>
-      </c>
-      <c r="I61" s="22">
-        <v>19054519600</v>
-      </c>
-      <c r="J61" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>38</v>
-      </c>
-      <c r="B62" t="s">
-        <v>222</v>
-      </c>
-      <c r="C62" t="s">
-        <v>223</v>
-      </c>
-      <c r="D62" t="s">
-        <v>13</v>
-      </c>
-      <c r="E62" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="H62" t="s">
-        <v>29</v>
-      </c>
-      <c r="I62" s="22">
-        <v>19057272020</v>
-      </c>
-      <c r="J62" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="F63" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="G63" s="10"/>
-      <c r="I63" s="23"/>
-    </row>
-    <row r="64" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>21</v>
-      </c>
-      <c r="B64" t="s">
-        <v>230</v>
-      </c>
-      <c r="C64" t="s">
-        <v>231</v>
-      </c>
-      <c r="D64" t="s">
-        <v>13</v>
-      </c>
-      <c r="E64" t="s">
-        <v>232</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H64" t="s">
-        <v>252</v>
-      </c>
-      <c r="I64" s="22">
-        <v>18444286225</v>
-      </c>
-      <c r="J64" s="12" t="s">
-        <v>30</v>
-      </c>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G42" s="10"/>
+      <c r="I42" s="22"/>
     </row>
   </sheetData>
-  <autoFilter ref="F1:J64" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="F1:J42" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/platform_scrapper/data/cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/cannabis_used_IDs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/528339229bf2dcd2/Desktop/DOT/cannabis-shops-scraping/platform_scrapper/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parsy\OneDrive\Desktop\DOT\cannabis-shops-scraping\platform_scrapper\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{E519580A-5EDF-4E02-83B0-BD51129F2E06}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{3599AAC2-4D21-4C32-BE57-D32581E66263}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{E519580A-5EDF-4E02-83B0-BD51129F2E06}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{F93EE023-3C29-4005-888D-7671D2A3C0DB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$J$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$J$26</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="126">
   <si>
     <t>Municipality or First Nation</t>
   </si>
@@ -70,15 +70,9 @@
     <t>Dutchie</t>
   </si>
   <si>
-    <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
-  </si>
-  <si>
     <t>['Delivery', 'Same-day delivery']</t>
   </si>
   <si>
-    <t>['In-store pickup', 'In-store shopping']</t>
-  </si>
-  <si>
     <t>Buddi</t>
   </si>
   <si>
@@ -100,9 +94,6 @@
     <t>['In-store shopping']</t>
   </si>
   <si>
-    <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
-  </si>
-  <si>
     <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
   </si>
   <si>
@@ -118,12 +109,6 @@
     <t>BRAMPTON</t>
   </si>
   <si>
-    <t>BRANTFORD</t>
-  </si>
-  <si>
-    <t>PETERBOROUGH</t>
-  </si>
-  <si>
     <t>AURORA</t>
   </si>
   <si>
@@ -133,18 +118,9 @@
     <t>LONDON</t>
   </si>
   <si>
-    <t>ERIN</t>
-  </si>
-  <si>
-    <t>WINDSOR</t>
-  </si>
-  <si>
     <t>CORNWALL</t>
   </si>
   <si>
-    <t>EAST YORK</t>
-  </si>
-  <si>
     <t>ORANGEVILLE</t>
   </si>
   <si>
@@ -172,27 +148,6 @@
     <t>2800 SKYMARK AVE UNIT 12</t>
   </si>
   <si>
-    <t>Secret Garden Cannabis</t>
-  </si>
-  <si>
-    <t>1018 WELLINGTON ST W</t>
-  </si>
-  <si>
-    <t>http://secretgardencannabis.ca/</t>
-  </si>
-  <si>
-    <t>http://stellarbud.ca/</t>
-  </si>
-  <si>
-    <t>WOODSTOCK</t>
-  </si>
-  <si>
-    <t>STELLAR Bud</t>
-  </si>
-  <si>
-    <t>951 DEVONSHIRE AVE UNIT 3</t>
-  </si>
-  <si>
     <t>ROCKLAND</t>
   </si>
   <si>
@@ -217,9 +172,6 @@
     <t>http://www.bodegaboyz.ca/</t>
   </si>
   <si>
-    <t>STRATFORD</t>
-  </si>
-  <si>
     <t>UXBRIDGE</t>
   </si>
   <si>
@@ -238,36 +190,9 @@
     <t>http://www.flowerpotcannabis.ca/</t>
   </si>
   <si>
-    <t>Little Leaf</t>
-  </si>
-  <si>
-    <t>804 ONTARIO ST UNIT 3-5</t>
-  </si>
-  <si>
-    <t>http://www.littleleafcannabisco.com/</t>
-  </si>
-  <si>
-    <t>Miss Jones</t>
-  </si>
-  <si>
-    <t>http://www.missjonescannabis.com/</t>
-  </si>
-  <si>
-    <t>GRAVENHURST</t>
-  </si>
-  <si>
-    <t>150 SHARPE STREET EAST, UNIT 101</t>
-  </si>
-  <si>
-    <t>1154 CHEMONG ROAD</t>
-  </si>
-  <si>
     <t>The Oz Store</t>
   </si>
   <si>
-    <t>Spot420 The Cannabis Store</t>
-  </si>
-  <si>
     <t>Altered Nation Cannabis</t>
   </si>
   <si>
@@ -283,15 +208,6 @@
     <t>14D HAMILTON RD</t>
   </si>
   <si>
-    <t xml:space="preserve">TREES IN THE SIX </t>
-  </si>
-  <si>
-    <t>14 SAINT ANDREW ST</t>
-  </si>
-  <si>
-    <t>http://www.treesinthe6.com/</t>
-  </si>
-  <si>
     <t>https://bigrivercannabis.ca/</t>
   </si>
   <si>
@@ -406,24 +322,6 @@
     <t>https://the4ssst.ca/</t>
   </si>
   <si>
-    <t>CROWN LEAF</t>
-  </si>
-  <si>
-    <t>1 STEELES AVE E UNIT 14</t>
-  </si>
-  <si>
-    <t>https://thecrownleaf.ca/</t>
-  </si>
-  <si>
-    <t>Crown Leaf</t>
-  </si>
-  <si>
-    <t>75 CLARENCE ST</t>
-  </si>
-  <si>
-    <t>3355 HURONTARIO ST SUITE 6A</t>
-  </si>
-  <si>
     <t>GreenLeaf Cannabis</t>
   </si>
   <si>
@@ -433,39 +331,6 @@
     <t>https://www.greenleafcannabis.me/</t>
   </si>
   <si>
-    <t>Mind Flower Cannabis Company</t>
-  </si>
-  <si>
-    <t>1491 BAYVIEW AVE</t>
-  </si>
-  <si>
-    <t>https://www.mindflower.ca/</t>
-  </si>
-  <si>
-    <t>1220B KING ST W</t>
-  </si>
-  <si>
-    <t>Pink Alien</t>
-  </si>
-  <si>
-    <t>204 DALHOUSIE ST</t>
-  </si>
-  <si>
-    <t>https://www.pinkaliencannabis.ca/</t>
-  </si>
-  <si>
-    <t>76 MAIN STREET</t>
-  </si>
-  <si>
-    <t>https://www.spot420.ca/</t>
-  </si>
-  <si>
-    <t>SPOT 420</t>
-  </si>
-  <si>
-    <t>88 FIRST ST UNIT 4B</t>
-  </si>
-  <si>
     <t>THE WOODS CANNABIS</t>
   </si>
   <si>
@@ -499,12 +364,6 @@
     <t>Custom</t>
   </si>
   <si>
-    <t>Grass Roots</t>
-  </si>
-  <si>
-    <t>5124 TECUMSEH RD E UNIT 1</t>
-  </si>
-  <si>
     <t>Zones</t>
   </si>
   <si>
@@ -529,9 +388,6 @@
     <t>Techpos</t>
   </si>
   <si>
-    <t>https://www.grassrootswindsor.com/shop-tecumseh/#/</t>
-  </si>
-  <si>
     <t>Budler</t>
   </si>
   <si>
@@ -542,9 +398,6 @@
   </si>
   <si>
     <t>min 30$</t>
-  </si>
-  <si>
-    <t>Minimum Delivery Order is $50.00. $4.99 Delivery Fee or FREE on orders over $75.00</t>
   </si>
   <si>
     <t>https://www.potherb.ca/</t>
@@ -554,7 +407,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -602,14 +455,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF1F1F1F"/>
@@ -644,13 +489,6 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF111827"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="7">
@@ -714,12 +552,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -739,15 +576,13 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -764,8 +599,7 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
@@ -1067,10 +901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N42"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1079,11 +913,11 @@
     <col min="2" max="2" width="22.5546875" customWidth="1"/>
     <col min="3" max="3" width="19.77734375" customWidth="1"/>
     <col min="4" max="4" width="19.77734375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="24.5546875" style="16" customWidth="1"/>
+    <col min="5" max="5" width="24.5546875" style="15" customWidth="1"/>
     <col min="6" max="6" width="9" style="6" customWidth="1"/>
     <col min="7" max="7" width="9.21875" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.77734375" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" style="21" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" style="19" customWidth="1"/>
     <col min="10" max="10" width="36" customWidth="1"/>
     <col min="11" max="12" width="16" customWidth="1"/>
     <col min="13" max="13" width="7.5546875" customWidth="1"/>
@@ -1103,7 +937,7 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -1115,7 +949,7 @@
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="18" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="4" t="s">
@@ -1128,1223 +962,779 @@
         <v>11</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="21">
-        <v>12267397668</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>27</v>
-      </c>
+      <c r="A2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="20">
+        <v>16478125989</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>162</v>
+        <v>43</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="F3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>165</v>
+        <v>114</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="22">
-        <v>16478125989</v>
+        <v>17</v>
+      </c>
+      <c r="I3" s="20">
+        <v>12898039462</v>
       </c>
       <c r="J3" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="20">
+        <v>19054580439</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="21" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="21">
-        <v>16137229333</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="F5" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" s="23"/>
+      <c r="H5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="24">
+        <v>14165339150</v>
+      </c>
+      <c r="J5" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="21">
-        <v>15195331414</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="6" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="19">
+        <v>15486909020</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="19">
+        <v>17059994420</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="22">
-        <v>12898039462</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="H7" s="8" t="s">
+      <c r="F8" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="19">
+        <v>15199422828</v>
+      </c>
+      <c r="J8" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="I7" s="22">
-        <v>19054580439</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="23" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="26">
-        <v>14165339150</v>
-      </c>
-      <c r="J8" s="23" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="19">
+        <v>15139227020</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>41</v>
       </c>
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="H9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="21">
-        <v>15486909020</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>46</v>
-      </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>174</v>
+      <c r="E10" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="21">
-        <v>17059994420</v>
+        <v>17</v>
+      </c>
+      <c r="I10" s="19">
+        <v>13433980104</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="21">
-        <v>15193055323</v>
+        <v>17</v>
+      </c>
+      <c r="I11" s="19">
+        <v>14374101420</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" t="s">
-        <v>74</v>
+        <v>19</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>75</v>
+      <c r="E12" s="14" t="s">
+        <v>104</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c r="H12" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="21">
-        <v>17058812472</v>
+      <c r="I12" s="19">
+        <v>14169779343</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="15" t="s">
-        <v>75</v>
+      <c r="E13" t="s">
+        <v>71</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>169</v>
+        <v>16</v>
       </c>
       <c r="H13" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="21">
-        <v>17054006750</v>
+      <c r="I13" s="19">
+        <v>14163951945</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>81</v>
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="15" t="s">
-        <v>83</v>
+      <c r="E14" t="s">
+        <v>74</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H14" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="21">
-        <v>15199422828</v>
+        <v>17</v>
+      </c>
+      <c r="I14" s="19">
+        <v>14162316003</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>84</v>
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="15" t="s">
-        <v>170</v>
+      <c r="E15" s="14" t="s">
+        <v>77</v>
       </c>
       <c r="F15" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H15" t="s">
         <v>18</v>
       </c>
-      <c r="H15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="21">
-        <v>15139227020</v>
+      <c r="I15" s="19">
+        <v>17058814629</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="15" t="s">
-        <v>88</v>
+      <c r="E16" s="14" t="s">
+        <v>80</v>
       </c>
       <c r="F16" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H16" t="s">
         <v>18</v>
       </c>
-      <c r="H16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="21">
-        <v>14165468250</v>
+      <c r="I16" s="19">
+        <v>14165199159</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>89</v>
+      <c r="E17" s="14" t="s">
+        <v>83</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="H17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="21">
-        <v>13433980104</v>
+        <v>17</v>
+      </c>
+      <c r="I17" s="19">
+        <v>19052395300</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s">
         <v>18</v>
       </c>
-      <c r="H18" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="21">
-        <v>14374101420</v>
+      <c r="I18" s="19">
+        <v>16134222211</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>92</v>
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D19" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="15" t="s">
-        <v>149</v>
+      <c r="E19" t="s">
+        <v>85</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H19" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" s="21">
-        <v>14169779343</v>
+        <v>51</v>
+      </c>
+      <c r="I19" s="19">
+        <v>16134222211</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" s="21">
-        <v>14163951945</v>
+        <v>17</v>
+      </c>
+      <c r="I20" s="19">
+        <v>14164105442</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C21" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D21" t="s">
         <v>13</v>
       </c>
-      <c r="E21" t="s">
-        <v>102</v>
+      <c r="E21" s="14" t="s">
+        <v>90</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="H21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I21" s="21">
-        <v>14162316003</v>
+        <v>17</v>
+      </c>
+      <c r="I21" s="19">
+        <v>14167922447</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D22" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="15" t="s">
-        <v>105</v>
+      <c r="E22" t="s">
+        <v>95</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>169</v>
+        <v>16</v>
       </c>
       <c r="H22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" s="21">
-        <v>17058814629</v>
+        <v>17</v>
+      </c>
+      <c r="I22" s="19">
+        <v>19054973131</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" t="s">
-        <v>107</v>
-      </c>
-      <c r="D23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="H23" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" s="21">
-        <v>14165199159</v>
-      </c>
-      <c r="J23" s="12" t="s">
-        <v>27</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="20">
+        <v>17053449086</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C24" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D24" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="15" t="s">
-        <v>111</v>
+      <c r="E24" s="14" t="s">
+        <v>104</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>157</v>
+        <v>112</v>
       </c>
       <c r="H24" t="s">
-        <v>19</v>
-      </c>
-      <c r="I24" s="21">
-        <v>19052395300</v>
+        <v>17</v>
+      </c>
+      <c r="I24" s="19">
+        <v>19054519600</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="C25" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" t="s">
-        <v>113</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="H25" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" s="21">
-        <v>16134222211</v>
+        <v>23</v>
+      </c>
+      <c r="I25" s="19">
+        <v>19057272020</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" t="s">
-        <v>114</v>
-      </c>
-      <c r="D26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" t="s">
-        <v>113</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" t="s">
-        <v>67</v>
-      </c>
-      <c r="I26" s="21">
-        <v>16134222211</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>27</v>
-      </c>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G26" s="10"/>
+      <c r="I26" s="20"/>
     </row>
     <row r="27" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C27" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="D27" t="s">
         <v>13</v>
       </c>
       <c r="E27" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H27" t="s">
-        <v>19</v>
-      </c>
-      <c r="I27" s="21">
-        <v>14164105442</v>
+        <v>17</v>
+      </c>
+      <c r="I27" s="19">
+        <v>17053209898</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" t="s">
-        <v>119</v>
-      </c>
-      <c r="C28" t="s">
-        <v>120</v>
-      </c>
-      <c r="D28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="H28" t="s">
-        <v>19</v>
-      </c>
-      <c r="I28" s="21">
-        <v>14167922447</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" t="s">
-        <v>121</v>
-      </c>
-      <c r="C29" t="s">
-        <v>122</v>
-      </c>
-      <c r="D29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" t="s">
-        <v>123</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" t="s">
-        <v>19</v>
-      </c>
-      <c r="I29" s="21">
-        <v>19054973131</v>
-      </c>
-      <c r="J29" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="G30" s="10"/>
-      <c r="H30" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I30" s="22">
-        <v>17053449086</v>
-      </c>
-      <c r="J30" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="K30" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>127</v>
-      </c>
-      <c r="C31" t="s">
-        <v>128</v>
-      </c>
-      <c r="D31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H31" t="s">
         <v>15</v>
       </c>
-      <c r="I31" s="21">
-        <v>19054979585</v>
-      </c>
-      <c r="J31" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K31" s="18" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>130</v>
-      </c>
-      <c r="C32" t="s">
-        <v>131</v>
-      </c>
-      <c r="D32" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H32" t="s">
-        <v>19</v>
-      </c>
-      <c r="I32" s="21">
-        <v>19054979522</v>
-      </c>
-      <c r="J32" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K32" s="18" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" t="s">
-        <v>127</v>
-      </c>
-      <c r="C33" t="s">
-        <v>132</v>
-      </c>
-      <c r="D33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H33" t="s">
-        <v>19</v>
-      </c>
-      <c r="I33" s="21">
-        <v>19054979550</v>
-      </c>
-      <c r="J33" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K33" s="18" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" t="s">
-        <v>133</v>
-      </c>
-      <c r="C34" t="s">
-        <v>134</v>
-      </c>
-      <c r="D34" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" t="s">
-        <v>135</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H34" t="s">
-        <v>19</v>
-      </c>
-      <c r="I34" s="21">
-        <v>17053209898</v>
-      </c>
-      <c r="J34" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" t="s">
-        <v>136</v>
-      </c>
-      <c r="C35" t="s">
-        <v>137</v>
-      </c>
-      <c r="D35" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" t="s">
-        <v>138</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H35" t="s">
-        <v>19</v>
-      </c>
-      <c r="I35" s="21">
-        <v>14164002045</v>
-      </c>
-      <c r="J35" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>21</v>
-      </c>
-      <c r="B36" t="s">
-        <v>136</v>
-      </c>
-      <c r="C36" t="s">
-        <v>139</v>
-      </c>
-      <c r="D36" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" t="s">
-        <v>138</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H36" t="s">
-        <v>19</v>
-      </c>
-      <c r="I36" s="21">
-        <v>14164002883</v>
-      </c>
-      <c r="J36" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37" t="s">
-        <v>140</v>
-      </c>
-      <c r="C37" t="s">
-        <v>141</v>
-      </c>
-      <c r="D37" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H37" t="s">
-        <v>26</v>
-      </c>
-      <c r="I37" s="21">
-        <v>15193047465</v>
-      </c>
-      <c r="J37" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>80</v>
-      </c>
-      <c r="C38" t="s">
-        <v>143</v>
-      </c>
-      <c r="D38" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H38" t="s">
-        <v>15</v>
-      </c>
-      <c r="I38" s="21">
-        <v>15193157768</v>
-      </c>
-      <c r="J38" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" t="s">
-        <v>145</v>
-      </c>
-      <c r="C39" t="s">
-        <v>146</v>
-      </c>
-      <c r="D39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H39" t="s">
-        <v>15</v>
-      </c>
-      <c r="I39" s="21">
-        <v>15193077768</v>
-      </c>
-      <c r="J39" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>30</v>
-      </c>
-      <c r="B40" t="s">
-        <v>147</v>
-      </c>
-      <c r="C40" t="s">
-        <v>148</v>
-      </c>
-      <c r="D40" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="H40" t="s">
-        <v>19</v>
-      </c>
-      <c r="I40" s="21">
-        <v>19054519600</v>
-      </c>
-      <c r="J40" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" t="s">
-        <v>150</v>
-      </c>
-      <c r="C41" t="s">
-        <v>151</v>
-      </c>
-      <c r="D41" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="H41" t="s">
-        <v>26</v>
-      </c>
-      <c r="I41" s="21">
-        <v>19057272020</v>
-      </c>
-      <c r="J41" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="G42" s="10"/>
-      <c r="I42" s="22"/>
     </row>
   </sheetData>
-  <autoFilter ref="F1:J42" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="F1:J26" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/platform_scrapper/data/cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/cannabis_used_IDs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parsy\OneDrive\Desktop\DOT\cannabis-shops-scraping\platform_scrapper\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{E519580A-5EDF-4E02-83B0-BD51129F2E06}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{F93EE023-3C29-4005-888D-7671D2A3C0DB}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{E519580A-5EDF-4E02-83B0-BD51129F2E06}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{ADB2248E-23E7-4354-8D3C-826CF47C42FF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$J$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$J$18</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="94">
   <si>
     <t>Municipality or First Nation</t>
   </si>
@@ -112,30 +112,6 @@
     <t>AURORA</t>
   </si>
   <si>
-    <t>['Delivery', 'In-store shopping']</t>
-  </si>
-  <si>
-    <t>LONDON</t>
-  </si>
-  <si>
-    <t>CORNWALL</t>
-  </si>
-  <si>
-    <t>ORANGEVILLE</t>
-  </si>
-  <si>
-    <t>KANNABIS KING</t>
-  </si>
-  <si>
-    <t>1066 ADELAIDE ST N UNIT 4</t>
-  </si>
-  <si>
-    <t>http://kannabisking.ca/</t>
-  </si>
-  <si>
-    <t>YORK</t>
-  </si>
-  <si>
     <t>PICKERING</t>
   </si>
   <si>
@@ -175,9 +151,6 @@
     <t>UXBRIDGE</t>
   </si>
   <si>
-    <t>LINDSAY</t>
-  </si>
-  <si>
     <t>['Kerbside pickup', 'Delivery', 'In-store pick-up', 'In-store shopping']</t>
   </si>
   <si>
@@ -193,15 +166,6 @@
     <t>The Oz Store</t>
   </si>
   <si>
-    <t>Altered Nation Cannabis</t>
-  </si>
-  <si>
-    <t>218 BROADWAY</t>
-  </si>
-  <si>
-    <t>http://www.thealterednation.com/</t>
-  </si>
-  <si>
     <t>The Farm</t>
   </si>
   <si>
@@ -232,24 +196,6 @@
     <t>38A REXDALE BLVD UNIT 2</t>
   </si>
   <si>
-    <t>COSMIC GARDENS</t>
-  </si>
-  <si>
-    <t>6620 FINCH AVE W UNIT 16 &amp; 17</t>
-  </si>
-  <si>
-    <t>https://cosmicgardens.ca/</t>
-  </si>
-  <si>
-    <t>Gram Station</t>
-  </si>
-  <si>
-    <t>2 WENDOVER RD</t>
-  </si>
-  <si>
-    <t>https://gramstationcannabis.com/</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Miss Jones</t>
   </si>
   <si>
@@ -277,33 +223,12 @@
     <t>https://montrosecannabis.ca/</t>
   </si>
   <si>
-    <t>135 MONTREAL RD</t>
-  </si>
-  <si>
     <t>https://ozstore.ca/centretown/</t>
   </si>
   <si>
     <t>294 SOMERSET ST W</t>
   </si>
   <si>
-    <t>https://potpalace.cc/</t>
-  </si>
-  <si>
-    <t>POT PALACE CANNABIS COMPANY</t>
-  </si>
-  <si>
-    <t>553 ROGERS RD</t>
-  </si>
-  <si>
-    <t>https://shopkindling.ca/pages/kindling-cannabis-toronto-weed-delivery-dispensary-pickup?utm_source=terrayn_gbp&amp;utm_medium=organic&amp;utm_campaign=toronto</t>
-  </si>
-  <si>
-    <t>KINDLING CANNABIS</t>
-  </si>
-  <si>
-    <t>1567 DUNDAS ST W</t>
-  </si>
-  <si>
     <t xml:space="preserve">THC Centre Cannabis Inc. </t>
   </si>
   <si>
@@ -322,15 +247,6 @@
     <t>https://the4ssst.ca/</t>
   </si>
   <si>
-    <t>GreenLeaf Cannabis</t>
-  </si>
-  <si>
-    <t>351 KENT ST W UNIT 1</t>
-  </si>
-  <si>
-    <t>https://www.greenleafcannabis.me/</t>
-  </si>
-  <si>
     <t>THE WOODS CANNABIS</t>
   </si>
   <si>
@@ -347,18 +263,6 @@
   </si>
   <si>
     <t>https://www.thewoodscannabis.ca/aurora-cannabis-dispensary-delivery/</t>
-  </si>
-  <si>
-    <t>TERRACE BAY</t>
-  </si>
-  <si>
-    <t>My Cannabis</t>
-  </si>
-  <si>
-    <t>1002 HWY 17 UNIT 1</t>
-  </si>
-  <si>
-    <t>https://terracebaycannabis.com/shop/</t>
   </si>
   <si>
     <t>Custom</t>
@@ -901,10 +805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:C22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -962,7 +866,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>12</v>
@@ -973,22 +877,22 @@
         <v>19</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>21</v>
@@ -1006,25 +910,25 @@
     </row>
     <row r="3" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>17</v>
@@ -1041,22 +945,22 @@
         <v>27</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>22</v>
@@ -1073,19 +977,19 @@
         <v>19</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="G5" s="23"/>
       <c r="H5" s="21" t="s">
@@ -1103,103 +1007,103 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I6" s="19">
-        <v>15486909020</v>
+        <v>17059994420</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" t="s">
-        <v>39</v>
+        <v>26</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s">
         <v>17</v>
       </c>
       <c r="I7" s="19">
-        <v>17059994420</v>
+        <v>15139227020</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>56</v>
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
         <v>17</v>
       </c>
       <c r="I8" s="19">
-        <v>15199422828</v>
+        <v>13433980104</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>59</v>
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>122</v>
+      <c r="E9" t="s">
+        <v>55</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>16</v>
@@ -1208,36 +1112,36 @@
         <v>17</v>
       </c>
       <c r="I9" s="19">
-        <v>15139227020</v>
+        <v>14374101420</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" t="s">
-        <v>62</v>
+        <v>19</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s">
         <v>17</v>
       </c>
       <c r="I10" s="19">
-        <v>13433980104</v>
+        <v>14169779343</v>
       </c>
       <c r="J10" s="12" t="s">
         <v>15</v>
@@ -1245,28 +1149,28 @@
     </row>
     <row r="11" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
       </c>
-      <c r="E11" t="s">
-        <v>67</v>
+      <c r="E11" s="14" t="s">
+        <v>59</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="H11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I11" s="19">
-        <v>14374101420</v>
+        <v>17058814629</v>
       </c>
       <c r="J11" s="12" t="s">
         <v>24</v>
@@ -1276,55 +1180,55 @@
       <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>64</v>
+      <c r="B12" t="s">
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="H12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I12" s="19">
-        <v>14169779343</v>
+        <v>14165199159</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
       </c>
-      <c r="E13" t="s">
-        <v>71</v>
+      <c r="E13" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s">
         <v>17</v>
       </c>
       <c r="I13" s="19">
-        <v>14163951945</v>
+        <v>19052395300</v>
       </c>
       <c r="J13" s="12" t="s">
         <v>15</v>
@@ -1332,409 +1236,155 @@
     </row>
     <row r="14" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>16</v>
       </c>
       <c r="H14" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="I14" s="19">
-        <v>14162316003</v>
+        <v>16134222211</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="19">
+        <v>19054973131</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="20">
+        <v>17053449086</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" t="s">
         <v>75</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="H15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="19">
-        <v>17058814629</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="14" t="s">
+      <c r="F17" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="H16" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="19">
-        <v>14165199159</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>112</v>
       </c>
       <c r="H17" t="s">
         <v>17</v>
       </c>
       <c r="I17" s="19">
-        <v>19052395300</v>
+        <v>19054519600</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans